--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>守候幸福</t>
   </si>
@@ -363,6 +363,18 @@
   </si>
   <si>
     <t>西北，陈磊罚款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenghak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17*30-340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涛罚款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -880,19 +892,19 @@
       </c>
       <c r="B2" s="25">
         <f t="shared" ref="B2:I2" si="0">SUM(B9:B100)</f>
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="C2" s="19">
         <f t="shared" si="0"/>
-        <v>7230</v>
+        <v>7740</v>
       </c>
       <c r="D2" s="33">
         <f t="shared" si="0"/>
-        <v>1344.9999999999998</v>
+        <v>1514.9999999999998</v>
       </c>
       <c r="E2" s="19">
         <f t="shared" si="0"/>
-        <v>1104</v>
+        <v>1256.9999999999998</v>
       </c>
       <c r="F2" s="19">
         <f t="shared" si="0"/>
@@ -900,11 +912,11 @@
       </c>
       <c r="G2" s="33">
         <f t="shared" si="0"/>
-        <v>774.00000000000023</v>
+        <v>927.00000000000023</v>
       </c>
       <c r="H2" s="33">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I2" s="33">
         <f t="shared" si="0"/>
@@ -936,7 +948,7 @@
       </c>
       <c r="H4" s="24">
         <f>G2+H2</f>
-        <v>794.00000000000023</v>
+        <v>957.00000000000023</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -17399,26 +17411,26 @@
       </c>
       <c r="B10" s="1">
         <f>'201202'!B10+'201203'!B10+'201204'!B10+'201205'!B10+'201206'!B10+'201207'!B10+'201208'!B10+'201209'!B10+'201210'!B10+'201211'!B10+'201212'!B10</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="19">
         <f>'201202'!C10+'201203'!C10+'201204'!C10+'201205'!C10+'201206'!C10+'201207'!C10+'201208'!C10+'201209'!C10+'201210'!C10+'201211'!C10+'201212'!C10</f>
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="D10" s="19">
         <f>'201202'!D10+'201203'!D10+'201204'!D10+'201205'!D10+'201206'!D10+'201207'!D10+'201208'!D10+'201209'!D10+'201210'!D10+'201211'!D10+'201212'!D10</f>
-        <v>90.795787545787533</v>
+        <v>100.79578754578753</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="1"/>
-        <v>74.795787545787533</v>
+        <v>83.795787545787533</v>
       </c>
       <c r="F10" s="19">
         <v>30</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="2"/>
-        <v>44.795787545787533</v>
+        <v>53.795787545787533</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="1"/>
@@ -17430,26 +17442,26 @@
       </c>
       <c r="B11" s="1">
         <f>'201202'!B11+'201203'!B11+'201204'!B11+'201205'!B11+'201206'!B11+'201207'!B11+'201208'!B11+'201209'!B11+'201210'!B11+'201211'!B11+'201212'!B11</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="19">
         <f>'201202'!C11+'201203'!C11+'201204'!C11+'201205'!C11+'201206'!C11+'201207'!C11+'201208'!C11+'201209'!C11+'201210'!C11+'201211'!C11+'201212'!C11</f>
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="D11" s="19">
         <f>'201202'!D11+'201203'!D11+'201204'!D11+'201205'!D11+'201206'!D11+'201207'!D11+'201208'!D11+'201209'!D11+'201210'!D11+'201211'!D11+'201212'!D11</f>
-        <v>89.449633699633694</v>
+        <v>99.449633699633694</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" si="1"/>
-        <v>73.449633699633694</v>
+        <v>82.449633699633694</v>
       </c>
       <c r="F11" s="19">
         <v>30</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" si="2"/>
-        <v>43.449633699633694</v>
+        <v>52.449633699633694</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="1"/>
@@ -17490,26 +17502,26 @@
       </c>
       <c r="B13" s="1">
         <f>'201202'!B13+'201203'!B13+'201204'!B13+'201205'!B13+'201206'!B13+'201207'!B13+'201208'!B13+'201209'!B13+'201210'!B13+'201211'!B13+'201212'!B13</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="19">
         <f>'201202'!C13+'201203'!C13+'201204'!C13+'201205'!C13+'201206'!C13+'201207'!C13+'201208'!C13+'201209'!C13+'201210'!C13+'201211'!C13+'201212'!C13</f>
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="D13" s="19">
         <f>'201202'!D13+'201203'!D13+'201204'!D13+'201205'!D13+'201206'!D13+'201207'!D13+'201208'!D13+'201209'!D13+'201210'!D13+'201211'!D13+'201212'!D13</f>
-        <v>61.29578754578754</v>
+        <v>71.295787545787533</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="1"/>
-        <v>49.29578754578754</v>
+        <v>58.295787545787533</v>
       </c>
       <c r="F13" s="19">
         <v>30</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" si="2"/>
-        <v>19.29578754578754</v>
+        <v>28.295787545787533</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="1"/>
@@ -17521,26 +17533,26 @@
       </c>
       <c r="B14" s="1">
         <f>'201202'!B14+'201203'!B14+'201204'!B14+'201205'!B14+'201206'!B14+'201207'!B14+'201208'!B14+'201209'!B14+'201210'!B14+'201211'!B14+'201212'!B14</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="19">
         <f>'201202'!C14+'201203'!C14+'201204'!C14+'201205'!C14+'201206'!C14+'201207'!C14+'201208'!C14+'201209'!C14+'201210'!C14+'201211'!C14+'201212'!C14</f>
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="D14" s="19">
         <f>'201202'!D14+'201203'!D14+'201204'!D14+'201205'!D14+'201206'!D14+'201207'!D14+'201208'!D14+'201209'!D14+'201210'!D14+'201211'!D14+'201212'!D14</f>
-        <v>91.565018315018307</v>
+        <v>101.56501831501831</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="1"/>
-        <v>74.565018315018307</v>
+        <v>83.565018315018307</v>
       </c>
       <c r="F14" s="19">
         <v>30</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" si="2"/>
-        <v>44.565018315018307</v>
+        <v>53.565018315018307</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="1">
@@ -17614,24 +17626,24 @@
       </c>
       <c r="B17" s="1">
         <f>'201202'!B17+'201203'!B17+'201204'!B17+'201205'!B17+'201206'!B17+'201207'!B17+'201208'!B17+'201209'!B17+'201210'!B17+'201211'!B17+'201212'!B17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="19">
         <f>'201202'!C17+'201203'!C17+'201204'!C17+'201205'!C17+'201206'!C17+'201207'!C17+'201208'!C17+'201209'!C17+'201210'!C17+'201211'!C17+'201212'!C17</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D17" s="19">
         <f>'201202'!D17+'201203'!D17+'201204'!D17+'201205'!D17+'201206'!D17+'201207'!D17+'201208'!D17+'201209'!D17+'201210'!D17+'201211'!D17+'201212'!D17</f>
-        <v>9.560439560439562</v>
+        <v>19.560439560439562</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" si="1"/>
-        <v>7.560439560439562</v>
+        <v>16.560439560439562</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19">
         <f t="shared" si="2"/>
-        <v>7.560439560439562</v>
+        <v>16.560439560439562</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="1"/>
@@ -17672,26 +17684,26 @@
       </c>
       <c r="B19" s="1">
         <f>'201202'!B19+'201203'!B19+'201204'!B19+'201205'!B19+'201206'!B19+'201207'!B19+'201208'!B19+'201209'!B19+'201210'!B19+'201211'!B19+'201212'!B19</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="19">
         <f>'201202'!C19+'201203'!C19+'201204'!C19+'201205'!C19+'201206'!C19+'201207'!C19+'201208'!C19+'201209'!C19+'201210'!C19+'201211'!C19+'201212'!C19</f>
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="D19" s="19">
         <f>'201202'!D19+'201203'!D19+'201204'!D19+'201205'!D19+'201206'!D19+'201207'!D19+'201208'!D19+'201209'!D19+'201210'!D19+'201211'!D19+'201212'!D19</f>
-        <v>58.048534798534796</v>
+        <v>68.048534798534803</v>
       </c>
       <c r="E19" s="19">
         <f t="shared" si="1"/>
-        <v>46.048534798534796</v>
+        <v>55.048534798534803</v>
       </c>
       <c r="F19" s="19">
         <v>30</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" si="2"/>
-        <v>16.048534798534796</v>
+        <v>25.048534798534803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="1"/>
@@ -17763,24 +17775,24 @@
       </c>
       <c r="B22" s="1">
         <f>'201202'!B22+'201203'!B22+'201204'!B22+'201205'!B22+'201206'!B22+'201207'!B22+'201208'!B22+'201209'!B22+'201210'!B22+'201211'!B22+'201212'!B22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="19">
         <f>'201202'!C22+'201203'!C22+'201204'!C22+'201205'!C22+'201206'!C22+'201207'!C22+'201208'!C22+'201209'!C22+'201210'!C22+'201211'!C22+'201212'!C22</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D22" s="19">
         <f>'201202'!D22+'201203'!D22+'201204'!D22+'201205'!D22+'201206'!D22+'201207'!D22+'201208'!D22+'201209'!D22+'201210'!D22+'201211'!D22+'201212'!D22</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="1"/>
@@ -17823,26 +17835,28 @@
       </c>
       <c r="B24" s="1">
         <f>'201202'!B24+'201203'!B24+'201204'!B24+'201205'!B24+'201206'!B24+'201207'!B24+'201208'!B24+'201209'!B24+'201210'!B24+'201211'!B24+'201212'!B24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="19">
         <f>'201202'!C24+'201203'!C24+'201204'!C24+'201205'!C24+'201206'!C24+'201207'!C24+'201208'!C24+'201209'!C24+'201210'!C24+'201211'!C24+'201212'!C24</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D24" s="19">
         <f>'201202'!D24+'201203'!D24+'201204'!D24+'201205'!D24+'201206'!D24+'201207'!D24+'201208'!D24+'201209'!D24+'201210'!D24+'201211'!D24+'201212'!D24</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H24" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="H24" s="19">
+        <v>10</v>
+      </c>
       <c r="I24" s="1">
         <v>1</v>
       </c>
@@ -17914,26 +17928,26 @@
       </c>
       <c r="B27" s="1">
         <f>'201202'!B27+'201203'!B27+'201204'!B27+'201205'!B27+'201206'!B27+'201207'!B27+'201208'!B27+'201209'!B27+'201210'!B27+'201211'!B27+'201212'!B27</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="19">
         <f>'201202'!C27+'201203'!C27+'201204'!C27+'201205'!C27+'201206'!C27+'201207'!C27+'201208'!C27+'201209'!C27+'201210'!C27+'201211'!C27+'201212'!C27</f>
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="D27" s="19">
         <f>'201202'!D27+'201203'!D27+'201204'!D27+'201205'!D27+'201206'!D27+'201207'!D27+'201208'!D27+'201209'!D27+'201210'!D27+'201211'!D27+'201212'!D27</f>
-        <v>93.295787545787533</v>
+        <v>103.29578754578753</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" si="1"/>
-        <v>76.295787545787533</v>
+        <v>85.295787545787533</v>
       </c>
       <c r="F27" s="19">
         <v>30</v>
       </c>
       <c r="G27" s="19">
         <f t="shared" si="2"/>
-        <v>46.295787545787533</v>
+        <v>55.295787545787533</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="1"/>
@@ -17945,24 +17959,24 @@
       </c>
       <c r="B28" s="1">
         <f>'201202'!B28+'201203'!B28+'201204'!B28+'201205'!B28+'201206'!B28+'201207'!B28+'201208'!B28+'201209'!B28+'201210'!B28+'201211'!B28+'201212'!B28</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="19">
         <f>'201202'!C28+'201203'!C28+'201204'!C28+'201205'!C28+'201206'!C28+'201207'!C28+'201208'!C28+'201209'!C28+'201210'!C28+'201211'!C28+'201212'!C28</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D28" s="19">
         <f>'201202'!D28+'201203'!D28+'201204'!D28+'201205'!D28+'201206'!D28+'201207'!D28+'201208'!D28+'201209'!D28+'201210'!D28+'201211'!D28+'201212'!D28</f>
-        <v>18.928571428571427</v>
+        <v>28.928571428571427</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="1"/>
-        <v>15.928571428571427</v>
+        <v>24.928571428571427</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19">
         <f t="shared" si="2"/>
-        <v>15.928571428571427</v>
+        <v>24.928571428571427</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="1"/>
@@ -17974,51 +17988,53 @@
       </c>
       <c r="B29" s="1">
         <f>'201202'!B29+'201203'!B29+'201204'!B29+'201205'!B29+'201206'!B29+'201207'!B29+'201208'!B29+'201209'!B29+'201210'!B29+'201211'!B29+'201212'!B29</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="19">
         <f>'201202'!C29+'201203'!C29+'201204'!C29+'201205'!C29+'201206'!C29+'201207'!C29+'201208'!C29+'201209'!C29+'201210'!C29+'201211'!C29+'201212'!C29</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D29" s="19">
         <f>'201202'!D29+'201203'!D29+'201204'!D29+'201205'!D29+'201206'!D29+'201207'!D29+'201208'!D29+'201209'!D29+'201210'!D29+'201211'!D29+'201212'!D29</f>
-        <v>15.714285714285715</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="E29" s="19">
         <f t="shared" si="1"/>
-        <v>13.714285714285715</v>
+        <v>22.714285714285715</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19">
         <f t="shared" si="2"/>
-        <v>13.714285714285715</v>
+        <v>22.714285714285715</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="9"/>
+      <c r="A30" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="B30" s="1">
         <f>'201202'!B30+'201203'!B30+'201204'!B30+'201205'!B30+'201206'!B30+'201207'!B30+'201208'!B30+'201209'!B30+'201210'!B30+'201211'!B30+'201212'!B30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="19">
         <f>'201202'!C30+'201203'!C30+'201204'!C30+'201205'!C30+'201206'!C30+'201207'!C30+'201208'!C30+'201209'!C30+'201210'!C30+'201211'!C30+'201212'!C30</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D30" s="19">
         <f>'201202'!D30+'201203'!D30+'201204'!D30+'201205'!D30+'201206'!D30+'201207'!D30+'201208'!D30+'201209'!D30+'201210'!D30+'201211'!D30+'201212'!D30</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E30" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="1"/>
@@ -18318,24 +18334,24 @@
       </c>
       <c r="B41" s="1">
         <f>'201202'!B41+'201203'!B41+'201204'!B41+'201205'!B41+'201206'!B41+'201207'!B41+'201208'!B41+'201209'!B41+'201210'!B41+'201211'!B41+'201212'!B41</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="19">
         <f>'201202'!C41+'201203'!C41+'201204'!C41+'201205'!C41+'201206'!C41+'201207'!C41+'201208'!C41+'201209'!C41+'201210'!C41+'201211'!C41+'201212'!C41</f>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D41" s="19">
         <f>'201202'!D41+'201203'!D41+'201204'!D41+'201205'!D41+'201206'!D41+'201207'!D41+'201208'!D41+'201209'!D41+'201210'!D41+'201211'!D41+'201212'!D41</f>
-        <v>23.214285714285712</v>
+        <v>33.214285714285708</v>
       </c>
       <c r="E41" s="19">
         <f t="shared" ref="E41:E57" si="3">D41-B41</f>
-        <v>19.214285714285712</v>
+        <v>28.214285714285708</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="19">
         <f t="shared" ref="G41:G57" si="4">E41-F41</f>
-        <v>19.214285714285712</v>
+        <v>28.214285714285708</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="1">
@@ -18378,24 +18394,24 @@
       </c>
       <c r="B43" s="1">
         <f>'201202'!B43+'201203'!B43+'201204'!B43+'201205'!B43+'201206'!B43+'201207'!B43+'201208'!B43+'201209'!B43+'201210'!B43+'201211'!B43+'201212'!B43</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" s="19">
         <f>'201202'!C43+'201203'!C43+'201204'!C43+'201205'!C43+'201206'!C43+'201207'!C43+'201208'!C43+'201209'!C43+'201210'!C43+'201211'!C43+'201212'!C43</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D43" s="19">
         <f>'201202'!D43+'201203'!D43+'201204'!D43+'201205'!D43+'201206'!D43+'201207'!D43+'201208'!D43+'201209'!D43+'201210'!D43+'201211'!D43+'201212'!D43</f>
-        <v>17.802197802197799</v>
+        <v>27.802197802197799</v>
       </c>
       <c r="E43" s="19">
         <f t="shared" si="3"/>
-        <v>14.802197802197799</v>
+        <v>23.802197802197799</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19">
         <f t="shared" si="4"/>
-        <v>14.802197802197799</v>
+        <v>23.802197802197799</v>
       </c>
       <c r="H43" s="19">
         <v>10</v>
@@ -18471,24 +18487,24 @@
       </c>
       <c r="B46" s="1">
         <f>'201202'!B46+'201203'!B46+'201204'!B46+'201205'!B46+'201206'!B46+'201207'!B46+'201208'!B46+'201209'!B46+'201210'!B46+'201211'!B46+'201212'!B46</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46" s="19">
         <f>'201202'!C46+'201203'!C46+'201204'!C46+'201205'!C46+'201206'!C46+'201207'!C46+'201208'!C46+'201209'!C46+'201210'!C46+'201211'!C46+'201212'!C46</f>
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="D46" s="19">
         <f>'201202'!D46+'201203'!D46+'201204'!D46+'201205'!D46+'201206'!D46+'201207'!D46+'201208'!D46+'201209'!D46+'201210'!D46+'201211'!D46+'201212'!D46</f>
-        <v>51.647435897435898</v>
+        <v>61.647435897435898</v>
       </c>
       <c r="E46" s="19">
         <f t="shared" si="3"/>
-        <v>42.647435897435898</v>
+        <v>51.647435897435898</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19">
         <f t="shared" si="4"/>
-        <v>42.647435897435898</v>
+        <v>51.647435897435898</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="1"/>
@@ -18554,26 +18570,26 @@
       </c>
       <c r="B49" s="1">
         <f>'201202'!B49+'201203'!B49+'201204'!B49+'201205'!B49+'201206'!B49+'201207'!B49+'201208'!B49+'201209'!B49+'201210'!B49+'201211'!B49+'201212'!B49</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" s="19">
         <f>'201202'!C49+'201203'!C49+'201204'!C49+'201205'!C49+'201206'!C49+'201207'!C49+'201208'!C49+'201209'!C49+'201210'!C49+'201211'!C49+'201212'!C49</f>
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="D49" s="19">
         <f>'201202'!D49+'201203'!D49+'201204'!D49+'201205'!D49+'201206'!D49+'201207'!D49+'201208'!D49+'201209'!D49+'201210'!D49+'201211'!D49+'201212'!D49</f>
-        <v>67.779304029304029</v>
+        <v>77.779304029304029</v>
       </c>
       <c r="E49" s="19">
         <f t="shared" si="3"/>
-        <v>55.779304029304029</v>
+        <v>64.779304029304029</v>
       </c>
       <c r="F49" s="19">
         <v>30</v>
       </c>
       <c r="G49" s="19">
         <f t="shared" si="4"/>
-        <v>25.779304029304029</v>
+        <v>34.779304029304029</v>
       </c>
       <c r="H49" s="19">
         <v>10</v>
@@ -18763,24 +18779,24 @@
       </c>
       <c r="B56" s="1">
         <f>'201202'!B56+'201203'!B56+'201204'!B56+'201205'!B56+'201206'!B56+'201207'!B56+'201208'!B56+'201209'!B56+'201210'!B56+'201211'!B56+'201212'!B56</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" s="19">
         <f>'201202'!C56+'201203'!C56+'201204'!C56+'201205'!C56+'201206'!C56+'201207'!C56+'201208'!C56+'201209'!C56+'201210'!C56+'201211'!C56+'201212'!C56</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D56" s="19">
         <f>'201202'!D56+'201203'!D56+'201204'!D56+'201205'!D56+'201206'!D56+'201207'!D56+'201208'!D56+'201209'!D56+'201210'!D56+'201211'!D56+'201212'!D56</f>
-        <v>11.923076923076923</v>
+        <v>21.923076923076923</v>
       </c>
       <c r="E56" s="19">
         <f t="shared" si="3"/>
-        <v>8.9230769230769234</v>
+        <v>17.923076923076923</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19">
         <f t="shared" si="4"/>
-        <v>8.9230769230769234</v>
+        <v>17.923076923076923</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="1"/>
@@ -19437,10 +19453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19869,23 +19885,38 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="10"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="15">
+        <v>41011</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>170</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="1"/>
+      <c r="A28" s="15">
+        <v>41011</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C28" s="1">
-        <f>SUM(C2:C27)</f>
-        <v>955</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="10"/>
@@ -19895,9 +19926,14 @@
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="10"/>
+      <c r="A30" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <f>SUM(C2:C29)</f>
+        <v>1135</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
@@ -19914,6 +19950,20 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="10"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21085,9 +21135,9 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="11">
+      <c r="A30" s="11" t="str">
         <f>member!A30</f>
-        <v>0</v>
+        <v>Shenghak</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="5"/>
@@ -24106,9 +24156,9 @@
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="11">
+      <c r="A30" s="11" t="str">
         <f>member!A30</f>
-        <v>0</v>
+        <v>Shenghak</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="25"/>
@@ -25064,14 +25114,15 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25093,9 +25144,11 @@
         <v>41004</v>
       </c>
       <c r="G1" s="5">
-        <v>41004</v>
-      </c>
-      <c r="H1" s="5"/>
+        <v>41009</v>
+      </c>
+      <c r="H1" s="5">
+        <v>41011</v>
+      </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -25109,7 +25162,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(B9:B100)</f>
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="17"/>
@@ -25122,10 +25175,13 @@
         <v>14</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2" si="1">COUNT(G9:G100)</f>
+        <f t="shared" ref="G2:H2" si="1">COUNT(G9:G100)</f>
         <v>17</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -25149,7 +25205,9 @@
       <c r="G3" s="21">
         <v>340</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="21">
+        <v>340</v>
+      </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -25164,7 +25222,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="12">
         <f>SUM(E4:T4)</f>
-        <v>1230</v>
+        <v>1740</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="21">
@@ -25176,10 +25234,13 @@
         <v>420</v>
       </c>
       <c r="G4" s="21">
-        <f t="shared" ref="G4" si="3">G2*G7</f>
+        <f t="shared" ref="G4:H4" si="3">G2*G7</f>
         <v>510</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="21">
+        <f t="shared" si="3"/>
+        <v>510</v>
+      </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
@@ -25195,7 +25256,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="17">
         <f>SUM(E5:T5)</f>
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="E5" s="21">
         <f t="shared" ref="E5:F5" si="4">E4-E3</f>
@@ -25206,10 +25267,13 @@
         <v>80</v>
       </c>
       <c r="G5" s="21">
-        <f t="shared" ref="G5" si="5">G4-G3</f>
+        <f t="shared" ref="G5:H5" si="5">G4-G3</f>
         <v>170</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="21">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
@@ -25233,10 +25297,13 @@
         <v>24.285714285714285</v>
       </c>
       <c r="G6" s="21">
-        <f t="shared" ref="G6" si="7">G3/G2</f>
+        <f t="shared" ref="G6:H6" si="7">G3/G2</f>
         <v>20</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="21">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -25260,7 +25327,9 @@
       <c r="G7" s="21">
         <v>30</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="21">
+        <v>30</v>
+      </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
@@ -25284,10 +25353,13 @@
         <v>5.7142857142857153</v>
       </c>
       <c r="G8" s="21">
-        <f t="shared" ref="G8" si="9">G7-G6</f>
+        <f t="shared" ref="G8:H8" si="9">G7-G6</f>
         <v>10</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="21">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
@@ -25330,15 +25402,15 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
         <f>E7*E10+F7*F10+G7*G10+H7*H10+I7*I10+J7*J10+K7*K10+L7*L10+M7*M10+O7*O10+P7*P10+Q7*Q10+R7*R10+S7*S10+T7*T10</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D10" s="19">
         <f>E8*E10+F8*F10+G8*G10+H8*H10+I8*I10+J8*J10+K8*K10+L8*L10+M8*M10+O8*O10+P8*P10+Q8*Q10+R8*R10+S8*S10+T8*T10</f>
-        <v>17.714285714285715</v>
+        <v>27.714285714285715</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -25349,7 +25421,9 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -25364,15 +25438,15 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
         <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D11" s="19">
         <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
-        <v>17.714285714285715</v>
+        <v>27.714285714285715</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -25383,7 +25457,9 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -25426,15 +25502,15 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
         <f>E7*E13+F7*F13+G7*G13+H7*H13+I7*I13+J7*J13+K7*K13+L7*L13+M7*M13+O7*O13+P7*P13+Q7*Q13+R7*R13+S7*S13+T7*T13</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D13" s="19">
         <f>E8*E13+F8*F13+G8*G13+H8*H13+I8*I13+J8*J13+K8*K13+L8*L13+M8*M13+O8*O13+P8*P13+Q8*Q13+R8*R13+S8*S13+T8*T13</f>
-        <v>15.714285714285715</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
@@ -25443,7 +25519,9 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -25458,15 +25536,15 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
         <f>E7*E14+F7*F14+G7*G14+H7*H14+I7*I14+J7*J14+K7*K14+L7*L14+M7*M14+O7*O14+P7*P14+Q7*Q14+R7*R14+S7*S14+T7*T14</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D14" s="19">
         <f>E8*E14+F8*F14+G8*G14+H8*H14+I8*I14+J8*J14+K8*K14+L8*L14+M8*M14+O8*O14+P8*P14+Q8*Q14+R8*R14+S8*S14+T8*T14</f>
-        <v>17.714285714285715</v>
+        <v>27.714285714285715</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -25477,7 +25555,9 @@
       <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -25548,22 +25628,24 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
         <f>E7*E17+F7*F17+G7*G17+H7*H17+I7*I17+J7*J17+K7*K17+L7*L17+M7*M17+O7*O17+P7*P17+Q7*Q17+R7*R17+S7*S17+T7*T17</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D17" s="19">
         <f>E8*E17+F8*F17+G8*G17+H8*H17+I8*I17+J8*J17+K8*K17+L8*L17+M8*M17+O8*O17+P8*P17+Q8*Q17+R8*R17+S8*S17+T8*T17</f>
-        <v>5.7142857142857153</v>
+        <v>15.714285714285715</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -25608,15 +25690,15 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
         <f>E7*E19+F7*F19+G7*G19+H7*H19+I7*I19+J7*J19+K7*K19+L7*L19+M7*M19+O7*O19+P7*P19+Q7*Q19+R7*R19+S7*S19+T7*T19</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D19" s="19">
         <f>E8*E19+F8*F19+G8*G19+H8*H19+I8*I19+J8*J19+K8*K19+L8*L19+M8*M19+O8*O19+P8*P19+Q8*Q19+R8*R19+S8*S19+T8*T19</f>
-        <v>17.714285714285715</v>
+        <v>27.714285714285715</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -25627,7 +25709,9 @@
       <c r="G19" s="2">
         <v>1</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -25700,15 +25784,15 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2">
         <f>E7*E22+F7*F22+G7*G22+H7*H22+I7*I22+J7*J22+K7*K22+L7*L22+M7*M22+O7*O22+P7*P22+Q7*Q22+R7*R22+S7*S22+T7*T22</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D22" s="19">
         <f>E8*E22+F8*F22+G8*G22+H8*H22+I8*I22+J8*J22+K8*K22+L8*L22+M8*M22+O8*O22+P8*P22+Q8*Q22+R8*R22+S8*S22+T8*T22</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -25717,7 +25801,9 @@
       <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -25762,22 +25848,24 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2">
         <f>E7*E24+F7*F24+G7*G24+H7*H24+I7*I24+J7*J24+K7*K24+L7*L24+M7*M24+O7*O24+P7*P24+Q7*Q24+R7*R24+S7*S24+T7*T24</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D24" s="19">
         <f>E8*E24+F8*F24+G8*G24+H8*H24+I8*I24+J8*J24+K8*K24+L8*L24+M8*M24+O8*O24+P8*P24+Q8*Q24+R8*R24+S8*S24+T8*T24</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -25854,15 +25942,15 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
         <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D27" s="19">
         <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
-        <v>17.714285714285715</v>
+        <v>27.714285714285715</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -25873,7 +25961,9 @@
       <c r="G27" s="2">
         <v>1</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -25888,22 +25978,24 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2">
         <f>E7*E28+F7*F28+G7*G28+H7*H28+I7*I28+J7*J28+K7*K28+L7*L28+M7*M28+O7*O28+P7*P28+Q7*Q28+R7*R28+S7*S28+T7*T28</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D28" s="19">
         <f>E8*E28+F8*F28+G8*G28+H8*H28+I8*I28+J8*J28+K8*K28+L8*L28+M8*M28+O8*O28+P8*P28+Q8*Q28+R8*R28+S8*S28+T8*T28</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
         <v>1</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -25918,15 +26010,15 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="2">
         <f>E7*E29+F7*F29+G7*G29+H7*H29+I7*I29+J7*J29+K7*K29+L7*L29+M7*M29+O7*O29+P7*P29+Q7*Q29+R7*R29+S7*S29+T7*T29</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D29" s="19">
         <f>E8*E29+F8*F29+G8*G29+H8*H29+I8*I29+J8*J29+K8*K29+L8*L29+M8*M29+O8*O29+P8*P29+Q8*Q29+R8*R29+S8*S29+T8*T29</f>
-        <v>15.714285714285715</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2">
@@ -25935,7 +26027,9 @@
       <c r="G29" s="2">
         <v>1</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -25944,26 +26038,28 @@
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="11">
+      <c r="A30" s="11" t="str">
         <f>member!A30</f>
-        <v>0</v>
+        <v>Shenghak</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2">
         <f>E7*E30+F7*F30+G7*G30+H7*H30+I7*I30+J7*J30+K7*K30+L7*L30+M7*M30+O7*O30+P7*P30+Q7*Q30+R7*R30+S7*S30+T7*T30</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D30" s="19">
         <f>E8*E30+F8*F30+G8*G30+H8*H30+I8*I30+J8*J30+K8*K30+L8*L30+M8*M30+O8*O30+P8*P30+Q8*Q30+R8*R30+S8*S30+T8*T30</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -26264,20 +26360,22 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" ref="B41:B57" si="11">COUNT(E41:T41)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="2">
         <f>E7*E41+F7*F41+G7*G41+H7*H41+I7*I41+J7*J41+K7*K41+L7*L41+M7*M41+O7*O41+P7*P41+Q7*Q41+R7*R41+S7*S41+T7*T41</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D41" s="19">
         <f>E8*E41+F8*F41+G8*G41+H8*H41+I8*I41+J8*J41+K8*K41+L8*L41+M8*M41+O8*O41+P8*P41+Q8*Q41+R8*R41+S8*S41+T8*T41</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -26320,20 +26418,22 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2">
         <f>E7*E43+F7*F43+G7*G43+H7*H43+I7*I43+J7*J43+K7*K43+L7*L43+M7*M43+O7*O43+P7*P43+Q7*Q43+R7*R43+S7*S43+T7*T43</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D43" s="19">
         <f>E8*E43+F8*F43+G8*G43+H8*H43+I8*I43+J8*J43+K8*K43+L8*L43+M8*M43+O8*O43+P8*P43+Q8*Q43+R8*R43+S8*S43+T8*T43</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -26404,15 +26504,15 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2">
         <f>E7*E46+F7*F46+G7*G46+H7*H46+I7*I46+J7*J46+K7*K46+L7*L46+M7*M46+O7*O46+P7*P46+Q7*Q46+R7*R46+S7*S46+T7*T46</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D46" s="19">
         <f>E8*E46+F8*F46+G8*G46+H8*H46+I8*I46+J8*J46+K8*K46+L8*L46+M8*M46+O8*O46+P8*P46+Q8*Q46+R8*R46+S8*S46+T8*T46</f>
-        <v>17.714285714285715</v>
+        <v>27.714285714285715</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
@@ -26423,7 +26523,9 @@
       <c r="G46" s="2">
         <v>1</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -26494,15 +26596,15 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2">
         <f>E7*E49+F7*F49+G7*G49+H7*H49+I7*I49+J7*J49+K7*K49+L7*L49+M7*M49+O7*O49+P7*P49+Q7*Q49+R7*R49+S7*S49+T7*T49</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D49" s="19">
         <f>E8*E49+F8*F49+G8*G49+H8*H49+I8*I49+J8*J49+K8*K49+L8*L49+M8*M49+O8*O49+P8*P49+Q8*Q49+R8*R49+S8*S49+T8*T49</f>
-        <v>15.714285714285715</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2">
@@ -26511,7 +26613,9 @@
       <c r="G49" s="2">
         <v>1</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -26700,20 +26804,22 @@
       </c>
       <c r="B56" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="2">
         <f>E7*E56+F7*F56+G7*G56+H7*H56+I7*I56+J7*J56+K7*K56+L7*L56+M7*M56+O7*O56+P7*P56+Q7*Q56+R7*R56+S7*S56+T7*T56</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D56" s="19">
         <f>E8*E56+F8*F56+G8*G56+H8*H56+I8*I56+J8*J56+K8*K56+L8*L56+M8*M56+O8*O56+P8*P56+Q8*Q56+R8*R56+S8*S56+T8*T56</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="93">
   <si>
     <t>守候幸福</t>
   </si>
@@ -375,6 +375,10 @@
   </si>
   <si>
     <t>涛罚款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退陈磊30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFC101"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -908,11 +912,11 @@
       </c>
       <c r="F2" s="19">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="G2" s="33">
         <f t="shared" si="0"/>
-        <v>927.00000000000023</v>
+        <v>897.00000000000023</v>
       </c>
       <c r="H2" s="33">
         <f t="shared" si="0"/>
@@ -948,7 +952,7 @@
       </c>
       <c r="H4" s="24">
         <f>G2+H2</f>
-        <v>957.00000000000023</v>
+        <v>927.00000000000023</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -18585,11 +18589,11 @@
         <v>64.779304029304029</v>
       </c>
       <c r="F49" s="19">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G49" s="19">
         <f t="shared" si="4"/>
-        <v>34.779304029304029</v>
+        <v>4.7793040293040292</v>
       </c>
       <c r="H49" s="19">
         <v>10</v>
@@ -19453,10 +19457,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19919,28 +19923,38 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="10"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="15">
+        <v>41011</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-30</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="A30" s="10"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1">
-        <f>SUM(C2:C29)</f>
-        <v>1135</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="10"/>
+      <c r="A31" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <f>SUM(C2:C30)</f>
+        <v>1105</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
@@ -19964,6 +19978,13 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="10"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="201211" sheetId="11" r:id="rId12"/>
     <sheet name="201212" sheetId="12" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
   <si>
     <t>守候幸福</t>
   </si>
@@ -381,16 +381,52 @@
     <t>退陈磊30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>微笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19*30-340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退虫、sam、超各30,刀60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拂晓朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18×30－320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Violin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +588,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -630,6 +671,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -664,6 +706,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -839,14 +882,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
@@ -860,7 +903,7 @@
     <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16383" ht="40.5">
+    <row r="1" spans="1:16383" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="26"/>
       <c r="B1" s="29" t="s">
         <v>61</v>
@@ -890,33 +933,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:16383">
+    <row r="2" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A2" s="34" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="25">
         <f t="shared" ref="B2:I2" si="0">SUM(B9:B100)</f>
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="C2" s="19">
         <f t="shared" si="0"/>
-        <v>7740</v>
+        <v>9390</v>
       </c>
       <c r="D2" s="33">
         <f t="shared" si="0"/>
-        <v>1514.9999999999998</v>
+        <v>2140</v>
       </c>
       <c r="E2" s="19">
         <f t="shared" si="0"/>
-        <v>1256.9999999999998</v>
+        <v>1827</v>
       </c>
       <c r="F2" s="19">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>510</v>
       </c>
       <c r="G2" s="33">
         <f t="shared" si="0"/>
-        <v>897.00000000000023</v>
+        <v>1316.9999999999995</v>
       </c>
       <c r="H2" s="33">
         <f t="shared" si="0"/>
@@ -928,7 +971,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:16383">
+    <row r="3" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
       <c r="B3" s="1"/>
       <c r="C3" s="19"/>
@@ -940,7 +983,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:16383">
+    <row r="4" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
       <c r="B4" s="1"/>
       <c r="C4" s="19"/>
@@ -952,12 +995,12 @@
       </c>
       <c r="H4" s="24">
         <f>G2+H2</f>
-        <v>927.00000000000023</v>
+        <v>1346.9999999999995</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:16383">
+    <row r="5" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="1"/>
       <c r="C5" s="19"/>
@@ -969,7 +1012,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:16383">
+    <row r="6" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="1"/>
       <c r="C6" s="19"/>
@@ -981,7 +1024,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:16383">
+    <row r="7" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="1"/>
       <c r="C7" s="19"/>
@@ -993,7 +1036,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:16383">
+    <row r="8" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
       <c r="C8" s="18"/>
@@ -17378,100 +17421,100 @@
       <c r="XFB8" s="14"/>
       <c r="XFC8" s="14"/>
     </row>
-    <row r="9" spans="1:16383">
+    <row r="9" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1">
         <f>'201202'!B9+'201203'!B9+'201204'!B9+'201205'!B9+'201206'!B9+'201207'!B9+'201208'!B9+'201209'!B9+'201210'!B9+'201211'!B9+'201212'!B9</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="19">
         <f>'201202'!C9+'201203'!C9+'201204'!C9+'201205'!C9+'201206'!C9+'201207'!C9+'201208'!C9+'201209'!C9+'201210'!C9+'201211'!C9+'201212'!C9</f>
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D9" s="19">
         <f>'201202'!D9+'201203'!D9+'201204'!D9+'201205'!D9+'201206'!D9+'201207'!D9+'201208'!D9+'201209'!D9+'201210'!D9+'201211'!D9+'201212'!D9</f>
-        <v>41.456043956043949</v>
+        <v>52.289377289377285</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" ref="E9:E40" si="1">D9-B9</f>
-        <v>34.456043956043949</v>
+        <v>44.289377289377285</v>
       </c>
       <c r="F9" s="19">
         <v>30</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" ref="G9:G40" si="2">E9-F9</f>
-        <v>4.4560439560439491</v>
+        <v>14.289377289377285</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:16383">
+    <row r="10" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1">
         <f>'201202'!B10+'201203'!B10+'201204'!B10+'201205'!B10+'201206'!B10+'201207'!B10+'201208'!B10+'201209'!B10+'201210'!B10+'201211'!B10+'201212'!B10</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" s="19">
         <f>'201202'!C10+'201203'!C10+'201204'!C10+'201205'!C10+'201206'!C10+'201207'!C10+'201208'!C10+'201209'!C10+'201210'!C10+'201211'!C10+'201212'!C10</f>
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="D10" s="19">
         <f>'201202'!D10+'201203'!D10+'201204'!D10+'201205'!D10+'201206'!D10+'201207'!D10+'201208'!D10+'201209'!D10+'201210'!D10+'201211'!D10+'201212'!D10</f>
-        <v>100.79578754578753</v>
+        <v>134.84549514812673</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="1"/>
-        <v>83.795787545787533</v>
+        <v>114.84549514812673</v>
       </c>
       <c r="F10" s="19">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="2"/>
-        <v>53.795787545787533</v>
+        <v>24.84549514812673</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:16383">
+    <row r="11" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
         <f>'201202'!B11+'201203'!B11+'201204'!B11+'201205'!B11+'201206'!B11+'201207'!B11+'201208'!B11+'201209'!B11+'201210'!B11+'201211'!B11+'201212'!B11</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="19">
         <f>'201202'!C11+'201203'!C11+'201204'!C11+'201205'!C11+'201206'!C11+'201207'!C11+'201208'!C11+'201209'!C11+'201210'!C11+'201211'!C11+'201212'!C11</f>
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="D11" s="19">
         <f>'201202'!D11+'201203'!D11+'201204'!D11+'201205'!D11+'201206'!D11+'201207'!D11+'201208'!D11+'201209'!D11+'201210'!D11+'201211'!D11+'201212'!D11</f>
-        <v>99.449633699633694</v>
+        <v>133.49934130197286</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" si="1"/>
-        <v>82.449633699633694</v>
+        <v>113.49934130197286</v>
       </c>
       <c r="F11" s="19">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" si="2"/>
-        <v>52.449633699633694</v>
+        <v>53.499341301972862</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:16383">
+    <row r="12" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
@@ -17500,63 +17543,63 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:16383">
+    <row r="13" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1">
         <f>'201202'!B13+'201203'!B13+'201204'!B13+'201205'!B13+'201206'!B13+'201207'!B13+'201208'!B13+'201209'!B13+'201210'!B13+'201211'!B13+'201212'!B13</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" s="19">
         <f>'201202'!C13+'201203'!C13+'201204'!C13+'201205'!C13+'201206'!C13+'201207'!C13+'201208'!C13+'201209'!C13+'201210'!C13+'201211'!C13+'201212'!C13</f>
-        <v>390</v>
+        <v>480</v>
       </c>
       <c r="D13" s="19">
         <f>'201202'!D13+'201203'!D13+'201204'!D13+'201205'!D13+'201206'!D13+'201207'!D13+'201208'!D13+'201209'!D13+'201210'!D13+'201211'!D13+'201212'!D13</f>
-        <v>71.295787545787533</v>
+        <v>105.34549514812672</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="1"/>
-        <v>58.295787545787533</v>
+        <v>89.345495148126716</v>
       </c>
       <c r="F13" s="19">
         <v>30</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" si="2"/>
-        <v>28.295787545787533</v>
+        <v>59.345495148126716</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:16383">
+    <row r="14" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1">
         <f>'201202'!B14+'201203'!B14+'201204'!B14+'201205'!B14+'201206'!B14+'201207'!B14+'201208'!B14+'201209'!B14+'201210'!B14+'201211'!B14+'201212'!B14</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14" s="19">
         <f>'201202'!C14+'201203'!C14+'201204'!C14+'201205'!C14+'201206'!C14+'201207'!C14+'201208'!C14+'201209'!C14+'201210'!C14+'201211'!C14+'201212'!C14</f>
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="D14" s="19">
         <f>'201202'!D14+'201203'!D14+'201204'!D14+'201205'!D14+'201206'!D14+'201207'!D14+'201208'!D14+'201209'!D14+'201210'!D14+'201211'!D14+'201212'!D14</f>
-        <v>101.56501831501831</v>
+        <v>135.61472591735748</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="1"/>
-        <v>83.565018315018307</v>
+        <v>114.61472591735748</v>
       </c>
       <c r="F14" s="19">
         <v>30</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" si="2"/>
-        <v>53.565018315018307</v>
+        <v>84.614725917357475</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="1">
@@ -17566,7 +17609,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:16383">
+    <row r="15" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
@@ -17595,7 +17638,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:16383">
+    <row r="16" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>71</v>
       </c>
@@ -17624,125 +17667,125 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="1">
         <f>'201202'!B17+'201203'!B17+'201204'!B17+'201205'!B17+'201206'!B17+'201207'!B17+'201208'!B17+'201209'!B17+'201210'!B17+'201211'!B17+'201212'!B17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="19">
         <f>'201202'!C17+'201203'!C17+'201204'!C17+'201205'!C17+'201206'!C17+'201207'!C17+'201208'!C17+'201209'!C17+'201210'!C17+'201211'!C17+'201212'!C17</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D17" s="19">
         <f>'201202'!D17+'201203'!D17+'201204'!D17+'201205'!D17+'201206'!D17+'201207'!D17+'201208'!D17+'201209'!D17+'201210'!D17+'201211'!D17+'201212'!D17</f>
-        <v>19.560439560439562</v>
+        <v>30.671550671550673</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" si="1"/>
-        <v>16.560439560439562</v>
+        <v>26.671550671550673</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19">
         <f t="shared" si="2"/>
-        <v>16.560439560439562</v>
+        <v>26.671550671550673</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1">
         <f>'201202'!B18+'201203'!B18+'201204'!B18+'201205'!B18+'201206'!B18+'201207'!B18+'201208'!B18+'201209'!B18+'201210'!B18+'201211'!B18+'201212'!B18</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="19">
         <f>'201202'!C18+'201203'!C18+'201204'!C18+'201205'!C18+'201206'!C18+'201207'!C18+'201208'!C18+'201209'!C18+'201210'!C18+'201211'!C18+'201212'!C18</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D18" s="19">
         <f>'201202'!D18+'201203'!D18+'201204'!D18+'201205'!D18+'201206'!D18+'201207'!D18+'201208'!D18+'201209'!D18+'201210'!D18+'201211'!D18+'201212'!D18</f>
-        <v>30.549450549450547</v>
+        <v>42.65471370734528</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" si="1"/>
-        <v>25.549450549450547</v>
+        <v>36.65471370734528</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19">
         <f t="shared" si="2"/>
-        <v>25.549450549450547</v>
+        <v>36.65471370734528</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="1">
         <f>'201202'!B19+'201203'!B19+'201204'!B19+'201205'!B19+'201206'!B19+'201207'!B19+'201208'!B19+'201209'!B19+'201210'!B19+'201211'!B19+'201212'!B19</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C19" s="19">
         <f>'201202'!C19+'201203'!C19+'201204'!C19+'201205'!C19+'201206'!C19+'201207'!C19+'201208'!C19+'201209'!C19+'201210'!C19+'201211'!C19+'201212'!C19</f>
-        <v>390</v>
+        <v>480</v>
       </c>
       <c r="D19" s="19">
         <f>'201202'!D19+'201203'!D19+'201204'!D19+'201205'!D19+'201206'!D19+'201207'!D19+'201208'!D19+'201209'!D19+'201210'!D19+'201211'!D19+'201212'!D19</f>
-        <v>68.048534798534803</v>
+        <v>102.09824240087397</v>
       </c>
       <c r="E19" s="19">
         <f t="shared" si="1"/>
-        <v>55.048534798534803</v>
+        <v>86.098242400873971</v>
       </c>
       <c r="F19" s="19">
         <v>30</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" si="2"/>
-        <v>25.048534798534803</v>
+        <v>56.098242400873971</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="1">
         <f>'201202'!B20+'201203'!B20+'201204'!B20+'201205'!B20+'201206'!B20+'201207'!B20+'201208'!B20+'201209'!B20+'201210'!B20+'201211'!B20+'201212'!B20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="19">
         <f>'201202'!C20+'201203'!C20+'201204'!C20+'201205'!C20+'201206'!C20+'201207'!C20+'201208'!C20+'201209'!C20+'201210'!C20+'201211'!C20+'201212'!C20</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D20" s="19">
         <f>'201202'!D20+'201203'!D20+'201204'!D20+'201205'!D20+'201206'!D20+'201207'!D20+'201208'!D20+'201209'!D20+'201210'!D20+'201211'!D20+'201212'!D20</f>
-        <v>9.560439560439562</v>
+        <v>20.671550671550673</v>
       </c>
       <c r="E20" s="19">
         <f t="shared" si="1"/>
-        <v>7.560439560439562</v>
+        <v>17.671550671550673</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19">
         <f t="shared" si="2"/>
-        <v>7.560439560439562</v>
+        <v>17.671550671550673</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>9</v>
       </c>
@@ -17773,90 +17816,90 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B22" s="1">
         <f>'201202'!B22+'201203'!B22+'201204'!B22+'201205'!B22+'201206'!B22+'201207'!B22+'201208'!B22+'201209'!B22+'201210'!B22+'201211'!B22+'201212'!B22</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="19">
         <f>'201202'!C22+'201203'!C22+'201204'!C22+'201205'!C22+'201206'!C22+'201207'!C22+'201208'!C22+'201209'!C22+'201210'!C22+'201211'!C22+'201212'!C22</f>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D22" s="19">
         <f>'201202'!D22+'201203'!D22+'201204'!D22+'201205'!D22+'201206'!D22+'201207'!D22+'201208'!D22+'201209'!D22+'201210'!D22+'201211'!D22+'201212'!D22</f>
-        <v>22</v>
+        <v>45.216374269005854</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>40.216374269005854</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>40.216374269005854</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="1">
         <f>'201202'!B23+'201203'!B23+'201204'!B23+'201205'!B23+'201206'!B23+'201207'!B23+'201208'!B23+'201209'!B23+'201210'!B23+'201211'!B23+'201212'!B23</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C23" s="19">
         <f>'201202'!C23+'201203'!C23+'201204'!C23+'201205'!C23+'201206'!C23+'201207'!C23+'201208'!C23+'201209'!C23+'201210'!C23+'201211'!C23+'201212'!C23</f>
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="D23" s="19">
         <f>'201202'!D23+'201203'!D23+'201204'!D23+'201205'!D23+'201206'!D23+'201207'!D23+'201208'!D23+'201209'!D23+'201210'!D23+'201211'!D23+'201212'!D23</f>
-        <v>51.730769230769226</v>
+        <v>74.669365721997295</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" si="1"/>
-        <v>42.730769230769226</v>
+        <v>63.669365721997295</v>
       </c>
       <c r="F23" s="19">
         <v>30</v>
       </c>
       <c r="G23" s="19">
         <f t="shared" si="2"/>
-        <v>12.730769230769226</v>
+        <v>33.669365721997295</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B24" s="1">
         <f>'201202'!B24+'201203'!B24+'201204'!B24+'201205'!B24+'201206'!B24+'201207'!B24+'201208'!B24+'201209'!B24+'201210'!B24+'201211'!B24+'201212'!B24</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" s="19">
         <f>'201202'!C24+'201203'!C24+'201204'!C24+'201205'!C24+'201206'!C24+'201207'!C24+'201208'!C24+'201209'!C24+'201210'!C24+'201211'!C24+'201212'!C24</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D24" s="19">
         <f>'201202'!D24+'201203'!D24+'201204'!D24+'201205'!D24+'201206'!D24+'201207'!D24+'201208'!D24+'201209'!D24+'201210'!D24+'201211'!D24+'201212'!D24</f>
-        <v>12</v>
+        <v>33.944444444444443</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>29.944444444444443</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>29.944444444444443</v>
       </c>
       <c r="H24" s="19">
         <v>10</v>
@@ -17868,36 +17911,36 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="1">
         <f>'201202'!B25+'201203'!B25+'201204'!B25+'201205'!B25+'201206'!B25+'201207'!B25+'201208'!B25+'201209'!B25+'201210'!B25+'201211'!B25+'201212'!B25</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25" s="19">
         <f>'201202'!C25+'201203'!C25+'201204'!C25+'201205'!C25+'201206'!C25+'201207'!C25+'201208'!C25+'201209'!C25+'201210'!C25+'201211'!C25+'201212'!C25</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="D25" s="19">
         <f>'201202'!D25+'201203'!D25+'201204'!D25+'201205'!D25+'201206'!D25+'201207'!D25+'201208'!D25+'201209'!D25+'201210'!D25+'201211'!D25+'201212'!D25</f>
-        <v>51.175824175824168</v>
+        <v>74.392198444830015</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" si="1"/>
-        <v>41.175824175824168</v>
+        <v>62.392198444830015</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19">
         <f t="shared" si="2"/>
-        <v>41.175824175824168</v>
+        <v>62.392198444830015</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>12</v>
       </c>
@@ -17926,125 +17969,125 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="1">
         <f>'201202'!B27+'201203'!B27+'201204'!B27+'201205'!B27+'201206'!B27+'201207'!B27+'201208'!B27+'201209'!B27+'201210'!B27+'201211'!B27+'201212'!B27</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C27" s="19">
         <f>'201202'!C27+'201203'!C27+'201204'!C27+'201205'!C27+'201206'!C27+'201207'!C27+'201208'!C27+'201209'!C27+'201210'!C27+'201211'!C27+'201212'!C27</f>
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="D27" s="19">
         <f>'201202'!D27+'201203'!D27+'201204'!D27+'201205'!D27+'201206'!D27+'201207'!D27+'201208'!D27+'201209'!D27+'201210'!D27+'201211'!D27+'201212'!D27</f>
-        <v>103.29578754578753</v>
+        <v>137.34549514812673</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" si="1"/>
-        <v>85.295787545787533</v>
+        <v>116.34549514812673</v>
       </c>
       <c r="F27" s="19">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G27" s="19">
         <f t="shared" si="2"/>
-        <v>55.295787545787533</v>
+        <v>56.34549514812673</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="1">
         <f>'201202'!B28+'201203'!B28+'201204'!B28+'201205'!B28+'201206'!B28+'201207'!B28+'201208'!B28+'201209'!B28+'201210'!B28+'201211'!B28+'201212'!B28</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" s="19">
         <f>'201202'!C28+'201203'!C28+'201204'!C28+'201205'!C28+'201206'!C28+'201207'!C28+'201208'!C28+'201209'!C28+'201210'!C28+'201211'!C28+'201212'!C28</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D28" s="19">
         <f>'201202'!D28+'201203'!D28+'201204'!D28+'201205'!D28+'201206'!D28+'201207'!D28+'201208'!D28+'201209'!D28+'201210'!D28+'201211'!D28+'201212'!D28</f>
-        <v>28.928571428571427</v>
+        <v>51.867167919799499</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="1"/>
-        <v>24.928571428571427</v>
+        <v>45.867167919799499</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19">
         <f t="shared" si="2"/>
-        <v>24.928571428571427</v>
+        <v>45.867167919799499</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B29" s="1">
         <f>'201202'!B29+'201203'!B29+'201204'!B29+'201205'!B29+'201206'!B29+'201207'!B29+'201208'!B29+'201209'!B29+'201210'!B29+'201211'!B29+'201212'!B29</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29" s="19">
         <f>'201202'!C29+'201203'!C29+'201204'!C29+'201205'!C29+'201206'!C29+'201207'!C29+'201208'!C29+'201209'!C29+'201210'!C29+'201211'!C29+'201212'!C29</f>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D29" s="19">
         <f>'201202'!D29+'201203'!D29+'201204'!D29+'201205'!D29+'201206'!D29+'201207'!D29+'201208'!D29+'201209'!D29+'201210'!D29+'201211'!D29+'201212'!D29</f>
-        <v>25.714285714285715</v>
+        <v>47.658730158730151</v>
       </c>
       <c r="E29" s="19">
         <f t="shared" si="1"/>
-        <v>22.714285714285715</v>
+        <v>42.658730158730151</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19">
         <f t="shared" si="2"/>
-        <v>22.714285714285715</v>
+        <v>42.658730158730151</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B30" s="1">
         <f>'201202'!B30+'201203'!B30+'201204'!B30+'201205'!B30+'201206'!B30+'201207'!B30+'201208'!B30+'201209'!B30+'201210'!B30+'201211'!B30+'201212'!B30</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="19">
         <f>'201202'!C30+'201203'!C30+'201204'!C30+'201205'!C30+'201206'!C30+'201207'!C30+'201208'!C30+'201209'!C30+'201210'!C30+'201211'!C30+'201212'!C30</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D30" s="19">
         <f>'201202'!D30+'201203'!D30+'201204'!D30+'201205'!D30+'201206'!D30+'201207'!D30+'201208'!D30+'201209'!D30+'201210'!D30+'201211'!D30+'201212'!D30</f>
-        <v>10</v>
+        <v>22.105263157894736</v>
       </c>
       <c r="E30" s="19">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>20.105263157894736</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>20.105263157894736</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>14</v>
       </c>
@@ -18073,34 +18116,36 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="9"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="B32" s="1">
         <f>'201202'!B32+'201203'!B32+'201204'!B32+'201205'!B32+'201206'!B32+'201207'!B32+'201208'!B32+'201209'!B32+'201210'!B32+'201211'!B32+'201212'!B32</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" s="19">
         <f>'201202'!C32+'201203'!C32+'201204'!C32+'201205'!C32+'201206'!C32+'201207'!C32+'201208'!C32+'201209'!C32+'201210'!C32+'201211'!C32+'201212'!C32</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D32" s="19">
         <f>'201202'!D32+'201203'!D32+'201204'!D32+'201205'!D32+'201206'!D32+'201207'!D32+'201208'!D32+'201209'!D32+'201210'!D32+'201211'!D32+'201212'!D32</f>
-        <v>0</v>
+        <v>34.049707602339183</v>
       </c>
       <c r="E32" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31.049707602339183</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>31.049707602339183</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>15</v>
       </c>
@@ -18129,7 +18174,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>66</v>
       </c>
@@ -18158,38 +18203,38 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="1">
         <f>'201202'!B35+'201203'!B35+'201204'!B35+'201205'!B35+'201206'!B35+'201207'!B35+'201208'!B35+'201209'!B35+'201210'!B35+'201211'!B35+'201212'!B35</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C35" s="19">
         <f>'201202'!C35+'201203'!C35+'201204'!C35+'201205'!C35+'201206'!C35+'201207'!C35+'201208'!C35+'201209'!C35+'201210'!C35+'201211'!C35+'201212'!C35</f>
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="D35" s="19">
         <f>'201202'!D35+'201203'!D35+'201204'!D35+'201205'!D35+'201206'!D35+'201207'!D35+'201208'!D35+'201209'!D35+'201210'!D35+'201211'!D35+'201212'!D35</f>
-        <v>76.922161172161168</v>
+        <v>99.860757663389236</v>
       </c>
       <c r="E35" s="19">
         <f t="shared" si="1"/>
-        <v>62.922161172161168</v>
+        <v>83.860757663389236</v>
       </c>
       <c r="F35" s="19">
         <v>30</v>
       </c>
       <c r="G35" s="19">
         <f t="shared" si="2"/>
-        <v>32.922161172161168</v>
+        <v>53.860757663389236</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>67</v>
       </c>
@@ -18218,34 +18263,36 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="9"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="B37" s="1">
         <f>'201202'!B37+'201203'!B37+'201204'!B37+'201205'!B37+'201206'!B37+'201207'!B37+'201208'!B37+'201209'!B37+'201210'!B37+'201211'!B37+'201212'!B37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="19">
         <f>'201202'!C37+'201203'!C37+'201204'!C37+'201205'!C37+'201206'!C37+'201207'!C37+'201208'!C37+'201209'!C37+'201210'!C37+'201211'!C37+'201212'!C37</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D37" s="19">
         <f>'201202'!D37+'201203'!D37+'201204'!D37+'201205'!D37+'201206'!D37+'201207'!D37+'201208'!D37+'201209'!D37+'201210'!D37+'201211'!D37+'201212'!D37</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="E37" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.111111111111111</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.111111111111111</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>17</v>
       </c>
@@ -18274,36 +18321,36 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="1">
         <f>'201202'!B39+'201203'!B39+'201204'!B39+'201205'!B39+'201206'!B39+'201207'!B39+'201208'!B39+'201209'!B39+'201210'!B39+'201211'!B39+'201212'!B39</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="19">
         <f>'201202'!C39+'201203'!C39+'201204'!C39+'201205'!C39+'201206'!C39+'201207'!C39+'201208'!C39+'201209'!C39+'201210'!C39+'201211'!C39+'201212'!C39</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D39" s="19">
         <f>'201202'!D39+'201203'!D39+'201204'!D39+'201205'!D39+'201206'!D39+'201207'!D39+'201208'!D39+'201209'!D39+'201210'!D39+'201211'!D39+'201212'!D39</f>
-        <v>28.928571428571427</v>
+        <v>40.039682539682538</v>
       </c>
       <c r="E39" s="19">
         <f t="shared" si="1"/>
-        <v>23.928571428571427</v>
+        <v>34.039682539682538</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="19">
         <f t="shared" si="2"/>
-        <v>23.928571428571427</v>
+        <v>34.039682539682538</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>19</v>
       </c>
@@ -18332,7 +18379,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>20</v>
       </c>
@@ -18365,57 +18412,59 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="9"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="B42" s="1">
         <f>'201202'!B42+'201203'!B42+'201204'!B42+'201205'!B42+'201206'!B42+'201207'!B42+'201208'!B42+'201209'!B42+'201210'!B42+'201211'!B42+'201212'!B42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="19">
         <f>'201202'!C42+'201203'!C42+'201204'!C42+'201205'!C42+'201206'!C42+'201207'!C42+'201208'!C42+'201209'!C42+'201210'!C42+'201211'!C42+'201212'!C42</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D42" s="19">
         <f>'201202'!D42+'201203'!D42+'201204'!D42+'201205'!D42+'201206'!D42+'201207'!D42+'201208'!D42+'201209'!D42+'201210'!D42+'201211'!D42+'201212'!D42</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="E42" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.111111111111111</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10.111111111111111</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="1">
         <f>'201202'!B43+'201203'!B43+'201204'!B43+'201205'!B43+'201206'!B43+'201207'!B43+'201208'!B43+'201209'!B43+'201210'!B43+'201211'!B43+'201212'!B43</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C43" s="19">
         <f>'201202'!C43+'201203'!C43+'201204'!C43+'201205'!C43+'201206'!C43+'201207'!C43+'201208'!C43+'201209'!C43+'201210'!C43+'201211'!C43+'201212'!C43</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D43" s="19">
         <f>'201202'!D43+'201203'!D43+'201204'!D43+'201205'!D43+'201206'!D43+'201207'!D43+'201208'!D43+'201209'!D43+'201210'!D43+'201211'!D43+'201212'!D43</f>
-        <v>27.802197802197799</v>
+        <v>51.01857207120365</v>
       </c>
       <c r="E43" s="19">
         <f t="shared" si="3"/>
-        <v>23.802197802197799</v>
+        <v>45.01857207120365</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19">
         <f t="shared" si="4"/>
-        <v>23.802197802197799</v>
+        <v>45.01857207120365</v>
       </c>
       <c r="H43" s="19">
         <v>10</v>
@@ -18427,7 +18476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>22</v>
       </c>
@@ -18456,144 +18505,148 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="1">
         <f>'201202'!B45+'201203'!B45+'201204'!B45+'201205'!B45+'201206'!B45+'201207'!B45+'201208'!B45+'201209'!B45+'201210'!B45+'201211'!B45+'201212'!B45</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" s="19">
         <f>'201202'!C45+'201203'!C45+'201204'!C45+'201205'!C45+'201206'!C45+'201207'!C45+'201208'!C45+'201209'!C45+'201210'!C45+'201211'!C45+'201212'!C45</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D45" s="19">
         <f>'201202'!D45+'201203'!D45+'201204'!D45+'201205'!D45+'201206'!D45+'201207'!D45+'201208'!D45+'201209'!D45+'201210'!D45+'201211'!D45+'201212'!D45</f>
-        <v>15.384615384615383</v>
+        <v>26.217948717948715</v>
       </c>
       <c r="E45" s="19">
         <f t="shared" si="3"/>
-        <v>13.384615384615383</v>
+        <v>23.217948717948715</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19">
         <f t="shared" si="4"/>
-        <v>13.384615384615383</v>
+        <v>23.217948717948715</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="1">
         <f>'201202'!B46+'201203'!B46+'201204'!B46+'201205'!B46+'201206'!B46+'201207'!B46+'201208'!B46+'201209'!B46+'201210'!B46+'201211'!B46+'201212'!B46</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46" s="19">
         <f>'201202'!C46+'201203'!C46+'201204'!C46+'201205'!C46+'201206'!C46+'201207'!C46+'201208'!C46+'201209'!C46+'201210'!C46+'201211'!C46+'201212'!C46</f>
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="D46" s="19">
         <f>'201202'!D46+'201203'!D46+'201204'!D46+'201205'!D46+'201206'!D46+'201207'!D46+'201208'!D46+'201209'!D46+'201210'!D46+'201211'!D46+'201212'!D46</f>
-        <v>61.647435897435898</v>
+        <v>72.480769230769226</v>
       </c>
       <c r="E46" s="19">
         <f t="shared" si="3"/>
-        <v>51.647435897435898</v>
+        <v>61.480769230769226</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19">
         <f t="shared" si="4"/>
-        <v>51.647435897435898</v>
+        <v>61.480769230769226</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="9"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="B47" s="1">
         <f>'201202'!B47+'201203'!B47+'201204'!B47+'201205'!B47+'201206'!B47+'201207'!B47+'201208'!B47+'201209'!B47+'201210'!B47+'201211'!B47+'201212'!B47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="19">
         <f>'201202'!C47+'201203'!C47+'201204'!C47+'201205'!C47+'201206'!C47+'201207'!C47+'201208'!C47+'201209'!C47+'201210'!C47+'201211'!C47+'201212'!C47</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D47" s="19">
         <f>'201202'!D47+'201203'!D47+'201204'!D47+'201205'!D47+'201206'!D47+'201207'!D47+'201208'!D47+'201209'!D47+'201210'!D47+'201211'!D47+'201212'!D47</f>
-        <v>0</v>
+        <v>10.833333333333332</v>
       </c>
       <c r="E47" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.8333333333333321</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9.8333333333333321</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="9"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="B48" s="1">
         <f>'201202'!B48+'201203'!B48+'201204'!B48+'201205'!B48+'201206'!B48+'201207'!B48+'201208'!B48+'201209'!B48+'201210'!B48+'201211'!B48+'201212'!B48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="19">
         <f>'201202'!C48+'201203'!C48+'201204'!C48+'201205'!C48+'201206'!C48+'201207'!C48+'201208'!C48+'201209'!C48+'201210'!C48+'201211'!C48+'201212'!C48</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D48" s="19">
         <f>'201202'!D48+'201203'!D48+'201204'!D48+'201205'!D48+'201206'!D48+'201207'!D48+'201208'!D48+'201209'!D48+'201210'!D48+'201211'!D48+'201212'!D48</f>
-        <v>0</v>
+        <v>10.833333333333332</v>
       </c>
       <c r="E48" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.8333333333333321</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9.8333333333333321</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B49" s="1">
         <f>'201202'!B49+'201203'!B49+'201204'!B49+'201205'!B49+'201206'!B49+'201207'!B49+'201208'!B49+'201209'!B49+'201210'!B49+'201211'!B49+'201212'!B49</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" s="19">
         <f>'201202'!C49+'201203'!C49+'201204'!C49+'201205'!C49+'201206'!C49+'201207'!C49+'201208'!C49+'201209'!C49+'201210'!C49+'201211'!C49+'201212'!C49</f>
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="D49" s="19">
         <f>'201202'!D49+'201203'!D49+'201204'!D49+'201205'!D49+'201206'!D49+'201207'!D49+'201208'!D49+'201209'!D49+'201210'!D49+'201211'!D49+'201212'!D49</f>
-        <v>77.779304029304029</v>
+        <v>89.884567187198755</v>
       </c>
       <c r="E49" s="19">
         <f t="shared" si="3"/>
-        <v>64.779304029304029</v>
+        <v>75.884567187198755</v>
       </c>
       <c r="F49" s="19">
         <v>60</v>
       </c>
       <c r="G49" s="19">
         <f t="shared" si="4"/>
-        <v>4.7793040293040292</v>
+        <v>15.884567187198755</v>
       </c>
       <c r="H49" s="19">
         <v>10</v>
@@ -18605,7 +18658,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>68</v>
       </c>
@@ -18634,65 +18687,67 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="1">
         <f>'201202'!B51+'201203'!B51+'201204'!B51+'201205'!B51+'201206'!B51+'201207'!B51+'201208'!B51+'201209'!B51+'201210'!B51+'201211'!B51+'201212'!B51</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" s="19">
         <f>'201202'!C51+'201203'!C51+'201204'!C51+'201205'!C51+'201206'!C51+'201207'!C51+'201208'!C51+'201209'!C51+'201210'!C51+'201211'!C51+'201212'!C51</f>
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D51" s="19">
         <f>'201202'!D51+'201203'!D51+'201204'!D51+'201205'!D51+'201206'!D51+'201207'!D51+'201208'!D51+'201209'!D51+'201210'!D51+'201211'!D51+'201212'!D51</f>
-        <v>52.5</v>
+        <v>64.60526315789474</v>
       </c>
       <c r="E51" s="19">
         <f t="shared" si="3"/>
-        <v>44.5</v>
-      </c>
-      <c r="F51" s="19"/>
+        <v>55.60526315789474</v>
+      </c>
+      <c r="F51" s="19">
+        <v>30</v>
+      </c>
       <c r="G51" s="19">
         <f t="shared" si="4"/>
-        <v>44.5</v>
+        <v>25.60526315789474</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="1">
         <f>'201202'!B52+'201203'!B52+'201204'!B52+'201205'!B52+'201206'!B52+'201207'!B52+'201208'!B52+'201209'!B52+'201210'!B52+'201211'!B52+'201212'!B52</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C52" s="19">
         <f>'201202'!C52+'201203'!C52+'201204'!C52+'201205'!C52+'201206'!C52+'201207'!C52+'201208'!C52+'201209'!C52+'201210'!C52+'201211'!C52+'201212'!C52</f>
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="D52" s="19">
         <f>'201202'!D52+'201203'!D52+'201204'!D52+'201205'!D52+'201206'!D52+'201207'!D52+'201208'!D52+'201209'!D52+'201210'!D52+'201211'!D52+'201212'!D52</f>
-        <v>47.504578754578752</v>
+        <v>70.443175245806813</v>
       </c>
       <c r="E52" s="19">
         <f t="shared" si="3"/>
-        <v>38.504578754578752</v>
+        <v>59.443175245806813</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19">
         <f t="shared" si="4"/>
-        <v>38.504578754578752</v>
+        <v>59.443175245806813</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="9"/>
       <c r="B53" s="1">
         <f>'201202'!B53+'201203'!B53+'201204'!B53+'201205'!B53+'201206'!B53+'201207'!B53+'201208'!B53+'201209'!B53+'201210'!B53+'201211'!B53+'201212'!B53</f>
@@ -18719,7 +18774,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>28</v>
       </c>
@@ -18748,65 +18803,65 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B55" s="1">
         <f>'201202'!B55+'201203'!B55+'201204'!B55+'201205'!B55+'201206'!B55+'201207'!B55+'201208'!B55+'201209'!B55+'201210'!B55+'201211'!B55+'201212'!B55</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55" s="19">
         <f>'201202'!C55+'201203'!C55+'201204'!C55+'201205'!C55+'201206'!C55+'201207'!C55+'201208'!C55+'201209'!C55+'201210'!C55+'201211'!C55+'201212'!C55</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D55" s="19">
         <f>'201202'!D55+'201203'!D55+'201204'!D55+'201205'!D55+'201206'!D55+'201207'!D55+'201208'!D55+'201209'!D55+'201210'!D55+'201211'!D55+'201212'!D55</f>
-        <v>22.142857142857142</v>
+        <v>33.253968253968253</v>
       </c>
       <c r="E55" s="19">
         <f t="shared" si="3"/>
-        <v>19.142857142857142</v>
+        <v>29.253968253968253</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19">
         <f t="shared" si="4"/>
-        <v>19.142857142857142</v>
+        <v>29.253968253968253</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B56" s="1">
         <f>'201202'!B56+'201203'!B56+'201204'!B56+'201205'!B56+'201206'!B56+'201207'!B56+'201208'!B56+'201209'!B56+'201210'!B56+'201211'!B56+'201212'!B56</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56" s="19">
         <f>'201202'!C56+'201203'!C56+'201204'!C56+'201205'!C56+'201206'!C56+'201207'!C56+'201208'!C56+'201209'!C56+'201210'!C56+'201211'!C56+'201212'!C56</f>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D56" s="19">
         <f>'201202'!D56+'201203'!D56+'201204'!D56+'201205'!D56+'201206'!D56+'201207'!D56+'201208'!D56+'201209'!D56+'201210'!D56+'201211'!D56+'201212'!D56</f>
-        <v>21.923076923076923</v>
+        <v>34.02834008097166</v>
       </c>
       <c r="E56" s="19">
         <f t="shared" si="3"/>
-        <v>17.923076923076923</v>
+        <v>29.02834008097166</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19">
         <f t="shared" si="4"/>
-        <v>17.923076923076923</v>
+        <v>29.02834008097166</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>55</v>
       </c>
@@ -18835,7 +18890,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="1"/>
       <c r="C58" s="19"/>
@@ -18847,7 +18902,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
       <c r="B59" s="1"/>
       <c r="C59" s="19"/>
@@ -18859,7 +18914,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
       <c r="B60" s="1"/>
       <c r="C60" s="19"/>
@@ -18871,7 +18926,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
       <c r="B61" s="1"/>
       <c r="C61" s="19"/>
@@ -18883,7 +18938,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
       <c r="B62" s="1"/>
       <c r="C62" s="19"/>
@@ -18895,7 +18950,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
       <c r="B63" s="1"/>
       <c r="C63" s="19"/>
@@ -18907,7 +18962,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="10"/>
       <c r="B64" s="1"/>
       <c r="C64" s="19"/>
@@ -18919,7 +18974,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="10"/>
       <c r="B65" s="1"/>
       <c r="C65" s="19"/>
@@ -18931,7 +18986,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
       <c r="B66" s="1"/>
       <c r="C66" s="19"/>
@@ -18943,7 +18998,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="10"/>
       <c r="B67" s="1"/>
       <c r="C67" s="19"/>
@@ -18955,7 +19010,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
       <c r="B68" s="1"/>
       <c r="C68" s="19"/>
@@ -18967,7 +19022,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="10"/>
       <c r="B69" s="1"/>
       <c r="C69" s="19"/>
@@ -18979,7 +19034,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
       <c r="B70" s="1"/>
       <c r="C70" s="19"/>
@@ -18991,7 +19046,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="10"/>
       <c r="B71" s="1"/>
       <c r="C71" s="19"/>
@@ -19003,7 +19058,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="10"/>
       <c r="B72" s="1"/>
       <c r="C72" s="19"/>
@@ -19015,7 +19070,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="10"/>
       <c r="B73" s="1"/>
       <c r="C73" s="19"/>
@@ -19027,7 +19082,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="10"/>
       <c r="B74" s="1"/>
       <c r="C74" s="19"/>
@@ -19039,7 +19094,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="10"/>
       <c r="B75" s="1"/>
       <c r="C75" s="19"/>
@@ -19051,7 +19106,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="10"/>
       <c r="B76" s="1"/>
       <c r="C76" s="19"/>
@@ -19063,7 +19118,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="10"/>
       <c r="B77" s="1"/>
       <c r="C77" s="19"/>
@@ -19075,7 +19130,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="10"/>
       <c r="B78" s="1"/>
       <c r="C78" s="19"/>
@@ -19087,7 +19142,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="10"/>
       <c r="B79" s="1"/>
       <c r="C79" s="19"/>
@@ -19099,7 +19154,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="10"/>
       <c r="B80" s="1"/>
       <c r="C80" s="19"/>
@@ -19111,7 +19166,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="10"/>
       <c r="B81" s="1"/>
       <c r="C81" s="19"/>
@@ -19123,7 +19178,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="10"/>
       <c r="B82" s="1"/>
       <c r="C82" s="19"/>
@@ -19135,7 +19190,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="10"/>
       <c r="B83" s="1"/>
       <c r="C83" s="19"/>
@@ -19147,7 +19202,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="10"/>
       <c r="B84" s="1"/>
       <c r="C84" s="19"/>
@@ -19159,7 +19214,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="10"/>
       <c r="B85" s="1"/>
       <c r="C85" s="19"/>
@@ -19171,7 +19226,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="10"/>
       <c r="B86" s="1"/>
       <c r="C86" s="19"/>
@@ -19183,7 +19238,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="10"/>
       <c r="B87" s="1"/>
       <c r="C87" s="19"/>
@@ -19195,7 +19250,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="10"/>
       <c r="B88" s="1"/>
       <c r="C88" s="19"/>
@@ -19207,7 +19262,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="10"/>
       <c r="B89" s="1"/>
       <c r="C89" s="19"/>
@@ -19219,7 +19274,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="10"/>
       <c r="B90" s="1"/>
       <c r="C90" s="19"/>
@@ -19231,7 +19286,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="10"/>
       <c r="B91" s="1"/>
       <c r="C91" s="19"/>
@@ -19243,7 +19298,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="10"/>
       <c r="B92" s="1"/>
       <c r="C92" s="19"/>
@@ -19255,7 +19310,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="10"/>
       <c r="B93" s="1"/>
       <c r="C93" s="19"/>
@@ -19267,7 +19322,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="10"/>
       <c r="B94" s="1"/>
       <c r="C94" s="19"/>
@@ -19279,7 +19334,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="10"/>
       <c r="B95" s="1"/>
       <c r="C95" s="19"/>
@@ -19291,7 +19346,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="10"/>
       <c r="B96" s="1"/>
       <c r="C96" s="19"/>
@@ -19303,7 +19358,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="10"/>
       <c r="B97" s="1"/>
       <c r="C97" s="19"/>
@@ -19315,7 +19370,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="10"/>
       <c r="B98" s="1"/>
       <c r="C98" s="19"/>
@@ -19327,7 +19382,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="10"/>
       <c r="B99" s="1"/>
       <c r="C99" s="19"/>
@@ -19339,7 +19394,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" s="10"/>
       <c r="B100" s="1"/>
       <c r="C100" s="19"/>
@@ -19351,7 +19406,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" s="10"/>
       <c r="B101" s="1"/>
       <c r="C101" s="19"/>
@@ -19404,12 +19459,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19417,12 +19472,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19430,12 +19485,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19443,12 +19498,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19456,21 +19511,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -19487,7 +19542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="15">
         <v>40941</v>
       </c>
@@ -19502,7 +19557,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="15">
         <v>40946</v>
       </c>
@@ -19517,7 +19572,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>40948</v>
       </c>
@@ -19532,7 +19587,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>40952</v>
       </c>
@@ -19547,7 +19602,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>40960</v>
       </c>
@@ -19562,7 +19617,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>40967</v>
       </c>
@@ -19577,7 +19632,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>40970</v>
       </c>
@@ -19592,7 +19647,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="15">
         <v>40974</v>
       </c>
@@ -19607,7 +19662,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>40972</v>
       </c>
@@ -19624,7 +19679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>40976</v>
       </c>
@@ -19639,7 +19694,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>40981</v>
       </c>
@@ -19656,7 +19711,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>40981</v>
       </c>
@@ -19673,7 +19728,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>40983</v>
       </c>
@@ -19690,7 +19745,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>40983</v>
       </c>
@@ -19707,7 +19762,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>40988</v>
       </c>
@@ -19722,7 +19777,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>40990</v>
       </c>
@@ -19737,7 +19792,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>40990</v>
       </c>
@@ -19754,7 +19809,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>40995</v>
       </c>
@@ -19769,7 +19824,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>40995</v>
       </c>
@@ -19786,7 +19841,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>40997</v>
       </c>
@@ -19803,7 +19858,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>40999</v>
       </c>
@@ -19820,7 +19875,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>41004</v>
       </c>
@@ -19837,7 +19892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>41009</v>
       </c>
@@ -19854,7 +19909,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>41009</v>
       </c>
@@ -19871,7 +19926,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>41009</v>
       </c>
@@ -19888,7 +19943,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>41011</v>
       </c>
@@ -19905,7 +19960,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>41011</v>
       </c>
@@ -19922,7 +19977,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>41011</v>
       </c>
@@ -19939,52 +19994,120 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="10"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="1"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="15">
+        <v>41016</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>230</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="15">
+        <v>41016</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C31" s="1">
-        <f>SUM(C2:C30)</f>
-        <v>1105</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="10"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="10"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-150</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="15">
+        <v>41018</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>220</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="15">
+        <v>41018</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-75</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="10"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1">
+        <f>SUM(C2:C34)</f>
+        <v>1330</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="10"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19994,14 +20117,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
@@ -20014,7 +20137,7 @@
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="7" t="s">
         <v>35</v>
@@ -20054,7 +20177,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -20099,7 +20222,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -20135,7 +20258,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
@@ -20180,7 +20303,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -20225,7 +20348,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -20267,7 +20390,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -20303,7 +20426,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -20345,7 +20468,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="str">
         <f>member!A9</f>
         <v>守候幸福</v>
@@ -20389,7 +20512,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="str">
         <f>member!A10</f>
         <v>李一刀</v>
@@ -20435,7 +20558,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="str">
         <f>member!A11</f>
         <v>咣咣地跟屁蟲</v>
@@ -20481,7 +20604,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="str">
         <f>member!A12</f>
         <v>Oo内拉祖里oO</v>
@@ -20515,7 +20638,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="str">
         <f>member!A13</f>
         <v>幸福~拂晓</v>
@@ -20557,7 +20680,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="str">
         <f>member!A14</f>
         <v>蚕豆</v>
@@ -20601,7 +20724,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="str">
         <f>member!A15</f>
         <v>who cares?</v>
@@ -20637,7 +20760,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="str">
         <f>member!A16</f>
         <v>幸福~彩票</v>
@@ -20671,7 +20794,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="str">
         <f>member!A17</f>
         <v>清道夫</v>
@@ -20705,7 +20828,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="str">
         <f>member!A18</f>
         <v>老A</v>
@@ -20739,7 +20862,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="str">
         <f>member!A19</f>
         <v>狐狸</v>
@@ -20775,7 +20898,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="str">
         <f>member!A20</f>
         <v>腿子</v>
@@ -20809,7 +20932,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="str">
         <f>member!A21</f>
         <v>smile</v>
@@ -20853,7 +20976,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="str">
         <f>member!A22</f>
         <v>小贝</v>
@@ -20887,7 +21010,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="str">
         <f>member!A23</f>
         <v>11号-鲜明</v>
@@ -20929,7 +21052,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="str">
         <f>member!A24</f>
         <v>狐狸~涛</v>
@@ -20963,7 +21086,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="str">
         <f>member!A25</f>
         <v>侯盟</v>
@@ -21007,7 +21130,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="str">
         <f>member!A26</f>
         <v>玖伍贰壹</v>
@@ -21043,7 +21166,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="str">
         <f>member!A27</f>
         <v>红色F50-超</v>
@@ -21087,7 +21210,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="str">
         <f>member!A28</f>
         <v>活了</v>
@@ -21121,7 +21244,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="str">
         <f>member!A29</f>
         <v>天赐</v>
@@ -21155,7 +21278,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="str">
         <f>member!A30</f>
         <v>Shenghak</v>
@@ -21189,7 +21312,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="str">
         <f>member!A31</f>
         <v>红色6号</v>
@@ -21225,10 +21348,10 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="11">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="str">
         <f>member!A32</f>
-        <v>0</v>
+        <v>微笑</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="5"/>
@@ -21259,7 +21382,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="str">
         <f>member!A33</f>
         <v>77号-更心</v>
@@ -21293,7 +21416,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="str">
         <f>member!A34</f>
         <v>更心朋友</v>
@@ -21327,7 +21450,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="str">
         <f>member!A35</f>
         <v>8号-菜菜亮</v>
@@ -21369,7 +21492,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="str">
         <f>member!A36</f>
         <v>杨光朋友</v>
@@ -21403,10 +21526,10 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="11">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="str">
         <f>member!A37</f>
-        <v>0</v>
+        <v>拂晓朋友</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" si="5"/>
@@ -21437,7 +21560,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="str">
         <f>member!A38</f>
         <v>4号-许多</v>
@@ -21471,7 +21594,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="str">
         <f>member!A39</f>
         <v>5号-正</v>
@@ -21511,7 +21634,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="str">
         <f>member!A40</f>
         <v>勇敢的爬爬</v>
@@ -21547,7 +21670,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="str">
         <f>member!A41</f>
         <v>17号-4号字母</v>
@@ -21585,10 +21708,10 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="11">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="str">
         <f>member!A42</f>
-        <v>0</v>
+        <v>雷</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" si="5"/>
@@ -21619,7 +21742,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="str">
         <f>member!A43</f>
         <v>西北偏北</v>
@@ -21657,7 +21780,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="str">
         <f>member!A44</f>
         <v>红色8号</v>
@@ -21693,7 +21816,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="str">
         <f>member!A45</f>
         <v>马耳他</v>
@@ -21731,7 +21854,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="str">
         <f>member!A46</f>
         <v>Cindy~陈猛</v>
@@ -21775,10 +21898,10 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="11">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="str">
         <f>member!A47</f>
-        <v>0</v>
+        <v>硕</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" si="5"/>
@@ -21809,10 +21932,10 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="11">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="str">
         <f>member!A48</f>
-        <v>0</v>
+        <v>Violin</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" si="5"/>
@@ -21843,7 +21966,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="str">
         <f>member!A49</f>
         <v>87号陈磊</v>
@@ -21881,7 +22004,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="str">
         <f>member!A50</f>
         <v>水中阳光</v>
@@ -21915,7 +22038,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="str">
         <f>member!A51</f>
         <v>sam</v>
@@ -21955,7 +22078,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="str">
         <f>member!A52</f>
         <v>26 方亚</v>
@@ -21995,7 +22118,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="11">
         <f>member!A53</f>
         <v>0</v>
@@ -22029,7 +22152,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="str">
         <f>member!A54</f>
         <v>0号--张家宁</v>
@@ -22069,7 +22192,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="str">
         <f>member!A55</f>
         <v>泰山</v>
@@ -22105,7 +22228,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="str">
         <f>member!A56</f>
         <v>尚峰</v>
@@ -22141,7 +22264,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="str">
         <f>member!A57</f>
         <v>杨光</v>
@@ -22166,7 +22289,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -22188,7 +22311,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -22210,7 +22333,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -22232,7 +22355,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -22254,7 +22377,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -22276,7 +22399,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -22298,7 +22421,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64" s="10"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -22320,7 +22443,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65" s="10"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -22342,7 +22465,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
@@ -22364,7 +22487,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A67" s="10"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -22386,7 +22509,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
@@ -22408,7 +22531,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69" s="10"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -22430,7 +22553,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
@@ -22452,7 +22575,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71" s="10"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
@@ -22474,7 +22597,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72" s="10"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
@@ -22496,7 +22619,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73" s="10"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
@@ -22518,7 +22641,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A74" s="10"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -22540,7 +22663,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A75" s="10"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -22562,7 +22685,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A76" s="10"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -22584,7 +22707,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77" s="10"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -22606,7 +22729,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" s="10"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
@@ -22628,7 +22751,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" s="10"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
@@ -22650,7 +22773,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80" s="10"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
@@ -22672,7 +22795,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A81" s="10"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
@@ -22694,7 +22817,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A82" s="10"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
@@ -22716,7 +22839,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A83" s="10"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
@@ -22738,7 +22861,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A84" s="10"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
@@ -22760,7 +22883,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A85" s="10"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
@@ -22782,7 +22905,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A86" s="10"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
@@ -22804,7 +22927,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A87" s="10"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
@@ -22826,7 +22949,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A88" s="10"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
@@ -22848,7 +22971,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A89" s="10"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
@@ -22870,7 +22993,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A90" s="10"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
@@ -22892,7 +23015,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A91" s="10"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
@@ -22914,7 +23037,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A92" s="10"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
@@ -22936,7 +23059,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A93" s="10"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
@@ -22958,7 +23081,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A94" s="10"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
@@ -22980,7 +23103,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A95" s="10"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
@@ -23002,7 +23125,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A96" s="10"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
@@ -23024,7 +23147,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A97" s="10"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
@@ -23046,7 +23169,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A98" s="10"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
@@ -23068,7 +23191,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A99" s="10"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
@@ -23090,7 +23213,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A100" s="10"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
@@ -23119,14 +23242,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
@@ -23137,7 +23260,7 @@
     <col min="10" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="7" t="s">
         <v>35</v>
@@ -23176,7 +23299,7 @@
         <v>40997</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -23223,7 +23346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -23258,7 +23381,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
@@ -23305,7 +23428,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -23352,7 +23475,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -23396,7 +23519,7 @@
         <v>26.153846153846153</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -23431,7 +23554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -23475,7 +23598,7 @@
         <v>3.8461538461538467</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="str">
         <f>member!A9</f>
         <v>守候幸福</v>
@@ -23506,7 +23629,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="str">
         <f>member!A10</f>
         <v>李一刀</v>
@@ -23547,7 +23670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="str">
         <f>member!A11</f>
         <v>咣咣地跟屁蟲</v>
@@ -23588,7 +23711,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="str">
         <f>member!A12</f>
         <v>Oo内拉祖里oO</v>
@@ -23617,7 +23740,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="str">
         <f>member!A13</f>
         <v>幸福~拂晓</v>
@@ -23656,7 +23779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="str">
         <f>member!A14</f>
         <v>蚕豆</v>
@@ -23701,7 +23824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="str">
         <f>member!A15</f>
         <v>who cares?</v>
@@ -23728,7 +23851,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="str">
         <f>member!A16</f>
         <v>幸福~彩票</v>
@@ -23757,7 +23880,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="str">
         <f>member!A17</f>
         <v>清道夫</v>
@@ -23786,7 +23909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="str">
         <f>member!A18</f>
         <v>老A</v>
@@ -23821,7 +23944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="str">
         <f>member!A19</f>
         <v>狐狸</v>
@@ -23864,7 +23987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="str">
         <f>member!A20</f>
         <v>腿子</v>
@@ -23893,7 +24016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="str">
         <f>member!A21</f>
         <v>smile</v>
@@ -23924,7 +24047,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="str">
         <f>member!A22</f>
         <v>小贝</v>
@@ -23951,7 +24074,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="str">
         <f>member!A23</f>
         <v>11号-鲜明</v>
@@ -23986,7 +24109,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="str">
         <f>member!A24</f>
         <v>狐狸~涛</v>
@@ -24013,7 +24136,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="str">
         <f>member!A25</f>
         <v>侯盟</v>
@@ -24046,7 +24169,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="str">
         <f>member!A26</f>
         <v>玖伍贰壹</v>
@@ -24073,7 +24196,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="str">
         <f>member!A27</f>
         <v>红色F50-超</v>
@@ -24118,7 +24241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="str">
         <f>member!A28</f>
         <v>活了</v>
@@ -24149,7 +24272,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="str">
         <f>member!A29</f>
         <v>天赐</v>
@@ -24176,7 +24299,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="str">
         <f>member!A30</f>
         <v>Shenghak</v>
@@ -24203,7 +24326,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="str">
         <f>member!A31</f>
         <v>红色6号</v>
@@ -24230,10 +24353,10 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="11">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="str">
         <f>member!A32</f>
-        <v>0</v>
+        <v>微笑</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="25"/>
@@ -24257,7 +24380,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="str">
         <f>member!A33</f>
         <v>77号-更心</v>
@@ -24292,7 +24415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="str">
         <f>member!A34</f>
         <v>更心朋友</v>
@@ -24321,7 +24444,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="str">
         <f>member!A35</f>
         <v>8号-菜菜亮</v>
@@ -24364,7 +24487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="str">
         <f>member!A36</f>
         <v>杨光朋友</v>
@@ -24395,10 +24518,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="11">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="str">
         <f>member!A37</f>
-        <v>0</v>
+        <v>拂晓朋友</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" si="25"/>
@@ -24422,7 +24545,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="str">
         <f>member!A38</f>
         <v>4号-许多</v>
@@ -24451,7 +24574,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="str">
         <f>member!A39</f>
         <v>5号-正</v>
@@ -24482,7 +24605,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="str">
         <f>member!A40</f>
         <v>勇敢的爬爬</v>
@@ -24511,7 +24634,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="str">
         <f>member!A41</f>
         <v>17号-4号字母</v>
@@ -24542,10 +24665,10 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="11">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="str">
         <f>member!A42</f>
-        <v>0</v>
+        <v>雷</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" si="25"/>
@@ -24569,7 +24692,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="str">
         <f>member!A43</f>
         <v>西北偏北</v>
@@ -24598,7 +24721,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="str">
         <f>member!A44</f>
         <v>红色8号</v>
@@ -24625,7 +24748,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="str">
         <f>member!A45</f>
         <v>马耳他</v>
@@ -24652,7 +24775,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="str">
         <f>member!A46</f>
         <v>Cindy~陈猛</v>
@@ -24681,10 +24804,10 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="11">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="str">
         <f>member!A47</f>
-        <v>0</v>
+        <v>硕</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" si="25"/>
@@ -24708,10 +24831,10 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="11">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="str">
         <f>member!A48</f>
-        <v>0</v>
+        <v>Violin</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" si="25"/>
@@ -24735,7 +24858,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="str">
         <f>member!A49</f>
         <v>87号陈磊</v>
@@ -24778,7 +24901,7 @@
       </c>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="str">
         <f>member!A50</f>
         <v>水中阳光</v>
@@ -24807,7 +24930,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="str">
         <f>member!A51</f>
         <v>sam</v>
@@ -24842,7 +24965,7 @@
       </c>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="str">
         <f>member!A52</f>
         <v>26 方亚</v>
@@ -24879,7 +25002,7 @@
       </c>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="11">
         <f>member!A53</f>
         <v>0</v>
@@ -24906,7 +25029,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="str">
         <f>member!A54</f>
         <v>0号--张家宁</v>
@@ -24935,7 +25058,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="str">
         <f>member!A55</f>
         <v>泰山</v>
@@ -24964,7 +25087,7 @@
       </c>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="str">
         <f>member!A56</f>
         <v>尚峰</v>
@@ -24995,7 +25118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="str">
         <f>member!A57</f>
         <v>杨光</v>
@@ -25034,7 +25157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -25049,7 +25172,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -25064,7 +25187,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -25079,7 +25202,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -25094,7 +25217,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -25109,7 +25232,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -25131,23 +25254,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="7" t="s">
         <v>35</v>
@@ -25170,20 +25293,24 @@
       <c r="H1" s="5">
         <v>41011</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="I1" s="5">
+        <v>41016</v>
+      </c>
+      <c r="J1" s="5">
+        <v>41018</v>
+      </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="3">
         <f>SUM(B9:B100)</f>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="17"/>
@@ -25203,14 +25330,20 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:J2" si="2">COUNT(I9:I100)</f>
+        <v>19</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -25229,47 +25362,57 @@
       <c r="H3" s="21">
         <v>340</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="I3" s="21">
+        <v>340</v>
+      </c>
+      <c r="J3" s="21">
+        <v>340</v>
+      </c>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="12">
         <f>SUM(E4:T4)</f>
-        <v>1740</v>
+        <v>2850</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="21">
-        <f t="shared" ref="E4:F4" si="2">E2*E7</f>
+        <f t="shared" ref="E4:F4" si="3">E2*E7</f>
         <v>300</v>
       </c>
       <c r="F4" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>420</v>
       </c>
       <c r="G4" s="21">
-        <f t="shared" ref="G4:H4" si="3">G2*G7</f>
+        <f t="shared" ref="G4:H4" si="4">G2*G7</f>
         <v>510</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>510</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="I4" s="21">
+        <f t="shared" ref="I4:J4" si="5">I2*I7</f>
+        <v>570</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" si="5"/>
+        <v>540</v>
+      </c>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -25277,32 +25420,38 @@
       <c r="C5" s="12"/>
       <c r="D5" s="17">
         <f>SUM(E5:T5)</f>
-        <v>440</v>
+        <v>870</v>
       </c>
       <c r="E5" s="21">
-        <f t="shared" ref="E5:F5" si="4">E4-E3</f>
+        <f t="shared" ref="E5:F5" si="6">E4-E3</f>
         <v>20</v>
       </c>
       <c r="F5" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="G5" s="21">
-        <f t="shared" ref="G5:H5" si="5">G4-G3</f>
+        <f t="shared" ref="G5:H5" si="7">G4-G3</f>
         <v>170</v>
       </c>
       <c r="H5" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>170</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="I5" s="21">
+        <f t="shared" ref="I5:J5" si="8">I4-I3</f>
+        <v>230</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -25310,29 +25459,35 @@
       <c r="C6" s="12"/>
       <c r="D6" s="17"/>
       <c r="E6" s="21">
-        <f t="shared" ref="E6:F6" si="6">E3/E2</f>
+        <f t="shared" ref="E6:F6" si="9">E3/E2</f>
         <v>28</v>
       </c>
       <c r="F6" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.285714285714285</v>
       </c>
       <c r="G6" s="21">
-        <f t="shared" ref="G6:H6" si="7">G3/G2</f>
+        <f t="shared" ref="G6:H6" si="10">G3/G2</f>
         <v>20</v>
       </c>
       <c r="H6" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="I6" s="21">
+        <f t="shared" ref="I6:J6" si="11">I3/I2</f>
+        <v>17.894736842105264</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="11"/>
+        <v>18.888888888888889</v>
+      </c>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -25351,14 +25506,18 @@
       <c r="H7" s="21">
         <v>30</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="I7" s="21">
+        <v>30</v>
+      </c>
+      <c r="J7" s="21">
+        <v>30</v>
+      </c>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -25366,35 +25525,41 @@
       <c r="C8" s="12"/>
       <c r="D8" s="18"/>
       <c r="E8" s="21">
-        <f t="shared" ref="E8:F8" si="8">E7-E6</f>
+        <f t="shared" ref="E8:F8" si="12">E7-E6</f>
         <v>2</v>
       </c>
       <c r="F8" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.7142857142857153</v>
       </c>
       <c r="G8" s="21">
-        <f t="shared" ref="G8:H8" si="9">G7-G6</f>
+        <f t="shared" ref="G8:H8" si="13">G7-G6</f>
         <v>10</v>
       </c>
       <c r="H8" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="I8" s="21">
+        <f t="shared" ref="I8:J8" si="14">I7-I6</f>
+        <v>12.105263157894736</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="14"/>
+        <v>11.111111111111111</v>
+      </c>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="str">
         <f>member!A9</f>
         <v>守候幸福</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" ref="B9:B40" si="10">COUNT(E9:T9)</f>
+        <f t="shared" ref="B9:B40" si="15">COUNT(E9:T9)</f>
         <v>0</v>
       </c>
       <c r="C9" s="2">
@@ -25416,22 +25581,22 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="str">
         <f>member!A10</f>
         <v>李一刀</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <f>E7*E10+F7*F10+G7*G10+H7*H10+I7*I10+J7*J10+K7*K10+L7*L10+M7*M10+O7*O10+P7*P10+Q7*Q10+R7*R10+S7*S10+T7*T10</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D10" s="19">
         <f>E8*E10+F8*F10+G8*G10+H8*H10+I8*I10+J8*J10+K8*K10+L8*L10+M8*M10+O8*O10+P8*P10+Q8*Q10+R8*R10+S8*S10+T8*T10</f>
-        <v>27.714285714285715</v>
+        <v>50.930659983291562</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -25445,29 +25610,33 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="str">
         <f>member!A11</f>
         <v>咣咣地跟屁蟲</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
         <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D11" s="19">
         <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
-        <v>27.714285714285715</v>
+        <v>50.930659983291562</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -25481,20 +25650,24 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="str">
         <f>member!A12</f>
         <v>Oo内拉祖里oO</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C12" s="2">
@@ -25516,22 +25689,22 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="str">
         <f>member!A13</f>
         <v>幸福~拂晓</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
         <f>E7*E13+F7*F13+G7*G13+H7*H13+I7*I13+J7*J13+K7*K13+L7*L13+M7*M13+O7*O13+P7*P13+Q7*Q13+R7*R13+S7*S13+T7*T13</f>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D13" s="19">
         <f>E8*E13+F8*F13+G8*G13+H8*H13+I8*I13+J8*J13+K8*K13+L8*L13+M8*M13+O8*O13+P8*P13+Q8*Q13+R8*R13+S8*S13+T8*T13</f>
-        <v>25.714285714285715</v>
+        <v>48.930659983291562</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
@@ -25543,29 +25716,33 @@
       <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="str">
         <f>member!A14</f>
         <v>蚕豆</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
         <f>E7*E14+F7*F14+G7*G14+H7*H14+I7*I14+J7*J14+K7*K14+L7*L14+M7*M14+O7*O14+P7*P14+Q7*Q14+R7*R14+S7*S14+T7*T14</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D14" s="19">
         <f>E8*E14+F8*F14+G8*G14+H8*H14+I8*I14+J8*J14+K8*K14+L8*L14+M8*M14+O8*O14+P8*P14+Q8*Q14+R8*R14+S8*S14+T8*T14</f>
-        <v>27.714285714285715</v>
+        <v>50.930659983291562</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -25579,20 +25756,24 @@
       <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="str">
         <f>member!A15</f>
         <v>who cares?</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C15" s="2">
@@ -25614,13 +25795,13 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="str">
         <f>member!A16</f>
         <v>幸福~彩票</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C16" s="2">
@@ -25642,22 +25823,22 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="str">
         <f>member!A17</f>
         <v>清道夫</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
         <f>E7*E17+F7*F17+G7*G17+H7*H17+I7*I17+J7*J17+K7*K17+L7*L17+M7*M17+O7*O17+P7*P17+Q7*Q17+R7*R17+S7*S17+T7*T17</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D17" s="19">
         <f>E8*E17+F8*F17+G8*G17+H8*H17+I8*I17+J8*J17+K8*K17+L8*L17+M8*M17+O8*O17+P8*P17+Q8*Q17+R8*R17+S8*S17+T8*T17</f>
-        <v>15.714285714285715</v>
+        <v>26.825396825396826</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
@@ -25668,28 +25849,30 @@
         <v>1</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="str">
         <f>member!A18</f>
         <v>老A</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
         <f>E7*E18+F7*F18+G7*G18+H7*H18+I7*I18+J7*J18+K7*K18+L7*L18+M7*M18+O7*O18+P7*P18+Q7*Q18+R7*R18+S7*S18+T7*T18</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D18" s="19">
         <f>E8*E18+F8*F18+G8*G18+H8*H18+I8*I18+J8*J18+K8*K18+L8*L18+M8*M18+O8*O18+P8*P18+Q8*Q18+R8*R18+S8*S18+T8*T18</f>
-        <v>10</v>
+        <v>22.105263157894736</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -25697,29 +25880,31 @@
         <v>1</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="str">
         <f>member!A19</f>
         <v>狐狸</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
         <f>E7*E19+F7*F19+G7*G19+H7*H19+I7*I19+J7*J19+K7*K19+L7*L19+M7*M19+O7*O19+P7*P19+Q7*Q19+R7*R19+S7*S19+T7*T19</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D19" s="19">
         <f>E8*E19+F8*F19+G8*G19+H8*H19+I8*I19+J8*J19+K8*K19+L8*L19+M8*M19+O8*O19+P8*P19+Q8*Q19+R8*R19+S8*S19+T8*T19</f>
-        <v>27.714285714285715</v>
+        <v>50.930659983291562</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -25733,29 +25918,33 @@
       <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="str">
         <f>member!A20</f>
         <v>腿子</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="C20" s="2">
         <f>E7*E20+F7*F20+G7*G20+H7*H20+I7*I20+J7*J20+K7*K20+L7*L20+M7*M20+O7*O20+P7*P20+Q7*Q20+R7*R20+S7*S20+T7*T20</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D20" s="19">
         <f>E8*E20+F8*F20+G8*G20+H8*H20+I8*I20+J8*J20+K8*K20+L8*L20+M8*M20+O8*O20+P8*P20+Q8*Q20+R8*R20+S8*S20+T8*T20</f>
-        <v>5.7142857142857153</v>
+        <v>16.825396825396826</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
@@ -25764,19 +25953,21 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="str">
         <f>member!A21</f>
         <v>smile</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C21" s="2">
@@ -25798,22 +25989,22 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="str">
         <f>member!A22</f>
         <v>小贝</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="C22" s="2">
         <f>E7*E22+F7*F22+G7*G22+H7*H22+I7*I22+J7*J22+K7*K22+L7*L22+M7*M22+O7*O22+P7*P22+Q7*Q22+R7*R22+S7*S22+T7*T22</f>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D22" s="19">
         <f>E8*E22+F8*F22+G8*G22+H8*H22+I8*I22+J8*J22+K8*K22+L8*L22+M8*M22+O8*O22+P8*P22+Q8*Q22+R8*R22+S8*S22+T8*T22</f>
-        <v>22</v>
+        <v>45.216374269005854</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -25825,29 +26016,33 @@
       <c r="H22" s="2">
         <v>1</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="str">
         <f>member!A23</f>
         <v>11号-鲜明</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="C23" s="2">
         <f>E7*E23+F7*F23+G7*G23+H7*H23+I7*I23+J7*J23+K7*K23+L7*L23+M7*M23+O7*O23+P7*P23+Q7*Q23+R7*R23+S7*S23+T7*T23</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D23" s="19">
         <f>E8*E23+F8*F23+G8*G23+H8*H23+I8*I23+J8*J23+K8*K23+L8*L23+M8*M23+O8*O23+P8*P23+Q8*Q23+R8*R23+S8*S23+T8*T23</f>
-        <v>10</v>
+        <v>22.105263157894736</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -25855,29 +26050,31 @@
         <v>1</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="str">
         <f>member!A24</f>
         <v>狐狸~涛</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="C24" s="2">
         <f>E7*E24+F7*F24+G7*G24+H7*H24+I7*I24+J7*J24+K7*K24+L7*L24+M7*M24+O7*O24+P7*P24+Q7*Q24+R7*R24+S7*S24+T7*T24</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D24" s="19">
         <f>E8*E24+F8*F24+G8*G24+H8*H24+I8*I24+J8*J24+K8*K24+L8*L24+M8*M24+O8*O24+P8*P24+Q8*Q24+R8*R24+S8*S24+T8*T24</f>
-        <v>12</v>
+        <v>23.111111111111111</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -25888,28 +26085,30 @@
         <v>1</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="str">
         <f>member!A25</f>
         <v>侯盟</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="C25" s="2">
         <f>E7*E25+F7*F25+G7*G25+H7*H25+I7*I25+J7*J25+K7*K25+L7*L25+M7*M25+O7*O25+P7*P25+Q7*Q25+R7*R25+S7*S25+T7*T25</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D25" s="19">
         <f>E8*E25+F8*F25+G8*G25+H8*H25+I8*I25+J8*J25+K8*K25+L8*L25+M8*M25+O8*O25+P8*P25+Q8*Q25+R8*R25+S8*S25+T8*T25</f>
-        <v>7.7142857142857153</v>
+        <v>30.930659983291562</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -25919,20 +26118,24 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="str">
         <f>member!A26</f>
         <v>玖伍贰壹</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C26" s="2">
@@ -25956,22 +26159,22 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="str">
         <f>member!A27</f>
         <v>红色F50-超</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
         <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D27" s="19">
         <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
-        <v>27.714285714285715</v>
+        <v>50.930659983291562</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -25985,29 +26188,33 @@
       <c r="H27" s="2">
         <v>1</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="str">
         <f>member!A28</f>
         <v>活了</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="C28" s="2">
         <f>E7*E28+F7*F28+G7*G28+H7*H28+I7*I28+J7*J28+K7*K28+L7*L28+M7*M28+O7*O28+P7*P28+Q7*Q28+R7*R28+S7*S28+T7*T28</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D28" s="19">
         <f>E8*E28+F8*F28+G8*G28+H8*H28+I8*I28+J8*J28+K8*K28+L8*L28+M8*M28+O8*O28+P8*P28+Q8*Q28+R8*R28+S8*S28+T8*T28</f>
-        <v>20</v>
+        <v>32.10526315789474</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -26017,29 +26224,31 @@
       <c r="H28" s="2">
         <v>1</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="str">
         <f>member!A29</f>
         <v>天赐</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="C29" s="2">
         <f>E7*E29+F7*F29+G7*G29+H7*H29+I7*I29+J7*J29+K7*K29+L7*L29+M7*M29+O7*O29+P7*P29+Q7*Q29+R7*R29+S7*S29+T7*T29</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D29" s="19">
         <f>E8*E29+F8*F29+G8*G29+H8*H29+I8*I29+J8*J29+K8*K29+L8*L29+M8*M29+O8*O29+P8*P29+Q8*Q29+R8*R29+S8*S29+T8*T29</f>
-        <v>25.714285714285715</v>
+        <v>36.825396825396822</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2">
@@ -26052,28 +26261,30 @@
         <v>1</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="str">
         <f>member!A30</f>
         <v>Shenghak</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="C30" s="2">
         <f>E7*E30+F7*F30+G7*G30+H7*H30+I7*I30+J7*J30+K7*K30+L7*L30+M7*M30+O7*O30+P7*P30+Q7*Q30+R7*R30+S7*S30+T7*T30</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D30" s="19">
         <f>E8*E30+F8*F30+G8*G30+H8*H30+I8*I30+J8*J30+K8*K30+L8*L30+M8*M30+O8*O30+P8*P30+Q8*Q30+R8*R30+S8*S30+T8*T30</f>
-        <v>10</v>
+        <v>22.105263157894736</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -26081,20 +26292,22 @@
       <c r="H30" s="2">
         <v>1</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="str">
         <f>member!A31</f>
         <v>红色6号</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C31" s="2">
@@ -26116,41 +26329,45 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="11">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="str">
         <f>member!A32</f>
-        <v>0</v>
+        <v>微笑</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="C32" s="2">
         <f>E7*E32+F7*F32+G7*G32+H7*H32+I7*I32+J7*J32+K7*K32+L7*L32+M7*M32+O7*O32+P7*P32+Q7*Q32+R7*R32+S7*S32+T7*T32</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D32" s="19">
         <f>E8*E32+F8*F32+G8*G32+H8*H32+I8*I32+J8*J32+K8*K32+L8*L32+M8*M32+O8*O32+P8*P32+Q8*Q32+R8*R32+S8*S32+T8*T32</f>
-        <v>0</v>
+        <v>23.216374269005847</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="str">
         <f>member!A33</f>
         <v>77号-更心</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C33" s="2">
@@ -26174,13 +26391,13 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="str">
         <f>member!A34</f>
         <v>更心朋友</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C34" s="2">
@@ -26202,22 +26419,22 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="str">
         <f>member!A35</f>
         <v>8号-菜菜亮</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="C35" s="2">
         <f>E7*E35+F7*F35+G7*G35+H7*H35+I7*I35+J7*J35+K7*K35+L7*L35+M7*M35+O7*O35+P7*P35+Q7*Q35+R7*R35+S7*S35+T7*T35</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D35" s="19">
         <f>E8*E35+F8*F35+G8*G35+H8*H35+I8*I35+J8*J35+K8*K35+L8*L35+M8*M35+O8*O35+P8*P35+Q8*Q35+R8*R35+S8*S35+T8*T35</f>
-        <v>12</v>
+        <v>24.105263157894736</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -26227,20 +26444,22 @@
         <v>1</v>
       </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="str">
         <f>member!A36</f>
         <v>杨光朋友</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C36" s="2">
@@ -26262,41 +26481,43 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="11">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="str">
         <f>member!A37</f>
-        <v>0</v>
+        <v>拂晓朋友</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="C37" s="2">
         <f>E7*E37+F7*F37+G7*G37+H7*H37+I7*I37+J7*J37+K7*K37+L7*L37+M7*M37+O7*O37+P7*P37+Q7*Q37+R7*R37+S7*S37+T7*T37</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D37" s="19">
         <f>E8*E37+F8*F37+G8*G37+H8*H37+I8*I37+J8*J37+K8*K37+L8*L37+M8*M37+O8*O37+P8*P37+Q8*Q37+R8*R37+S8*S37+T8*T37</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="str">
         <f>member!A38</f>
         <v>4号-许多</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C38" s="2">
@@ -26318,41 +26539,43 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="str">
         <f>member!A39</f>
         <v>5号-正</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="C39" s="2">
         <f>E7*E39+F7*F39+G7*G39+H7*H39+I7*I39+J7*J39+K7*K39+L7*L39+M7*M39+O7*O39+P7*P39+Q7*Q39+R7*R39+S7*S39+T7*T39</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D39" s="19">
         <f>E8*E39+F8*F39+G8*G39+H8*H39+I8*I39+J8*J39+K8*K39+L8*L39+M8*M39+O8*O39+P8*P39+Q8*Q39+R8*R39+S8*S39+T8*T39</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="str">
         <f>member!A40</f>
         <v>勇敢的爬爬</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C40" s="2">
@@ -26374,13 +26597,13 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="str">
         <f>member!A41</f>
         <v>17号-4号字母</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" ref="B41:B57" si="11">COUNT(E41:T41)</f>
+        <f t="shared" ref="B41:B57" si="16">COUNT(E41:T41)</f>
         <v>1</v>
       </c>
       <c r="C41" s="2">
@@ -26404,50 +26627,52 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="11">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="str">
         <f>member!A42</f>
-        <v>0</v>
+        <v>雷</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="C42" s="2">
         <f>E7*E42+F7*F42+G7*G42+H7*H42+I7*I42+J7*J42+K7*K42+L7*L42+M7*M42+O7*O42+P7*P42+Q7*Q42+R7*R42+S7*S42+T7*T42</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D42" s="19">
         <f>E8*E42+F8*F42+G8*G42+H8*H42+I8*I42+J8*J42+K8*K42+L8*L42+M8*M42+O8*O42+P8*P42+Q8*Q42+R8*R42+S8*S42+T8*T42</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="str">
         <f>member!A43</f>
         <v>西北偏北</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="C43" s="2">
         <f>E7*E43+F7*F43+G7*G43+H7*H43+I7*I43+J7*J43+K7*K43+L7*L43+M7*M43+O7*O43+P7*P43+Q7*Q43+R7*R43+S7*S43+T7*T43</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D43" s="19">
         <f>E8*E43+F8*F43+G8*G43+H8*H43+I8*I43+J8*J43+K8*K43+L8*L43+M8*M43+O8*O43+P8*P43+Q8*Q43+R8*R43+S8*S43+T8*T43</f>
-        <v>10</v>
+        <v>33.216374269005847</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -26455,20 +26680,24 @@
       <c r="H43" s="2">
         <v>1</v>
       </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="str">
         <f>member!A44</f>
         <v>红色8号</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C44" s="2">
@@ -26490,13 +26719,13 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="str">
         <f>member!A45</f>
         <v>马耳他</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C45" s="2">
@@ -26518,13 +26747,13 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="str">
         <f>member!A46</f>
         <v>Cindy~陈猛</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="C46" s="2">
@@ -26554,13 +26783,13 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="11">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="str">
         <f>member!A47</f>
-        <v>0</v>
+        <v>硕</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C47" s="2">
@@ -26582,13 +26811,13 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="11">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="str">
         <f>member!A48</f>
-        <v>0</v>
+        <v>Violin</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C48" s="2">
@@ -26610,22 +26839,22 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="str">
         <f>member!A49</f>
         <v>87号陈磊</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="C49" s="2">
         <f>E7*E49+F7*F49+G7*G49+H7*H49+I7*I49+J7*J49+K7*K49+L7*L49+M7*M49+O7*O49+P7*P49+Q7*Q49+R7*R49+S7*S49+T7*T49</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D49" s="19">
         <f>E8*E49+F8*F49+G8*G49+H8*H49+I8*I49+J8*J49+K8*K49+L8*L49+M8*M49+O8*O49+P8*P49+Q8*Q49+R8*R49+S8*S49+T8*T49</f>
-        <v>25.714285714285715</v>
+        <v>37.819548872180448</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2">
@@ -26637,20 +26866,22 @@
       <c r="H49" s="2">
         <v>1</v>
       </c>
-      <c r="I49" s="2"/>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="str">
         <f>member!A50</f>
         <v>水中阳光</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C50" s="2">
@@ -26672,22 +26903,22 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="str">
         <f>member!A51</f>
         <v>sam</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="C51" s="2">
         <f>E7*E51+F7*F51+G7*G51+H7*H51+I7*I51+J7*J51+K7*K51+L7*L51+M7*M51+O7*O51+P7*P51+Q7*Q51+R7*R51+S7*S51+T7*T51</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D51" s="19">
         <f>E8*E51+F8*F51+G8*G51+H8*H51+I8*I51+J8*J51+K8*K51+L8*L51+M8*M51+O8*O51+P8*P51+Q8*Q51+R8*R51+S8*S51+T8*T51</f>
-        <v>10</v>
+        <v>22.105263157894736</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -26695,29 +26926,31 @@
         <v>1</v>
       </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="str">
         <f>member!A52</f>
         <v>26 方亚</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="C52" s="2">
         <f>E7*E52+F7*F52+G7*G52+H7*H52+I7*I52+J7*J52+K7*K52+L7*L52+M7*M52+O7*O52+P7*P52+Q7*Q52+R7*R52+S7*S52+T7*T52</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D52" s="19">
         <f>E8*E52+F8*F52+G8*G52+H8*H52+I8*I52+J8*J52+K8*K52+L8*L52+M8*M52+O8*O52+P8*P52+Q8*Q52+R8*R52+S8*S52+T8*T52</f>
-        <v>10</v>
+        <v>22.105263157894736</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -26725,20 +26958,22 @@
         <v>1</v>
       </c>
       <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="11">
         <f>member!A53</f>
         <v>0</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C53" s="2">
@@ -26760,13 +26995,13 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="str">
         <f>member!A54</f>
         <v>0号--张家宁</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C54" s="2">
@@ -26788,22 +27023,22 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="str">
         <f>member!A55</f>
         <v>泰山</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="C55" s="2">
         <f>E7*E55+F7*F55+G7*G55+H7*H55+I7*I55+J7*J55+K7*K55+L7*L55+M7*M55+O7*O55+P7*P55+Q7*Q55+R7*R55+S7*S55+T7*T55</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D55" s="19">
         <f>E8*E55+F8*F55+G8*G55+H8*H55+I8*I55+J8*J55+K8*K55+L8*L55+M8*M55+O8*O55+P8*P55+Q8*Q55+R8*R55+S8*S55+T8*T55</f>
-        <v>5.7142857142857153</v>
+        <v>16.825396825396826</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2">
@@ -26812,28 +27047,30 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="str">
         <f>member!A56</f>
         <v>尚峰</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="C56" s="2">
         <f>E7*E56+F7*F56+G7*G56+H7*H56+I7*I56+J7*J56+K7*K56+L7*L56+M7*M56+O7*O56+P7*P56+Q7*Q56+R7*R56+S7*S56+T7*T56</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D56" s="19">
         <f>E8*E56+F8*F56+G8*G56+H8*H56+I8*I56+J8*J56+K8*K56+L8*L56+M8*M56+O8*O56+P8*P56+Q8*Q56+R8*R56+S8*S56+T8*T56</f>
-        <v>10</v>
+        <v>22.105263157894736</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -26841,20 +27078,22 @@
       <c r="H56" s="1">
         <v>1</v>
       </c>
-      <c r="I56" s="1"/>
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="str">
         <f>member!A57</f>
         <v>杨光</v>
       </c>
       <c r="B57" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C57" s="2">
@@ -26876,7 +27115,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -26892,7 +27131,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -26908,7 +27147,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -26924,7 +27163,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -26940,7 +27179,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -26956,7 +27195,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -26979,25 +27218,1148 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="11"/>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5">
+        <v>41037</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3">
+        <f>SUM(B9:B100)</f>
+        <v>18</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2" si="0">COUNT(E9:E100)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="21">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="12">
+        <f>SUM(E4:T4)</f>
+        <v>540</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="21">
+        <f t="shared" ref="E4" si="1">E2*E7</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="17">
+        <f>SUM(E5:T5)</f>
+        <v>195</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" ref="E5" si="2">E4-E3</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="21">
+        <f t="shared" ref="E6" si="3">E3/E2</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="21">
+        <f t="shared" ref="E8" si="4">E7-E6</f>
+        <v>10.833333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="str">
+        <f>member!A9</f>
+        <v>守候幸福</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ref="B9:B57" si="5">COUNT(E9:T9)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <f>E7*E9+F7*F9+G7*G9+H7*H9+I7*I9+J7*J9+K7*K9+L7*L9+M7*M9+O7*O9+P7*P9+Q7*Q9+R7*R9+S7*S9+T7*T9</f>
+        <v>30</v>
+      </c>
+      <c r="D9" s="19">
+        <f>E8*E9+F8*F9+G8*G9+H8*H9+I8*I9+J8*J9+K8*K9+L8*L9+M8*M9+O8*O9+P8*P9+Q8*Q9+R8*R9+S8*S9+T8*T9</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="str">
+        <f>member!A10</f>
+        <v>李一刀</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <f>E7*E10+F7*F10+G7*G10+H7*H10+I7*I10+J7*J10+K7*K10+L7*L10+M7*M10+O7*O10+P7*P10+Q7*Q10+R7*R10+S7*S10+T7*T10</f>
+        <v>30</v>
+      </c>
+      <c r="D10" s="19">
+        <f>E8*E10+F8*F10+G8*G10+H8*H10+I8*I10+J8*J10+K8*K10+L8*L10+M8*M10+O8*O10+P8*P10+Q8*Q10+R8*R10+S8*S10+T8*T10</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="str">
+        <f>member!A11</f>
+        <v>咣咣地跟屁蟲</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
+        <v>30</v>
+      </c>
+      <c r="D11" s="19">
+        <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="str">
+        <f>member!A12</f>
+        <v>Oo内拉祖里oO</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <f>E7*E12+F7*F12+G7*G12+H7*H12+I7*I12+J7*J12+K7*K12+L7*L12+M7*M12+O7*O12+P7*P12+Q7*Q12+R7*R12+S7*S12+T7*T12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
+        <f>E8*E12+F8*F12+G8*G12+H8*H12+I8*I12+J8*J12+K8*K12+L8*L12+M8*M12+O8*O12+P8*P12+Q8*Q12+R8*R12+S8*S12+T8*T12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="str">
+        <f>member!A13</f>
+        <v>幸福~拂晓</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <f>E7*E13+F7*F13+G7*G13+H7*H13+I7*I13+J7*J13+K7*K13+L7*L13+M7*M13+O7*O13+P7*P13+Q7*Q13+R7*R13+S7*S13+T7*T13</f>
+        <v>30</v>
+      </c>
+      <c r="D13" s="19">
+        <f>E8*E13+F8*F13+G8*G13+H8*H13+I8*I13+J8*J13+K8*K13+L8*L13+M8*M13+O8*O13+P8*P13+Q8*Q13+R8*R13+S8*S13+T8*T13</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="str">
+        <f>member!A14</f>
+        <v>蚕豆</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <f>E7*E14+F7*F14+G7*G14+H7*H14+I7*I14+J7*J14+K7*K14+L7*L14+M7*M14+O7*O14+P7*P14+Q7*Q14+R7*R14+S7*S14+T7*T14</f>
+        <v>30</v>
+      </c>
+      <c r="D14" s="19">
+        <f>E8*E14+F8*F14+G8*G14+H8*H14+I8*I14+J8*J14+K8*K14+L8*L14+M8*M14+O8*O14+P8*P14+Q8*Q14+R8*R14+S8*S14+T8*T14</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="str">
+        <f>member!A15</f>
+        <v>who cares?</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <f>E7*E15+F7*F15+G7*G15+H7*H15+I7*I15+J7*J15+K7*K15+L7*L15+M7*M15+O7*O15+P7*P15+Q7*Q15+R7*R15+S7*S15+T7*T15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="19">
+        <f>E8*E15+F8*F15+G8*G15+H8*H15+I8*I15+J8*J15+K8*K15+L8*L15+M8*M15+O8*O15+P8*P15+Q8*Q15+R8*R15+S8*S15+T8*T15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="str">
+        <f>member!A16</f>
+        <v>幸福~彩票</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <f>E7*E16+F7*F16+G7*G16+H7*H16+I7*I16+J7*J16+K7*K16+L7*L16+M7*M16+O7*O16+P7*P16+Q7*Q16+R7*R16+S7*S16+T7*T16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="19">
+        <f>E8*E16+F8*F16+G8*G16+H8*H16+I8*I16+J8*J16+K8*K16+L8*L16+M8*M16+O8*O16+P8*P16+Q8*Q16+R8*R16+S8*S16+T8*T16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="str">
+        <f>member!A17</f>
+        <v>清道夫</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <f>E7*E17+F7*F17+G7*G17+H7*H17+I7*I17+J7*J17+K7*K17+L7*L17+M7*M17+O7*O17+P7*P17+Q7*Q17+R7*R17+S7*S17+T7*T17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
+        <f>E8*E17+F8*F17+G8*G17+H8*H17+I8*I17+J8*J17+K8*K17+L8*L17+M8*M17+O8*O17+P8*P17+Q8*Q17+R8*R17+S8*S17+T8*T17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="str">
+        <f>member!A18</f>
+        <v>老A</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f>E7*E18+F7*F18+G7*G18+H7*H18+I7*I18+J7*J18+K7*K18+L7*L18+M7*M18+O7*O18+P7*P18+Q7*Q18+R7*R18+S7*S18+T7*T18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="19">
+        <f>E8*E18+F8*F18+G8*G18+H8*H18+I8*I18+J8*J18+K8*K18+L8*L18+M8*M18+O8*O18+P8*P18+Q8*Q18+R8*R18+S8*S18+T8*T18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="str">
+        <f>member!A19</f>
+        <v>狐狸</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <f>E7*E19+F7*F19+G7*G19+H7*H19+I7*I19+J7*J19+K7*K19+L7*L19+M7*M19+O7*O19+P7*P19+Q7*Q19+R7*R19+S7*S19+T7*T19</f>
+        <v>30</v>
+      </c>
+      <c r="D19" s="19">
+        <f>E8*E19+F8*F19+G8*G19+H8*H19+I8*I19+J8*J19+K8*K19+L8*L19+M8*M19+O8*O19+P8*P19+Q8*Q19+R8*R19+S8*S19+T8*T19</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="str">
+        <f>member!A20</f>
+        <v>腿子</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <f>E7*E20+F7*F20+G7*G20+H7*H20+I7*I20+J7*J20+K7*K20+L7*L20+M7*M20+O7*O20+P7*P20+Q7*Q20+R7*R20+S7*S20+T7*T20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="19">
+        <f>E8*E20+F8*F20+G8*G20+H8*H20+I8*I20+J8*J20+K8*K20+L8*L20+M8*M20+O8*O20+P8*P20+Q8*Q20+R8*R20+S8*S20+T8*T20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="str">
+        <f>member!A21</f>
+        <v>smile</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <f>E7*E21+F7*F21+G7*G21+H7*H21+I7*I21+J7*J21+K7*K21+L7*L21+M7*M21+O7*O21+P7*P21+Q7*Q21+R7*R21+S7*S21+T7*T21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="19">
+        <f>E8*E21+F8*F21+G8*G21+H8*H21+I8*I21+J8*J21+K8*K21+L8*L21+M8*M21+O8*O21+P8*P21+Q8*Q21+R8*R21+S8*S21+T8*T21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="str">
+        <f>member!A22</f>
+        <v>小贝</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <f>E7*E22+F7*F22+G7*G22+H7*H22+I7*I22+J7*J22+K7*K22+L7*L22+M7*M22+O7*O22+P7*P22+Q7*Q22+R7*R22+S7*S22+T7*T22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
+        <f>E8*E22+F8*F22+G8*G22+H8*H22+I8*I22+J8*J22+K8*K22+L8*L22+M8*M22+O8*O22+P8*P22+Q8*Q22+R8*R22+S8*S22+T8*T22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="str">
+        <f>member!A23</f>
+        <v>11号-鲜明</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <f>E7*E23+F7*F23+G7*G23+H7*H23+I7*I23+J7*J23+K7*K23+L7*L23+M7*M23+O7*O23+P7*P23+Q7*Q23+R7*R23+S7*S23+T7*T23</f>
+        <v>30</v>
+      </c>
+      <c r="D23" s="19">
+        <f>E8*E23+F8*F23+G8*G23+H8*H23+I8*I23+J8*J23+K8*K23+L8*L23+M8*M23+O8*O23+P8*P23+Q8*Q23+R8*R23+S8*S23+T8*T23</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="str">
+        <f>member!A24</f>
+        <v>狐狸~涛</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <f>E7*E24+F7*F24+G7*G24+H7*H24+I7*I24+J7*J24+K7*K24+L7*L24+M7*M24+O7*O24+P7*P24+Q7*Q24+R7*R24+S7*S24+T7*T24</f>
+        <v>30</v>
+      </c>
+      <c r="D24" s="19">
+        <f>E8*E24+F8*F24+G8*G24+H8*H24+I8*I24+J8*J24+K8*K24+L8*L24+M8*M24+O8*O24+P8*P24+Q8*Q24+R8*R24+S8*S24+T8*T24</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="str">
+        <f>member!A25</f>
+        <v>侯盟</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <f>E7*E25+F7*F25+G7*G25+H7*H25+I7*I25+J7*J25+K7*K25+L7*L25+M7*M25+O7*O25+P7*P25+Q7*Q25+R7*R25+S7*S25+T7*T25</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
+        <f>E8*E25+F8*F25+G8*G25+H8*H25+I8*I25+J8*J25+K8*K25+L8*L25+M8*M25+O8*O25+P8*P25+Q8*Q25+R8*R25+S8*S25+T8*T25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="str">
+        <f>member!A26</f>
+        <v>玖伍贰壹</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <f>E7*E26+F7*F26+G7*G26+H7*H26+I7*I26+J7*J26+K7*K26+L7*L26+M7*M26+O7*O26+P7*P26+Q7*Q26+R7*R26+S7*S26+T7*T26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="19">
+        <f>E8*E26+F8*F26+G8*G26+H8*H26+I8*I26+J8*J26+K8*K26+L8*L26+M8*M26+O8*O26+P8*P26+Q8*Q26+R8*R26+S8*S26+T8*T26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="str">
+        <f>member!A27</f>
+        <v>红色F50-超</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
+        <v>30</v>
+      </c>
+      <c r="D27" s="19">
+        <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="str">
+        <f>member!A28</f>
+        <v>活了</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <f>E7*E28+F7*F28+G7*G28+H7*H28+I7*I28+J7*J28+K7*K28+L7*L28+M7*M28+O7*O28+P7*P28+Q7*Q28+R7*R28+S7*S28+T7*T28</f>
+        <v>30</v>
+      </c>
+      <c r="D28" s="19">
+        <f>E8*E28+F8*F28+G8*G28+H8*H28+I8*I28+J8*J28+K8*K28+L8*L28+M8*M28+O8*O28+P8*P28+Q8*Q28+R8*R28+S8*S28+T8*T28</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="str">
+        <f>member!A29</f>
+        <v>天赐</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <f>E7*E29+F7*F29+G7*G29+H7*H29+I7*I29+J7*J29+K7*K29+L7*L29+M7*M29+O7*O29+P7*P29+Q7*Q29+R7*R29+S7*S29+T7*T29</f>
+        <v>30</v>
+      </c>
+      <c r="D29" s="19">
+        <f>E8*E29+F8*F29+G8*G29+H8*H29+I8*I29+J8*J29+K8*K29+L8*L29+M8*M29+O8*O29+P8*P29+Q8*Q29+R8*R29+S8*S29+T8*T29</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="str">
+        <f>member!A30</f>
+        <v>Shenghak</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <f>E7*E30+F7*F30+G7*G30+H7*H30+I7*I30+J7*J30+K7*K30+L7*L30+M7*M30+O7*O30+P7*P30+Q7*Q30+R7*R30+S7*S30+T7*T30</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
+        <f>E8*E30+F8*F30+G8*G30+H8*H30+I8*I30+J8*J30+K8*K30+L8*L30+M8*M30+O8*O30+P8*P30+Q8*Q30+R8*R30+S8*S30+T8*T30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="str">
+        <f>member!A31</f>
+        <v>红色6号</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <f>E7*E31+F7*F31+G7*G31+H7*H31+I7*I31+J7*J31+K7*K31+L7*L31+M7*M31+O7*O31+P7*P31+Q7*Q31+R7*R31+S7*S31+T7*T31</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="19">
+        <f>E8*E31+F8*F31+G8*G31+H8*H31+I8*I31+J8*J31+K8*K31+L8*L31+M8*M31+O8*O31+P8*P31+Q8*Q31+R8*R31+S8*S31+T8*T31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="str">
+        <f>member!A32</f>
+        <v>微笑</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <f>E7*E32+F7*F32+G7*G32+H7*H32+I7*I32+J7*J32+K7*K32+L7*L32+M7*M32+O7*O32+P7*P32+Q7*Q32+R7*R32+S7*S32+T7*T32</f>
+        <v>30</v>
+      </c>
+      <c r="D32" s="19">
+        <f>E8*E32+F8*F32+G8*G32+H8*H32+I8*I32+J8*J32+K8*K32+L8*L32+M8*M32+O8*O32+P8*P32+Q8*Q32+R8*R32+S8*S32+T8*T32</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="str">
+        <f>member!A33</f>
+        <v>77号-更心</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <f>E7*E33+F7*F33+G7*G33+H7*H33+I7*I33+J7*J33+K7*K33+L7*L33+M7*M33+O7*O33+P7*P33+Q7*Q33+R7*R33+S7*S33+T7*T33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="19">
+        <f>E8*E33+F8*F33+G8*G33+H8*H33+I8*I33+J8*J33+K8*K33+L8*L33+M8*M33+O8*O33+P8*P33+Q8*Q33+R8*R33+S8*S33+T8*T33</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="str">
+        <f>member!A34</f>
+        <v>更心朋友</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <f>E7*E34+F7*F34+G7*G34+H7*H34+I7*I34+J7*J34+K7*K34+L7*L34+M7*M34+O7*O34+P7*P34+Q7*Q34+R7*R34+S7*S34+T7*T34</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="19">
+        <f>E8*E34+F8*F34+G8*G34+H8*H34+I8*I34+J8*J34+K8*K34+L8*L34+M8*M34+O8*O34+P8*P34+Q8*Q34+R8*R34+S8*S34+T8*T34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="str">
+        <f>member!A35</f>
+        <v>8号-菜菜亮</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <f>E7*E35+F7*F35+G7*G35+H7*H35+I7*I35+J7*J35+K7*K35+L7*L35+M7*M35+O7*O35+P7*P35+Q7*Q35+R7*R35+S7*S35+T7*T35</f>
+        <v>30</v>
+      </c>
+      <c r="D35" s="19">
+        <f>E8*E35+F8*F35+G8*G35+H8*H35+I8*I35+J8*J35+K8*K35+L8*L35+M8*M35+O8*O35+P8*P35+Q8*Q35+R8*R35+S8*S35+T8*T35</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="str">
+        <f>member!A36</f>
+        <v>杨光朋友</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <f>E7*E36+F7*F36+G7*G36+H7*H36+I7*I36+J7*J36+K7*K36+L7*L36+M7*M36+O7*O36+P7*P36+Q7*Q36+R7*R36+S7*S36+T7*T36</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="19">
+        <f>E8*E36+F8*F36+G8*G36+H8*H36+I8*I36+J8*J36+K8*K36+L8*L36+M8*M36+O8*O36+P8*P36+Q8*Q36+R8*R36+S8*S36+T8*T36</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="str">
+        <f>member!A37</f>
+        <v>拂晓朋友</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <f>E7*E37+F7*F37+G7*G37+H7*H37+I7*I37+J7*J37+K7*K37+L7*L37+M7*M37+O7*O37+P7*P37+Q7*Q37+R7*R37+S7*S37+T7*T37</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="19">
+        <f>E8*E37+F8*F37+G8*G37+H8*H37+I8*I37+J8*J37+K8*K37+L8*L37+M8*M37+O8*O37+P8*P37+Q8*Q37+R8*R37+S8*S37+T8*T37</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="str">
+        <f>member!A38</f>
+        <v>4号-许多</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <f>E7*E38+F7*F38+G7*G38+H7*H38+I7*I38+J7*J38+K7*K38+L7*L38+M7*M38+O7*O38+P7*P38+Q7*Q38+R7*R38+S7*S38+T7*T38</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="19">
+        <f>E8*E38+F8*F38+G8*G38+H8*H38+I8*I38+J8*J38+K8*K38+L8*L38+M8*M38+O8*O38+P8*P38+Q8*Q38+R8*R38+S8*S38+T8*T38</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="str">
+        <f>member!A39</f>
+        <v>5号-正</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <f>E7*E39+F7*F39+G7*G39+H7*H39+I7*I39+J7*J39+K7*K39+L7*L39+M7*M39+O7*O39+P7*P39+Q7*Q39+R7*R39+S7*S39+T7*T39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="19">
+        <f>E8*E39+F8*F39+G8*G39+H8*H39+I8*I39+J8*J39+K8*K39+L8*L39+M8*M39+O8*O39+P8*P39+Q8*Q39+R8*R39+S8*S39+T8*T39</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="str">
+        <f>member!A40</f>
+        <v>勇敢的爬爬</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <f>E7*E40+F7*F40+G7*G40+H7*H40+I7*I40+J7*J40+K7*K40+L7*L40+M7*M40+O7*O40+P7*P40+Q7*Q40+R7*R40+S7*S40+T7*T40</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="19">
+        <f>E8*E40+F8*F40+G8*G40+H8*H40+I8*I40+J8*J40+K8*K40+L8*L40+M8*M40+O8*O40+P8*P40+Q8*Q40+R8*R40+S8*S40+T8*T40</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="str">
+        <f>member!A41</f>
+        <v>17号-4号字母</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <f>E7*E41+F7*F41+G7*G41+H7*H41+I7*I41+J7*J41+K7*K41+L7*L41+M7*M41+O7*O41+P7*P41+Q7*Q41+R7*R41+S7*S41+T7*T41</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="19">
+        <f>E8*E41+F8*F41+G8*G41+H8*H41+I8*I41+J8*J41+K8*K41+L8*L41+M8*M41+O8*O41+P8*P41+Q8*Q41+R8*R41+S8*S41+T8*T41</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="str">
+        <f>member!A42</f>
+        <v>雷</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <f>E7*E42+F7*F42+G7*G42+H7*H42+I7*I42+J7*J42+K7*K42+L7*L42+M7*M42+O7*O42+P7*P42+Q7*Q42+R7*R42+S7*S42+T7*T42</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="19">
+        <f>E8*E42+F8*F42+G8*G42+H8*H42+I8*I42+J8*J42+K8*K42+L8*L42+M8*M42+O8*O42+P8*P42+Q8*Q42+R8*R42+S8*S42+T8*T42</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="str">
+        <f>member!A43</f>
+        <v>西北偏北</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <f>E7*E43+F7*F43+G7*G43+H7*H43+I7*I43+J7*J43+K7*K43+L7*L43+M7*M43+O7*O43+P7*P43+Q7*Q43+R7*R43+S7*S43+T7*T43</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="19">
+        <f>E8*E43+F8*F43+G8*G43+H8*H43+I8*I43+J8*J43+K8*K43+L8*L43+M8*M43+O8*O43+P8*P43+Q8*Q43+R8*R43+S8*S43+T8*T43</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="str">
+        <f>member!A44</f>
+        <v>红色8号</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <f>E7*E44+F7*F44+G7*G44+H7*H44+I7*I44+J7*J44+K7*K44+L7*L44+M7*M44+O7*O44+P7*P44+Q7*Q44+R7*R44+S7*S44+T7*T44</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="19">
+        <f>E8*E44+F8*F44+G8*G44+H8*H44+I8*I44+J8*J44+K8*K44+L8*L44+M8*M44+O8*O44+P8*P44+Q8*Q44+R8*R44+S8*S44+T8*T44</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="str">
+        <f>member!A45</f>
+        <v>马耳他</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <f>E7*E45+F7*F45+G7*G45+H7*H45+I7*I45+J7*J45+K7*K45+L7*L45+M7*M45+O7*O45+P7*P45+Q7*Q45+R7*R45+S7*S45+T7*T45</f>
+        <v>30</v>
+      </c>
+      <c r="D45" s="19">
+        <f>E8*E45+F8*F45+G8*G45+H8*H45+I8*I45+J8*J45+K8*K45+L8*L45+M8*M45+O8*O45+P8*P45+Q8*Q45+R8*R45+S8*S45+T8*T45</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="11" t="str">
+        <f>member!A46</f>
+        <v>Cindy~陈猛</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <f>E7*E46+F7*F46+G7*G46+H7*H46+I7*I46+J7*J46+K7*K46+L7*L46+M7*M46+O7*O46+P7*P46+Q7*Q46+R7*R46+S7*S46+T7*T46</f>
+        <v>30</v>
+      </c>
+      <c r="D46" s="19">
+        <f>E8*E46+F8*F46+G8*G46+H8*H46+I8*I46+J8*J46+K8*K46+L8*L46+M8*M46+O8*O46+P8*P46+Q8*Q46+R8*R46+S8*S46+T8*T46</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="str">
+        <f>member!A47</f>
+        <v>硕</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <f>E7*E47+F7*F47+G7*G47+H7*H47+I7*I47+J7*J47+K7*K47+L7*L47+M7*M47+O7*O47+P7*P47+Q7*Q47+R7*R47+S7*S47+T7*T47</f>
+        <v>30</v>
+      </c>
+      <c r="D47" s="19">
+        <f>E8*E47+F8*F47+G8*G47+H8*H47+I8*I47+J8*J47+K8*K47+L8*L47+M8*M47+O8*O47+P8*P47+Q8*Q47+R8*R47+S8*S47+T8*T47</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="str">
+        <f>member!A48</f>
+        <v>Violin</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <f>E7*E48+F7*F48+G7*G48+H7*H48+I7*I48+J7*J48+K7*K48+L7*L48+M7*M48+O7*O48+P7*P48+Q7*Q48+R7*R48+S7*S48+T7*T48</f>
+        <v>30</v>
+      </c>
+      <c r="D48" s="19">
+        <f>E8*E48+F8*F48+G8*G48+H8*H48+I8*I48+J8*J48+K8*K48+L8*L48+M8*M48+O8*O48+P8*P48+Q8*Q48+R8*R48+S8*S48+T8*T48</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="str">
+        <f>member!A49</f>
+        <v>87号陈磊</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
+        <f>E7*E49+F7*F49+G7*G49+H7*H49+I7*I49+J7*J49+K7*K49+L7*L49+M7*M49+O7*O49+P7*P49+Q7*Q49+R7*R49+S7*S49+T7*T49</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="19">
+        <f>E8*E49+F8*F49+G8*G49+H8*H49+I8*I49+J8*J49+K8*K49+L8*L49+M8*M49+O8*O49+P8*P49+Q8*Q49+R8*R49+S8*S49+T8*T49</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="11" t="str">
+        <f>member!A50</f>
+        <v>水中阳光</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <f>E7*E50+F7*F50+G7*G50+H7*H50+I7*I50+J7*J50+K7*K50+L7*L50+M7*M50+O7*O50+P7*P50+Q7*Q50+R7*R50+S7*S50+T7*T50</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="19">
+        <f>E8*E50+F8*F50+G8*G50+H8*H50+I8*I50+J8*J50+K8*K50+L8*L50+M8*M50+O8*O50+P8*P50+Q8*Q50+R8*R50+S8*S50+T8*T50</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="11" t="str">
+        <f>member!A51</f>
+        <v>sam</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="2">
+        <f>E7*E51+F7*F51+G7*G51+H7*H51+I7*I51+J7*J51+K7*K51+L7*L51+M7*M51+O7*O51+P7*P51+Q7*Q51+R7*R51+S7*S51+T7*T51</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="19">
+        <f>E8*E51+F8*F51+G8*G51+H8*H51+I8*I51+J8*J51+K8*K51+L8*L51+M8*M51+O8*O51+P8*P51+Q8*Q51+R8*R51+S8*S51+T8*T51</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="11" t="str">
+        <f>member!A52</f>
+        <v>26 方亚</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <f>E7*E52+F7*F52+G7*G52+H7*H52+I7*I52+J7*J52+K7*K52+L7*L52+M7*M52+O7*O52+P7*P52+Q7*Q52+R7*R52+S7*S52+T7*T52</f>
+        <v>30</v>
+      </c>
+      <c r="D52" s="19">
+        <f>E8*E52+F8*F52+G8*G52+H8*H52+I8*I52+J8*J52+K8*K52+L8*L52+M8*M52+O8*O52+P8*P52+Q8*Q52+R8*R52+S8*S52+T8*T52</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="11">
+        <f>member!A53</f>
+        <v>0</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <f>E7*E53+F7*F53+G7*G53+H7*H53+I7*I53+J7*J53+K7*K53+L7*L53+M7*M53+O7*O53+P7*P53+Q7*Q53+R7*R53+S7*S53+T7*T53</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="19">
+        <f>E8*E53+F8*F53+G8*G53+H8*H53+I8*I53+J8*J53+K8*K53+L8*L53+M8*M53+O8*O53+P8*P53+Q8*Q53+R8*R53+S8*S53+T8*T53</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="11" t="str">
+        <f>member!A54</f>
+        <v>0号--张家宁</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <f>E7*E54+F7*F54+G7*G54+H7*H54+I7*I54+J7*J54+K7*K54+L7*L54+M7*M54+O7*O54+P7*P54+Q7*Q54+R7*R54+S7*S54+T7*T54</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="19">
+        <f>E8*E54+F8*F54+G8*G54+H8*H54+I8*I54+J8*J54+K8*K54+L8*L54+M8*M54+O8*O54+P8*P54+Q8*Q54+R8*R54+S8*S54+T8*T54</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="11" t="str">
+        <f>member!A55</f>
+        <v>泰山</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <f>E7*E55+F7*F55+G7*G55+H7*H55+I7*I55+J7*J55+K7*K55+L7*L55+M7*M55+O7*O55+P7*P55+Q7*Q55+R7*R55+S7*S55+T7*T55</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="19">
+        <f>E8*E55+F8*F55+G8*G55+H8*H55+I8*I55+J8*J55+K8*K55+L8*L55+M8*M55+O8*O55+P8*P55+Q8*Q55+R8*R55+S8*S55+T8*T55</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="11" t="str">
+        <f>member!A56</f>
+        <v>尚峰</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <f>E7*E56+F7*F56+G7*G56+H7*H56+I7*I56+J7*J56+K7*K56+L7*L56+M7*M56+O7*O56+P7*P56+Q7*Q56+R7*R56+S7*S56+T7*T56</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="19">
+        <f>E8*E56+F8*F56+G8*G56+H8*H56+I8*I56+J8*J56+K8*K56+L8*L56+M8*M56+O8*O56+P8*P56+Q8*Q56+R8*R56+S8*S56+T8*T56</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="11" t="str">
+        <f>member!A57</f>
+        <v>杨光</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <f>E7*E57+F7*F57+G7*G57+H7*H57+I7*I57+J7*J57+K7*K57+L7*L57+M7*M57+O7*O57+P7*P57+Q7*Q57+R7*R57+S7*S57+T7*T57</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="19">
+        <f>E8*E57+F8*F57+G8*G57+H8*H57+I8*I57+J8*J57+K8*K57+L8*L57+M8*M57+O8*O57+P8*P57+Q8*Q57+R8*R57+S8*S57+T8*T57</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="10"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="10"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="10"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="10"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="10"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="10"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27005,14 +28367,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27020,12 +28382,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="108">
   <si>
     <t>守候幸福</t>
   </si>
@@ -417,6 +417,30 @@
     <t>Violin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>维尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18×30－340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16×30－340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18×30－345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +496,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +518,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +559,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -581,6 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -885,15 +916,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC101"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="20" bestFit="1" customWidth="1"/>
@@ -939,19 +970,19 @@
       </c>
       <c r="B2" s="25">
         <f t="shared" ref="B2:I2" si="0">SUM(B9:B100)</f>
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="C2" s="19">
         <f t="shared" si="0"/>
-        <v>9390</v>
+        <v>10950</v>
       </c>
       <c r="D2" s="33">
         <f t="shared" si="0"/>
-        <v>2140</v>
+        <v>2680</v>
       </c>
       <c r="E2" s="19">
         <f t="shared" si="0"/>
-        <v>1827</v>
+        <v>2314.9999999999995</v>
       </c>
       <c r="F2" s="19">
         <f t="shared" si="0"/>
@@ -959,7 +990,7 @@
       </c>
       <c r="G2" s="33">
         <f t="shared" si="0"/>
-        <v>1316.9999999999995</v>
+        <v>1804.9999999999998</v>
       </c>
       <c r="H2" s="33">
         <f t="shared" si="0"/>
@@ -995,7 +1026,7 @@
       </c>
       <c r="H4" s="24">
         <f>G2+H2</f>
-        <v>1346.9999999999995</v>
+        <v>1834.9999999999998</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -17458,26 +17489,26 @@
       </c>
       <c r="B10" s="1">
         <f>'201202'!B10+'201203'!B10+'201204'!B10+'201205'!B10+'201206'!B10+'201207'!B10+'201208'!B10+'201209'!B10+'201210'!B10+'201211'!B10+'201212'!B10</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" s="19">
         <f>'201202'!C10+'201203'!C10+'201204'!C10+'201205'!C10+'201206'!C10+'201207'!C10+'201208'!C10+'201209'!C10+'201210'!C10+'201211'!C10+'201212'!C10</f>
-        <v>600</v>
+        <v>690</v>
       </c>
       <c r="D10" s="19">
         <f>'201202'!D10+'201203'!D10+'201204'!D10+'201205'!D10+'201206'!D10+'201207'!D10+'201208'!D10+'201209'!D10+'201210'!D10+'201211'!D10+'201212'!D10</f>
-        <v>134.84549514812673</v>
+        <v>165.81771737034896</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="1"/>
-        <v>114.84549514812673</v>
+        <v>142.81771737034896</v>
       </c>
       <c r="F10" s="19">
         <v>90</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="2"/>
-        <v>24.84549514812673</v>
+        <v>52.817717370348959</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="1"/>
@@ -17489,26 +17520,26 @@
       </c>
       <c r="B11" s="1">
         <f>'201202'!B11+'201203'!B11+'201204'!B11+'201205'!B11+'201206'!B11+'201207'!B11+'201208'!B11+'201209'!B11+'201210'!B11+'201211'!B11+'201212'!B11</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" s="19">
         <f>'201202'!C11+'201203'!C11+'201204'!C11+'201205'!C11+'201206'!C11+'201207'!C11+'201208'!C11+'201209'!C11+'201210'!C11+'201211'!C11+'201212'!C11</f>
-        <v>600</v>
+        <v>690</v>
       </c>
       <c r="D11" s="19">
         <f>'201202'!D11+'201203'!D11+'201204'!D11+'201205'!D11+'201206'!D11+'201207'!D11+'201208'!D11+'201209'!D11+'201210'!D11+'201211'!D11+'201212'!D11</f>
-        <v>133.49934130197286</v>
+        <v>164.47156352419509</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" si="1"/>
-        <v>113.49934130197286</v>
+        <v>141.47156352419509</v>
       </c>
       <c r="F11" s="19">
         <v>60</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" si="2"/>
-        <v>53.499341301972862</v>
+        <v>81.471563524195091</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="1"/>
@@ -17549,26 +17580,26 @@
       </c>
       <c r="B13" s="1">
         <f>'201202'!B13+'201203'!B13+'201204'!B13+'201205'!B13+'201206'!B13+'201207'!B13+'201208'!B13+'201209'!B13+'201210'!B13+'201211'!B13+'201212'!B13</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="19">
         <f>'201202'!C13+'201203'!C13+'201204'!C13+'201205'!C13+'201206'!C13+'201207'!C13+'201208'!C13+'201209'!C13+'201210'!C13+'201211'!C13+'201212'!C13</f>
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="D13" s="19">
         <f>'201202'!D13+'201203'!D13+'201204'!D13+'201205'!D13+'201206'!D13+'201207'!D13+'201208'!D13+'201209'!D13+'201210'!D13+'201211'!D13+'201212'!D13</f>
-        <v>105.34549514812672</v>
+        <v>114.09549514812672</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="1"/>
-        <v>89.345495148126716</v>
+        <v>97.095495148126716</v>
       </c>
       <c r="F13" s="19">
         <v>30</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" si="2"/>
-        <v>59.345495148126716</v>
+        <v>67.095495148126716</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="1"/>
@@ -17580,26 +17611,26 @@
       </c>
       <c r="B14" s="1">
         <f>'201202'!B14+'201203'!B14+'201204'!B14+'201205'!B14+'201206'!B14+'201207'!B14+'201208'!B14+'201209'!B14+'201210'!B14+'201211'!B14+'201212'!B14</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" s="19">
         <f>'201202'!C14+'201203'!C14+'201204'!C14+'201205'!C14+'201206'!C14+'201207'!C14+'201208'!C14+'201209'!C14+'201210'!C14+'201211'!C14+'201212'!C14</f>
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="D14" s="19">
         <f>'201202'!D14+'201203'!D14+'201204'!D14+'201205'!D14+'201206'!D14+'201207'!D14+'201208'!D14+'201209'!D14+'201210'!D14+'201211'!D14+'201212'!D14</f>
-        <v>135.61472591735748</v>
+        <v>166.58694813957973</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="1"/>
-        <v>114.61472591735748</v>
+        <v>142.58694813957973</v>
       </c>
       <c r="F14" s="19">
         <v>30</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" si="2"/>
-        <v>84.614725917357475</v>
+        <v>112.58694813957973</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="1">
@@ -17673,24 +17704,24 @@
       </c>
       <c r="B17" s="1">
         <f>'201202'!B17+'201203'!B17+'201204'!B17+'201205'!B17+'201206'!B17+'201207'!B17+'201208'!B17+'201209'!B17+'201210'!B17+'201211'!B17+'201212'!B17</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="19">
         <f>'201202'!C17+'201203'!C17+'201204'!C17+'201205'!C17+'201206'!C17+'201207'!C17+'201208'!C17+'201209'!C17+'201210'!C17+'201211'!C17+'201212'!C17</f>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D17" s="19">
         <f>'201202'!D17+'201203'!D17+'201204'!D17+'201205'!D17+'201206'!D17+'201207'!D17+'201208'!D17+'201209'!D17+'201210'!D17+'201211'!D17+'201212'!D17</f>
-        <v>30.671550671550673</v>
+        <v>41.782661782661783</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" si="1"/>
-        <v>26.671550671550673</v>
+        <v>36.782661782661783</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19">
         <f t="shared" si="2"/>
-        <v>26.671550671550673</v>
+        <v>36.782661782661783</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="1"/>
@@ -17702,24 +17733,24 @@
       </c>
       <c r="B18" s="1">
         <f>'201202'!B18+'201203'!B18+'201204'!B18+'201205'!B18+'201206'!B18+'201207'!B18+'201208'!B18+'201209'!B18+'201210'!B18+'201211'!B18+'201212'!B18</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" s="19">
         <f>'201202'!C18+'201203'!C18+'201204'!C18+'201205'!C18+'201206'!C18+'201207'!C18+'201208'!C18+'201209'!C18+'201210'!C18+'201211'!C18+'201212'!C18</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="D18" s="19">
         <f>'201202'!D18+'201203'!D18+'201204'!D18+'201205'!D18+'201206'!D18+'201207'!D18+'201208'!D18+'201209'!D18+'201210'!D18+'201211'!D18+'201212'!D18</f>
-        <v>42.65471370734528</v>
+        <v>62.515824818456394</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" si="1"/>
-        <v>36.65471370734528</v>
+        <v>54.515824818456394</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19">
         <f t="shared" si="2"/>
-        <v>36.65471370734528</v>
+        <v>54.515824818456394</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="1"/>
@@ -17731,26 +17762,26 @@
       </c>
       <c r="B19" s="1">
         <f>'201202'!B19+'201203'!B19+'201204'!B19+'201205'!B19+'201206'!B19+'201207'!B19+'201208'!B19+'201209'!B19+'201210'!B19+'201211'!B19+'201212'!B19</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="19">
         <f>'201202'!C19+'201203'!C19+'201204'!C19+'201205'!C19+'201206'!C19+'201207'!C19+'201208'!C19+'201209'!C19+'201210'!C19+'201211'!C19+'201212'!C19</f>
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="D19" s="19">
         <f>'201202'!D19+'201203'!D19+'201204'!D19+'201205'!D19+'201206'!D19+'201207'!D19+'201208'!D19+'201209'!D19+'201210'!D19+'201211'!D19+'201212'!D19</f>
-        <v>102.09824240087397</v>
+        <v>110.84824240087397</v>
       </c>
       <c r="E19" s="19">
         <f t="shared" si="1"/>
-        <v>86.098242400873971</v>
+        <v>93.848242400873971</v>
       </c>
       <c r="F19" s="19">
         <v>30</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" si="2"/>
-        <v>56.098242400873971</v>
+        <v>63.848242400873971</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="1"/>
@@ -17791,26 +17822,26 @@
       </c>
       <c r="B21" s="1">
         <f>'201202'!B21+'201203'!B21+'201204'!B21+'201205'!B21+'201206'!B21+'201207'!B21+'201208'!B21+'201209'!B21+'201210'!B21+'201211'!B21+'201212'!B21</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" s="19">
         <f>'201202'!C21+'201203'!C21+'201204'!C21+'201205'!C21+'201206'!C21+'201207'!C21+'201208'!C21+'201209'!C21+'201210'!C21+'201211'!C21+'201212'!C21</f>
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="D21" s="19">
         <f>'201202'!D21+'201203'!D21+'201204'!D21+'201205'!D21+'201206'!D21+'201207'!D21+'201208'!D21+'201209'!D21+'201210'!D21+'201211'!D21+'201212'!D21</f>
-        <v>41.098901098901095</v>
+        <v>60.960012210012209</v>
       </c>
       <c r="E21" s="19">
         <f t="shared" si="1"/>
-        <v>34.098901098901095</v>
+        <v>51.960012210012209</v>
       </c>
       <c r="F21" s="19">
         <v>30</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" si="2"/>
-        <v>4.098901098901095</v>
+        <v>21.960012210012209</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="1"/>
@@ -17822,24 +17853,24 @@
       </c>
       <c r="B22" s="1">
         <f>'201202'!B22+'201203'!B22+'201204'!B22+'201205'!B22+'201206'!B22+'201207'!B22+'201208'!B22+'201209'!B22+'201210'!B22+'201211'!B22+'201212'!B22</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" s="19">
         <f>'201202'!C22+'201203'!C22+'201204'!C22+'201205'!C22+'201206'!C22+'201207'!C22+'201208'!C22+'201209'!C22+'201210'!C22+'201211'!C22+'201212'!C22</f>
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="D22" s="19">
         <f>'201202'!D22+'201203'!D22+'201204'!D22+'201205'!D22+'201206'!D22+'201207'!D22+'201208'!D22+'201209'!D22+'201210'!D22+'201211'!D22+'201212'!D22</f>
-        <v>45.216374269005854</v>
+        <v>76.188596491228083</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" si="1"/>
-        <v>40.216374269005854</v>
+        <v>68.188596491228083</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19">
         <f t="shared" si="2"/>
-        <v>40.216374269005854</v>
+        <v>68.188596491228083</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="1"/>
@@ -17851,26 +17882,26 @@
       </c>
       <c r="B23" s="1">
         <f>'201202'!B23+'201203'!B23+'201204'!B23+'201205'!B23+'201206'!B23+'201207'!B23+'201208'!B23+'201209'!B23+'201210'!B23+'201211'!B23+'201212'!B23</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C23" s="19">
         <f>'201202'!C23+'201203'!C23+'201204'!C23+'201205'!C23+'201206'!C23+'201207'!C23+'201208'!C23+'201209'!C23+'201210'!C23+'201211'!C23+'201212'!C23</f>
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="D23" s="19">
         <f>'201202'!D23+'201203'!D23+'201204'!D23+'201205'!D23+'201206'!D23+'201207'!D23+'201208'!D23+'201209'!D23+'201210'!D23+'201211'!D23+'201212'!D23</f>
-        <v>74.669365721997295</v>
+        <v>94.530476833108409</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" si="1"/>
-        <v>63.669365721997295</v>
+        <v>81.530476833108409</v>
       </c>
       <c r="F23" s="19">
         <v>30</v>
       </c>
       <c r="G23" s="19">
         <f t="shared" si="2"/>
-        <v>33.669365721997295</v>
+        <v>51.530476833108409</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="1"/>
@@ -17917,24 +17948,24 @@
       </c>
       <c r="B25" s="1">
         <f>'201202'!B25+'201203'!B25+'201204'!B25+'201205'!B25+'201206'!B25+'201207'!B25+'201208'!B25+'201209'!B25+'201210'!B25+'201211'!B25+'201212'!B25</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25" s="19">
         <f>'201202'!C25+'201203'!C25+'201204'!C25+'201205'!C25+'201206'!C25+'201207'!C25+'201208'!C25+'201209'!C25+'201210'!C25+'201211'!C25+'201212'!C25</f>
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="D25" s="19">
         <f>'201202'!D25+'201203'!D25+'201204'!D25+'201205'!D25+'201206'!D25+'201207'!D25+'201208'!D25+'201209'!D25+'201210'!D25+'201211'!D25+'201212'!D25</f>
-        <v>74.392198444830015</v>
+        <v>96.614420667052244</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" si="1"/>
-        <v>62.392198444830015</v>
+        <v>82.614420667052244</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19">
         <f t="shared" si="2"/>
-        <v>62.392198444830015</v>
+        <v>82.614420667052244</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="1"/>
@@ -17975,26 +18006,26 @@
       </c>
       <c r="B27" s="1">
         <f>'201202'!B27+'201203'!B27+'201204'!B27+'201205'!B27+'201206'!B27+'201207'!B27+'201208'!B27+'201209'!B27+'201210'!B27+'201211'!B27+'201212'!B27</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C27" s="19">
         <f>'201202'!C27+'201203'!C27+'201204'!C27+'201205'!C27+'201206'!C27+'201207'!C27+'201208'!C27+'201209'!C27+'201210'!C27+'201211'!C27+'201212'!C27</f>
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="D27" s="19">
         <f>'201202'!D27+'201203'!D27+'201204'!D27+'201205'!D27+'201206'!D27+'201207'!D27+'201208'!D27+'201209'!D27+'201210'!D27+'201211'!D27+'201212'!D27</f>
-        <v>137.34549514812673</v>
+        <v>168.31771737034896</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" si="1"/>
-        <v>116.34549514812673</v>
+        <v>144.31771737034896</v>
       </c>
       <c r="F27" s="19">
         <v>60</v>
       </c>
       <c r="G27" s="19">
         <f t="shared" si="2"/>
-        <v>56.34549514812673</v>
+        <v>84.317717370348959</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="1"/>
@@ -18006,24 +18037,24 @@
       </c>
       <c r="B28" s="1">
         <f>'201202'!B28+'201203'!B28+'201204'!B28+'201205'!B28+'201206'!B28+'201207'!B28+'201208'!B28+'201209'!B28+'201210'!B28+'201211'!B28+'201212'!B28</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28" s="19">
         <f>'201202'!C28+'201203'!C28+'201204'!C28+'201205'!C28+'201206'!C28+'201207'!C28+'201208'!C28+'201209'!C28+'201210'!C28+'201211'!C28+'201212'!C28</f>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="D28" s="19">
         <f>'201202'!D28+'201203'!D28+'201204'!D28+'201205'!D28+'201206'!D28+'201207'!D28+'201208'!D28+'201209'!D28+'201210'!D28+'201211'!D28+'201212'!D28</f>
-        <v>51.867167919799499</v>
+        <v>82.839390142021728</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="1"/>
-        <v>45.867167919799499</v>
+        <v>73.839390142021728</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19">
         <f t="shared" si="2"/>
-        <v>45.867167919799499</v>
+        <v>73.839390142021728</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="1"/>
@@ -18035,24 +18066,24 @@
       </c>
       <c r="B29" s="1">
         <f>'201202'!B29+'201203'!B29+'201204'!B29+'201205'!B29+'201206'!B29+'201207'!B29+'201208'!B29+'201209'!B29+'201210'!B29+'201211'!B29+'201212'!B29</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" s="19">
         <f>'201202'!C29+'201203'!C29+'201204'!C29+'201205'!C29+'201206'!C29+'201207'!C29+'201208'!C29+'201209'!C29+'201210'!C29+'201211'!C29+'201212'!C29</f>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D29" s="19">
         <f>'201202'!D29+'201203'!D29+'201204'!D29+'201205'!D29+'201206'!D29+'201207'!D29+'201208'!D29+'201209'!D29+'201210'!D29+'201211'!D29+'201212'!D29</f>
-        <v>47.658730158730151</v>
+        <v>67.519841269841265</v>
       </c>
       <c r="E29" s="19">
         <f t="shared" si="1"/>
-        <v>42.658730158730151</v>
+        <v>60.519841269841265</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19">
         <f t="shared" si="2"/>
-        <v>42.658730158730151</v>
+        <v>60.519841269841265</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="1"/>
@@ -18064,24 +18095,24 @@
       </c>
       <c r="B30" s="1">
         <f>'201202'!B30+'201203'!B30+'201204'!B30+'201205'!B30+'201206'!B30+'201207'!B30+'201208'!B30+'201209'!B30+'201210'!B30+'201211'!B30+'201212'!B30</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="19">
         <f>'201202'!C30+'201203'!C30+'201204'!C30+'201205'!C30+'201206'!C30+'201207'!C30+'201208'!C30+'201209'!C30+'201210'!C30+'201211'!C30+'201212'!C30</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D30" s="19">
         <f>'201202'!D30+'201203'!D30+'201204'!D30+'201205'!D30+'201206'!D30+'201207'!D30+'201208'!D30+'201209'!D30+'201210'!D30+'201211'!D30+'201212'!D30</f>
-        <v>22.105263157894736</v>
+        <v>30.855263157894736</v>
       </c>
       <c r="E30" s="19">
         <f t="shared" si="1"/>
-        <v>20.105263157894736</v>
+        <v>27.855263157894736</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19">
         <f t="shared" si="2"/>
-        <v>20.105263157894736</v>
+        <v>27.855263157894736</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="1"/>
@@ -18122,24 +18153,24 @@
       </c>
       <c r="B32" s="1">
         <f>'201202'!B32+'201203'!B32+'201204'!B32+'201205'!B32+'201206'!B32+'201207'!B32+'201208'!B32+'201209'!B32+'201210'!B32+'201211'!B32+'201212'!B32</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="19">
         <f>'201202'!C32+'201203'!C32+'201204'!C32+'201205'!C32+'201206'!C32+'201207'!C32+'201208'!C32+'201209'!C32+'201210'!C32+'201211'!C32+'201212'!C32</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D32" s="19">
         <f>'201202'!D32+'201203'!D32+'201204'!D32+'201205'!D32+'201206'!D32+'201207'!D32+'201208'!D32+'201209'!D32+'201210'!D32+'201211'!D32+'201212'!D32</f>
-        <v>34.049707602339183</v>
+        <v>45.160818713450283</v>
       </c>
       <c r="E32" s="19">
         <f t="shared" si="1"/>
-        <v>31.049707602339183</v>
+        <v>41.160818713450283</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19">
         <f t="shared" si="2"/>
-        <v>31.049707602339183</v>
+        <v>41.160818713450283</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="1"/>
@@ -18151,24 +18182,24 @@
       </c>
       <c r="B33" s="1">
         <f>'201202'!B33+'201203'!B33+'201204'!B33+'201205'!B33+'201206'!B33+'201207'!B33+'201208'!B33+'201209'!B33+'201210'!B33+'201211'!B33+'201212'!B33</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="19">
         <f>'201202'!C33+'201203'!C33+'201204'!C33+'201205'!C33+'201206'!C33+'201207'!C33+'201208'!C33+'201209'!C33+'201210'!C33+'201211'!C33+'201212'!C33</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D33" s="19">
         <f>'201202'!D33+'201203'!D33+'201204'!D33+'201205'!D33+'201206'!D33+'201207'!D33+'201208'!D33+'201209'!D33+'201210'!D33+'201211'!D33+'201212'!D33</f>
-        <v>25.334249084249084</v>
+        <v>36.445360195360195</v>
       </c>
       <c r="E33" s="19">
         <f t="shared" si="1"/>
-        <v>20.334249084249084</v>
+        <v>30.445360195360195</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="19">
         <f t="shared" si="2"/>
-        <v>20.334249084249084</v>
+        <v>30.445360195360195</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="1"/>
@@ -18209,26 +18240,26 @@
       </c>
       <c r="B35" s="1">
         <f>'201202'!B35+'201203'!B35+'201204'!B35+'201205'!B35+'201206'!B35+'201207'!B35+'201208'!B35+'201209'!B35+'201210'!B35+'201211'!B35+'201212'!B35</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" s="19">
         <f>'201202'!C35+'201203'!C35+'201204'!C35+'201205'!C35+'201206'!C35+'201207'!C35+'201208'!C35+'201209'!C35+'201210'!C35+'201211'!C35+'201212'!C35</f>
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="D35" s="19">
         <f>'201202'!D35+'201203'!D35+'201204'!D35+'201205'!D35+'201206'!D35+'201207'!D35+'201208'!D35+'201209'!D35+'201210'!D35+'201211'!D35+'201212'!D35</f>
-        <v>99.860757663389236</v>
+        <v>110.97186877450035</v>
       </c>
       <c r="E35" s="19">
         <f t="shared" si="1"/>
-        <v>83.860757663389236</v>
+        <v>93.971868774500351</v>
       </c>
       <c r="F35" s="19">
         <v>30</v>
       </c>
       <c r="G35" s="19">
         <f t="shared" si="2"/>
-        <v>53.860757663389236</v>
+        <v>63.971868774500351</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="1"/>
@@ -18327,24 +18358,24 @@
       </c>
       <c r="B39" s="1">
         <f>'201202'!B39+'201203'!B39+'201204'!B39+'201205'!B39+'201206'!B39+'201207'!B39+'201208'!B39+'201209'!B39+'201210'!B39+'201211'!B39+'201212'!B39</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" s="19">
         <f>'201202'!C39+'201203'!C39+'201204'!C39+'201205'!C39+'201206'!C39+'201207'!C39+'201208'!C39+'201209'!C39+'201210'!C39+'201211'!C39+'201212'!C39</f>
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D39" s="19">
         <f>'201202'!D39+'201203'!D39+'201204'!D39+'201205'!D39+'201206'!D39+'201207'!D39+'201208'!D39+'201209'!D39+'201210'!D39+'201211'!D39+'201212'!D39</f>
-        <v>40.039682539682538</v>
+        <v>51.150793650793645</v>
       </c>
       <c r="E39" s="19">
         <f t="shared" si="1"/>
-        <v>34.039682539682538</v>
+        <v>44.150793650793645</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="19">
         <f t="shared" si="2"/>
-        <v>34.039682539682538</v>
+        <v>44.150793650793645</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="1"/>
@@ -18385,24 +18416,24 @@
       </c>
       <c r="B41" s="1">
         <f>'201202'!B41+'201203'!B41+'201204'!B41+'201205'!B41+'201206'!B41+'201207'!B41+'201208'!B41+'201209'!B41+'201210'!B41+'201211'!B41+'201212'!B41</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" s="19">
         <f>'201202'!C41+'201203'!C41+'201204'!C41+'201205'!C41+'201206'!C41+'201207'!C41+'201208'!C41+'201209'!C41+'201210'!C41+'201211'!C41+'201212'!C41</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D41" s="19">
         <f>'201202'!D41+'201203'!D41+'201204'!D41+'201205'!D41+'201206'!D41+'201207'!D41+'201208'!D41+'201209'!D41+'201210'!D41+'201211'!D41+'201212'!D41</f>
-        <v>33.214285714285708</v>
+        <v>44.325396825396822</v>
       </c>
       <c r="E41" s="19">
-        <f t="shared" ref="E41:E57" si="3">D41-B41</f>
-        <v>28.214285714285708</v>
+        <f t="shared" ref="E41:E59" si="3">D41-B41</f>
+        <v>38.325396825396822</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="19">
-        <f t="shared" ref="G41:G57" si="4">E41-F41</f>
-        <v>28.214285714285708</v>
+        <f t="shared" ref="G41:G59" si="4">E41-F41</f>
+        <v>38.325396825396822</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="1">
@@ -18447,24 +18478,24 @@
       </c>
       <c r="B43" s="1">
         <f>'201202'!B43+'201203'!B43+'201204'!B43+'201205'!B43+'201206'!B43+'201207'!B43+'201208'!B43+'201209'!B43+'201210'!B43+'201211'!B43+'201212'!B43</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" s="19">
         <f>'201202'!C43+'201203'!C43+'201204'!C43+'201205'!C43+'201206'!C43+'201207'!C43+'201208'!C43+'201209'!C43+'201210'!C43+'201211'!C43+'201212'!C43</f>
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D43" s="19">
         <f>'201202'!D43+'201203'!D43+'201204'!D43+'201205'!D43+'201206'!D43+'201207'!D43+'201208'!D43+'201209'!D43+'201210'!D43+'201211'!D43+'201212'!D43</f>
-        <v>51.01857207120365</v>
+        <v>62.12968318231475</v>
       </c>
       <c r="E43" s="19">
         <f t="shared" si="3"/>
-        <v>45.01857207120365</v>
+        <v>55.12968318231475</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19">
         <f t="shared" si="4"/>
-        <v>45.01857207120365</v>
+        <v>55.12968318231475</v>
       </c>
       <c r="H43" s="19">
         <v>10</v>
@@ -18511,24 +18542,24 @@
       </c>
       <c r="B45" s="1">
         <f>'201202'!B45+'201203'!B45+'201204'!B45+'201205'!B45+'201206'!B45+'201207'!B45+'201208'!B45+'201209'!B45+'201210'!B45+'201211'!B45+'201212'!B45</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" s="19">
         <f>'201202'!C45+'201203'!C45+'201204'!C45+'201205'!C45+'201206'!C45+'201207'!C45+'201208'!C45+'201209'!C45+'201210'!C45+'201211'!C45+'201212'!C45</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D45" s="19">
         <f>'201202'!D45+'201203'!D45+'201204'!D45+'201205'!D45+'201206'!D45+'201207'!D45+'201208'!D45+'201209'!D45+'201210'!D45+'201211'!D45+'201212'!D45</f>
-        <v>26.217948717948715</v>
+        <v>37.32905982905983</v>
       </c>
       <c r="E45" s="19">
         <f t="shared" si="3"/>
-        <v>23.217948717948715</v>
+        <v>33.32905982905983</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19">
         <f t="shared" si="4"/>
-        <v>23.217948717948715</v>
+        <v>33.32905982905983</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="1"/>
@@ -18540,24 +18571,24 @@
       </c>
       <c r="B46" s="1">
         <f>'201202'!B46+'201203'!B46+'201204'!B46+'201205'!B46+'201206'!B46+'201207'!B46+'201208'!B46+'201209'!B46+'201210'!B46+'201211'!B46+'201212'!B46</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" s="19">
         <f>'201202'!C46+'201203'!C46+'201204'!C46+'201205'!C46+'201206'!C46+'201207'!C46+'201208'!C46+'201209'!C46+'201210'!C46+'201211'!C46+'201212'!C46</f>
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="D46" s="19">
         <f>'201202'!D46+'201203'!D46+'201204'!D46+'201205'!D46+'201206'!D46+'201207'!D46+'201208'!D46+'201209'!D46+'201210'!D46+'201211'!D46+'201212'!D46</f>
-        <v>72.480769230769226</v>
+        <v>83.591880341880326</v>
       </c>
       <c r="E46" s="19">
         <f t="shared" si="3"/>
-        <v>61.480769230769226</v>
+        <v>71.591880341880326</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19">
         <f t="shared" si="4"/>
-        <v>61.480769230769226</v>
+        <v>71.591880341880326</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="1"/>
@@ -18569,24 +18600,24 @@
       </c>
       <c r="B47" s="1">
         <f>'201202'!B47+'201203'!B47+'201204'!B47+'201205'!B47+'201206'!B47+'201207'!B47+'201208'!B47+'201209'!B47+'201210'!B47+'201211'!B47+'201212'!B47</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="19">
         <f>'201202'!C47+'201203'!C47+'201204'!C47+'201205'!C47+'201206'!C47+'201207'!C47+'201208'!C47+'201209'!C47+'201210'!C47+'201211'!C47+'201212'!C47</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D47" s="19">
         <f>'201202'!D47+'201203'!D47+'201204'!D47+'201205'!D47+'201206'!D47+'201207'!D47+'201208'!D47+'201209'!D47+'201210'!D47+'201211'!D47+'201212'!D47</f>
-        <v>10.833333333333332</v>
+        <v>21.944444444444443</v>
       </c>
       <c r="E47" s="19">
         <f t="shared" si="3"/>
-        <v>9.8333333333333321</v>
+        <v>19.944444444444443</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="19">
         <f t="shared" si="4"/>
-        <v>9.8333333333333321</v>
+        <v>19.944444444444443</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="1"/>
@@ -18598,24 +18629,24 @@
       </c>
       <c r="B48" s="1">
         <f>'201202'!B48+'201203'!B48+'201204'!B48+'201205'!B48+'201206'!B48+'201207'!B48+'201208'!B48+'201209'!B48+'201210'!B48+'201211'!B48+'201212'!B48</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="19">
         <f>'201202'!C48+'201203'!C48+'201204'!C48+'201205'!C48+'201206'!C48+'201207'!C48+'201208'!C48+'201209'!C48+'201210'!C48+'201211'!C48+'201212'!C48</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D48" s="19">
         <f>'201202'!D48+'201203'!D48+'201204'!D48+'201205'!D48+'201206'!D48+'201207'!D48+'201208'!D48+'201209'!D48+'201210'!D48+'201211'!D48+'201212'!D48</f>
-        <v>10.833333333333332</v>
+        <v>21.944444444444443</v>
       </c>
       <c r="E48" s="19">
         <f t="shared" si="3"/>
-        <v>9.8333333333333321</v>
+        <v>19.944444444444443</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19">
         <f t="shared" si="4"/>
-        <v>9.8333333333333321</v>
+        <v>19.944444444444443</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="1"/>
@@ -18627,26 +18658,26 @@
       </c>
       <c r="B49" s="1">
         <f>'201202'!B49+'201203'!B49+'201204'!B49+'201205'!B49+'201206'!B49+'201207'!B49+'201208'!B49+'201209'!B49+'201210'!B49+'201211'!B49+'201212'!B49</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C49" s="19">
         <f>'201202'!C49+'201203'!C49+'201204'!C49+'201205'!C49+'201206'!C49+'201207'!C49+'201208'!C49+'201209'!C49+'201210'!C49+'201211'!C49+'201212'!C49</f>
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="D49" s="19">
         <f>'201202'!D49+'201203'!D49+'201204'!D49+'201205'!D49+'201206'!D49+'201207'!D49+'201208'!D49+'201209'!D49+'201210'!D49+'201211'!D49+'201212'!D49</f>
-        <v>89.884567187198755</v>
+        <v>109.74567829830987</v>
       </c>
       <c r="E49" s="19">
         <f t="shared" si="3"/>
-        <v>75.884567187198755</v>
+        <v>93.745678298309869</v>
       </c>
       <c r="F49" s="19">
         <v>60</v>
       </c>
       <c r="G49" s="19">
         <f t="shared" si="4"/>
-        <v>15.884567187198755</v>
+        <v>33.745678298309869</v>
       </c>
       <c r="H49" s="19">
         <v>10</v>
@@ -18693,26 +18724,26 @@
       </c>
       <c r="B51" s="1">
         <f>'201202'!B51+'201203'!B51+'201204'!B51+'201205'!B51+'201206'!B51+'201207'!B51+'201208'!B51+'201209'!B51+'201210'!B51+'201211'!B51+'201212'!B51</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C51" s="19">
         <f>'201202'!C51+'201203'!C51+'201204'!C51+'201205'!C51+'201206'!C51+'201207'!C51+'201208'!C51+'201209'!C51+'201210'!C51+'201211'!C51+'201212'!C51</f>
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="D51" s="19">
         <f>'201202'!D51+'201203'!D51+'201204'!D51+'201205'!D51+'201206'!D51+'201207'!D51+'201208'!D51+'201209'!D51+'201210'!D51+'201211'!D51+'201212'!D51</f>
-        <v>64.60526315789474</v>
+        <v>75.716374269005854</v>
       </c>
       <c r="E51" s="19">
         <f t="shared" si="3"/>
-        <v>55.60526315789474</v>
+        <v>65.716374269005854</v>
       </c>
       <c r="F51" s="19">
         <v>30</v>
       </c>
       <c r="G51" s="19">
         <f t="shared" si="4"/>
-        <v>25.60526315789474</v>
+        <v>35.716374269005854</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="1"/>
@@ -18724,51 +18755,53 @@
       </c>
       <c r="B52" s="1">
         <f>'201202'!B52+'201203'!B52+'201204'!B52+'201205'!B52+'201206'!B52+'201207'!B52+'201208'!B52+'201209'!B52+'201210'!B52+'201211'!B52+'201212'!B52</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C52" s="19">
         <f>'201202'!C52+'201203'!C52+'201204'!C52+'201205'!C52+'201206'!C52+'201207'!C52+'201208'!C52+'201209'!C52+'201210'!C52+'201211'!C52+'201212'!C52</f>
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="D52" s="19">
         <f>'201202'!D52+'201203'!D52+'201204'!D52+'201205'!D52+'201206'!D52+'201207'!D52+'201208'!D52+'201209'!D52+'201210'!D52+'201211'!D52+'201212'!D52</f>
-        <v>70.443175245806813</v>
+        <v>90.304286356917927</v>
       </c>
       <c r="E52" s="19">
         <f t="shared" si="3"/>
-        <v>59.443175245806813</v>
+        <v>77.304286356917927</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19">
         <f t="shared" si="4"/>
-        <v>59.443175245806813</v>
+        <v>77.304286356917927</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="9"/>
+      <c r="A53" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="B53" s="1">
         <f>'201202'!B53+'201203'!B53+'201204'!B53+'201205'!B53+'201206'!B53+'201207'!B53+'201208'!B53+'201209'!B53+'201210'!B53+'201211'!B53+'201212'!B53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="19">
         <f>'201202'!C53+'201203'!C53+'201204'!C53+'201205'!C53+'201206'!C53+'201207'!C53+'201208'!C53+'201209'!C53+'201210'!C53+'201211'!C53+'201212'!C53</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D53" s="19">
         <f>'201202'!D53+'201203'!D53+'201204'!D53+'201205'!D53+'201206'!D53+'201207'!D53+'201208'!D53+'201209'!D53+'201210'!D53+'201211'!D53+'201212'!D53</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="E53" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.111111111111111</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10.111111111111111</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="1"/>
@@ -18838,24 +18871,24 @@
       </c>
       <c r="B56" s="1">
         <f>'201202'!B56+'201203'!B56+'201204'!B56+'201205'!B56+'201206'!B56+'201207'!B56+'201208'!B56+'201209'!B56+'201210'!B56+'201211'!B56+'201212'!B56</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" s="19">
         <f>'201202'!C56+'201203'!C56+'201204'!C56+'201205'!C56+'201206'!C56+'201207'!C56+'201208'!C56+'201209'!C56+'201210'!C56+'201211'!C56+'201212'!C56</f>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D56" s="19">
         <f>'201202'!D56+'201203'!D56+'201204'!D56+'201205'!D56+'201206'!D56+'201207'!D56+'201208'!D56+'201209'!D56+'201210'!D56+'201211'!D56+'201212'!D56</f>
-        <v>34.02834008097166</v>
+        <v>56.250562303193874</v>
       </c>
       <c r="E56" s="19">
         <f t="shared" si="3"/>
-        <v>29.02834008097166</v>
+        <v>49.250562303193874</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19">
         <f t="shared" si="4"/>
-        <v>29.02834008097166</v>
+        <v>49.250562303193874</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="1"/>
@@ -18891,25 +18924,59 @@
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="10"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
+      <c r="A58" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="1">
+        <f>'201202'!B58+'201203'!B58+'201204'!B58+'201205'!B58+'201206'!B58+'201207'!B58+'201208'!B58+'201209'!B58+'201210'!B58+'201211'!B58+'201212'!B58</f>
+        <v>1</v>
+      </c>
+      <c r="C58" s="19">
+        <f>'201202'!C58+'201203'!C58+'201204'!C58+'201205'!C58+'201206'!C58+'201207'!C58+'201208'!C58+'201209'!C58+'201210'!C58+'201211'!C58+'201212'!C58</f>
+        <v>30</v>
+      </c>
+      <c r="D58" s="19">
+        <f>'201202'!D58+'201203'!D58+'201204'!D58+'201205'!D58+'201206'!D58+'201207'!D58+'201208'!D58+'201209'!D58+'201210'!D58+'201211'!D58+'201212'!D58</f>
+        <v>8.75</v>
+      </c>
+      <c r="E58" s="19">
+        <f t="shared" si="3"/>
+        <v>7.75</v>
+      </c>
       <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
+      <c r="G58" s="19">
+        <f t="shared" si="4"/>
+        <v>7.75</v>
+      </c>
       <c r="H58" s="19"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="10"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
+      <c r="A59" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="1">
+        <f>'201202'!B59+'201203'!B59+'201204'!B59+'201205'!B59+'201206'!B59+'201207'!B59+'201208'!B59+'201209'!B59+'201210'!B59+'201211'!B59+'201212'!B59</f>
+        <v>1</v>
+      </c>
+      <c r="C59" s="19">
+        <f>'201202'!C59+'201203'!C59+'201204'!C59+'201205'!C59+'201206'!C59+'201207'!C59+'201208'!C59+'201209'!C59+'201210'!C59+'201211'!C59+'201212'!C59</f>
+        <v>30</v>
+      </c>
+      <c r="D59" s="19">
+        <f>'201202'!D59+'201203'!D59+'201204'!D59+'201205'!D59+'201206'!D59+'201207'!D59+'201208'!D59+'201209'!D59+'201210'!D59+'201211'!D59+'201212'!D59</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="E59" s="19">
+        <f t="shared" si="3"/>
+        <v>10.111111111111111</v>
+      </c>
       <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
+      <c r="G59" s="19">
+        <f t="shared" si="4"/>
+        <v>10.111111111111111</v>
+      </c>
       <c r="H59" s="19"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -19512,10 +19579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20063,37 +20130,72 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="15">
+        <v>41023</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>200</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="1"/>
+      <c r="A35" s="15">
+        <v>41025</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C35" s="1">
-        <f>SUM(C2:C34)</f>
-        <v>1330</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="A36" s="15">
+        <v>41032</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>140</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="A37" s="15">
+        <v>41037</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>195</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
@@ -20103,11 +20205,44 @@
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
+      <c r="A39" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1">
+        <f>SUM(C2:C38)</f>
+        <v>2065</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="10"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="10"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="10"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="10"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -22119,9 +22254,9 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A53" s="11">
+      <c r="A53" s="11" t="str">
         <f>member!A53</f>
-        <v>0</v>
+        <v>维尼</v>
       </c>
       <c r="B53" s="2">
         <f t="shared" si="5"/>
@@ -25003,9 +25138,9 @@
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A53" s="11">
+      <c r="A53" s="11" t="str">
         <f>member!A53</f>
-        <v>0</v>
+        <v>维尼</v>
       </c>
       <c r="B53" s="2">
         <f t="shared" si="25"/>
@@ -25257,8 +25392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection sqref="A1:E63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25266,8 +25401,7 @@
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
@@ -25299,8 +25433,12 @@
       <c r="J1" s="5">
         <v>41018</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="K1" s="5">
+        <v>41023</v>
+      </c>
+      <c r="L1" s="5">
+        <v>41025</v>
+      </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
@@ -25310,7 +25448,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(B9:B100)</f>
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="17"/>
@@ -25338,8 +25476,14 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="K2" s="3">
+        <f t="shared" ref="K2:L2" si="3">COUNT(K9:K100)</f>
+        <v>18</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
@@ -25368,8 +25512,12 @@
       <c r="J3" s="21">
         <v>340</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="K3" s="21">
+        <v>340</v>
+      </c>
+      <c r="L3" s="21">
+        <v>340</v>
+      </c>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
     </row>
@@ -25380,35 +25528,41 @@
       <c r="B4" s="3"/>
       <c r="C4" s="12">
         <f>SUM(E4:T4)</f>
-        <v>2850</v>
+        <v>3930</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="21">
-        <f t="shared" ref="E4:F4" si="3">E2*E7</f>
+        <f t="shared" ref="E4:F4" si="4">E2*E7</f>
         <v>300</v>
       </c>
       <c r="F4" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>420</v>
       </c>
       <c r="G4" s="21">
-        <f t="shared" ref="G4:H4" si="4">G2*G7</f>
+        <f t="shared" ref="G4:H4" si="5">G2*G7</f>
         <v>510</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>510</v>
       </c>
       <c r="I4" s="21">
-        <f t="shared" ref="I4:J4" si="5">I2*I7</f>
+        <f t="shared" ref="I4:J4" si="6">I2*I7</f>
         <v>570</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>540</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="K4" s="21">
+        <f t="shared" ref="K4:L4" si="7">K2*K7</f>
+        <v>540</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" si="7"/>
+        <v>540</v>
+      </c>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
     </row>
@@ -25420,34 +25574,40 @@
       <c r="C5" s="12"/>
       <c r="D5" s="17">
         <f>SUM(E5:T5)</f>
-        <v>870</v>
+        <v>1270</v>
       </c>
       <c r="E5" s="21">
-        <f t="shared" ref="E5:F5" si="6">E4-E3</f>
+        <f t="shared" ref="E5:F5" si="8">E4-E3</f>
         <v>20</v>
       </c>
       <c r="F5" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="G5" s="21">
-        <f t="shared" ref="G5:H5" si="7">G4-G3</f>
+        <f t="shared" ref="G5:H5" si="9">G4-G3</f>
         <v>170</v>
       </c>
       <c r="H5" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
       <c r="I5" s="21">
-        <f t="shared" ref="I5:J5" si="8">I4-I3</f>
+        <f t="shared" ref="I5:J5" si="10">I4-I3</f>
         <v>230</v>
       </c>
       <c r="J5" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="K5" s="21">
+        <f t="shared" ref="K5:L5" si="11">K4-K3</f>
+        <v>200</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
     </row>
@@ -25459,31 +25619,37 @@
       <c r="C6" s="12"/>
       <c r="D6" s="17"/>
       <c r="E6" s="21">
-        <f t="shared" ref="E6:F6" si="9">E3/E2</f>
+        <f t="shared" ref="E6:F6" si="12">E3/E2</f>
         <v>28</v>
       </c>
       <c r="F6" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>24.285714285714285</v>
       </c>
       <c r="G6" s="21">
-        <f t="shared" ref="G6:H6" si="10">G3/G2</f>
+        <f t="shared" ref="G6:H6" si="13">G3/G2</f>
         <v>20</v>
       </c>
       <c r="H6" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="I6" s="21">
-        <f t="shared" ref="I6:J6" si="11">I3/I2</f>
+        <f t="shared" ref="I6:J6" si="14">I3/I2</f>
         <v>17.894736842105264</v>
       </c>
       <c r="J6" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>18.888888888888889</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="K6" s="21">
+        <f t="shared" ref="K6:L6" si="15">K3/K2</f>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="L6" s="21">
+        <f t="shared" si="15"/>
+        <v>18.888888888888889</v>
+      </c>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
     </row>
@@ -25512,8 +25678,12 @@
       <c r="J7" s="21">
         <v>30</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="K7" s="21">
+        <v>30</v>
+      </c>
+      <c r="L7" s="21">
+        <v>30</v>
+      </c>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
@@ -25525,31 +25695,37 @@
       <c r="C8" s="12"/>
       <c r="D8" s="18"/>
       <c r="E8" s="21">
-        <f t="shared" ref="E8:F8" si="12">E7-E6</f>
+        <f t="shared" ref="E8:F8" si="16">E7-E6</f>
         <v>2</v>
       </c>
       <c r="F8" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>5.7142857142857153</v>
       </c>
       <c r="G8" s="21">
-        <f t="shared" ref="G8:H8" si="13">G7-G6</f>
+        <f t="shared" ref="G8:H8" si="17">G7-G6</f>
         <v>10</v>
       </c>
       <c r="H8" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="I8" s="21">
-        <f t="shared" ref="I8:J8" si="14">I7-I6</f>
+        <f t="shared" ref="I8:J8" si="18">I7-I6</f>
         <v>12.105263157894736</v>
       </c>
       <c r="J8" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11.111111111111111</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="K8" s="21">
+        <f t="shared" ref="K8:L8" si="19">K7-K6</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="19"/>
+        <v>11.111111111111111</v>
+      </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
     </row>
@@ -25559,7 +25735,7 @@
         <v>守候幸福</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" ref="B9:B40" si="15">COUNT(E9:T9)</f>
+        <f>COUNT(E9:T9)</f>
         <v>0</v>
       </c>
       <c r="C9" s="2">
@@ -25587,16 +25763,16 @@
         <v>李一刀</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f>COUNT(E10:T10)</f>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
         <f>E7*E10+F7*F10+G7*G10+H7*H10+I7*I10+J7*J10+K7*K10+L7*L10+M7*M10+O7*O10+P7*P10+Q7*Q10+R7*R10+S7*S10+T7*T10</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="D10" s="19">
         <f>E8*E10+F8*F10+G8*G10+H8*H10+I8*I10+J8*J10+K8*K10+L8*L10+M8*M10+O8*O10+P8*P10+Q8*Q10+R8*R10+S8*S10+T8*T10</f>
-        <v>50.930659983291562</v>
+        <v>73.152882205513791</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -25616,8 +25792,12 @@
       <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
@@ -25627,16 +25807,16 @@
         <v>咣咣地跟屁蟲</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f>COUNT(E11:T11)</f>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
         <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="D11" s="19">
         <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
-        <v>50.930659983291562</v>
+        <v>73.152882205513791</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -25656,8 +25836,12 @@
       <c r="J11" s="2">
         <v>1</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
@@ -25667,7 +25851,7 @@
         <v>Oo内拉祖里oO</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="15"/>
+        <f>COUNT(E12:T12)</f>
         <v>0</v>
       </c>
       <c r="C12" s="2">
@@ -25695,7 +25879,7 @@
         <v>幸福~拂晓</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="15"/>
+        <f>COUNT(E13:T13)</f>
         <v>5</v>
       </c>
       <c r="C13" s="2">
@@ -25733,16 +25917,16 @@
         <v>蚕豆</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f>COUNT(E14:T14)</f>
+        <v>8</v>
       </c>
       <c r="C14" s="2">
         <f>E7*E14+F7*F14+G7*G14+H7*H14+I7*I14+J7*J14+K7*K14+L7*L14+M7*M14+O7*O14+P7*P14+Q7*Q14+R7*R14+S7*S14+T7*T14</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="D14" s="19">
         <f>E8*E14+F8*F14+G8*G14+H8*H14+I8*I14+J8*J14+K8*K14+L8*L14+M8*M14+O8*O14+P8*P14+Q8*Q14+R8*R14+S8*S14+T8*T14</f>
-        <v>50.930659983291562</v>
+        <v>73.152882205513791</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -25762,8 +25946,12 @@
       <c r="J14" s="2">
         <v>1</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
@@ -25773,7 +25961,7 @@
         <v>who cares?</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="15"/>
+        <f>COUNT(E15:T15)</f>
         <v>0</v>
       </c>
       <c r="C15" s="2">
@@ -25801,7 +25989,7 @@
         <v>幸福~彩票</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="15"/>
+        <f>COUNT(E16:T16)</f>
         <v>0</v>
       </c>
       <c r="C16" s="2">
@@ -25829,16 +26017,16 @@
         <v>清道夫</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f>COUNT(E17:T17)</f>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <f>E7*E17+F7*F17+G7*G17+H7*H17+I7*I17+J7*J17+K7*K17+L7*L17+M7*M17+O7*O17+P7*P17+Q7*Q17+R7*R17+S7*S17+T7*T17</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D17" s="19">
         <f>E8*E17+F8*F17+G8*G17+H8*H17+I8*I17+J8*J17+K8*K17+L8*L17+M8*M17+O8*O17+P8*P17+Q8*Q17+R8*R17+S8*S17+T8*T17</f>
-        <v>26.825396825396826</v>
+        <v>37.936507936507937</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
@@ -25853,7 +26041,9 @@
         <v>1</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
@@ -25863,16 +26053,16 @@
         <v>老A</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f>COUNT(E18:T18)</f>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
         <f>E7*E18+F7*F18+G7*G18+H7*H18+I7*I18+J7*J18+K7*K18+L7*L18+M7*M18+O7*O18+P7*P18+Q7*Q18+R7*R18+S7*S18+T7*T18</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D18" s="19">
         <f>E8*E18+F8*F18+G8*G18+H8*H18+I8*I18+J8*J18+K8*K18+L8*L18+M8*M18+O8*O18+P8*P18+Q8*Q18+R8*R18+S8*S18+T8*T18</f>
-        <v>22.105263157894736</v>
+        <v>33.216374269005847</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -25884,7 +26074,9 @@
         <v>1</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -25895,7 +26087,7 @@
         <v>狐狸</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="15"/>
+        <f>COUNT(E19:T19)</f>
         <v>6</v>
       </c>
       <c r="C19" s="2">
@@ -25935,7 +26127,7 @@
         <v>腿子</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="15"/>
+        <f>COUNT(E20:T20)</f>
         <v>2</v>
       </c>
       <c r="C20" s="2">
@@ -25967,16 +26159,16 @@
         <v>smile</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>COUNT(E21:T21)</f>
+        <v>1</v>
       </c>
       <c r="C21" s="2">
         <f>E7*E21+F7*F21+G7*G21+H7*H21+I7*I21+J7*J21+K7*K21+L7*L21+M7*M21+O7*O21+P7*P21+Q7*Q21+R7*R21+S7*S21+T7*T21</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D21" s="19">
         <f>E8*E21+F8*F21+G8*G21+H8*H21+I8*I21+J8*J21+K8*K21+L8*L21+M8*M21+O8*O21+P8*P21+Q8*Q21+R8*R21+S8*S21+T8*T21</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -25984,7 +26176,9 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -25995,16 +26189,16 @@
         <v>小贝</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f>COUNT(E22:T22)</f>
+        <v>7</v>
       </c>
       <c r="C22" s="2">
         <f>E7*E22+F7*F22+G7*G22+H7*H22+I7*I22+J7*J22+K7*K22+L7*L22+M7*M22+O7*O22+P7*P22+Q7*Q22+R7*R22+S7*S22+T7*T22</f>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D22" s="19">
         <f>E8*E22+F8*F22+G8*G22+H8*H22+I8*I22+J8*J22+K8*K22+L8*L22+M8*M22+O8*O22+P8*P22+Q8*Q22+R8*R22+S8*S22+T8*T22</f>
-        <v>45.216374269005854</v>
+        <v>67.438596491228083</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -26022,8 +26216,12 @@
       <c r="J22" s="2">
         <v>1</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
@@ -26033,16 +26231,16 @@
         <v>11号-鲜明</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f>COUNT(E23:T23)</f>
+        <v>3</v>
       </c>
       <c r="C23" s="2">
         <f>E7*E23+F7*F23+G7*G23+H7*H23+I7*I23+J7*J23+K7*K23+L7*L23+M7*M23+O7*O23+P7*P23+Q7*Q23+R7*R23+S7*S23+T7*T23</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D23" s="19">
         <f>E8*E23+F8*F23+G8*G23+H8*H23+I8*I23+J8*J23+K8*K23+L8*L23+M8*M23+O8*O23+P8*P23+Q8*Q23+R8*R23+S8*S23+T8*T23</f>
-        <v>22.105263157894736</v>
+        <v>33.216374269005847</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -26054,7 +26252,9 @@
         <v>1</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -26065,7 +26265,7 @@
         <v>狐狸~涛</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="15"/>
+        <f>COUNT(E24:T24)</f>
         <v>3</v>
       </c>
       <c r="C24" s="2">
@@ -26099,16 +26299,16 @@
         <v>侯盟</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f>COUNT(E25:T25)</f>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
         <f>E7*E25+F7*F25+G7*G25+H7*H25+I7*I25+J7*J25+K7*K25+L7*L25+M7*M25+O7*O25+P7*P25+Q7*Q25+R7*R25+S7*S25+T7*T25</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D25" s="19">
         <f>E8*E25+F8*F25+G8*G25+H8*H25+I8*I25+J8*J25+K8*K25+L8*L25+M8*M25+O8*O25+P8*P25+Q8*Q25+R8*R25+S8*S25+T8*T25</f>
-        <v>30.930659983291562</v>
+        <v>53.152882205513791</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -26124,8 +26324,12 @@
       <c r="J25" s="2">
         <v>1</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
@@ -26135,7 +26339,7 @@
         <v>玖伍贰壹</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="15"/>
+        <f>COUNT(E26:T26)</f>
         <v>1</v>
       </c>
       <c r="C26" s="2">
@@ -26165,16 +26369,16 @@
         <v>红色F50-超</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f>COUNT(E27:T27)</f>
+        <v>8</v>
       </c>
       <c r="C27" s="2">
         <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="D27" s="19">
         <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
-        <v>50.930659983291562</v>
+        <v>73.152882205513791</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -26194,8 +26398,12 @@
       <c r="J27" s="2">
         <v>1</v>
       </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
@@ -26205,16 +26413,16 @@
         <v>活了</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f>COUNT(E28:T28)</f>
+        <v>5</v>
       </c>
       <c r="C28" s="2">
         <f>E7*E28+F7*F28+G7*G28+H7*H28+I7*I28+J7*J28+K7*K28+L7*L28+M7*M28+O7*O28+P7*P28+Q7*Q28+R7*R28+S7*S28+T7*T28</f>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D28" s="19">
         <f>E8*E28+F8*F28+G8*G28+H8*H28+I8*I28+J8*J28+K8*K28+L8*L28+M8*M28+O8*O28+P8*P28+Q8*Q28+R8*R28+S8*S28+T8*T28</f>
-        <v>32.10526315789474</v>
+        <v>54.327485380116968</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -26228,8 +26436,12 @@
         <v>1</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
@@ -26239,16 +26451,16 @@
         <v>天赐</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f>COUNT(E29:T29)</f>
+        <v>5</v>
       </c>
       <c r="C29" s="2">
         <f>E7*E29+F7*F29+G7*G29+H7*H29+I7*I29+J7*J29+K7*K29+L7*L29+M7*M29+O7*O29+P7*P29+Q7*Q29+R7*R29+S7*S29+T7*T29</f>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D29" s="19">
         <f>E8*E29+F8*F29+G8*G29+H8*H29+I8*I29+J8*J29+K8*K29+L8*L29+M8*M29+O8*O29+P8*P29+Q8*Q29+R8*R29+S8*S29+T8*T29</f>
-        <v>36.825396825396822</v>
+        <v>47.936507936507937</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2">
@@ -26264,7 +26476,9 @@
       <c r="J29" s="2">
         <v>1</v>
       </c>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -26275,7 +26489,7 @@
         <v>Shenghak</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="15"/>
+        <f>COUNT(E30:T30)</f>
         <v>2</v>
       </c>
       <c r="C30" s="2">
@@ -26307,7 +26521,7 @@
         <v>红色6号</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="15"/>
+        <f>COUNT(E31:T31)</f>
         <v>0</v>
       </c>
       <c r="C31" s="2">
@@ -26335,16 +26549,16 @@
         <v>微笑</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f>COUNT(E32:T32)</f>
+        <v>3</v>
       </c>
       <c r="C32" s="2">
         <f>E7*E32+F7*F32+G7*G32+H7*H32+I7*I32+J7*J32+K7*K32+L7*L32+M7*M32+O7*O32+P7*P32+Q7*Q32+R7*R32+S7*S32+T7*T32</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D32" s="19">
         <f>E8*E32+F8*F32+G8*G32+H8*H32+I8*I32+J8*J32+K8*K32+L8*L32+M8*M32+O8*O32+P8*P32+Q8*Q32+R8*R32+S8*S32+T8*T32</f>
-        <v>23.216374269005847</v>
+        <v>34.327485380116954</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -26356,7 +26570,9 @@
       <c r="J32" s="2">
         <v>1</v>
       </c>
-      <c r="K32" s="2"/>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -26367,16 +26583,16 @@
         <v>77号-更心</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>COUNT(E33:T33)</f>
+        <v>2</v>
       </c>
       <c r="C33" s="2">
         <f>E7*E33+F7*F33+G7*G33+H7*H33+I7*I33+J7*J33+K7*K33+L7*L33+M7*M33+O7*O33+P7*P33+Q7*Q33+R7*R33+S7*S33+T7*T33</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D33" s="19">
         <f>E8*E33+F8*F33+G8*G33+H8*H33+I8*I33+J8*J33+K8*K33+L8*L33+M8*M33+O8*O33+P8*P33+Q8*Q33+R8*R33+S8*S33+T8*T33</f>
-        <v>5.7142857142857153</v>
+        <v>16.825396825396826</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2">
@@ -26386,7 +26602,9 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -26397,7 +26615,7 @@
         <v>更心朋友</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" si="15"/>
+        <f>COUNT(E34:T34)</f>
         <v>0</v>
       </c>
       <c r="C34" s="2">
@@ -26425,16 +26643,16 @@
         <v>8号-菜菜亮</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f>COUNT(E35:T35)</f>
+        <v>4</v>
       </c>
       <c r="C35" s="2">
         <f>E7*E35+F7*F35+G7*G35+H7*H35+I7*I35+J7*J35+K7*K35+L7*L35+M7*M35+O7*O35+P7*P35+Q7*Q35+R7*R35+S7*S35+T7*T35</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D35" s="19">
         <f>E8*E35+F8*F35+G8*G35+H8*H35+I8*I35+J8*J35+K8*K35+L8*L35+M8*M35+O8*O35+P8*P35+Q8*Q35+R8*R35+S8*S35+T8*T35</f>
-        <v>24.105263157894736</v>
+        <v>35.216374269005847</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -26448,7 +26666,9 @@
         <v>1</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -26459,7 +26679,7 @@
         <v>杨光朋友</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="15"/>
+        <f>COUNT(E36:T36)</f>
         <v>0</v>
       </c>
       <c r="C36" s="2">
@@ -26487,7 +26707,7 @@
         <v>拂晓朋友</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="15"/>
+        <f>COUNT(E37:T37)</f>
         <v>1</v>
       </c>
       <c r="C37" s="2">
@@ -26517,7 +26737,7 @@
         <v>4号-许多</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="15"/>
+        <f>COUNT(E38:T38)</f>
         <v>0</v>
       </c>
       <c r="C38" s="2">
@@ -26545,16 +26765,16 @@
         <v>5号-正</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>COUNT(E39:T39)</f>
+        <v>2</v>
       </c>
       <c r="C39" s="2">
         <f>E7*E39+F7*F39+G7*G39+H7*H39+I7*I39+J7*J39+K7*K39+L7*L39+M7*M39+O7*O39+P7*P39+Q7*Q39+R7*R39+S7*S39+T7*T39</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D39" s="19">
         <f>E8*E39+F8*F39+G8*G39+H8*H39+I8*I39+J8*J39+K8*K39+L8*L39+M8*M39+O8*O39+P8*P39+Q8*Q39+R8*R39+S8*S39+T8*T39</f>
-        <v>11.111111111111111</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -26565,7 +26785,9 @@
         <v>1</v>
       </c>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
@@ -26575,7 +26797,7 @@
         <v>勇敢的爬爬</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="15"/>
+        <f>COUNT(E40:T40)</f>
         <v>0</v>
       </c>
       <c r="C40" s="2">
@@ -26603,16 +26825,16 @@
         <v>17号-4号字母</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" ref="B41:B57" si="16">COUNT(E41:T41)</f>
-        <v>1</v>
+        <f t="shared" ref="B41:B59" si="20">COUNT(E41:T41)</f>
+        <v>2</v>
       </c>
       <c r="C41" s="2">
         <f>E7*E41+F7*F41+G7*G41+H7*H41+I7*I41+J7*J41+K7*K41+L7*L41+M7*M41+O7*O41+P7*P41+Q7*Q41+R7*R41+S7*S41+T7*T41</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D41" s="19">
         <f>E8*E41+F8*F41+G8*G41+H8*H41+I8*I41+J8*J41+K8*K41+L8*L41+M8*M41+O8*O41+P8*P41+Q8*Q41+R8*R41+S8*S41+T8*T41</f>
-        <v>10</v>
+        <v>21.111111111111111</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -26623,7 +26845,9 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
@@ -26633,7 +26857,7 @@
         <v>雷</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="C42" s="2">
@@ -26663,16 +26887,16 @@
         <v>西北偏北</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" si="16"/>
-        <v>3</v>
+        <f t="shared" si="20"/>
+        <v>4</v>
       </c>
       <c r="C43" s="2">
         <f>E7*E43+F7*F43+G7*G43+H7*H43+I7*I43+J7*J43+K7*K43+L7*L43+M7*M43+O7*O43+P7*P43+Q7*Q43+R7*R43+S7*S43+T7*T43</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D43" s="19">
         <f>E8*E43+F8*F43+G8*G43+H8*H43+I8*I43+J8*J43+K8*K43+L8*L43+M8*M43+O8*O43+P8*P43+Q8*Q43+R8*R43+S8*S43+T8*T43</f>
-        <v>33.216374269005847</v>
+        <v>44.327485380116954</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -26686,7 +26910,9 @@
       <c r="J43" s="2">
         <v>1</v>
       </c>
-      <c r="K43" s="2"/>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -26697,7 +26923,7 @@
         <v>红色8号</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C44" s="2">
@@ -26725,16 +26951,16 @@
         <v>马耳他</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="C45" s="2">
         <f>E7*E45+F7*F45+G7*G45+H7*H45+I7*I45+J7*J45+K7*K45+L7*L45+M7*M45+O7*O45+P7*P45+Q7*Q45+R7*R45+S7*S45+T7*T45</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D45" s="19">
         <f>E8*E45+F8*F45+G8*G45+H8*H45+I8*I45+J8*J45+K8*K45+L8*L45+M8*M45+O8*O45+P8*P45+Q8*Q45+R8*R45+S8*S45+T8*T45</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -26743,7 +26969,9 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
@@ -26753,16 +26981,16 @@
         <v>Cindy~陈猛</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <f t="shared" si="20"/>
+        <v>5</v>
       </c>
       <c r="C46" s="2">
         <f>E7*E46+F7*F46+G7*G46+H7*H46+I7*I46+J7*J46+K7*K46+L7*L46+M7*M46+O7*O46+P7*P46+Q7*Q46+R7*R46+S7*S46+T7*T46</f>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D46" s="19">
         <f>E8*E46+F8*F46+G8*G46+H8*H46+I8*I46+J8*J46+K8*K46+L8*L46+M8*M46+O8*O46+P8*P46+Q8*Q46+R8*R46+S8*S46+T8*T46</f>
-        <v>27.714285714285715</v>
+        <v>38.825396825396822</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
@@ -26779,7 +27007,9 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
@@ -26789,16 +27019,16 @@
         <v>硕</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="C47" s="2">
         <f>E7*E47+F7*F47+G7*G47+H7*H47+I7*I47+J7*J47+K7*K47+L7*L47+M7*M47+O7*O47+P7*P47+Q7*Q47+R7*R47+S7*S47+T7*T47</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D47" s="19">
         <f>E8*E47+F8*F47+G8*G47+H8*H47+I8*I47+J8*J47+K8*K47+L8*L47+M8*M47+O8*O47+P8*P47+Q8*Q47+R8*R47+S8*S47+T8*T47</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -26806,7 +27036,9 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -26817,16 +27049,16 @@
         <v>Violin</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="C48" s="2">
         <f>E7*E48+F7*F48+G7*G48+H7*H48+I7*I48+J7*J48+K7*K48+L7*L48+M7*M48+O7*O48+P7*P48+Q7*Q48+R7*R48+S7*S48+T7*T48</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D48" s="19">
         <f>E8*E48+F8*F48+G8*G48+H8*H48+I8*I48+J8*J48+K8*K48+L8*L48+M8*M48+O8*O48+P8*P48+Q8*Q48+R8*R48+S8*S48+T8*T48</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -26835,7 +27067,9 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
@@ -26845,16 +27079,16 @@
         <v>87号陈磊</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <f t="shared" si="20"/>
+        <v>5</v>
       </c>
       <c r="C49" s="2">
         <f>E7*E49+F7*F49+G7*G49+H7*H49+I7*I49+J7*J49+K7*K49+L7*L49+M7*M49+O7*O49+P7*P49+Q7*Q49+R7*R49+S7*S49+T7*T49</f>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D49" s="19">
         <f>E8*E49+F8*F49+G8*G49+H8*H49+I8*I49+J8*J49+K8*K49+L8*L49+M8*M49+O8*O49+P8*P49+Q8*Q49+R8*R49+S8*S49+T8*T49</f>
-        <v>37.819548872180448</v>
+        <v>48.930659983291562</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2">
@@ -26871,7 +27105,9 @@
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
@@ -26881,7 +27117,7 @@
         <v>水中阳光</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C50" s="2">
@@ -26909,16 +27145,16 @@
         <v>sam</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="20"/>
+        <v>3</v>
       </c>
       <c r="C51" s="2">
         <f>E7*E51+F7*F51+G7*G51+H7*H51+I7*I51+J7*J51+K7*K51+L7*L51+M7*M51+O7*O51+P7*P51+Q7*Q51+R7*R51+S7*S51+T7*T51</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D51" s="19">
         <f>E8*E51+F8*F51+G8*G51+H8*H51+I8*I51+J8*J51+K8*K51+L8*L51+M8*M51+O8*O51+P8*P51+Q8*Q51+R8*R51+S8*S51+T8*T51</f>
-        <v>22.105263157894736</v>
+        <v>33.216374269005847</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -26931,7 +27167,9 @@
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
@@ -26941,16 +27179,16 @@
         <v>26 方亚</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="20"/>
+        <v>3</v>
       </c>
       <c r="C52" s="2">
         <f>E7*E52+F7*F52+G7*G52+H7*H52+I7*I52+J7*J52+K7*K52+L7*L52+M7*M52+O7*O52+P7*P52+Q7*Q52+R7*R52+S7*S52+T7*T52</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D52" s="19">
         <f>E8*E52+F8*F52+G8*G52+H8*H52+I8*I52+J8*J52+K8*K52+L8*L52+M8*M52+O8*O52+P8*P52+Q8*Q52+R8*R52+S8*S52+T8*T52</f>
-        <v>22.105263157894736</v>
+        <v>33.216374269005847</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -26963,26 +27201,28 @@
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+      <c r="L52" s="2">
+        <v>1</v>
+      </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A53" s="11">
+      <c r="A53" s="11" t="str">
         <f>member!A53</f>
-        <v>0</v>
+        <v>维尼</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="C53" s="2">
         <f>E7*E53+F7*F53+G7*G53+H7*H53+I7*I53+J7*J53+K7*K53+L7*L53+M7*M53+O7*O53+P7*P53+Q7*Q53+R7*R53+S7*S53+T7*T53</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D53" s="19">
         <f>E8*E53+F8*F53+G8*G53+H8*H53+I8*I53+J8*J53+K8*K53+L8*L53+M8*M53+O8*O53+P8*P53+Q8*Q53+R8*R53+S8*S53+T8*T53</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -26990,7 +27230,9 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -27001,7 +27243,7 @@
         <v>0号--张家宁</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C54" s="2">
@@ -27029,7 +27271,7 @@
         <v>泰山</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="C55" s="2">
@@ -27061,16 +27303,16 @@
         <v>尚峰</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="20"/>
+        <v>4</v>
       </c>
       <c r="C56" s="2">
         <f>E7*E56+F7*F56+G7*G56+H7*H56+I7*I56+J7*J56+K7*K56+L7*L56+M7*M56+O7*O56+P7*P56+Q7*Q56+R7*R56+S7*S56+T7*T56</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D56" s="19">
         <f>E8*E56+F8*F56+G8*G56+H8*H56+I8*I56+J8*J56+K8*K56+L8*L56+M8*M56+O8*O56+P8*P56+Q8*Q56+R8*R56+S8*S56+T8*T56</f>
-        <v>22.105263157894736</v>
+        <v>44.327485380116954</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -27082,8 +27324,12 @@
         <v>1</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
@@ -27093,7 +27339,7 @@
         <v>杨光</v>
       </c>
       <c r="B57" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C57" s="2">
@@ -27116,10 +27362,22 @@
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58" s="10"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="19"/>
+      <c r="A58" s="11" t="str">
+        <f>member!A58</f>
+        <v>小磊</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <f>E7*E58+F7*F58+G7*G58+H7*H58+I7*I58+J7*J58+K7*K58+L7*L58+M7*M58+O7*O58+P7*P58+Q7*Q58+R7*R58+S7*S58+T7*T58</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="19">
+        <f>E8*E58+F8*F58+G8*G58+H8*H58+I8*I58+J8*J58+K8*K58+L8*L58+M8*M58+O8*O58+P8*P58+Q8*Q58+R8*R58+S8*S58+T8*T58</f>
+        <v>0</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -27127,15 +27385,27 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="L58" s="35"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59" s="10"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="19"/>
+      <c r="A59" s="11" t="str">
+        <f>member!A59</f>
+        <v>绿洲</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <f>E7*E59+F7*F59+G7*G59+H7*H59+I7*I59+J7*J59+K7*K59+L7*L59+M7*M59+O7*O59+P7*P59+Q7*Q59+R7*R59+S7*S59+T7*T59</f>
+        <v>30</v>
+      </c>
+      <c r="D59" s="19">
+        <f>E8*E59+F8*F59+G8*G59+H8*H59+I8*I59+J8*J59+K8*K59+L8*L59+M8*M59+O8*O59+P8*P59+Q8*Q59+R8*R59+S8*S59+T8*T59</f>
+        <v>11.111111111111111</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -27143,7 +27413,9 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
@@ -27219,10 +27491,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27232,7 +27504,7 @@
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="7" t="s">
         <v>35</v>
@@ -27244,25 +27516,32 @@
         <v>37</v>
       </c>
       <c r="E1" s="5">
+        <v>41032</v>
+      </c>
+      <c r="F1" s="5">
         <v>41037</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="3">
         <f>SUM(B9:B100)</f>
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="17"/>
       <c r="E2" s="3">
-        <f t="shared" ref="E2" si="0">COUNT(E9:E100)</f>
+        <f t="shared" ref="E2:F2" si="0">COUNT(E9:E100)</f>
+        <v>16</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -27270,25 +27549,32 @@
       <c r="C3" s="12"/>
       <c r="D3" s="17"/>
       <c r="E3" s="21">
+        <v>340</v>
+      </c>
+      <c r="F3" s="21">
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="12">
         <f>SUM(E4:T4)</f>
-        <v>540</v>
+        <v>1020</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="21">
-        <f t="shared" ref="E4" si="1">E2*E7</f>
+        <f t="shared" ref="E4:F4" si="1">E2*E7</f>
+        <v>480</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -27296,14 +27582,18 @@
       <c r="C5" s="12"/>
       <c r="D5" s="17">
         <f>SUM(E5:T5)</f>
+        <v>335</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" ref="E5:F5" si="2">E4-E3</f>
+        <v>140</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
-      <c r="E5" s="21">
-        <f t="shared" ref="E5" si="2">E4-E3</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -27311,11 +27601,15 @@
       <c r="C6" s="12"/>
       <c r="D6" s="17"/>
       <c r="E6" s="21">
-        <f t="shared" ref="E6" si="3">E3/E2</f>
+        <f t="shared" ref="E6:F6" si="3">E3/E2</f>
+        <v>21.25</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="3"/>
         <v>19.166666666666668</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -27325,8 +27619,11 @@
       <c r="E7" s="21">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -27334,17 +27631,21 @@
       <c r="C8" s="12"/>
       <c r="D8" s="18"/>
       <c r="E8" s="21">
-        <f t="shared" ref="E8" si="4">E7-E6</f>
+        <f t="shared" ref="E8:F8" si="4">E7-E6</f>
+        <v>8.75</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="4"/>
         <v>10.833333333333332</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="str">
         <f>member!A9</f>
         <v>守候幸福</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" ref="B9:B57" si="5">COUNT(E9:T9)</f>
+        <f t="shared" ref="B9:B59" si="5">COUNT(E9:T9)</f>
         <v>1</v>
       </c>
       <c r="C9" s="2">
@@ -27355,53 +27656,60 @@
         <f>E8*E9+F8*F9+G8*G9+H8*H9+I8*I9+J8*J9+K8*K9+L8*L9+M8*M9+O8*O9+P8*P9+Q8*Q9+R8*R9+S8*S9+T8*T9</f>
         <v>10.833333333333332</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="str">
         <f>member!A10</f>
         <v>李一刀</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
         <f>E7*E10+F7*F10+G7*G10+H7*H10+I7*I10+J7*J10+K7*K10+L7*L10+M7*M10+O7*O10+P7*P10+Q7*Q10+R7*R10+S7*S10+T7*T10</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D10" s="19">
         <f>E8*E10+F8*F10+G8*G10+H8*H10+I8*I10+J8*J10+K8*K10+L8*L10+M8*M10+O8*O10+P8*P10+Q8*Q10+R8*R10+S8*S10+T8*T10</f>
-        <v>10.833333333333332</v>
+        <v>19.583333333333332</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="str">
         <f>member!A11</f>
         <v>咣咣地跟屁蟲</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
         <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D11" s="19">
         <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
-        <v>10.833333333333332</v>
+        <v>19.583333333333332</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="str">
         <f>member!A12</f>
         <v>Oo内拉祖里oO</v>
@@ -27419,50 +27727,57 @@
         <v>0</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="str">
         <f>member!A13</f>
         <v>幸福~拂晓</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <f>E7*E13+F7*F13+G7*G13+H7*H13+I7*I13+J7*J13+K7*K13+L7*L13+M7*M13+O7*O13+P7*P13+Q7*Q13+R7*R13+S7*S13+T7*T13</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D13" s="19">
         <f>E8*E13+F8*F13+G8*G13+H8*H13+I8*I13+J8*J13+K8*K13+L8*L13+M8*M13+O8*O13+P8*P13+Q8*Q13+R8*R13+S8*S13+T8*T13</f>
-        <v>10.833333333333332</v>
+        <v>19.583333333333332</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="str">
         <f>member!A14</f>
         <v>蚕豆</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
         <f>E7*E14+F7*F14+G7*G14+H7*H14+I7*I14+J7*J14+K7*K14+L7*L14+M7*M14+O7*O14+P7*P14+Q7*Q14+R7*R14+S7*S14+T7*T14</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D14" s="19">
         <f>E8*E14+F8*F14+G8*G14+H8*H14+I8*I14+J8*J14+K8*K14+L8*L14+M8*M14+O8*O14+P8*P14+Q8*Q14+R8*R14+S8*S14+T8*T14</f>
-        <v>10.833333333333332</v>
+        <v>19.583333333333332</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="str">
         <f>member!A15</f>
         <v>who cares?</v>
@@ -27480,8 +27795,9 @@
         <v>0</v>
       </c>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="str">
         <f>member!A16</f>
         <v>幸福~彩票</v>
@@ -27499,8 +27815,9 @@
         <v>0</v>
       </c>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="str">
         <f>member!A17</f>
         <v>清道夫</v>
@@ -27518,48 +27835,55 @@
         <v>0</v>
       </c>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="str">
         <f>member!A18</f>
         <v>老A</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
         <f>E7*E18+F7*F18+G7*G18+H7*H18+I7*I18+J7*J18+K7*K18+L7*L18+M7*M18+O7*O18+P7*P18+Q7*Q18+R7*R18+S7*S18+T7*T18</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D18" s="19">
         <f>E8*E18+F8*F18+G8*G18+H8*H18+I8*I18+J8*J18+K8*K18+L8*L18+M8*M18+O8*O18+P8*P18+Q8*Q18+R8*R18+S8*S18+T8*T18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8.75</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="str">
         <f>member!A19</f>
         <v>狐狸</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2">
         <f>E7*E19+F7*F19+G7*G19+H7*H19+I7*I19+J7*J19+K7*K19+L7*L19+M7*M19+O7*O19+P7*P19+Q7*Q19+R7*R19+S7*S19+T7*T19</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D19" s="19">
         <f>E8*E19+F8*F19+G8*G19+H8*H19+I8*I19+J8*J19+K8*K19+L8*L19+M8*M19+O8*O19+P8*P19+Q8*Q19+R8*R19+S8*S19+T8*T19</f>
-        <v>10.833333333333332</v>
+        <v>19.583333333333332</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="str">
         <f>member!A20</f>
         <v>腿子</v>
@@ -27577,67 +27901,77 @@
         <v>0</v>
       </c>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="str">
         <f>member!A21</f>
         <v>smile</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2">
         <f>E7*E21+F7*F21+G7*G21+H7*H21+I7*I21+J7*J21+K7*K21+L7*L21+M7*M21+O7*O21+P7*P21+Q7*Q21+R7*R21+S7*S21+T7*T21</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D21" s="19">
         <f>E8*E21+F8*F21+G8*G21+H8*H21+I8*I21+J8*J21+K8*K21+L8*L21+M8*M21+O8*O21+P8*P21+Q8*Q21+R8*R21+S8*S21+T8*T21</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8.75</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="str">
         <f>member!A22</f>
         <v>小贝</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2">
         <f>E7*E22+F7*F22+G7*G22+H7*H22+I7*I22+J7*J22+K7*K22+L7*L22+M7*M22+O7*O22+P7*P22+Q7*Q22+R7*R22+S7*S22+T7*T22</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D22" s="19">
         <f>E8*E22+F8*F22+G8*G22+H8*H22+I8*I22+J8*J22+K8*K22+L8*L22+M8*M22+O8*O22+P8*P22+Q8*Q22+R8*R22+S8*S22+T8*T22</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8.75</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="str">
         <f>member!A23</f>
         <v>11号-鲜明</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2">
         <f>E7*E23+F7*F23+G7*G23+H7*H23+I7*I23+J7*J23+K7*K23+L7*L23+M7*M23+O7*O23+P7*P23+Q7*Q23+R7*R23+S7*S23+T7*T23</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D23" s="19">
         <f>E8*E23+F8*F23+G8*G23+H8*H23+I8*I23+J8*J23+K8*K23+L8*L23+M8*M23+O8*O23+P8*P23+Q8*Q23+R8*R23+S8*S23+T8*T23</f>
-        <v>10.833333333333332</v>
+        <v>19.583333333333332</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="str">
         <f>member!A24</f>
         <v>狐狸~涛</v>
@@ -27654,11 +27988,12 @@
         <f>E8*E24+F8*F24+G8*G24+H8*H24+I8*I24+J8*J24+K8*K24+L8*L24+M8*M24+O8*O24+P8*P24+Q8*Q24+R8*R24+S8*S24+T8*T24</f>
         <v>10.833333333333332</v>
       </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="str">
         <f>member!A25</f>
         <v>侯盟</v>
@@ -27676,8 +28011,9 @@
         <v>0</v>
       </c>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="str">
         <f>member!A26</f>
         <v>玖伍贰壹</v>
@@ -27695,90 +28031,103 @@
         <v>0</v>
       </c>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="str">
         <f>member!A27</f>
         <v>红色F50-超</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2">
         <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D27" s="19">
         <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
-        <v>10.833333333333332</v>
+        <v>19.583333333333332</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="str">
         <f>member!A28</f>
         <v>活了</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2">
         <f>E7*E28+F7*F28+G7*G28+H7*H28+I7*I28+J7*J28+K7*K28+L7*L28+M7*M28+O7*O28+P7*P28+Q7*Q28+R7*R28+S7*S28+T7*T28</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D28" s="19">
         <f>E8*E28+F8*F28+G8*G28+H8*H28+I8*I28+J8*J28+K8*K28+L8*L28+M8*M28+O8*O28+P8*P28+Q8*Q28+R8*R28+S8*S28+T8*T28</f>
-        <v>10.833333333333332</v>
+        <v>19.583333333333332</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="str">
         <f>member!A29</f>
         <v>天赐</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2">
         <f>E7*E29+F7*F29+G7*G29+H7*H29+I7*I29+J7*J29+K7*K29+L7*L29+M7*M29+O7*O29+P7*P29+Q7*Q29+R7*R29+S7*S29+T7*T29</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D29" s="19">
         <f>E8*E29+F8*F29+G8*G29+H8*H29+I8*I29+J8*J29+K8*K29+L8*L29+M8*M29+O8*O29+P8*P29+Q8*Q29+R8*R29+S8*S29+T8*T29</f>
-        <v>10.833333333333332</v>
+        <v>19.583333333333332</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="str">
         <f>member!A30</f>
         <v>Shenghak</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2">
         <f>E7*E30+F7*F30+G7*G30+H7*H30+I7*I30+J7*J30+K7*K30+L7*L30+M7*M30+O7*O30+P7*P30+Q7*Q30+R7*R30+S7*S30+T7*T30</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D30" s="19">
         <f>E8*E30+F8*F30+G8*G30+H8*H30+I8*I30+J8*J30+K8*K30+L8*L30+M8*M30+O8*O30+P8*P30+Q8*Q30+R8*R30+S8*S30+T8*T30</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8.75</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="str">
         <f>member!A31</f>
         <v>红色6号</v>
@@ -27796,8 +28145,9 @@
         <v>0</v>
       </c>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="str">
         <f>member!A32</f>
         <v>微笑</v>
@@ -27814,11 +28164,12 @@
         <f>E8*E32+F8*F32+G8*G32+H8*H32+I8*I32+J8*J32+K8*K32+L8*L32+M8*M32+O8*O32+P8*P32+Q8*Q32+R8*R32+S8*S32+T8*T32</f>
         <v>10.833333333333332</v>
       </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="str">
         <f>member!A33</f>
         <v>77号-更心</v>
@@ -27836,8 +28187,9 @@
         <v>0</v>
       </c>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="str">
         <f>member!A34</f>
         <v>更心朋友</v>
@@ -27855,8 +28207,9 @@
         <v>0</v>
       </c>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="str">
         <f>member!A35</f>
         <v>8号-菜菜亮</v>
@@ -27873,11 +28226,12 @@
         <f>E8*E35+F8*F35+G8*G35+H8*H35+I8*I35+J8*J35+K8*K35+L8*L35+M8*M35+O8*O35+P8*P35+Q8*Q35+R8*R35+S8*S35+T8*T35</f>
         <v>10.833333333333332</v>
       </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="str">
         <f>member!A36</f>
         <v>杨光朋友</v>
@@ -27895,8 +28249,9 @@
         <v>0</v>
       </c>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="str">
         <f>member!A37</f>
         <v>拂晓朋友</v>
@@ -27914,8 +28269,9 @@
         <v>0</v>
       </c>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="str">
         <f>member!A38</f>
         <v>4号-许多</v>
@@ -27933,8 +28289,9 @@
         <v>0</v>
       </c>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="str">
         <f>member!A39</f>
         <v>5号-正</v>
@@ -27952,8 +28309,9 @@
         <v>0</v>
       </c>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="str">
         <f>member!A40</f>
         <v>勇敢的爬爬</v>
@@ -27971,8 +28329,9 @@
         <v>0</v>
       </c>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="str">
         <f>member!A41</f>
         <v>17号-4号字母</v>
@@ -27990,8 +28349,9 @@
         <v>0</v>
       </c>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="str">
         <f>member!A42</f>
         <v>雷</v>
@@ -28009,8 +28369,9 @@
         <v>0</v>
       </c>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="str">
         <f>member!A43</f>
         <v>西北偏北</v>
@@ -28028,8 +28389,9 @@
         <v>0</v>
       </c>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="str">
         <f>member!A44</f>
         <v>红色8号</v>
@@ -28047,8 +28409,9 @@
         <v>0</v>
       </c>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="str">
         <f>member!A45</f>
         <v>马耳他</v>
@@ -28065,11 +28428,12 @@
         <f>E8*E45+F8*F45+G8*G45+H8*H45+I8*I45+J8*J45+K8*K45+L8*L45+M8*M45+O8*O45+P8*P45+Q8*Q45+R8*R45+S8*S45+T8*T45</f>
         <v>10.833333333333332</v>
       </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="str">
         <f>member!A46</f>
         <v>Cindy~陈猛</v>
@@ -28086,11 +28450,12 @@
         <f>E8*E46+F8*F46+G8*G46+H8*H46+I8*I46+J8*J46+K8*K46+L8*L46+M8*M46+O8*O46+P8*P46+Q8*Q46+R8*R46+S8*S46+T8*T46</f>
         <v>10.833333333333332</v>
       </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="str">
         <f>member!A47</f>
         <v>硕</v>
@@ -28107,11 +28472,12 @@
         <f>E8*E47+F8*F47+G8*G47+H8*H47+I8*I47+J8*J47+K8*K47+L8*L47+M8*M47+O8*O47+P8*P47+Q8*Q47+R8*R47+S8*S47+T8*T47</f>
         <v>10.833333333333332</v>
       </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="str">
         <f>member!A48</f>
         <v>Violin</v>
@@ -28128,30 +28494,34 @@
         <f>E8*E48+F8*F48+G8*G48+H8*H48+I8*I48+J8*J48+K8*K48+L8*L48+M8*M48+O8*O48+P8*P48+Q8*Q48+R8*R48+S8*S48+T8*T48</f>
         <v>10.833333333333332</v>
       </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="str">
         <f>member!A49</f>
         <v>87号陈磊</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="2">
         <f>E7*E49+F7*F49+G7*G49+H7*H49+I7*I49+J7*J49+K7*K49+L7*L49+M7*M49+O7*O49+P7*P49+Q7*Q49+R7*R49+S7*S49+T7*T49</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D49" s="19">
         <f>E8*E49+F8*F49+G8*G49+H8*H49+I8*I49+J8*J49+K8*K49+L8*L49+M8*M49+O8*O49+P8*P49+Q8*Q49+R8*R49+S8*S49+T8*T49</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+        <v>8.75</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="str">
         <f>member!A50</f>
         <v>水中阳光</v>
@@ -28169,8 +28539,9 @@
         <v>0</v>
       </c>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="str">
         <f>member!A51</f>
         <v>sam</v>
@@ -28188,32 +28559,36 @@
         <v>0</v>
       </c>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="str">
         <f>member!A52</f>
         <v>26 方亚</v>
       </c>
       <c r="B52" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="2">
         <f>E7*E52+F7*F52+G7*G52+H7*H52+I7*I52+J7*J52+K7*K52+L7*L52+M7*M52+O7*O52+P7*P52+Q7*Q52+R7*R52+S7*S52+T7*T52</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D52" s="19">
         <f>E8*E52+F8*F52+G8*G52+H8*H52+I8*I52+J8*J52+K8*K52+L8*L52+M8*M52+O8*O52+P8*P52+Q8*Q52+R8*R52+S8*S52+T8*T52</f>
-        <v>10.833333333333332</v>
+        <v>19.583333333333332</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="11">
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="11" t="str">
         <f>member!A53</f>
-        <v>0</v>
+        <v>维尼</v>
       </c>
       <c r="B53" s="2">
         <f t="shared" si="5"/>
@@ -28228,8 +28603,9 @@
         <v>0</v>
       </c>
       <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="str">
         <f>member!A54</f>
         <v>0号--张家宁</v>
@@ -28247,8 +28623,9 @@
         <v>0</v>
       </c>
       <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="str">
         <f>member!A55</f>
         <v>泰山</v>
@@ -28266,8 +28643,9 @@
         <v>0</v>
       </c>
       <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="str">
         <f>member!A56</f>
         <v>尚峰</v>
@@ -28285,8 +28663,9 @@
         <v>0</v>
       </c>
       <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="str">
         <f>member!A57</f>
         <v>杨光</v>
@@ -28304,48 +28683,81 @@
         <v>0</v>
       </c>
       <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="10"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="10"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="19"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="11" t="str">
+        <f>member!A58</f>
+        <v>小磊</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <f>E7*E58+F7*F58+G7*G58+H7*H58+I7*I58+J7*J58+K7*K58+L7*L58+M7*M58+O7*O58+P7*P58+Q7*Q58+R7*R58+S7*S58+T7*T58</f>
+        <v>30</v>
+      </c>
+      <c r="D58" s="19">
+        <f>E8*E58+F8*F58+G8*G58+H8*H58+I8*I58+J8*J58+K8*K58+L8*L58+M8*M58+O8*O58+P8*P58+Q8*Q58+R8*R58+S8*S58+T8*T58</f>
+        <v>8.75</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="11" t="str">
+        <f>member!A59</f>
+        <v>绿洲</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <f>E7*E59+F7*F59+G7*G59+H7*H59+I7*I59+J7*J59+K7*K59+L7*L59+M7*M59+O7*O59+P7*P59+Q7*Q59+R7*R59+S7*S59+T7*T59</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="19">
+        <f>E8*E59+F8*F59+G8*G59+H8*H59+I8*I59+J8*J59+K8*K59+L8*L59+M8*M59+O8*O59+P8*P59+Q8*Q59+R8*R59+S8*S59+T8*T59</f>
+        <v>0</v>
+      </c>
       <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="19"/>
       <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="19"/>
       <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
       <c r="D62" s="19"/>
       <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
       <c r="D63" s="19"/>
       <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="109">
   <si>
     <t>守候幸福</t>
   </si>
@@ -439,6 +439,10 @@
   </si>
   <si>
     <t>18×30－345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退菜、盟、A、贝、豆30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -986,11 +990,11 @@
       </c>
       <c r="F2" s="19">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>660</v>
       </c>
       <c r="G2" s="33">
         <f t="shared" si="0"/>
-        <v>1804.9999999999998</v>
+        <v>1654.9999999999998</v>
       </c>
       <c r="H2" s="33">
         <f t="shared" si="0"/>
@@ -1026,7 +1030,7 @@
       </c>
       <c r="H4" s="24">
         <f>G2+H2</f>
-        <v>1834.9999999999998</v>
+        <v>1684.9999999999998</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -17626,11 +17630,11 @@
         <v>142.58694813957973</v>
       </c>
       <c r="F14" s="19">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" si="2"/>
-        <v>112.58694813957973</v>
+        <v>82.586948139579732</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="1">
@@ -17747,10 +17751,12 @@
         <f t="shared" si="1"/>
         <v>54.515824818456394</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="19">
+        <v>30</v>
+      </c>
       <c r="G18" s="19">
         <f t="shared" si="2"/>
-        <v>54.515824818456394</v>
+        <v>24.515824818456394</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="1"/>
@@ -17867,10 +17873,12 @@
         <f t="shared" si="1"/>
         <v>68.188596491228083</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="19">
+        <v>30</v>
+      </c>
       <c r="G22" s="19">
         <f t="shared" si="2"/>
-        <v>68.188596491228083</v>
+        <v>38.188596491228083</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="1"/>
@@ -17962,10 +17970,12 @@
         <f t="shared" si="1"/>
         <v>82.614420667052244</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19">
+        <v>30</v>
+      </c>
       <c r="G25" s="19">
         <f t="shared" si="2"/>
-        <v>82.614420667052244</v>
+        <v>52.614420667052244</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="1"/>
@@ -18255,11 +18265,11 @@
         <v>93.971868774500351</v>
       </c>
       <c r="F35" s="19">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G35" s="19">
         <f t="shared" si="2"/>
-        <v>63.971868774500351</v>
+        <v>33.971868774500351</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="1"/>
@@ -19579,10 +19589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20165,61 +20175,71 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
-        <v>41032</v>
+        <v>41025</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>140</v>
+        <v>-150</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
+        <v>41032</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>140</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="15">
         <v>41037</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
         <v>195</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="A39" s="10"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1">
-        <f>SUM(C2:C38)</f>
-        <v>2065</v>
-      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
+      <c r="A40" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1">
+        <f>SUM(C2:C39)</f>
+        <v>1915</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
@@ -20243,6 +20263,13 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="10"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -25735,7 +25762,7 @@
         <v>守候幸福</v>
       </c>
       <c r="B9" s="2">
-        <f>COUNT(E9:T9)</f>
+        <f t="shared" ref="B9:B40" si="20">COUNT(E9:T9)</f>
         <v>0</v>
       </c>
       <c r="C9" s="2">
@@ -25763,7 +25790,7 @@
         <v>李一刀</v>
       </c>
       <c r="B10" s="2">
-        <f>COUNT(E10:T10)</f>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="C10" s="2">
@@ -25807,7 +25834,7 @@
         <v>咣咣地跟屁蟲</v>
       </c>
       <c r="B11" s="2">
-        <f>COUNT(E11:T11)</f>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="C11" s="2">
@@ -25851,7 +25878,7 @@
         <v>Oo内拉祖里oO</v>
       </c>
       <c r="B12" s="2">
-        <f>COUNT(E12:T12)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C12" s="2">
@@ -25879,7 +25906,7 @@
         <v>幸福~拂晓</v>
       </c>
       <c r="B13" s="2">
-        <f>COUNT(E13:T13)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C13" s="2">
@@ -25917,7 +25944,7 @@
         <v>蚕豆</v>
       </c>
       <c r="B14" s="2">
-        <f>COUNT(E14:T14)</f>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="C14" s="2">
@@ -25961,7 +25988,7 @@
         <v>who cares?</v>
       </c>
       <c r="B15" s="2">
-        <f>COUNT(E15:T15)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C15" s="2">
@@ -25989,7 +26016,7 @@
         <v>幸福~彩票</v>
       </c>
       <c r="B16" s="2">
-        <f>COUNT(E16:T16)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C16" s="2">
@@ -26017,7 +26044,7 @@
         <v>清道夫</v>
       </c>
       <c r="B17" s="2">
-        <f>COUNT(E17:T17)</f>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="C17" s="2">
@@ -26053,7 +26080,7 @@
         <v>老A</v>
       </c>
       <c r="B18" s="2">
-        <f>COUNT(E18:T18)</f>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="C18" s="2">
@@ -26087,7 +26114,7 @@
         <v>狐狸</v>
       </c>
       <c r="B19" s="2">
-        <f>COUNT(E19:T19)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C19" s="2">
@@ -26127,7 +26154,7 @@
         <v>腿子</v>
       </c>
       <c r="B20" s="2">
-        <f>COUNT(E20:T20)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="C20" s="2">
@@ -26159,7 +26186,7 @@
         <v>smile</v>
       </c>
       <c r="B21" s="2">
-        <f>COUNT(E21:T21)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="C21" s="2">
@@ -26189,7 +26216,7 @@
         <v>小贝</v>
       </c>
       <c r="B22" s="2">
-        <f>COUNT(E22:T22)</f>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="C22" s="2">
@@ -26231,7 +26258,7 @@
         <v>11号-鲜明</v>
       </c>
       <c r="B23" s="2">
-        <f>COUNT(E23:T23)</f>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="C23" s="2">
@@ -26265,7 +26292,7 @@
         <v>狐狸~涛</v>
       </c>
       <c r="B24" s="2">
-        <f>COUNT(E24:T24)</f>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="C24" s="2">
@@ -26299,7 +26326,7 @@
         <v>侯盟</v>
       </c>
       <c r="B25" s="2">
-        <f>COUNT(E25:T25)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C25" s="2">
@@ -26339,7 +26366,7 @@
         <v>玖伍贰壹</v>
       </c>
       <c r="B26" s="2">
-        <f>COUNT(E26:T26)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="C26" s="2">
@@ -26369,7 +26396,7 @@
         <v>红色F50-超</v>
       </c>
       <c r="B27" s="2">
-        <f>COUNT(E27:T27)</f>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="C27" s="2">
@@ -26413,7 +26440,7 @@
         <v>活了</v>
       </c>
       <c r="B28" s="2">
-        <f>COUNT(E28:T28)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C28" s="2">
@@ -26451,7 +26478,7 @@
         <v>天赐</v>
       </c>
       <c r="B29" s="2">
-        <f>COUNT(E29:T29)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C29" s="2">
@@ -26489,7 +26516,7 @@
         <v>Shenghak</v>
       </c>
       <c r="B30" s="2">
-        <f>COUNT(E30:T30)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="C30" s="2">
@@ -26521,7 +26548,7 @@
         <v>红色6号</v>
       </c>
       <c r="B31" s="2">
-        <f>COUNT(E31:T31)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C31" s="2">
@@ -26549,7 +26576,7 @@
         <v>微笑</v>
       </c>
       <c r="B32" s="2">
-        <f>COUNT(E32:T32)</f>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="C32" s="2">
@@ -26583,7 +26610,7 @@
         <v>77号-更心</v>
       </c>
       <c r="B33" s="2">
-        <f>COUNT(E33:T33)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="C33" s="2">
@@ -26615,7 +26642,7 @@
         <v>更心朋友</v>
       </c>
       <c r="B34" s="2">
-        <f>COUNT(E34:T34)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C34" s="2">
@@ -26643,7 +26670,7 @@
         <v>8号-菜菜亮</v>
       </c>
       <c r="B35" s="2">
-        <f>COUNT(E35:T35)</f>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="C35" s="2">
@@ -26679,7 +26706,7 @@
         <v>杨光朋友</v>
       </c>
       <c r="B36" s="2">
-        <f>COUNT(E36:T36)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C36" s="2">
@@ -26707,7 +26734,7 @@
         <v>拂晓朋友</v>
       </c>
       <c r="B37" s="2">
-        <f>COUNT(E37:T37)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="C37" s="2">
@@ -26737,7 +26764,7 @@
         <v>4号-许多</v>
       </c>
       <c r="B38" s="2">
-        <f>COUNT(E38:T38)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C38" s="2">
@@ -26765,7 +26792,7 @@
         <v>5号-正</v>
       </c>
       <c r="B39" s="2">
-        <f>COUNT(E39:T39)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="C39" s="2">
@@ -26797,7 +26824,7 @@
         <v>勇敢的爬爬</v>
       </c>
       <c r="B40" s="2">
-        <f>COUNT(E40:T40)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C40" s="2">
@@ -26825,7 +26852,7 @@
         <v>17号-4号字母</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" ref="B41:B59" si="20">COUNT(E41:T41)</f>
+        <f t="shared" ref="B41:B59" si="21">COUNT(E41:T41)</f>
         <v>2</v>
       </c>
       <c r="C41" s="2">
@@ -26857,7 +26884,7 @@
         <v>雷</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C42" s="2">
@@ -26887,7 +26914,7 @@
         <v>西北偏北</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="C43" s="2">
@@ -26923,7 +26950,7 @@
         <v>红色8号</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C44" s="2">
@@ -26951,7 +26978,7 @@
         <v>马耳他</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C45" s="2">
@@ -26981,7 +27008,7 @@
         <v>Cindy~陈猛</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="C46" s="2">
@@ -27019,7 +27046,7 @@
         <v>硕</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C47" s="2">
@@ -27049,7 +27076,7 @@
         <v>Violin</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C48" s="2">
@@ -27079,7 +27106,7 @@
         <v>87号陈磊</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="C49" s="2">
@@ -27117,7 +27144,7 @@
         <v>水中阳光</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C50" s="2">
@@ -27145,7 +27172,7 @@
         <v>sam</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="C51" s="2">
@@ -27179,7 +27206,7 @@
         <v>26 方亚</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="C52" s="2">
@@ -27213,7 +27240,7 @@
         <v>维尼</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C53" s="2">
@@ -27243,7 +27270,7 @@
         <v>0号--张家宁</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C54" s="2">
@@ -27271,7 +27298,7 @@
         <v>泰山</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="C55" s="2">
@@ -27303,7 +27330,7 @@
         <v>尚峰</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="C56" s="2">
@@ -27339,7 +27366,7 @@
         <v>杨光</v>
       </c>
       <c r="B57" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C57" s="2">
@@ -27367,7 +27394,7 @@
         <v>小磊</v>
       </c>
       <c r="B58" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C58" s="2">
@@ -27395,7 +27422,7 @@
         <v>绿洲</v>
       </c>
       <c r="B59" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C59" s="2">

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="123">
   <si>
     <t>守候幸福</t>
   </si>
@@ -458,10 +458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19*30-340,还有3个人未交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腿刀，拂晓，天赐各30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,6 +487,18 @@
   </si>
   <si>
     <t>21*30-345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19*30-340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 × 20 - 345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退SAM 虫 笑 马 刀 天 菜 A 盟 正 豆 清 尚 超 SH 猛 16×20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1033,27 +1041,27 @@
       </c>
       <c r="B2" s="37">
         <f t="shared" ref="B2:I2" si="0">SUM(B9:B100)</f>
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="C2" s="36">
         <f t="shared" si="0"/>
-        <v>12150</v>
+        <v>12510</v>
       </c>
       <c r="D2" s="38">
         <f t="shared" si="0"/>
-        <v>3194.9999999999995</v>
+        <v>3209.9999999999991</v>
       </c>
       <c r="E2" s="36">
         <f t="shared" si="0"/>
-        <v>2789.9999999999995</v>
+        <v>2786.9999999999991</v>
       </c>
       <c r="F2" s="36">
         <f t="shared" si="0"/>
-        <v>780</v>
+        <v>1100</v>
       </c>
       <c r="G2" s="38">
         <f t="shared" si="0"/>
-        <v>2010</v>
+        <v>1687.0000000000002</v>
       </c>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
@@ -1089,7 +1097,7 @@
       </c>
       <c r="H4" s="40">
         <f>G2+H2</f>
-        <v>2040</v>
+        <v>1717.0000000000002</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
@@ -17552,26 +17560,26 @@
       </c>
       <c r="B10" s="39">
         <f>'201202'!B10+'201203'!B10+'201204'!B10+'201205'!B10+'201206'!B10+'201207'!B10+'201208'!B10+'201209'!B10+'201210'!B10+'201211'!B10+'201212'!B10</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="36">
         <f>'201202'!C10+'201203'!C10+'201204'!C10+'201205'!C10+'201206'!C10+'201207'!C10+'201208'!C10+'201209'!C10+'201210'!C10+'201211'!C10+'201212'!C10</f>
-        <v>750</v>
+        <v>770</v>
       </c>
       <c r="D10" s="36">
         <f>'201202'!D10+'201203'!D10+'201204'!D10+'201205'!D10+'201206'!D10+'201207'!D10+'201208'!D10+'201209'!D10+'201210'!D10+'201211'!D10+'201212'!D10</f>
-        <v>191.49440909967225</v>
+        <v>192.3277424330056</v>
       </c>
       <c r="E10" s="36">
         <f t="shared" si="1"/>
-        <v>166.49440909967225</v>
+        <v>166.3277424330056</v>
       </c>
       <c r="F10" s="18">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G10" s="36">
         <f t="shared" si="2"/>
-        <v>46.494409099672254</v>
+        <v>26.327742433005596</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="1"/>
@@ -17583,26 +17591,26 @@
       </c>
       <c r="B11" s="39">
         <f>'201202'!B11+'201203'!B11+'201204'!B11+'201205'!B11+'201206'!B11+'201207'!B11+'201208'!B11+'201209'!B11+'201210'!B11+'201211'!B11+'201212'!B11</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="36">
         <f>'201202'!C11+'201203'!C11+'201204'!C11+'201205'!C11+'201206'!C11+'201207'!C11+'201208'!C11+'201209'!C11+'201210'!C11+'201211'!C11+'201212'!C11</f>
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="D11" s="36">
         <f>'201202'!D11+'201203'!D11+'201204'!D11+'201205'!D11+'201206'!D11+'201207'!D11+'201208'!D11+'201209'!D11+'201210'!D11+'201211'!D11+'201212'!D11</f>
-        <v>176.5768266820898</v>
+        <v>177.41016001542314</v>
       </c>
       <c r="E11" s="36">
         <f t="shared" si="1"/>
-        <v>152.5768266820898</v>
+        <v>152.41016001542314</v>
       </c>
       <c r="F11" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G11" s="36">
         <f t="shared" si="2"/>
-        <v>92.576826682089802</v>
+        <v>72.410160015423145</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="1"/>
@@ -17643,26 +17651,26 @@
       </c>
       <c r="B13" s="39">
         <f>'201202'!B13+'201203'!B13+'201204'!B13+'201205'!B13+'201206'!B13+'201207'!B13+'201208'!B13+'201209'!B13+'201210'!B13+'201211'!B13+'201212'!B13</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="36">
         <f>'201202'!C13+'201203'!C13+'201204'!C13+'201205'!C13+'201206'!C13+'201207'!C13+'201208'!C13+'201209'!C13+'201210'!C13+'201211'!C13+'201212'!C13</f>
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="D13" s="36">
         <f>'201202'!D13+'201203'!D13+'201204'!D13+'201205'!D13+'201206'!D13+'201207'!D13+'201208'!D13+'201209'!D13+'201210'!D13+'201211'!D13+'201212'!D13</f>
-        <v>126.20075830602146</v>
+        <v>127.03409163935478</v>
       </c>
       <c r="E13" s="36">
         <f t="shared" si="1"/>
-        <v>108.20075830602146</v>
+        <v>108.03409163935478</v>
       </c>
       <c r="F13" s="18">
         <v>90</v>
       </c>
       <c r="G13" s="36">
         <f t="shared" si="2"/>
-        <v>18.200758306021456</v>
+        <v>18.034091639354784</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="1"/>
@@ -17674,26 +17682,26 @@
       </c>
       <c r="B14" s="39">
         <f>'201202'!B14+'201203'!B14+'201204'!B14+'201205'!B14+'201206'!B14+'201207'!B14+'201208'!B14+'201209'!B14+'201210'!B14+'201211'!B14+'201212'!B14</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="36">
         <f>'201202'!C14+'201203'!C14+'201204'!C14+'201205'!C14+'201206'!C14+'201207'!C14+'201208'!C14+'201209'!C14+'201210'!C14+'201211'!C14+'201212'!C14</f>
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="D14" s="36">
         <f>'201202'!D14+'201203'!D14+'201204'!D14+'201205'!D14+'201206'!D14+'201207'!D14+'201208'!D14+'201209'!D14+'201210'!D14+'201211'!D14+'201212'!D14</f>
-        <v>192.26363986890303</v>
+        <v>193.09697320223637</v>
       </c>
       <c r="E14" s="36">
         <f t="shared" si="1"/>
-        <v>166.26363986890303</v>
+        <v>166.09697320223637</v>
       </c>
       <c r="F14" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G14" s="36">
         <f t="shared" si="2"/>
-        <v>106.26363986890303</v>
+        <v>86.09697320223637</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="1">
@@ -17767,24 +17775,26 @@
       </c>
       <c r="B17" s="39">
         <f>'201202'!B17+'201203'!B17+'201204'!B17+'201205'!B17+'201206'!B17+'201207'!B17+'201208'!B17+'201209'!B17+'201210'!B17+'201211'!B17+'201212'!B17</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="36">
         <f>'201202'!C17+'201203'!C17+'201204'!C17+'201205'!C17+'201206'!C17+'201207'!C17+'201208'!C17+'201209'!C17+'201210'!C17+'201211'!C17+'201212'!C17</f>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D17" s="36">
         <f>'201202'!D17+'201203'!D17+'201204'!D17+'201205'!D17+'201206'!D17+'201207'!D17+'201208'!D17+'201209'!D17+'201210'!D17+'201211'!D17+'201212'!D17</f>
-        <v>55.35409035409036</v>
+        <v>56.187423687423689</v>
       </c>
       <c r="E17" s="36">
         <f t="shared" si="1"/>
-        <v>49.35409035409036</v>
-      </c>
-      <c r="F17" s="18"/>
+        <v>49.187423687423689</v>
+      </c>
+      <c r="F17" s="18">
+        <v>20</v>
+      </c>
       <c r="G17" s="36">
         <f t="shared" si="2"/>
-        <v>49.35409035409036</v>
+        <v>29.187423687423689</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="1"/>
@@ -17796,26 +17806,26 @@
       </c>
       <c r="B18" s="39">
         <f>'201202'!B18+'201203'!B18+'201204'!B18+'201205'!B18+'201206'!B18+'201207'!B18+'201208'!B18+'201209'!B18+'201210'!B18+'201211'!B18+'201212'!B18</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="36">
         <f>'201202'!C18+'201203'!C18+'201204'!C18+'201205'!C18+'201206'!C18+'201207'!C18+'201208'!C18+'201209'!C18+'201210'!C18+'201211'!C18+'201212'!C18</f>
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="D18" s="36">
         <f>'201202'!D18+'201203'!D18+'201204'!D18+'201205'!D18+'201206'!D18+'201207'!D18+'201208'!D18+'201209'!D18+'201210'!D18+'201211'!D18+'201212'!D18</f>
-        <v>76.087253389884964</v>
+        <v>76.920586723218292</v>
       </c>
       <c r="E18" s="36">
         <f t="shared" si="1"/>
-        <v>67.087253389884964</v>
+        <v>66.920586723218292</v>
       </c>
       <c r="F18" s="18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G18" s="36">
         <f t="shared" si="2"/>
-        <v>37.087253389884964</v>
+        <v>16.920586723218292</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="1"/>
@@ -17858,24 +17868,24 @@
       </c>
       <c r="B20" s="39">
         <f>'201202'!B20+'201203'!B20+'201204'!B20+'201205'!B20+'201206'!B20+'201207'!B20+'201208'!B20+'201209'!B20+'201210'!B20+'201211'!B20+'201212'!B20</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="36">
         <f>'201202'!C20+'201203'!C20+'201204'!C20+'201205'!C20+'201206'!C20+'201207'!C20+'201208'!C20+'201209'!C20+'201210'!C20+'201211'!C20+'201212'!C20</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D20" s="36">
         <f>'201202'!D20+'201203'!D20+'201204'!D20+'201205'!D20+'201206'!D20+'201207'!D20+'201208'!D20+'201209'!D20+'201210'!D20+'201211'!D20+'201212'!D20</f>
-        <v>20.671550671550673</v>
+        <v>21.504884004884005</v>
       </c>
       <c r="E20" s="36">
         <f t="shared" si="1"/>
-        <v>17.671550671550673</v>
+        <v>17.504884004884005</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="36">
         <f t="shared" si="2"/>
-        <v>17.671550671550673</v>
+        <v>17.504884004884005</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="1"/>
@@ -18015,26 +18025,26 @@
       </c>
       <c r="B25" s="39">
         <f>'201202'!B25+'201203'!B25+'201204'!B25+'201205'!B25+'201206'!B25+'201207'!B25+'201208'!B25+'201209'!B25+'201210'!B25+'201211'!B25+'201212'!B25</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="36">
         <f>'201202'!C25+'201203'!C25+'201204'!C25+'201205'!C25+'201206'!C25+'201207'!C25+'201208'!C25+'201209'!C25+'201210'!C25+'201211'!C25+'201212'!C25</f>
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="D25" s="36">
         <f>'201202'!D25+'201203'!D25+'201204'!D25+'201205'!D25+'201206'!D25+'201207'!D25+'201208'!D25+'201209'!D25+'201210'!D25+'201211'!D25+'201212'!D25</f>
-        <v>110.18584923848081</v>
+        <v>111.01918257181416</v>
       </c>
       <c r="E25" s="36">
         <f t="shared" si="1"/>
-        <v>95.185849238480813</v>
+        <v>95.019182571814156</v>
       </c>
       <c r="F25" s="18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G25" s="36">
         <f t="shared" si="2"/>
-        <v>65.185849238480813</v>
+        <v>45.019182571814156</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="1"/>
@@ -18075,26 +18085,26 @@
       </c>
       <c r="B27" s="39">
         <f>'201202'!B27+'201203'!B27+'201204'!B27+'201205'!B27+'201206'!B27+'201207'!B27+'201208'!B27+'201209'!B27+'201210'!B27+'201211'!B27+'201212'!B27</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="36">
         <f>'201202'!C27+'201203'!C27+'201204'!C27+'201205'!C27+'201206'!C27+'201207'!C27+'201208'!C27+'201209'!C27+'201210'!C27+'201211'!C27+'201212'!C27</f>
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="D27" s="36">
         <f>'201202'!D27+'201203'!D27+'201204'!D27+'201205'!D27+'201206'!D27+'201207'!D27+'201208'!D27+'201209'!D27+'201210'!D27+'201211'!D27+'201212'!D27</f>
-        <v>193.99440909967225</v>
+        <v>194.8277424330056</v>
       </c>
       <c r="E27" s="36">
         <f t="shared" si="1"/>
-        <v>167.99440909967225</v>
+        <v>167.8277424330056</v>
       </c>
       <c r="F27" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G27" s="36">
         <f t="shared" si="2"/>
-        <v>107.99440909967225</v>
+        <v>87.827742433005596</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="1"/>
@@ -18135,26 +18145,26 @@
       </c>
       <c r="B29" s="39">
         <f>'201202'!B29+'201203'!B29+'201204'!B29+'201205'!B29+'201206'!B29+'201207'!B29+'201208'!B29+'201209'!B29+'201210'!B29+'201211'!B29+'201212'!B29</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="36">
         <f>'201202'!C29+'201203'!C29+'201204'!C29+'201205'!C29+'201206'!C29+'201207'!C29+'201208'!C29+'201209'!C29+'201210'!C29+'201211'!C29+'201212'!C29</f>
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="D29" s="36">
         <f>'201202'!D29+'201203'!D29+'201204'!D29+'201205'!D29+'201206'!D29+'201207'!D29+'201208'!D29+'201209'!D29+'201210'!D29+'201211'!D29+'201212'!D29</f>
-        <v>79.625104427736005</v>
+        <v>80.458437761069334</v>
       </c>
       <c r="E29" s="36">
         <f t="shared" si="1"/>
-        <v>71.625104427736005</v>
+        <v>71.458437761069334</v>
       </c>
       <c r="F29" s="18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G29" s="36">
         <f t="shared" si="2"/>
-        <v>41.625104427736005</v>
+        <v>21.458437761069334</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="1"/>
@@ -18166,24 +18176,26 @@
       </c>
       <c r="B30" s="39">
         <f>'201202'!B30+'201203'!B30+'201204'!B30+'201205'!B30+'201206'!B30+'201207'!B30+'201208'!B30+'201209'!B30+'201210'!B30+'201211'!B30+'201212'!B30</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="36">
         <f>'201202'!C30+'201203'!C30+'201204'!C30+'201205'!C30+'201206'!C30+'201207'!C30+'201208'!C30+'201209'!C30+'201210'!C30+'201211'!C30+'201212'!C30</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D30" s="36">
         <f>'201202'!D30+'201203'!D30+'201204'!D30+'201205'!D30+'201206'!D30+'201207'!D30+'201208'!D30+'201209'!D30+'201210'!D30+'201211'!D30+'201212'!D30</f>
-        <v>44.426691729323309</v>
+        <v>45.260025062656638</v>
       </c>
       <c r="E30" s="36">
         <f t="shared" si="1"/>
-        <v>40.426691729323309</v>
-      </c>
-      <c r="F30" s="18"/>
+        <v>40.260025062656638</v>
+      </c>
+      <c r="F30" s="18">
+        <v>20</v>
+      </c>
       <c r="G30" s="36">
         <f t="shared" si="2"/>
-        <v>40.426691729323309</v>
+        <v>20.260025062656638</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="1"/>
@@ -18224,24 +18236,26 @@
       </c>
       <c r="B32" s="39">
         <f>'201202'!B32+'201203'!B32+'201204'!B32+'201205'!B32+'201206'!B32+'201207'!B32+'201208'!B32+'201209'!B32+'201210'!B32+'201211'!B32+'201212'!B32</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="36">
         <f>'201202'!C32+'201203'!C32+'201204'!C32+'201205'!C32+'201206'!C32+'201207'!C32+'201208'!C32+'201209'!C32+'201210'!C32+'201211'!C32+'201212'!C32</f>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D32" s="36">
         <f>'201202'!D32+'201203'!D32+'201204'!D32+'201205'!D32+'201206'!D32+'201207'!D32+'201208'!D32+'201209'!D32+'201210'!D32+'201211'!D32+'201212'!D32</f>
-        <v>57.266081871345023</v>
+        <v>58.099415204678351</v>
       </c>
       <c r="E32" s="36">
         <f t="shared" si="1"/>
-        <v>52.266081871345023</v>
-      </c>
-      <c r="F32" s="18"/>
+        <v>52.099415204678351</v>
+      </c>
+      <c r="F32" s="18">
+        <v>20</v>
+      </c>
       <c r="G32" s="36">
         <f t="shared" si="2"/>
-        <v>52.266081871345023</v>
+        <v>32.099415204678351</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="1"/>
@@ -18311,26 +18325,26 @@
       </c>
       <c r="B35" s="39">
         <f>'201202'!B35+'201203'!B35+'201204'!B35+'201205'!B35+'201206'!B35+'201207'!B35+'201208'!B35+'201209'!B35+'201210'!B35+'201211'!B35+'201212'!B35</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35" s="36">
         <f>'201202'!C35+'201203'!C35+'201204'!C35+'201205'!C35+'201206'!C35+'201207'!C35+'201208'!C35+'201209'!C35+'201210'!C35+'201211'!C35+'201212'!C35</f>
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="D35" s="36">
         <f>'201202'!D35+'201203'!D35+'201204'!D35+'201205'!D35+'201206'!D35+'201207'!D35+'201208'!D35+'201209'!D35+'201210'!D35+'201211'!D35+'201212'!D35</f>
-        <v>136.64856050382366</v>
+        <v>137.48189383715697</v>
       </c>
       <c r="E35" s="36">
         <f t="shared" si="1"/>
-        <v>117.64856050382366</v>
+        <v>117.48189383715697</v>
       </c>
       <c r="F35" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G35" s="36">
         <f t="shared" si="2"/>
-        <v>57.64856050382366</v>
+        <v>37.481893837156974</v>
       </c>
       <c r="H35" s="18"/>
       <c r="I35" s="1"/>
@@ -18429,24 +18443,26 @@
       </c>
       <c r="B39" s="39">
         <f>'201202'!B39+'201203'!B39+'201204'!B39+'201205'!B39+'201206'!B39+'201207'!B39+'201208'!B39+'201209'!B39+'201210'!B39+'201211'!B39+'201212'!B39</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" s="36">
         <f>'201202'!C39+'201203'!C39+'201204'!C39+'201205'!C39+'201206'!C39+'201207'!C39+'201208'!C39+'201209'!C39+'201210'!C39+'201211'!C39+'201212'!C39</f>
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="D39" s="36">
         <f>'201202'!D39+'201203'!D39+'201204'!D39+'201205'!D39+'201206'!D39+'201207'!D39+'201208'!D39+'201209'!D39+'201210'!D39+'201211'!D39+'201212'!D39</f>
-        <v>64.722222222222214</v>
+        <v>65.555555555555543</v>
       </c>
       <c r="E39" s="36">
         <f t="shared" si="1"/>
-        <v>56.722222222222214</v>
-      </c>
-      <c r="F39" s="18"/>
+        <v>56.555555555555543</v>
+      </c>
+      <c r="F39" s="18">
+        <v>20</v>
+      </c>
       <c r="G39" s="36">
         <f t="shared" si="2"/>
-        <v>56.722222222222214</v>
+        <v>36.555555555555543</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="1"/>
@@ -18613,24 +18629,26 @@
       </c>
       <c r="B45" s="39">
         <f>'201202'!B45+'201203'!B45+'201204'!B45+'201205'!B45+'201206'!B45+'201207'!B45+'201208'!B45+'201209'!B45+'201210'!B45+'201211'!B45+'201212'!B45</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" s="36">
         <f>'201202'!C45+'201203'!C45+'201204'!C45+'201205'!C45+'201206'!C45+'201207'!C45+'201208'!C45+'201209'!C45+'201210'!C45+'201211'!C45+'201212'!C45</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D45" s="36">
         <f>'201202'!D45+'201203'!D45+'201204'!D45+'201205'!D45+'201206'!D45+'201207'!D45+'201208'!D45+'201209'!D45+'201210'!D45+'201211'!D45+'201212'!D45</f>
-        <v>37.32905982905983</v>
+        <v>38.162393162393158</v>
       </c>
       <c r="E45" s="36">
         <f t="shared" si="3"/>
-        <v>33.32905982905983</v>
-      </c>
-      <c r="F45" s="18"/>
+        <v>33.162393162393158</v>
+      </c>
+      <c r="F45" s="18">
+        <v>20</v>
+      </c>
       <c r="G45" s="36">
         <f t="shared" si="4"/>
-        <v>33.32905982905983</v>
+        <v>13.162393162393158</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="1"/>
@@ -18642,24 +18660,26 @@
       </c>
       <c r="B46" s="39">
         <f>'201202'!B46+'201203'!B46+'201204'!B46+'201205'!B46+'201206'!B46+'201207'!B46+'201208'!B46+'201209'!B46+'201210'!B46+'201211'!B46+'201212'!B46</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" s="36">
         <f>'201202'!C46+'201203'!C46+'201204'!C46+'201205'!C46+'201206'!C46+'201207'!C46+'201208'!C46+'201209'!C46+'201210'!C46+'201211'!C46+'201212'!C46</f>
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="D46" s="36">
         <f>'201202'!D46+'201203'!D46+'201204'!D46+'201205'!D46+'201206'!D46+'201207'!D46+'201208'!D46+'201209'!D46+'201210'!D46+'201211'!D46+'201212'!D46</f>
-        <v>109.26857207120364</v>
+        <v>110.10190540453696</v>
       </c>
       <c r="E46" s="36">
         <f t="shared" si="3"/>
-        <v>95.268572071203636</v>
-      </c>
-      <c r="F46" s="18"/>
+        <v>95.101905404536964</v>
+      </c>
+      <c r="F46" s="18">
+        <v>20</v>
+      </c>
       <c r="G46" s="36">
         <f t="shared" si="4"/>
-        <v>95.268572071203636</v>
+        <v>75.101905404536964</v>
       </c>
       <c r="H46" s="18"/>
       <c r="I46" s="1"/>
@@ -18795,26 +18815,26 @@
       </c>
       <c r="B51" s="39">
         <f>'201202'!B51+'201203'!B51+'201204'!B51+'201205'!B51+'201206'!B51+'201207'!B51+'201208'!B51+'201209'!B51+'201210'!B51+'201211'!B51+'201212'!B51</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C51" s="36">
         <f>'201202'!C51+'201203'!C51+'201204'!C51+'201205'!C51+'201206'!C51+'201207'!C51+'201208'!C51+'201209'!C51+'201210'!C51+'201211'!C51+'201212'!C51</f>
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D51" s="36">
         <f>'201202'!D51+'201203'!D51+'201204'!D51+'201205'!D51+'201206'!D51+'201207'!D51+'201208'!D51+'201209'!D51+'201210'!D51+'201211'!D51+'201212'!D51</f>
-        <v>75.716374269005854</v>
+        <v>76.549707602339183</v>
       </c>
       <c r="E51" s="36">
         <f t="shared" si="3"/>
-        <v>65.716374269005854</v>
+        <v>65.549707602339183</v>
       </c>
       <c r="F51" s="18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G51" s="36">
         <f t="shared" si="4"/>
-        <v>35.716374269005854</v>
+        <v>15.549707602339183</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="1"/>
@@ -18942,24 +18962,26 @@
       </c>
       <c r="B56" s="39">
         <f>'201202'!B56+'201203'!B56+'201204'!B56+'201205'!B56+'201206'!B56+'201207'!B56+'201208'!B56+'201209'!B56+'201210'!B56+'201211'!B56+'201212'!B56</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56" s="36">
         <f>'201202'!C56+'201203'!C56+'201204'!C56+'201205'!C56+'201206'!C56+'201207'!C56+'201208'!C56+'201209'!C56+'201210'!C56+'201211'!C56+'201212'!C56</f>
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="D56" s="36">
         <f>'201202'!D56+'201203'!D56+'201204'!D56+'201205'!D56+'201206'!D56+'201207'!D56+'201208'!D56+'201209'!D56+'201210'!D56+'201211'!D56+'201212'!D56</f>
-        <v>81.927254032517183</v>
+        <v>82.760587365850512</v>
       </c>
       <c r="E56" s="36">
         <f t="shared" si="3"/>
-        <v>72.927254032517183</v>
-      </c>
-      <c r="F56" s="18"/>
+        <v>72.760587365850512</v>
+      </c>
+      <c r="F56" s="18">
+        <v>20</v>
+      </c>
       <c r="G56" s="36">
         <f t="shared" si="4"/>
-        <v>72.927254032517183</v>
+        <v>52.760587365850512</v>
       </c>
       <c r="H56" s="18"/>
       <c r="I56" s="1"/>
@@ -19141,7 +19163,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B63" s="39">
         <f>'201202'!B63+'201203'!B63+'201204'!B63+'201205'!B63+'201206'!B63+'201207'!B63+'201208'!B63+'201209'!B63+'201210'!B63+'201211'!B63+'201212'!B63</f>
@@ -19170,7 +19192,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B64" s="39">
         <f>'201202'!B64+'201203'!B64+'201204'!B64+'201205'!B64+'201206'!B64+'201207'!B64+'201208'!B64+'201209'!B64+'201210'!B64+'201211'!B64+'201212'!B64</f>
@@ -19199,7 +19221,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B65" s="39">
         <f>'201202'!B65+'201203'!B65+'201204'!B65+'201205'!B65+'201206'!B65+'201207'!B65+'201208'!B65+'201209'!B65+'201210'!B65+'201211'!B65+'201212'!B65</f>
@@ -19228,7 +19250,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B66" s="39">
         <f>'201202'!B66+'201203'!B66+'201204'!B66+'201205'!B66+'201206'!B66+'201207'!B66+'201208'!B66+'201209'!B66+'201210'!B66+'201211'!B66+'201212'!B66</f>
@@ -19257,7 +19279,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" s="39">
         <f>'201202'!B67+'201203'!B67+'201204'!B67+'201205'!B67+'201206'!B67+'201207'!B67+'201208'!B67+'201209'!B67+'201210'!B67+'201211'!B67+'201212'!B67</f>
@@ -19286,7 +19308,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B68" s="39">
         <f>'201202'!B68+'201203'!B68+'201204'!B68+'201205'!B68+'201206'!B68+'201207'!B68+'201208'!B68+'201209'!B68+'201210'!B68+'201211'!B68+'201212'!B68</f>
@@ -19315,7 +19337,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" s="39">
         <f>'201202'!B69+'201203'!B69+'201204'!B69+'201205'!B69+'201206'!B69+'201207'!B69+'201208'!B69+'201209'!B69+'201210'!B69+'201211'!B69+'201212'!B69</f>
@@ -19344,7 +19366,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B70" s="39">
         <f>'201202'!B70+'201203'!B70+'201204'!B70+'201205'!B70+'201206'!B70+'201207'!B70+'201208'!B70+'201209'!B70+'201210'!B70+'201211'!B70+'201212'!B70</f>
@@ -19373,7 +19395,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B71" s="39">
         <f>'201202'!B71+'201203'!B71+'201204'!B71+'201205'!B71+'201206'!B71+'201207'!B71+'201208'!B71+'201209'!B71+'201210'!B71+'201211'!B71+'201212'!B71</f>
@@ -19402,7 +19424,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B72" s="39">
         <f>'201202'!B72+'201203'!B72+'201204'!B72+'201205'!B72+'201206'!B72+'201207'!B72+'201208'!B72+'201209'!B72+'201210'!B72+'201211'!B72+'201212'!B72</f>
@@ -19431,7 +19453,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B73" s="39">
         <f>'201202'!B73+'201203'!B73+'201204'!B73+'201205'!B73+'201206'!B73+'201207'!B73+'201208'!B73+'201209'!B73+'201210'!B73+'201211'!B73+'201212'!B73</f>
@@ -19460,7 +19482,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B74" s="39">
         <f>'201202'!B74+'201203'!B74+'201204'!B74+'201205'!B74+'201206'!B74+'201207'!B74+'201208'!B74+'201209'!B74+'201210'!B74+'201211'!B74+'201212'!B74</f>
@@ -19489,7 +19511,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B75" s="39">
         <f>'201202'!B75+'201203'!B75+'201204'!B75+'201205'!B75+'201206'!B75+'201207'!B75+'201208'!B75+'201209'!B75+'201210'!B75+'201211'!B75+'201212'!B75</f>
@@ -19518,7 +19540,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B76" s="39">
         <f>'201202'!B76+'201203'!B76+'201204'!B76+'201205'!B76+'201206'!B76+'201207'!B76+'201208'!B76+'201209'!B76+'201210'!B76+'201211'!B76+'201212'!B76</f>
@@ -19547,7 +19569,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B77" s="39">
         <f>'201202'!B77+'201203'!B77+'201204'!B77+'201205'!B77+'201206'!B77+'201207'!B77+'201208'!B77+'201209'!B77+'201210'!B77+'201211'!B77+'201212'!B77</f>
@@ -19576,7 +19598,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B78" s="39">
         <f>'201202'!B78+'201203'!B78+'201204'!B78+'201205'!B78+'201206'!B78+'201207'!B78+'201208'!B78+'201209'!B78+'201210'!B78+'201211'!B78+'201212'!B78</f>
@@ -19605,7 +19627,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79" s="39">
         <f>'201202'!B79+'201203'!B79+'201204'!B79+'201205'!B79+'201206'!B79+'201207'!B79+'201208'!B79+'201209'!B79+'201210'!B79+'201211'!B79+'201212'!B79</f>
@@ -19634,7 +19656,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B80" s="39">
         <f>'201202'!B80+'201203'!B80+'201204'!B80+'201205'!B80+'201206'!B80+'201207'!B80+'201208'!B80+'201209'!B80+'201210'!B80+'201211'!B80+'201212'!B80</f>
@@ -19663,7 +19685,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B81" s="39">
         <f>'201202'!B81+'201203'!B81+'201204'!B81+'201205'!B81+'201206'!B81+'201207'!B81+'201208'!B81+'201209'!B81+'201210'!B81+'201211'!B81+'201212'!B81</f>
@@ -19692,7 +19714,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B82" s="39">
         <f>'201202'!B82+'201203'!B82+'201204'!B82+'201205'!B82+'201206'!B82+'201207'!B82+'201208'!B82+'201209'!B82+'201210'!B82+'201211'!B82+'201212'!B82</f>
@@ -19721,7 +19743,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B83" s="39">
         <f>'201202'!B83+'201203'!B83+'201204'!B83+'201205'!B83+'201206'!B83+'201207'!B83+'201208'!B83+'201209'!B83+'201210'!B83+'201211'!B83+'201212'!B83</f>
@@ -19750,7 +19772,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B84" s="39">
         <f>'201202'!B84+'201203'!B84+'201204'!B84+'201205'!B84+'201206'!B84+'201207'!B84+'201208'!B84+'201209'!B84+'201210'!B84+'201211'!B84+'201212'!B84</f>
@@ -19779,7 +19801,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B85" s="39">
         <f>'201202'!B85+'201203'!B85+'201204'!B85+'201205'!B85+'201206'!B85+'201207'!B85+'201208'!B85+'201209'!B85+'201210'!B85+'201211'!B85+'201212'!B85</f>
@@ -19808,7 +19830,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B86" s="39">
         <f>'201202'!B86+'201203'!B86+'201204'!B86+'201205'!B86+'201206'!B86+'201207'!B86+'201208'!B86+'201209'!B86+'201210'!B86+'201211'!B86+'201212'!B86</f>
@@ -19837,7 +19859,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B87" s="39">
         <f>'201202'!B87+'201203'!B87+'201204'!B87+'201205'!B87+'201206'!B87+'201207'!B87+'201208'!B87+'201209'!B87+'201210'!B87+'201211'!B87+'201212'!B87</f>
@@ -19866,7 +19888,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B88" s="39">
         <f>'201202'!B88+'201203'!B88+'201204'!B88+'201205'!B88+'201206'!B88+'201207'!B88+'201208'!B88+'201209'!B88+'201210'!B88+'201211'!B88+'201212'!B88</f>
@@ -19895,7 +19917,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B89" s="39">
         <f>'201202'!B89+'201203'!B89+'201204'!B89+'201205'!B89+'201206'!B89+'201207'!B89+'201208'!B89+'201209'!B89+'201210'!B89+'201211'!B89+'201212'!B89</f>
@@ -19924,7 +19946,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B90" s="39">
         <f>'201202'!B90+'201203'!B90+'201204'!B90+'201205'!B90+'201206'!B90+'201207'!B90+'201208'!B90+'201209'!B90+'201210'!B90+'201211'!B90+'201212'!B90</f>
@@ -19953,7 +19975,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B91" s="39">
         <f>'201202'!B91+'201203'!B91+'201204'!B91+'201205'!B91+'201206'!B91+'201207'!B91+'201208'!B91+'201209'!B91+'201210'!B91+'201211'!B91+'201212'!B91</f>
@@ -19982,7 +20004,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B92" s="39">
         <f>'201202'!B92+'201203'!B92+'201204'!B92+'201205'!B92+'201206'!B92+'201207'!B92+'201208'!B92+'201209'!B92+'201210'!B92+'201211'!B92+'201212'!B92</f>
@@ -20011,7 +20033,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B93" s="39">
         <f>'201202'!B93+'201203'!B93+'201204'!B93+'201205'!B93+'201206'!B93+'201207'!B93+'201208'!B93+'201209'!B93+'201210'!B93+'201211'!B93+'201212'!B93</f>
@@ -20040,7 +20062,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B94" s="39">
         <f>'201202'!B94+'201203'!B94+'201204'!B94+'201205'!B94+'201206'!B94+'201207'!B94+'201208'!B94+'201209'!B94+'201210'!B94+'201211'!B94+'201212'!B94</f>
@@ -20069,7 +20091,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B95" s="39">
         <f>'201202'!B95+'201203'!B95+'201204'!B95+'201205'!B95+'201206'!B95+'201207'!B95+'201208'!B95+'201209'!B95+'201210'!B95+'201211'!B95+'201212'!B95</f>
@@ -20098,7 +20120,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B96" s="39">
         <f>'201202'!B96+'201203'!B96+'201204'!B96+'201205'!B96+'201206'!B96+'201207'!B96+'201208'!B96+'201209'!B96+'201210'!B96+'201211'!B96+'201212'!B96</f>
@@ -20127,7 +20149,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B97" s="39">
         <f>'201202'!B97+'201203'!B97+'201204'!B97+'201205'!B97+'201206'!B97+'201207'!B97+'201208'!B97+'201209'!B97+'201210'!B97+'201211'!B97+'201212'!B97</f>
@@ -20156,7 +20178,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B98" s="39">
         <f>'201202'!B98+'201203'!B98+'201204'!B98+'201205'!B98+'201206'!B98+'201207'!B98+'201208'!B98+'201209'!B98+'201210'!B98+'201211'!B98+'201212'!B98</f>
@@ -20185,7 +20207,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B99" s="39">
         <f>'201202'!B99+'201203'!B99+'201204'!B99+'201205'!B99+'201206'!B99+'201207'!B99+'201208'!B99+'201209'!B99+'201210'!B99+'201211'!B99+'201212'!B99</f>
@@ -20214,7 +20236,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B100" s="39">
         <f>'201202'!B100+'201203'!B100+'201204'!B100+'201205'!B100+'201206'!B100+'201207'!B100+'201208'!B100+'201209'!B100+'201210'!B100+'201211'!B100+'201212'!B100</f>
@@ -20347,17 +20369,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -20996,7 +21018,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -21013,7 +21035,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -21030,34 +21052,49 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="A42" s="14">
+        <v>41046</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>15</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="10"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="A43" s="14">
+        <v>41046</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-320</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39">
-        <f>SUM(C2:C43)</f>
-        <v>2310</v>
-      </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
@@ -21067,11 +21104,16 @@
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="A46" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39">
+        <f>SUM(C2:C45)</f>
+        <v>2005</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="10"/>
@@ -21086,6 +21128,20 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="10"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="10"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -28334,10 +28390,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28347,10 +28403,10 @@
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="7" t="s">
         <v>35</v>
@@ -28373,14 +28429,17 @@
       <c r="H1" s="5">
         <v>41044</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="5">
+        <v>41046</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="33">
         <f>SUM(B9:B100)</f>
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="35"/>
@@ -28400,8 +28459,12 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" s="33">
+        <f t="shared" ref="I2" si="2">COUNT(I9:I100)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -28420,35 +28483,42 @@
       <c r="H3" s="20">
         <v>340</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3" s="20">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="34">
         <f>SUM(E4:T4)</f>
-        <v>2220</v>
+        <v>2580</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="32">
-        <f t="shared" ref="E4:F4" si="2">E2*E7</f>
+        <f t="shared" ref="E4:F4" si="3">E2*E7</f>
         <v>480</v>
       </c>
       <c r="F4" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>540</v>
       </c>
       <c r="G4" s="32">
-        <f t="shared" ref="G4:H4" si="3">G2*G7</f>
+        <f t="shared" ref="G4:H4" si="4">G2*G7</f>
         <v>630</v>
       </c>
       <c r="H4" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>570</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4" s="32">
+        <f t="shared" ref="I4" si="5">I2*I7</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -28456,26 +28526,30 @@
       <c r="C5" s="34"/>
       <c r="D5" s="35">
         <f>SUM(E5:T5)</f>
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="E5" s="32">
-        <f t="shared" ref="E5:F5" si="4">E4-E3</f>
+        <f t="shared" ref="E5:F5" si="6">E4-E3</f>
         <v>140</v>
       </c>
       <c r="F5" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
       <c r="G5" s="32">
-        <f t="shared" ref="G5:H5" si="5">G4-G3</f>
+        <f t="shared" ref="G5:H5" si="7">G4-G3</f>
         <v>285</v>
       </c>
       <c r="H5" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>230</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5" s="32">
+        <f t="shared" ref="I5" si="8">I4-I3</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -28483,23 +28557,27 @@
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
       <c r="E6" s="32">
-        <f t="shared" ref="E6:F6" si="6">E3/E2</f>
+        <f t="shared" ref="E6:F6" si="9">E3/E2</f>
         <v>21.25</v>
       </c>
       <c r="F6" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="G6" s="32">
-        <f t="shared" ref="G6:H6" si="7">G3/G2</f>
+        <f t="shared" ref="G6:H6" si="10">G3/G2</f>
         <v>16.428571428571427</v>
       </c>
       <c r="H6" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>17.894736842105264</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6" s="32">
+        <f t="shared" ref="I6" si="11">I3/I2</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -28518,8 +28596,11 @@
       <c r="H7" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -28527,29 +28608,33 @@
       <c r="C8" s="34"/>
       <c r="D8" s="36"/>
       <c r="E8" s="32">
-        <f t="shared" ref="E8:F8" si="8">E7-E6</f>
+        <f t="shared" ref="E8:F8" si="12">E7-E6</f>
         <v>8.75</v>
       </c>
       <c r="F8" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10.833333333333332</v>
       </c>
       <c r="G8" s="32">
-        <f t="shared" ref="G8:H8" si="9">G7-G6</f>
+        <f t="shared" ref="G8:H8" si="13">G7-G6</f>
         <v>13.571428571428573</v>
       </c>
       <c r="H8" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12.105263157894736</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8" s="32">
+        <f t="shared" ref="I8" si="14">I7-I6</f>
+        <v>0.83333333333333215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="str">
         <f>member!A9</f>
         <v>守候幸福</v>
       </c>
       <c r="B9" s="34">
-        <f t="shared" ref="B9:B62" si="10">COUNT(E9:T9)</f>
+        <f t="shared" ref="B9:B62" si="15">COUNT(E9:T9)</f>
         <v>2</v>
       </c>
       <c r="C9" s="34">
@@ -28568,23 +28653,24 @@
       <c r="H9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="str">
         <f>member!A10</f>
         <v>李一刀</v>
       </c>
       <c r="B10" s="34">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="C10" s="34">
         <f>E7*E10+F7*F10+G7*G10+H7*H10+I7*I10+J7*J10+K7*K10+L7*L10+M7*M10+N7*N10+O7*O10+P7*P10+Q7*Q10+R7*R10+S7*S10+T7*T10</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D10" s="36">
         <f>E8*E10+F8*F10+G8*G10+H8*H10+I8*I10+J8*J10+K8*K10+L8*L10+M8*M10+O8*O10+P8*P10+Q8*Q10+R8*R10+S8*S10+T8*T10</f>
-        <v>45.260025062656638</v>
+        <v>46.093358395989966</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -28598,23 +28684,26 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="str">
         <f>member!A11</f>
         <v>咣咣地跟屁蟲</v>
       </c>
       <c r="B11" s="34">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="C11" s="34">
         <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+N7*N11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D11" s="36">
         <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
-        <v>31.688596491228068</v>
+        <v>32.521929824561397</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -28626,14 +28715,17 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="str">
         <f>member!A12</f>
         <v>Oo内拉祖里oO</v>
       </c>
       <c r="B12" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C12" s="34">
@@ -28648,23 +28740,24 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="str">
         <f>member!A13</f>
         <v>幸福~拂晓</v>
       </c>
       <c r="B13" s="34">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="C13" s="34">
         <f>E7*E13+F7*F13+G7*G13+H7*H13+I7*I13+J7*J13+K7*K13+L7*L13+M7*M13+N7*N13+O7*O13+P7*P13+Q7*Q13+R7*R13+S7*S13+T7*T13</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D13" s="36">
         <f>E8*E13+F8*F13+G8*G13+H8*H13+I8*I13+J8*J13+K8*K13+L8*L13+M8*M13+O8*O13+P8*P13+Q8*Q13+R8*R13+S8*S13+T8*T13</f>
-        <v>31.688596491228068</v>
+        <v>32.521929824561397</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -28676,23 +28769,26 @@
       <c r="H13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="str">
         <f>member!A14</f>
         <v>蚕豆</v>
       </c>
       <c r="B14" s="34">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="C14" s="34">
         <f>E7*E14+F7*F14+G7*G14+H7*H14+I7*I14+J7*J14+K7*K14+L7*L14+M7*M14+N7*N14+O7*O14+P7*P14+Q7*Q14+R7*R14+S7*S14+T7*T14</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D14" s="36">
         <f>E8*E14+F8*F14+G8*G14+H8*H14+I8*I14+J8*J14+K8*K14+L8*L14+M8*M14+O8*O14+P8*P14+Q8*Q14+R8*R14+S8*S14+T8*T14</f>
-        <v>45.260025062656638</v>
+        <v>46.093358395989966</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -28706,14 +28802,17 @@
       <c r="H14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="str">
         <f>member!A15</f>
         <v>who cares?</v>
       </c>
       <c r="B15" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C15" s="34">
@@ -28728,14 +28827,15 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="str">
         <f>member!A16</f>
         <v>幸福~彩票</v>
       </c>
       <c r="B16" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C16" s="34">
@@ -28750,23 +28850,24 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="str">
         <f>member!A17</f>
         <v>清道夫</v>
       </c>
       <c r="B17" s="34">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="C17" s="34">
         <f>E7*E17+F7*F17+G7*G17+H7*H17+I7*I17+J7*J17+K7*K17+L7*L17+M7*M17+O7*O17+P7*P17+Q7*Q17+R7*R17+S7*S17+T7*T17</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D17" s="36">
         <f>E8*E17+F8*F17+G8*G17+H8*H17+I8*I17+J8*J17+K8*K17+L8*L17+M8*M17+O8*O17+P8*P17+Q8*Q17+R8*R17+S8*S17+T8*T17</f>
-        <v>13.571428571428573</v>
+        <v>14.404761904761905</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -28774,23 +28875,26 @@
         <v>1</v>
       </c>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="str">
         <f>member!A18</f>
         <v>老A</v>
       </c>
       <c r="B18" s="34">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="C18" s="34">
         <f>E7*E18+F7*F18+G7*G18+H7*H18+I7*I18+J7*J18+K7*K18+L7*L18+M7*M18+O7*O18+P7*P18+Q7*Q18+R7*R18+S7*S18+T7*T18</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D18" s="36">
         <f>E8*E18+F8*F18+G8*G18+H8*H18+I8*I18+J8*J18+K8*K18+L8*L18+M8*M18+O8*O18+P8*P18+Q8*Q18+R8*R18+S8*S18+T8*T18</f>
-        <v>22.321428571428573</v>
+        <v>23.154761904761905</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -28800,14 +28904,17 @@
         <v>1</v>
       </c>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="str">
         <f>member!A19</f>
         <v>狐狸</v>
       </c>
       <c r="B19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C19" s="34">
@@ -28828,36 +28935,40 @@
         <v>1</v>
       </c>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="str">
         <f>member!A20</f>
         <v>腿子</v>
       </c>
       <c r="B20" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="C20" s="34">
         <f>E7*E20+F7*F20+G7*G20+H7*H20+I7*I20+J7*J20+K7*K20+L7*L20+M7*M20+O7*O20+P7*P20+Q7*Q20+R7*R20+S7*S20+T7*T20</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D20" s="36">
         <f>E8*E20+F8*F20+G8*G20+H8*H20+I8*I20+J8*J20+K8*K20+L8*L20+M8*M20+O8*O20+P8*P20+Q8*Q20+R8*R20+S8*S20+T8*T20</f>
-        <v>0</v>
+        <v>0.83333333333333215</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="str">
         <f>member!A21</f>
         <v>smile</v>
       </c>
       <c r="B21" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C21" s="34">
@@ -28876,14 +28987,15 @@
       <c r="H21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="str">
         <f>member!A22</f>
         <v>小贝</v>
       </c>
       <c r="B22" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C22" s="34">
@@ -28900,14 +29012,15 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="str">
         <f>member!A23</f>
         <v>11号-鲜明</v>
       </c>
       <c r="B23" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C23" s="34">
@@ -28928,14 +29041,15 @@
         <v>1</v>
       </c>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="str">
         <f>member!A24</f>
         <v>狐狸~涛</v>
       </c>
       <c r="B24" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C24" s="34">
@@ -28952,23 +29066,24 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="str">
         <f>member!A25</f>
         <v>侯盟</v>
       </c>
       <c r="B25" s="34">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="C25" s="34">
         <f>E7*E25+F7*F25+G7*G25+H7*H25+I7*I25+J7*J25+K7*K25+L7*L25+M7*M25+O7*O25+P7*P25+Q7*Q25+R7*R25+S7*S25+T7*T25</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D25" s="36">
         <f>E8*E25+F8*F25+G8*G25+H8*H25+I8*I25+J8*J25+K8*K25+L8*L25+M8*M25+O8*O25+P8*P25+Q8*Q25+R8*R25+S8*S25+T8*T25</f>
-        <v>13.571428571428573</v>
+        <v>14.404761904761905</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -28976,14 +29091,17 @@
         <v>1</v>
       </c>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="str">
         <f>member!A26</f>
         <v>玖伍贰壹</v>
       </c>
       <c r="B26" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C26" s="34">
@@ -28998,23 +29116,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="str">
         <f>member!A27</f>
         <v>红色F50-超</v>
       </c>
       <c r="B27" s="34">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="C27" s="34">
         <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D27" s="36">
         <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
-        <v>45.260025062656638</v>
+        <v>46.093358395989966</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -29028,14 +29147,17 @@
       <c r="H27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="str">
         <f>member!A28</f>
         <v>活了</v>
       </c>
       <c r="B28" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C28" s="34">
@@ -29056,23 +29178,24 @@
       <c r="H28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="str">
         <f>member!A29</f>
         <v>天赐</v>
       </c>
       <c r="B29" s="34">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="C29" s="34">
         <f>E7*E29+F7*F29+G7*G29+H7*H29+I7*I29+J7*J29+K7*K29+L7*L29+M7*M29+O7*O29+P7*P29+Q7*Q29+R7*R29+S7*S29+T7*T29</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D29" s="36">
         <f>E8*E29+F8*F29+G8*G29+H8*H29+I8*I29+J8*J29+K8*K29+L8*L29+M8*M29+O8*O29+P8*P29+Q8*Q29+R8*R29+S8*S29+T8*T29</f>
-        <v>31.688596491228068</v>
+        <v>32.521929824561397</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -29084,23 +29207,26 @@
       <c r="H29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="str">
         <f>member!A30</f>
         <v>Shenghak</v>
       </c>
       <c r="B30" s="34">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="C30" s="34">
         <f>E7*E30+F7*F30+G7*G30+H7*H30+I7*I30+J7*J30+K7*K30+L7*L30+M7*M30+O7*O30+P7*P30+Q7*Q30+R7*R30+S7*S30+T7*T30</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D30" s="36">
         <f>E8*E30+F8*F30+G8*G30+H8*H30+I8*I30+J8*J30+K8*K30+L8*L30+M8*M30+O8*O30+P8*P30+Q8*Q30+R8*R30+S8*S30+T8*T30</f>
-        <v>22.321428571428573</v>
+        <v>23.154761904761905</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -29110,14 +29236,17 @@
         <v>1</v>
       </c>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="str">
         <f>member!A31</f>
         <v>红色6号</v>
       </c>
       <c r="B31" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C31" s="34">
@@ -29132,23 +29261,24 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="str">
         <f>member!A32</f>
         <v>微笑</v>
       </c>
       <c r="B32" s="34">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="C32" s="34">
         <f>E7*E32+F7*F32+G7*G32+H7*H32+I7*I32+J7*J32+K7*K32+L7*L32+M7*M32+O7*O32+P7*P32+Q7*Q32+R7*R32+S7*S32+T7*T32</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D32" s="36">
         <f>E8*E32+F8*F32+G8*G32+H8*H32+I8*I32+J8*J32+K8*K32+L8*L32+M8*M32+O8*O32+P8*P32+Q8*Q32+R8*R32+S8*S32+T8*T32</f>
-        <v>22.938596491228068</v>
+        <v>23.771929824561401</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2">
@@ -29158,14 +29288,17 @@
       <c r="H32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="str">
         <f>member!A33</f>
         <v>77号-更心</v>
       </c>
       <c r="B33" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C33" s="34">
@@ -29180,14 +29313,15 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="str">
         <f>member!A34</f>
         <v>更心朋友</v>
       </c>
       <c r="B34" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C34" s="34">
@@ -29202,23 +29336,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="str">
         <f>member!A35</f>
         <v>8号-菜菜亮</v>
       </c>
       <c r="B35" s="34">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="C35" s="34">
         <f>E7*E35+F7*F35+G7*G35+H7*H35+I7*I35+J7*J35+K7*K35+L7*L35+M7*M35+O7*O35+P7*P35+Q7*Q35+R7*R35+S7*S35+T7*T35</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D35" s="36">
         <f>E8*E35+F8*F35+G8*G35+H8*H35+I8*I35+J8*J35+K8*K35+L8*L35+M8*M35+O8*O35+P8*P35+Q8*Q35+R8*R35+S8*S35+T8*T35</f>
-        <v>36.510025062656638</v>
+        <v>37.343358395989966</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2">
@@ -29230,14 +29365,17 @@
       <c r="H35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="str">
         <f>member!A36</f>
         <v>杨光朋友</v>
       </c>
       <c r="B36" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C36" s="34">
@@ -29252,14 +29390,15 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="str">
         <f>member!A37</f>
         <v>拂晓朋友</v>
       </c>
       <c r="B37" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C37" s="34">
@@ -29274,14 +29413,15 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="str">
         <f>member!A38</f>
         <v>4号-许多</v>
       </c>
       <c r="B38" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C38" s="34">
@@ -29296,23 +29436,24 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="str">
         <f>member!A39</f>
         <v>5号-正</v>
       </c>
       <c r="B39" s="34">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="C39" s="34">
         <f>E7*E39+F7*F39+G7*G39+H7*H39+I7*I39+J7*J39+K7*K39+L7*L39+M7*M39+O7*O39+P7*P39+Q7*Q39+R7*R39+S7*S39+T7*T39</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D39" s="36">
         <f>E8*E39+F8*F39+G8*G39+H8*H39+I8*I39+J8*J39+K8*K39+L8*L39+M8*M39+O8*O39+P8*P39+Q8*Q39+R8*R39+S8*S39+T8*T39</f>
-        <v>13.571428571428573</v>
+        <v>14.404761904761905</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -29320,14 +29461,17 @@
         <v>1</v>
       </c>
       <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="str">
         <f>member!A40</f>
         <v>勇敢的爬爬</v>
       </c>
       <c r="B40" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C40" s="34">
@@ -29342,14 +29486,15 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="str">
         <f>member!A41</f>
         <v>17号-4号字母</v>
       </c>
       <c r="B41" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C41" s="34">
@@ -29364,14 +29509,15 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="str">
         <f>member!A42</f>
         <v>雷</v>
       </c>
       <c r="B42" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C42" s="34">
@@ -29386,14 +29532,15 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="str">
         <f>member!A43</f>
         <v>西北偏北</v>
       </c>
       <c r="B43" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C43" s="34">
@@ -29408,14 +29555,15 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="str">
         <f>member!A44</f>
         <v>红色8号</v>
       </c>
       <c r="B44" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C44" s="34">
@@ -29430,23 +29578,24 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="str">
         <f>member!A45</f>
         <v>马耳他</v>
       </c>
       <c r="B45" s="34">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="C45" s="34">
         <f>E7*E45+F7*F45+G7*G45+H7*H45+I7*I45+J7*J45+K7*K45+L7*L45+M7*M45+O7*O45+P7*P45+Q7*Q45+R7*R45+S7*S45+T7*T45</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D45" s="36">
         <f>E8*E45+F8*F45+G8*G45+H8*H45+I8*I45+J8*J45+K8*K45+L8*L45+M8*M45+O8*O45+P8*P45+Q8*Q45+R8*R45+S8*S45+T8*T45</f>
-        <v>10.833333333333332</v>
+        <v>11.666666666666664</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2">
@@ -29454,23 +29603,26 @@
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="str">
         <f>member!A46</f>
         <v>Cindy~陈猛</v>
       </c>
       <c r="B46" s="34">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="C46" s="34">
         <f>E7*E46+F7*F46+G7*G46+H7*H46+I7*I46+J7*J46+K7*K46+L7*L46+M7*M46+O7*O46+P7*P46+Q7*Q46+R7*R46+S7*S46+T7*T46</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D46" s="36">
         <f>E8*E46+F8*F46+G8*G46+H8*H46+I8*I46+J8*J46+K8*K46+L8*L46+M8*M46+O8*O46+P8*P46+Q8*Q46+R8*R46+S8*S46+T8*T46</f>
-        <v>36.510025062656638</v>
+        <v>37.343358395989966</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2">
@@ -29482,14 +29634,17 @@
       <c r="H46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="str">
         <f>member!A47</f>
         <v>硕</v>
       </c>
       <c r="B47" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C47" s="34">
@@ -29508,14 +29663,15 @@
         <v>1</v>
       </c>
       <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="str">
         <f>member!A48</f>
         <v>Violin</v>
       </c>
       <c r="B48" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C48" s="34">
@@ -29532,14 +29688,15 @@
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="str">
         <f>member!A49</f>
         <v>87号陈磊</v>
       </c>
       <c r="B49" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C49" s="34">
@@ -29560,14 +29717,15 @@
       <c r="H49" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="str">
         <f>member!A50</f>
         <v>水中阳光</v>
       </c>
       <c r="B50" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C50" s="34">
@@ -29582,36 +29740,40 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="str">
         <f>member!A51</f>
         <v>sam</v>
       </c>
       <c r="B51" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="C51" s="34">
         <f>E7*E51+F7*F51+G7*G51+H7*H51+I7*I51+J7*J51+K7*K51+L7*L51+M7*M51+O7*O51+P7*P51+Q7*Q51+R7*R51+S7*S51+T7*T51</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D51" s="36">
         <f>E8*E51+F8*F51+G8*G51+H8*H51+I8*I51+J8*J51+K8*K51+L8*L51+M8*M51+O8*O51+P8*P51+Q8*Q51+R8*R51+S8*S51+T8*T51</f>
-        <v>0</v>
+        <v>0.83333333333333215</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="str">
         <f>member!A52</f>
         <v>26 方亚</v>
       </c>
       <c r="B52" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C52" s="34">
@@ -29632,14 +29794,15 @@
       <c r="H52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="str">
         <f>member!A53</f>
         <v>维尼</v>
       </c>
       <c r="B53" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C53" s="34">
@@ -29654,14 +29817,15 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="str">
         <f>member!A54</f>
         <v>0号--张家宁</v>
       </c>
       <c r="B54" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C54" s="34">
@@ -29676,14 +29840,15 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="str">
         <f>member!A55</f>
         <v>泰山</v>
       </c>
       <c r="B55" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C55" s="34">
@@ -29698,23 +29863,24 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="str">
         <f>member!A56</f>
         <v>尚峰</v>
       </c>
       <c r="B56" s="34">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="C56" s="34">
         <f>E7*E56+F7*F56+G7*G56+H7*H56+I7*I56+J7*J56+K7*K56+L7*L56+M7*M56+O7*O56+P7*P56+Q7*Q56+R7*R56+S7*S56+T7*T56</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D56" s="36">
         <f>E8*E56+F8*F56+G8*G56+H8*H56+I8*I56+J8*J56+K8*K56+L8*L56+M8*M56+O8*O56+P8*P56+Q8*Q56+R8*R56+S8*S56+T8*T56</f>
-        <v>25.676691729323309</v>
+        <v>26.510025062656641</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -29724,14 +29890,17 @@
       <c r="H56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="str">
         <f>member!A57</f>
         <v>杨光</v>
       </c>
       <c r="B57" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C57" s="34">
@@ -29746,14 +29915,15 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="str">
         <f>member!A58</f>
         <v>小磊</v>
       </c>
       <c r="B58" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C58" s="34">
@@ -29774,14 +29944,15 @@
       <c r="H58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="str">
         <f>member!A59</f>
         <v>绿洲</v>
       </c>
       <c r="B59" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C59" s="34">
@@ -29796,14 +29967,15 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="str">
         <f>member!A60</f>
         <v>孙伟</v>
       </c>
       <c r="B60" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C60" s="34">
@@ -29820,14 +29992,15 @@
       <c r="H60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="str">
         <f>member!A61</f>
         <v>古轮木</v>
       </c>
       <c r="B61" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C61" s="34">
@@ -29844,14 +30017,15 @@
       <c r="H61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="str">
         <f>member!A62</f>
         <v>makoko</v>
       </c>
       <c r="B62" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C62" s="34">
@@ -29868,14 +30042,15 @@
       <c r="H62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="11" t="str">
         <f>member!A63</f>
         <v>玲1</v>
       </c>
       <c r="B63" s="34">
-        <f t="shared" ref="B63:B64" si="11">COUNT(E63:T63)</f>
+        <f t="shared" ref="B63" si="16">COUNT(E63:T63)</f>
         <v>1</v>
       </c>
       <c r="C63" s="34">
@@ -29892,14 +30067,15 @@
         <v>1</v>
       </c>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="str">
         <f>member!A64</f>
         <v>玲2</v>
       </c>
       <c r="B64" s="34">
-        <f t="shared" ref="B64:B100" si="12">COUNT(E64:T64)</f>
+        <f t="shared" ref="B64:B100" si="17">COUNT(E64:T64)</f>
         <v>1</v>
       </c>
       <c r="C64" s="34">
@@ -29916,14 +30092,15 @@
         <v>1</v>
       </c>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="11" t="str">
         <f>member!A65</f>
         <v>玲3</v>
       </c>
       <c r="B65" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="C65" s="34">
@@ -29940,14 +30117,15 @@
         <v>1</v>
       </c>
       <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="str">
         <f>member!A66</f>
         <v>玲4</v>
       </c>
       <c r="B66" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="C66" s="34">
@@ -29964,14 +30142,15 @@
         <v>1</v>
       </c>
       <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="11" t="str">
         <f>member!A67</f>
         <v>玲5</v>
       </c>
       <c r="B67" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="C67" s="34">
@@ -29988,14 +30167,15 @@
         <v>1</v>
       </c>
       <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="str">
         <f>member!A68</f>
         <v>新</v>
       </c>
       <c r="B68" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C68" s="34">
@@ -30010,14 +30190,15 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="11" t="str">
         <f>member!A69</f>
         <v>新</v>
       </c>
       <c r="B69" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C69" s="34">
@@ -30032,14 +30213,15 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="11" t="str">
         <f>member!A70</f>
         <v>新</v>
       </c>
       <c r="B70" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C70" s="34">
@@ -30054,14 +30236,15 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="str">
         <f>member!A71</f>
         <v>新</v>
       </c>
       <c r="B71" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C71" s="34">
@@ -30076,14 +30259,15 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="str">
         <f>member!A72</f>
         <v>新</v>
       </c>
       <c r="B72" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C72" s="34">
@@ -30098,14 +30282,15 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="str">
         <f>member!A73</f>
         <v>新</v>
       </c>
       <c r="B73" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C73" s="34">
@@ -30120,14 +30305,15 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="str">
         <f>member!A74</f>
         <v>新</v>
       </c>
       <c r="B74" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C74" s="34">
@@ -30142,14 +30328,15 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="11" t="str">
         <f>member!A75</f>
         <v>新</v>
       </c>
       <c r="B75" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C75" s="34">
@@ -30164,14 +30351,15 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="str">
         <f>member!A76</f>
         <v>新</v>
       </c>
       <c r="B76" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C76" s="34">
@@ -30186,14 +30374,15 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="11" t="str">
         <f>member!A77</f>
         <v>新</v>
       </c>
       <c r="B77" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C77" s="34">
@@ -30208,14 +30397,15 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="str">
         <f>member!A78</f>
         <v>新</v>
       </c>
       <c r="B78" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C78" s="34">
@@ -30230,14 +30420,15 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="str">
         <f>member!A79</f>
         <v>新</v>
       </c>
       <c r="B79" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C79" s="34">
@@ -30252,14 +30443,15 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="str">
         <f>member!A80</f>
         <v>新</v>
       </c>
       <c r="B80" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C80" s="34">
@@ -30274,14 +30466,15 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="11" t="str">
         <f>member!A81</f>
         <v>新</v>
       </c>
       <c r="B81" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C81" s="34">
@@ -30296,14 +30489,15 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="11" t="str">
         <f>member!A82</f>
         <v>新</v>
       </c>
       <c r="B82" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C82" s="34">
@@ -30318,14 +30512,15 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="11" t="str">
         <f>member!A83</f>
         <v>新</v>
       </c>
       <c r="B83" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C83" s="34">
@@ -30340,14 +30535,15 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="str">
         <f>member!A84</f>
         <v>新</v>
       </c>
       <c r="B84" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C84" s="34">
@@ -30362,14 +30558,15 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="11" t="str">
         <f>member!A85</f>
         <v>新</v>
       </c>
       <c r="B85" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C85" s="34">
@@ -30384,14 +30581,15 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="str">
         <f>member!A86</f>
         <v>新</v>
       </c>
       <c r="B86" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C86" s="34">
@@ -30406,14 +30604,15 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="11" t="str">
         <f>member!A87</f>
         <v>新</v>
       </c>
       <c r="B87" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C87" s="34">
@@ -30428,14 +30627,15 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="str">
         <f>member!A88</f>
         <v>新</v>
       </c>
       <c r="B88" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C88" s="34">
@@ -30450,14 +30650,15 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="11" t="str">
         <f>member!A89</f>
         <v>新</v>
       </c>
       <c r="B89" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C89" s="34">
@@ -30472,14 +30673,15 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="11" t="str">
         <f>member!A90</f>
         <v>新</v>
       </c>
       <c r="B90" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C90" s="34">
@@ -30494,14 +30696,15 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="11" t="str">
         <f>member!A91</f>
         <v>新</v>
       </c>
       <c r="B91" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C91" s="34">
@@ -30516,14 +30719,15 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="11" t="str">
         <f>member!A92</f>
         <v>新</v>
       </c>
       <c r="B92" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C92" s="34">
@@ -30538,14 +30742,15 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="11" t="str">
         <f>member!A93</f>
         <v>新</v>
       </c>
       <c r="B93" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C93" s="34">
@@ -30560,14 +30765,15 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="11" t="str">
         <f>member!A94</f>
         <v>新</v>
       </c>
       <c r="B94" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C94" s="34">
@@ -30582,14 +30788,15 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="str">
         <f>member!A95</f>
         <v>新</v>
       </c>
       <c r="B95" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C95" s="34">
@@ -30604,14 +30811,15 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="11" t="str">
         <f>member!A96</f>
         <v>新</v>
       </c>
       <c r="B96" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C96" s="34">
@@ -30626,14 +30834,15 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="str">
         <f>member!A97</f>
         <v>新</v>
       </c>
       <c r="B97" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C97" s="34">
@@ -30648,14 +30857,15 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="11" t="str">
         <f>member!A98</f>
         <v>新</v>
       </c>
       <c r="B98" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C98" s="34">
@@ -30670,14 +30880,15 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="str">
         <f>member!A99</f>
         <v>新</v>
       </c>
       <c r="B99" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C99" s="34">
@@ -30692,14 +30903,15 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="11" t="str">
         <f>member!A100</f>
         <v>新</v>
       </c>
       <c r="B100" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C100" s="34">
@@ -30714,6 +30926,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="125">
   <si>
     <t>守候幸福</t>
   </si>
@@ -501,6 +501,14 @@
     <t>退SAM 虫 笑 马 刀 天 菜 A 盟 正 豆 清 尚 超 SH 猛 16×20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>退尚 活 明 神 菜 虫 小磊 刀 福 超 盟 亚 smile 更心 清 15×25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 * 25 - 345 拂晓垫付，刀给拂晓345，幸福给刀25（马其他缴纳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -625,7 +633,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -683,6 +691,7 @@
     <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -987,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -998,8 +1007,7 @@
     <col min="3" max="3" width="10.5" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="19"/>
     <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
@@ -1041,27 +1049,27 @@
       </c>
       <c r="B2" s="37">
         <f t="shared" ref="B2:I2" si="0">SUM(B9:B100)</f>
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="C2" s="36">
         <f t="shared" si="0"/>
-        <v>12510</v>
+        <v>12910</v>
       </c>
       <c r="D2" s="38">
         <f t="shared" si="0"/>
-        <v>3209.9999999999991</v>
+        <v>3264.9999999999991</v>
       </c>
       <c r="E2" s="36">
         <f t="shared" si="0"/>
-        <v>2786.9999999999991</v>
+        <v>2825.9999999999991</v>
       </c>
       <c r="F2" s="36">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>1475</v>
       </c>
       <c r="G2" s="38">
         <f t="shared" si="0"/>
-        <v>1687.0000000000002</v>
+        <v>1351.0000000000007</v>
       </c>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
@@ -1097,7 +1105,7 @@
       </c>
       <c r="H4" s="40">
         <f>G2+H2</f>
-        <v>1717.0000000000002</v>
+        <v>1381.0000000000007</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
@@ -17529,26 +17537,26 @@
       </c>
       <c r="B9" s="39">
         <f>'201202'!B9+'201203'!B9+'201204'!B9+'201205'!B9+'201206'!B9+'201207'!B9+'201208'!B9+'201209'!B9+'201210'!B9+'201211'!B9+'201212'!B9</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="36">
         <f>'201202'!C9+'201203'!C9+'201204'!C9+'201205'!C9+'201206'!C9+'201207'!C9+'201208'!C9+'201209'!C9+'201210'!C9+'201211'!C9+'201212'!C9</f>
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="D9" s="36">
         <f>'201202'!D9+'201203'!D9+'201204'!D9+'201205'!D9+'201206'!D9+'201207'!D9+'201208'!D9+'201209'!D9+'201210'!D9+'201211'!D9+'201212'!D9</f>
-        <v>64.394640447272025</v>
+        <v>67.832140447272025</v>
       </c>
       <c r="E9" s="36">
         <f t="shared" ref="E9:E40" si="1">D9-B9</f>
-        <v>55.394640447272025</v>
+        <v>57.832140447272025</v>
       </c>
       <c r="F9" s="18">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G9" s="36">
         <f t="shared" ref="G9:G40" si="2">E9-F9</f>
-        <v>25.394640447272025</v>
+        <v>2.8321404472720246</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="1"/>
@@ -17591,26 +17599,26 @@
       </c>
       <c r="B11" s="39">
         <f>'201202'!B11+'201203'!B11+'201204'!B11+'201205'!B11+'201206'!B11+'201207'!B11+'201208'!B11+'201209'!B11+'201210'!B11+'201211'!B11+'201212'!B11</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="36">
         <f>'201202'!C11+'201203'!C11+'201204'!C11+'201205'!C11+'201206'!C11+'201207'!C11+'201208'!C11+'201209'!C11+'201210'!C11+'201211'!C11+'201212'!C11</f>
-        <v>740</v>
+        <v>765</v>
       </c>
       <c r="D11" s="36">
         <f>'201202'!D11+'201203'!D11+'201204'!D11+'201205'!D11+'201206'!D11+'201207'!D11+'201208'!D11+'201209'!D11+'201210'!D11+'201211'!D11+'201212'!D11</f>
-        <v>177.41016001542314</v>
+        <v>180.84766001542314</v>
       </c>
       <c r="E11" s="36">
         <f t="shared" si="1"/>
-        <v>152.41016001542314</v>
+        <v>154.84766001542314</v>
       </c>
       <c r="F11" s="18">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G11" s="36">
         <f t="shared" si="2"/>
-        <v>72.410160015423145</v>
+        <v>49.847660015423145</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="1"/>
@@ -17651,26 +17659,26 @@
       </c>
       <c r="B13" s="39">
         <f>'201202'!B13+'201203'!B13+'201204'!B13+'201205'!B13+'201206'!B13+'201207'!B13+'201208'!B13+'201209'!B13+'201210'!B13+'201211'!B13+'201212'!B13</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="36">
         <f>'201202'!C13+'201203'!C13+'201204'!C13+'201205'!C13+'201206'!C13+'201207'!C13+'201208'!C13+'201209'!C13+'201210'!C13+'201211'!C13+'201212'!C13</f>
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="D13" s="36">
         <f>'201202'!D13+'201203'!D13+'201204'!D13+'201205'!D13+'201206'!D13+'201207'!D13+'201208'!D13+'201209'!D13+'201210'!D13+'201211'!D13+'201212'!D13</f>
-        <v>127.03409163935478</v>
+        <v>130.47159163935478</v>
       </c>
       <c r="E13" s="36">
         <f t="shared" si="1"/>
-        <v>108.03409163935478</v>
+        <v>110.47159163935478</v>
       </c>
       <c r="F13" s="18">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="G13" s="36">
         <f t="shared" si="2"/>
-        <v>18.034091639354784</v>
+        <v>-4.5284083606452157</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="1"/>
@@ -17775,26 +17783,26 @@
       </c>
       <c r="B17" s="39">
         <f>'201202'!B17+'201203'!B17+'201204'!B17+'201205'!B17+'201206'!B17+'201207'!B17+'201208'!B17+'201209'!B17+'201210'!B17+'201211'!B17+'201212'!B17</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="36">
         <f>'201202'!C17+'201203'!C17+'201204'!C17+'201205'!C17+'201206'!C17+'201207'!C17+'201208'!C17+'201209'!C17+'201210'!C17+'201211'!C17+'201212'!C17</f>
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D17" s="36">
         <f>'201202'!D17+'201203'!D17+'201204'!D17+'201205'!D17+'201206'!D17+'201207'!D17+'201208'!D17+'201209'!D17+'201210'!D17+'201211'!D17+'201212'!D17</f>
-        <v>56.187423687423689</v>
+        <v>59.624923687423689</v>
       </c>
       <c r="E17" s="36">
         <f t="shared" si="1"/>
-        <v>49.187423687423689</v>
+        <v>51.624923687423689</v>
       </c>
       <c r="F17" s="18">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G17" s="36">
         <f t="shared" si="2"/>
-        <v>29.187423687423689</v>
+        <v>6.6249236874236885</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="1"/>
@@ -17897,26 +17905,26 @@
       </c>
       <c r="B21" s="39">
         <f>'201202'!B21+'201203'!B21+'201204'!B21+'201205'!B21+'201206'!B21+'201207'!B21+'201208'!B21+'201209'!B21+'201210'!B21+'201211'!B21+'201212'!B21</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="36">
         <f>'201202'!C21+'201203'!C21+'201204'!C21+'201205'!C21+'201206'!C21+'201207'!C21+'201208'!C21+'201209'!C21+'201210'!C21+'201211'!C21+'201212'!C21</f>
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="D21" s="36">
         <f>'201202'!D21+'201203'!D21+'201204'!D21+'201205'!D21+'201206'!D21+'201207'!D21+'201208'!D21+'201209'!D21+'201210'!D21+'201211'!D21+'201212'!D21</f>
-        <v>73.065275367906949</v>
+        <v>76.502775367906949</v>
       </c>
       <c r="E21" s="36">
         <f t="shared" si="1"/>
-        <v>63.065275367906949</v>
+        <v>65.502775367906949</v>
       </c>
       <c r="F21" s="18">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G21" s="36">
         <f t="shared" si="2"/>
-        <v>33.065275367906949</v>
+        <v>10.502775367906949</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="1"/>
@@ -17959,26 +17967,26 @@
       </c>
       <c r="B23" s="39">
         <f>'201202'!B23+'201203'!B23+'201204'!B23+'201205'!B23+'201206'!B23+'201207'!B23+'201208'!B23+'201209'!B23+'201210'!B23+'201211'!B23+'201212'!B23</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="36">
         <f>'201202'!C23+'201203'!C23+'201204'!C23+'201205'!C23+'201206'!C23+'201207'!C23+'201208'!C23+'201209'!C23+'201210'!C23+'201211'!C23+'201212'!C23</f>
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="D23" s="36">
         <f>'201202'!D23+'201203'!D23+'201204'!D23+'201205'!D23+'201206'!D23+'201207'!D23+'201208'!D23+'201209'!D23+'201210'!D23+'201211'!D23+'201212'!D23</f>
-        <v>108.10190540453698</v>
+        <v>111.53940540453698</v>
       </c>
       <c r="E23" s="36">
         <f t="shared" si="1"/>
-        <v>94.101905404536978</v>
+        <v>96.539405404536978</v>
       </c>
       <c r="F23" s="18">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G23" s="36">
         <f t="shared" si="2"/>
-        <v>64.101905404536978</v>
+        <v>41.539405404536978</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="1"/>
@@ -18025,26 +18033,26 @@
       </c>
       <c r="B25" s="39">
         <f>'201202'!B25+'201203'!B25+'201204'!B25+'201205'!B25+'201206'!B25+'201207'!B25+'201208'!B25+'201209'!B25+'201210'!B25+'201211'!B25+'201212'!B25</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="36">
         <f>'201202'!C25+'201203'!C25+'201204'!C25+'201205'!C25+'201206'!C25+'201207'!C25+'201208'!C25+'201209'!C25+'201210'!C25+'201211'!C25+'201212'!C25</f>
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="D25" s="36">
         <f>'201202'!D25+'201203'!D25+'201204'!D25+'201205'!D25+'201206'!D25+'201207'!D25+'201208'!D25+'201209'!D25+'201210'!D25+'201211'!D25+'201212'!D25</f>
-        <v>111.01918257181416</v>
+        <v>114.45668257181416</v>
       </c>
       <c r="E25" s="36">
         <f t="shared" si="1"/>
-        <v>95.019182571814156</v>
+        <v>97.456682571814156</v>
       </c>
       <c r="F25" s="18">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G25" s="36">
         <f t="shared" si="2"/>
-        <v>45.019182571814156</v>
+        <v>22.456682571814156</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="1"/>
@@ -18085,26 +18093,26 @@
       </c>
       <c r="B27" s="39">
         <f>'201202'!B27+'201203'!B27+'201204'!B27+'201205'!B27+'201206'!B27+'201207'!B27+'201208'!B27+'201209'!B27+'201210'!B27+'201211'!B27+'201212'!B27</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="36">
         <f>'201202'!C27+'201203'!C27+'201204'!C27+'201205'!C27+'201206'!C27+'201207'!C27+'201208'!C27+'201209'!C27+'201210'!C27+'201211'!C27+'201212'!C27</f>
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="D27" s="36">
         <f>'201202'!D27+'201203'!D27+'201204'!D27+'201205'!D27+'201206'!D27+'201207'!D27+'201208'!D27+'201209'!D27+'201210'!D27+'201211'!D27+'201212'!D27</f>
-        <v>194.8277424330056</v>
+        <v>198.2652424330056</v>
       </c>
       <c r="E27" s="36">
         <f t="shared" si="1"/>
-        <v>167.8277424330056</v>
+        <v>170.2652424330056</v>
       </c>
       <c r="F27" s="18">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G27" s="36">
         <f t="shared" si="2"/>
-        <v>87.827742433005596</v>
+        <v>65.265242433005596</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="1"/>
@@ -18116,24 +18124,26 @@
       </c>
       <c r="B28" s="39">
         <f>'201202'!B28+'201203'!B28+'201204'!B28+'201205'!B28+'201206'!B28+'201207'!B28+'201208'!B28+'201209'!B28+'201210'!B28+'201211'!B28+'201212'!B28</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="36">
         <f>'201202'!C28+'201203'!C28+'201204'!C28+'201205'!C28+'201206'!C28+'201207'!C28+'201208'!C28+'201209'!C28+'201210'!C28+'201211'!C28+'201212'!C28</f>
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="D28" s="36">
         <f>'201202'!D28+'201203'!D28+'201204'!D28+'201205'!D28+'201206'!D28+'201207'!D28+'201208'!D28+'201209'!D28+'201210'!D28+'201211'!D28+'201212'!D28</f>
-        <v>94.944653299916467</v>
+        <v>98.382153299916467</v>
       </c>
       <c r="E28" s="36">
         <f t="shared" si="1"/>
-        <v>84.944653299916467</v>
-      </c>
-      <c r="F28" s="18"/>
+        <v>87.382153299916467</v>
+      </c>
+      <c r="F28" s="18">
+        <v>25</v>
+      </c>
       <c r="G28" s="36">
         <f t="shared" si="2"/>
-        <v>84.944653299916467</v>
+        <v>62.382153299916467</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="1"/>
@@ -18267,24 +18277,26 @@
       </c>
       <c r="B33" s="39">
         <f>'201202'!B33+'201203'!B33+'201204'!B33+'201205'!B33+'201206'!B33+'201207'!B33+'201208'!B33+'201209'!B33+'201210'!B33+'201211'!B33+'201212'!B33</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" s="36">
         <f>'201202'!C33+'201203'!C33+'201204'!C33+'201205'!C33+'201206'!C33+'201207'!C33+'201208'!C33+'201209'!C33+'201210'!C33+'201211'!C33+'201212'!C33</f>
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="D33" s="36">
         <f>'201202'!D33+'201203'!D33+'201204'!D33+'201205'!D33+'201206'!D33+'201207'!D33+'201208'!D33+'201209'!D33+'201210'!D33+'201211'!D33+'201212'!D33</f>
-        <v>36.445360195360195</v>
+        <v>39.882860195360195</v>
       </c>
       <c r="E33" s="36">
         <f t="shared" si="1"/>
-        <v>30.445360195360195</v>
-      </c>
-      <c r="F33" s="18"/>
+        <v>32.882860195360195</v>
+      </c>
+      <c r="F33" s="18">
+        <v>25</v>
+      </c>
       <c r="G33" s="36">
         <f t="shared" si="2"/>
-        <v>30.445360195360195</v>
+        <v>7.8828601953601947</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="1"/>
@@ -18325,26 +18337,26 @@
       </c>
       <c r="B35" s="39">
         <f>'201202'!B35+'201203'!B35+'201204'!B35+'201205'!B35+'201206'!B35+'201207'!B35+'201208'!B35+'201209'!B35+'201210'!B35+'201211'!B35+'201212'!B35</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" s="36">
         <f>'201202'!C35+'201203'!C35+'201204'!C35+'201205'!C35+'201206'!C35+'201207'!C35+'201208'!C35+'201209'!C35+'201210'!C35+'201211'!C35+'201212'!C35</f>
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="D35" s="36">
         <f>'201202'!D35+'201203'!D35+'201204'!D35+'201205'!D35+'201206'!D35+'201207'!D35+'201208'!D35+'201209'!D35+'201210'!D35+'201211'!D35+'201212'!D35</f>
-        <v>137.48189383715697</v>
+        <v>140.91939383715697</v>
       </c>
       <c r="E35" s="36">
         <f t="shared" si="1"/>
-        <v>117.48189383715697</v>
+        <v>119.91939383715697</v>
       </c>
       <c r="F35" s="18">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G35" s="36">
         <f t="shared" si="2"/>
-        <v>37.481893837156974</v>
+        <v>14.919393837156974</v>
       </c>
       <c r="H35" s="18"/>
       <c r="I35" s="1"/>
@@ -18629,26 +18641,26 @@
       </c>
       <c r="B45" s="39">
         <f>'201202'!B45+'201203'!B45+'201204'!B45+'201205'!B45+'201206'!B45+'201207'!B45+'201208'!B45+'201209'!B45+'201210'!B45+'201211'!B45+'201212'!B45</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" s="36">
         <f>'201202'!C45+'201203'!C45+'201204'!C45+'201205'!C45+'201206'!C45+'201207'!C45+'201208'!C45+'201209'!C45+'201210'!C45+'201211'!C45+'201212'!C45</f>
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D45" s="36">
         <f>'201202'!D45+'201203'!D45+'201204'!D45+'201205'!D45+'201206'!D45+'201207'!D45+'201208'!D45+'201209'!D45+'201210'!D45+'201211'!D45+'201212'!D45</f>
-        <v>38.162393162393158</v>
+        <v>41.599893162393158</v>
       </c>
       <c r="E45" s="36">
         <f t="shared" si="3"/>
-        <v>33.162393162393158</v>
+        <v>35.599893162393158</v>
       </c>
       <c r="F45" s="18">
         <v>20</v>
       </c>
       <c r="G45" s="36">
         <f t="shared" si="4"/>
-        <v>13.162393162393158</v>
+        <v>15.599893162393158</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="1"/>
@@ -18660,26 +18672,26 @@
       </c>
       <c r="B46" s="39">
         <f>'201202'!B46+'201203'!B46+'201204'!B46+'201205'!B46+'201206'!B46+'201207'!B46+'201208'!B46+'201209'!B46+'201210'!B46+'201211'!B46+'201212'!B46</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" s="36">
         <f>'201202'!C46+'201203'!C46+'201204'!C46+'201205'!C46+'201206'!C46+'201207'!C46+'201208'!C46+'201209'!C46+'201210'!C46+'201211'!C46+'201212'!C46</f>
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="D46" s="36">
         <f>'201202'!D46+'201203'!D46+'201204'!D46+'201205'!D46+'201206'!D46+'201207'!D46+'201208'!D46+'201209'!D46+'201210'!D46+'201211'!D46+'201212'!D46</f>
-        <v>110.10190540453696</v>
+        <v>113.53940540453696</v>
       </c>
       <c r="E46" s="36">
         <f t="shared" si="3"/>
-        <v>95.101905404536964</v>
+        <v>97.539405404536964</v>
       </c>
       <c r="F46" s="18">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G46" s="36">
         <f t="shared" si="4"/>
-        <v>75.101905404536964</v>
+        <v>52.539405404536964</v>
       </c>
       <c r="H46" s="18"/>
       <c r="I46" s="1"/>
@@ -18846,24 +18858,26 @@
       </c>
       <c r="B52" s="39">
         <f>'201202'!B52+'201203'!B52+'201204'!B52+'201205'!B52+'201206'!B52+'201207'!B52+'201208'!B52+'201209'!B52+'201210'!B52+'201211'!B52+'201212'!B52</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" s="36">
         <f>'201202'!C52+'201203'!C52+'201204'!C52+'201205'!C52+'201206'!C52+'201207'!C52+'201208'!C52+'201209'!C52+'201210'!C52+'201211'!C52+'201212'!C52</f>
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="D52" s="36">
         <f>'201202'!D52+'201203'!D52+'201204'!D52+'201205'!D52+'201206'!D52+'201207'!D52+'201208'!D52+'201209'!D52+'201210'!D52+'201211'!D52+'201212'!D52</f>
-        <v>102.40954951481267</v>
+        <v>105.84704951481267</v>
       </c>
       <c r="E52" s="36">
         <f t="shared" si="3"/>
-        <v>88.409549514812667</v>
-      </c>
-      <c r="F52" s="18"/>
+        <v>90.847049514812667</v>
+      </c>
+      <c r="F52" s="18">
+        <v>25</v>
+      </c>
       <c r="G52" s="36">
         <f t="shared" si="4"/>
-        <v>88.409549514812667</v>
+        <v>65.847049514812667</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="1"/>
@@ -18962,26 +18976,26 @@
       </c>
       <c r="B56" s="39">
         <f>'201202'!B56+'201203'!B56+'201204'!B56+'201205'!B56+'201206'!B56+'201207'!B56+'201208'!B56+'201209'!B56+'201210'!B56+'201211'!B56+'201212'!B56</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" s="36">
         <f>'201202'!C56+'201203'!C56+'201204'!C56+'201205'!C56+'201206'!C56+'201207'!C56+'201208'!C56+'201209'!C56+'201210'!C56+'201211'!C56+'201212'!C56</f>
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="D56" s="36">
         <f>'201202'!D56+'201203'!D56+'201204'!D56+'201205'!D56+'201206'!D56+'201207'!D56+'201208'!D56+'201209'!D56+'201210'!D56+'201211'!D56+'201212'!D56</f>
-        <v>82.760587365850512</v>
+        <v>86.198087365850512</v>
       </c>
       <c r="E56" s="36">
         <f t="shared" si="3"/>
-        <v>72.760587365850512</v>
+        <v>75.198087365850512</v>
       </c>
       <c r="F56" s="18">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G56" s="36">
         <f t="shared" si="4"/>
-        <v>52.760587365850512</v>
+        <v>30.198087365850512</v>
       </c>
       <c r="H56" s="18"/>
       <c r="I56" s="1"/>
@@ -19022,24 +19036,26 @@
       </c>
       <c r="B58" s="39">
         <f>'201202'!B58+'201203'!B58+'201204'!B58+'201205'!B58+'201206'!B58+'201207'!B58+'201208'!B58+'201209'!B58+'201210'!B58+'201211'!B58+'201212'!B58</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" s="36">
         <f>'201202'!C58+'201203'!C58+'201204'!C58+'201205'!C58+'201206'!C58+'201207'!C58+'201208'!C58+'201209'!C58+'201210'!C58+'201211'!C58+'201212'!C58</f>
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D58" s="36">
         <f>'201202'!D58+'201203'!D58+'201204'!D58+'201205'!D58+'201206'!D58+'201207'!D58+'201208'!D58+'201209'!D58+'201210'!D58+'201211'!D58+'201212'!D58</f>
-        <v>34.426691729323309</v>
+        <v>37.864191729323309</v>
       </c>
       <c r="E58" s="36">
         <f t="shared" si="3"/>
-        <v>31.426691729323309</v>
-      </c>
-      <c r="F58" s="18"/>
+        <v>33.864191729323309</v>
+      </c>
+      <c r="F58" s="18">
+        <v>25</v>
+      </c>
       <c r="G58" s="36">
         <f t="shared" si="4"/>
-        <v>31.426691729323309</v>
+        <v>8.8641917293233092</v>
       </c>
       <c r="H58" s="18"/>
       <c r="I58" s="1"/>
@@ -20369,17 +20385,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.5" customWidth="1"/>
+    <col min="5" max="5" width="65.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -21090,37 +21106,57 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="A44" s="14">
+        <v>41051</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>55</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="A45" s="14">
+        <v>41051</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>375</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39">
-        <f>SUM(C2:C45)</f>
-        <v>2005</v>
-      </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39">
+        <f>SUM(C2:C46)</f>
+        <v>2435</v>
+      </c>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="10"/>
@@ -21142,6 +21178,13 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="10"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -28390,10 +28433,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28403,10 +28446,10 @@
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="7" t="s">
         <v>35</v>
@@ -28432,14 +28475,17 @@
       <c r="I1" s="5">
         <v>41046</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" s="5">
+        <v>41051</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="33">
         <f>SUM(B9:B100)</f>
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="35"/>
@@ -28460,11 +28506,15 @@
         <v>19</v>
       </c>
       <c r="I2" s="33">
-        <f t="shared" ref="I2" si="2">COUNT(I9:I100)</f>
+        <f t="shared" ref="I2:J2" si="2">COUNT(I9:I100)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2" s="33">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -28486,15 +28536,18 @@
       <c r="I3" s="20">
         <v>345</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" s="20">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="34">
         <f>SUM(E4:T4)</f>
-        <v>2580</v>
+        <v>2980</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="32">
@@ -28514,11 +28567,15 @@
         <v>570</v>
       </c>
       <c r="I4" s="32">
-        <f t="shared" ref="I4" si="5">I2*I7</f>
+        <f t="shared" ref="I4:J4" si="5">I2*I7</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4" s="32">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -28526,7 +28583,7 @@
       <c r="C5" s="34"/>
       <c r="D5" s="35">
         <f>SUM(E5:T5)</f>
-        <v>865</v>
+        <v>920</v>
       </c>
       <c r="E5" s="32">
         <f t="shared" ref="E5:F5" si="6">E4-E3</f>
@@ -28545,11 +28602,15 @@
         <v>230</v>
       </c>
       <c r="I5" s="32">
-        <f t="shared" ref="I5" si="8">I4-I3</f>
+        <f t="shared" ref="I5:J5" si="8">I4-I3</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5" s="32">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -28573,11 +28634,15 @@
         <v>17.894736842105264</v>
       </c>
       <c r="I6" s="32">
-        <f t="shared" ref="I6" si="11">I3/I2</f>
+        <f t="shared" ref="I6:J6" si="11">I3/I2</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6" s="32">
+        <f t="shared" si="11"/>
+        <v>21.5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -28599,8 +28664,11 @@
       <c r="I7" s="20">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -28624,26 +28692,30 @@
         <v>12.105263157894736</v>
       </c>
       <c r="I8" s="32">
-        <f t="shared" ref="I8" si="14">I7-I6</f>
+        <f t="shared" ref="I8:J8" si="14">I7-I6</f>
         <v>0.83333333333333215</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8" s="32">
+        <f t="shared" si="14"/>
+        <v>3.4375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="str">
         <f>member!A9</f>
         <v>守候幸福</v>
       </c>
       <c r="B9" s="34">
         <f t="shared" ref="B9:B62" si="15">COUNT(E9:T9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="34">
         <f>E7*E9+F7*F9+G7*G9+H7*H9+I7*I9+J7*J9+K7*K9+L7*L9+M7*M9+N7*N9+O7*O9+P7*P9+Q7*Q9+R7*R9+S7*S9+T7*T9</f>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D9" s="36">
         <f>E8*E9+F8*F9+G8*G9+H8*H9+I8*I9+J8*J9+K8*K9+L8*L9+M8*M9+O8*O9+P8*P9+Q8*Q9+R8*R9+S8*S9+T8*T9</f>
-        <v>22.938596491228068</v>
+        <v>26.376096491228068</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
@@ -28654,8 +28726,11 @@
         <v>1</v>
       </c>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="str">
         <f>member!A10</f>
         <v>李一刀</v>
@@ -28687,23 +28762,24 @@
       <c r="I10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="str">
         <f>member!A11</f>
         <v>咣咣地跟屁蟲</v>
       </c>
       <c r="B11" s="34">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="34">
         <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+N7*N11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D11" s="36">
         <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
-        <v>32.521929824561397</v>
+        <v>35.959429824561397</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -28718,8 +28794,11 @@
       <c r="I11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="str">
         <f>member!A12</f>
         <v>Oo内拉祖里oO</v>
@@ -28741,23 +28820,24 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="str">
         <f>member!A13</f>
         <v>幸福~拂晓</v>
       </c>
       <c r="B13" s="34">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="34">
         <f>E7*E13+F7*F13+G7*G13+H7*H13+I7*I13+J7*J13+K7*K13+L7*L13+M7*M13+N7*N13+O7*O13+P7*P13+Q7*Q13+R7*R13+S7*S13+T7*T13</f>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D13" s="36">
         <f>E8*E13+F8*F13+G8*G13+H8*H13+I8*I13+J8*J13+K8*K13+L8*L13+M8*M13+O8*O13+P8*P13+Q8*Q13+R8*R13+S8*S13+T8*T13</f>
-        <v>32.521929824561397</v>
+        <v>35.959429824561397</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -28772,8 +28852,11 @@
       <c r="I13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="str">
         <f>member!A14</f>
         <v>蚕豆</v>
@@ -28805,8 +28888,9 @@
       <c r="I14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="str">
         <f>member!A15</f>
         <v>who cares?</v>
@@ -28828,8 +28912,9 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="str">
         <f>member!A16</f>
         <v>幸福~彩票</v>
@@ -28851,23 +28936,24 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="str">
         <f>member!A17</f>
         <v>清道夫</v>
       </c>
       <c r="B17" s="34">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="34">
         <f>E7*E17+F7*F17+G7*G17+H7*H17+I7*I17+J7*J17+K7*K17+L7*L17+M7*M17+O7*O17+P7*P17+Q7*Q17+R7*R17+S7*S17+T7*T17</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D17" s="36">
         <f>E8*E17+F8*F17+G8*G17+H8*H17+I8*I17+J8*J17+K8*K17+L8*L17+M8*M17+O8*O17+P8*P17+Q8*Q17+R8*R17+S8*S17+T8*T17</f>
-        <v>14.404761904761905</v>
+        <v>17.842261904761905</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -28878,8 +28964,11 @@
       <c r="I17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="str">
         <f>member!A18</f>
         <v>老A</v>
@@ -28907,8 +28996,9 @@
       <c r="I18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="str">
         <f>member!A19</f>
         <v>狐狸</v>
@@ -28936,8 +29026,9 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="str">
         <f>member!A20</f>
         <v>腿子</v>
@@ -28961,23 +29052,24 @@
       <c r="I20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="str">
         <f>member!A21</f>
         <v>smile</v>
       </c>
       <c r="B21" s="34">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="34">
         <f>E7*E21+F7*F21+G7*G21+H7*H21+I7*I21+J7*J21+K7*K21+L7*L21+M7*M21+O7*O21+P7*P21+Q7*Q21+R7*R21+S7*S21+T7*T21</f>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D21" s="36">
         <f>E8*E21+F8*F21+G8*G21+H8*H21+I8*I21+J8*J21+K8*K21+L8*L21+M8*M21+O8*O21+P8*P21+Q8*Q21+R8*R21+S8*S21+T8*T21</f>
-        <v>20.855263157894736</v>
+        <v>24.292763157894736</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -28988,8 +29080,11 @@
         <v>1</v>
       </c>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="str">
         <f>member!A22</f>
         <v>小贝</v>
@@ -29013,23 +29108,24 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="str">
         <f>member!A23</f>
         <v>11号-鲜明</v>
       </c>
       <c r="B23" s="34">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="34">
         <f>E7*E23+F7*F23+G7*G23+H7*H23+I7*I23+J7*J23+K7*K23+L7*L23+M7*M23+O7*O23+P7*P23+Q7*Q23+R7*R23+S7*S23+T7*T23</f>
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D23" s="36">
         <f>E8*E23+F8*F23+G8*G23+H8*H23+I8*I23+J8*J23+K8*K23+L8*L23+M8*M23+O8*O23+P8*P23+Q8*Q23+R8*R23+S8*S23+T8*T23</f>
-        <v>33.154761904761905</v>
+        <v>36.592261904761905</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -29042,8 +29138,11 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="str">
         <f>member!A24</f>
         <v>狐狸~涛</v>
@@ -29067,23 +29166,24 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="str">
         <f>member!A25</f>
         <v>侯盟</v>
       </c>
       <c r="B25" s="34">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="34">
         <f>E7*E25+F7*F25+G7*G25+H7*H25+I7*I25+J7*J25+K7*K25+L7*L25+M7*M25+O7*O25+P7*P25+Q7*Q25+R7*R25+S7*S25+T7*T25</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D25" s="36">
         <f>E8*E25+F8*F25+G8*G25+H8*H25+I8*I25+J8*J25+K8*K25+L8*L25+M8*M25+O8*O25+P8*P25+Q8*Q25+R8*R25+S8*S25+T8*T25</f>
-        <v>14.404761904761905</v>
+        <v>17.842261904761905</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -29094,8 +29194,11 @@
       <c r="I25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="str">
         <f>member!A26</f>
         <v>玖伍贰壹</v>
@@ -29117,23 +29220,24 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="str">
         <f>member!A27</f>
         <v>红色F50-超</v>
       </c>
       <c r="B27" s="34">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="34">
         <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D27" s="36">
         <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
-        <v>46.093358395989966</v>
+        <v>49.530858395989966</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -29150,23 +29254,26 @@
       <c r="I27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="str">
         <f>member!A28</f>
         <v>活了</v>
       </c>
       <c r="B28" s="34">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="34">
         <f>E7*E28+F7*F28+G7*G28+H7*H28+I7*I28+J7*J28+K7*K28+L7*L28+M7*M28+O7*O28+P7*P28+Q7*Q28+R7*R28+S7*S28+T7*T28</f>
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D28" s="36">
         <f>E8*E28+F8*F28+G8*G28+H8*H28+I8*I28+J8*J28+K8*K28+L8*L28+M8*M28+O8*O28+P8*P28+Q8*Q28+R8*R28+S8*S28+T8*T28</f>
-        <v>31.688596491228068</v>
+        <v>35.126096491228068</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -29179,8 +29286,11 @@
         <v>1</v>
       </c>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="str">
         <f>member!A29</f>
         <v>天赐</v>
@@ -29210,8 +29320,9 @@
       <c r="I29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="str">
         <f>member!A30</f>
         <v>Shenghak</v>
@@ -29239,8 +29350,9 @@
       <c r="I30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="str">
         <f>member!A31</f>
         <v>红色6号</v>
@@ -29262,8 +29374,9 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="str">
         <f>member!A32</f>
         <v>微笑</v>
@@ -29291,31 +29404,35 @@
       <c r="I32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="str">
         <f>member!A33</f>
         <v>77号-更心</v>
       </c>
       <c r="B33" s="34">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="34">
         <f>E7*E33+F7*F33+G7*G33+H7*H33+I7*I33+J7*J33+K7*K33+L7*L33+M7*M33+O7*O33+P7*P33+Q7*Q33+R7*R33+S7*S33+T7*T33</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D33" s="36">
         <f>E8*E33+F8*F33+G8*G33+H8*H33+I8*I33+J8*J33+K8*K33+L8*L33+M8*M33+O8*O33+P8*P33+Q8*Q33+R8*R33+S8*S33+T8*T33</f>
-        <v>0</v>
+        <v>3.4375</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="str">
         <f>member!A34</f>
         <v>更心朋友</v>
@@ -29337,23 +29454,24 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="str">
         <f>member!A35</f>
         <v>8号-菜菜亮</v>
       </c>
       <c r="B35" s="34">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" s="34">
         <f>E7*E35+F7*F35+G7*G35+H7*H35+I7*I35+J7*J35+K7*K35+L7*L35+M7*M35+O7*O35+P7*P35+Q7*Q35+R7*R35+S7*S35+T7*T35</f>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D35" s="36">
         <f>E8*E35+F8*F35+G8*G35+H8*H35+I8*I35+J8*J35+K8*K35+L8*L35+M8*M35+O8*O35+P8*P35+Q8*Q35+R8*R35+S8*S35+T8*T35</f>
-        <v>37.343358395989966</v>
+        <v>40.780858395989966</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2">
@@ -29368,8 +29486,11 @@
       <c r="I35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="str">
         <f>member!A36</f>
         <v>杨光朋友</v>
@@ -29391,8 +29512,9 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="str">
         <f>member!A37</f>
         <v>拂晓朋友</v>
@@ -29414,8 +29536,9 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="str">
         <f>member!A38</f>
         <v>4号-许多</v>
@@ -29437,8 +29560,9 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="str">
         <f>member!A39</f>
         <v>5号-正</v>
@@ -29464,8 +29588,9 @@
       <c r="I39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="str">
         <f>member!A40</f>
         <v>勇敢的爬爬</v>
@@ -29487,8 +29612,9 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="str">
         <f>member!A41</f>
         <v>17号-4号字母</v>
@@ -29510,8 +29636,9 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="str">
         <f>member!A42</f>
         <v>雷</v>
@@ -29533,8 +29660,9 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="str">
         <f>member!A43</f>
         <v>西北偏北</v>
@@ -29556,8 +29684,9 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="str">
         <f>member!A44</f>
         <v>红色8号</v>
@@ -29579,23 +29708,24 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="str">
         <f>member!A45</f>
         <v>马耳他</v>
       </c>
       <c r="B45" s="34">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" s="34">
         <f>E7*E45+F7*F45+G7*G45+H7*H45+I7*I45+J7*J45+K7*K45+L7*L45+M7*M45+O7*O45+P7*P45+Q7*Q45+R7*R45+S7*S45+T7*T45</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D45" s="36">
         <f>E8*E45+F8*F45+G8*G45+H8*H45+I8*I45+J8*J45+K8*K45+L8*L45+M8*M45+O8*O45+P8*P45+Q8*Q45+R8*R45+S8*S45+T8*T45</f>
-        <v>11.666666666666664</v>
+        <v>15.104166666666664</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2">
@@ -29606,23 +29736,26 @@
       <c r="I45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="str">
         <f>member!A46</f>
         <v>Cindy~陈猛</v>
       </c>
       <c r="B46" s="34">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="34">
         <f>E7*E46+F7*F46+G7*G46+H7*H46+I7*I46+J7*J46+K7*K46+L7*L46+M7*M46+O7*O46+P7*P46+Q7*Q46+R7*R46+S7*S46+T7*T46</f>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D46" s="36">
         <f>E8*E46+F8*F46+G8*G46+H8*H46+I8*I46+J8*J46+K8*K46+L8*L46+M8*M46+O8*O46+P8*P46+Q8*Q46+R8*R46+S8*S46+T8*T46</f>
-        <v>37.343358395989966</v>
+        <v>40.780858395989966</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2">
@@ -29637,8 +29770,11 @@
       <c r="I46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="str">
         <f>member!A47</f>
         <v>硕</v>
@@ -29664,8 +29800,9 @@
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="str">
         <f>member!A48</f>
         <v>Violin</v>
@@ -29689,8 +29826,9 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="str">
         <f>member!A49</f>
         <v>87号陈磊</v>
@@ -29718,8 +29856,9 @@
         <v>1</v>
       </c>
       <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="str">
         <f>member!A50</f>
         <v>水中阳光</v>
@@ -29741,8 +29880,9 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="str">
         <f>member!A51</f>
         <v>sam</v>
@@ -29766,23 +29906,24 @@
       <c r="I51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="str">
         <f>member!A52</f>
         <v>26 方亚</v>
       </c>
       <c r="B52" s="34">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52" s="34">
         <f>E7*E52+F7*F52+G7*G52+H7*H52+I7*I52+J7*J52+K7*K52+L7*L52+M7*M52+O7*O52+P7*P52+Q7*Q52+R7*R52+S7*S52+T7*T52</f>
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D52" s="36">
         <f>E8*E52+F8*F52+G8*G52+H8*H52+I8*I52+J8*J52+K8*K52+L8*L52+M8*M52+O8*O52+P8*P52+Q8*Q52+R8*R52+S8*S52+T8*T52</f>
-        <v>31.688596491228068</v>
+        <v>35.126096491228068</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -29795,8 +29936,11 @@
         <v>1</v>
       </c>
       <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="str">
         <f>member!A53</f>
         <v>维尼</v>
@@ -29818,8 +29962,9 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="str">
         <f>member!A54</f>
         <v>0号--张家宁</v>
@@ -29841,8 +29986,9 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="str">
         <f>member!A55</f>
         <v>泰山</v>
@@ -29864,23 +30010,24 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="str">
         <f>member!A56</f>
         <v>尚峰</v>
       </c>
       <c r="B56" s="34">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" s="34">
         <f>E7*E56+F7*F56+G7*G56+H7*H56+I7*I56+J7*J56+K7*K56+L7*L56+M7*M56+O7*O56+P7*P56+Q7*Q56+R7*R56+S7*S56+T7*T56</f>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D56" s="36">
         <f>E8*E56+F8*F56+G8*G56+H8*H56+I8*I56+J8*J56+K8*K56+L8*L56+M8*M56+O8*O56+P8*P56+Q8*Q56+R8*R56+S8*S56+T8*T56</f>
-        <v>26.510025062656641</v>
+        <v>29.947525062656641</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -29893,8 +30040,11 @@
       <c r="I56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="str">
         <f>member!A57</f>
         <v>杨光</v>
@@ -29916,23 +30066,24 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="str">
         <f>member!A58</f>
         <v>小磊</v>
       </c>
       <c r="B58" s="34">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" s="34">
         <f>E7*E58+F7*F58+G7*G58+H7*H58+I7*I58+J7*J58+K7*K58+L7*L58+M7*M58+O7*O58+P7*P58+Q7*Q58+R7*R58+S7*S58+T7*T58</f>
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D58" s="36">
         <f>E8*E58+F8*F58+G8*G58+H8*H58+I8*I58+J8*J58+K8*K58+L8*L58+M8*M58+O8*O58+P8*P58+Q8*Q58+R8*R58+S8*S58+T8*T58</f>
-        <v>34.426691729323309</v>
+        <v>37.864191729323309</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -29945,8 +30096,11 @@
         <v>1</v>
       </c>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="str">
         <f>member!A59</f>
         <v>绿洲</v>
@@ -29968,8 +30122,9 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="str">
         <f>member!A60</f>
         <v>孙伟</v>
@@ -29993,8 +30148,9 @@
         <v>1</v>
       </c>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="str">
         <f>member!A61</f>
         <v>古轮木</v>
@@ -30018,8 +30174,9 @@
         <v>1</v>
       </c>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="str">
         <f>member!A62</f>
         <v>makoko</v>
@@ -30043,8 +30200,9 @@
         <v>1</v>
       </c>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="11" t="str">
         <f>member!A63</f>
         <v>玲1</v>
@@ -30068,8 +30226,9 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="str">
         <f>member!A64</f>
         <v>玲2</v>
@@ -30093,8 +30252,9 @@
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="11" t="str">
         <f>member!A65</f>
         <v>玲3</v>
@@ -30118,8 +30278,9 @@
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="str">
         <f>member!A66</f>
         <v>玲4</v>
@@ -30143,8 +30304,9 @@
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="11" t="str">
         <f>member!A67</f>
         <v>玲5</v>
@@ -30168,8 +30330,9 @@
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="str">
         <f>member!A68</f>
         <v>新</v>
@@ -30191,8 +30354,9 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="11" t="str">
         <f>member!A69</f>
         <v>新</v>
@@ -30214,8 +30378,9 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="11" t="str">
         <f>member!A70</f>
         <v>新</v>
@@ -30237,8 +30402,9 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="str">
         <f>member!A71</f>
         <v>新</v>
@@ -30260,8 +30426,9 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="str">
         <f>member!A72</f>
         <v>新</v>
@@ -30283,8 +30450,9 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="str">
         <f>member!A73</f>
         <v>新</v>
@@ -30306,8 +30474,9 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="str">
         <f>member!A74</f>
         <v>新</v>
@@ -30329,8 +30498,9 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="11" t="str">
         <f>member!A75</f>
         <v>新</v>
@@ -30352,8 +30522,9 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="str">
         <f>member!A76</f>
         <v>新</v>
@@ -30375,8 +30546,9 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="11" t="str">
         <f>member!A77</f>
         <v>新</v>
@@ -30398,8 +30570,9 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="str">
         <f>member!A78</f>
         <v>新</v>
@@ -30421,8 +30594,9 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="str">
         <f>member!A79</f>
         <v>新</v>
@@ -30444,8 +30618,9 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="str">
         <f>member!A80</f>
         <v>新</v>
@@ -30467,8 +30642,9 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="11" t="str">
         <f>member!A81</f>
         <v>新</v>
@@ -30490,8 +30666,9 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="11" t="str">
         <f>member!A82</f>
         <v>新</v>
@@ -30513,8 +30690,9 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="11" t="str">
         <f>member!A83</f>
         <v>新</v>
@@ -30536,8 +30714,9 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="str">
         <f>member!A84</f>
         <v>新</v>
@@ -30559,8 +30738,9 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="11" t="str">
         <f>member!A85</f>
         <v>新</v>
@@ -30582,8 +30762,9 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="str">
         <f>member!A86</f>
         <v>新</v>
@@ -30605,8 +30786,9 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="11" t="str">
         <f>member!A87</f>
         <v>新</v>
@@ -30628,8 +30810,9 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="str">
         <f>member!A88</f>
         <v>新</v>
@@ -30651,8 +30834,9 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="11" t="str">
         <f>member!A89</f>
         <v>新</v>
@@ -30674,8 +30858,9 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="11" t="str">
         <f>member!A90</f>
         <v>新</v>
@@ -30697,8 +30882,9 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="11" t="str">
         <f>member!A91</f>
         <v>新</v>
@@ -30720,8 +30906,9 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="11" t="str">
         <f>member!A92</f>
         <v>新</v>
@@ -30743,8 +30930,9 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="11" t="str">
         <f>member!A93</f>
         <v>新</v>
@@ -30766,8 +30954,9 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="11" t="str">
         <f>member!A94</f>
         <v>新</v>
@@ -30789,8 +30978,9 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="str">
         <f>member!A95</f>
         <v>新</v>
@@ -30812,8 +31002,9 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="11" t="str">
         <f>member!A96</f>
         <v>新</v>
@@ -30835,8 +31026,9 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="str">
         <f>member!A97</f>
         <v>新</v>
@@ -30858,8 +31050,9 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="11" t="str">
         <f>member!A98</f>
         <v>新</v>
@@ -30881,8 +31074,9 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="str">
         <f>member!A99</f>
         <v>新</v>
@@ -30904,8 +31098,9 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" s="11" t="str">
         <f>member!A100</f>
         <v>新</v>
@@ -30927,6 +31122,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="127">
   <si>
     <t>守候幸福</t>
   </si>
@@ -218,10 +218,6 @@
   </si>
   <si>
     <t>2/7/2012(罚)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/9/2012(扣)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -508,6 +504,17 @@
   <si>
     <t>16 * 25 - 345 拂晓垫付，刀给拂晓345，幸福给刀25（马其他缴纳）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/31/2012(罚),5/22/2012(罚)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/9/2012(扣),5/22/2012(罚)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/22/2012(罚)</t>
   </si>
 </sst>
 </file>
@@ -996,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1010,28 +1017,28 @@
     <col min="6" max="7" width="9.5" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="19"/>
     <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16383" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="23"/>
       <c r="B1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>62</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>48</v>
@@ -1077,7 +1084,7 @@
       </c>
       <c r="I2" s="38">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J2" s="39"/>
     </row>
@@ -1101,7 +1108,7 @@
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="40">
         <f>G2+H2</f>
@@ -17590,8 +17597,12 @@
         <v>26.327742433005596</v>
       </c>
       <c r="H10" s="18"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="11" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
@@ -17713,10 +17724,10 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:16383" x14ac:dyDescent="0.15">
@@ -17750,7 +17761,7 @@
     </row>
     <row r="16" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="39">
         <f>'201202'!B16+'201203'!B16+'201204'!B16+'201205'!B16+'201206'!B16+'201207'!B16+'201208'!B16+'201209'!B16+'201210'!B16+'201211'!B16+'201212'!B16</f>
@@ -17779,7 +17790,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="39">
         <f>'201202'!B17+'201203'!B17+'201204'!B17+'201205'!B17+'201206'!B17+'201207'!B17+'201208'!B17+'201209'!B17+'201210'!B17+'201211'!B17+'201212'!B17</f>
@@ -17872,7 +17883,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="39">
         <f>'201202'!B20+'201203'!B20+'201204'!B20+'201205'!B20+'201206'!B20+'201207'!B20+'201208'!B20+'201209'!B20+'201210'!B20+'201211'!B20+'201212'!B20</f>
@@ -17932,7 +17943,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="39">
         <f>'201202'!B22+'201203'!B22+'201204'!B22+'201205'!B22+'201206'!B22+'201207'!B22+'201208'!B22+'201209'!B22+'201210'!B22+'201211'!B22+'201212'!B22</f>
@@ -17994,7 +18005,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="39">
         <f>'201202'!B24+'201203'!B24+'201204'!B24+'201205'!B24+'201206'!B24+'201207'!B24+'201208'!B24+'201209'!B24+'201210'!B24+'201211'!B24+'201212'!B24</f>
@@ -18024,7 +18035,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -18120,7 +18131,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="39">
         <f>'201202'!B28+'201203'!B28+'201204'!B28+'201205'!B28+'201206'!B28+'201207'!B28+'201208'!B28+'201209'!B28+'201210'!B28+'201211'!B28+'201212'!B28</f>
@@ -18151,7 +18162,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="39">
         <f>'201202'!B29+'201203'!B29+'201204'!B29+'201205'!B29+'201206'!B29+'201207'!B29+'201208'!B29+'201209'!B29+'201210'!B29+'201211'!B29+'201212'!B29</f>
@@ -18182,7 +18193,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="39">
         <f>'201202'!B30+'201203'!B30+'201204'!B30+'201205'!B30+'201206'!B30+'201207'!B30+'201208'!B30+'201209'!B30+'201210'!B30+'201211'!B30+'201212'!B30</f>
@@ -18242,7 +18253,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="39">
         <f>'201202'!B32+'201203'!B32+'201204'!B32+'201205'!B32+'201206'!B32+'201207'!B32+'201208'!B32+'201209'!B32+'201210'!B32+'201211'!B32+'201212'!B32</f>
@@ -18304,7 +18315,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="39">
         <f>'201202'!B34+'201203'!B34+'201204'!B34+'201205'!B34+'201206'!B34+'201207'!B34+'201208'!B34+'201209'!B34+'201210'!B34+'201211'!B34+'201212'!B34</f>
@@ -18364,7 +18375,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="39">
         <f>'201202'!B36+'201203'!B36+'201204'!B36+'201205'!B36+'201206'!B36+'201207'!B36+'201208'!B36+'201209'!B36+'201210'!B36+'201211'!B36+'201212'!B36</f>
@@ -18393,7 +18404,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="39">
         <f>'201202'!B37+'201203'!B37+'201204'!B37+'201205'!B37+'201206'!B37+'201207'!B37+'201208'!B37+'201209'!B37+'201210'!B37+'201211'!B37+'201212'!B37</f>
@@ -18539,12 +18550,12 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="39">
         <f>'201202'!B42+'201203'!B42+'201204'!B42+'201205'!B42+'201206'!B42+'201207'!B42+'201208'!B42+'201209'!B42+'201210'!B42+'201211'!B42+'201212'!B42</f>
@@ -18699,7 +18710,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="39">
         <f>'201202'!B47+'201203'!B47+'201204'!B47+'201205'!B47+'201206'!B47+'201207'!B47+'201208'!B47+'201209'!B47+'201210'!B47+'201211'!B47+'201212'!B47</f>
@@ -18728,7 +18739,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="39">
         <f>'201202'!B48+'201203'!B48+'201204'!B48+'201205'!B48+'201206'!B48+'201207'!B48+'201208'!B48+'201209'!B48+'201210'!B48+'201211'!B48+'201212'!B48</f>
@@ -18786,15 +18797,15 @@
         <v>10</v>
       </c>
       <c r="I49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="39">
         <f>'201202'!B50+'201203'!B50+'201204'!B50+'201205'!B50+'201206'!B50+'201207'!B50+'201208'!B50+'201209'!B50+'201210'!B50+'201211'!B50+'201212'!B50</f>
@@ -18885,7 +18896,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" s="39">
         <f>'201202'!B53+'201203'!B53+'201204'!B53+'201205'!B53+'201206'!B53+'201207'!B53+'201208'!B53+'201209'!B53+'201210'!B53+'201211'!B53+'201212'!B53</f>
@@ -19003,7 +19014,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="39">
         <f>'201202'!B57+'201203'!B57+'201204'!B57+'201205'!B57+'201206'!B57+'201207'!B57+'201208'!B57+'201209'!B57+'201210'!B57+'201211'!B57+'201212'!B57</f>
@@ -19032,7 +19043,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="39">
         <f>'201202'!B58+'201203'!B58+'201204'!B58+'201205'!B58+'201206'!B58+'201207'!B58+'201208'!B58+'201209'!B58+'201210'!B58+'201211'!B58+'201212'!B58</f>
@@ -19063,7 +19074,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="39">
         <f>'201202'!B59+'201203'!B59+'201204'!B59+'201205'!B59+'201206'!B59+'201207'!B59+'201208'!B59+'201209'!B59+'201210'!B59+'201211'!B59+'201212'!B59</f>
@@ -19092,7 +19103,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B60" s="39">
         <f>'201202'!B60+'201203'!B60+'201204'!B60+'201205'!B60+'201206'!B60+'201207'!B60+'201208'!B60+'201209'!B60+'201210'!B60+'201211'!B60+'201212'!B60</f>
@@ -19121,7 +19132,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B61" s="39">
         <f>'201202'!B61+'201203'!B61+'201204'!B61+'201205'!B61+'201206'!B61+'201207'!B61+'201208'!B61+'201209'!B61+'201210'!B61+'201211'!B61+'201212'!B61</f>
@@ -19150,7 +19161,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B62" s="39">
         <f>'201202'!B62+'201203'!B62+'201204'!B62+'201205'!B62+'201206'!B62+'201207'!B62+'201208'!B62+'201209'!B62+'201210'!B62+'201211'!B62+'201212'!B62</f>
@@ -19179,7 +19190,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" s="39">
         <f>'201202'!B63+'201203'!B63+'201204'!B63+'201205'!B63+'201206'!B63+'201207'!B63+'201208'!B63+'201209'!B63+'201210'!B63+'201211'!B63+'201212'!B63</f>
@@ -19208,7 +19219,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" s="39">
         <f>'201202'!B64+'201203'!B64+'201204'!B64+'201205'!B64+'201206'!B64+'201207'!B64+'201208'!B64+'201209'!B64+'201210'!B64+'201211'!B64+'201212'!B64</f>
@@ -19237,7 +19248,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" s="39">
         <f>'201202'!B65+'201203'!B65+'201204'!B65+'201205'!B65+'201206'!B65+'201207'!B65+'201208'!B65+'201209'!B65+'201210'!B65+'201211'!B65+'201212'!B65</f>
@@ -19266,7 +19277,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" s="39">
         <f>'201202'!B66+'201203'!B66+'201204'!B66+'201205'!B66+'201206'!B66+'201207'!B66+'201208'!B66+'201209'!B66+'201210'!B66+'201211'!B66+'201212'!B66</f>
@@ -19295,7 +19306,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="39">
         <f>'201202'!B67+'201203'!B67+'201204'!B67+'201205'!B67+'201206'!B67+'201207'!B67+'201208'!B67+'201209'!B67+'201210'!B67+'201211'!B67+'201212'!B67</f>
@@ -19324,7 +19335,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" s="39">
         <f>'201202'!B68+'201203'!B68+'201204'!B68+'201205'!B68+'201206'!B68+'201207'!B68+'201208'!B68+'201209'!B68+'201210'!B68+'201211'!B68+'201212'!B68</f>
@@ -19353,7 +19364,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B69" s="39">
         <f>'201202'!B69+'201203'!B69+'201204'!B69+'201205'!B69+'201206'!B69+'201207'!B69+'201208'!B69+'201209'!B69+'201210'!B69+'201211'!B69+'201212'!B69</f>
@@ -19382,7 +19393,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" s="39">
         <f>'201202'!B70+'201203'!B70+'201204'!B70+'201205'!B70+'201206'!B70+'201207'!B70+'201208'!B70+'201209'!B70+'201210'!B70+'201211'!B70+'201212'!B70</f>
@@ -19411,7 +19422,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71" s="39">
         <f>'201202'!B71+'201203'!B71+'201204'!B71+'201205'!B71+'201206'!B71+'201207'!B71+'201208'!B71+'201209'!B71+'201210'!B71+'201211'!B71+'201212'!B71</f>
@@ -19440,7 +19451,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B72" s="39">
         <f>'201202'!B72+'201203'!B72+'201204'!B72+'201205'!B72+'201206'!B72+'201207'!B72+'201208'!B72+'201209'!B72+'201210'!B72+'201211'!B72+'201212'!B72</f>
@@ -19469,7 +19480,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" s="39">
         <f>'201202'!B73+'201203'!B73+'201204'!B73+'201205'!B73+'201206'!B73+'201207'!B73+'201208'!B73+'201209'!B73+'201210'!B73+'201211'!B73+'201212'!B73</f>
@@ -19498,7 +19509,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B74" s="39">
         <f>'201202'!B74+'201203'!B74+'201204'!B74+'201205'!B74+'201206'!B74+'201207'!B74+'201208'!B74+'201209'!B74+'201210'!B74+'201211'!B74+'201212'!B74</f>
@@ -19527,7 +19538,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" s="39">
         <f>'201202'!B75+'201203'!B75+'201204'!B75+'201205'!B75+'201206'!B75+'201207'!B75+'201208'!B75+'201209'!B75+'201210'!B75+'201211'!B75+'201212'!B75</f>
@@ -19556,7 +19567,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B76" s="39">
         <f>'201202'!B76+'201203'!B76+'201204'!B76+'201205'!B76+'201206'!B76+'201207'!B76+'201208'!B76+'201209'!B76+'201210'!B76+'201211'!B76+'201212'!B76</f>
@@ -19585,7 +19596,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B77" s="39">
         <f>'201202'!B77+'201203'!B77+'201204'!B77+'201205'!B77+'201206'!B77+'201207'!B77+'201208'!B77+'201209'!B77+'201210'!B77+'201211'!B77+'201212'!B77</f>
@@ -19614,7 +19625,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78" s="39">
         <f>'201202'!B78+'201203'!B78+'201204'!B78+'201205'!B78+'201206'!B78+'201207'!B78+'201208'!B78+'201209'!B78+'201210'!B78+'201211'!B78+'201212'!B78</f>
@@ -19643,7 +19654,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B79" s="39">
         <f>'201202'!B79+'201203'!B79+'201204'!B79+'201205'!B79+'201206'!B79+'201207'!B79+'201208'!B79+'201209'!B79+'201210'!B79+'201211'!B79+'201212'!B79</f>
@@ -19672,7 +19683,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80" s="39">
         <f>'201202'!B80+'201203'!B80+'201204'!B80+'201205'!B80+'201206'!B80+'201207'!B80+'201208'!B80+'201209'!B80+'201210'!B80+'201211'!B80+'201212'!B80</f>
@@ -19701,7 +19712,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81" s="39">
         <f>'201202'!B81+'201203'!B81+'201204'!B81+'201205'!B81+'201206'!B81+'201207'!B81+'201208'!B81+'201209'!B81+'201210'!B81+'201211'!B81+'201212'!B81</f>
@@ -19730,7 +19741,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B82" s="39">
         <f>'201202'!B82+'201203'!B82+'201204'!B82+'201205'!B82+'201206'!B82+'201207'!B82+'201208'!B82+'201209'!B82+'201210'!B82+'201211'!B82+'201212'!B82</f>
@@ -19759,7 +19770,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B83" s="39">
         <f>'201202'!B83+'201203'!B83+'201204'!B83+'201205'!B83+'201206'!B83+'201207'!B83+'201208'!B83+'201209'!B83+'201210'!B83+'201211'!B83+'201212'!B83</f>
@@ -19788,7 +19799,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B84" s="39">
         <f>'201202'!B84+'201203'!B84+'201204'!B84+'201205'!B84+'201206'!B84+'201207'!B84+'201208'!B84+'201209'!B84+'201210'!B84+'201211'!B84+'201212'!B84</f>
@@ -19817,7 +19828,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B85" s="39">
         <f>'201202'!B85+'201203'!B85+'201204'!B85+'201205'!B85+'201206'!B85+'201207'!B85+'201208'!B85+'201209'!B85+'201210'!B85+'201211'!B85+'201212'!B85</f>
@@ -19846,7 +19857,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B86" s="39">
         <f>'201202'!B86+'201203'!B86+'201204'!B86+'201205'!B86+'201206'!B86+'201207'!B86+'201208'!B86+'201209'!B86+'201210'!B86+'201211'!B86+'201212'!B86</f>
@@ -19875,7 +19886,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B87" s="39">
         <f>'201202'!B87+'201203'!B87+'201204'!B87+'201205'!B87+'201206'!B87+'201207'!B87+'201208'!B87+'201209'!B87+'201210'!B87+'201211'!B87+'201212'!B87</f>
@@ -19904,7 +19915,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" s="39">
         <f>'201202'!B88+'201203'!B88+'201204'!B88+'201205'!B88+'201206'!B88+'201207'!B88+'201208'!B88+'201209'!B88+'201210'!B88+'201211'!B88+'201212'!B88</f>
@@ -19933,7 +19944,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B89" s="39">
         <f>'201202'!B89+'201203'!B89+'201204'!B89+'201205'!B89+'201206'!B89+'201207'!B89+'201208'!B89+'201209'!B89+'201210'!B89+'201211'!B89+'201212'!B89</f>
@@ -19962,7 +19973,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B90" s="39">
         <f>'201202'!B90+'201203'!B90+'201204'!B90+'201205'!B90+'201206'!B90+'201207'!B90+'201208'!B90+'201209'!B90+'201210'!B90+'201211'!B90+'201212'!B90</f>
@@ -19991,7 +20002,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B91" s="39">
         <f>'201202'!B91+'201203'!B91+'201204'!B91+'201205'!B91+'201206'!B91+'201207'!B91+'201208'!B91+'201209'!B91+'201210'!B91+'201211'!B91+'201212'!B91</f>
@@ -20020,7 +20031,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B92" s="39">
         <f>'201202'!B92+'201203'!B92+'201204'!B92+'201205'!B92+'201206'!B92+'201207'!B92+'201208'!B92+'201209'!B92+'201210'!B92+'201211'!B92+'201212'!B92</f>
@@ -20049,7 +20060,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B93" s="39">
         <f>'201202'!B93+'201203'!B93+'201204'!B93+'201205'!B93+'201206'!B93+'201207'!B93+'201208'!B93+'201209'!B93+'201210'!B93+'201211'!B93+'201212'!B93</f>
@@ -20078,7 +20089,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94" s="39">
         <f>'201202'!B94+'201203'!B94+'201204'!B94+'201205'!B94+'201206'!B94+'201207'!B94+'201208'!B94+'201209'!B94+'201210'!B94+'201211'!B94+'201212'!B94</f>
@@ -20107,7 +20118,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B95" s="39">
         <f>'201202'!B95+'201203'!B95+'201204'!B95+'201205'!B95+'201206'!B95+'201207'!B95+'201208'!B95+'201209'!B95+'201210'!B95+'201211'!B95+'201212'!B95</f>
@@ -20136,7 +20147,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96" s="39">
         <f>'201202'!B96+'201203'!B96+'201204'!B96+'201205'!B96+'201206'!B96+'201207'!B96+'201208'!B96+'201209'!B96+'201210'!B96+'201211'!B96+'201212'!B96</f>
@@ -20165,7 +20176,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97" s="39">
         <f>'201202'!B97+'201203'!B97+'201204'!B97+'201205'!B97+'201206'!B97+'201207'!B97+'201208'!B97+'201209'!B97+'201210'!B97+'201211'!B97+'201212'!B97</f>
@@ -20194,7 +20205,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" s="39">
         <f>'201202'!B98+'201203'!B98+'201204'!B98+'201205'!B98+'201206'!B98+'201207'!B98+'201208'!B98+'201209'!B98+'201210'!B98+'201211'!B98+'201212'!B98</f>
@@ -20223,7 +20234,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" s="39">
         <f>'201202'!B99+'201203'!B99+'201204'!B99+'201205'!B99+'201206'!B99+'201207'!B99+'201208'!B99+'201209'!B99+'201210'!B99+'201211'!B99+'201212'!B99</f>
@@ -20252,7 +20263,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100" s="39">
         <f>'201202'!B100+'201203'!B100+'201204'!B100+'201205'!B100+'201206'!B100+'201207'!B100+'201208'!B100+'201209'!B100+'201210'!B100+'201211'!B100+'201212'!B100</f>
@@ -20549,7 +20560,7 @@
         <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -20581,7 +20592,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -20598,7 +20609,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -20615,7 +20626,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -20632,7 +20643,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -20655,7 +20666,7 @@
         <v>40990</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1">
         <v>30</v>
@@ -20670,7 +20681,7 @@
         <v>40990</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1">
         <v>-60</v>
@@ -20679,7 +20690,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -20711,7 +20722,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -20728,7 +20739,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -20745,7 +20756,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -20762,7 +20773,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -20779,7 +20790,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -20796,7 +20807,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -20813,7 +20824,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -20830,7 +20841,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -20847,7 +20858,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -20864,7 +20875,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -20881,7 +20892,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -20898,7 +20909,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -20915,7 +20926,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -20932,7 +20943,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -20949,7 +20960,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -20966,7 +20977,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -20983,7 +20994,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -21000,7 +21011,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -21017,7 +21028,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -21034,7 +21045,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -21051,7 +21062,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -21068,7 +21079,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -21085,7 +21096,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -21102,7 +21113,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -21119,7 +21130,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -21136,7 +21147,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -498,14 +498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退尚 活 明 神 菜 虫 小磊 刀 福 超 盟 亚 smile 更心 清 15×25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 * 25 - 345 拂晓垫付，刀给拂晓345，幸福给刀25（马其他缴纳）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3/31/2012(罚),5/22/2012(罚)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,6 +507,14 @@
   </si>
   <si>
     <t>5/22/2012(罚)</t>
+  </si>
+  <si>
+    <t>16 * 25 - 345 拂晓垫付，刀给拂晓320，幸福给刀25（马其他缴纳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退尚 活 明 神 菜 虫 小磊 福 超 盟 亚 smile 更心 清 14×25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1072,11 +1072,11 @@
       </c>
       <c r="F2" s="36">
         <f t="shared" si="0"/>
-        <v>1475</v>
+        <v>1440</v>
       </c>
       <c r="G2" s="38">
         <f t="shared" si="0"/>
-        <v>1351.0000000000007</v>
+        <v>1386.0000000000007</v>
       </c>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="H4" s="40">
         <f>G2+H2</f>
-        <v>1381.0000000000007</v>
+        <v>1416.0000000000007</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
@@ -17601,7 +17601,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:16383" x14ac:dyDescent="0.15">
@@ -17685,11 +17685,11 @@
         <v>110.47159163935478</v>
       </c>
       <c r="F13" s="18">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="G13" s="36">
         <f t="shared" si="2"/>
-        <v>-4.5284083606452157</v>
+        <v>30.471591639354784</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="1"/>
@@ -17727,7 +17727,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:16383" x14ac:dyDescent="0.15">
@@ -18800,7 +18800,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -20398,8 +20398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21130,7 +21130,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -21141,13 +21141,13 @@
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -21164,7 +21164,7 @@
       <c r="B47" s="39"/>
       <c r="C47" s="39">
         <f>SUM(C2:C46)</f>
-        <v>2435</v>
+        <v>2410</v>
       </c>
       <c r="D47" s="39"/>
       <c r="E47" s="39"/>
@@ -28446,8 +28446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="130">
   <si>
     <t>守候幸福</t>
   </si>
@@ -516,6 +516,18 @@
     <t>退尚 活 明 神 菜 虫 小磊 福 超 盟 亚 smile 更心 清 14×25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>18 * 20 - 345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退A 笑 刀 正 更 腿 虫 晓 活 豆 北 超 小磊 狐 马 15×20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈磊，刀哥各10块，蚕豆5块（从剩余费用里扣）， 2012-5-22罚款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1003,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1056,31 +1068,31 @@
       </c>
       <c r="B2" s="37">
         <f t="shared" ref="B2:I2" si="0">SUM(B9:B100)</f>
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="C2" s="36">
         <f t="shared" si="0"/>
-        <v>12910</v>
+        <v>13240</v>
       </c>
       <c r="D2" s="38">
         <f t="shared" si="0"/>
-        <v>3264.9999999999991</v>
+        <v>3249.9999999999995</v>
       </c>
       <c r="E2" s="36">
         <f t="shared" si="0"/>
-        <v>2825.9999999999991</v>
+        <v>2793.9999999999986</v>
       </c>
       <c r="F2" s="36">
         <f t="shared" si="0"/>
-        <v>1440</v>
+        <v>1745</v>
       </c>
       <c r="G2" s="38">
         <f t="shared" si="0"/>
-        <v>1386.0000000000007</v>
+        <v>1048.9999999999998</v>
       </c>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I2" s="38">
         <f t="shared" si="0"/>
@@ -1112,7 +1124,7 @@
       </c>
       <c r="H4" s="40">
         <f>G2+H2</f>
-        <v>1416.0000000000007</v>
+        <v>1103.9999999999998</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
@@ -17552,18 +17564,18 @@
       </c>
       <c r="D9" s="36">
         <f>'201202'!D9+'201203'!D9+'201204'!D9+'201205'!D9+'201206'!D9+'201207'!D9+'201208'!D9+'201209'!D9+'201210'!D9+'201211'!D9+'201212'!D9</f>
-        <v>67.832140447272025</v>
+        <v>66.837988400488399</v>
       </c>
       <c r="E9" s="36">
         <f t="shared" ref="E9:E40" si="1">D9-B9</f>
-        <v>57.832140447272025</v>
+        <v>56.837988400488399</v>
       </c>
       <c r="F9" s="18">
         <v>55</v>
       </c>
       <c r="G9" s="36">
         <f t="shared" ref="G9:G40" si="2">E9-F9</f>
-        <v>2.8321404472720246</v>
+        <v>1.8379884004883991</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="1"/>
@@ -17575,28 +17587,30 @@
       </c>
       <c r="B10" s="39">
         <f>'201202'!B10+'201203'!B10+'201204'!B10+'201205'!B10+'201206'!B10+'201207'!B10+'201208'!B10+'201209'!B10+'201210'!B10+'201211'!B10+'201212'!B10</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="36">
         <f>'201202'!C10+'201203'!C10+'201204'!C10+'201205'!C10+'201206'!C10+'201207'!C10+'201208'!C10+'201209'!C10+'201210'!C10+'201211'!C10+'201212'!C10</f>
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="D10" s="36">
         <f>'201202'!D10+'201203'!D10+'201204'!D10+'201205'!D10+'201206'!D10+'201207'!D10+'201208'!D10+'201209'!D10+'201210'!D10+'201211'!D10+'201212'!D10</f>
-        <v>192.3277424330056</v>
+        <v>192.16692371955529</v>
       </c>
       <c r="E10" s="36">
         <f t="shared" si="1"/>
-        <v>166.3277424330056</v>
+        <v>165.16692371955529</v>
       </c>
       <c r="F10" s="18">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="G10" s="36">
         <f t="shared" si="2"/>
-        <v>26.327742433005596</v>
-      </c>
-      <c r="H10" s="18"/>
+        <v>5.1669237195552853</v>
+      </c>
+      <c r="H10" s="18">
+        <v>10</v>
+      </c>
       <c r="I10" s="1">
         <v>1</v>
       </c>
@@ -17610,26 +17624,26 @@
       </c>
       <c r="B11" s="39">
         <f>'201202'!B11+'201203'!B11+'201204'!B11+'201205'!B11+'201206'!B11+'201207'!B11+'201208'!B11+'201209'!B11+'201210'!B11+'201211'!B11+'201212'!B11</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="36">
         <f>'201202'!C11+'201203'!C11+'201204'!C11+'201205'!C11+'201206'!C11+'201207'!C11+'201208'!C11+'201209'!C11+'201210'!C11+'201211'!C11+'201212'!C11</f>
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D11" s="36">
         <f>'201202'!D11+'201203'!D11+'201204'!D11+'201205'!D11+'201206'!D11+'201207'!D11+'201208'!D11+'201209'!D11+'201210'!D11+'201211'!D11+'201212'!D11</f>
-        <v>180.84766001542314</v>
+        <v>180.68684130197283</v>
       </c>
       <c r="E11" s="36">
         <f t="shared" si="1"/>
-        <v>154.84766001542314</v>
+        <v>153.68684130197283</v>
       </c>
       <c r="F11" s="18">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G11" s="36">
         <f t="shared" si="2"/>
-        <v>49.847660015423145</v>
+        <v>28.686841301972834</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="1"/>
@@ -17670,26 +17684,26 @@
       </c>
       <c r="B13" s="39">
         <f>'201202'!B13+'201203'!B13+'201204'!B13+'201205'!B13+'201206'!B13+'201207'!B13+'201208'!B13+'201209'!B13+'201210'!B13+'201211'!B13+'201212'!B13</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="36">
         <f>'201202'!C13+'201203'!C13+'201204'!C13+'201205'!C13+'201206'!C13+'201207'!C13+'201208'!C13+'201209'!C13+'201210'!C13+'201211'!C13+'201212'!C13</f>
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="D13" s="36">
         <f>'201202'!D13+'201203'!D13+'201204'!D13+'201205'!D13+'201206'!D13+'201207'!D13+'201208'!D13+'201209'!D13+'201210'!D13+'201211'!D13+'201212'!D13</f>
-        <v>130.47159163935478</v>
+        <v>130.31077292590447</v>
       </c>
       <c r="E13" s="36">
         <f t="shared" si="1"/>
-        <v>110.47159163935478</v>
+        <v>109.31077292590447</v>
       </c>
       <c r="F13" s="18">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G13" s="36">
         <f t="shared" si="2"/>
-        <v>30.471591639354784</v>
+        <v>9.3107729259044731</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="1"/>
@@ -17701,28 +17715,30 @@
       </c>
       <c r="B14" s="39">
         <f>'201202'!B14+'201203'!B14+'201204'!B14+'201205'!B14+'201206'!B14+'201207'!B14+'201208'!B14+'201209'!B14+'201210'!B14+'201211'!B14+'201212'!B14</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="36">
         <f>'201202'!C14+'201203'!C14+'201204'!C14+'201205'!C14+'201206'!C14+'201207'!C14+'201208'!C14+'201209'!C14+'201210'!C14+'201211'!C14+'201212'!C14</f>
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="D14" s="36">
         <f>'201202'!D14+'201203'!D14+'201204'!D14+'201205'!D14+'201206'!D14+'201207'!D14+'201208'!D14+'201209'!D14+'201210'!D14+'201211'!D14+'201212'!D14</f>
-        <v>193.09697320223637</v>
+        <v>192.93615448878606</v>
       </c>
       <c r="E14" s="36">
         <f t="shared" si="1"/>
-        <v>166.09697320223637</v>
+        <v>164.93615448878606</v>
       </c>
       <c r="F14" s="18">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G14" s="36">
         <f t="shared" si="2"/>
-        <v>86.09697320223637</v>
-      </c>
-      <c r="H14" s="18"/>
+        <v>59.936154488786059</v>
+      </c>
+      <c r="H14" s="18">
+        <v>5</v>
+      </c>
       <c r="I14" s="1">
         <v>2</v>
       </c>
@@ -17825,26 +17841,26 @@
       </c>
       <c r="B18" s="39">
         <f>'201202'!B18+'201203'!B18+'201204'!B18+'201205'!B18+'201206'!B18+'201207'!B18+'201208'!B18+'201209'!B18+'201210'!B18+'201211'!B18+'201212'!B18</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="36">
         <f>'201202'!C18+'201203'!C18+'201204'!C18+'201205'!C18+'201206'!C18+'201207'!C18+'201208'!C18+'201209'!C18+'201210'!C18+'201211'!C18+'201212'!C18</f>
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="D18" s="36">
         <f>'201202'!D18+'201203'!D18+'201204'!D18+'201205'!D18+'201206'!D18+'201207'!D18+'201208'!D18+'201209'!D18+'201210'!D18+'201211'!D18+'201212'!D18</f>
-        <v>76.920586723218292</v>
+        <v>77.753920056551635</v>
       </c>
       <c r="E18" s="36">
         <f t="shared" si="1"/>
-        <v>66.920586723218292</v>
+        <v>66.753920056551635</v>
       </c>
       <c r="F18" s="18">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G18" s="36">
         <f t="shared" si="2"/>
-        <v>16.920586723218292</v>
+        <v>-3.2460799434483647</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="1"/>
@@ -17856,26 +17872,26 @@
       </c>
       <c r="B19" s="39">
         <f>'201202'!B19+'201203'!B19+'201204'!B19+'201205'!B19+'201206'!B19+'201207'!B19+'201208'!B19+'201209'!B19+'201210'!B19+'201211'!B19+'201212'!B19</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="36">
         <f>'201202'!C19+'201203'!C19+'201204'!C19+'201205'!C19+'201206'!C19+'201207'!C19+'201208'!C19+'201209'!C19+'201210'!C19+'201211'!C19+'201212'!C19</f>
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="D19" s="36">
         <f>'201202'!D19+'201203'!D19+'201204'!D19+'201205'!D19+'201206'!D19+'201207'!D19+'201208'!D19+'201209'!D19+'201210'!D19+'201211'!D19+'201212'!D19</f>
-        <v>124.41967097230255</v>
+        <v>125.25300430563588</v>
       </c>
       <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v>106.41967097230255</v>
+        <v>106.25300430563588</v>
       </c>
       <c r="F19" s="18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G19" s="36">
         <f t="shared" si="2"/>
-        <v>76.419670972302555</v>
+        <v>56.253004305635883</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="1"/>
@@ -17887,24 +17903,26 @@
       </c>
       <c r="B20" s="39">
         <f>'201202'!B20+'201203'!B20+'201204'!B20+'201205'!B20+'201206'!B20+'201207'!B20+'201208'!B20+'201209'!B20+'201210'!B20+'201211'!B20+'201212'!B20</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="36">
         <f>'201202'!C20+'201203'!C20+'201204'!C20+'201205'!C20+'201206'!C20+'201207'!C20+'201208'!C20+'201209'!C20+'201210'!C20+'201211'!C20+'201212'!C20</f>
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D20" s="36">
         <f>'201202'!D20+'201203'!D20+'201204'!D20+'201205'!D20+'201206'!D20+'201207'!D20+'201208'!D20+'201209'!D20+'201210'!D20+'201211'!D20+'201212'!D20</f>
-        <v>21.504884004884005</v>
+        <v>22.338217338217337</v>
       </c>
       <c r="E20" s="36">
         <f t="shared" si="1"/>
-        <v>17.504884004884005</v>
-      </c>
-      <c r="F20" s="18"/>
+        <v>17.338217338217337</v>
+      </c>
+      <c r="F20" s="18">
+        <v>20</v>
+      </c>
       <c r="G20" s="36">
         <f t="shared" si="2"/>
-        <v>17.504884004884005</v>
+        <v>-2.661782661782663</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="1"/>
@@ -17924,18 +17942,18 @@
       </c>
       <c r="D21" s="36">
         <f>'201202'!D21+'201203'!D21+'201204'!D21+'201205'!D21+'201206'!D21+'201207'!D21+'201208'!D21+'201209'!D21+'201210'!D21+'201211'!D21+'201212'!D21</f>
-        <v>76.502775367906949</v>
+        <v>75.508623321123324</v>
       </c>
       <c r="E21" s="36">
         <f t="shared" si="1"/>
-        <v>65.502775367906949</v>
+        <v>64.508623321123324</v>
       </c>
       <c r="F21" s="18">
         <v>55</v>
       </c>
       <c r="G21" s="36">
         <f t="shared" si="2"/>
-        <v>10.502775367906949</v>
+        <v>9.5086233211233235</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="1"/>
@@ -18104,26 +18122,26 @@
       </c>
       <c r="B27" s="39">
         <f>'201202'!B27+'201203'!B27+'201204'!B27+'201205'!B27+'201206'!B27+'201207'!B27+'201208'!B27+'201209'!B27+'201210'!B27+'201211'!B27+'201212'!B27</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="36">
         <f>'201202'!C27+'201203'!C27+'201204'!C27+'201205'!C27+'201206'!C27+'201207'!C27+'201208'!C27+'201209'!C27+'201210'!C27+'201211'!C27+'201212'!C27</f>
-        <v>825</v>
+        <v>845</v>
       </c>
       <c r="D27" s="36">
         <f>'201202'!D27+'201203'!D27+'201204'!D27+'201205'!D27+'201206'!D27+'201207'!D27+'201208'!D27+'201209'!D27+'201210'!D27+'201211'!D27+'201212'!D27</f>
-        <v>198.2652424330056</v>
+        <v>198.10442371955529</v>
       </c>
       <c r="E27" s="36">
         <f t="shared" si="1"/>
-        <v>170.2652424330056</v>
+        <v>169.10442371955529</v>
       </c>
       <c r="F27" s="18">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G27" s="36">
         <f t="shared" si="2"/>
-        <v>65.265242433005596</v>
+        <v>44.104423719555285</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="1"/>
@@ -18135,26 +18153,26 @@
       </c>
       <c r="B28" s="39">
         <f>'201202'!B28+'201203'!B28+'201204'!B28+'201205'!B28+'201206'!B28+'201207'!B28+'201208'!B28+'201209'!B28+'201210'!B28+'201211'!B28+'201212'!B28</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="36">
         <f>'201202'!C28+'201203'!C28+'201204'!C28+'201205'!C28+'201206'!C28+'201207'!C28+'201208'!C28+'201209'!C28+'201210'!C28+'201211'!C28+'201212'!C28</f>
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D28" s="36">
         <f>'201202'!D28+'201203'!D28+'201204'!D28+'201205'!D28+'201206'!D28+'201207'!D28+'201208'!D28+'201209'!D28+'201210'!D28+'201211'!D28+'201212'!D28</f>
-        <v>98.382153299916467</v>
+        <v>98.22133458646617</v>
       </c>
       <c r="E28" s="36">
         <f t="shared" si="1"/>
-        <v>87.382153299916467</v>
+        <v>86.22133458646617</v>
       </c>
       <c r="F28" s="18">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G28" s="36">
         <f t="shared" si="2"/>
-        <v>62.382153299916467</v>
+        <v>41.22133458646617</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="1"/>
@@ -18174,18 +18192,18 @@
       </c>
       <c r="D29" s="36">
         <f>'201202'!D29+'201203'!D29+'201204'!D29+'201205'!D29+'201206'!D29+'201207'!D29+'201208'!D29+'201209'!D29+'201210'!D29+'201211'!D29+'201212'!D29</f>
-        <v>80.458437761069334</v>
+        <v>79.464285714285708</v>
       </c>
       <c r="E29" s="36">
         <f t="shared" si="1"/>
-        <v>71.458437761069334</v>
+        <v>70.464285714285708</v>
       </c>
       <c r="F29" s="18">
         <v>50</v>
       </c>
       <c r="G29" s="36">
         <f t="shared" si="2"/>
-        <v>21.458437761069334</v>
+        <v>20.464285714285708</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="1"/>
@@ -18257,26 +18275,26 @@
       </c>
       <c r="B32" s="39">
         <f>'201202'!B32+'201203'!B32+'201204'!B32+'201205'!B32+'201206'!B32+'201207'!B32+'201208'!B32+'201209'!B32+'201210'!B32+'201211'!B32+'201212'!B32</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="36">
         <f>'201202'!C32+'201203'!C32+'201204'!C32+'201205'!C32+'201206'!C32+'201207'!C32+'201208'!C32+'201209'!C32+'201210'!C32+'201211'!C32+'201212'!C32</f>
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D32" s="36">
         <f>'201202'!D32+'201203'!D32+'201204'!D32+'201205'!D32+'201206'!D32+'201207'!D32+'201208'!D32+'201209'!D32+'201210'!D32+'201211'!D32+'201212'!D32</f>
-        <v>58.099415204678351</v>
+        <v>57.938596491228061</v>
       </c>
       <c r="E32" s="36">
         <f t="shared" si="1"/>
-        <v>52.099415204678351</v>
+        <v>50.938596491228061</v>
       </c>
       <c r="F32" s="18">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G32" s="36">
         <f t="shared" si="2"/>
-        <v>32.099415204678351</v>
+        <v>10.938596491228061</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="1"/>
@@ -18288,26 +18306,26 @@
       </c>
       <c r="B33" s="39">
         <f>'201202'!B33+'201203'!B33+'201204'!B33+'201205'!B33+'201206'!B33+'201207'!B33+'201208'!B33+'201209'!B33+'201210'!B33+'201211'!B33+'201212'!B33</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" s="36">
         <f>'201202'!C33+'201203'!C33+'201204'!C33+'201205'!C33+'201206'!C33+'201207'!C33+'201208'!C33+'201209'!C33+'201210'!C33+'201211'!C33+'201212'!C33</f>
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="D33" s="36">
         <f>'201202'!D33+'201203'!D33+'201204'!D33+'201205'!D33+'201206'!D33+'201207'!D33+'201208'!D33+'201209'!D33+'201210'!D33+'201211'!D33+'201212'!D33</f>
-        <v>39.882860195360195</v>
+        <v>40.716193528693523</v>
       </c>
       <c r="E33" s="36">
         <f t="shared" si="1"/>
-        <v>32.882860195360195</v>
+        <v>32.716193528693523</v>
       </c>
       <c r="F33" s="18">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G33" s="36">
         <f t="shared" si="2"/>
-        <v>7.8828601953601947</v>
+        <v>-12.283806471306477</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="1"/>
@@ -18356,18 +18374,18 @@
       </c>
       <c r="D35" s="36">
         <f>'201202'!D35+'201203'!D35+'201204'!D35+'201205'!D35+'201206'!D35+'201207'!D35+'201208'!D35+'201209'!D35+'201210'!D35+'201211'!D35+'201212'!D35</f>
-        <v>140.91939383715697</v>
+        <v>139.92524179037338</v>
       </c>
       <c r="E35" s="36">
         <f t="shared" si="1"/>
-        <v>119.91939383715697</v>
+        <v>118.92524179037338</v>
       </c>
       <c r="F35" s="18">
         <v>105</v>
       </c>
       <c r="G35" s="36">
         <f t="shared" si="2"/>
-        <v>14.919393837156974</v>
+        <v>13.925241790373377</v>
       </c>
       <c r="H35" s="18"/>
       <c r="I35" s="1"/>
@@ -18466,26 +18484,26 @@
       </c>
       <c r="B39" s="39">
         <f>'201202'!B39+'201203'!B39+'201204'!B39+'201205'!B39+'201206'!B39+'201207'!B39+'201208'!B39+'201209'!B39+'201210'!B39+'201211'!B39+'201212'!B39</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" s="36">
         <f>'201202'!C39+'201203'!C39+'201204'!C39+'201205'!C39+'201206'!C39+'201207'!C39+'201208'!C39+'201209'!C39+'201210'!C39+'201211'!C39+'201212'!C39</f>
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="D39" s="36">
         <f>'201202'!D39+'201203'!D39+'201204'!D39+'201205'!D39+'201206'!D39+'201207'!D39+'201208'!D39+'201209'!D39+'201210'!D39+'201211'!D39+'201212'!D39</f>
-        <v>65.555555555555543</v>
+        <v>66.388888888888886</v>
       </c>
       <c r="E39" s="36">
         <f t="shared" si="1"/>
-        <v>56.555555555555543</v>
+        <v>56.388888888888886</v>
       </c>
       <c r="F39" s="18">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G39" s="36">
         <f t="shared" si="2"/>
-        <v>36.555555555555543</v>
+        <v>16.388888888888886</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="1"/>
@@ -18588,24 +18606,26 @@
       </c>
       <c r="B43" s="39">
         <f>'201202'!B43+'201203'!B43+'201204'!B43+'201205'!B43+'201206'!B43+'201207'!B43+'201208'!B43+'201209'!B43+'201210'!B43+'201211'!B43+'201212'!B43</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" s="36">
         <f>'201202'!C43+'201203'!C43+'201204'!C43+'201205'!C43+'201206'!C43+'201207'!C43+'201208'!C43+'201209'!C43+'201210'!C43+'201211'!C43+'201212'!C43</f>
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="D43" s="36">
         <f>'201202'!D43+'201203'!D43+'201204'!D43+'201205'!D43+'201206'!D43+'201207'!D43+'201208'!D43+'201209'!D43+'201210'!D43+'201211'!D43+'201212'!D43</f>
-        <v>62.12968318231475</v>
+        <v>62.963016515648079</v>
       </c>
       <c r="E43" s="36">
         <f t="shared" si="3"/>
-        <v>55.12968318231475</v>
-      </c>
-      <c r="F43" s="18"/>
+        <v>54.963016515648079</v>
+      </c>
+      <c r="F43" s="18">
+        <v>20</v>
+      </c>
       <c r="G43" s="36">
         <f t="shared" si="4"/>
-        <v>55.12968318231475</v>
+        <v>34.963016515648079</v>
       </c>
       <c r="H43" s="18">
         <v>10</v>
@@ -18652,26 +18672,26 @@
       </c>
       <c r="B45" s="39">
         <f>'201202'!B45+'201203'!B45+'201204'!B45+'201205'!B45+'201206'!B45+'201207'!B45+'201208'!B45+'201209'!B45+'201210'!B45+'201211'!B45+'201212'!B45</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" s="36">
         <f>'201202'!C45+'201203'!C45+'201204'!C45+'201205'!C45+'201206'!C45+'201207'!C45+'201208'!C45+'201209'!C45+'201210'!C45+'201211'!C45+'201212'!C45</f>
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D45" s="36">
         <f>'201202'!D45+'201203'!D45+'201204'!D45+'201205'!D45+'201206'!D45+'201207'!D45+'201208'!D45+'201209'!D45+'201210'!D45+'201211'!D45+'201212'!D45</f>
-        <v>41.599893162393158</v>
+        <v>42.433226495726487</v>
       </c>
       <c r="E45" s="36">
         <f t="shared" si="3"/>
-        <v>35.599893162393158</v>
+        <v>35.433226495726487</v>
       </c>
       <c r="F45" s="18">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G45" s="36">
         <f t="shared" si="4"/>
-        <v>15.599893162393158</v>
+        <v>-4.5667735042735131</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="1"/>
@@ -18691,18 +18711,18 @@
       </c>
       <c r="D46" s="36">
         <f>'201202'!D46+'201203'!D46+'201204'!D46+'201205'!D46+'201206'!D46+'201207'!D46+'201208'!D46+'201209'!D46+'201210'!D46+'201211'!D46+'201212'!D46</f>
-        <v>113.53940540453696</v>
+        <v>112.54525335775334</v>
       </c>
       <c r="E46" s="36">
         <f t="shared" si="3"/>
-        <v>97.539405404536964</v>
+        <v>96.545253357753339</v>
       </c>
       <c r="F46" s="18">
         <v>45</v>
       </c>
       <c r="G46" s="36">
         <f t="shared" si="4"/>
-        <v>52.539405404536964</v>
+        <v>51.545253357753339</v>
       </c>
       <c r="H46" s="18"/>
       <c r="I46" s="1"/>
@@ -18772,29 +18792,29 @@
       </c>
       <c r="B49" s="39">
         <f>'201202'!B49+'201203'!B49+'201204'!B49+'201205'!B49+'201206'!B49+'201207'!B49+'201208'!B49+'201209'!B49+'201210'!B49+'201211'!B49+'201212'!B49</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C49" s="36">
         <f>'201202'!C49+'201203'!C49+'201204'!C49+'201205'!C49+'201206'!C49+'201207'!C49+'201208'!C49+'201209'!C49+'201210'!C49+'201211'!C49+'201212'!C49</f>
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="D49" s="36">
         <f>'201202'!D49+'201203'!D49+'201204'!D49+'201205'!D49+'201206'!D49+'201207'!D49+'201208'!D49+'201209'!D49+'201210'!D49+'201211'!D49+'201212'!D49</f>
-        <v>135.42237002763318</v>
+        <v>135.2615513141829</v>
       </c>
       <c r="E49" s="36">
         <f t="shared" si="3"/>
-        <v>117.42237002763318</v>
+        <v>116.2615513141829</v>
       </c>
       <c r="F49" s="18">
         <v>60</v>
       </c>
       <c r="G49" s="36">
         <f t="shared" si="4"/>
-        <v>57.422370027633178</v>
+        <v>56.261551314182896</v>
       </c>
       <c r="H49" s="18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I49" s="1">
         <v>2</v>
@@ -18877,18 +18897,18 @@
       </c>
       <c r="D52" s="36">
         <f>'201202'!D52+'201203'!D52+'201204'!D52+'201205'!D52+'201206'!D52+'201207'!D52+'201208'!D52+'201209'!D52+'201210'!D52+'201211'!D52+'201212'!D52</f>
-        <v>105.84704951481267</v>
+        <v>104.85289746802904</v>
       </c>
       <c r="E52" s="36">
         <f t="shared" si="3"/>
-        <v>90.847049514812667</v>
+        <v>89.852897468029042</v>
       </c>
       <c r="F52" s="18">
         <v>25</v>
       </c>
       <c r="G52" s="36">
         <f t="shared" si="4"/>
-        <v>65.847049514812667</v>
+        <v>64.852897468029042</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="1"/>
@@ -18995,18 +19015,18 @@
       </c>
       <c r="D56" s="36">
         <f>'201202'!D56+'201203'!D56+'201204'!D56+'201205'!D56+'201206'!D56+'201207'!D56+'201208'!D56+'201209'!D56+'201210'!D56+'201211'!D56+'201212'!D56</f>
-        <v>86.198087365850512</v>
+        <v>85.203935319066886</v>
       </c>
       <c r="E56" s="36">
         <f t="shared" si="3"/>
-        <v>75.198087365850512</v>
+        <v>74.203935319066886</v>
       </c>
       <c r="F56" s="18">
         <v>45</v>
       </c>
       <c r="G56" s="36">
         <f t="shared" si="4"/>
-        <v>30.198087365850512</v>
+        <v>29.203935319066886</v>
       </c>
       <c r="H56" s="18"/>
       <c r="I56" s="1"/>
@@ -19047,26 +19067,26 @@
       </c>
       <c r="B58" s="39">
         <f>'201202'!B58+'201203'!B58+'201204'!B58+'201205'!B58+'201206'!B58+'201207'!B58+'201208'!B58+'201209'!B58+'201210'!B58+'201211'!B58+'201212'!B58</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C58" s="36">
         <f>'201202'!C58+'201203'!C58+'201204'!C58+'201205'!C58+'201206'!C58+'201207'!C58+'201208'!C58+'201209'!C58+'201210'!C58+'201211'!C58+'201212'!C58</f>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D58" s="36">
         <f>'201202'!D58+'201203'!D58+'201204'!D58+'201205'!D58+'201206'!D58+'201207'!D58+'201208'!D58+'201209'!D58+'201210'!D58+'201211'!D58+'201212'!D58</f>
-        <v>37.864191729323309</v>
+        <v>37.703373015873012</v>
       </c>
       <c r="E58" s="36">
         <f t="shared" si="3"/>
-        <v>33.864191729323309</v>
+        <v>32.703373015873012</v>
       </c>
       <c r="F58" s="18">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G58" s="36">
         <f t="shared" si="4"/>
-        <v>8.8641917293233092</v>
+        <v>-12.296626984126988</v>
       </c>
       <c r="H58" s="18"/>
       <c r="I58" s="1"/>
@@ -19107,24 +19127,24 @@
       </c>
       <c r="B60" s="39">
         <f>'201202'!B60+'201203'!B60+'201204'!B60+'201205'!B60+'201206'!B60+'201207'!B60+'201208'!B60+'201209'!B60+'201210'!B60+'201211'!B60+'201212'!B60</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="36">
         <f>'201202'!C60+'201203'!C60+'201204'!C60+'201205'!C60+'201206'!C60+'201207'!C60+'201208'!C60+'201209'!C60+'201210'!C60+'201211'!C60+'201212'!C60</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D60" s="36">
         <f>'201202'!D60+'201203'!D60+'201204'!D60+'201205'!D60+'201206'!D60+'201207'!D60+'201208'!D60+'201209'!D60+'201210'!D60+'201211'!D60+'201212'!D60</f>
-        <v>12.105263157894736</v>
+        <v>11.944444444444443</v>
       </c>
       <c r="E60" s="36">
         <f t="shared" si="3"/>
-        <v>11.105263157894736</v>
+        <v>9.9444444444444429</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="36">
         <f t="shared" si="4"/>
-        <v>11.105263157894736</v>
+        <v>9.9444444444444429</v>
       </c>
       <c r="H60" s="18"/>
       <c r="I60" s="1"/>
@@ -19140,20 +19160,20 @@
       </c>
       <c r="C61" s="36">
         <f>'201202'!C61+'201203'!C61+'201204'!C61+'201205'!C61+'201206'!C61+'201207'!C61+'201208'!C61+'201209'!C61+'201210'!C61+'201211'!C61+'201212'!C61</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D61" s="36">
         <f>'201202'!D61+'201203'!D61+'201204'!D61+'201205'!D61+'201206'!D61+'201207'!D61+'201208'!D61+'201209'!D61+'201210'!D61+'201211'!D61+'201212'!D61</f>
-        <v>12.105263157894736</v>
+        <v>0.83333333333333215</v>
       </c>
       <c r="E61" s="36">
         <f t="shared" si="3"/>
-        <v>11.105263157894736</v>
+        <v>-0.16666666666666785</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="36">
         <f t="shared" si="4"/>
-        <v>11.105263157894736</v>
+        <v>-0.16666666666666785</v>
       </c>
       <c r="H61" s="18"/>
       <c r="I61" s="1"/>
@@ -19173,16 +19193,16 @@
       </c>
       <c r="D62" s="36">
         <f>'201202'!D62+'201203'!D62+'201204'!D62+'201205'!D62+'201206'!D62+'201207'!D62+'201208'!D62+'201209'!D62+'201210'!D62+'201211'!D62+'201212'!D62</f>
-        <v>12.105263157894736</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="E62" s="36">
         <f t="shared" si="3"/>
-        <v>11.105263157894736</v>
+        <v>10.111111111111111</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="36">
         <f t="shared" si="4"/>
-        <v>11.105263157894736</v>
+        <v>10.111111111111111</v>
       </c>
       <c r="H62" s="18"/>
       <c r="I62" s="1"/>
@@ -20396,10 +20416,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21151,30 +21171,55 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="A46" s="14">
+        <v>41053</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>15</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39">
-        <f>SUM(C2:C46)</f>
-        <v>2410</v>
-      </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="A47" s="14">
+        <v>41053</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>-300</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="10"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="A48" s="14">
+        <v>41053</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>25</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="10"/>
@@ -21184,11 +21229,16 @@
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="10"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="A50" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39">
+        <f>SUM(C2:C49)</f>
+        <v>2150</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="10"/>
@@ -21196,6 +21246,27 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="10"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="10"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="10"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -26345,7 +26416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
@@ -28444,10 +28515,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="A1:K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28457,10 +28528,10 @@
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="7" t="s">
         <v>35</v>
@@ -28489,14 +28560,17 @@
       <c r="J1" s="5">
         <v>41051</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" s="5">
+        <v>41053</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="33">
         <f>SUM(B9:B100)</f>
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="35"/>
@@ -28514,7 +28588,7 @@
       </c>
       <c r="H2" s="33">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="33">
         <f t="shared" ref="I2:J2" si="2">COUNT(I9:I100)</f>
@@ -28524,8 +28598,12 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2" s="33">
+        <f t="shared" ref="K2" si="3">COUNT(K9:K100)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -28550,43 +28628,50 @@
       <c r="J3" s="20">
         <v>345</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3" s="20">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="34">
         <f>SUM(E4:T4)</f>
-        <v>2980</v>
+        <v>3310</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="32">
-        <f t="shared" ref="E4:F4" si="3">E2*E7</f>
+        <f t="shared" ref="E4:F4" si="4">E2*E7</f>
         <v>480</v>
       </c>
       <c r="F4" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>540</v>
       </c>
       <c r="G4" s="32">
-        <f t="shared" ref="G4:H4" si="4">G2*G7</f>
+        <f t="shared" ref="G4:H4" si="5">G2*G7</f>
         <v>630</v>
       </c>
       <c r="H4" s="32">
-        <f t="shared" si="4"/>
-        <v>570</v>
+        <f t="shared" si="5"/>
+        <v>540</v>
       </c>
       <c r="I4" s="32">
-        <f t="shared" ref="I4:J4" si="5">I2*I7</f>
+        <f t="shared" ref="I4:J4" si="6">I2*I7</f>
         <v>360</v>
       </c>
       <c r="J4" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="32">
+        <f t="shared" ref="K4" si="7">K2*K7</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -28594,34 +28679,38 @@
       <c r="C5" s="34"/>
       <c r="D5" s="35">
         <f>SUM(E5:T5)</f>
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="E5" s="32">
-        <f t="shared" ref="E5:F5" si="6">E4-E3</f>
+        <f t="shared" ref="E5:F5" si="8">E4-E3</f>
         <v>140</v>
       </c>
       <c r="F5" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>195</v>
       </c>
       <c r="G5" s="32">
-        <f t="shared" ref="G5:H5" si="7">G4-G3</f>
+        <f t="shared" ref="G5:H5" si="9">G4-G3</f>
         <v>285</v>
       </c>
       <c r="H5" s="32">
-        <f t="shared" si="7"/>
-        <v>230</v>
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
       <c r="I5" s="32">
-        <f t="shared" ref="I5:J5" si="8">I4-I3</f>
+        <f t="shared" ref="I5:J5" si="10">I4-I3</f>
         <v>15</v>
       </c>
       <c r="J5" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" s="32">
+        <f t="shared" ref="K5" si="11">K4-K3</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -28629,31 +28718,35 @@
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
       <c r="E6" s="32">
-        <f t="shared" ref="E6:F6" si="9">E3/E2</f>
+        <f t="shared" ref="E6:F6" si="12">E3/E2</f>
         <v>21.25</v>
       </c>
       <c r="F6" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>19.166666666666668</v>
       </c>
       <c r="G6" s="32">
-        <f t="shared" ref="G6:H6" si="10">G3/G2</f>
+        <f t="shared" ref="G6:H6" si="13">G3/G2</f>
         <v>16.428571428571427</v>
       </c>
       <c r="H6" s="32">
-        <f t="shared" si="10"/>
-        <v>17.894736842105264</v>
+        <f t="shared" si="13"/>
+        <v>18.888888888888889</v>
       </c>
       <c r="I6" s="32">
-        <f t="shared" ref="I6:J6" si="11">I3/I2</f>
+        <f t="shared" ref="I6:J6" si="14">I3/I2</f>
         <v>19.166666666666668</v>
       </c>
       <c r="J6" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>21.5625</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" s="32">
+        <f t="shared" ref="K6" si="15">K3/K2</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -28678,8 +28771,11 @@
       <c r="J7" s="20">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -28687,37 +28783,41 @@
       <c r="C8" s="34"/>
       <c r="D8" s="36"/>
       <c r="E8" s="32">
-        <f t="shared" ref="E8:F8" si="12">E7-E6</f>
+        <f t="shared" ref="E8:F8" si="16">E7-E6</f>
         <v>8.75</v>
       </c>
       <c r="F8" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>10.833333333333332</v>
       </c>
       <c r="G8" s="32">
-        <f t="shared" ref="G8:H8" si="13">G7-G6</f>
+        <f t="shared" ref="G8:H8" si="17">G7-G6</f>
         <v>13.571428571428573</v>
       </c>
       <c r="H8" s="32">
-        <f t="shared" si="13"/>
-        <v>12.105263157894736</v>
+        <f t="shared" si="17"/>
+        <v>11.111111111111111</v>
       </c>
       <c r="I8" s="32">
-        <f t="shared" ref="I8:J8" si="14">I7-I6</f>
+        <f t="shared" ref="I8:J8" si="18">I7-I6</f>
         <v>0.83333333333333215</v>
       </c>
       <c r="J8" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.4375</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8" s="32">
+        <f t="shared" ref="K8" si="19">K7-K6</f>
+        <v>0.83333333333333215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="str">
         <f>member!A9</f>
         <v>守候幸福</v>
       </c>
       <c r="B9" s="34">
-        <f t="shared" ref="B9:B62" si="15">COUNT(E9:T9)</f>
+        <f t="shared" ref="B9:B62" si="20">COUNT(E9:T9)</f>
         <v>3</v>
       </c>
       <c r="C9" s="34">
@@ -28726,7 +28826,7 @@
       </c>
       <c r="D9" s="36">
         <f>E8*E9+F8*F9+G8*G9+H8*H9+I8*I9+J8*J9+K8*K9+L8*L9+M8*M9+O8*O9+P8*P9+Q8*Q9+R8*R9+S8*S9+T8*T9</f>
-        <v>26.376096491228068</v>
+        <v>25.381944444444443</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
@@ -28740,23 +28840,24 @@
       <c r="J9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="str">
         <f>member!A10</f>
         <v>李一刀</v>
       </c>
       <c r="B10" s="34">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="20"/>
+        <v>6</v>
       </c>
       <c r="C10" s="34">
         <f>E7*E10+F7*F10+G7*G10+H7*H10+I7*I10+J7*J10+K7*K10+L7*L10+M7*M10+N7*N10+O7*O10+P7*P10+Q7*Q10+R7*R10+S7*S10+T7*T10</f>
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D10" s="36">
         <f>E8*E10+F8*F10+G8*G10+H8*H10+I8*I10+J8*J10+K8*K10+L8*L10+M8*M10+O8*O10+P8*P10+Q8*Q10+R8*R10+S8*S10+T8*T10</f>
-        <v>46.093358395989966</v>
+        <v>45.932539682539669</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -28774,23 +28875,26 @@
         <v>1</v>
       </c>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="str">
         <f>member!A11</f>
         <v>咣咣地跟屁蟲</v>
       </c>
       <c r="B11" s="34">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="20"/>
+        <v>6</v>
       </c>
       <c r="C11" s="34">
         <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+N7*N11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D11" s="36">
         <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
-        <v>35.959429824561397</v>
+        <v>35.7986111111111</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -28808,14 +28912,17 @@
       <c r="J11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="str">
         <f>member!A12</f>
         <v>Oo内拉祖里oO</v>
       </c>
       <c r="B12" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C12" s="34">
@@ -28832,23 +28939,24 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="str">
         <f>member!A13</f>
         <v>幸福~拂晓</v>
       </c>
       <c r="B13" s="34">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="20"/>
+        <v>6</v>
       </c>
       <c r="C13" s="34">
         <f>E7*E13+F7*F13+G7*G13+H7*H13+I7*I13+J7*J13+K7*K13+L7*L13+M7*M13+N7*N13+O7*O13+P7*P13+Q7*Q13+R7*R13+S7*S13+T7*T13</f>
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D13" s="36">
         <f>E8*E13+F8*F13+G8*G13+H8*H13+I8*I13+J8*J13+K8*K13+L8*L13+M8*M13+O8*O13+P8*P13+Q8*Q13+R8*R13+S8*S13+T8*T13</f>
-        <v>35.959429824561397</v>
+        <v>35.7986111111111</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -28866,23 +28974,26 @@
       <c r="J13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="str">
         <f>member!A14</f>
         <v>蚕豆</v>
       </c>
       <c r="B14" s="34">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="20"/>
+        <v>6</v>
       </c>
       <c r="C14" s="34">
         <f>E7*E14+F7*F14+G7*G14+H7*H14+I7*I14+J7*J14+K7*K14+L7*L14+M7*M14+N7*N14+O7*O14+P7*P14+Q7*Q14+R7*R14+S7*S14+T7*T14</f>
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D14" s="36">
         <f>E8*E14+F8*F14+G8*G14+H8*H14+I8*I14+J8*J14+K8*K14+L8*L14+M8*M14+O8*O14+P8*P14+Q8*Q14+R8*R14+S8*S14+T8*T14</f>
-        <v>46.093358395989966</v>
+        <v>45.932539682539669</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -28900,14 +29011,17 @@
         <v>1</v>
       </c>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="str">
         <f>member!A15</f>
         <v>who cares?</v>
       </c>
       <c r="B15" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C15" s="34">
@@ -28924,14 +29038,15 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="str">
         <f>member!A16</f>
         <v>幸福~彩票</v>
       </c>
       <c r="B16" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C16" s="34">
@@ -28948,14 +29063,15 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="str">
         <f>member!A17</f>
         <v>清道夫</v>
       </c>
       <c r="B17" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="C17" s="34">
@@ -28978,23 +29094,24 @@
       <c r="J17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="str">
         <f>member!A18</f>
         <v>老A</v>
       </c>
       <c r="B18" s="34">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="20"/>
+        <v>4</v>
       </c>
       <c r="C18" s="34">
         <f>E7*E18+F7*F18+G7*G18+H7*H18+I7*I18+J7*J18+K7*K18+L7*L18+M7*M18+O7*O18+P7*P18+Q7*Q18+R7*R18+S7*S18+T7*T18</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D18" s="36">
         <f>E8*E18+F8*F18+G8*G18+H8*H18+I8*I18+J8*J18+K8*K18+L8*L18+M8*M18+O8*O18+P8*P18+Q8*Q18+R8*R18+S8*S18+T8*T18</f>
-        <v>23.154761904761905</v>
+        <v>23.988095238095237</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -29008,23 +29125,26 @@
         <v>1</v>
       </c>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="str">
         <f>member!A19</f>
         <v>狐狸</v>
       </c>
       <c r="B19" s="34">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="20"/>
+        <v>4</v>
       </c>
       <c r="C19" s="34">
         <f>E7*E19+F7*F19+G7*G19+H7*H19+I7*I19+J7*J19+K7*K19+L7*L19+M7*M19+O7*O19+P7*P19+Q7*Q19+R7*R19+S7*S19+T7*T19</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D19" s="36">
         <f>E8*E19+F8*F19+G8*G19+H8*H19+I8*I19+J8*J19+K8*K19+L8*L19+M8*M19+O8*O19+P8*P19+Q8*Q19+R8*R19+S8*S19+T8*T19</f>
-        <v>33.154761904761905</v>
+        <v>33.988095238095241</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -29038,23 +29158,26 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="str">
         <f>member!A20</f>
         <v>腿子</v>
       </c>
       <c r="B20" s="34">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="C20" s="34">
         <f>E7*E20+F7*F20+G7*G20+H7*H20+I7*I20+J7*J20+K7*K20+L7*L20+M7*M20+O7*O20+P7*P20+Q7*Q20+R7*R20+S7*S20+T7*T20</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D20" s="36">
         <f>E8*E20+F8*F20+G8*G20+H8*H20+I8*I20+J8*J20+K8*K20+L8*L20+M8*M20+O8*O20+P8*P20+Q8*Q20+R8*R20+S8*S20+T8*T20</f>
-        <v>0.83333333333333215</v>
+        <v>1.6666666666666643</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -29064,14 +29187,17 @@
         <v>1</v>
       </c>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="str">
         <f>member!A21</f>
         <v>smile</v>
       </c>
       <c r="B21" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="C21" s="34">
@@ -29080,7 +29206,7 @@
       </c>
       <c r="D21" s="36">
         <f>E8*E21+F8*F21+G8*G21+H8*H21+I8*I21+J8*J21+K8*K21+L8*L21+M8*M21+O8*O21+P8*P21+Q8*Q21+R8*R21+S8*S21+T8*T21</f>
-        <v>24.292763157894736</v>
+        <v>23.298611111111111</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -29094,14 +29220,15 @@
       <c r="J21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="str">
         <f>member!A22</f>
         <v>小贝</v>
       </c>
       <c r="B22" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="C22" s="34">
@@ -29120,14 +29247,15 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="str">
         <f>member!A23</f>
         <v>11号-鲜明</v>
       </c>
       <c r="B23" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="C23" s="34">
@@ -29152,14 +29280,15 @@
       <c r="J23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="str">
         <f>member!A24</f>
         <v>狐狸~涛</v>
       </c>
       <c r="B24" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="C24" s="34">
@@ -29178,14 +29307,15 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="str">
         <f>member!A25</f>
         <v>侯盟</v>
       </c>
       <c r="B25" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="C25" s="34">
@@ -29208,14 +29338,15 @@
       <c r="J25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="str">
         <f>member!A26</f>
         <v>玖伍贰壹</v>
       </c>
       <c r="B26" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C26" s="34">
@@ -29232,23 +29363,24 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="str">
         <f>member!A27</f>
         <v>红色F50-超</v>
       </c>
       <c r="B27" s="34">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f t="shared" si="20"/>
+        <v>7</v>
       </c>
       <c r="C27" s="34">
         <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D27" s="36">
         <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
-        <v>49.530858395989966</v>
+        <v>49.370039682539669</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -29268,23 +29400,26 @@
       <c r="J27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="str">
         <f>member!A28</f>
         <v>活了</v>
       </c>
       <c r="B28" s="34">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f t="shared" si="20"/>
+        <v>5</v>
       </c>
       <c r="C28" s="34">
         <f>E7*E28+F7*F28+G7*G28+H7*H28+I7*I28+J7*J28+K7*K28+L7*L28+M7*M28+O7*O28+P7*P28+Q7*Q28+R7*R28+S7*S28+T7*T28</f>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D28" s="36">
         <f>E8*E28+F8*F28+G8*G28+H8*H28+I8*I28+J8*J28+K8*K28+L8*L28+M8*M28+O8*O28+P8*P28+Q8*Q28+R8*R28+S8*S28+T8*T28</f>
-        <v>35.126096491228068</v>
+        <v>34.965277777777771</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -29300,14 +29435,17 @@
       <c r="J28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="str">
         <f>member!A29</f>
         <v>天赐</v>
       </c>
       <c r="B29" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="C29" s="34">
@@ -29316,7 +29454,7 @@
       </c>
       <c r="D29" s="36">
         <f>E8*E29+F8*F29+G8*G29+H8*H29+I8*I29+J8*J29+K8*K29+L8*L29+M8*M29+O8*O29+P8*P29+Q8*Q29+R8*R29+S8*S29+T8*T29</f>
-        <v>32.521929824561397</v>
+        <v>31.527777777777775</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -29332,14 +29470,15 @@
         <v>1</v>
       </c>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="str">
         <f>member!A30</f>
         <v>Shenghak</v>
       </c>
       <c r="B30" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="C30" s="34">
@@ -29362,14 +29501,15 @@
         <v>1</v>
       </c>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="str">
         <f>member!A31</f>
         <v>红色6号</v>
       </c>
       <c r="B31" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C31" s="34">
@@ -29386,23 +29526,24 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="str">
         <f>member!A32</f>
         <v>微笑</v>
       </c>
       <c r="B32" s="34">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="20"/>
+        <v>4</v>
       </c>
       <c r="C32" s="34">
         <f>E7*E32+F7*F32+G7*G32+H7*H32+I7*I32+J7*J32+K7*K32+L7*L32+M7*M32+O7*O32+P7*P32+Q7*Q32+R7*R32+S7*S32+T7*T32</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D32" s="36">
         <f>E8*E32+F8*F32+G8*G32+H8*H32+I8*I32+J8*J32+K8*K32+L8*L32+M8*M32+O8*O32+P8*P32+Q8*Q32+R8*R32+S8*S32+T8*T32</f>
-        <v>23.771929824561401</v>
+        <v>23.611111111111107</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2">
@@ -29416,23 +29557,26 @@
         <v>1</v>
       </c>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="str">
         <f>member!A33</f>
         <v>77号-更心</v>
       </c>
       <c r="B33" s="34">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="C33" s="34">
         <f>E7*E33+F7*F33+G7*G33+H7*H33+I7*I33+J7*J33+K7*K33+L7*L33+M7*M33+O7*O33+P7*P33+Q7*Q33+R7*R33+S7*S33+T7*T33</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D33" s="36">
         <f>E8*E33+F8*F33+G8*G33+H8*H33+I8*I33+J8*J33+K8*K33+L8*L33+M8*M33+O8*O33+P8*P33+Q8*Q33+R8*R33+S8*S33+T8*T33</f>
-        <v>3.4375</v>
+        <v>4.2708333333333321</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -29442,14 +29586,17 @@
       <c r="J33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="str">
         <f>member!A34</f>
         <v>更心朋友</v>
       </c>
       <c r="B34" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C34" s="34">
@@ -29466,14 +29613,15 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="str">
         <f>member!A35</f>
         <v>8号-菜菜亮</v>
       </c>
       <c r="B35" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C35" s="34">
@@ -29482,7 +29630,7 @@
       </c>
       <c r="D35" s="36">
         <f>E8*E35+F8*F35+G8*G35+H8*H35+I8*I35+J8*J35+K8*K35+L8*L35+M8*M35+O8*O35+P8*P35+Q8*Q35+R8*R35+S8*S35+T8*T35</f>
-        <v>40.780858395989966</v>
+        <v>39.786706349206341</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2">
@@ -29500,14 +29648,15 @@
       <c r="J35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="str">
         <f>member!A36</f>
         <v>杨光朋友</v>
       </c>
       <c r="B36" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C36" s="34">
@@ -29524,14 +29673,15 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="str">
         <f>member!A37</f>
         <v>拂晓朋友</v>
       </c>
       <c r="B37" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C37" s="34">
@@ -29548,14 +29698,15 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="str">
         <f>member!A38</f>
         <v>4号-许多</v>
       </c>
       <c r="B38" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C38" s="34">
@@ -29572,23 +29723,24 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="str">
         <f>member!A39</f>
         <v>5号-正</v>
       </c>
       <c r="B39" s="34">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="20"/>
+        <v>3</v>
       </c>
       <c r="C39" s="34">
         <f>E7*E39+F7*F39+G7*G39+H7*H39+I7*I39+J7*J39+K7*K39+L7*L39+M7*M39+O7*O39+P7*P39+Q7*Q39+R7*R39+S7*S39+T7*T39</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D39" s="36">
         <f>E8*E39+F8*F39+G8*G39+H8*H39+I8*I39+J8*J39+K8*K39+L8*L39+M8*M39+O8*O39+P8*P39+Q8*Q39+R8*R39+S8*S39+T8*T39</f>
-        <v>14.404761904761905</v>
+        <v>15.238095238095237</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -29600,14 +29752,17 @@
         <v>1</v>
       </c>
       <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="str">
         <f>member!A40</f>
         <v>勇敢的爬爬</v>
       </c>
       <c r="B40" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C40" s="34">
@@ -29624,14 +29779,15 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="str">
         <f>member!A41</f>
         <v>17号-4号字母</v>
       </c>
       <c r="B41" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C41" s="34">
@@ -29648,14 +29804,15 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="str">
         <f>member!A42</f>
         <v>雷</v>
       </c>
       <c r="B42" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C42" s="34">
@@ -29672,23 +29829,24 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="str">
         <f>member!A43</f>
         <v>西北偏北</v>
       </c>
       <c r="B43" s="34">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="C43" s="34">
         <f>E7*E43+F7*F43+G7*G43+H7*H43+I7*I43+J7*J43+K7*K43+L7*L43+M7*M43+O7*O43+P7*P43+Q7*Q43+R7*R43+S7*S43+T7*T43</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D43" s="36">
         <f>E8*E43+F8*F43+G8*G43+H8*H43+I8*I43+J8*J43+K8*K43+L8*L43+M8*M43+O8*O43+P8*P43+Q8*Q43+R8*R43+S8*S43+T8*T43</f>
-        <v>0</v>
+        <v>0.83333333333333215</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -29696,14 +29854,17 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="str">
         <f>member!A44</f>
         <v>红色8号</v>
       </c>
       <c r="B44" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C44" s="34">
@@ -29720,23 +29881,24 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="str">
         <f>member!A45</f>
         <v>马耳他</v>
       </c>
       <c r="B45" s="34">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="20"/>
+        <v>4</v>
       </c>
       <c r="C45" s="34">
         <f>E7*E45+F7*F45+G7*G45+H7*H45+I7*I45+J7*J45+K7*K45+L7*L45+M7*M45+O7*O45+P7*P45+Q7*Q45+R7*R45+S7*S45+T7*T45</f>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D45" s="36">
         <f>E8*E45+F8*F45+G8*G45+H8*H45+I8*I45+J8*J45+K8*K45+L8*L45+M8*M45+O8*O45+P8*P45+Q8*Q45+R8*R45+S8*S45+T8*T45</f>
-        <v>15.104166666666664</v>
+        <v>15.937499999999996</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2">
@@ -29750,14 +29912,17 @@
       <c r="J45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="str">
         <f>member!A46</f>
         <v>Cindy~陈猛</v>
       </c>
       <c r="B46" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C46" s="34">
@@ -29766,7 +29931,7 @@
       </c>
       <c r="D46" s="36">
         <f>E8*E46+F8*F46+G8*G46+H8*H46+I8*I46+J8*J46+K8*K46+L8*L46+M8*M46+O8*O46+P8*P46+Q8*Q46+R8*R46+S8*S46+T8*T46</f>
-        <v>40.780858395989966</v>
+        <v>39.786706349206341</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2">
@@ -29784,14 +29949,15 @@
       <c r="J46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="str">
         <f>member!A47</f>
         <v>硕</v>
       </c>
       <c r="B47" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="C47" s="34">
@@ -29812,14 +29978,15 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="str">
         <f>member!A48</f>
         <v>Violin</v>
       </c>
       <c r="B48" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="C48" s="34">
@@ -29838,23 +30005,24 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="str">
         <f>member!A49</f>
         <v>87号陈磊</v>
       </c>
       <c r="B49" s="34">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="20"/>
+        <v>4</v>
       </c>
       <c r="C49" s="34">
         <f>E7*E49+F7*F49+G7*G49+H7*H49+I7*I49+J7*J49+K7*K49+L7*L49+M7*M49+O7*O49+P7*P49+Q7*Q49+R7*R49+S7*S49+T7*T49</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D49" s="36">
         <f>E8*E49+F8*F49+G8*G49+H8*H49+I8*I49+J8*J49+K8*K49+L8*L49+M8*M49+O8*O49+P8*P49+Q8*Q49+R8*R49+S8*S49+T8*T49</f>
-        <v>34.426691729323309</v>
+        <v>34.265873015873012</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -29868,14 +30036,17 @@
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="str">
         <f>member!A50</f>
         <v>水中阳光</v>
       </c>
       <c r="B50" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C50" s="34">
@@ -29892,14 +30063,15 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="str">
         <f>member!A51</f>
         <v>sam</v>
       </c>
       <c r="B51" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="C51" s="34">
@@ -29918,14 +30090,15 @@
         <v>1</v>
       </c>
       <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="str">
         <f>member!A52</f>
         <v>26 方亚</v>
       </c>
       <c r="B52" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="C52" s="34">
@@ -29934,7 +30107,7 @@
       </c>
       <c r="D52" s="36">
         <f>E8*E52+F8*F52+G8*G52+H8*H52+I8*I52+J8*J52+K8*K52+L8*L52+M8*M52+O8*O52+P8*P52+Q8*Q52+R8*R52+S8*S52+T8*T52</f>
-        <v>35.126096491228068</v>
+        <v>34.131944444444443</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -29950,14 +30123,15 @@
       <c r="J52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="str">
         <f>member!A53</f>
         <v>维尼</v>
       </c>
       <c r="B53" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C53" s="34">
@@ -29974,14 +30148,15 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="str">
         <f>member!A54</f>
         <v>0号--张家宁</v>
       </c>
       <c r="B54" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C54" s="34">
@@ -29998,14 +30173,15 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="str">
         <f>member!A55</f>
         <v>泰山</v>
       </c>
       <c r="B55" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C55" s="34">
@@ -30022,14 +30198,15 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="str">
         <f>member!A56</f>
         <v>尚峰</v>
       </c>
       <c r="B56" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="C56" s="34">
@@ -30038,7 +30215,7 @@
       </c>
       <c r="D56" s="36">
         <f>E8*E56+F8*F56+G8*G56+H8*H56+I8*I56+J8*J56+K8*K56+L8*L56+M8*M56+O8*O56+P8*P56+Q8*Q56+R8*R56+S8*S56+T8*T56</f>
-        <v>29.947525062656641</v>
+        <v>28.953373015873016</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -30054,14 +30231,15 @@
       <c r="J56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="str">
         <f>member!A57</f>
         <v>杨光</v>
       </c>
       <c r="B57" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C57" s="34">
@@ -30078,23 +30256,24 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="str">
         <f>member!A58</f>
         <v>小磊</v>
       </c>
       <c r="B58" s="34">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f t="shared" si="20"/>
+        <v>5</v>
       </c>
       <c r="C58" s="34">
         <f>E7*E58+F7*F58+G7*G58+H7*H58+I7*I58+J7*J58+K7*K58+L7*L58+M7*M58+O7*O58+P7*P58+Q7*Q58+R7*R58+S7*S58+T7*T58</f>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D58" s="36">
         <f>E8*E58+F8*F58+G8*G58+H8*H58+I8*I58+J8*J58+K8*K58+L8*L58+M8*M58+O8*O58+P8*P58+Q8*Q58+R8*R58+S8*S58+T8*T58</f>
-        <v>37.864191729323309</v>
+        <v>37.703373015873012</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -30110,14 +30289,17 @@
       <c r="J58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="str">
         <f>member!A59</f>
         <v>绿洲</v>
       </c>
       <c r="B59" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C59" s="34">
@@ -30134,23 +30316,24 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="str">
         <f>member!A60</f>
         <v>孙伟</v>
       </c>
       <c r="B60" s="34">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="C60" s="34">
         <f>E7*E60+F7*F60+G7*G60+H7*H60+I7*I60+J7*J60+K7*K60+L7*L60+M7*M60+O7*O60+P7*P60+Q7*Q60+R7*R60+S7*S60+T7*T60</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D60" s="36">
         <f>E8*E60+F8*F60+G8*G60+H8*H60+I8*I60+J8*J60+K8*K60+L8*L60+M8*M60+O8*O60+P8*P60+Q8*Q60+R8*R60+S8*S60+T8*T60</f>
-        <v>12.105263157894736</v>
+        <v>11.944444444444443</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -30160,40 +30343,44 @@
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="str">
         <f>member!A61</f>
         <v>古轮木</v>
       </c>
       <c r="B61" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="C61" s="34">
         <f>E7*E61+F7*F61+G7*G61+H7*H61+I7*I61+J7*J61+K7*K61+L7*L61+M7*M61+O7*O61+P7*P61+Q7*Q61+R7*R61+S7*S61+T7*T61</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D61" s="36">
         <f>E8*E61+F8*F61+G8*G61+H8*H61+I8*I61+J8*J61+K8*K61+L8*L61+M8*M61+O8*O61+P8*P61+Q8*Q61+R8*R61+S8*S61+T8*T61</f>
-        <v>12.105263157894736</v>
+        <v>0.83333333333333215</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="1">
-        <v>1</v>
-      </c>
+      <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="str">
         <f>member!A62</f>
         <v>makoko</v>
       </c>
       <c r="B62" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="C62" s="34">
@@ -30202,7 +30389,7 @@
       </c>
       <c r="D62" s="36">
         <f>E8*E62+F8*F62+G8*G62+H8*H62+I8*I62+J8*J62+K8*K62+L8*L62+M8*M62+O8*O62+P8*P62+Q8*Q62+R8*R62+S8*S62+T8*T62</f>
-        <v>12.105263157894736</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -30212,14 +30399,15 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="11" t="str">
         <f>member!A63</f>
         <v>玲1</v>
       </c>
       <c r="B63" s="34">
-        <f t="shared" ref="B63" si="16">COUNT(E63:T63)</f>
+        <f t="shared" ref="B63" si="21">COUNT(E63:T63)</f>
         <v>1</v>
       </c>
       <c r="C63" s="34">
@@ -30238,14 +30426,15 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="str">
         <f>member!A64</f>
         <v>玲2</v>
       </c>
       <c r="B64" s="34">
-        <f t="shared" ref="B64:B100" si="17">COUNT(E64:T64)</f>
+        <f t="shared" ref="B64:B100" si="22">COUNT(E64:T64)</f>
         <v>1</v>
       </c>
       <c r="C64" s="34">
@@ -30264,14 +30453,15 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="11" t="str">
         <f>member!A65</f>
         <v>玲3</v>
       </c>
       <c r="B65" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="C65" s="34">
@@ -30290,14 +30480,15 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="str">
         <f>member!A66</f>
         <v>玲4</v>
       </c>
       <c r="B66" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="C66" s="34">
@@ -30316,14 +30507,15 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="11" t="str">
         <f>member!A67</f>
         <v>玲5</v>
       </c>
       <c r="B67" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="C67" s="34">
@@ -30342,14 +30534,15 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="str">
         <f>member!A68</f>
         <v>新</v>
       </c>
       <c r="B68" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C68" s="34">
@@ -30366,14 +30559,15 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="11" t="str">
         <f>member!A69</f>
         <v>新</v>
       </c>
       <c r="B69" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C69" s="34">
@@ -30390,14 +30584,15 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="11" t="str">
         <f>member!A70</f>
         <v>新</v>
       </c>
       <c r="B70" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C70" s="34">
@@ -30414,14 +30609,15 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="str">
         <f>member!A71</f>
         <v>新</v>
       </c>
       <c r="B71" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C71" s="34">
@@ -30438,14 +30634,15 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="str">
         <f>member!A72</f>
         <v>新</v>
       </c>
       <c r="B72" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C72" s="34">
@@ -30462,14 +30659,15 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="str">
         <f>member!A73</f>
         <v>新</v>
       </c>
       <c r="B73" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C73" s="34">
@@ -30486,14 +30684,15 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="str">
         <f>member!A74</f>
         <v>新</v>
       </c>
       <c r="B74" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C74" s="34">
@@ -30510,14 +30709,15 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="11" t="str">
         <f>member!A75</f>
         <v>新</v>
       </c>
       <c r="B75" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C75" s="34">
@@ -30534,14 +30734,15 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="str">
         <f>member!A76</f>
         <v>新</v>
       </c>
       <c r="B76" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C76" s="34">
@@ -30558,14 +30759,15 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="11" t="str">
         <f>member!A77</f>
         <v>新</v>
       </c>
       <c r="B77" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C77" s="34">
@@ -30582,14 +30784,15 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="str">
         <f>member!A78</f>
         <v>新</v>
       </c>
       <c r="B78" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C78" s="34">
@@ -30606,14 +30809,15 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="str">
         <f>member!A79</f>
         <v>新</v>
       </c>
       <c r="B79" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C79" s="34">
@@ -30630,14 +30834,15 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="str">
         <f>member!A80</f>
         <v>新</v>
       </c>
       <c r="B80" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C80" s="34">
@@ -30654,14 +30859,15 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="11" t="str">
         <f>member!A81</f>
         <v>新</v>
       </c>
       <c r="B81" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C81" s="34">
@@ -30678,14 +30884,15 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="11" t="str">
         <f>member!A82</f>
         <v>新</v>
       </c>
       <c r="B82" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C82" s="34">
@@ -30702,14 +30909,15 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="11" t="str">
         <f>member!A83</f>
         <v>新</v>
       </c>
       <c r="B83" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C83" s="34">
@@ -30726,14 +30934,15 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="str">
         <f>member!A84</f>
         <v>新</v>
       </c>
       <c r="B84" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C84" s="34">
@@ -30750,14 +30959,15 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="11" t="str">
         <f>member!A85</f>
         <v>新</v>
       </c>
       <c r="B85" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C85" s="34">
@@ -30774,14 +30984,15 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="str">
         <f>member!A86</f>
         <v>新</v>
       </c>
       <c r="B86" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C86" s="34">
@@ -30798,14 +31009,15 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="11" t="str">
         <f>member!A87</f>
         <v>新</v>
       </c>
       <c r="B87" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C87" s="34">
@@ -30822,14 +31034,15 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="str">
         <f>member!A88</f>
         <v>新</v>
       </c>
       <c r="B88" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C88" s="34">
@@ -30846,14 +31059,15 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="11" t="str">
         <f>member!A89</f>
         <v>新</v>
       </c>
       <c r="B89" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C89" s="34">
@@ -30870,14 +31084,15 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="11" t="str">
         <f>member!A90</f>
         <v>新</v>
       </c>
       <c r="B90" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C90" s="34">
@@ -30894,14 +31109,15 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="11" t="str">
         <f>member!A91</f>
         <v>新</v>
       </c>
       <c r="B91" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C91" s="34">
@@ -30918,14 +31134,15 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="11" t="str">
         <f>member!A92</f>
         <v>新</v>
       </c>
       <c r="B92" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C92" s="34">
@@ -30942,14 +31159,15 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="11" t="str">
         <f>member!A93</f>
         <v>新</v>
       </c>
       <c r="B93" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C93" s="34">
@@ -30966,14 +31184,15 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="11" t="str">
         <f>member!A94</f>
         <v>新</v>
       </c>
       <c r="B94" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C94" s="34">
@@ -30990,14 +31209,15 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="str">
         <f>member!A95</f>
         <v>新</v>
       </c>
       <c r="B95" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C95" s="34">
@@ -31014,14 +31234,15 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="11" t="str">
         <f>member!A96</f>
         <v>新</v>
       </c>
       <c r="B96" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C96" s="34">
@@ -31038,14 +31259,15 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="str">
         <f>member!A97</f>
         <v>新</v>
       </c>
       <c r="B97" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C97" s="34">
@@ -31062,14 +31284,15 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="11" t="str">
         <f>member!A98</f>
         <v>新</v>
       </c>
       <c r="B98" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C98" s="34">
@@ -31086,14 +31309,15 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="str">
         <f>member!A99</f>
         <v>新</v>
       </c>
       <c r="B99" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C99" s="34">
@@ -31110,14 +31334,15 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="11" t="str">
         <f>member!A100</f>
         <v>新</v>
       </c>
       <c r="B100" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C100" s="34">
@@ -31134,6 +31359,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="128">
   <si>
     <t>守候幸福</t>
   </si>
@@ -173,27 +173,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多缴纳金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守候幸福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保管人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -210,10 +190,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李一刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -299,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蚕豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退smile,陈磊各30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>17*30-340</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>涛罚款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,10 +359,6 @@
   </si>
   <si>
     <t>拂晓朋友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -486,10 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19*30-340</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18 × 20 - 345</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,6 +486,38 @@
   </si>
   <si>
     <t>陈磊，刀哥各10块，蚕豆5块（从剩余费用里扣）， 2012-5-22罚款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守候幸福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18*30-345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退虫,豆,鲜明,超,活,神 6*30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小磊欠款，多收10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.5.3多收10块（回收算作少退10块）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +575,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,6 +612,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -652,7 +650,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -711,6 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1015,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC101"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1035,31 +1034,31 @@
     <row r="1" spans="1:16383" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="23"/>
       <c r="B1" s="26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:16383" x14ac:dyDescent="0.15">
@@ -1068,27 +1067,27 @@
       </c>
       <c r="B2" s="37">
         <f t="shared" ref="B2:I2" si="0">SUM(B9:B100)</f>
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="C2" s="36">
         <f t="shared" si="0"/>
-        <v>13240</v>
+        <v>13780</v>
       </c>
       <c r="D2" s="38">
         <f t="shared" si="0"/>
-        <v>3249.9999999999995</v>
+        <v>3444.9999999999991</v>
       </c>
       <c r="E2" s="36">
         <f t="shared" si="0"/>
-        <v>2793.9999999999986</v>
+        <v>2970.9999999999991</v>
       </c>
       <c r="F2" s="36">
         <f t="shared" si="0"/>
-        <v>1745</v>
+        <v>1915</v>
       </c>
       <c r="G2" s="38">
         <f t="shared" si="0"/>
-        <v>1048.9999999999998</v>
+        <v>1056</v>
       </c>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
@@ -1120,11 +1119,11 @@
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H4" s="40">
         <f>G2+H2</f>
-        <v>1103.9999999999998</v>
+        <v>1111</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
@@ -17556,26 +17555,26 @@
       </c>
       <c r="B9" s="39">
         <f>'201202'!B9+'201203'!B9+'201204'!B9+'201205'!B9+'201206'!B9+'201207'!B9+'201208'!B9+'201209'!B9+'201210'!B9+'201211'!B9+'201212'!B9</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="36">
         <f>'201202'!C9+'201203'!C9+'201204'!C9+'201205'!C9+'201206'!C9+'201207'!C9+'201208'!C9+'201209'!C9+'201210'!C9+'201211'!C9+'201212'!C9</f>
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="D9" s="36">
         <f>'201202'!D9+'201203'!D9+'201204'!D9+'201205'!D9+'201206'!D9+'201207'!D9+'201208'!D9+'201209'!D9+'201210'!D9+'201211'!D9+'201212'!D9</f>
-        <v>66.837988400488399</v>
+        <v>77.671321733821713</v>
       </c>
       <c r="E9" s="36">
         <f t="shared" ref="E9:E40" si="1">D9-B9</f>
-        <v>56.837988400488399</v>
+        <v>66.671321733821713</v>
       </c>
       <c r="F9" s="18">
         <v>55</v>
       </c>
       <c r="G9" s="36">
         <f t="shared" ref="G9:G40" si="2">E9-F9</f>
-        <v>1.8379884004883991</v>
+        <v>11.671321733821713</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="1"/>
@@ -17615,7 +17614,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:16383" x14ac:dyDescent="0.15">
@@ -17624,26 +17623,26 @@
       </c>
       <c r="B11" s="39">
         <f>'201202'!B11+'201203'!B11+'201204'!B11+'201205'!B11+'201206'!B11+'201207'!B11+'201208'!B11+'201209'!B11+'201210'!B11+'201211'!B11+'201212'!B11</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="36">
         <f>'201202'!C11+'201203'!C11+'201204'!C11+'201205'!C11+'201206'!C11+'201207'!C11+'201208'!C11+'201209'!C11+'201210'!C11+'201211'!C11+'201212'!C11</f>
-        <v>785</v>
+        <v>815</v>
       </c>
       <c r="D11" s="36">
         <f>'201202'!D11+'201203'!D11+'201204'!D11+'201205'!D11+'201206'!D11+'201207'!D11+'201208'!D11+'201209'!D11+'201210'!D11+'201211'!D11+'201212'!D11</f>
-        <v>180.68684130197283</v>
+        <v>191.52017463530618</v>
       </c>
       <c r="E11" s="36">
         <f t="shared" si="1"/>
-        <v>153.68684130197283</v>
+        <v>163.52017463530618</v>
       </c>
       <c r="F11" s="18">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="G11" s="36">
         <f t="shared" si="2"/>
-        <v>28.686841301972834</v>
+        <v>8.5201746353061765</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="1"/>
@@ -17715,26 +17714,26 @@
       </c>
       <c r="B14" s="39">
         <f>'201202'!B14+'201203'!B14+'201204'!B14+'201205'!B14+'201206'!B14+'201207'!B14+'201208'!B14+'201209'!B14+'201210'!B14+'201211'!B14+'201212'!B14</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="36">
         <f>'201202'!C14+'201203'!C14+'201204'!C14+'201205'!C14+'201206'!C14+'201207'!C14+'201208'!C14+'201209'!C14+'201210'!C14+'201211'!C14+'201212'!C14</f>
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="D14" s="36">
         <f>'201202'!D14+'201203'!D14+'201204'!D14+'201205'!D14+'201206'!D14+'201207'!D14+'201208'!D14+'201209'!D14+'201210'!D14+'201211'!D14+'201212'!D14</f>
-        <v>192.93615448878606</v>
+        <v>203.7694878221194</v>
       </c>
       <c r="E14" s="36">
         <f t="shared" si="1"/>
-        <v>164.93615448878606</v>
+        <v>174.7694878221194</v>
       </c>
       <c r="F14" s="18">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="G14" s="36">
         <f t="shared" si="2"/>
-        <v>59.936154488786059</v>
+        <v>39.769487822119402</v>
       </c>
       <c r="H14" s="18">
         <v>5</v>
@@ -17743,7 +17742,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:16383" x14ac:dyDescent="0.15">
@@ -17777,7 +17776,7 @@
     </row>
     <row r="16" spans="1:16383" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B16" s="39">
         <f>'201202'!B16+'201203'!B16+'201204'!B16+'201205'!B16+'201206'!B16+'201207'!B16+'201208'!B16+'201209'!B16+'201210'!B16+'201211'!B16+'201212'!B16</f>
@@ -17806,30 +17805,30 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B17" s="39">
         <f>'201202'!B17+'201203'!B17+'201204'!B17+'201205'!B17+'201206'!B17+'201207'!B17+'201208'!B17+'201209'!B17+'201210'!B17+'201211'!B17+'201212'!B17</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="36">
         <f>'201202'!C17+'201203'!C17+'201204'!C17+'201205'!C17+'201206'!C17+'201207'!C17+'201208'!C17+'201209'!C17+'201210'!C17+'201211'!C17+'201212'!C17</f>
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="D17" s="36">
         <f>'201202'!D17+'201203'!D17+'201204'!D17+'201205'!D17+'201206'!D17+'201207'!D17+'201208'!D17+'201209'!D17+'201210'!D17+'201211'!D17+'201212'!D17</f>
-        <v>59.624923687423689</v>
+        <v>70.458257020757017</v>
       </c>
       <c r="E17" s="36">
         <f t="shared" si="1"/>
-        <v>51.624923687423689</v>
+        <v>61.458257020757017</v>
       </c>
       <c r="F17" s="18">
         <v>45</v>
       </c>
       <c r="G17" s="36">
         <f t="shared" si="2"/>
-        <v>6.6249236874236885</v>
+        <v>16.458257020757017</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="1"/>
@@ -17872,26 +17871,26 @@
       </c>
       <c r="B19" s="39">
         <f>'201202'!B19+'201203'!B19+'201204'!B19+'201205'!B19+'201206'!B19+'201207'!B19+'201208'!B19+'201209'!B19+'201210'!B19+'201211'!B19+'201212'!B19</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="36">
         <f>'201202'!C19+'201203'!C19+'201204'!C19+'201205'!C19+'201206'!C19+'201207'!C19+'201208'!C19+'201209'!C19+'201210'!C19+'201211'!C19+'201212'!C19</f>
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="D19" s="36">
         <f>'201202'!D19+'201203'!D19+'201204'!D19+'201205'!D19+'201206'!D19+'201207'!D19+'201208'!D19+'201209'!D19+'201210'!D19+'201211'!D19+'201212'!D19</f>
-        <v>125.25300430563588</v>
+        <v>136.08633763896921</v>
       </c>
       <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v>106.25300430563588</v>
+        <v>116.08633763896921</v>
       </c>
       <c r="F19" s="18">
         <v>50</v>
       </c>
       <c r="G19" s="36">
         <f t="shared" si="2"/>
-        <v>56.253004305635883</v>
+        <v>66.086337638969212</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="1"/>
@@ -17899,7 +17898,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B20" s="39">
         <f>'201202'!B20+'201203'!B20+'201204'!B20+'201205'!B20+'201206'!B20+'201207'!B20+'201208'!B20+'201209'!B20+'201210'!B20+'201211'!B20+'201212'!B20</f>
@@ -17934,26 +17933,26 @@
       </c>
       <c r="B21" s="39">
         <f>'201202'!B21+'201203'!B21+'201204'!B21+'201205'!B21+'201206'!B21+'201207'!B21+'201208'!B21+'201209'!B21+'201210'!B21+'201211'!B21+'201212'!B21</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="36">
         <f>'201202'!C21+'201203'!C21+'201204'!C21+'201205'!C21+'201206'!C21+'201207'!C21+'201208'!C21+'201209'!C21+'201210'!C21+'201211'!C21+'201212'!C21</f>
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="D21" s="36">
         <f>'201202'!D21+'201203'!D21+'201204'!D21+'201205'!D21+'201206'!D21+'201207'!D21+'201208'!D21+'201209'!D21+'201210'!D21+'201211'!D21+'201212'!D21</f>
-        <v>75.508623321123324</v>
+        <v>86.341956654456652</v>
       </c>
       <c r="E21" s="36">
         <f t="shared" si="1"/>
-        <v>64.508623321123324</v>
+        <v>74.341956654456652</v>
       </c>
       <c r="F21" s="18">
         <v>55</v>
       </c>
       <c r="G21" s="36">
         <f t="shared" si="2"/>
-        <v>9.5086233211233235</v>
+        <v>19.341956654456652</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="1"/>
@@ -17961,7 +17960,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B22" s="39">
         <f>'201202'!B22+'201203'!B22+'201204'!B22+'201205'!B22+'201206'!B22+'201207'!B22+'201208'!B22+'201209'!B22+'201210'!B22+'201211'!B22+'201212'!B22</f>
@@ -17996,26 +17995,26 @@
       </c>
       <c r="B23" s="39">
         <f>'201202'!B23+'201203'!B23+'201204'!B23+'201205'!B23+'201206'!B23+'201207'!B23+'201208'!B23+'201209'!B23+'201210'!B23+'201211'!B23+'201212'!B23</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="36">
         <f>'201202'!C23+'201203'!C23+'201204'!C23+'201205'!C23+'201206'!C23+'201207'!C23+'201208'!C23+'201209'!C23+'201210'!C23+'201211'!C23+'201212'!C23</f>
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="D23" s="36">
         <f>'201202'!D23+'201203'!D23+'201204'!D23+'201205'!D23+'201206'!D23+'201207'!D23+'201208'!D23+'201209'!D23+'201210'!D23+'201211'!D23+'201212'!D23</f>
-        <v>111.53940540453698</v>
+        <v>122.37273873787032</v>
       </c>
       <c r="E23" s="36">
         <f t="shared" si="1"/>
-        <v>96.539405404536978</v>
+        <v>106.37273873787032</v>
       </c>
       <c r="F23" s="18">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G23" s="36">
         <f t="shared" si="2"/>
-        <v>41.539405404536978</v>
+        <v>21.372738737870321</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="1"/>
@@ -18023,7 +18022,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B24" s="39">
         <f>'201202'!B24+'201203'!B24+'201204'!B24+'201205'!B24+'201206'!B24+'201207'!B24+'201208'!B24+'201209'!B24+'201210'!B24+'201211'!B24+'201212'!B24</f>
@@ -18053,7 +18052,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -18062,26 +18061,26 @@
       </c>
       <c r="B25" s="39">
         <f>'201202'!B25+'201203'!B25+'201204'!B25+'201205'!B25+'201206'!B25+'201207'!B25+'201208'!B25+'201209'!B25+'201210'!B25+'201211'!B25+'201212'!B25</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="36">
         <f>'201202'!C25+'201203'!C25+'201204'!C25+'201205'!C25+'201206'!C25+'201207'!C25+'201208'!C25+'201209'!C25+'201210'!C25+'201211'!C25+'201212'!C25</f>
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="D25" s="36">
         <f>'201202'!D25+'201203'!D25+'201204'!D25+'201205'!D25+'201206'!D25+'201207'!D25+'201208'!D25+'201209'!D25+'201210'!D25+'201211'!D25+'201212'!D25</f>
-        <v>114.45668257181416</v>
+        <v>125.29001590514748</v>
       </c>
       <c r="E25" s="36">
         <f t="shared" si="1"/>
-        <v>97.456682571814156</v>
+        <v>107.29001590514748</v>
       </c>
       <c r="F25" s="18">
         <v>75</v>
       </c>
       <c r="G25" s="36">
         <f t="shared" si="2"/>
-        <v>22.456682571814156</v>
+        <v>32.290015905147484</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="1"/>
@@ -18122,26 +18121,26 @@
       </c>
       <c r="B27" s="39">
         <f>'201202'!B27+'201203'!B27+'201204'!B27+'201205'!B27+'201206'!B27+'201207'!B27+'201208'!B27+'201209'!B27+'201210'!B27+'201211'!B27+'201212'!B27</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="36">
         <f>'201202'!C27+'201203'!C27+'201204'!C27+'201205'!C27+'201206'!C27+'201207'!C27+'201208'!C27+'201209'!C27+'201210'!C27+'201211'!C27+'201212'!C27</f>
-        <v>845</v>
+        <v>875</v>
       </c>
       <c r="D27" s="36">
         <f>'201202'!D27+'201203'!D27+'201204'!D27+'201205'!D27+'201206'!D27+'201207'!D27+'201208'!D27+'201209'!D27+'201210'!D27+'201211'!D27+'201212'!D27</f>
-        <v>198.10442371955529</v>
+        <v>208.93775705288863</v>
       </c>
       <c r="E27" s="36">
         <f t="shared" si="1"/>
-        <v>169.10442371955529</v>
+        <v>178.93775705288863</v>
       </c>
       <c r="F27" s="18">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="G27" s="36">
         <f t="shared" si="2"/>
-        <v>44.104423719555285</v>
+        <v>23.937757052888628</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="1"/>
@@ -18149,30 +18148,30 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B28" s="39">
         <f>'201202'!B28+'201203'!B28+'201204'!B28+'201205'!B28+'201206'!B28+'201207'!B28+'201208'!B28+'201209'!B28+'201210'!B28+'201211'!B28+'201212'!B28</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" s="36">
         <f>'201202'!C28+'201203'!C28+'201204'!C28+'201205'!C28+'201206'!C28+'201207'!C28+'201208'!C28+'201209'!C28+'201210'!C28+'201211'!C28+'201212'!C28</f>
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="D28" s="36">
         <f>'201202'!D28+'201203'!D28+'201204'!D28+'201205'!D28+'201206'!D28+'201207'!D28+'201208'!D28+'201209'!D28+'201210'!D28+'201211'!D28+'201212'!D28</f>
-        <v>98.22133458646617</v>
+        <v>109.0546679197995</v>
       </c>
       <c r="E28" s="36">
         <f t="shared" si="1"/>
-        <v>86.22133458646617</v>
+        <v>96.054667919799499</v>
       </c>
       <c r="F28" s="18">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G28" s="36">
         <f t="shared" si="2"/>
-        <v>41.22133458646617</v>
+        <v>21.054667919799499</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="1"/>
@@ -18180,7 +18179,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B29" s="39">
         <f>'201202'!B29+'201203'!B29+'201204'!B29+'201205'!B29+'201206'!B29+'201207'!B29+'201208'!B29+'201209'!B29+'201210'!B29+'201211'!B29+'201212'!B29</f>
@@ -18211,7 +18210,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B30" s="39">
         <f>'201202'!B30+'201203'!B30+'201204'!B30+'201205'!B30+'201206'!B30+'201207'!B30+'201208'!B30+'201209'!B30+'201210'!B30+'201211'!B30+'201212'!B30</f>
@@ -18271,7 +18270,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B32" s="39">
         <f>'201202'!B32+'201203'!B32+'201204'!B32+'201205'!B32+'201206'!B32+'201207'!B32+'201208'!B32+'201209'!B32+'201210'!B32+'201211'!B32+'201212'!B32</f>
@@ -18333,7 +18332,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B34" s="39">
         <f>'201202'!B34+'201203'!B34+'201204'!B34+'201205'!B34+'201206'!B34+'201207'!B34+'201208'!B34+'201209'!B34+'201210'!B34+'201211'!B34+'201212'!B34</f>
@@ -18366,26 +18365,26 @@
       </c>
       <c r="B35" s="39">
         <f>'201202'!B35+'201203'!B35+'201204'!B35+'201205'!B35+'201206'!B35+'201207'!B35+'201208'!B35+'201209'!B35+'201210'!B35+'201211'!B35+'201212'!B35</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35" s="36">
         <f>'201202'!C35+'201203'!C35+'201204'!C35+'201205'!C35+'201206'!C35+'201207'!C35+'201208'!C35+'201209'!C35+'201210'!C35+'201211'!C35+'201212'!C35</f>
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="D35" s="36">
         <f>'201202'!D35+'201203'!D35+'201204'!D35+'201205'!D35+'201206'!D35+'201207'!D35+'201208'!D35+'201209'!D35+'201210'!D35+'201211'!D35+'201212'!D35</f>
-        <v>139.92524179037338</v>
+        <v>150.75857512370669</v>
       </c>
       <c r="E35" s="36">
         <f t="shared" si="1"/>
-        <v>118.92524179037338</v>
+        <v>128.75857512370669</v>
       </c>
       <c r="F35" s="18">
         <v>105</v>
       </c>
       <c r="G35" s="36">
         <f t="shared" si="2"/>
-        <v>13.925241790373377</v>
+        <v>23.758575123706692</v>
       </c>
       <c r="H35" s="18"/>
       <c r="I35" s="1"/>
@@ -18393,7 +18392,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B36" s="39">
         <f>'201202'!B36+'201203'!B36+'201204'!B36+'201205'!B36+'201206'!B36+'201207'!B36+'201208'!B36+'201209'!B36+'201210'!B36+'201211'!B36+'201212'!B36</f>
@@ -18422,7 +18421,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B37" s="39">
         <f>'201202'!B37+'201203'!B37+'201204'!B37+'201205'!B37+'201206'!B37+'201207'!B37+'201208'!B37+'201209'!B37+'201210'!B37+'201211'!B37+'201212'!B37</f>
@@ -18484,26 +18483,26 @@
       </c>
       <c r="B39" s="39">
         <f>'201202'!B39+'201203'!B39+'201204'!B39+'201205'!B39+'201206'!B39+'201207'!B39+'201208'!B39+'201209'!B39+'201210'!B39+'201211'!B39+'201212'!B39</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" s="36">
         <f>'201202'!C39+'201203'!C39+'201204'!C39+'201205'!C39+'201206'!C39+'201207'!C39+'201208'!C39+'201209'!C39+'201210'!C39+'201211'!C39+'201212'!C39</f>
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="D39" s="36">
         <f>'201202'!D39+'201203'!D39+'201204'!D39+'201205'!D39+'201206'!D39+'201207'!D39+'201208'!D39+'201209'!D39+'201210'!D39+'201211'!D39+'201212'!D39</f>
-        <v>66.388888888888886</v>
+        <v>77.222222222222214</v>
       </c>
       <c r="E39" s="36">
         <f t="shared" si="1"/>
-        <v>56.388888888888886</v>
+        <v>66.222222222222214</v>
       </c>
       <c r="F39" s="18">
         <v>40</v>
       </c>
       <c r="G39" s="36">
         <f t="shared" si="2"/>
-        <v>16.388888888888886</v>
+        <v>26.222222222222214</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="1"/>
@@ -18568,33 +18567,33 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B42" s="39">
         <f>'201202'!B42+'201203'!B42+'201204'!B42+'201205'!B42+'201206'!B42+'201207'!B42+'201208'!B42+'201209'!B42+'201210'!B42+'201211'!B42+'201212'!B42</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="36">
         <f>'201202'!C42+'201203'!C42+'201204'!C42+'201205'!C42+'201206'!C42+'201207'!C42+'201208'!C42+'201209'!C42+'201210'!C42+'201211'!C42+'201212'!C42</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D42" s="36">
         <f>'201202'!D42+'201203'!D42+'201204'!D42+'201205'!D42+'201206'!D42+'201207'!D42+'201208'!D42+'201209'!D42+'201210'!D42+'201211'!D42+'201212'!D42</f>
-        <v>11.111111111111111</v>
+        <v>21.944444444444443</v>
       </c>
       <c r="E42" s="36">
         <f t="shared" si="3"/>
-        <v>10.111111111111111</v>
+        <v>19.944444444444443</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="36">
         <f t="shared" si="4"/>
-        <v>10.111111111111111</v>
+        <v>19.944444444444443</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="1"/>
@@ -18634,7 +18633,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -18672,26 +18671,26 @@
       </c>
       <c r="B45" s="39">
         <f>'201202'!B45+'201203'!B45+'201204'!B45+'201205'!B45+'201206'!B45+'201207'!B45+'201208'!B45+'201209'!B45+'201210'!B45+'201211'!B45+'201212'!B45</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" s="36">
         <f>'201202'!C45+'201203'!C45+'201204'!C45+'201205'!C45+'201206'!C45+'201207'!C45+'201208'!C45+'201209'!C45+'201210'!C45+'201211'!C45+'201212'!C45</f>
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="D45" s="36">
         <f>'201202'!D45+'201203'!D45+'201204'!D45+'201205'!D45+'201206'!D45+'201207'!D45+'201208'!D45+'201209'!D45+'201210'!D45+'201211'!D45+'201212'!D45</f>
-        <v>42.433226495726487</v>
+        <v>53.266559829059823</v>
       </c>
       <c r="E45" s="36">
         <f t="shared" si="3"/>
-        <v>35.433226495726487</v>
+        <v>45.266559829059823</v>
       </c>
       <c r="F45" s="18">
         <v>40</v>
       </c>
       <c r="G45" s="36">
         <f t="shared" si="4"/>
-        <v>-4.5667735042735131</v>
+        <v>5.2665598290598226</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="1"/>
@@ -18703,26 +18702,26 @@
       </c>
       <c r="B46" s="39">
         <f>'201202'!B46+'201203'!B46+'201204'!B46+'201205'!B46+'201206'!B46+'201207'!B46+'201208'!B46+'201209'!B46+'201210'!B46+'201211'!B46+'201212'!B46</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46" s="36">
         <f>'201202'!C46+'201203'!C46+'201204'!C46+'201205'!C46+'201206'!C46+'201207'!C46+'201208'!C46+'201209'!C46+'201210'!C46+'201211'!C46+'201212'!C46</f>
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="D46" s="36">
         <f>'201202'!D46+'201203'!D46+'201204'!D46+'201205'!D46+'201206'!D46+'201207'!D46+'201208'!D46+'201209'!D46+'201210'!D46+'201211'!D46+'201212'!D46</f>
-        <v>112.54525335775334</v>
+        <v>123.37858669108667</v>
       </c>
       <c r="E46" s="36">
         <f t="shared" si="3"/>
-        <v>96.545253357753339</v>
+        <v>106.37858669108667</v>
       </c>
       <c r="F46" s="18">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G46" s="36">
         <f t="shared" si="4"/>
-        <v>51.545253357753339</v>
+        <v>31.378586691086667</v>
       </c>
       <c r="H46" s="18"/>
       <c r="I46" s="1"/>
@@ -18730,7 +18729,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B47" s="39">
         <f>'201202'!B47+'201203'!B47+'201204'!B47+'201205'!B47+'201206'!B47+'201207'!B47+'201208'!B47+'201209'!B47+'201210'!B47+'201211'!B47+'201212'!B47</f>
@@ -18759,7 +18758,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B48" s="39">
         <f>'201202'!B48+'201203'!B48+'201204'!B48+'201205'!B48+'201206'!B48+'201207'!B48+'201208'!B48+'201209'!B48+'201210'!B48+'201211'!B48+'201212'!B48</f>
@@ -18820,12 +18819,12 @@
         <v>2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B50" s="39">
         <f>'201202'!B50+'201203'!B50+'201204'!B50+'201205'!B50+'201206'!B50+'201207'!B50+'201208'!B50+'201209'!B50+'201210'!B50+'201211'!B50+'201212'!B50</f>
@@ -18858,26 +18857,26 @@
       </c>
       <c r="B51" s="39">
         <f>'201202'!B51+'201203'!B51+'201204'!B51+'201205'!B51+'201206'!B51+'201207'!B51+'201208'!B51+'201209'!B51+'201210'!B51+'201211'!B51+'201212'!B51</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51" s="36">
         <f>'201202'!C51+'201203'!C51+'201204'!C51+'201205'!C51+'201206'!C51+'201207'!C51+'201208'!C51+'201209'!C51+'201210'!C51+'201211'!C51+'201212'!C51</f>
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="D51" s="36">
         <f>'201202'!D51+'201203'!D51+'201204'!D51+'201205'!D51+'201206'!D51+'201207'!D51+'201208'!D51+'201209'!D51+'201210'!D51+'201211'!D51+'201212'!D51</f>
-        <v>76.549707602339183</v>
+        <v>87.383040935672511</v>
       </c>
       <c r="E51" s="36">
         <f t="shared" si="3"/>
-        <v>65.549707602339183</v>
+        <v>75.383040935672511</v>
       </c>
       <c r="F51" s="18">
         <v>50</v>
       </c>
       <c r="G51" s="36">
         <f t="shared" si="4"/>
-        <v>15.549707602339183</v>
+        <v>25.383040935672511</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="1"/>
@@ -18916,7 +18915,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B53" s="39">
         <f>'201202'!B53+'201203'!B53+'201204'!B53+'201205'!B53+'201206'!B53+'201207'!B53+'201208'!B53+'201209'!B53+'201210'!B53+'201211'!B53+'201212'!B53</f>
@@ -19003,7 +19002,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B56" s="39">
         <f>'201202'!B56+'201203'!B56+'201204'!B56+'201205'!B56+'201206'!B56+'201207'!B56+'201208'!B56+'201209'!B56+'201210'!B56+'201211'!B56+'201212'!B56</f>
@@ -19034,7 +19033,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B57" s="39">
         <f>'201202'!B57+'201203'!B57+'201204'!B57+'201205'!B57+'201206'!B57+'201207'!B57+'201208'!B57+'201209'!B57+'201210'!B57+'201211'!B57+'201212'!B57</f>
@@ -19063,38 +19062,40 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B58" s="39">
         <f>'201202'!B58+'201203'!B58+'201204'!B58+'201205'!B58+'201206'!B58+'201207'!B58+'201208'!B58+'201209'!B58+'201210'!B58+'201211'!B58+'201212'!B58</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" s="36">
         <f>'201202'!C58+'201203'!C58+'201204'!C58+'201205'!C58+'201206'!C58+'201207'!C58+'201208'!C58+'201209'!C58+'201210'!C58+'201211'!C58+'201212'!C58</f>
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D58" s="36">
         <f>'201202'!D58+'201203'!D58+'201204'!D58+'201205'!D58+'201206'!D58+'201207'!D58+'201208'!D58+'201209'!D58+'201210'!D58+'201211'!D58+'201212'!D58</f>
-        <v>37.703373015873012</v>
+        <v>48.536706349206341</v>
       </c>
       <c r="E58" s="36">
         <f t="shared" si="3"/>
-        <v>32.703373015873012</v>
+        <v>42.536706349206341</v>
       </c>
       <c r="F58" s="18">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G58" s="36">
         <f t="shared" si="4"/>
-        <v>-12.296626984126988</v>
+        <v>7.5367063492063409</v>
       </c>
       <c r="H58" s="18"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="J58" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B59" s="39">
         <f>'201202'!B59+'201203'!B59+'201204'!B59+'201205'!B59+'201206'!B59+'201207'!B59+'201208'!B59+'201209'!B59+'201210'!B59+'201211'!B59+'201212'!B59</f>
@@ -19123,7 +19124,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B60" s="39">
         <f>'201202'!B60+'201203'!B60+'201204'!B60+'201205'!B60+'201206'!B60+'201207'!B60+'201208'!B60+'201209'!B60+'201210'!B60+'201211'!B60+'201212'!B60</f>
@@ -19152,7 +19153,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B61" s="39">
         <f>'201202'!B61+'201203'!B61+'201204'!B61+'201205'!B61+'201206'!B61+'201207'!B61+'201208'!B61+'201209'!B61+'201210'!B61+'201211'!B61+'201212'!B61</f>
@@ -19181,7 +19182,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B62" s="39">
         <f>'201202'!B62+'201203'!B62+'201204'!B62+'201205'!B62+'201206'!B62+'201207'!B62+'201208'!B62+'201209'!B62+'201210'!B62+'201211'!B62+'201212'!B62</f>
@@ -19210,7 +19211,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B63" s="39">
         <f>'201202'!B63+'201203'!B63+'201204'!B63+'201205'!B63+'201206'!B63+'201207'!B63+'201208'!B63+'201209'!B63+'201210'!B63+'201211'!B63+'201212'!B63</f>
@@ -19239,7 +19240,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B64" s="39">
         <f>'201202'!B64+'201203'!B64+'201204'!B64+'201205'!B64+'201206'!B64+'201207'!B64+'201208'!B64+'201209'!B64+'201210'!B64+'201211'!B64+'201212'!B64</f>
@@ -19268,7 +19269,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B65" s="39">
         <f>'201202'!B65+'201203'!B65+'201204'!B65+'201205'!B65+'201206'!B65+'201207'!B65+'201208'!B65+'201209'!B65+'201210'!B65+'201211'!B65+'201212'!B65</f>
@@ -19297,7 +19298,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B66" s="39">
         <f>'201202'!B66+'201203'!B66+'201204'!B66+'201205'!B66+'201206'!B66+'201207'!B66+'201208'!B66+'201209'!B66+'201210'!B66+'201211'!B66+'201212'!B66</f>
@@ -19326,7 +19327,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B67" s="39">
         <f>'201202'!B67+'201203'!B67+'201204'!B67+'201205'!B67+'201206'!B67+'201207'!B67+'201208'!B67+'201209'!B67+'201210'!B67+'201211'!B67+'201212'!B67</f>
@@ -19355,28 +19356,28 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B68" s="39">
         <f>'201202'!B68+'201203'!B68+'201204'!B68+'201205'!B68+'201206'!B68+'201207'!B68+'201208'!B68+'201209'!B68+'201210'!B68+'201211'!B68+'201212'!B68</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="36">
         <f>'201202'!C68+'201203'!C68+'201204'!C68+'201205'!C68+'201206'!C68+'201207'!C68+'201208'!C68+'201209'!C68+'201210'!C68+'201211'!C68+'201212'!C68</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D68" s="36">
         <f>'201202'!D68+'201203'!D68+'201204'!D68+'201205'!D68+'201206'!D68+'201207'!D68+'201208'!D68+'201209'!D68+'201210'!D68+'201211'!D68+'201212'!D68</f>
-        <v>0</v>
+        <v>10.833333333333332</v>
       </c>
       <c r="E68" s="36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.8333333333333321</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="36">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.8333333333333321</v>
       </c>
       <c r="H68" s="18"/>
       <c r="I68" s="1"/>
@@ -19384,7 +19385,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B69" s="39">
         <f>'201202'!B69+'201203'!B69+'201204'!B69+'201205'!B69+'201206'!B69+'201207'!B69+'201208'!B69+'201209'!B69+'201210'!B69+'201211'!B69+'201212'!B69</f>
@@ -19413,7 +19414,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B70" s="39">
         <f>'201202'!B70+'201203'!B70+'201204'!B70+'201205'!B70+'201206'!B70+'201207'!B70+'201208'!B70+'201209'!B70+'201210'!B70+'201211'!B70+'201212'!B70</f>
@@ -19442,7 +19443,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B71" s="39">
         <f>'201202'!B71+'201203'!B71+'201204'!B71+'201205'!B71+'201206'!B71+'201207'!B71+'201208'!B71+'201209'!B71+'201210'!B71+'201211'!B71+'201212'!B71</f>
@@ -19471,7 +19472,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B72" s="39">
         <f>'201202'!B72+'201203'!B72+'201204'!B72+'201205'!B72+'201206'!B72+'201207'!B72+'201208'!B72+'201209'!B72+'201210'!B72+'201211'!B72+'201212'!B72</f>
@@ -19500,7 +19501,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B73" s="39">
         <f>'201202'!B73+'201203'!B73+'201204'!B73+'201205'!B73+'201206'!B73+'201207'!B73+'201208'!B73+'201209'!B73+'201210'!B73+'201211'!B73+'201212'!B73</f>
@@ -19529,7 +19530,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B74" s="39">
         <f>'201202'!B74+'201203'!B74+'201204'!B74+'201205'!B74+'201206'!B74+'201207'!B74+'201208'!B74+'201209'!B74+'201210'!B74+'201211'!B74+'201212'!B74</f>
@@ -19558,7 +19559,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B75" s="39">
         <f>'201202'!B75+'201203'!B75+'201204'!B75+'201205'!B75+'201206'!B75+'201207'!B75+'201208'!B75+'201209'!B75+'201210'!B75+'201211'!B75+'201212'!B75</f>
@@ -19587,7 +19588,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B76" s="39">
         <f>'201202'!B76+'201203'!B76+'201204'!B76+'201205'!B76+'201206'!B76+'201207'!B76+'201208'!B76+'201209'!B76+'201210'!B76+'201211'!B76+'201212'!B76</f>
@@ -19616,7 +19617,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B77" s="39">
         <f>'201202'!B77+'201203'!B77+'201204'!B77+'201205'!B77+'201206'!B77+'201207'!B77+'201208'!B77+'201209'!B77+'201210'!B77+'201211'!B77+'201212'!B77</f>
@@ -19645,7 +19646,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B78" s="39">
         <f>'201202'!B78+'201203'!B78+'201204'!B78+'201205'!B78+'201206'!B78+'201207'!B78+'201208'!B78+'201209'!B78+'201210'!B78+'201211'!B78+'201212'!B78</f>
@@ -19674,7 +19675,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B79" s="39">
         <f>'201202'!B79+'201203'!B79+'201204'!B79+'201205'!B79+'201206'!B79+'201207'!B79+'201208'!B79+'201209'!B79+'201210'!B79+'201211'!B79+'201212'!B79</f>
@@ -19703,7 +19704,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B80" s="39">
         <f>'201202'!B80+'201203'!B80+'201204'!B80+'201205'!B80+'201206'!B80+'201207'!B80+'201208'!B80+'201209'!B80+'201210'!B80+'201211'!B80+'201212'!B80</f>
@@ -19732,7 +19733,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B81" s="39">
         <f>'201202'!B81+'201203'!B81+'201204'!B81+'201205'!B81+'201206'!B81+'201207'!B81+'201208'!B81+'201209'!B81+'201210'!B81+'201211'!B81+'201212'!B81</f>
@@ -19761,7 +19762,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B82" s="39">
         <f>'201202'!B82+'201203'!B82+'201204'!B82+'201205'!B82+'201206'!B82+'201207'!B82+'201208'!B82+'201209'!B82+'201210'!B82+'201211'!B82+'201212'!B82</f>
@@ -19790,7 +19791,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B83" s="39">
         <f>'201202'!B83+'201203'!B83+'201204'!B83+'201205'!B83+'201206'!B83+'201207'!B83+'201208'!B83+'201209'!B83+'201210'!B83+'201211'!B83+'201212'!B83</f>
@@ -19819,7 +19820,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B84" s="39">
         <f>'201202'!B84+'201203'!B84+'201204'!B84+'201205'!B84+'201206'!B84+'201207'!B84+'201208'!B84+'201209'!B84+'201210'!B84+'201211'!B84+'201212'!B84</f>
@@ -19848,7 +19849,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B85" s="39">
         <f>'201202'!B85+'201203'!B85+'201204'!B85+'201205'!B85+'201206'!B85+'201207'!B85+'201208'!B85+'201209'!B85+'201210'!B85+'201211'!B85+'201212'!B85</f>
@@ -19877,7 +19878,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B86" s="39">
         <f>'201202'!B86+'201203'!B86+'201204'!B86+'201205'!B86+'201206'!B86+'201207'!B86+'201208'!B86+'201209'!B86+'201210'!B86+'201211'!B86+'201212'!B86</f>
@@ -19906,7 +19907,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B87" s="39">
         <f>'201202'!B87+'201203'!B87+'201204'!B87+'201205'!B87+'201206'!B87+'201207'!B87+'201208'!B87+'201209'!B87+'201210'!B87+'201211'!B87+'201212'!B87</f>
@@ -19935,7 +19936,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B88" s="39">
         <f>'201202'!B88+'201203'!B88+'201204'!B88+'201205'!B88+'201206'!B88+'201207'!B88+'201208'!B88+'201209'!B88+'201210'!B88+'201211'!B88+'201212'!B88</f>
@@ -19964,7 +19965,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B89" s="39">
         <f>'201202'!B89+'201203'!B89+'201204'!B89+'201205'!B89+'201206'!B89+'201207'!B89+'201208'!B89+'201209'!B89+'201210'!B89+'201211'!B89+'201212'!B89</f>
@@ -19993,7 +19994,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B90" s="39">
         <f>'201202'!B90+'201203'!B90+'201204'!B90+'201205'!B90+'201206'!B90+'201207'!B90+'201208'!B90+'201209'!B90+'201210'!B90+'201211'!B90+'201212'!B90</f>
@@ -20022,7 +20023,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B91" s="39">
         <f>'201202'!B91+'201203'!B91+'201204'!B91+'201205'!B91+'201206'!B91+'201207'!B91+'201208'!B91+'201209'!B91+'201210'!B91+'201211'!B91+'201212'!B91</f>
@@ -20051,7 +20052,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B92" s="39">
         <f>'201202'!B92+'201203'!B92+'201204'!B92+'201205'!B92+'201206'!B92+'201207'!B92+'201208'!B92+'201209'!B92+'201210'!B92+'201211'!B92+'201212'!B92</f>
@@ -20080,7 +20081,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B93" s="39">
         <f>'201202'!B93+'201203'!B93+'201204'!B93+'201205'!B93+'201206'!B93+'201207'!B93+'201208'!B93+'201209'!B93+'201210'!B93+'201211'!B93+'201212'!B93</f>
@@ -20109,7 +20110,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B94" s="39">
         <f>'201202'!B94+'201203'!B94+'201204'!B94+'201205'!B94+'201206'!B94+'201207'!B94+'201208'!B94+'201209'!B94+'201210'!B94+'201211'!B94+'201212'!B94</f>
@@ -20138,7 +20139,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B95" s="39">
         <f>'201202'!B95+'201203'!B95+'201204'!B95+'201205'!B95+'201206'!B95+'201207'!B95+'201208'!B95+'201209'!B95+'201210'!B95+'201211'!B95+'201212'!B95</f>
@@ -20167,7 +20168,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B96" s="39">
         <f>'201202'!B96+'201203'!B96+'201204'!B96+'201205'!B96+'201206'!B96+'201207'!B96+'201208'!B96+'201209'!B96+'201210'!B96+'201211'!B96+'201212'!B96</f>
@@ -20196,7 +20197,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B97" s="39">
         <f>'201202'!B97+'201203'!B97+'201204'!B97+'201205'!B97+'201206'!B97+'201207'!B97+'201208'!B97+'201209'!B97+'201210'!B97+'201211'!B97+'201212'!B97</f>
@@ -20225,7 +20226,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B98" s="39">
         <f>'201202'!B98+'201203'!B98+'201204'!B98+'201205'!B98+'201206'!B98+'201207'!B98+'201208'!B98+'201209'!B98+'201210'!B98+'201211'!B98+'201212'!B98</f>
@@ -20254,7 +20255,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B99" s="39">
         <f>'201202'!B99+'201203'!B99+'201204'!B99+'201205'!B99+'201206'!B99+'201207'!B99+'201208'!B99+'201209'!B99+'201210'!B99+'201211'!B99+'201212'!B99</f>
@@ -20283,7 +20284,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B100" s="39">
         <f>'201202'!B100+'201203'!B100+'201204'!B100+'201205'!B100+'201206'!B100+'201207'!B100+'201208'!B100+'201209'!B100+'201210'!B100+'201211'!B100+'201212'!B100</f>
@@ -20416,857 +20417,735 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection sqref="A1:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
+      <c r="D1" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="14">
+        <v>121</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="39">
+        <f>SUM(B3:B50)</f>
+        <v>85</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="39">
+        <f>SUM(E3:E45)</f>
+        <v>1390</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="14">
+        <v>41058</v>
+      </c>
+      <c r="B3" s="1">
+        <v>195</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="14">
+        <v>40948</v>
+      </c>
+      <c r="E3" s="1">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
+        <v>41058</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-180</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="14">
+        <v>40952</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
+        <v>41058</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="14">
+        <v>40960</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="14">
         <v>40941</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B6" s="1">
         <v>160</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
+      <c r="C6" s="1"/>
+      <c r="D6" s="14">
+        <v>40967</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="14">
         <v>40946</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B7" s="1">
         <v>60</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
-        <v>40948</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1">
-        <v>75</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
-        <v>40952</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
-        <v>40960</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="14">
+        <v>40970</v>
+      </c>
+      <c r="E7" s="1">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="14">
+        <v>40972</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-70</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="14">
+        <v>40974</v>
+      </c>
+      <c r="E8" s="1">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="14">
+        <v>40981</v>
+      </c>
+      <c r="B9" s="1">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
-        <v>40967</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="14">
-        <v>40970</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="14">
-        <v>40974</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="14">
+        <v>40976</v>
+      </c>
+      <c r="E9" s="1">
+        <v>90</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="14">
+        <v>40981</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-120</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="14">
+        <v>40983</v>
+      </c>
+      <c r="E10" s="1">
+        <v>90</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="14">
+        <v>40983</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="14">
+        <v>40988</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="14">
+        <v>40990</v>
+      </c>
+      <c r="E13" s="1">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="14">
+        <v>40990</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-60</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="14">
+        <v>40995</v>
+      </c>
+      <c r="E15" s="1">
+        <v>70</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="14">
+        <v>40995</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="14">
+        <v>40997</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="14">
+        <v>40999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="14">
+        <v>41004</v>
+      </c>
+      <c r="E19" s="1">
+        <v>80</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="14">
+        <v>41009</v>
+      </c>
+      <c r="E20" s="1">
+        <v>170</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="14">
+        <v>41009</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-60</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="14">
+        <v>41009</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="14">
+        <v>41011</v>
+      </c>
+      <c r="E23" s="1">
+        <v>170</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="14">
+        <v>41011</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="14">
+        <v>41011</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-30</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="14">
+        <v>41016</v>
+      </c>
+      <c r="E26" s="1">
+        <v>230</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="14">
+        <v>41016</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-150</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="14">
+        <v>41018</v>
+      </c>
+      <c r="E28" s="1">
+        <v>220</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="14">
+        <v>41018</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-75</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="14">
+        <v>41023</v>
+      </c>
+      <c r="E30" s="1">
+        <v>200</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="14">
-        <v>40972</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-70</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="14">
+        <v>41025</v>
+      </c>
+      <c r="E31" s="1">
+        <v>200</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="14">
+        <v>41025</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-180</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="14">
+        <v>41032</v>
+      </c>
+      <c r="E33" s="1">
+        <v>140</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="14">
+        <v>41037</v>
+      </c>
+      <c r="E34" s="1">
+        <v>195</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="14">
+        <v>41039</v>
+      </c>
+      <c r="E35" s="1">
+        <v>285</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="14"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="14">
+        <v>41044</v>
+      </c>
+      <c r="E36" s="1">
+        <v>230</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="14">
+        <v>41044</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-90</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="14">
+        <v>41046</v>
+      </c>
+      <c r="E38" s="1">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="14"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="14">
+        <v>41046</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-320</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="14"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="14">
+        <v>41051</v>
+      </c>
+      <c r="E40" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="14">
-        <v>40976</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>90</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="14">
-        <v>40981</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="14">
-        <v>40981</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-120</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="14">
-        <v>40983</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>90</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="14">
-        <v>40983</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-60</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="14">
-        <v>40988</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>50</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="14">
-        <v>40990</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="1">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="14">
-        <v>40990</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="1">
-        <v>-60</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="14">
-        <v>40995</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>70</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="14">
-        <v>40995</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>-30</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="14">
-        <v>40997</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>50</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="14">
-        <v>40999</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="14">
-        <v>41004</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>80</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="14">
-        <v>41009</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>170</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="14">
-        <v>41009</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>-60</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="14">
-        <v>41009</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>20</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="14">
-        <v>41011</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>170</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="14">
-        <v>41011</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="14">
-        <v>41011</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
-        <v>-30</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="14">
-        <v>41016</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>230</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="14">
-        <v>41016</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1">
-        <v>-150</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="14">
-        <v>41018</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>220</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="14">
-        <v>41018</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1">
-        <v>-75</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="14">
-        <v>41023</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>200</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="14">
-        <v>41025</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>200</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="14">
-        <v>41025</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1">
-        <v>-180</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="14">
-        <v>41032</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
-        <v>140</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="14">
-        <v>41037</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
-        <v>195</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="14">
-        <v>41039</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1">
-        <v>285</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="F40" s="41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="14"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="14">
+        <v>41051</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-350</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="14"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="14">
+        <v>41053</v>
+      </c>
+      <c r="E42" s="1">
+        <v>15</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="14"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="14">
+        <v>41053</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-300</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="14">
-        <v>41044</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1">
-        <v>230</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="14"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="14">
+        <v>41053</v>
+      </c>
+      <c r="E44" s="1">
+        <v>25</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="14">
-        <v>41044</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1">
-        <v>-90</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="14">
-        <v>41046</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1">
-        <v>15</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="14">
-        <v>41046</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>-320</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="14">
-        <v>41051</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1">
-        <v>55</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="14">
-        <v>41051</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1">
-        <v>350</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="14">
-        <v>41053</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1">
-        <v>15</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="14">
-        <v>41053</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1">
-        <v>-300</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="14">
-        <v>41053</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1">
-        <v>25</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="14"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="14"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="14"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="14"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="14"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39">
-        <f>SUM(C2:C49)</f>
-        <v>2150</v>
-      </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="10"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="14"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="14"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="10"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="14"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="10"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="10"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="F52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -22870,7 +22749,7 @@
     <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="str">
         <f>member!A42</f>
-        <v>雷</v>
+        <v>雷雨</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" si="5"/>
@@ -25827,7 +25706,7 @@
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="str">
         <f>member!A42</f>
-        <v>雷</v>
+        <v>雷雨</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" si="25"/>
@@ -27878,7 +27757,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="str">
         <f>member!A42</f>
-        <v>雷</v>
+        <v>雷雨</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" si="21"/>
@@ -28515,10 +28394,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E31" sqref="A1:K100"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28528,10 +28407,10 @@
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="7" t="s">
         <v>35</v>
@@ -28563,14 +28442,17 @@
       <c r="K1" s="5">
         <v>41053</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="5">
+        <v>41058</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="33">
         <f>SUM(B9:B100)</f>
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="35"/>
@@ -28599,11 +28481,15 @@
         <v>16</v>
       </c>
       <c r="K2" s="33">
-        <f t="shared" ref="K2" si="3">COUNT(K9:K100)</f>
+        <f t="shared" ref="K2:L2" si="3">COUNT(K9:K100)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2" s="33">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -28631,15 +28517,18 @@
       <c r="K3" s="20">
         <v>345</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3" s="20">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="34">
         <f>SUM(E4:T4)</f>
-        <v>3310</v>
+        <v>3850</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="32">
@@ -28667,11 +28556,15 @@
         <v>400</v>
       </c>
       <c r="K4" s="32">
-        <f t="shared" ref="K4" si="7">K2*K7</f>
+        <f t="shared" ref="K4:L4" si="7">K2*K7</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4" s="32">
+        <f t="shared" si="7"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -28679,7 +28572,7 @@
       <c r="C5" s="34"/>
       <c r="D5" s="35">
         <f>SUM(E5:T5)</f>
-        <v>905</v>
+        <v>1100</v>
       </c>
       <c r="E5" s="32">
         <f t="shared" ref="E5:F5" si="8">E4-E3</f>
@@ -28706,11 +28599,15 @@
         <v>55</v>
       </c>
       <c r="K5" s="32">
-        <f t="shared" ref="K5" si="11">K4-K3</f>
+        <f t="shared" ref="K5:L5" si="11">K4-K3</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" s="32">
+        <f t="shared" ref="L5" si="12">L4-L3</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -28718,35 +28615,39 @@
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
       <c r="E6" s="32">
-        <f t="shared" ref="E6:F6" si="12">E3/E2</f>
+        <f t="shared" ref="E6:F6" si="13">E3/E2</f>
         <v>21.25</v>
       </c>
       <c r="F6" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.166666666666668</v>
       </c>
       <c r="G6" s="32">
-        <f t="shared" ref="G6:H6" si="13">G3/G2</f>
+        <f t="shared" ref="G6:H6" si="14">G3/G2</f>
         <v>16.428571428571427</v>
       </c>
       <c r="H6" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18.888888888888889</v>
       </c>
       <c r="I6" s="32">
-        <f t="shared" ref="I6:J6" si="14">I3/I2</f>
+        <f t="shared" ref="I6:J6" si="15">I3/I2</f>
         <v>19.166666666666668</v>
       </c>
       <c r="J6" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21.5625</v>
       </c>
       <c r="K6" s="32">
-        <f t="shared" ref="K6" si="15">K3/K2</f>
+        <f t="shared" ref="K6:L6" si="16">K3/K2</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6" s="32">
+        <f t="shared" si="16"/>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -28774,8 +28675,11 @@
       <c r="K7" s="20">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -28783,50 +28687,54 @@
       <c r="C8" s="34"/>
       <c r="D8" s="36"/>
       <c r="E8" s="32">
-        <f t="shared" ref="E8:F8" si="16">E7-E6</f>
+        <f t="shared" ref="E8:F8" si="17">E7-E6</f>
         <v>8.75</v>
       </c>
       <c r="F8" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.833333333333332</v>
       </c>
       <c r="G8" s="32">
-        <f t="shared" ref="G8:H8" si="17">G7-G6</f>
+        <f t="shared" ref="G8:H8" si="18">G7-G6</f>
         <v>13.571428571428573</v>
       </c>
       <c r="H8" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.111111111111111</v>
       </c>
       <c r="I8" s="32">
-        <f t="shared" ref="I8:J8" si="18">I7-I6</f>
+        <f t="shared" ref="I8:J8" si="19">I7-I6</f>
         <v>0.83333333333333215</v>
       </c>
       <c r="J8" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.4375</v>
       </c>
       <c r="K8" s="32">
-        <f t="shared" ref="K8" si="19">K7-K6</f>
+        <f t="shared" ref="K8:L8" si="20">K7-K6</f>
         <v>0.83333333333333215</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8" s="32">
+        <f t="shared" si="20"/>
+        <v>10.833333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="str">
         <f>member!A9</f>
         <v>守候幸福</v>
       </c>
       <c r="B9" s="34">
-        <f t="shared" ref="B9:B62" si="20">COUNT(E9:T9)</f>
-        <v>3</v>
+        <f t="shared" ref="B9:B62" si="21">COUNT(E9:T9)</f>
+        <v>4</v>
       </c>
       <c r="C9" s="34">
         <f>E7*E9+F7*F9+G7*G9+H7*H9+I7*I9+J7*J9+K7*K9+L7*L9+M7*M9+N7*N9+O7*O9+P7*P9+Q7*Q9+R7*R9+S7*S9+T7*T9</f>
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D9" s="36">
         <f>E8*E9+F8*F9+G8*G9+H8*H9+I8*I9+J8*J9+K8*K9+L8*L9+M8*M9+O8*O9+P8*P9+Q8*Q9+R8*R9+S8*S9+T8*T9</f>
-        <v>25.381944444444443</v>
+        <v>36.215277777777771</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
@@ -28841,14 +28749,17 @@
         <v>1</v>
       </c>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="str">
         <f>member!A10</f>
         <v>李一刀</v>
       </c>
       <c r="B10" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C10" s="34">
@@ -28878,23 +28789,24 @@
       <c r="K10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="str">
         <f>member!A11</f>
         <v>咣咣地跟屁蟲</v>
       </c>
       <c r="B11" s="34">
-        <f t="shared" si="20"/>
-        <v>6</v>
+        <f t="shared" si="21"/>
+        <v>7</v>
       </c>
       <c r="C11" s="34">
         <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+N7*N11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="D11" s="36">
         <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
-        <v>35.7986111111111</v>
+        <v>46.631944444444429</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -28915,14 +28827,17 @@
       <c r="K11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="str">
         <f>member!A12</f>
         <v>Oo内拉祖里oO</v>
       </c>
       <c r="B12" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C12" s="34">
@@ -28940,14 +28855,15 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="str">
         <f>member!A13</f>
         <v>幸福~拂晓</v>
       </c>
       <c r="B13" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C13" s="34">
@@ -28977,23 +28893,24 @@
       <c r="K13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="str">
         <f>member!A14</f>
         <v>蚕豆</v>
       </c>
       <c r="B14" s="34">
-        <f t="shared" si="20"/>
-        <v>6</v>
+        <f t="shared" si="21"/>
+        <v>7</v>
       </c>
       <c r="C14" s="34">
         <f>E7*E14+F7*F14+G7*G14+H7*H14+I7*I14+J7*J14+K7*K14+L7*L14+M7*M14+N7*N14+O7*O14+P7*P14+Q7*Q14+R7*R14+S7*S14+T7*T14</f>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="D14" s="36">
         <f>E8*E14+F8*F14+G8*G14+H8*H14+I8*I14+J8*J14+K8*K14+L8*L14+M8*M14+O8*O14+P8*P14+Q8*Q14+R8*R14+S8*S14+T8*T14</f>
-        <v>45.932539682539669</v>
+        <v>56.765873015872998</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -29014,14 +28931,17 @@
       <c r="K14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="str">
         <f>member!A15</f>
         <v>who cares?</v>
       </c>
       <c r="B15" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C15" s="34">
@@ -29039,14 +28959,15 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="str">
         <f>member!A16</f>
         <v>幸福~彩票</v>
       </c>
       <c r="B16" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C16" s="34">
@@ -29064,23 +28985,24 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="str">
         <f>member!A17</f>
         <v>清道夫</v>
       </c>
       <c r="B17" s="34">
-        <f t="shared" si="20"/>
-        <v>3</v>
+        <f t="shared" si="21"/>
+        <v>4</v>
       </c>
       <c r="C17" s="34">
         <f>E7*E17+F7*F17+G7*G17+H7*H17+I7*I17+J7*J17+K7*K17+L7*L17+M7*M17+O7*O17+P7*P17+Q7*Q17+R7*R17+S7*S17+T7*T17</f>
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D17" s="36">
         <f>E8*E17+F8*F17+G8*G17+H8*H17+I8*I17+J8*J17+K8*K17+L8*L17+M8*M17+O8*O17+P8*P17+Q8*Q17+R8*R17+S8*S17+T8*T17</f>
-        <v>17.842261904761905</v>
+        <v>28.675595238095237</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -29095,14 +29017,17 @@
         <v>1</v>
       </c>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="str">
         <f>member!A18</f>
         <v>老A</v>
       </c>
       <c r="B18" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="C18" s="34">
@@ -29128,23 +29053,24 @@
       <c r="K18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="str">
         <f>member!A19</f>
         <v>狐狸</v>
       </c>
       <c r="B19" s="34">
-        <f t="shared" si="20"/>
-        <v>4</v>
+        <f t="shared" si="21"/>
+        <v>5</v>
       </c>
       <c r="C19" s="34">
         <f>E7*E19+F7*F19+G7*G19+H7*H19+I7*I19+J7*J19+K7*K19+L7*L19+M7*M19+O7*O19+P7*P19+Q7*Q19+R7*R19+S7*S19+T7*T19</f>
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D19" s="36">
         <f>E8*E19+F8*F19+G8*G19+H8*H19+I8*I19+J8*J19+K8*K19+L8*L19+M8*M19+O8*O19+P8*P19+Q8*Q19+R8*R19+S8*S19+T8*T19</f>
-        <v>33.988095238095241</v>
+        <v>44.821428571428569</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -29161,14 +29087,17 @@
       <c r="K19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="str">
         <f>member!A20</f>
         <v>腿子</v>
       </c>
       <c r="B20" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="C20" s="34">
@@ -29190,23 +29119,24 @@
       <c r="K20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="str">
         <f>member!A21</f>
         <v>smile</v>
       </c>
       <c r="B21" s="34">
-        <f t="shared" si="20"/>
-        <v>3</v>
+        <f t="shared" si="21"/>
+        <v>4</v>
       </c>
       <c r="C21" s="34">
         <f>E7*E21+F7*F21+G7*G21+H7*H21+I7*I21+J7*J21+K7*K21+L7*L21+M7*M21+O7*O21+P7*P21+Q7*Q21+R7*R21+S7*S21+T7*T21</f>
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D21" s="36">
         <f>E8*E21+F8*F21+G8*G21+H8*H21+I8*I21+J8*J21+K8*K21+L8*L21+M8*M21+O8*O21+P8*P21+Q8*Q21+R8*R21+S8*S21+T8*T21</f>
-        <v>23.298611111111111</v>
+        <v>34.131944444444443</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -29221,14 +29151,17 @@
         <v>1</v>
       </c>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="str">
         <f>member!A22</f>
         <v>小贝</v>
       </c>
       <c r="B22" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C22" s="34">
@@ -29248,23 +29181,24 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="str">
         <f>member!A23</f>
         <v>11号-鲜明</v>
       </c>
       <c r="B23" s="34">
-        <f t="shared" si="20"/>
-        <v>4</v>
+        <f t="shared" si="21"/>
+        <v>5</v>
       </c>
       <c r="C23" s="34">
         <f>E7*E23+F7*F23+G7*G23+H7*H23+I7*I23+J7*J23+K7*K23+L7*L23+M7*M23+O7*O23+P7*P23+Q7*Q23+R7*R23+S7*S23+T7*T23</f>
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="D23" s="36">
         <f>E8*E23+F8*F23+G8*G23+H8*H23+I8*I23+J8*J23+K8*K23+L8*L23+M8*M23+O8*O23+P8*P23+Q8*Q23+R8*R23+S8*S23+T8*T23</f>
-        <v>36.592261904761905</v>
+        <v>47.425595238095241</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -29281,14 +29215,17 @@
         <v>1</v>
       </c>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="str">
         <f>member!A24</f>
         <v>狐狸~涛</v>
       </c>
       <c r="B24" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C24" s="34">
@@ -29308,23 +29245,24 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="str">
         <f>member!A25</f>
         <v>侯盟</v>
       </c>
       <c r="B25" s="34">
-        <f t="shared" si="20"/>
-        <v>3</v>
+        <f t="shared" si="21"/>
+        <v>4</v>
       </c>
       <c r="C25" s="34">
         <f>E7*E25+F7*F25+G7*G25+H7*H25+I7*I25+J7*J25+K7*K25+L7*L25+M7*M25+O7*O25+P7*P25+Q7*Q25+R7*R25+S7*S25+T7*T25</f>
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D25" s="36">
         <f>E8*E25+F8*F25+G8*G25+H8*H25+I8*I25+J8*J25+K8*K25+L8*L25+M8*M25+O8*O25+P8*P25+Q8*Q25+R8*R25+S8*S25+T8*T25</f>
-        <v>17.842261904761905</v>
+        <v>28.675595238095237</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -29339,14 +29277,17 @@
         <v>1</v>
       </c>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="str">
         <f>member!A26</f>
         <v>玖伍贰壹</v>
       </c>
       <c r="B26" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C26" s="34">
@@ -29364,23 +29305,24 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="str">
         <f>member!A27</f>
         <v>红色F50-超</v>
       </c>
       <c r="B27" s="34">
-        <f t="shared" si="20"/>
-        <v>7</v>
+        <f t="shared" si="21"/>
+        <v>8</v>
       </c>
       <c r="C27" s="34">
         <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="D27" s="36">
         <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
-        <v>49.370039682539669</v>
+        <v>60.203373015872998</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -29403,23 +29345,26 @@
       <c r="K27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="str">
         <f>member!A28</f>
         <v>活了</v>
       </c>
       <c r="B28" s="34">
-        <f t="shared" si="20"/>
-        <v>5</v>
+        <f t="shared" si="21"/>
+        <v>6</v>
       </c>
       <c r="C28" s="34">
         <f>E7*E28+F7*F28+G7*G28+H7*H28+I7*I28+J7*J28+K7*K28+L7*L28+M7*M28+O7*O28+P7*P28+Q7*Q28+R7*R28+S7*S28+T7*T28</f>
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D28" s="36">
         <f>E8*E28+F8*F28+G8*G28+H8*H28+I8*I28+J8*J28+K8*K28+L8*L28+M8*M28+O8*O28+P8*P28+Q8*Q28+R8*R28+S8*S28+T8*T28</f>
-        <v>34.965277777777771</v>
+        <v>45.7986111111111</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -29438,14 +29383,17 @@
       <c r="K28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="str">
         <f>member!A29</f>
         <v>天赐</v>
       </c>
       <c r="B29" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="C29" s="34">
@@ -29471,14 +29419,15 @@
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="str">
         <f>member!A30</f>
         <v>Shenghak</v>
       </c>
       <c r="B30" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="C30" s="34">
@@ -29502,14 +29451,15 @@
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="str">
         <f>member!A31</f>
         <v>红色6号</v>
       </c>
       <c r="B31" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C31" s="34">
@@ -29527,14 +29477,15 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="str">
         <f>member!A32</f>
         <v>微笑</v>
       </c>
       <c r="B32" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="C32" s="34">
@@ -29560,14 +29511,15 @@
       <c r="K32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="str">
         <f>member!A33</f>
         <v>77号-更心</v>
       </c>
       <c r="B33" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="C33" s="34">
@@ -29589,14 +29541,15 @@
       <c r="K33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="str">
         <f>member!A34</f>
         <v>更心朋友</v>
       </c>
       <c r="B34" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C34" s="34">
@@ -29614,23 +29567,24 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="str">
         <f>member!A35</f>
         <v>8号-菜菜亮</v>
       </c>
       <c r="B35" s="34">
-        <f t="shared" si="20"/>
-        <v>5</v>
+        <f t="shared" si="21"/>
+        <v>6</v>
       </c>
       <c r="C35" s="34">
         <f>E7*E35+F7*F35+G7*G35+H7*H35+I7*I35+J7*J35+K7*K35+L7*L35+M7*M35+O7*O35+P7*P35+Q7*Q35+R7*R35+S7*S35+T7*T35</f>
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D35" s="36">
         <f>E8*E35+F8*F35+G8*G35+H8*H35+I8*I35+J8*J35+K8*K35+L8*L35+M8*M35+O8*O35+P8*P35+Q8*Q35+R8*R35+S8*S35+T8*T35</f>
-        <v>39.786706349206341</v>
+        <v>50.620039682539669</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2">
@@ -29649,14 +29603,17 @@
         <v>1</v>
       </c>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="str">
         <f>member!A36</f>
         <v>杨光朋友</v>
       </c>
       <c r="B36" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C36" s="34">
@@ -29674,14 +29631,15 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="str">
         <f>member!A37</f>
         <v>拂晓朋友</v>
       </c>
       <c r="B37" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C37" s="34">
@@ -29699,14 +29657,15 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="str">
         <f>member!A38</f>
         <v>4号-许多</v>
       </c>
       <c r="B38" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C38" s="34">
@@ -29724,23 +29683,24 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="str">
         <f>member!A39</f>
         <v>5号-正</v>
       </c>
       <c r="B39" s="34">
-        <f t="shared" si="20"/>
-        <v>3</v>
+        <f t="shared" si="21"/>
+        <v>4</v>
       </c>
       <c r="C39" s="34">
         <f>E7*E39+F7*F39+G7*G39+H7*H39+I7*I39+J7*J39+K7*K39+L7*L39+M7*M39+O7*O39+P7*P39+Q7*Q39+R7*R39+S7*S39+T7*T39</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D39" s="36">
         <f>E8*E39+F8*F39+G8*G39+H8*H39+I8*I39+J8*J39+K8*K39+L8*L39+M8*M39+O8*O39+P8*P39+Q8*Q39+R8*R39+S8*S39+T8*T39</f>
-        <v>15.238095238095237</v>
+        <v>26.071428571428569</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -29755,14 +29715,17 @@
       <c r="K39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="str">
         <f>member!A40</f>
         <v>勇敢的爬爬</v>
       </c>
       <c r="B40" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C40" s="34">
@@ -29780,14 +29743,15 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="str">
         <f>member!A41</f>
         <v>17号-4号字母</v>
       </c>
       <c r="B41" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C41" s="34">
@@ -29805,23 +29769,24 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="str">
         <f>member!A42</f>
-        <v>雷</v>
+        <v>雷雨</v>
       </c>
       <c r="B42" s="34">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="C42" s="34">
         <f>E7*E42+F7*F42+G7*G42+H7*H42+I7*I42+J7*J42+K7*K42+L7*L42+M7*M42+O7*O42+P7*P42+Q7*Q42+R7*R42+S7*S42+T7*T42</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D42" s="36">
         <f>E8*E42+F8*F42+G8*G42+H8*H42+I8*I42+J8*J42+K8*K42+L8*L42+M8*M42+O8*O42+P8*P42+Q8*Q42+R8*R42+S8*S42+T8*T42</f>
-        <v>0</v>
+        <v>10.833333333333332</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -29830,14 +29795,17 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="str">
         <f>member!A43</f>
         <v>西北偏北</v>
       </c>
       <c r="B43" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C43" s="34">
@@ -29857,14 +29825,15 @@
       <c r="K43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="str">
         <f>member!A44</f>
         <v>红色8号</v>
       </c>
       <c r="B44" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C44" s="34">
@@ -29882,23 +29851,24 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="str">
         <f>member!A45</f>
         <v>马耳他</v>
       </c>
       <c r="B45" s="34">
-        <f t="shared" si="20"/>
-        <v>4</v>
+        <f t="shared" si="21"/>
+        <v>5</v>
       </c>
       <c r="C45" s="34">
         <f>E7*E45+F7*F45+G7*G45+H7*H45+I7*I45+J7*J45+K7*K45+L7*L45+M7*M45+O7*O45+P7*P45+Q7*Q45+R7*R45+S7*S45+T7*T45</f>
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D45" s="36">
         <f>E8*E45+F8*F45+G8*G45+H8*H45+I8*I45+J8*J45+K8*K45+L8*L45+M8*M45+O8*O45+P8*P45+Q8*Q45+R8*R45+S8*S45+T8*T45</f>
-        <v>15.937499999999996</v>
+        <v>26.770833333333329</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2">
@@ -29915,23 +29885,26 @@
       <c r="K45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="str">
         <f>member!A46</f>
         <v>Cindy~陈猛</v>
       </c>
       <c r="B46" s="34">
-        <f t="shared" si="20"/>
-        <v>5</v>
+        <f t="shared" si="21"/>
+        <v>6</v>
       </c>
       <c r="C46" s="34">
         <f>E7*E46+F7*F46+G7*G46+H7*H46+I7*I46+J7*J46+K7*K46+L7*L46+M7*M46+O7*O46+P7*P46+Q7*Q46+R7*R46+S7*S46+T7*T46</f>
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D46" s="36">
         <f>E8*E46+F8*F46+G8*G46+H8*H46+I8*I46+J8*J46+K8*K46+L8*L46+M8*M46+O8*O46+P8*P46+Q8*Q46+R8*R46+S8*S46+T8*T46</f>
-        <v>39.786706349206341</v>
+        <v>50.620039682539669</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2">
@@ -29950,14 +29923,17 @@
         <v>1</v>
       </c>
       <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="str">
         <f>member!A47</f>
         <v>硕</v>
       </c>
       <c r="B47" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="C47" s="34">
@@ -29979,14 +29955,15 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="str">
         <f>member!A48</f>
         <v>Violin</v>
       </c>
       <c r="B48" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C48" s="34">
@@ -30006,14 +29983,15 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="str">
         <f>member!A49</f>
         <v>87号陈磊</v>
       </c>
       <c r="B49" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="C49" s="34">
@@ -30039,14 +30017,15 @@
       <c r="K49" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="str">
         <f>member!A50</f>
         <v>水中阳光</v>
       </c>
       <c r="B50" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C50" s="34">
@@ -30064,23 +30043,24 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="str">
         <f>member!A51</f>
         <v>sam</v>
       </c>
       <c r="B51" s="34">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>2</v>
       </c>
       <c r="C51" s="34">
         <f>E7*E51+F7*F51+G7*G51+H7*H51+I7*I51+J7*J51+K7*K51+L7*L51+M7*M51+O7*O51+P7*P51+Q7*Q51+R7*R51+S7*S51+T7*T51</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D51" s="36">
         <f>E8*E51+F8*F51+G8*G51+H8*H51+I8*I51+J8*J51+K8*K51+L8*L51+M8*M51+O8*O51+P8*P51+Q8*Q51+R8*R51+S8*S51+T8*T51</f>
-        <v>0.83333333333333215</v>
+        <v>11.666666666666664</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -30091,14 +30071,17 @@
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="str">
         <f>member!A52</f>
         <v>26 方亚</v>
       </c>
       <c r="B52" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="C52" s="34">
@@ -30124,14 +30107,15 @@
         <v>1</v>
       </c>
       <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="str">
         <f>member!A53</f>
         <v>维尼</v>
       </c>
       <c r="B53" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C53" s="34">
@@ -30149,14 +30133,15 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="str">
         <f>member!A54</f>
         <v>0号--张家宁</v>
       </c>
       <c r="B54" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C54" s="34">
@@ -30174,14 +30159,15 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="str">
         <f>member!A55</f>
         <v>泰山</v>
       </c>
       <c r="B55" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C55" s="34">
@@ -30199,14 +30185,15 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="str">
         <f>member!A56</f>
         <v>尚峰</v>
       </c>
       <c r="B56" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="C56" s="34">
@@ -30232,14 +30219,15 @@
         <v>1</v>
       </c>
       <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="str">
         <f>member!A57</f>
         <v>杨光</v>
       </c>
       <c r="B57" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C57" s="34">
@@ -30257,23 +30245,24 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="str">
         <f>member!A58</f>
         <v>小磊</v>
       </c>
       <c r="B58" s="34">
-        <f t="shared" si="20"/>
-        <v>5</v>
+        <f t="shared" si="21"/>
+        <v>6</v>
       </c>
       <c r="C58" s="34">
         <f>E7*E58+F7*F58+G7*G58+H7*H58+I7*I58+J7*J58+K7*K58+L7*L58+M7*M58+O7*O58+P7*P58+Q7*Q58+R7*R58+S7*S58+T7*T58</f>
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D58" s="36">
         <f>E8*E58+F8*F58+G8*G58+H8*H58+I8*I58+J8*J58+K8*K58+L8*L58+M8*M58+O8*O58+P8*P58+Q8*Q58+R8*R58+S8*S58+T8*T58</f>
-        <v>37.703373015873012</v>
+        <v>48.536706349206341</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -30292,14 +30281,17 @@
       <c r="K58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="str">
         <f>member!A59</f>
         <v>绿洲</v>
       </c>
       <c r="B59" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="C59" s="34">
@@ -30317,14 +30309,15 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="str">
         <f>member!A60</f>
         <v>孙伟</v>
       </c>
       <c r="B60" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="C60" s="34">
@@ -30346,14 +30339,15 @@
       <c r="K60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="str">
         <f>member!A61</f>
         <v>古轮木</v>
       </c>
       <c r="B61" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C61" s="34">
@@ -30373,14 +30367,15 @@
       <c r="K61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="str">
         <f>member!A62</f>
         <v>makoko</v>
       </c>
       <c r="B62" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C62" s="34">
@@ -30400,14 +30395,15 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="11" t="str">
         <f>member!A63</f>
         <v>玲1</v>
       </c>
       <c r="B63" s="34">
-        <f t="shared" ref="B63" si="21">COUNT(E63:T63)</f>
+        <f t="shared" ref="B63" si="22">COUNT(E63:T63)</f>
         <v>1</v>
       </c>
       <c r="C63" s="34">
@@ -30427,14 +30423,15 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="str">
         <f>member!A64</f>
         <v>玲2</v>
       </c>
       <c r="B64" s="34">
-        <f t="shared" ref="B64:B100" si="22">COUNT(E64:T64)</f>
+        <f t="shared" ref="B64:B100" si="23">COUNT(E64:T64)</f>
         <v>1</v>
       </c>
       <c r="C64" s="34">
@@ -30454,14 +30451,15 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="11" t="str">
         <f>member!A65</f>
         <v>玲3</v>
       </c>
       <c r="B65" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C65" s="34">
@@ -30481,14 +30479,15 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="str">
         <f>member!A66</f>
         <v>玲4</v>
       </c>
       <c r="B66" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C66" s="34">
@@ -30508,14 +30507,15 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="11" t="str">
         <f>member!A67</f>
         <v>玲5</v>
       </c>
       <c r="B67" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C67" s="34">
@@ -30535,23 +30535,24 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="str">
         <f>member!A68</f>
-        <v>新</v>
+        <v>度日</v>
       </c>
       <c r="B68" s="34">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="C68" s="34">
         <f>E7*E68+F7*F68+G7*G68+H7*H68+I7*I68+J7*J68+K7*K68+L7*L68+M7*M68+N7*N68+O7*O68+P7*P68+Q7*Q68+R7*R68+S7*S68+T7*T68</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D68" s="36">
         <f>E8*E68+F8*F68+G8*G68+H8*H68+I8*I68+J8*J68+K8*K68+L8*L68+M8*M68+N8*N68+O8*O68+P8*P68+Q8*Q68+R8*R68+S8*S68+T8*T68</f>
-        <v>0</v>
+        <v>10.833333333333332</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -30560,14 +30561,17 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="11" t="str">
         <f>member!A69</f>
         <v>新</v>
       </c>
       <c r="B69" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C69" s="34">
@@ -30585,14 +30589,15 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="11" t="str">
         <f>member!A70</f>
         <v>新</v>
       </c>
       <c r="B70" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C70" s="34">
@@ -30610,14 +30615,15 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="str">
         <f>member!A71</f>
         <v>新</v>
       </c>
       <c r="B71" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C71" s="34">
@@ -30635,14 +30641,15 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="str">
         <f>member!A72</f>
         <v>新</v>
       </c>
       <c r="B72" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C72" s="34">
@@ -30660,14 +30667,15 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="str">
         <f>member!A73</f>
         <v>新</v>
       </c>
       <c r="B73" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C73" s="34">
@@ -30685,14 +30693,15 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="str">
         <f>member!A74</f>
         <v>新</v>
       </c>
       <c r="B74" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C74" s="34">
@@ -30710,14 +30719,15 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="11" t="str">
         <f>member!A75</f>
         <v>新</v>
       </c>
       <c r="B75" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C75" s="34">
@@ -30735,14 +30745,15 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="str">
         <f>member!A76</f>
         <v>新</v>
       </c>
       <c r="B76" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C76" s="34">
@@ -30760,14 +30771,15 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="11" t="str">
         <f>member!A77</f>
         <v>新</v>
       </c>
       <c r="B77" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C77" s="34">
@@ -30785,14 +30797,15 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="str">
         <f>member!A78</f>
         <v>新</v>
       </c>
       <c r="B78" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C78" s="34">
@@ -30810,14 +30823,15 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="str">
         <f>member!A79</f>
         <v>新</v>
       </c>
       <c r="B79" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C79" s="34">
@@ -30835,14 +30849,15 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="str">
         <f>member!A80</f>
         <v>新</v>
       </c>
       <c r="B80" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C80" s="34">
@@ -30860,14 +30875,15 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="11" t="str">
         <f>member!A81</f>
         <v>新</v>
       </c>
       <c r="B81" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C81" s="34">
@@ -30885,14 +30901,15 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="11" t="str">
         <f>member!A82</f>
         <v>新</v>
       </c>
       <c r="B82" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C82" s="34">
@@ -30910,14 +30927,15 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="11" t="str">
         <f>member!A83</f>
         <v>新</v>
       </c>
       <c r="B83" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C83" s="34">
@@ -30935,14 +30953,15 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="str">
         <f>member!A84</f>
         <v>新</v>
       </c>
       <c r="B84" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C84" s="34">
@@ -30960,14 +30979,15 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" s="11" t="str">
         <f>member!A85</f>
         <v>新</v>
       </c>
       <c r="B85" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C85" s="34">
@@ -30985,14 +31005,15 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="str">
         <f>member!A86</f>
         <v>新</v>
       </c>
       <c r="B86" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C86" s="34">
@@ -31010,14 +31031,15 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="11" t="str">
         <f>member!A87</f>
         <v>新</v>
       </c>
       <c r="B87" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C87" s="34">
@@ -31035,14 +31057,15 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="str">
         <f>member!A88</f>
         <v>新</v>
       </c>
       <c r="B88" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C88" s="34">
@@ -31060,14 +31083,15 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" s="11" t="str">
         <f>member!A89</f>
         <v>新</v>
       </c>
       <c r="B89" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C89" s="34">
@@ -31085,14 +31109,15 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" s="11" t="str">
         <f>member!A90</f>
         <v>新</v>
       </c>
       <c r="B90" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C90" s="34">
@@ -31110,14 +31135,15 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" s="11" t="str">
         <f>member!A91</f>
         <v>新</v>
       </c>
       <c r="B91" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C91" s="34">
@@ -31135,14 +31161,15 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" s="11" t="str">
         <f>member!A92</f>
         <v>新</v>
       </c>
       <c r="B92" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C92" s="34">
@@ -31160,14 +31187,15 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" s="11" t="str">
         <f>member!A93</f>
         <v>新</v>
       </c>
       <c r="B93" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C93" s="34">
@@ -31185,14 +31213,15 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="11" t="str">
         <f>member!A94</f>
         <v>新</v>
       </c>
       <c r="B94" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C94" s="34">
@@ -31210,14 +31239,15 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="str">
         <f>member!A95</f>
         <v>新</v>
       </c>
       <c r="B95" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C95" s="34">
@@ -31235,14 +31265,15 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" s="11" t="str">
         <f>member!A96</f>
         <v>新</v>
       </c>
       <c r="B96" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C96" s="34">
@@ -31260,14 +31291,15 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="str">
         <f>member!A97</f>
         <v>新</v>
       </c>
       <c r="B97" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C97" s="34">
@@ -31285,14 +31317,15 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" s="11" t="str">
         <f>member!A98</f>
         <v>新</v>
       </c>
       <c r="B98" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C98" s="34">
@@ -31310,14 +31343,15 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="str">
         <f>member!A99</f>
         <v>新</v>
       </c>
       <c r="B99" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C99" s="34">
@@ -31335,14 +31369,15 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" s="11" t="str">
         <f>member!A100</f>
         <v>新</v>
       </c>
       <c r="B100" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C100" s="34">
@@ -31360,6 +31395,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -497,10 +497,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18*30-345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>度日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,6 +514,10 @@
   </si>
   <si>
     <t>2012.5.3多收10块（回收算作少退10块）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18*30-345,狐狸欠10，SM欠15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18572,7 +18572,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42" s="39">
         <f>'201202'!B42+'201203'!B42+'201204'!B42+'201205'!B42+'201206'!B42+'201207'!B42+'201208'!B42+'201209'!B42+'201210'!B42+'201211'!B42+'201212'!B42</f>
@@ -19090,7 +19090,7 @@
       <c r="H58" s="18"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -19356,7 +19356,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B68" s="39">
         <f>'201202'!B68+'201203'!B68+'201204'!B68+'201205'!B68+'201206'!B68+'201207'!B68+'201208'!B68+'201209'!B68+'201210'!B68+'201211'!B68+'201212'!B68</f>
@@ -20419,8 +20419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20478,8 +20478,8 @@
       <c r="B3" s="1">
         <v>195</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>122</v>
+      <c r="C3" s="41" t="s">
+        <v>127</v>
       </c>
       <c r="D3" s="14">
         <v>40948</v>
@@ -20497,7 +20497,7 @@
         <v>-180</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="14">
         <v>40952</v>
@@ -20515,7 +20515,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="14">
         <v>40960</v>
@@ -28599,7 +28599,7 @@
         <v>55</v>
       </c>
       <c r="K5" s="32">
-        <f t="shared" ref="K5:L5" si="11">K4-K3</f>
+        <f t="shared" ref="K5" si="11">K4-K3</f>
         <v>15</v>
       </c>
       <c r="L5" s="32">

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="129">
   <si>
     <t>守候幸福</t>
   </si>
@@ -513,11 +513,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2012.5.3多收10块（回收算作少退10块）</t>
+    <t>18*30-345,狐狸欠10，SM欠15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18*30-345,狐狸欠10，SM欠15</t>
+    <t>额外
+缴纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.5.20（额外10）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1012,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC101"/>
+  <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1025,13 +1030,15 @@
     <col min="3" max="3" width="10.5" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="19"/>
-    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="19"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16383" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16384" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="23"/>
       <c r="B1" s="26" t="s">
         <v>54</v>
@@ -1049,24 +1056,27 @@
         <v>53</v>
       </c>
       <c r="G1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:16383" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="37">
-        <f t="shared" ref="B2:I2" si="0">SUM(B9:B100)</f>
+        <f t="shared" ref="B2:J2" si="0">SUM(B9:B100)</f>
         <v>474</v>
       </c>
       <c r="C2" s="36">
@@ -1083,23 +1093,24 @@
       </c>
       <c r="F2" s="36">
         <f t="shared" si="0"/>
-        <v>1915</v>
-      </c>
-      <c r="G2" s="38">
+        <v>1925</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38">
         <f t="shared" si="0"/>
         <v>1056</v>
       </c>
-      <c r="H2" s="38">
+      <c r="I2" s="38">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="I2" s="38">
+      <c r="J2" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="1:16383" x14ac:dyDescent="0.15">
+      <c r="K2" s="39"/>
+    </row>
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A3" s="29"/>
       <c r="B3" s="39"/>
       <c r="C3" s="36"/>
@@ -1108,27 +1119,29 @@
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
-      <c r="I3" s="39"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="1:16383" x14ac:dyDescent="0.15">
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="39"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="40">
-        <f>G2+H2</f>
+      <c r="I4" s="40">
+        <f>H2+I2</f>
         <v>1111</v>
       </c>
-      <c r="I4" s="39"/>
       <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="1:16383" x14ac:dyDescent="0.15">
+      <c r="K4" s="39"/>
+    </row>
+    <row r="5" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="39"/>
       <c r="C5" s="36"/>
@@ -1137,10 +1150,11 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
-      <c r="I5" s="39"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="39"/>
-    </row>
-    <row r="6" spans="1:16383" x14ac:dyDescent="0.15">
+      <c r="K5" s="39"/>
+    </row>
+    <row r="6" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="39"/>
       <c r="C6" s="36"/>
@@ -1149,10 +1163,11 @@
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
-      <c r="I6" s="39"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="39"/>
-    </row>
-    <row r="7" spans="1:16383" x14ac:dyDescent="0.15">
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="39"/>
       <c r="C7" s="36"/>
@@ -1161,10 +1176,11 @@
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
-      <c r="I7" s="39"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="39"/>
-    </row>
-    <row r="8" spans="1:16383" x14ac:dyDescent="0.15">
+      <c r="K7" s="39"/>
+    </row>
+    <row r="8" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="39"/>
       <c r="C8" s="36"/>
@@ -1173,9 +1189,9 @@
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
-      <c r="I8" s="39"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="39"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="39"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
@@ -17548,8 +17564,9 @@
       <c r="XFA8" s="13"/>
       <c r="XFB8" s="13"/>
       <c r="XFC8" s="13"/>
-    </row>
-    <row r="9" spans="1:16383" x14ac:dyDescent="0.15">
+      <c r="XFD8" s="13"/>
+    </row>
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
@@ -17572,15 +17589,16 @@
       <c r="F9" s="18">
         <v>55</v>
       </c>
-      <c r="G9" s="36">
-        <f t="shared" ref="G9:G40" si="2">E9-F9</f>
+      <c r="G9" s="18"/>
+      <c r="H9" s="36">
+        <f>E9-F9+G9</f>
         <v>11.671321733821713</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:16383" x14ac:dyDescent="0.15">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>1</v>
       </c>
@@ -17603,21 +17621,22 @@
       <c r="F10" s="18">
         <v>160</v>
       </c>
-      <c r="G10" s="36">
-        <f t="shared" si="2"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="36">
+        <f>E10-F10+G10</f>
         <v>5.1669237195552853</v>
       </c>
-      <c r="H10" s="18">
+      <c r="I10" s="18">
         <v>10</v>
       </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:16383" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
@@ -17640,15 +17659,16 @@
       <c r="F11" s="18">
         <v>155</v>
       </c>
-      <c r="G11" s="36">
-        <f t="shared" si="2"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="36">
+        <f>E11-F11+G11</f>
         <v>8.5201746353061765</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:16383" x14ac:dyDescent="0.15">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
@@ -17669,15 +17689,16 @@
         <v>1.5</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="36">
-        <f t="shared" si="2"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="36">
+        <f>E12-F12+G12</f>
         <v>1.5</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:16383" x14ac:dyDescent="0.15">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -17700,15 +17721,16 @@
       <c r="F13" s="18">
         <v>100</v>
       </c>
-      <c r="G13" s="36">
-        <f t="shared" si="2"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="36">
+        <f>E13-F13+G13</f>
         <v>9.3107729259044731</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:16383" x14ac:dyDescent="0.15">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
@@ -17731,21 +17753,22 @@
       <c r="F14" s="18">
         <v>135</v>
       </c>
-      <c r="G14" s="36">
-        <f t="shared" si="2"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="36">
+        <f>E14-F14+G14</f>
         <v>39.769487822119402</v>
       </c>
-      <c r="H14" s="18">
+      <c r="I14" s="18">
         <v>5</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>2</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="K14" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:16383" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
@@ -17766,15 +17789,16 @@
         <v>9</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="36">
-        <f t="shared" si="2"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="36">
+        <f>E15-F15+G15</f>
         <v>9</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:16383" x14ac:dyDescent="0.15">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>64</v>
       </c>
@@ -17795,15 +17819,16 @@
         <v>2.8461538461538467</v>
       </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="36">
-        <f t="shared" si="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="36">
+        <f>E16-F16+G16</f>
         <v>2.8461538461538467</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>68</v>
       </c>
@@ -17826,15 +17851,16 @@
       <c r="F17" s="18">
         <v>45</v>
       </c>
-      <c r="G17" s="36">
-        <f t="shared" si="2"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="36">
+        <f>E17-F17+G17</f>
         <v>16.458257020757017</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
@@ -17857,15 +17883,16 @@
       <c r="F18" s="18">
         <v>70</v>
       </c>
-      <c r="G18" s="36">
-        <f t="shared" si="2"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="36">
+        <f>E18-F18+G18</f>
         <v>-3.2460799434483647</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
@@ -17888,15 +17915,16 @@
       <c r="F19" s="18">
         <v>50</v>
       </c>
-      <c r="G19" s="36">
-        <f t="shared" si="2"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="36">
+        <f>E19-F19+G19</f>
         <v>66.086337638969212</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>69</v>
       </c>
@@ -17919,15 +17947,16 @@
       <c r="F20" s="18">
         <v>20</v>
       </c>
-      <c r="G20" s="36">
-        <f t="shared" si="2"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="36">
+        <f>E20-F20+G20</f>
         <v>-2.661782661782663</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>9</v>
       </c>
@@ -17950,15 +17979,16 @@
       <c r="F21" s="18">
         <v>55</v>
       </c>
-      <c r="G21" s="36">
-        <f t="shared" si="2"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="36">
+        <f>E21-F21+G21</f>
         <v>19.341956654456652</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>70</v>
       </c>
@@ -17981,15 +18011,16 @@
       <c r="F22" s="18">
         <v>30</v>
       </c>
-      <c r="G22" s="36">
-        <f t="shared" si="2"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="36">
+        <f>E22-F22+G22</f>
         <v>38.188596491228083</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
@@ -18012,15 +18043,16 @@
       <c r="F23" s="18">
         <v>85</v>
       </c>
-      <c r="G23" s="36">
-        <f t="shared" si="2"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="36">
+        <f>E23-F23+G23</f>
         <v>21.372738737870321</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>71</v>
       </c>
@@ -18041,21 +18073,22 @@
         <v>29.944444444444443</v>
       </c>
       <c r="F24" s="18"/>
-      <c r="G24" s="36">
-        <f t="shared" si="2"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="36">
+        <f>E24-F24+G24</f>
         <v>29.944444444444443</v>
       </c>
-      <c r="H24" s="18">
+      <c r="I24" s="18">
         <v>10</v>
       </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
@@ -18078,15 +18111,16 @@
       <c r="F25" s="18">
         <v>75</v>
       </c>
-      <c r="G25" s="36">
-        <f t="shared" si="2"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="36">
+        <f>E25-F25+G25</f>
         <v>32.290015905147484</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="18"/>
       <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>12</v>
       </c>
@@ -18107,15 +18141,16 @@
         <v>15.142857142857142</v>
       </c>
       <c r="F26" s="18"/>
-      <c r="G26" s="36">
-        <f t="shared" si="2"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="36">
+        <f>E26-F26+G26</f>
         <v>15.142857142857142</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>13</v>
       </c>
@@ -18138,15 +18173,16 @@
       <c r="F27" s="18">
         <v>155</v>
       </c>
-      <c r="G27" s="36">
-        <f t="shared" si="2"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="36">
+        <f>E27-F27+G27</f>
         <v>23.937757052888628</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>65</v>
       </c>
@@ -18169,15 +18205,16 @@
       <c r="F28" s="18">
         <v>75</v>
       </c>
-      <c r="G28" s="36">
-        <f t="shared" si="2"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="36">
+        <f>E28-F28+G28</f>
         <v>21.054667919799499</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="18"/>
       <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>75</v>
       </c>
@@ -18200,15 +18237,16 @@
       <c r="F29" s="18">
         <v>50</v>
       </c>
-      <c r="G29" s="36">
-        <f t="shared" si="2"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="36">
+        <f>E29-F29+G29</f>
         <v>20.464285714285708</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="18"/>
       <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>81</v>
       </c>
@@ -18231,15 +18269,16 @@
       <c r="F30" s="18">
         <v>20</v>
       </c>
-      <c r="G30" s="36">
-        <f t="shared" si="2"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="36">
+        <f>E30-F30+G30</f>
         <v>20.260025062656638</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>14</v>
       </c>
@@ -18260,15 +18299,16 @@
         <v>3.2307692307692299</v>
       </c>
       <c r="F31" s="18"/>
-      <c r="G31" s="36">
-        <f t="shared" si="2"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="36">
+        <f>E31-F31+G31</f>
         <v>3.2307692307692299</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>84</v>
       </c>
@@ -18291,15 +18331,16 @@
       <c r="F32" s="18">
         <v>40</v>
       </c>
-      <c r="G32" s="36">
-        <f t="shared" si="2"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="36">
+        <f>E32-F32+G32</f>
         <v>10.938596491228061</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>15</v>
       </c>
@@ -18322,15 +18363,16 @@
       <c r="F33" s="18">
         <v>45</v>
       </c>
-      <c r="G33" s="36">
-        <f t="shared" si="2"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="36">
+        <f>E33-F33+G33</f>
         <v>-12.283806471306477</v>
       </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>59</v>
       </c>
@@ -18351,15 +18393,16 @@
         <v>5.428571428571427</v>
       </c>
       <c r="F34" s="18"/>
-      <c r="G34" s="36">
-        <f t="shared" si="2"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="36">
+        <f>E34-F34+G34</f>
         <v>5.428571428571427</v>
       </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>16</v>
       </c>
@@ -18382,15 +18425,16 @@
       <c r="F35" s="18">
         <v>105</v>
       </c>
-      <c r="G35" s="36">
-        <f t="shared" si="2"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="36">
+        <f>E35-F35+G35</f>
         <v>23.758575123706692</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="18"/>
       <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>60</v>
       </c>
@@ -18411,15 +18455,16 @@
         <v>8.2747252747252737</v>
       </c>
       <c r="F36" s="18"/>
-      <c r="G36" s="36">
-        <f t="shared" si="2"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="36">
+        <f>E36-F36+G36</f>
         <v>8.2747252747252737</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
@@ -18440,15 +18485,16 @@
         <v>10.111111111111111</v>
       </c>
       <c r="F37" s="18"/>
-      <c r="G37" s="36">
-        <f t="shared" si="2"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="36">
+        <f>E37-F37+G37</f>
         <v>10.111111111111111</v>
       </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>17</v>
       </c>
@@ -18469,15 +18515,16 @@
         <v>5.428571428571427</v>
       </c>
       <c r="F38" s="18"/>
-      <c r="G38" s="36">
-        <f t="shared" si="2"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="36">
+        <f>E38-F38+G38</f>
         <v>5.428571428571427</v>
       </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>18</v>
       </c>
@@ -18500,15 +18547,16 @@
       <c r="F39" s="18">
         <v>40</v>
       </c>
-      <c r="G39" s="36">
-        <f t="shared" si="2"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="36">
+        <f>E39-F39+G39</f>
         <v>26.222222222222214</v>
       </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="18"/>
       <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>19</v>
       </c>
@@ -18529,15 +18577,16 @@
         <v>10.170329670329668</v>
       </c>
       <c r="F40" s="18"/>
-      <c r="G40" s="36">
-        <f t="shared" si="2"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="36">
+        <f>E40-F40+G40</f>
         <v>10.170329670329668</v>
       </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="18"/>
       <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>20</v>
       </c>
@@ -18554,23 +18603,24 @@
         <v>44.325396825396822</v>
       </c>
       <c r="E41" s="36">
-        <f t="shared" ref="E41:E62" si="3">D41-B41</f>
+        <f t="shared" ref="E41:E62" si="2">D41-B41</f>
         <v>38.325396825396822</v>
       </c>
       <c r="F41" s="18"/>
-      <c r="G41" s="36">
-        <f t="shared" ref="G41:G62" si="4">E41-F41</f>
+      <c r="G41" s="18"/>
+      <c r="H41" s="36">
+        <f>E41-F41+G41</f>
         <v>38.325396825396822</v>
       </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="1">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1" t="s">
+      <c r="I41" s="18"/>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>123</v>
       </c>
@@ -18587,19 +18637,20 @@
         <v>21.944444444444443</v>
       </c>
       <c r="E42" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19.944444444444443</v>
       </c>
       <c r="F42" s="18"/>
-      <c r="G42" s="36">
-        <f t="shared" si="4"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="36">
+        <f>E42-F42+G42</f>
         <v>19.944444444444443</v>
       </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="18"/>
       <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>21</v>
       </c>
@@ -18616,27 +18667,28 @@
         <v>62.963016515648079</v>
       </c>
       <c r="E43" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>54.963016515648079</v>
       </c>
       <c r="F43" s="18">
         <v>20</v>
       </c>
-      <c r="G43" s="36">
-        <f t="shared" si="4"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="36">
+        <f>E43-F43+G43</f>
         <v>34.963016515648079</v>
       </c>
-      <c r="H43" s="18">
+      <c r="I43" s="18">
         <v>10</v>
       </c>
-      <c r="I43" s="1">
-        <v>1</v>
-      </c>
-      <c r="J43" s="22" t="s">
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>22</v>
       </c>
@@ -18653,19 +18705,20 @@
         <v>4.2307692307692299</v>
       </c>
       <c r="E44" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.2307692307692299</v>
       </c>
       <c r="F44" s="18"/>
-      <c r="G44" s="36">
-        <f t="shared" si="4"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="36">
+        <f>E44-F44+G44</f>
         <v>3.2307692307692299</v>
       </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="18"/>
       <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>23</v>
       </c>
@@ -18682,21 +18735,22 @@
         <v>53.266559829059823</v>
       </c>
       <c r="E45" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45.266559829059823</v>
       </c>
       <c r="F45" s="18">
         <v>40</v>
       </c>
-      <c r="G45" s="36">
-        <f t="shared" si="4"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="36">
+        <f>E45-F45+G45</f>
         <v>5.2665598290598226</v>
       </c>
-      <c r="H45" s="18"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="18"/>
       <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>24</v>
       </c>
@@ -18713,21 +18767,22 @@
         <v>123.37858669108667</v>
       </c>
       <c r="E46" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>106.37858669108667</v>
       </c>
       <c r="F46" s="18">
         <v>75</v>
       </c>
-      <c r="G46" s="36">
-        <f t="shared" si="4"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="36">
+        <f>E46-F46+G46</f>
         <v>31.378586691086667</v>
       </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="18"/>
       <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>90</v>
       </c>
@@ -18744,19 +18799,20 @@
         <v>35.515873015873012</v>
       </c>
       <c r="E47" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32.515873015873012</v>
       </c>
       <c r="F47" s="18"/>
-      <c r="G47" s="36">
-        <f t="shared" si="4"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="36">
+        <f>E47-F47+G47</f>
         <v>32.515873015873012</v>
       </c>
-      <c r="H47" s="18"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="18"/>
       <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>91</v>
       </c>
@@ -18773,19 +18829,20 @@
         <v>21.944444444444443</v>
       </c>
       <c r="E48" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19.944444444444443</v>
       </c>
       <c r="F48" s="18"/>
-      <c r="G48" s="36">
-        <f t="shared" si="4"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="36">
+        <f>E48-F48+G48</f>
         <v>19.944444444444443</v>
       </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="18"/>
       <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>25</v>
       </c>
@@ -18802,27 +18859,28 @@
         <v>135.2615513141829</v>
       </c>
       <c r="E49" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>116.2615513141829</v>
       </c>
       <c r="F49" s="18">
         <v>60</v>
       </c>
-      <c r="G49" s="36">
-        <f t="shared" si="4"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="36">
+        <f>E49-F49+G49</f>
         <v>56.261551314182896</v>
       </c>
-      <c r="H49" s="18">
+      <c r="I49" s="18">
         <v>20</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <v>2</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>61</v>
       </c>
@@ -18839,19 +18897,20 @@
         <v>6.428571428571427</v>
       </c>
       <c r="E50" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.428571428571427</v>
       </c>
       <c r="F50" s="18"/>
-      <c r="G50" s="36">
-        <f t="shared" si="4"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="36">
+        <f>E50-F50+G50</f>
         <v>5.428571428571427</v>
       </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="18"/>
       <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>26</v>
       </c>
@@ -18868,21 +18927,22 @@
         <v>87.383040935672511</v>
       </c>
       <c r="E51" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>75.383040935672511</v>
       </c>
       <c r="F51" s="18">
         <v>50</v>
       </c>
-      <c r="G51" s="36">
-        <f t="shared" si="4"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="36">
+        <f>E51-F51+G51</f>
         <v>25.383040935672511</v>
       </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="18"/>
       <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>27</v>
       </c>
@@ -18899,21 +18959,22 @@
         <v>104.85289746802904</v>
       </c>
       <c r="E52" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>89.852897468029042</v>
       </c>
       <c r="F52" s="18">
         <v>25</v>
       </c>
-      <c r="G52" s="36">
-        <f t="shared" si="4"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="36">
+        <f>E52-F52+G52</f>
         <v>64.852897468029042</v>
       </c>
-      <c r="H52" s="18"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="18"/>
       <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
         <v>92</v>
       </c>
@@ -18930,19 +18991,20 @@
         <v>11.111111111111111</v>
       </c>
       <c r="E53" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.111111111111111</v>
       </c>
       <c r="F53" s="18"/>
-      <c r="G53" s="36">
-        <f t="shared" si="4"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="36">
+        <f>E53-F53+G53</f>
         <v>10.111111111111111</v>
       </c>
-      <c r="H53" s="18"/>
-      <c r="I53" s="1"/>
+      <c r="I53" s="18"/>
       <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>28</v>
       </c>
@@ -18959,19 +19021,20 @@
         <v>26.04395604395604</v>
       </c>
       <c r="E54" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22.04395604395604</v>
       </c>
       <c r="F54" s="18"/>
-      <c r="G54" s="36">
-        <f t="shared" si="4"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="36">
+        <f>E54-F54+G54</f>
         <v>22.04395604395604</v>
       </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="1"/>
+      <c r="I54" s="18"/>
       <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>29</v>
       </c>
@@ -18988,19 +19051,20 @@
         <v>33.253968253968253</v>
       </c>
       <c r="E55" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29.253968253968253</v>
       </c>
       <c r="F55" s="18"/>
-      <c r="G55" s="36">
-        <f t="shared" si="4"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="36">
+        <f>E55-F55+G55</f>
         <v>29.253968253968253</v>
       </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="18"/>
       <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>45</v>
       </c>
@@ -19017,21 +19081,22 @@
         <v>85.203935319066886</v>
       </c>
       <c r="E56" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>74.203935319066886</v>
       </c>
       <c r="F56" s="18">
         <v>45</v>
       </c>
-      <c r="G56" s="36">
-        <f t="shared" si="4"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="36">
+        <f>E56-F56+G56</f>
         <v>29.203935319066886</v>
       </c>
-      <c r="H56" s="18"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="18"/>
       <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>48</v>
       </c>
@@ -19048,19 +19113,20 @@
         <v>25.966117216117215</v>
       </c>
       <c r="E57" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19.966117216117215</v>
       </c>
       <c r="F57" s="18"/>
-      <c r="G57" s="36">
-        <f t="shared" si="4"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="36">
+        <f>E57-F57+G57</f>
         <v>19.966117216117215</v>
       </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="1"/>
+      <c r="I57" s="18"/>
       <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>93</v>
       </c>
@@ -19077,23 +19143,26 @@
         <v>48.536706349206341</v>
       </c>
       <c r="E58" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42.536706349206341</v>
       </c>
       <c r="F58" s="18">
-        <v>35</v>
-      </c>
-      <c r="G58" s="36">
-        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="G58" s="18">
+        <v>10</v>
+      </c>
+      <c r="H58" s="36">
+        <f>E58-F58+G58</f>
         <v>7.5367063492063409</v>
       </c>
-      <c r="H58" s="18"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I58" s="18"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>94</v>
       </c>
@@ -19110,19 +19179,20 @@
         <v>11.111111111111111</v>
       </c>
       <c r="E59" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.111111111111111</v>
       </c>
       <c r="F59" s="18"/>
-      <c r="G59" s="36">
-        <f t="shared" si="4"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="36">
+        <f>E59-F59+G59</f>
         <v>10.111111111111111</v>
       </c>
-      <c r="H59" s="18"/>
-      <c r="I59" s="1"/>
+      <c r="I59" s="18"/>
       <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>99</v>
       </c>
@@ -19139,19 +19209,20 @@
         <v>11.944444444444443</v>
       </c>
       <c r="E60" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9444444444444429</v>
       </c>
       <c r="F60" s="18"/>
-      <c r="G60" s="36">
-        <f t="shared" si="4"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="36">
+        <f>E60-F60+G60</f>
         <v>9.9444444444444429</v>
       </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="1"/>
+      <c r="I60" s="18"/>
       <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>100</v>
       </c>
@@ -19168,19 +19239,20 @@
         <v>0.83333333333333215</v>
       </c>
       <c r="E61" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.16666666666666785</v>
       </c>
       <c r="F61" s="18"/>
-      <c r="G61" s="36">
-        <f t="shared" si="4"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="36">
+        <f>E61-F61+G61</f>
         <v>-0.16666666666666785</v>
       </c>
-      <c r="H61" s="18"/>
-      <c r="I61" s="1"/>
+      <c r="I61" s="18"/>
       <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>101</v>
       </c>
@@ -19197,19 +19269,20 @@
         <v>11.111111111111111</v>
       </c>
       <c r="E62" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.111111111111111</v>
       </c>
       <c r="F62" s="18"/>
-      <c r="G62" s="36">
-        <f t="shared" si="4"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="36">
+        <f>E62-F62+G62</f>
         <v>10.111111111111111</v>
       </c>
-      <c r="H62" s="18"/>
-      <c r="I62" s="1"/>
+      <c r="I62" s="18"/>
       <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>103</v>
       </c>
@@ -19226,19 +19299,20 @@
         <v>13.571428571428573</v>
       </c>
       <c r="E63" s="36">
-        <f t="shared" ref="E63:E72" si="5">D63-B63</f>
+        <f t="shared" ref="E63:E72" si="3">D63-B63</f>
         <v>12.571428571428573</v>
       </c>
       <c r="F63" s="18"/>
-      <c r="G63" s="36">
-        <f t="shared" ref="G63:G72" si="6">E63-F63</f>
+      <c r="G63" s="18"/>
+      <c r="H63" s="36">
+        <f>E63-F63+G63</f>
         <v>12.571428571428573</v>
       </c>
-      <c r="H63" s="18"/>
-      <c r="I63" s="1"/>
+      <c r="I63" s="18"/>
       <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>104</v>
       </c>
@@ -19255,19 +19329,20 @@
         <v>13.571428571428573</v>
       </c>
       <c r="E64" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12.571428571428573</v>
       </c>
       <c r="F64" s="18"/>
-      <c r="G64" s="36">
-        <f t="shared" si="6"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="36">
+        <f>E64-F64+G64</f>
         <v>12.571428571428573</v>
       </c>
-      <c r="H64" s="18"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="18"/>
       <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>105</v>
       </c>
@@ -19284,19 +19359,20 @@
         <v>13.571428571428573</v>
       </c>
       <c r="E65" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12.571428571428573</v>
       </c>
       <c r="F65" s="18"/>
-      <c r="G65" s="36">
-        <f t="shared" si="6"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="36">
+        <f>E65-F65+G65</f>
         <v>12.571428571428573</v>
       </c>
-      <c r="H65" s="18"/>
-      <c r="I65" s="1"/>
+      <c r="I65" s="18"/>
       <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>106</v>
       </c>
@@ -19313,19 +19389,20 @@
         <v>13.571428571428573</v>
       </c>
       <c r="E66" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12.571428571428573</v>
       </c>
       <c r="F66" s="18"/>
-      <c r="G66" s="36">
-        <f t="shared" si="6"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="36">
+        <f>E66-F66+G66</f>
         <v>12.571428571428573</v>
       </c>
-      <c r="H66" s="18"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="18"/>
       <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>107</v>
       </c>
@@ -19342,19 +19419,20 @@
         <v>13.571428571428573</v>
       </c>
       <c r="E67" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12.571428571428573</v>
       </c>
       <c r="F67" s="18"/>
-      <c r="G67" s="36">
-        <f t="shared" si="6"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="36">
+        <f>E67-F67+G67</f>
         <v>12.571428571428573</v>
       </c>
-      <c r="H67" s="18"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="18"/>
       <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>122</v>
       </c>
@@ -19371,19 +19449,20 @@
         <v>10.833333333333332</v>
       </c>
       <c r="E68" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.8333333333333321</v>
       </c>
       <c r="F68" s="18"/>
-      <c r="G68" s="36">
-        <f t="shared" si="6"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="36">
+        <f>E68-F68+G68</f>
         <v>9.8333333333333321</v>
       </c>
-      <c r="H68" s="18"/>
-      <c r="I68" s="1"/>
+      <c r="I68" s="18"/>
       <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>108</v>
       </c>
@@ -19400,19 +19479,20 @@
         <v>0</v>
       </c>
       <c r="E69" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F69" s="18"/>
-      <c r="G69" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="18"/>
-      <c r="I69" s="1"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="36">
+        <f>E69-F69+G69</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="18"/>
       <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
         <v>108</v>
       </c>
@@ -19429,19 +19509,20 @@
         <v>0</v>
       </c>
       <c r="E70" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F70" s="18"/>
-      <c r="G70" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="18"/>
-      <c r="I70" s="1"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="36">
+        <f>E70-F70+G70</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="18"/>
       <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
         <v>108</v>
       </c>
@@ -19458,19 +19539,20 @@
         <v>0</v>
       </c>
       <c r="E71" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F71" s="18"/>
-      <c r="G71" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="18"/>
-      <c r="I71" s="1"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="36">
+        <f>E71-F71+G71</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="18"/>
       <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
         <v>108</v>
       </c>
@@ -19487,19 +19569,20 @@
         <v>0</v>
       </c>
       <c r="E72" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F72" s="18"/>
-      <c r="G72" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="18"/>
-      <c r="I72" s="1"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="36">
+        <f t="shared" ref="H63:H72" si="4">E72-F72</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="18"/>
       <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="10" t="s">
         <v>108</v>
       </c>
@@ -19516,19 +19599,20 @@
         <v>0</v>
       </c>
       <c r="E73" s="36">
-        <f t="shared" ref="E73:E79" si="7">D73-B73</f>
+        <f t="shared" ref="E73:E79" si="5">D73-B73</f>
         <v>0</v>
       </c>
       <c r="F73" s="18"/>
-      <c r="G73" s="36">
-        <f t="shared" ref="G73:G79" si="8">E73-F73</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="18"/>
-      <c r="I73" s="1"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="36">
+        <f t="shared" ref="H73:H79" si="6">E73-F73</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="18"/>
       <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
         <v>108</v>
       </c>
@@ -19545,19 +19629,20 @@
         <v>0</v>
       </c>
       <c r="E74" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F74" s="18"/>
-      <c r="G74" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="18"/>
-      <c r="I74" s="1"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="18"/>
       <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
         <v>108</v>
       </c>
@@ -19574,19 +19659,20 @@
         <v>0</v>
       </c>
       <c r="E75" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F75" s="18"/>
-      <c r="G75" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="18"/>
-      <c r="I75" s="1"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="18"/>
       <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
         <v>108</v>
       </c>
@@ -19603,19 +19689,20 @@
         <v>0</v>
       </c>
       <c r="E76" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F76" s="18"/>
-      <c r="G76" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="18"/>
-      <c r="I76" s="1"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="18"/>
       <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
         <v>108</v>
       </c>
@@ -19632,19 +19719,20 @@
         <v>0</v>
       </c>
       <c r="E77" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F77" s="18"/>
-      <c r="G77" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="18"/>
-      <c r="I77" s="1"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="18"/>
       <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
         <v>108</v>
       </c>
@@ -19661,19 +19749,20 @@
         <v>0</v>
       </c>
       <c r="E78" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F78" s="18"/>
-      <c r="G78" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="18"/>
-      <c r="I78" s="1"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="18"/>
       <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
         <v>108</v>
       </c>
@@ -19690,19 +19779,20 @@
         <v>0</v>
       </c>
       <c r="E79" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F79" s="18"/>
-      <c r="G79" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="18"/>
-      <c r="I79" s="1"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="18"/>
       <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
         <v>108</v>
       </c>
@@ -19719,19 +19809,20 @@
         <v>0</v>
       </c>
       <c r="E80" s="36">
-        <f t="shared" ref="E80:E84" si="9">D80-B80</f>
+        <f t="shared" ref="E80:E84" si="7">D80-B80</f>
         <v>0</v>
       </c>
       <c r="F80" s="18"/>
-      <c r="G80" s="36">
-        <f t="shared" ref="G80:G84" si="10">E80-F80</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="18"/>
-      <c r="I80" s="1"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="36">
+        <f t="shared" ref="H80:H84" si="8">E80-F80</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="18"/>
       <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
         <v>108</v>
       </c>
@@ -19748,19 +19839,20 @@
         <v>0</v>
       </c>
       <c r="E81" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F81" s="18"/>
-      <c r="G81" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="18"/>
-      <c r="I81" s="1"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="18"/>
       <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
         <v>108</v>
       </c>
@@ -19777,19 +19869,20 @@
         <v>0</v>
       </c>
       <c r="E82" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F82" s="18"/>
-      <c r="G82" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="18"/>
-      <c r="I82" s="1"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="18"/>
       <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
         <v>108</v>
       </c>
@@ -19806,19 +19899,20 @@
         <v>0</v>
       </c>
       <c r="E83" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F83" s="18"/>
-      <c r="G83" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="18"/>
-      <c r="I83" s="1"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="18"/>
       <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
         <v>108</v>
       </c>
@@ -19835,19 +19929,20 @@
         <v>0</v>
       </c>
       <c r="E84" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F84" s="18"/>
-      <c r="G84" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="18"/>
-      <c r="I84" s="1"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="18"/>
       <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
         <v>108</v>
       </c>
@@ -19864,19 +19959,20 @@
         <v>0</v>
       </c>
       <c r="E85" s="36">
-        <f t="shared" ref="E85:E100" si="11">D85-B85</f>
+        <f t="shared" ref="E85:E100" si="9">D85-B85</f>
         <v>0</v>
       </c>
       <c r="F85" s="18"/>
-      <c r="G85" s="36">
-        <f t="shared" ref="G85:G100" si="12">E85-F85</f>
-        <v>0</v>
-      </c>
-      <c r="H85" s="18"/>
-      <c r="I85" s="1"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="36">
+        <f t="shared" ref="H85:H100" si="10">E85-F85</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="18"/>
       <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
         <v>108</v>
       </c>
@@ -19893,19 +19989,20 @@
         <v>0</v>
       </c>
       <c r="E86" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F86" s="18"/>
-      <c r="G86" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H86" s="18"/>
-      <c r="I86" s="1"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="18"/>
       <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
         <v>108</v>
       </c>
@@ -19922,19 +20019,20 @@
         <v>0</v>
       </c>
       <c r="E87" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F87" s="18"/>
-      <c r="G87" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="18"/>
-      <c r="I87" s="1"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="18"/>
       <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
         <v>108</v>
       </c>
@@ -19951,19 +20049,20 @@
         <v>0</v>
       </c>
       <c r="E88" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F88" s="18"/>
-      <c r="G88" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="18"/>
-      <c r="I88" s="1"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="18"/>
       <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="10" t="s">
         <v>108</v>
       </c>
@@ -19980,19 +20079,20 @@
         <v>0</v>
       </c>
       <c r="E89" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F89" s="18"/>
-      <c r="G89" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="18"/>
-      <c r="I89" s="1"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="18"/>
       <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
         <v>108</v>
       </c>
@@ -20009,19 +20109,20 @@
         <v>0</v>
       </c>
       <c r="E90" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F90" s="18"/>
-      <c r="G90" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="18"/>
-      <c r="I90" s="1"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="18"/>
       <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
         <v>108</v>
       </c>
@@ -20038,19 +20139,20 @@
         <v>0</v>
       </c>
       <c r="E91" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F91" s="18"/>
-      <c r="G91" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="18"/>
-      <c r="I91" s="1"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="18"/>
       <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
         <v>108</v>
       </c>
@@ -20067,19 +20169,20 @@
         <v>0</v>
       </c>
       <c r="E92" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F92" s="18"/>
-      <c r="G92" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="18"/>
-      <c r="I92" s="1"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="18"/>
       <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
         <v>108</v>
       </c>
@@ -20096,19 +20199,20 @@
         <v>0</v>
       </c>
       <c r="E93" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F93" s="18"/>
-      <c r="G93" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="18"/>
-      <c r="I93" s="1"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="18"/>
       <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
         <v>108</v>
       </c>
@@ -20125,19 +20229,20 @@
         <v>0</v>
       </c>
       <c r="E94" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F94" s="18"/>
-      <c r="G94" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H94" s="18"/>
-      <c r="I94" s="1"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="18"/>
       <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
         <v>108</v>
       </c>
@@ -20154,19 +20259,20 @@
         <v>0</v>
       </c>
       <c r="E95" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F95" s="18"/>
-      <c r="G95" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="18"/>
-      <c r="I95" s="1"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="18"/>
       <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
         <v>108</v>
       </c>
@@ -20183,19 +20289,20 @@
         <v>0</v>
       </c>
       <c r="E96" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F96" s="18"/>
-      <c r="G96" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="18"/>
-      <c r="I96" s="1"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="18"/>
       <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
         <v>108</v>
       </c>
@@ -20212,19 +20319,20 @@
         <v>0</v>
       </c>
       <c r="E97" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F97" s="18"/>
-      <c r="G97" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H97" s="18"/>
-      <c r="I97" s="1"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="18"/>
       <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
         <v>108</v>
       </c>
@@ -20241,19 +20349,20 @@
         <v>0</v>
       </c>
       <c r="E98" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F98" s="18"/>
-      <c r="G98" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="18"/>
-      <c r="I98" s="1"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="18"/>
       <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
         <v>108</v>
       </c>
@@ -20270,19 +20379,20 @@
         <v>0</v>
       </c>
       <c r="E99" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F99" s="18"/>
-      <c r="G99" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H99" s="18"/>
-      <c r="I99" s="1"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="18"/>
       <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
         <v>108</v>
       </c>
@@ -20299,29 +20409,31 @@
         <v>0</v>
       </c>
       <c r="E100" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F100" s="18"/>
-      <c r="G100" s="36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H100" s="18"/>
-      <c r="I100" s="1"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="18"/>
       <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" s="10"/>
       <c r="B101" s="39"/>
       <c r="C101" s="36"/>
       <c r="D101" s="36"/>
       <c r="E101" s="36"/>
       <c r="F101" s="18"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="1"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="18"/>
       <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -20419,7 +20531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -20479,7 +20591,7 @@
         <v>195</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="14">
         <v>40948</v>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="132">
   <si>
     <t>守候幸福</t>
   </si>
@@ -458,10 +458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3/31/2012(罚),5/22/2012(罚)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2/9/2012(扣),5/22/2012(罚)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,6 +519,22 @@
   </si>
   <si>
     <t>2012.5.20（额外10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/31/2012(罚),5/22/2012(罚)，5.31退10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拂晓代收代管 15×30 -320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拂晓代收代管，退陈磊10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1056,7 +1068,7 @@
         <v>53</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>55</v>
@@ -1077,28 +1089,28 @@
       </c>
       <c r="B2" s="37">
         <f t="shared" ref="B2:J2" si="0">SUM(B9:B100)</f>
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="C2" s="36">
         <f t="shared" si="0"/>
-        <v>13780</v>
+        <v>14230</v>
       </c>
       <c r="D2" s="38">
         <f t="shared" si="0"/>
-        <v>3444.9999999999991</v>
+        <v>3575.0000000000005</v>
       </c>
       <c r="E2" s="36">
         <f t="shared" si="0"/>
-        <v>2970.9999999999991</v>
+        <v>3085.9999999999986</v>
       </c>
       <c r="F2" s="36">
         <f t="shared" si="0"/>
-        <v>1925</v>
+        <v>1935</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
-        <v>1056</v>
+        <v>1161.0000000000005</v>
       </c>
       <c r="I2" s="38">
         <f t="shared" si="0"/>
@@ -1136,7 +1148,7 @@
       </c>
       <c r="I4" s="40">
         <f>H2+I2</f>
-        <v>1111</v>
+        <v>1216.0000000000005</v>
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
@@ -17572,27 +17584,27 @@
       </c>
       <c r="B9" s="39">
         <f>'201202'!B9+'201203'!B9+'201204'!B9+'201205'!B9+'201206'!B9+'201207'!B9+'201208'!B9+'201209'!B9+'201210'!B9+'201211'!B9+'201212'!B9</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="36">
         <f>'201202'!C9+'201203'!C9+'201204'!C9+'201205'!C9+'201206'!C9+'201207'!C9+'201208'!C9+'201209'!C9+'201210'!C9+'201211'!C9+'201212'!C9</f>
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="D9" s="36">
         <f>'201202'!D9+'201203'!D9+'201204'!D9+'201205'!D9+'201206'!D9+'201207'!D9+'201208'!D9+'201209'!D9+'201210'!D9+'201211'!D9+'201212'!D9</f>
-        <v>77.671321733821713</v>
+        <v>86.337988400488399</v>
       </c>
       <c r="E9" s="36">
         <f t="shared" ref="E9:E40" si="1">D9-B9</f>
-        <v>66.671321733821713</v>
+        <v>74.337988400488399</v>
       </c>
       <c r="F9" s="18">
         <v>55</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="36">
-        <f>E9-F9+G9</f>
-        <v>11.671321733821713</v>
+        <f t="shared" ref="H9:H40" si="2">E9-F9+G9</f>
+        <v>19.337988400488399</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="1"/>
@@ -17623,7 +17635,7 @@
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="36">
-        <f>E10-F10+G10</f>
+        <f t="shared" si="2"/>
         <v>5.1669237195552853</v>
       </c>
       <c r="I10" s="18">
@@ -17633,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.15">
@@ -17661,7 +17673,7 @@
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="36">
-        <f>E11-F11+G11</f>
+        <f t="shared" si="2"/>
         <v>8.5201746353061765</v>
       </c>
       <c r="I11" s="18"/>
@@ -17691,7 +17703,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="36">
-        <f>E12-F12+G12</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="I12" s="18"/>
@@ -17704,27 +17716,27 @@
       </c>
       <c r="B13" s="39">
         <f>'201202'!B13+'201203'!B13+'201204'!B13+'201205'!B13+'201206'!B13+'201207'!B13+'201208'!B13+'201209'!B13+'201210'!B13+'201211'!B13+'201212'!B13</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="36">
         <f>'201202'!C13+'201203'!C13+'201204'!C13+'201205'!C13+'201206'!C13+'201207'!C13+'201208'!C13+'201209'!C13+'201210'!C13+'201211'!C13+'201212'!C13</f>
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="D13" s="36">
         <f>'201202'!D13+'201203'!D13+'201204'!D13+'201205'!D13+'201206'!D13+'201207'!D13+'201208'!D13+'201209'!D13+'201210'!D13+'201211'!D13+'201212'!D13</f>
-        <v>130.31077292590447</v>
+        <v>138.97743959257116</v>
       </c>
       <c r="E13" s="36">
         <f t="shared" si="1"/>
-        <v>109.31077292590447</v>
+        <v>116.97743959257116</v>
       </c>
       <c r="F13" s="18">
         <v>100</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="36">
-        <f>E13-F13+G13</f>
-        <v>9.3107729259044731</v>
+        <f t="shared" si="2"/>
+        <v>16.977439592571159</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="1"/>
@@ -17736,27 +17748,27 @@
       </c>
       <c r="B14" s="39">
         <f>'201202'!B14+'201203'!B14+'201204'!B14+'201205'!B14+'201206'!B14+'201207'!B14+'201208'!B14+'201209'!B14+'201210'!B14+'201211'!B14+'201212'!B14</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="36">
         <f>'201202'!C14+'201203'!C14+'201204'!C14+'201205'!C14+'201206'!C14+'201207'!C14+'201208'!C14+'201209'!C14+'201210'!C14+'201211'!C14+'201212'!C14</f>
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="D14" s="36">
         <f>'201202'!D14+'201203'!D14+'201204'!D14+'201205'!D14+'201206'!D14+'201207'!D14+'201208'!D14+'201209'!D14+'201210'!D14+'201211'!D14+'201212'!D14</f>
-        <v>203.7694878221194</v>
+        <v>212.43615448878606</v>
       </c>
       <c r="E14" s="36">
         <f t="shared" si="1"/>
-        <v>174.7694878221194</v>
+        <v>182.43615448878606</v>
       </c>
       <c r="F14" s="18">
         <v>135</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="36">
-        <f>E14-F14+G14</f>
-        <v>39.769487822119402</v>
+        <f t="shared" si="2"/>
+        <v>47.436154488786059</v>
       </c>
       <c r="I14" s="18">
         <v>5</v>
@@ -17765,7 +17777,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.15">
@@ -17791,7 +17803,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="36">
-        <f>E15-F15+G15</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I15" s="18"/>
@@ -17821,7 +17833,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="36">
-        <f>E16-F16+G16</f>
+        <f t="shared" si="2"/>
         <v>2.8461538461538467</v>
       </c>
       <c r="I16" s="18"/>
@@ -17853,7 +17865,7 @@
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="36">
-        <f>E17-F17+G17</f>
+        <f t="shared" si="2"/>
         <v>16.458257020757017</v>
       </c>
       <c r="I17" s="18"/>
@@ -17885,7 +17897,7 @@
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="36">
-        <f>E18-F18+G18</f>
+        <f t="shared" si="2"/>
         <v>-3.2460799434483647</v>
       </c>
       <c r="I18" s="18"/>
@@ -17917,7 +17929,7 @@
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="36">
-        <f>E19-F19+G19</f>
+        <f t="shared" si="2"/>
         <v>66.086337638969212</v>
       </c>
       <c r="I19" s="18"/>
@@ -17949,7 +17961,7 @@
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="36">
-        <f>E20-F20+G20</f>
+        <f t="shared" si="2"/>
         <v>-2.661782661782663</v>
       </c>
       <c r="I20" s="18"/>
@@ -17981,7 +17993,7 @@
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="36">
-        <f>E21-F21+G21</f>
+        <f t="shared" si="2"/>
         <v>19.341956654456652</v>
       </c>
       <c r="I21" s="18"/>
@@ -18013,7 +18025,7 @@
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="36">
-        <f>E22-F22+G22</f>
+        <f t="shared" si="2"/>
         <v>38.188596491228083</v>
       </c>
       <c r="I22" s="18"/>
@@ -18045,7 +18057,7 @@
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="36">
-        <f>E23-F23+G23</f>
+        <f t="shared" si="2"/>
         <v>21.372738737870321</v>
       </c>
       <c r="I23" s="18"/>
@@ -18075,7 +18087,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="36">
-        <f>E24-F24+G24</f>
+        <f t="shared" si="2"/>
         <v>29.944444444444443</v>
       </c>
       <c r="I24" s="18">
@@ -18113,7 +18125,7 @@
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="36">
-        <f>E25-F25+G25</f>
+        <f t="shared" si="2"/>
         <v>32.290015905147484</v>
       </c>
       <c r="I25" s="18"/>
@@ -18143,7 +18155,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="36">
-        <f>E26-F26+G26</f>
+        <f t="shared" si="2"/>
         <v>15.142857142857142</v>
       </c>
       <c r="I26" s="18"/>
@@ -18156,27 +18168,27 @@
       </c>
       <c r="B27" s="39">
         <f>'201202'!B27+'201203'!B27+'201204'!B27+'201205'!B27+'201206'!B27+'201207'!B27+'201208'!B27+'201209'!B27+'201210'!B27+'201211'!B27+'201212'!B27</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" s="36">
         <f>'201202'!C27+'201203'!C27+'201204'!C27+'201205'!C27+'201206'!C27+'201207'!C27+'201208'!C27+'201209'!C27+'201210'!C27+'201211'!C27+'201212'!C27</f>
-        <v>875</v>
+        <v>905</v>
       </c>
       <c r="D27" s="36">
         <f>'201202'!D27+'201203'!D27+'201204'!D27+'201205'!D27+'201206'!D27+'201207'!D27+'201208'!D27+'201209'!D27+'201210'!D27+'201211'!D27+'201212'!D27</f>
-        <v>208.93775705288863</v>
+        <v>217.60442371955529</v>
       </c>
       <c r="E27" s="36">
         <f t="shared" si="1"/>
-        <v>178.93775705288863</v>
+        <v>186.60442371955529</v>
       </c>
       <c r="F27" s="18">
         <v>155</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="36">
-        <f>E27-F27+G27</f>
-        <v>23.937757052888628</v>
+        <f t="shared" si="2"/>
+        <v>31.604423719555285</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="1"/>
@@ -18207,7 +18219,7 @@
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="36">
-        <f>E28-F28+G28</f>
+        <f t="shared" si="2"/>
         <v>21.054667919799499</v>
       </c>
       <c r="I28" s="18"/>
@@ -18239,7 +18251,7 @@
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="36">
-        <f>E29-F29+G29</f>
+        <f t="shared" si="2"/>
         <v>20.464285714285708</v>
       </c>
       <c r="I29" s="18"/>
@@ -18252,27 +18264,27 @@
       </c>
       <c r="B30" s="39">
         <f>'201202'!B30+'201203'!B30+'201204'!B30+'201205'!B30+'201206'!B30+'201207'!B30+'201208'!B30+'201209'!B30+'201210'!B30+'201211'!B30+'201212'!B30</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" s="36">
         <f>'201202'!C30+'201203'!C30+'201204'!C30+'201205'!C30+'201206'!C30+'201207'!C30+'201208'!C30+'201209'!C30+'201210'!C30+'201211'!C30+'201212'!C30</f>
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="D30" s="36">
         <f>'201202'!D30+'201203'!D30+'201204'!D30+'201205'!D30+'201206'!D30+'201207'!D30+'201208'!D30+'201209'!D30+'201210'!D30+'201211'!D30+'201212'!D30</f>
-        <v>45.260025062656638</v>
+        <v>53.926691729323309</v>
       </c>
       <c r="E30" s="36">
         <f t="shared" si="1"/>
-        <v>40.260025062656638</v>
+        <v>47.926691729323309</v>
       </c>
       <c r="F30" s="18">
         <v>20</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="36">
-        <f>E30-F30+G30</f>
-        <v>20.260025062656638</v>
+        <f t="shared" si="2"/>
+        <v>27.926691729323309</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="1"/>
@@ -18284,25 +18296,25 @@
       </c>
       <c r="B31" s="39">
         <f>'201202'!B31+'201203'!B31+'201204'!B31+'201205'!B31+'201206'!B31+'201207'!B31+'201208'!B31+'201209'!B31+'201210'!B31+'201211'!B31+'201212'!B31</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="36">
         <f>'201202'!C31+'201203'!C31+'201204'!C31+'201205'!C31+'201206'!C31+'201207'!C31+'201208'!C31+'201209'!C31+'201210'!C31+'201211'!C31+'201212'!C31</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D31" s="36">
         <f>'201202'!D31+'201203'!D31+'201204'!D31+'201205'!D31+'201206'!D31+'201207'!D31+'201208'!D31+'201209'!D31+'201210'!D31+'201211'!D31+'201212'!D31</f>
-        <v>4.2307692307692299</v>
+        <v>12.897435897435898</v>
       </c>
       <c r="E31" s="36">
         <f t="shared" si="1"/>
-        <v>3.2307692307692299</v>
+        <v>10.897435897435898</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="36">
-        <f>E31-F31+G31</f>
-        <v>3.2307692307692299</v>
+        <f t="shared" si="2"/>
+        <v>10.897435897435898</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="1"/>
@@ -18333,7 +18345,7 @@
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="36">
-        <f>E32-F32+G32</f>
+        <f t="shared" si="2"/>
         <v>10.938596491228061</v>
       </c>
       <c r="I32" s="18"/>
@@ -18346,27 +18358,27 @@
       </c>
       <c r="B33" s="39">
         <f>'201202'!B33+'201203'!B33+'201204'!B33+'201205'!B33+'201206'!B33+'201207'!B33+'201208'!B33+'201209'!B33+'201210'!B33+'201211'!B33+'201212'!B33</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" s="36">
         <f>'201202'!C33+'201203'!C33+'201204'!C33+'201205'!C33+'201206'!C33+'201207'!C33+'201208'!C33+'201209'!C33+'201210'!C33+'201211'!C33+'201212'!C33</f>
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="D33" s="36">
         <f>'201202'!D33+'201203'!D33+'201204'!D33+'201205'!D33+'201206'!D33+'201207'!D33+'201208'!D33+'201209'!D33+'201210'!D33+'201211'!D33+'201212'!D33</f>
-        <v>40.716193528693523</v>
+        <v>49.382860195360195</v>
       </c>
       <c r="E33" s="36">
         <f t="shared" si="1"/>
-        <v>32.716193528693523</v>
+        <v>40.382860195360195</v>
       </c>
       <c r="F33" s="18">
         <v>45</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="36">
-        <f>E33-F33+G33</f>
-        <v>-12.283806471306477</v>
+        <f t="shared" si="2"/>
+        <v>-4.6171398046398053</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="1"/>
@@ -18395,7 +18407,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="36">
-        <f>E34-F34+G34</f>
+        <f t="shared" si="2"/>
         <v>5.428571428571427</v>
       </c>
       <c r="I34" s="18"/>
@@ -18408,27 +18420,27 @@
       </c>
       <c r="B35" s="39">
         <f>'201202'!B35+'201203'!B35+'201204'!B35+'201205'!B35+'201206'!B35+'201207'!B35+'201208'!B35+'201209'!B35+'201210'!B35+'201211'!B35+'201212'!B35</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" s="36">
         <f>'201202'!C35+'201203'!C35+'201204'!C35+'201205'!C35+'201206'!C35+'201207'!C35+'201208'!C35+'201209'!C35+'201210'!C35+'201211'!C35+'201212'!C35</f>
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="D35" s="36">
         <f>'201202'!D35+'201203'!D35+'201204'!D35+'201205'!D35+'201206'!D35+'201207'!D35+'201208'!D35+'201209'!D35+'201210'!D35+'201211'!D35+'201212'!D35</f>
-        <v>150.75857512370669</v>
+        <v>159.42524179037338</v>
       </c>
       <c r="E35" s="36">
         <f t="shared" si="1"/>
-        <v>128.75857512370669</v>
+        <v>136.42524179037338</v>
       </c>
       <c r="F35" s="18">
         <v>105</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="36">
-        <f>E35-F35+G35</f>
-        <v>23.758575123706692</v>
+        <f t="shared" si="2"/>
+        <v>31.425241790373377</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="1"/>
@@ -18457,7 +18469,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="36">
-        <f>E36-F36+G36</f>
+        <f t="shared" si="2"/>
         <v>8.2747252747252737</v>
       </c>
       <c r="I36" s="18"/>
@@ -18487,7 +18499,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="36">
-        <f>E37-F37+G37</f>
+        <f t="shared" si="2"/>
         <v>10.111111111111111</v>
       </c>
       <c r="I37" s="18"/>
@@ -18517,7 +18529,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="36">
-        <f>E38-F38+G38</f>
+        <f t="shared" si="2"/>
         <v>5.428571428571427</v>
       </c>
       <c r="I38" s="18"/>
@@ -18549,7 +18561,7 @@
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="36">
-        <f>E39-F39+G39</f>
+        <f t="shared" si="2"/>
         <v>26.222222222222214</v>
       </c>
       <c r="I39" s="18"/>
@@ -18579,7 +18591,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="36">
-        <f>E40-F40+G40</f>
+        <f t="shared" si="2"/>
         <v>10.170329670329668</v>
       </c>
       <c r="I40" s="18"/>
@@ -18603,13 +18615,13 @@
         <v>44.325396825396822</v>
       </c>
       <c r="E41" s="36">
-        <f t="shared" ref="E41:E62" si="2">D41-B41</f>
+        <f t="shared" ref="E41:E62" si="3">D41-B41</f>
         <v>38.325396825396822</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="36">
-        <f>E41-F41+G41</f>
+        <f t="shared" ref="H41:H72" si="4">E41-F41+G41</f>
         <v>38.325396825396822</v>
       </c>
       <c r="I41" s="18"/>
@@ -18622,7 +18634,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" s="39">
         <f>'201202'!B42+'201203'!B42+'201204'!B42+'201205'!B42+'201206'!B42+'201207'!B42+'201208'!B42+'201209'!B42+'201210'!B42+'201211'!B42+'201212'!B42</f>
@@ -18637,13 +18649,13 @@
         <v>21.944444444444443</v>
       </c>
       <c r="E42" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.944444444444443</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="36">
-        <f>E42-F42+G42</f>
+        <f t="shared" si="4"/>
         <v>19.944444444444443</v>
       </c>
       <c r="I42" s="18"/>
@@ -18656,27 +18668,27 @@
       </c>
       <c r="B43" s="39">
         <f>'201202'!B43+'201203'!B43+'201204'!B43+'201205'!B43+'201206'!B43+'201207'!B43+'201208'!B43+'201209'!B43+'201210'!B43+'201211'!B43+'201212'!B43</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" s="36">
         <f>'201202'!C43+'201203'!C43+'201204'!C43+'201205'!C43+'201206'!C43+'201207'!C43+'201208'!C43+'201209'!C43+'201210'!C43+'201211'!C43+'201212'!C43</f>
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="D43" s="36">
         <f>'201202'!D43+'201203'!D43+'201204'!D43+'201205'!D43+'201206'!D43+'201207'!D43+'201208'!D43+'201209'!D43+'201210'!D43+'201211'!D43+'201212'!D43</f>
-        <v>62.963016515648079</v>
+        <v>71.62968318231475</v>
       </c>
       <c r="E43" s="36">
-        <f t="shared" si="2"/>
-        <v>54.963016515648079</v>
+        <f t="shared" si="3"/>
+        <v>62.62968318231475</v>
       </c>
       <c r="F43" s="18">
         <v>20</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="36">
-        <f>E43-F43+G43</f>
-        <v>34.963016515648079</v>
+        <f t="shared" si="4"/>
+        <v>42.62968318231475</v>
       </c>
       <c r="I43" s="18">
         <v>10</v>
@@ -18694,25 +18706,25 @@
       </c>
       <c r="B44" s="39">
         <f>'201202'!B44+'201203'!B44+'201204'!B44+'201205'!B44+'201206'!B44+'201207'!B44+'201208'!B44+'201209'!B44+'201210'!B44+'201211'!B44+'201212'!B44</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="36">
         <f>'201202'!C44+'201203'!C44+'201204'!C44+'201205'!C44+'201206'!C44+'201207'!C44+'201208'!C44+'201209'!C44+'201210'!C44+'201211'!C44+'201212'!C44</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D44" s="36">
         <f>'201202'!D44+'201203'!D44+'201204'!D44+'201205'!D44+'201206'!D44+'201207'!D44+'201208'!D44+'201209'!D44+'201210'!D44+'201211'!D44+'201212'!D44</f>
-        <v>4.2307692307692299</v>
+        <v>12.897435897435898</v>
       </c>
       <c r="E44" s="36">
-        <f t="shared" si="2"/>
-        <v>3.2307692307692299</v>
+        <f t="shared" si="3"/>
+        <v>10.897435897435898</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="36">
-        <f>E44-F44+G44</f>
-        <v>3.2307692307692299</v>
+        <f t="shared" si="4"/>
+        <v>10.897435897435898</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="1"/>
@@ -18735,7 +18747,7 @@
         <v>53.266559829059823</v>
       </c>
       <c r="E45" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.266559829059823</v>
       </c>
       <c r="F45" s="18">
@@ -18743,7 +18755,7 @@
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="36">
-        <f>E45-F45+G45</f>
+        <f t="shared" si="4"/>
         <v>5.2665598290598226</v>
       </c>
       <c r="I45" s="18"/>
@@ -18767,7 +18779,7 @@
         <v>123.37858669108667</v>
       </c>
       <c r="E46" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106.37858669108667</v>
       </c>
       <c r="F46" s="18">
@@ -18775,7 +18787,7 @@
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="36">
-        <f>E46-F46+G46</f>
+        <f t="shared" si="4"/>
         <v>31.378586691086667</v>
       </c>
       <c r="I46" s="18"/>
@@ -18799,13 +18811,13 @@
         <v>35.515873015873012</v>
       </c>
       <c r="E47" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.515873015873012</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
       <c r="H47" s="36">
-        <f>E47-F47+G47</f>
+        <f t="shared" si="4"/>
         <v>32.515873015873012</v>
       </c>
       <c r="I47" s="18"/>
@@ -18829,13 +18841,13 @@
         <v>21.944444444444443</v>
       </c>
       <c r="E48" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.944444444444443</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="36">
-        <f>E48-F48+G48</f>
+        <f t="shared" si="4"/>
         <v>19.944444444444443</v>
       </c>
       <c r="I48" s="18"/>
@@ -18848,27 +18860,27 @@
       </c>
       <c r="B49" s="39">
         <f>'201202'!B49+'201203'!B49+'201204'!B49+'201205'!B49+'201206'!B49+'201207'!B49+'201208'!B49+'201209'!B49+'201210'!B49+'201211'!B49+'201212'!B49</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C49" s="36">
         <f>'201202'!C49+'201203'!C49+'201204'!C49+'201205'!C49+'201206'!C49+'201207'!C49+'201208'!C49+'201209'!C49+'201210'!C49+'201211'!C49+'201212'!C49</f>
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="D49" s="36">
         <f>'201202'!D49+'201203'!D49+'201204'!D49+'201205'!D49+'201206'!D49+'201207'!D49+'201208'!D49+'201209'!D49+'201210'!D49+'201211'!D49+'201212'!D49</f>
-        <v>135.2615513141829</v>
+        <v>143.92821798084955</v>
       </c>
       <c r="E49" s="36">
-        <f t="shared" si="2"/>
-        <v>116.2615513141829</v>
+        <f t="shared" si="3"/>
+        <v>123.92821798084955</v>
       </c>
       <c r="F49" s="18">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G49" s="18"/>
       <c r="H49" s="36">
-        <f>E49-F49+G49</f>
-        <v>56.261551314182896</v>
+        <f t="shared" si="4"/>
+        <v>53.928217980849553</v>
       </c>
       <c r="I49" s="18">
         <v>20</v>
@@ -18877,7 +18889,7 @@
         <v>2</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -18897,13 +18909,13 @@
         <v>6.428571428571427</v>
       </c>
       <c r="E50" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.428571428571427</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="36">
-        <f>E50-F50+G50</f>
+        <f t="shared" si="4"/>
         <v>5.428571428571427</v>
       </c>
       <c r="I50" s="18"/>
@@ -18927,7 +18939,7 @@
         <v>87.383040935672511</v>
       </c>
       <c r="E51" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75.383040935672511</v>
       </c>
       <c r="F51" s="18">
@@ -18935,7 +18947,7 @@
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="36">
-        <f>E51-F51+G51</f>
+        <f t="shared" si="4"/>
         <v>25.383040935672511</v>
       </c>
       <c r="I51" s="18"/>
@@ -18948,27 +18960,27 @@
       </c>
       <c r="B52" s="39">
         <f>'201202'!B52+'201203'!B52+'201204'!B52+'201205'!B52+'201206'!B52+'201207'!B52+'201208'!B52+'201209'!B52+'201210'!B52+'201211'!B52+'201212'!B52</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C52" s="36">
         <f>'201202'!C52+'201203'!C52+'201204'!C52+'201205'!C52+'201206'!C52+'201207'!C52+'201208'!C52+'201209'!C52+'201210'!C52+'201211'!C52+'201212'!C52</f>
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="D52" s="36">
         <f>'201202'!D52+'201203'!D52+'201204'!D52+'201205'!D52+'201206'!D52+'201207'!D52+'201208'!D52+'201209'!D52+'201210'!D52+'201211'!D52+'201212'!D52</f>
-        <v>104.85289746802904</v>
+        <v>113.51956413469571</v>
       </c>
       <c r="E52" s="36">
-        <f t="shared" si="2"/>
-        <v>89.852897468029042</v>
+        <f t="shared" si="3"/>
+        <v>97.519564134695713</v>
       </c>
       <c r="F52" s="18">
         <v>25</v>
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="36">
-        <f>E52-F52+G52</f>
-        <v>64.852897468029042</v>
+        <f t="shared" si="4"/>
+        <v>72.519564134695713</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="1"/>
@@ -18991,13 +19003,13 @@
         <v>11.111111111111111</v>
       </c>
       <c r="E53" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.111111111111111</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
       <c r="H53" s="36">
-        <f>E53-F53+G53</f>
+        <f t="shared" si="4"/>
         <v>10.111111111111111</v>
       </c>
       <c r="I53" s="18"/>
@@ -19021,13 +19033,13 @@
         <v>26.04395604395604</v>
       </c>
       <c r="E54" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.04395604395604</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="36">
-        <f>E54-F54+G54</f>
+        <f t="shared" si="4"/>
         <v>22.04395604395604</v>
       </c>
       <c r="I54" s="18"/>
@@ -19051,13 +19063,13 @@
         <v>33.253968253968253</v>
       </c>
       <c r="E55" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.253968253968253</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
       <c r="H55" s="36">
-        <f>E55-F55+G55</f>
+        <f t="shared" si="4"/>
         <v>29.253968253968253</v>
       </c>
       <c r="I55" s="18"/>
@@ -19081,7 +19093,7 @@
         <v>85.203935319066886</v>
       </c>
       <c r="E56" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>74.203935319066886</v>
       </c>
       <c r="F56" s="18">
@@ -19089,7 +19101,7 @@
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="36">
-        <f>E56-F56+G56</f>
+        <f t="shared" si="4"/>
         <v>29.203935319066886</v>
       </c>
       <c r="I56" s="18"/>
@@ -19113,13 +19125,13 @@
         <v>25.966117216117215</v>
       </c>
       <c r="E57" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.966117216117215</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="36">
-        <f>E57-F57+G57</f>
+        <f t="shared" si="4"/>
         <v>19.966117216117215</v>
       </c>
       <c r="I57" s="18"/>
@@ -19143,7 +19155,7 @@
         <v>48.536706349206341</v>
       </c>
       <c r="E58" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.536706349206341</v>
       </c>
       <c r="F58" s="18">
@@ -19153,13 +19165,13 @@
         <v>10</v>
       </c>
       <c r="H58" s="36">
-        <f>E58-F58+G58</f>
+        <f t="shared" si="4"/>
         <v>7.5367063492063409</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -19179,13 +19191,13 @@
         <v>11.111111111111111</v>
       </c>
       <c r="E59" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.111111111111111</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="36">
-        <f>E59-F59+G59</f>
+        <f t="shared" si="4"/>
         <v>10.111111111111111</v>
       </c>
       <c r="I59" s="18"/>
@@ -19209,13 +19221,13 @@
         <v>11.944444444444443</v>
       </c>
       <c r="E60" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9444444444444429</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="36">
-        <f>E60-F60+G60</f>
+        <f t="shared" si="4"/>
         <v>9.9444444444444429</v>
       </c>
       <c r="I60" s="18"/>
@@ -19239,13 +19251,13 @@
         <v>0.83333333333333215</v>
       </c>
       <c r="E61" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.16666666666666785</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
       <c r="H61" s="36">
-        <f>E61-F61+G61</f>
+        <f t="shared" si="4"/>
         <v>-0.16666666666666785</v>
       </c>
       <c r="I61" s="18"/>
@@ -19258,25 +19270,25 @@
       </c>
       <c r="B62" s="39">
         <f>'201202'!B62+'201203'!B62+'201204'!B62+'201205'!B62+'201206'!B62+'201207'!B62+'201208'!B62+'201209'!B62+'201210'!B62+'201211'!B62+'201212'!B62</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="36">
         <f>'201202'!C62+'201203'!C62+'201204'!C62+'201205'!C62+'201206'!C62+'201207'!C62+'201208'!C62+'201209'!C62+'201210'!C62+'201211'!C62+'201212'!C62</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D62" s="36">
         <f>'201202'!D62+'201203'!D62+'201204'!D62+'201205'!D62+'201206'!D62+'201207'!D62+'201208'!D62+'201209'!D62+'201210'!D62+'201211'!D62+'201212'!D62</f>
-        <v>11.111111111111111</v>
+        <v>19.777777777777779</v>
       </c>
       <c r="E62" s="36">
-        <f t="shared" si="2"/>
-        <v>10.111111111111111</v>
+        <f t="shared" si="3"/>
+        <v>17.777777777777779</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
       <c r="H62" s="36">
-        <f>E62-F62+G62</f>
-        <v>10.111111111111111</v>
+        <f t="shared" si="4"/>
+        <v>17.777777777777779</v>
       </c>
       <c r="I62" s="18"/>
       <c r="J62" s="1"/>
@@ -19299,13 +19311,13 @@
         <v>13.571428571428573</v>
       </c>
       <c r="E63" s="36">
-        <f t="shared" ref="E63:E72" si="3">D63-B63</f>
+        <f t="shared" ref="E63:E72" si="5">D63-B63</f>
         <v>12.571428571428573</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="36">
-        <f>E63-F63+G63</f>
+        <f t="shared" si="4"/>
         <v>12.571428571428573</v>
       </c>
       <c r="I63" s="18"/>
@@ -19329,13 +19341,13 @@
         <v>13.571428571428573</v>
       </c>
       <c r="E64" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.571428571428573</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="36">
-        <f>E64-F64+G64</f>
+        <f t="shared" si="4"/>
         <v>12.571428571428573</v>
       </c>
       <c r="I64" s="18"/>
@@ -19359,13 +19371,13 @@
         <v>13.571428571428573</v>
       </c>
       <c r="E65" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.571428571428573</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="36">
-        <f>E65-F65+G65</f>
+        <f t="shared" si="4"/>
         <v>12.571428571428573</v>
       </c>
       <c r="I65" s="18"/>
@@ -19389,13 +19401,13 @@
         <v>13.571428571428573</v>
       </c>
       <c r="E66" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.571428571428573</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="36">
-        <f>E66-F66+G66</f>
+        <f t="shared" si="4"/>
         <v>12.571428571428573</v>
       </c>
       <c r="I66" s="18"/>
@@ -19419,13 +19431,13 @@
         <v>13.571428571428573</v>
       </c>
       <c r="E67" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.571428571428573</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="36">
-        <f>E67-F67+G67</f>
+        <f t="shared" si="4"/>
         <v>12.571428571428573</v>
       </c>
       <c r="I67" s="18"/>
@@ -19434,29 +19446,29 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B68" s="39">
         <f>'201202'!B68+'201203'!B68+'201204'!B68+'201205'!B68+'201206'!B68+'201207'!B68+'201208'!B68+'201209'!B68+'201210'!B68+'201211'!B68+'201212'!B68</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="36">
         <f>'201202'!C68+'201203'!C68+'201204'!C68+'201205'!C68+'201206'!C68+'201207'!C68+'201208'!C68+'201209'!C68+'201210'!C68+'201211'!C68+'201212'!C68</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D68" s="36">
         <f>'201202'!D68+'201203'!D68+'201204'!D68+'201205'!D68+'201206'!D68+'201207'!D68+'201208'!D68+'201209'!D68+'201210'!D68+'201211'!D68+'201212'!D68</f>
-        <v>10.833333333333332</v>
+        <v>19.5</v>
       </c>
       <c r="E68" s="36">
-        <f t="shared" si="3"/>
-        <v>9.8333333333333321</v>
+        <f t="shared" si="5"/>
+        <v>17.5</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="36">
-        <f>E68-F68+G68</f>
-        <v>9.8333333333333321</v>
+        <f t="shared" si="4"/>
+        <v>17.5</v>
       </c>
       <c r="I68" s="18"/>
       <c r="J68" s="1"/>
@@ -19464,29 +19476,29 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B69" s="39">
         <f>'201202'!B69+'201203'!B69+'201204'!B69+'201205'!B69+'201206'!B69+'201207'!B69+'201208'!B69+'201209'!B69+'201210'!B69+'201211'!B69+'201212'!B69</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="36">
         <f>'201202'!C69+'201203'!C69+'201204'!C69+'201205'!C69+'201206'!C69+'201207'!C69+'201208'!C69+'201209'!C69+'201210'!C69+'201211'!C69+'201212'!C69</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D69" s="36">
         <f>'201202'!D69+'201203'!D69+'201204'!D69+'201205'!D69+'201206'!D69+'201207'!D69+'201208'!D69+'201209'!D69+'201210'!D69+'201211'!D69+'201212'!D69</f>
-        <v>0</v>
+        <v>8.6666666666666679</v>
       </c>
       <c r="E69" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>7.6666666666666679</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="36">
-        <f>E69-F69+G69</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>7.6666666666666679</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="1"/>
@@ -19509,13 +19521,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="36">
-        <f>E70-F70+G70</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I70" s="18"/>
@@ -19539,13 +19551,13 @@
         <v>0</v>
       </c>
       <c r="E71" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="36">
-        <f>E71-F71+G71</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I71" s="18"/>
@@ -19569,13 +19581,13 @@
         <v>0</v>
       </c>
       <c r="E72" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="36">
-        <f t="shared" ref="H63:H72" si="4">E72-F72</f>
+        <f t="shared" ref="H72" si="6">E72-F72</f>
         <v>0</v>
       </c>
       <c r="I72" s="18"/>
@@ -19599,13 +19611,13 @@
         <v>0</v>
       </c>
       <c r="E73" s="36">
-        <f t="shared" ref="E73:E79" si="5">D73-B73</f>
+        <f t="shared" ref="E73:E79" si="7">D73-B73</f>
         <v>0</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="36">
-        <f t="shared" ref="H73:H79" si="6">E73-F73</f>
+        <f t="shared" ref="H73:H79" si="8">E73-F73</f>
         <v>0</v>
       </c>
       <c r="I73" s="18"/>
@@ -19629,13 +19641,13 @@
         <v>0</v>
       </c>
       <c r="E74" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I74" s="18"/>
@@ -19659,13 +19671,13 @@
         <v>0</v>
       </c>
       <c r="E75" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I75" s="18"/>
@@ -19689,13 +19701,13 @@
         <v>0</v>
       </c>
       <c r="E76" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I76" s="18"/>
@@ -19719,13 +19731,13 @@
         <v>0</v>
       </c>
       <c r="E77" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
       <c r="H77" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I77" s="18"/>
@@ -19749,13 +19761,13 @@
         <v>0</v>
       </c>
       <c r="E78" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
       <c r="H78" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I78" s="18"/>
@@ -19779,13 +19791,13 @@
         <v>0</v>
       </c>
       <c r="E79" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
       <c r="H79" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I79" s="18"/>
@@ -19809,13 +19821,13 @@
         <v>0</v>
       </c>
       <c r="E80" s="36">
-        <f t="shared" ref="E80:E84" si="7">D80-B80</f>
+        <f t="shared" ref="E80:E84" si="9">D80-B80</f>
         <v>0</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="36">
-        <f t="shared" ref="H80:H84" si="8">E80-F80</f>
+        <f t="shared" ref="H80:H84" si="10">E80-F80</f>
         <v>0</v>
       </c>
       <c r="I80" s="18"/>
@@ -19839,13 +19851,13 @@
         <v>0</v>
       </c>
       <c r="E81" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I81" s="18"/>
@@ -19869,13 +19881,13 @@
         <v>0</v>
       </c>
       <c r="E82" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I82" s="18"/>
@@ -19899,13 +19911,13 @@
         <v>0</v>
       </c>
       <c r="E83" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I83" s="18"/>
@@ -19929,13 +19941,13 @@
         <v>0</v>
       </c>
       <c r="E84" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I84" s="18"/>
@@ -19959,13 +19971,13 @@
         <v>0</v>
       </c>
       <c r="E85" s="36">
-        <f t="shared" ref="E85:E100" si="9">D85-B85</f>
+        <f t="shared" ref="E85:E100" si="11">D85-B85</f>
         <v>0</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
       <c r="H85" s="36">
-        <f t="shared" ref="H85:H100" si="10">E85-F85</f>
+        <f t="shared" ref="H85:H100" si="12">E85-F85</f>
         <v>0</v>
       </c>
       <c r="I85" s="18"/>
@@ -19989,13 +20001,13 @@
         <v>0</v>
       </c>
       <c r="E86" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
       <c r="H86" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I86" s="18"/>
@@ -20019,13 +20031,13 @@
         <v>0</v>
       </c>
       <c r="E87" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
       <c r="H87" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I87" s="18"/>
@@ -20049,13 +20061,13 @@
         <v>0</v>
       </c>
       <c r="E88" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
       <c r="H88" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I88" s="18"/>
@@ -20079,13 +20091,13 @@
         <v>0</v>
       </c>
       <c r="E89" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
       <c r="H89" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I89" s="18"/>
@@ -20109,13 +20121,13 @@
         <v>0</v>
       </c>
       <c r="E90" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I90" s="18"/>
@@ -20139,13 +20151,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I91" s="18"/>
@@ -20169,13 +20181,13 @@
         <v>0</v>
       </c>
       <c r="E92" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="18"/>
       <c r="H92" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I92" s="18"/>
@@ -20199,13 +20211,13 @@
         <v>0</v>
       </c>
       <c r="E93" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
       <c r="H93" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I93" s="18"/>
@@ -20229,13 +20241,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
       <c r="H94" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I94" s="18"/>
@@ -20259,13 +20271,13 @@
         <v>0</v>
       </c>
       <c r="E95" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I95" s="18"/>
@@ -20289,13 +20301,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
       <c r="H96" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I96" s="18"/>
@@ -20319,13 +20331,13 @@
         <v>0</v>
       </c>
       <c r="E97" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
       <c r="H97" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I97" s="18"/>
@@ -20349,13 +20361,13 @@
         <v>0</v>
       </c>
       <c r="E98" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="18"/>
       <c r="H98" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I98" s="18"/>
@@ -20379,13 +20391,13 @@
         <v>0</v>
       </c>
       <c r="E99" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
       <c r="H99" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I99" s="18"/>
@@ -20409,13 +20421,13 @@
         <v>0</v>
       </c>
       <c r="E100" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
       <c r="H100" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I100" s="18"/>
@@ -20529,10 +20541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20542,7 +20554,7 @@
     <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -20550,7 +20562,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>42</v>
@@ -20559,7 +20571,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>42</v>
@@ -20567,10 +20579,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="39">
-        <f>SUM(B3:B50)</f>
+        <f>SUM(B5:B52)</f>
         <v>85</v>
       </c>
       <c r="C2" s="1"/>
@@ -20585,13 +20597,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
-        <v>41058</v>
-      </c>
-      <c r="B3" s="1">
-        <v>195</v>
+        <v>41060</v>
+      </c>
+      <c r="B3" s="39">
+        <v>-10</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D3" s="14">
         <v>40948</v>
@@ -20603,13 +20615,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
-        <v>41058</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-180</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>41060</v>
+      </c>
+      <c r="B4" s="39">
+        <v>130</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>130</v>
       </c>
       <c r="D4" s="14">
         <v>40952</v>
@@ -20624,9 +20636,9 @@
         <v>41058</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>125</v>
       </c>
       <c r="D5" s="14">
@@ -20639,12 +20651,14 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
-        <v>40941</v>
+        <v>41058</v>
       </c>
       <c r="B6" s="1">
-        <v>160</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>-180</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D6" s="14">
         <v>40967</v>
       </c>
@@ -20655,12 +20669,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
-        <v>40946</v>
+        <v>41058</v>
       </c>
       <c r="B7" s="1">
-        <v>60</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="D7" s="14">
         <v>40970</v>
       </c>
@@ -20671,14 +20687,12 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
-        <v>40972</v>
+        <v>40941</v>
       </c>
       <c r="B8" s="1">
-        <v>-70</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="14">
         <v>40974</v>
       </c>
@@ -20689,14 +20703,12 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
-        <v>40981</v>
+        <v>40946</v>
       </c>
       <c r="B9" s="1">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="14">
         <v>40976</v>
       </c>
@@ -20707,13 +20719,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
-        <v>40981</v>
+        <v>40972</v>
       </c>
       <c r="B10" s="1">
-        <v>-120</v>
+        <v>-70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D10" s="14">
         <v>40983</v>
@@ -20726,9 +20738,15 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="14">
+        <v>40981</v>
+      </c>
+      <c r="B11" s="1">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D11" s="14">
         <v>40983</v>
       </c>
@@ -20740,9 +20758,15 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="14">
+        <v>40981</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-120</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D12" s="14">
         <v>40988</v>
       </c>
@@ -21136,7 +21160,7 @@
         <v>55</v>
       </c>
       <c r="F40" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -21150,7 +21174,7 @@
         <v>-350</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -21164,7 +21188,7 @@
         <v>15</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -21178,7 +21202,7 @@
         <v>-300</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -21192,7 +21216,7 @@
         <v>25</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -21258,6 +21282,16 @@
       <c r="D52" s="10"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="14"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="14"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -28506,23 +28540,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="7" t="s">
         <v>35</v>
@@ -28557,14 +28591,17 @@
       <c r="L1" s="5">
         <v>41058</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M1" s="5">
+        <v>41060</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="33">
         <f>SUM(B9:B100)</f>
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="35"/>
@@ -28600,8 +28637,12 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2" s="33">
+        <f t="shared" ref="M2" si="4">COUNT(M9:M100)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -28632,51 +28673,58 @@
       <c r="L3" s="20">
         <v>345</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3" s="20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="34">
         <f>SUM(E4:T4)</f>
-        <v>3850</v>
+        <v>4300</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="32">
-        <f t="shared" ref="E4:F4" si="4">E2*E7</f>
+        <f t="shared" ref="E4:F4" si="5">E2*E7</f>
         <v>480</v>
       </c>
       <c r="F4" s="32">
-        <f t="shared" si="4"/>
-        <v>540</v>
-      </c>
-      <c r="G4" s="32">
-        <f t="shared" ref="G4:H4" si="5">G2*G7</f>
-        <v>630</v>
-      </c>
-      <c r="H4" s="32">
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
+      <c r="G4" s="32">
+        <f t="shared" ref="G4:H4" si="6">G2*G7</f>
+        <v>630</v>
+      </c>
+      <c r="H4" s="32">
+        <f t="shared" si="6"/>
+        <v>540</v>
+      </c>
       <c r="I4" s="32">
-        <f t="shared" ref="I4:J4" si="6">I2*I7</f>
+        <f t="shared" ref="I4:J4" si="7">I2*I7</f>
         <v>360</v>
       </c>
       <c r="J4" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="K4" s="32">
-        <f t="shared" ref="K4:L4" si="7">K2*K7</f>
+        <f t="shared" ref="K4:L4" si="8">K2*K7</f>
         <v>360</v>
       </c>
       <c r="L4" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4" s="32">
+        <f t="shared" ref="M4" si="9">M2*M7</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -28684,42 +28732,46 @@
       <c r="C5" s="34"/>
       <c r="D5" s="35">
         <f>SUM(E5:T5)</f>
-        <v>1100</v>
+        <v>1230</v>
       </c>
       <c r="E5" s="32">
-        <f t="shared" ref="E5:F5" si="8">E4-E3</f>
+        <f t="shared" ref="E5:F5" si="10">E4-E3</f>
         <v>140</v>
       </c>
       <c r="F5" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
       <c r="G5" s="32">
-        <f t="shared" ref="G5:H5" si="9">G4-G3</f>
+        <f t="shared" ref="G5:H5" si="11">G4-G3</f>
         <v>285</v>
       </c>
       <c r="H5" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="I5" s="32">
-        <f t="shared" ref="I5:J5" si="10">I4-I3</f>
+        <f t="shared" ref="I5:J5" si="12">I4-I3</f>
         <v>15</v>
       </c>
       <c r="J5" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="K5" s="32">
-        <f t="shared" ref="K5" si="11">K4-K3</f>
+        <f t="shared" ref="K5" si="13">K4-K3</f>
         <v>15</v>
       </c>
       <c r="L5" s="32">
-        <f t="shared" ref="L5" si="12">L4-L3</f>
+        <f t="shared" ref="L5:M5" si="14">L4-L3</f>
         <v>195</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5" s="32">
+        <f t="shared" si="14"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -28727,39 +28779,43 @@
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
       <c r="E6" s="32">
-        <f t="shared" ref="E6:F6" si="13">E3/E2</f>
+        <f t="shared" ref="E6:F6" si="15">E3/E2</f>
         <v>21.25</v>
       </c>
       <c r="F6" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.166666666666668</v>
       </c>
       <c r="G6" s="32">
-        <f t="shared" ref="G6:H6" si="14">G3/G2</f>
+        <f t="shared" ref="G6:H6" si="16">G3/G2</f>
         <v>16.428571428571427</v>
       </c>
       <c r="H6" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.888888888888889</v>
       </c>
       <c r="I6" s="32">
-        <f t="shared" ref="I6:J6" si="15">I3/I2</f>
+        <f t="shared" ref="I6:J6" si="17">I3/I2</f>
         <v>19.166666666666668</v>
       </c>
       <c r="J6" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>21.5625</v>
       </c>
       <c r="K6" s="32">
-        <f t="shared" ref="K6:L6" si="16">K3/K2</f>
+        <f t="shared" ref="K6:L6" si="18">K3/K2</f>
         <v>19.166666666666668</v>
       </c>
       <c r="L6" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M6" s="32">
+        <f t="shared" ref="M6" si="19">M3/M2</f>
+        <v>21.333333333333332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -28790,8 +28846,11 @@
       <c r="L7" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M7" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -28799,54 +28858,58 @@
       <c r="C8" s="34"/>
       <c r="D8" s="36"/>
       <c r="E8" s="32">
-        <f t="shared" ref="E8:F8" si="17">E7-E6</f>
+        <f t="shared" ref="E8:F8" si="20">E7-E6</f>
         <v>8.75</v>
       </c>
       <c r="F8" s="32">
-        <f t="shared" si="17"/>
-        <v>10.833333333333332</v>
-      </c>
-      <c r="G8" s="32">
-        <f t="shared" ref="G8:H8" si="18">G7-G6</f>
-        <v>13.571428571428573</v>
-      </c>
-      <c r="H8" s="32">
-        <f t="shared" si="18"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="I8" s="32">
-        <f t="shared" ref="I8:J8" si="19">I7-I6</f>
-        <v>0.83333333333333215</v>
-      </c>
-      <c r="J8" s="32">
-        <f t="shared" si="19"/>
-        <v>3.4375</v>
-      </c>
-      <c r="K8" s="32">
-        <f t="shared" ref="K8:L8" si="20">K7-K6</f>
-        <v>0.83333333333333215</v>
-      </c>
-      <c r="L8" s="32">
         <f t="shared" si="20"/>
         <v>10.833333333333332</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G8" s="32">
+        <f t="shared" ref="G8:H8" si="21">G7-G6</f>
+        <v>13.571428571428573</v>
+      </c>
+      <c r="H8" s="32">
+        <f t="shared" si="21"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="I8" s="32">
+        <f t="shared" ref="I8:J8" si="22">I7-I6</f>
+        <v>0.83333333333333215</v>
+      </c>
+      <c r="J8" s="32">
+        <f t="shared" si="22"/>
+        <v>3.4375</v>
+      </c>
+      <c r="K8" s="32">
+        <f t="shared" ref="K8:L8" si="23">K7-K6</f>
+        <v>0.83333333333333215</v>
+      </c>
+      <c r="L8" s="32">
+        <f t="shared" si="23"/>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="M8" s="32">
+        <f t="shared" ref="M8" si="24">M7-M6</f>
+        <v>8.6666666666666679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="str">
         <f>member!A9</f>
         <v>守候幸福</v>
       </c>
       <c r="B9" s="34">
-        <f t="shared" ref="B9:B62" si="21">COUNT(E9:T9)</f>
-        <v>4</v>
+        <f t="shared" ref="B9:B62" si="25">COUNT(E9:T9)</f>
+        <v>5</v>
       </c>
       <c r="C9" s="34">
         <f>E7*E9+F7*F9+G7*G9+H7*H9+I7*I9+J7*J9+K7*K9+L7*L9+M7*M9+N7*N9+O7*O9+P7*P9+Q7*Q9+R7*R9+S7*S9+T7*T9</f>
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="D9" s="36">
         <f>E8*E9+F8*F9+G8*G9+H8*H9+I8*I9+J8*J9+K8*K9+L8*L9+M8*M9+O8*O9+P8*P9+Q8*Q9+R8*R9+S8*S9+T8*T9</f>
-        <v>36.215277777777771</v>
+        <v>44.881944444444443</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
@@ -28864,14 +28927,17 @@
       <c r="L9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="str">
         <f>member!A10</f>
         <v>李一刀</v>
       </c>
       <c r="B10" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="C10" s="34">
@@ -28902,14 +28968,15 @@
         <v>1</v>
       </c>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="str">
         <f>member!A11</f>
         <v>咣咣地跟屁蟲</v>
       </c>
       <c r="B11" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="C11" s="34">
@@ -28942,14 +29009,15 @@
       <c r="L11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="str">
         <f>member!A12</f>
         <v>Oo内拉祖里oO</v>
       </c>
       <c r="B12" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C12" s="34">
@@ -28968,23 +29036,24 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="str">
         <f>member!A13</f>
         <v>幸福~拂晓</v>
       </c>
       <c r="B13" s="34">
-        <f t="shared" si="21"/>
-        <v>6</v>
+        <f t="shared" si="25"/>
+        <v>7</v>
       </c>
       <c r="C13" s="34">
         <f>E7*E13+F7*F13+G7*G13+H7*H13+I7*I13+J7*J13+K7*K13+L7*L13+M7*M13+N7*N13+O7*O13+P7*P13+Q7*Q13+R7*R13+S7*S13+T7*T13</f>
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="D13" s="36">
         <f>E8*E13+F8*F13+G8*G13+H8*H13+I8*I13+J8*J13+K8*K13+L8*L13+M8*M13+O8*O13+P8*P13+Q8*Q13+R8*R13+S8*S13+T8*T13</f>
-        <v>35.7986111111111</v>
+        <v>44.465277777777771</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -29006,23 +29075,26 @@
         <v>1</v>
       </c>
       <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="str">
         <f>member!A14</f>
         <v>蚕豆</v>
       </c>
       <c r="B14" s="34">
-        <f t="shared" si="21"/>
-        <v>7</v>
+        <f t="shared" si="25"/>
+        <v>8</v>
       </c>
       <c r="C14" s="34">
         <f>E7*E14+F7*F14+G7*G14+H7*H14+I7*I14+J7*J14+K7*K14+L7*L14+M7*M14+N7*N14+O7*O14+P7*P14+Q7*Q14+R7*R14+S7*S14+T7*T14</f>
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="D14" s="36">
         <f>E8*E14+F8*F14+G8*G14+H8*H14+I8*I14+J8*J14+K8*K14+L8*L14+M8*M14+O8*O14+P8*P14+Q8*Q14+R8*R14+S8*S14+T8*T14</f>
-        <v>56.765873015872998</v>
+        <v>65.432539682539669</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -29046,14 +29118,17 @@
       <c r="L14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="str">
         <f>member!A15</f>
         <v>who cares?</v>
       </c>
       <c r="B15" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C15" s="34">
@@ -29072,14 +29147,15 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="str">
         <f>member!A16</f>
         <v>幸福~彩票</v>
       </c>
       <c r="B16" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C16" s="34">
@@ -29098,14 +29174,15 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="str">
         <f>member!A17</f>
         <v>清道夫</v>
       </c>
       <c r="B17" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C17" s="34">
@@ -29132,14 +29209,15 @@
       <c r="L17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="str">
         <f>member!A18</f>
         <v>老A</v>
       </c>
       <c r="B18" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C18" s="34">
@@ -29166,14 +29244,15 @@
         <v>1</v>
       </c>
       <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="str">
         <f>member!A19</f>
         <v>狐狸</v>
       </c>
       <c r="B19" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="C19" s="34">
@@ -29202,14 +29281,15 @@
       <c r="L19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="str">
         <f>member!A20</f>
         <v>腿子</v>
       </c>
       <c r="B20" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="C20" s="34">
@@ -29232,14 +29312,15 @@
         <v>1</v>
       </c>
       <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="str">
         <f>member!A21</f>
         <v>smile</v>
       </c>
       <c r="B21" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C21" s="34">
@@ -29266,14 +29347,15 @@
       <c r="L21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="str">
         <f>member!A22</f>
         <v>小贝</v>
       </c>
       <c r="B22" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="C22" s="34">
@@ -29294,14 +29376,15 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="str">
         <f>member!A23</f>
         <v>11号-鲜明</v>
       </c>
       <c r="B23" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="C23" s="34">
@@ -29330,14 +29413,15 @@
       <c r="L23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="str">
         <f>member!A24</f>
         <v>狐狸~涛</v>
       </c>
       <c r="B24" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="C24" s="34">
@@ -29358,14 +29442,15 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="str">
         <f>member!A25</f>
         <v>侯盟</v>
       </c>
       <c r="B25" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C25" s="34">
@@ -29392,14 +29477,15 @@
       <c r="L25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="str">
         <f>member!A26</f>
         <v>玖伍贰壹</v>
       </c>
       <c r="B26" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C26" s="34">
@@ -29418,23 +29504,24 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="str">
         <f>member!A27</f>
         <v>红色F50-超</v>
       </c>
       <c r="B27" s="34">
-        <f t="shared" si="21"/>
-        <v>8</v>
+        <f t="shared" si="25"/>
+        <v>9</v>
       </c>
       <c r="C27" s="34">
         <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="D27" s="36">
         <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
-        <v>60.203373015872998</v>
+        <v>68.870039682539669</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -29460,14 +29547,17 @@
       <c r="L27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="str">
         <f>member!A28</f>
         <v>活了</v>
       </c>
       <c r="B28" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="C28" s="34">
@@ -29498,14 +29588,15 @@
       <c r="L28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="str">
         <f>member!A29</f>
         <v>天赐</v>
       </c>
       <c r="B29" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C29" s="34">
@@ -29532,23 +29623,24 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="str">
         <f>member!A30</f>
         <v>Shenghak</v>
       </c>
       <c r="B30" s="34">
-        <f t="shared" si="21"/>
-        <v>3</v>
+        <f t="shared" si="25"/>
+        <v>4</v>
       </c>
       <c r="C30" s="34">
         <f>E7*E30+F7*F30+G7*G30+H7*H30+I7*I30+J7*J30+K7*K30+L7*L30+M7*M30+O7*O30+P7*P30+Q7*Q30+R7*R30+S7*S30+T7*T30</f>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D30" s="36">
         <f>E8*E30+F8*F30+G8*G30+H8*H30+I8*I30+J8*J30+K8*K30+L8*L30+M8*M30+O8*O30+P8*P30+Q8*Q30+R8*R30+S8*S30+T8*T30</f>
-        <v>23.154761904761905</v>
+        <v>31.821428571428573</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -29564,23 +29656,26 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="str">
         <f>member!A31</f>
         <v>红色6号</v>
       </c>
       <c r="B31" s="34">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="C31" s="34">
         <f>E7*E31+F7*F31+G7*G31+H7*H31+I7*I31+J7*J31+K7*K31+L7*L31+M7*M31+O7*O31+P7*P31+Q7*Q31+R7*R31+S7*S31+T7*T31</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D31" s="36">
         <f>E8*E31+F8*F31+G8*G31+H8*H31+I8*I31+J8*J31+K8*K31+L8*L31+M8*M31+O8*O31+P8*P31+Q8*Q31+R8*R31+S8*S31+T8*T31</f>
-        <v>0</v>
+        <v>8.6666666666666679</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -29590,14 +29685,17 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="str">
         <f>member!A32</f>
         <v>微笑</v>
       </c>
       <c r="B32" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C32" s="34">
@@ -29624,23 +29722,24 @@
         <v>1</v>
       </c>
       <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="str">
         <f>member!A33</f>
         <v>77号-更心</v>
       </c>
       <c r="B33" s="34">
-        <f t="shared" si="21"/>
-        <v>2</v>
+        <f t="shared" si="25"/>
+        <v>3</v>
       </c>
       <c r="C33" s="34">
         <f>E7*E33+F7*F33+G7*G33+H7*H33+I7*I33+J7*J33+K7*K33+L7*L33+M7*M33+O7*O33+P7*P33+Q7*Q33+R7*R33+S7*S33+T7*T33</f>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D33" s="36">
         <f>E8*E33+F8*F33+G8*G33+H8*H33+I8*I33+J8*J33+K8*K33+L8*L33+M8*M33+O8*O33+P8*P33+Q8*Q33+R8*R33+S8*S33+T8*T33</f>
-        <v>4.2708333333333321</v>
+        <v>12.9375</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -29654,14 +29753,17 @@
         <v>1</v>
       </c>
       <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="str">
         <f>member!A34</f>
         <v>更心朋友</v>
       </c>
       <c r="B34" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C34" s="34">
@@ -29680,23 +29782,24 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="str">
         <f>member!A35</f>
         <v>8号-菜菜亮</v>
       </c>
       <c r="B35" s="34">
-        <f t="shared" si="21"/>
-        <v>6</v>
+        <f t="shared" si="25"/>
+        <v>7</v>
       </c>
       <c r="C35" s="34">
         <f>E7*E35+F7*F35+G7*G35+H7*H35+I7*I35+J7*J35+K7*K35+L7*L35+M7*M35+O7*O35+P7*P35+Q7*Q35+R7*R35+S7*S35+T7*T35</f>
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="D35" s="36">
         <f>E8*E35+F8*F35+G8*G35+H8*H35+I8*I35+J8*J35+K8*K35+L8*L35+M8*M35+O8*O35+P8*P35+Q8*Q35+R8*R35+S8*S35+T8*T35</f>
-        <v>50.620039682539669</v>
+        <v>59.286706349206341</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2">
@@ -29718,14 +29821,17 @@
       <c r="L35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="str">
         <f>member!A36</f>
         <v>杨光朋友</v>
       </c>
       <c r="B36" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C36" s="34">
@@ -29744,14 +29850,15 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="str">
         <f>member!A37</f>
         <v>拂晓朋友</v>
       </c>
       <c r="B37" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C37" s="34">
@@ -29770,14 +29877,15 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="str">
         <f>member!A38</f>
         <v>4号-许多</v>
       </c>
       <c r="B38" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C38" s="34">
@@ -29796,14 +29904,15 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="str">
         <f>member!A39</f>
         <v>5号-正</v>
       </c>
       <c r="B39" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C39" s="34">
@@ -29830,14 +29939,15 @@
       <c r="L39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="str">
         <f>member!A40</f>
         <v>勇敢的爬爬</v>
       </c>
       <c r="B40" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C40" s="34">
@@ -29856,14 +29966,15 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="str">
         <f>member!A41</f>
         <v>17号-4号字母</v>
       </c>
       <c r="B41" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C41" s="34">
@@ -29882,14 +29993,15 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="str">
         <f>member!A42</f>
         <v>雷雨</v>
       </c>
       <c r="B42" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="C42" s="34">
@@ -29910,23 +30022,24 @@
       <c r="L42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="str">
         <f>member!A43</f>
         <v>西北偏北</v>
       </c>
       <c r="B43" s="34">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>2</v>
       </c>
       <c r="C43" s="34">
         <f>E7*E43+F7*F43+G7*G43+H7*H43+I7*I43+J7*J43+K7*K43+L7*L43+M7*M43+O7*O43+P7*P43+Q7*Q43+R7*R43+S7*S43+T7*T43</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D43" s="36">
         <f>E8*E43+F8*F43+G8*G43+H8*H43+I8*I43+J8*J43+K8*K43+L8*L43+M8*M43+O8*O43+P8*P43+Q8*Q43+R8*R43+S8*S43+T8*T43</f>
-        <v>0.83333333333333215</v>
+        <v>9.5</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -29938,23 +30051,26 @@
         <v>1</v>
       </c>
       <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="str">
         <f>member!A44</f>
         <v>红色8号</v>
       </c>
       <c r="B44" s="34">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="C44" s="34">
         <f>E7*E44+F7*F44+G7*G44+H7*H44+I7*I44+J7*J44+K7*K44+L7*L44+M7*M44+O7*O44+P7*P44+Q7*Q44+R7*R44+S7*S44+T7*T44</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D44" s="36">
         <f>E8*E44+F8*F44+G8*G44+H8*H44+I8*I44+J8*J44+K8*K44+L8*L44+M8*M44+O8*O44+P8*P44+Q8*Q44+R8*R44+S8*S44+T8*T44</f>
-        <v>0</v>
+        <v>8.6666666666666679</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -29964,14 +30080,17 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="str">
         <f>member!A45</f>
         <v>马耳他</v>
       </c>
       <c r="B45" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="C45" s="34">
@@ -30000,14 +30119,15 @@
       <c r="L45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="str">
         <f>member!A46</f>
         <v>Cindy~陈猛</v>
       </c>
       <c r="B46" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="C46" s="34">
@@ -30038,14 +30158,15 @@
       <c r="L46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="str">
         <f>member!A47</f>
         <v>硕</v>
       </c>
       <c r="B47" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="C47" s="34">
@@ -30068,14 +30189,15 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="str">
         <f>member!A48</f>
         <v>Violin</v>
       </c>
       <c r="B48" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="C48" s="34">
@@ -30096,23 +30218,24 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="str">
         <f>member!A49</f>
         <v>87号陈磊</v>
       </c>
       <c r="B49" s="34">
-        <f t="shared" si="21"/>
-        <v>4</v>
+        <f t="shared" si="25"/>
+        <v>5</v>
       </c>
       <c r="C49" s="34">
         <f>E7*E49+F7*F49+G7*G49+H7*H49+I7*I49+J7*J49+K7*K49+L7*L49+M7*M49+O7*O49+P7*P49+Q7*Q49+R7*R49+S7*S49+T7*T49</f>
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D49" s="36">
         <f>E8*E49+F8*F49+G8*G49+H8*H49+I8*I49+J8*J49+K8*K49+L8*L49+M8*M49+O8*O49+P8*P49+Q8*Q49+R8*R49+S8*S49+T8*T49</f>
-        <v>34.265873015873012</v>
+        <v>42.932539682539684</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -30130,14 +30253,17 @@
         <v>1</v>
       </c>
       <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="str">
         <f>member!A50</f>
         <v>水中阳光</v>
       </c>
       <c r="B50" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C50" s="34">
@@ -30156,14 +30282,15 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="str">
         <f>member!A51</f>
         <v>sam</v>
       </c>
       <c r="B51" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="C51" s="34">
@@ -30186,23 +30313,24 @@
       <c r="L51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="str">
         <f>member!A52</f>
         <v>26 方亚</v>
       </c>
       <c r="B52" s="34">
-        <f t="shared" si="21"/>
-        <v>4</v>
+        <f t="shared" si="25"/>
+        <v>5</v>
       </c>
       <c r="C52" s="34">
         <f>E7*E52+F7*F52+G7*G52+H7*H52+I7*I52+J7*J52+K7*K52+L7*L52+M7*M52+O7*O52+P7*P52+Q7*Q52+R7*R52+S7*S52+T7*T52</f>
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="D52" s="36">
         <f>E8*E52+F8*F52+G8*G52+H8*H52+I8*I52+J8*J52+K8*K52+L8*L52+M8*M52+O8*O52+P8*P52+Q8*Q52+R8*R52+S8*S52+T8*T52</f>
-        <v>34.131944444444443</v>
+        <v>42.798611111111114</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -30220,14 +30348,17 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="str">
         <f>member!A53</f>
         <v>维尼</v>
       </c>
       <c r="B53" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C53" s="34">
@@ -30246,14 +30377,15 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="str">
         <f>member!A54</f>
         <v>0号--张家宁</v>
       </c>
       <c r="B54" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C54" s="34">
@@ -30272,14 +30404,15 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="str">
         <f>member!A55</f>
         <v>泰山</v>
       </c>
       <c r="B55" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C55" s="34">
@@ -30298,14 +30431,15 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="str">
         <f>member!A56</f>
         <v>尚峰</v>
       </c>
       <c r="B56" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C56" s="34">
@@ -30332,14 +30466,15 @@
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="str">
         <f>member!A57</f>
         <v>杨光</v>
       </c>
       <c r="B57" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C57" s="34">
@@ -30358,14 +30493,15 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="str">
         <f>member!A58</f>
         <v>小磊</v>
       </c>
       <c r="B58" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="C58" s="34">
@@ -30396,14 +30532,15 @@
       <c r="L58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="str">
         <f>member!A59</f>
         <v>绿洲</v>
       </c>
       <c r="B59" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C59" s="34">
@@ -30422,14 +30559,15 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="str">
         <f>member!A60</f>
         <v>孙伟</v>
       </c>
       <c r="B60" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="C60" s="34">
@@ -30452,14 +30590,15 @@
         <v>1</v>
       </c>
       <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="str">
         <f>member!A61</f>
         <v>古轮木</v>
       </c>
       <c r="B61" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="C61" s="34">
@@ -30480,23 +30619,24 @@
         <v>1</v>
       </c>
       <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="str">
         <f>member!A62</f>
         <v>makoko</v>
       </c>
       <c r="B62" s="34">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>2</v>
       </c>
       <c r="C62" s="34">
         <f>E7*E62+F7*F62+G7*G62+H7*H62+I7*I62+J7*J62+K7*K62+L7*L62+M7*M62+O7*O62+P7*P62+Q7*Q62+R7*R62+S7*S62+T7*T62</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D62" s="36">
         <f>E8*E62+F8*F62+G8*G62+H8*H62+I8*I62+J8*J62+K8*K62+L8*L62+M8*M62+O8*O62+P8*P62+Q8*Q62+R8*R62+S8*S62+T8*T62</f>
-        <v>11.111111111111111</v>
+        <v>19.777777777777779</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -30508,14 +30648,17 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="11" t="str">
         <f>member!A63</f>
         <v>玲1</v>
       </c>
       <c r="B63" s="34">
-        <f t="shared" ref="B63" si="22">COUNT(E63:T63)</f>
+        <f t="shared" ref="B63" si="26">COUNT(E63:T63)</f>
         <v>1</v>
       </c>
       <c r="C63" s="34">
@@ -30536,14 +30679,15 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="str">
         <f>member!A64</f>
         <v>玲2</v>
       </c>
       <c r="B64" s="34">
-        <f t="shared" ref="B64:B100" si="23">COUNT(E64:T64)</f>
+        <f t="shared" ref="B64:B100" si="27">COUNT(E64:T64)</f>
         <v>1</v>
       </c>
       <c r="C64" s="34">
@@ -30564,14 +30708,15 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="11" t="str">
         <f>member!A65</f>
         <v>玲3</v>
       </c>
       <c r="B65" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="C65" s="34">
@@ -30592,14 +30737,15 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="str">
         <f>member!A66</f>
         <v>玲4</v>
       </c>
       <c r="B66" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="C66" s="34">
@@ -30620,14 +30766,15 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="11" t="str">
         <f>member!A67</f>
         <v>玲5</v>
       </c>
       <c r="B67" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="C67" s="34">
@@ -30648,23 +30795,24 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="str">
         <f>member!A68</f>
         <v>度日</v>
       </c>
       <c r="B68" s="34">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
       <c r="C68" s="34">
         <f>E7*E68+F7*F68+G7*G68+H7*H68+I7*I68+J7*J68+K7*K68+L7*L68+M7*M68+N7*N68+O7*O68+P7*P68+Q7*Q68+R7*R68+S7*S68+T7*T68</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D68" s="36">
         <f>E8*E68+F8*F68+G8*G68+H8*H68+I8*I68+J8*J68+K8*K68+L8*L68+M8*M68+N8*N68+O8*O68+P8*P68+Q8*Q68+R8*R68+S8*S68+T8*T68</f>
-        <v>10.833333333333332</v>
+        <v>19.5</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -30676,23 +30824,26 @@
       <c r="L68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="11" t="str">
         <f>member!A69</f>
-        <v>新</v>
+        <v>肖飞</v>
       </c>
       <c r="B69" s="34">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="C69" s="34">
         <f>E7*E69+F7*F69+G7*G69+H7*H69+I7*I69+J7*J69+K7*K69+L7*L69+M7*M69+N7*N69+O7*O69+P7*P69+Q7*Q69+R7*R69+S7*S69+T7*T69</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D69" s="36">
         <f>E8*E69+F8*F69+G8*G69+H8*H69+I8*I69+J8*J69+K8*K69+L8*L69+M8*M69+N8*N69+O8*O69+P8*P69+Q8*Q69+R8*R69+S8*S69+T8*T69</f>
-        <v>0</v>
+        <v>8.6666666666666679</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -30702,14 +30853,17 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="11" t="str">
         <f>member!A70</f>
         <v>新</v>
       </c>
       <c r="B70" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C70" s="34">
@@ -30728,14 +30882,15 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="str">
         <f>member!A71</f>
         <v>新</v>
       </c>
       <c r="B71" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C71" s="34">
@@ -30754,14 +30909,15 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="str">
         <f>member!A72</f>
         <v>新</v>
       </c>
       <c r="B72" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C72" s="34">
@@ -30780,14 +30936,15 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="str">
         <f>member!A73</f>
         <v>新</v>
       </c>
       <c r="B73" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C73" s="34">
@@ -30806,14 +30963,15 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="str">
         <f>member!A74</f>
         <v>新</v>
       </c>
       <c r="B74" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C74" s="34">
@@ -30832,14 +30990,15 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="11" t="str">
         <f>member!A75</f>
         <v>新</v>
       </c>
       <c r="B75" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C75" s="34">
@@ -30858,14 +31017,15 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="str">
         <f>member!A76</f>
         <v>新</v>
       </c>
       <c r="B76" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C76" s="34">
@@ -30884,14 +31044,15 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="11" t="str">
         <f>member!A77</f>
         <v>新</v>
       </c>
       <c r="B77" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C77" s="34">
@@ -30910,14 +31071,15 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="str">
         <f>member!A78</f>
         <v>新</v>
       </c>
       <c r="B78" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C78" s="34">
@@ -30936,14 +31098,15 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="str">
         <f>member!A79</f>
         <v>新</v>
       </c>
       <c r="B79" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C79" s="34">
@@ -30962,14 +31125,15 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="str">
         <f>member!A80</f>
         <v>新</v>
       </c>
       <c r="B80" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C80" s="34">
@@ -30988,14 +31152,15 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A81" s="11" t="str">
         <f>member!A81</f>
         <v>新</v>
       </c>
       <c r="B81" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C81" s="34">
@@ -31014,14 +31179,15 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="11" t="str">
         <f>member!A82</f>
         <v>新</v>
       </c>
       <c r="B82" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C82" s="34">
@@ -31040,14 +31206,15 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="11" t="str">
         <f>member!A83</f>
         <v>新</v>
       </c>
       <c r="B83" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C83" s="34">
@@ -31066,14 +31233,15 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="str">
         <f>member!A84</f>
         <v>新</v>
       </c>
       <c r="B84" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C84" s="34">
@@ -31092,14 +31260,15 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85" s="11" t="str">
         <f>member!A85</f>
         <v>新</v>
       </c>
       <c r="B85" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C85" s="34">
@@ -31118,14 +31287,15 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="str">
         <f>member!A86</f>
         <v>新</v>
       </c>
       <c r="B86" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C86" s="34">
@@ -31144,14 +31314,15 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A87" s="11" t="str">
         <f>member!A87</f>
         <v>新</v>
       </c>
       <c r="B87" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C87" s="34">
@@ -31170,14 +31341,15 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="str">
         <f>member!A88</f>
         <v>新</v>
       </c>
       <c r="B88" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C88" s="34">
@@ -31196,14 +31368,15 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="11" t="str">
         <f>member!A89</f>
         <v>新</v>
       </c>
       <c r="B89" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C89" s="34">
@@ -31222,14 +31395,15 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="11" t="str">
         <f>member!A90</f>
         <v>新</v>
       </c>
       <c r="B90" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C90" s="34">
@@ -31248,14 +31422,15 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A91" s="11" t="str">
         <f>member!A91</f>
         <v>新</v>
       </c>
       <c r="B91" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C91" s="34">
@@ -31274,14 +31449,15 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A92" s="11" t="str">
         <f>member!A92</f>
         <v>新</v>
       </c>
       <c r="B92" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C92" s="34">
@@ -31300,14 +31476,15 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A93" s="11" t="str">
         <f>member!A93</f>
         <v>新</v>
       </c>
       <c r="B93" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C93" s="34">
@@ -31326,14 +31503,15 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A94" s="11" t="str">
         <f>member!A94</f>
         <v>新</v>
       </c>
       <c r="B94" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C94" s="34">
@@ -31352,14 +31530,15 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="str">
         <f>member!A95</f>
         <v>新</v>
       </c>
       <c r="B95" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C95" s="34">
@@ -31378,14 +31557,15 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A96" s="11" t="str">
         <f>member!A96</f>
         <v>新</v>
       </c>
       <c r="B96" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C96" s="34">
@@ -31404,14 +31584,15 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="str">
         <f>member!A97</f>
         <v>新</v>
       </c>
       <c r="B97" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C97" s="34">
@@ -31430,14 +31611,15 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98" s="11" t="str">
         <f>member!A98</f>
         <v>新</v>
       </c>
       <c r="B98" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C98" s="34">
@@ -31456,14 +31638,15 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="str">
         <f>member!A99</f>
         <v>新</v>
       </c>
       <c r="B99" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C99" s="34">
@@ -31482,14 +31665,15 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A100" s="11" t="str">
         <f>member!A100</f>
         <v>新</v>
       </c>
       <c r="B100" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="C100" s="34">
@@ -31508,6 +31692,7 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="134">
   <si>
     <t>守候幸福</t>
   </si>
@@ -501,15 +501,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退虫,豆,鲜明,超,活,神 6*30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小磊欠款，多收10元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18*30-345,狐狸欠10，SM欠15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -535,6 +527,22 @@
   </si>
   <si>
     <t>拂晓代收代管，退陈磊10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.29退15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.29退10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退虫,豆,鲜明,超,活,神 6*30；退狐狸10块；退smile 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18*30-345</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +675,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -727,6 +735,7 @@
     <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1031,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1068,7 +1077,7 @@
         <v>53</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>55</v>
@@ -1105,12 +1114,12 @@
       </c>
       <c r="F2" s="36">
         <f t="shared" si="0"/>
-        <v>1935</v>
+        <v>1960</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
-        <v>1161.0000000000005</v>
+        <v>1136.0000000000007</v>
       </c>
       <c r="I2" s="38">
         <f t="shared" si="0"/>
@@ -1148,7 +1157,7 @@
       </c>
       <c r="I4" s="40">
         <f>H2+I2</f>
-        <v>1216.0000000000005</v>
+        <v>1191.0000000000007</v>
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
@@ -17925,16 +17934,18 @@
         <v>116.08633763896921</v>
       </c>
       <c r="F19" s="18">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="36">
         <f t="shared" si="2"/>
-        <v>66.086337638969212</v>
+        <v>56.086337638969212</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
@@ -17989,16 +18000,18 @@
         <v>74.341956654456652</v>
       </c>
       <c r="F21" s="18">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="36">
         <f t="shared" si="2"/>
-        <v>19.341956654456652</v>
+        <v>4.3419566544566521</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
@@ -18621,7 +18634,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="36">
-        <f t="shared" ref="H41:H72" si="4">E41-F41+G41</f>
+        <f t="shared" ref="H41:H71" si="4">E41-F41+G41</f>
         <v>38.325396825396822</v>
       </c>
       <c r="I41" s="18"/>
@@ -18889,7 +18902,7 @@
         <v>2</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -19171,7 +19184,7 @@
       <c r="I58" s="18"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -19476,7 +19489,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B69" s="39">
         <f>'201202'!B69+'201203'!B69+'201204'!B69+'201205'!B69+'201206'!B69+'201207'!B69+'201208'!B69+'201209'!B69+'201210'!B69+'201211'!B69+'201212'!B69</f>
@@ -20544,7 +20557,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20582,8 +20595,8 @@
         <v>119</v>
       </c>
       <c r="B2" s="39">
-        <f>SUM(B5:B52)</f>
-        <v>85</v>
+        <f>SUM(B3:B52)</f>
+        <v>180</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="42" t="s">
@@ -20603,7 +20616,7 @@
         <v>-10</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" s="14">
         <v>40948</v>
@@ -20621,7 +20634,7 @@
         <v>130</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" s="14">
         <v>40952</v>
@@ -20638,8 +20651,8 @@
       <c r="B5" s="1">
         <v>195</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>125</v>
+      <c r="C5" s="43" t="s">
+        <v>133</v>
       </c>
       <c r="D5" s="14">
         <v>40960</v>
@@ -20654,10 +20667,10 @@
         <v>41058</v>
       </c>
       <c r="B6" s="1">
-        <v>-180</v>
+        <v>-205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D6" s="14">
         <v>40967</v>
@@ -20675,7 +20688,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="14">
         <v>40970</v>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="138">
   <si>
     <t>守候幸福</t>
   </si>
@@ -522,14 +522,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拂晓代收代管 15×30 -320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拂晓代收代管，退陈磊10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.29退15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,6 +537,29 @@
     <t>18*30-345</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>拂晓代收代管(6.5给幸福)，退陈磊10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拂晓代收代管(6.5给幸福) 15×30 -320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退菜菜，超各20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*20-370，小磊，更新各欠20，还有20不知谁没交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5退20</t>
+  </si>
+  <si>
+    <t>6.5退20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -554,7 +569,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,6 +612,13 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -675,7 +697,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -736,6 +758,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1040,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1098,28 +1121,28 @@
       </c>
       <c r="B2" s="37">
         <f t="shared" ref="B2:J2" si="0">SUM(B9:B100)</f>
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="C2" s="36">
         <f t="shared" si="0"/>
-        <v>14230</v>
+        <v>14630</v>
       </c>
       <c r="D2" s="38">
         <f t="shared" si="0"/>
-        <v>3575.0000000000005</v>
+        <v>3605.0000000000005</v>
       </c>
       <c r="E2" s="36">
         <f t="shared" si="0"/>
-        <v>3085.9999999999986</v>
+        <v>3095.9999999999995</v>
       </c>
       <c r="F2" s="36">
         <f t="shared" si="0"/>
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
-        <v>1136.0000000000007</v>
+        <v>1106.0000000000007</v>
       </c>
       <c r="I2" s="38">
         <f t="shared" si="0"/>
@@ -1157,7 +1180,7 @@
       </c>
       <c r="I4" s="40">
         <f>H2+I2</f>
-        <v>1191.0000000000007</v>
+        <v>1161.0000000000007</v>
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
@@ -17593,19 +17616,19 @@
       </c>
       <c r="B9" s="39">
         <f>'201202'!B9+'201203'!B9+'201204'!B9+'201205'!B9+'201206'!B9+'201207'!B9+'201208'!B9+'201209'!B9+'201210'!B9+'201211'!B9+'201212'!B9</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="36">
         <f>'201202'!C9+'201203'!C9+'201204'!C9+'201205'!C9+'201206'!C9+'201207'!C9+'201208'!C9+'201209'!C9+'201210'!C9+'201211'!C9+'201212'!C9</f>
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="D9" s="36">
         <f>'201202'!D9+'201203'!D9+'201204'!D9+'201205'!D9+'201206'!D9+'201207'!D9+'201208'!D9+'201209'!D9+'201210'!D9+'201211'!D9+'201212'!D9</f>
-        <v>86.337988400488399</v>
+        <v>87.837988400488399</v>
       </c>
       <c r="E9" s="36">
         <f t="shared" ref="E9:E40" si="1">D9-B9</f>
-        <v>74.337988400488399</v>
+        <v>74.837988400488399</v>
       </c>
       <c r="F9" s="18">
         <v>55</v>
@@ -17613,7 +17636,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="36">
         <f t="shared" ref="H9:H40" si="2">E9-F9+G9</f>
-        <v>19.337988400488399</v>
+        <v>19.837988400488399</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="1"/>
@@ -17625,19 +17648,19 @@
       </c>
       <c r="B10" s="39">
         <f>'201202'!B10+'201203'!B10+'201204'!B10+'201205'!B10+'201206'!B10+'201207'!B10+'201208'!B10+'201209'!B10+'201210'!B10+'201211'!B10+'201212'!B10</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="36">
         <f>'201202'!C10+'201203'!C10+'201204'!C10+'201205'!C10+'201206'!C10+'201207'!C10+'201208'!C10+'201209'!C10+'201210'!C10+'201211'!C10+'201212'!C10</f>
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="D10" s="36">
         <f>'201202'!D10+'201203'!D10+'201204'!D10+'201205'!D10+'201206'!D10+'201207'!D10+'201208'!D10+'201209'!D10+'201210'!D10+'201211'!D10+'201212'!D10</f>
-        <v>192.16692371955529</v>
+        <v>193.66692371955529</v>
       </c>
       <c r="E10" s="36">
         <f t="shared" si="1"/>
-        <v>165.16692371955529</v>
+        <v>165.66692371955529</v>
       </c>
       <c r="F10" s="18">
         <v>160</v>
@@ -17645,7 +17668,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="36">
         <f t="shared" si="2"/>
-        <v>5.1669237195552853</v>
+        <v>5.6669237195552853</v>
       </c>
       <c r="I10" s="18">
         <v>10</v>
@@ -17725,19 +17748,19 @@
       </c>
       <c r="B13" s="39">
         <f>'201202'!B13+'201203'!B13+'201204'!B13+'201205'!B13+'201206'!B13+'201207'!B13+'201208'!B13+'201209'!B13+'201210'!B13+'201211'!B13+'201212'!B13</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="36">
         <f>'201202'!C13+'201203'!C13+'201204'!C13+'201205'!C13+'201206'!C13+'201207'!C13+'201208'!C13+'201209'!C13+'201210'!C13+'201211'!C13+'201212'!C13</f>
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="D13" s="36">
         <f>'201202'!D13+'201203'!D13+'201204'!D13+'201205'!D13+'201206'!D13+'201207'!D13+'201208'!D13+'201209'!D13+'201210'!D13+'201211'!D13+'201212'!D13</f>
-        <v>138.97743959257116</v>
+        <v>140.47743959257116</v>
       </c>
       <c r="E13" s="36">
         <f t="shared" si="1"/>
-        <v>116.97743959257116</v>
+        <v>117.47743959257116</v>
       </c>
       <c r="F13" s="18">
         <v>100</v>
@@ -17745,7 +17768,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="36">
         <f t="shared" si="2"/>
-        <v>16.977439592571159</v>
+        <v>17.477439592571159</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="1"/>
@@ -17757,19 +17780,19 @@
       </c>
       <c r="B14" s="39">
         <f>'201202'!B14+'201203'!B14+'201204'!B14+'201205'!B14+'201206'!B14+'201207'!B14+'201208'!B14+'201209'!B14+'201210'!B14+'201211'!B14+'201212'!B14</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="36">
         <f>'201202'!C14+'201203'!C14+'201204'!C14+'201205'!C14+'201206'!C14+'201207'!C14+'201208'!C14+'201209'!C14+'201210'!C14+'201211'!C14+'201212'!C14</f>
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="D14" s="36">
         <f>'201202'!D14+'201203'!D14+'201204'!D14+'201205'!D14+'201206'!D14+'201207'!D14+'201208'!D14+'201209'!D14+'201210'!D14+'201211'!D14+'201212'!D14</f>
-        <v>212.43615448878606</v>
+        <v>213.93615448878606</v>
       </c>
       <c r="E14" s="36">
         <f t="shared" si="1"/>
-        <v>182.43615448878606</v>
+        <v>182.93615448878606</v>
       </c>
       <c r="F14" s="18">
         <v>135</v>
@@ -17777,7 +17800,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="36">
         <f t="shared" si="2"/>
-        <v>47.436154488786059</v>
+        <v>47.936154488786059</v>
       </c>
       <c r="I14" s="18">
         <v>5</v>
@@ -17855,19 +17878,19 @@
       </c>
       <c r="B17" s="39">
         <f>'201202'!B17+'201203'!B17+'201204'!B17+'201205'!B17+'201206'!B17+'201207'!B17+'201208'!B17+'201209'!B17+'201210'!B17+'201211'!B17+'201212'!B17</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="36">
         <f>'201202'!C17+'201203'!C17+'201204'!C17+'201205'!C17+'201206'!C17+'201207'!C17+'201208'!C17+'201209'!C17+'201210'!C17+'201211'!C17+'201212'!C17</f>
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D17" s="36">
         <f>'201202'!D17+'201203'!D17+'201204'!D17+'201205'!D17+'201206'!D17+'201207'!D17+'201208'!D17+'201209'!D17+'201210'!D17+'201211'!D17+'201212'!D17</f>
-        <v>70.458257020757017</v>
+        <v>71.958257020757017</v>
       </c>
       <c r="E17" s="36">
         <f t="shared" si="1"/>
-        <v>61.458257020757017</v>
+        <v>61.958257020757017</v>
       </c>
       <c r="F17" s="18">
         <v>45</v>
@@ -17875,7 +17898,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="36">
         <f t="shared" si="2"/>
-        <v>16.458257020757017</v>
+        <v>16.958257020757017</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="1"/>
@@ -17887,19 +17910,19 @@
       </c>
       <c r="B18" s="39">
         <f>'201202'!B18+'201203'!B18+'201204'!B18+'201205'!B18+'201206'!B18+'201207'!B18+'201208'!B18+'201209'!B18+'201210'!B18+'201211'!B18+'201212'!B18</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="36">
         <f>'201202'!C18+'201203'!C18+'201204'!C18+'201205'!C18+'201206'!C18+'201207'!C18+'201208'!C18+'201209'!C18+'201210'!C18+'201211'!C18+'201212'!C18</f>
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D18" s="36">
         <f>'201202'!D18+'201203'!D18+'201204'!D18+'201205'!D18+'201206'!D18+'201207'!D18+'201208'!D18+'201209'!D18+'201210'!D18+'201211'!D18+'201212'!D18</f>
-        <v>77.753920056551635</v>
+        <v>79.253920056551635</v>
       </c>
       <c r="E18" s="36">
         <f t="shared" si="1"/>
-        <v>66.753920056551635</v>
+        <v>67.253920056551635</v>
       </c>
       <c r="F18" s="18">
         <v>70</v>
@@ -17907,7 +17930,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="36">
         <f t="shared" si="2"/>
-        <v>-3.2460799434483647</v>
+        <v>-2.7460799434483647</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="1"/>
@@ -17919,19 +17942,19 @@
       </c>
       <c r="B19" s="39">
         <f>'201202'!B19+'201203'!B19+'201204'!B19+'201205'!B19+'201206'!B19+'201207'!B19+'201208'!B19+'201209'!B19+'201210'!B19+'201211'!B19+'201212'!B19</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="36">
         <f>'201202'!C19+'201203'!C19+'201204'!C19+'201205'!C19+'201206'!C19+'201207'!C19+'201208'!C19+'201209'!C19+'201210'!C19+'201211'!C19+'201212'!C19</f>
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="D19" s="36">
         <f>'201202'!D19+'201203'!D19+'201204'!D19+'201205'!D19+'201206'!D19+'201207'!D19+'201208'!D19+'201209'!D19+'201210'!D19+'201211'!D19+'201212'!D19</f>
-        <v>136.08633763896921</v>
+        <v>137.58633763896921</v>
       </c>
       <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v>116.08633763896921</v>
+        <v>116.58633763896921</v>
       </c>
       <c r="F19" s="18">
         <v>60</v>
@@ -17939,12 +17962,12 @@
       <c r="G19" s="18"/>
       <c r="H19" s="36">
         <f t="shared" si="2"/>
-        <v>56.086337638969212</v>
+        <v>56.586337638969212</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -17985,19 +18008,19 @@
       </c>
       <c r="B21" s="39">
         <f>'201202'!B21+'201203'!B21+'201204'!B21+'201205'!B21+'201206'!B21+'201207'!B21+'201208'!B21+'201209'!B21+'201210'!B21+'201211'!B21+'201212'!B21</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="36">
         <f>'201202'!C21+'201203'!C21+'201204'!C21+'201205'!C21+'201206'!C21+'201207'!C21+'201208'!C21+'201209'!C21+'201210'!C21+'201211'!C21+'201212'!C21</f>
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="D21" s="36">
         <f>'201202'!D21+'201203'!D21+'201204'!D21+'201205'!D21+'201206'!D21+'201207'!D21+'201208'!D21+'201209'!D21+'201210'!D21+'201211'!D21+'201212'!D21</f>
-        <v>86.341956654456652</v>
+        <v>87.841956654456652</v>
       </c>
       <c r="E21" s="36">
         <f t="shared" si="1"/>
-        <v>74.341956654456652</v>
+        <v>74.841956654456652</v>
       </c>
       <c r="F21" s="18">
         <v>70</v>
@@ -18005,12 +18028,12 @@
       <c r="G21" s="18"/>
       <c r="H21" s="36">
         <f t="shared" si="2"/>
-        <v>4.3419566544566521</v>
+        <v>4.8419566544566521</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -18051,19 +18074,19 @@
       </c>
       <c r="B23" s="39">
         <f>'201202'!B23+'201203'!B23+'201204'!B23+'201205'!B23+'201206'!B23+'201207'!B23+'201208'!B23+'201209'!B23+'201210'!B23+'201211'!B23+'201212'!B23</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="36">
         <f>'201202'!C23+'201203'!C23+'201204'!C23+'201205'!C23+'201206'!C23+'201207'!C23+'201208'!C23+'201209'!C23+'201210'!C23+'201211'!C23+'201212'!C23</f>
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="D23" s="36">
         <f>'201202'!D23+'201203'!D23+'201204'!D23+'201205'!D23+'201206'!D23+'201207'!D23+'201208'!D23+'201209'!D23+'201210'!D23+'201211'!D23+'201212'!D23</f>
-        <v>122.37273873787032</v>
+        <v>123.87273873787032</v>
       </c>
       <c r="E23" s="36">
         <f t="shared" si="1"/>
-        <v>106.37273873787032</v>
+        <v>106.87273873787032</v>
       </c>
       <c r="F23" s="18">
         <v>85</v>
@@ -18071,7 +18094,7 @@
       <c r="G23" s="18"/>
       <c r="H23" s="36">
         <f t="shared" si="2"/>
-        <v>21.372738737870321</v>
+        <v>21.872738737870321</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="1"/>
@@ -18119,19 +18142,19 @@
       </c>
       <c r="B25" s="39">
         <f>'201202'!B25+'201203'!B25+'201204'!B25+'201205'!B25+'201206'!B25+'201207'!B25+'201208'!B25+'201209'!B25+'201210'!B25+'201211'!B25+'201212'!B25</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="36">
         <f>'201202'!C25+'201203'!C25+'201204'!C25+'201205'!C25+'201206'!C25+'201207'!C25+'201208'!C25+'201209'!C25+'201210'!C25+'201211'!C25+'201212'!C25</f>
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="D25" s="36">
         <f>'201202'!D25+'201203'!D25+'201204'!D25+'201205'!D25+'201206'!D25+'201207'!D25+'201208'!D25+'201209'!D25+'201210'!D25+'201211'!D25+'201212'!D25</f>
-        <v>125.29001590514748</v>
+        <v>126.79001590514748</v>
       </c>
       <c r="E25" s="36">
         <f t="shared" si="1"/>
-        <v>107.29001590514748</v>
+        <v>107.79001590514748</v>
       </c>
       <c r="F25" s="18">
         <v>75</v>
@@ -18139,7 +18162,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="36">
         <f t="shared" si="2"/>
-        <v>32.290015905147484</v>
+        <v>32.790015905147484</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="1"/>
@@ -18181,27 +18204,27 @@
       </c>
       <c r="B27" s="39">
         <f>'201202'!B27+'201203'!B27+'201204'!B27+'201205'!B27+'201206'!B27+'201207'!B27+'201208'!B27+'201209'!B27+'201210'!B27+'201211'!B27+'201212'!B27</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="36">
         <f>'201202'!C27+'201203'!C27+'201204'!C27+'201205'!C27+'201206'!C27+'201207'!C27+'201208'!C27+'201209'!C27+'201210'!C27+'201211'!C27+'201212'!C27</f>
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="D27" s="36">
         <f>'201202'!D27+'201203'!D27+'201204'!D27+'201205'!D27+'201206'!D27+'201207'!D27+'201208'!D27+'201209'!D27+'201210'!D27+'201211'!D27+'201212'!D27</f>
-        <v>217.60442371955529</v>
+        <v>219.10442371955529</v>
       </c>
       <c r="E27" s="36">
         <f t="shared" si="1"/>
-        <v>186.60442371955529</v>
+        <v>187.10442371955529</v>
       </c>
       <c r="F27" s="18">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="36">
         <f t="shared" si="2"/>
-        <v>31.604423719555285</v>
+        <v>12.104423719555285</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="1"/>
@@ -18237,7 +18260,9 @@
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
@@ -18371,19 +18396,19 @@
       </c>
       <c r="B33" s="39">
         <f>'201202'!B33+'201203'!B33+'201204'!B33+'201205'!B33+'201206'!B33+'201207'!B33+'201208'!B33+'201209'!B33+'201210'!B33+'201211'!B33+'201212'!B33</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" s="36">
         <f>'201202'!C33+'201203'!C33+'201204'!C33+'201205'!C33+'201206'!C33+'201207'!C33+'201208'!C33+'201209'!C33+'201210'!C33+'201211'!C33+'201212'!C33</f>
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D33" s="36">
         <f>'201202'!D33+'201203'!D33+'201204'!D33+'201205'!D33+'201206'!D33+'201207'!D33+'201208'!D33+'201209'!D33+'201210'!D33+'201211'!D33+'201212'!D33</f>
-        <v>49.382860195360195</v>
+        <v>50.882860195360195</v>
       </c>
       <c r="E33" s="36">
         <f t="shared" si="1"/>
-        <v>40.382860195360195</v>
+        <v>40.882860195360195</v>
       </c>
       <c r="F33" s="18">
         <v>45</v>
@@ -18391,7 +18416,7 @@
       <c r="G33" s="18"/>
       <c r="H33" s="36">
         <f t="shared" si="2"/>
-        <v>-4.6171398046398053</v>
+        <v>-4.1171398046398053</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="1"/>
@@ -18433,31 +18458,33 @@
       </c>
       <c r="B35" s="39">
         <f>'201202'!B35+'201203'!B35+'201204'!B35+'201205'!B35+'201206'!B35+'201207'!B35+'201208'!B35+'201209'!B35+'201210'!B35+'201211'!B35+'201212'!B35</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C35" s="36">
         <f>'201202'!C35+'201203'!C35+'201204'!C35+'201205'!C35+'201206'!C35+'201207'!C35+'201208'!C35+'201209'!C35+'201210'!C35+'201211'!C35+'201212'!C35</f>
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="D35" s="36">
         <f>'201202'!D35+'201203'!D35+'201204'!D35+'201205'!D35+'201206'!D35+'201207'!D35+'201208'!D35+'201209'!D35+'201210'!D35+'201211'!D35+'201212'!D35</f>
-        <v>159.42524179037338</v>
+        <v>160.92524179037338</v>
       </c>
       <c r="E35" s="36">
         <f t="shared" si="1"/>
-        <v>136.42524179037338</v>
+        <v>136.92524179037338</v>
       </c>
       <c r="F35" s="18">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="36">
         <f t="shared" si="2"/>
-        <v>31.425241790373377</v>
+        <v>11.925241790373377</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
@@ -18555,19 +18582,19 @@
       </c>
       <c r="B39" s="39">
         <f>'201202'!B39+'201203'!B39+'201204'!B39+'201205'!B39+'201206'!B39+'201207'!B39+'201208'!B39+'201209'!B39+'201210'!B39+'201211'!B39+'201212'!B39</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" s="36">
         <f>'201202'!C39+'201203'!C39+'201204'!C39+'201205'!C39+'201206'!C39+'201207'!C39+'201208'!C39+'201209'!C39+'201210'!C39+'201211'!C39+'201212'!C39</f>
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D39" s="36">
         <f>'201202'!D39+'201203'!D39+'201204'!D39+'201205'!D39+'201206'!D39+'201207'!D39+'201208'!D39+'201209'!D39+'201210'!D39+'201211'!D39+'201212'!D39</f>
-        <v>77.222222222222214</v>
+        <v>78.722222222222214</v>
       </c>
       <c r="E39" s="36">
         <f t="shared" si="1"/>
-        <v>66.222222222222214</v>
+        <v>66.722222222222214</v>
       </c>
       <c r="F39" s="18">
         <v>40</v>
@@ -18575,7 +18602,7 @@
       <c r="G39" s="18"/>
       <c r="H39" s="36">
         <f t="shared" si="2"/>
-        <v>26.222222222222214</v>
+        <v>26.722222222222214</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="1"/>
@@ -18681,19 +18708,19 @@
       </c>
       <c r="B43" s="39">
         <f>'201202'!B43+'201203'!B43+'201204'!B43+'201205'!B43+'201206'!B43+'201207'!B43+'201208'!B43+'201209'!B43+'201210'!B43+'201211'!B43+'201212'!B43</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43" s="36">
         <f>'201202'!C43+'201203'!C43+'201204'!C43+'201205'!C43+'201206'!C43+'201207'!C43+'201208'!C43+'201209'!C43+'201210'!C43+'201211'!C43+'201212'!C43</f>
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="D43" s="36">
         <f>'201202'!D43+'201203'!D43+'201204'!D43+'201205'!D43+'201206'!D43+'201207'!D43+'201208'!D43+'201209'!D43+'201210'!D43+'201211'!D43+'201212'!D43</f>
-        <v>71.62968318231475</v>
+        <v>73.12968318231475</v>
       </c>
       <c r="E43" s="36">
         <f t="shared" si="3"/>
-        <v>62.62968318231475</v>
+        <v>63.12968318231475</v>
       </c>
       <c r="F43" s="18">
         <v>20</v>
@@ -18701,7 +18728,7 @@
       <c r="G43" s="18"/>
       <c r="H43" s="36">
         <f t="shared" si="4"/>
-        <v>42.62968318231475</v>
+        <v>43.12968318231475</v>
       </c>
       <c r="I43" s="18">
         <v>10</v>
@@ -18749,19 +18776,19 @@
       </c>
       <c r="B45" s="39">
         <f>'201202'!B45+'201203'!B45+'201204'!B45+'201205'!B45+'201206'!B45+'201207'!B45+'201208'!B45+'201209'!B45+'201210'!B45+'201211'!B45+'201212'!B45</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" s="36">
         <f>'201202'!C45+'201203'!C45+'201204'!C45+'201205'!C45+'201206'!C45+'201207'!C45+'201208'!C45+'201209'!C45+'201210'!C45+'201211'!C45+'201212'!C45</f>
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="D45" s="36">
         <f>'201202'!D45+'201203'!D45+'201204'!D45+'201205'!D45+'201206'!D45+'201207'!D45+'201208'!D45+'201209'!D45+'201210'!D45+'201211'!D45+'201212'!D45</f>
-        <v>53.266559829059823</v>
+        <v>54.766559829059823</v>
       </c>
       <c r="E45" s="36">
         <f t="shared" si="3"/>
-        <v>45.266559829059823</v>
+        <v>45.766559829059823</v>
       </c>
       <c r="F45" s="18">
         <v>40</v>
@@ -18769,7 +18796,7 @@
       <c r="G45" s="18"/>
       <c r="H45" s="36">
         <f t="shared" si="4"/>
-        <v>5.2665598290598226</v>
+        <v>5.7665598290598226</v>
       </c>
       <c r="I45" s="18"/>
       <c r="J45" s="1"/>
@@ -18781,19 +18808,19 @@
       </c>
       <c r="B46" s="39">
         <f>'201202'!B46+'201203'!B46+'201204'!B46+'201205'!B46+'201206'!B46+'201207'!B46+'201208'!B46+'201209'!B46+'201210'!B46+'201211'!B46+'201212'!B46</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C46" s="36">
         <f>'201202'!C46+'201203'!C46+'201204'!C46+'201205'!C46+'201206'!C46+'201207'!C46+'201208'!C46+'201209'!C46+'201210'!C46+'201211'!C46+'201212'!C46</f>
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="D46" s="36">
         <f>'201202'!D46+'201203'!D46+'201204'!D46+'201205'!D46+'201206'!D46+'201207'!D46+'201208'!D46+'201209'!D46+'201210'!D46+'201211'!D46+'201212'!D46</f>
-        <v>123.37858669108667</v>
+        <v>124.87858669108667</v>
       </c>
       <c r="E46" s="36">
         <f t="shared" si="3"/>
-        <v>106.37858669108667</v>
+        <v>106.87858669108667</v>
       </c>
       <c r="F46" s="18">
         <v>75</v>
@@ -18801,7 +18828,7 @@
       <c r="G46" s="18"/>
       <c r="H46" s="36">
         <f t="shared" si="4"/>
-        <v>31.378586691086667</v>
+        <v>31.878586691086667</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="1"/>
@@ -19095,19 +19122,19 @@
       </c>
       <c r="B56" s="39">
         <f>'201202'!B56+'201203'!B56+'201204'!B56+'201205'!B56+'201206'!B56+'201207'!B56+'201208'!B56+'201209'!B56+'201210'!B56+'201211'!B56+'201212'!B56</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" s="36">
         <f>'201202'!C56+'201203'!C56+'201204'!C56+'201205'!C56+'201206'!C56+'201207'!C56+'201208'!C56+'201209'!C56+'201210'!C56+'201211'!C56+'201212'!C56</f>
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="D56" s="36">
         <f>'201202'!D56+'201203'!D56+'201204'!D56+'201205'!D56+'201206'!D56+'201207'!D56+'201208'!D56+'201209'!D56+'201210'!D56+'201211'!D56+'201212'!D56</f>
-        <v>85.203935319066886</v>
+        <v>86.703935319066886</v>
       </c>
       <c r="E56" s="36">
         <f t="shared" si="3"/>
-        <v>74.203935319066886</v>
+        <v>74.703935319066886</v>
       </c>
       <c r="F56" s="18">
         <v>45</v>
@@ -19115,7 +19142,7 @@
       <c r="G56" s="18"/>
       <c r="H56" s="36">
         <f t="shared" si="4"/>
-        <v>29.203935319066886</v>
+        <v>29.703935319066886</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="1"/>
@@ -19157,19 +19184,19 @@
       </c>
       <c r="B58" s="39">
         <f>'201202'!B58+'201203'!B58+'201204'!B58+'201205'!B58+'201206'!B58+'201207'!B58+'201208'!B58+'201209'!B58+'201210'!B58+'201211'!B58+'201212'!B58</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" s="36">
         <f>'201202'!C58+'201203'!C58+'201204'!C58+'201205'!C58+'201206'!C58+'201207'!C58+'201208'!C58+'201209'!C58+'201210'!C58+'201211'!C58+'201212'!C58</f>
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D58" s="36">
         <f>'201202'!D58+'201203'!D58+'201204'!D58+'201205'!D58+'201206'!D58+'201207'!D58+'201208'!D58+'201209'!D58+'201210'!D58+'201211'!D58+'201212'!D58</f>
-        <v>48.536706349206341</v>
+        <v>50.036706349206341</v>
       </c>
       <c r="E58" s="36">
         <f t="shared" si="3"/>
-        <v>42.536706349206341</v>
+        <v>43.036706349206341</v>
       </c>
       <c r="F58" s="18">
         <v>45</v>
@@ -19179,7 +19206,7 @@
       </c>
       <c r="H58" s="36">
         <f t="shared" si="4"/>
-        <v>7.5367063492063409</v>
+        <v>8.0367063492063409</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="1"/>
@@ -19493,25 +19520,25 @@
       </c>
       <c r="B69" s="39">
         <f>'201202'!B69+'201203'!B69+'201204'!B69+'201205'!B69+'201206'!B69+'201207'!B69+'201208'!B69+'201209'!B69+'201210'!B69+'201211'!B69+'201212'!B69</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" s="36">
         <f>'201202'!C69+'201203'!C69+'201204'!C69+'201205'!C69+'201206'!C69+'201207'!C69+'201208'!C69+'201209'!C69+'201210'!C69+'201211'!C69+'201212'!C69</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D69" s="36">
         <f>'201202'!D69+'201203'!D69+'201204'!D69+'201205'!D69+'201206'!D69+'201207'!D69+'201208'!D69+'201209'!D69+'201210'!D69+'201211'!D69+'201212'!D69</f>
-        <v>8.6666666666666679</v>
+        <v>10.166666666666668</v>
       </c>
       <c r="E69" s="36">
         <f t="shared" si="5"/>
-        <v>7.6666666666666679</v>
+        <v>8.1666666666666679</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="36">
         <f t="shared" si="4"/>
-        <v>7.6666666666666679</v>
+        <v>8.1666666666666679</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="1"/>
@@ -20554,17 +20581,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
@@ -20595,8 +20622,8 @@
         <v>119</v>
       </c>
       <c r="B2" s="39">
-        <f>SUM(B3:B52)</f>
-        <v>180</v>
+        <f>SUM(B3:B54)</f>
+        <v>170</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="42" t="s">
@@ -20610,13 +20637,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
-        <v>41060</v>
+        <v>41065</v>
       </c>
       <c r="B3" s="39">
-        <v>-10</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>129</v>
+        <v>-40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="D3" s="14">
         <v>40948</v>
@@ -20628,13 +20655,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
-        <v>41060</v>
+        <v>41065</v>
       </c>
       <c r="B4" s="39">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D4" s="14">
         <v>40952</v>
@@ -20646,13 +20673,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
-        <v>41058</v>
-      </c>
-      <c r="B5" s="1">
-        <v>195</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>133</v>
+        <v>41060</v>
+      </c>
+      <c r="B5" s="39">
+        <v>-10</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>132</v>
       </c>
       <c r="D5" s="14">
         <v>40960</v>
@@ -20664,13 +20691,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
-        <v>41058</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-205</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>41060</v>
+      </c>
+      <c r="B6" s="39">
+        <v>130</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>133</v>
       </c>
       <c r="D6" s="14">
         <v>40967</v>
@@ -20685,10 +20712,10 @@
         <v>41058</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>195</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>131</v>
       </c>
       <c r="D7" s="14">
         <v>40970</v>
@@ -20700,12 +20727,14 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
-        <v>40941</v>
+        <v>41058</v>
       </c>
       <c r="B8" s="1">
-        <v>160</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>-205</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="D8" s="14">
         <v>40974</v>
       </c>
@@ -20716,12 +20745,14 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
-        <v>40946</v>
+        <v>41058</v>
       </c>
       <c r="B9" s="1">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D9" s="14">
         <v>40976</v>
       </c>
@@ -20732,14 +20763,12 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
-        <v>40972</v>
+        <v>40941</v>
       </c>
       <c r="B10" s="1">
-        <v>-70</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="14">
         <v>40983</v>
       </c>
@@ -20752,14 +20781,12 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
-        <v>40981</v>
+        <v>40946</v>
       </c>
       <c r="B11" s="1">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="14">
         <v>40983</v>
       </c>
@@ -20772,13 +20799,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
-        <v>40981</v>
+        <v>40972</v>
       </c>
       <c r="B12" s="1">
-        <v>-120</v>
+        <v>-70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D12" s="14">
         <v>40988</v>
@@ -20789,9 +20816,15 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="14">
+        <v>40981</v>
+      </c>
+      <c r="B13" s="1">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D13" s="14">
         <v>40990</v>
       </c>
@@ -20801,9 +20834,15 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="14">
+        <v>40981</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-120</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D14" s="14">
         <v>40990</v>
       </c>
@@ -21305,6 +21344,16 @@
       <c r="A54" s="14"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="14"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="14"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -28555,8 +28604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection sqref="A1:E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31715,12 +31764,1913 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="11"/>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5">
+        <v>41065</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="33">
+        <f>SUM(B9:B100)</f>
+        <v>20</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="33">
+        <f t="shared" ref="E2" si="0">COUNT(E9:E100)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="20">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34">
+        <f>SUM(E4:T4)</f>
+        <v>400</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="32">
+        <f t="shared" ref="E4" si="1">E2*E7</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35">
+        <f>SUM(E5:T5)</f>
+        <v>30</v>
+      </c>
+      <c r="E5" s="32">
+        <f t="shared" ref="E5" si="2">E4-E3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="32">
+        <f t="shared" ref="E6" si="3">E3/E2</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="32">
+        <f t="shared" ref="E8" si="4">E7-E6</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="str">
+        <f>member!A9</f>
+        <v>守候幸福</v>
+      </c>
+      <c r="B9" s="34">
+        <f t="shared" ref="B9:B72" si="5">COUNT(E9:T9)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="34">
+        <f>E7*E9+F7*F9+G7*G9+H7*H9+I7*I9+J7*J9+K7*K9+L7*L9+M7*M9+N7*N9+O7*O9+P7*P9+Q7*Q9+R7*R9+S7*S9+T7*T9</f>
+        <v>20</v>
+      </c>
+      <c r="D9" s="36">
+        <f>E8*E9+F8*F9+G8*G9+H8*H9+I8*I9+J8*J9+K8*K9+L8*L9+M8*M9+O8*O9+P8*P9+Q8*Q9+R8*R9+S8*S9+T8*T9</f>
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="str">
+        <f>member!A10</f>
+        <v>李一刀</v>
+      </c>
+      <c r="B10" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="34">
+        <f>E7*E10+F7*F10+G7*G10+H7*H10+I7*I10+J7*J10+K7*K10+L7*L10+M7*M10+N7*N10+O7*O10+P7*P10+Q7*Q10+R7*R10+S7*S10+T7*T10</f>
+        <v>20</v>
+      </c>
+      <c r="D10" s="36">
+        <f>E8*E10+F8*F10+G8*G10+H8*H10+I8*I10+J8*J10+K8*K10+L8*L10+M8*M10+O8*O10+P8*P10+Q8*Q10+R8*R10+S8*S10+T8*T10</f>
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="str">
+        <f>member!A11</f>
+        <v>咣咣地跟屁蟲</v>
+      </c>
+      <c r="B11" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="34">
+        <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+N7*N11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="36">
+        <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="str">
+        <f>member!A12</f>
+        <v>Oo内拉祖里oO</v>
+      </c>
+      <c r="B12" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="34">
+        <f>E7*E12+F7*F12+G7*G12+H7*H12+I7*I12+J7*J12+K7*K12+L7*L12+M7*M12+N7*N12+O7*O12+P7*P12+Q7*Q12+R7*R12+S7*S12+T7*T12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="36">
+        <f>E8*E12+F8*F12+G8*G12+H8*H12+I8*I12+J8*J12+K8*K12+L8*L12+M8*M12+O8*O12+P8*P12+Q8*Q12+R8*R12+S8*S12+T8*T12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="str">
+        <f>member!A13</f>
+        <v>幸福~拂晓</v>
+      </c>
+      <c r="B13" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="34">
+        <f>E7*E13+F7*F13+G7*G13+H7*H13+I7*I13+J7*J13+K7*K13+L7*L13+M7*M13+N7*N13+O7*O13+P7*P13+Q7*Q13+R7*R13+S7*S13+T7*T13</f>
+        <v>20</v>
+      </c>
+      <c r="D13" s="36">
+        <f>E8*E13+F8*F13+G8*G13+H8*H13+I8*I13+J8*J13+K8*K13+L8*L13+M8*M13+O8*O13+P8*P13+Q8*Q13+R8*R13+S8*S13+T8*T13</f>
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="str">
+        <f>member!A14</f>
+        <v>蚕豆</v>
+      </c>
+      <c r="B14" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="34">
+        <f>E7*E14+F7*F14+G7*G14+H7*H14+I7*I14+J7*J14+K7*K14+L7*L14+M7*M14+N7*N14+O7*O14+P7*P14+Q7*Q14+R7*R14+S7*S14+T7*T14</f>
+        <v>20</v>
+      </c>
+      <c r="D14" s="36">
+        <f>E8*E14+F8*F14+G8*G14+H8*H14+I8*I14+J8*J14+K8*K14+L8*L14+M8*M14+O8*O14+P8*P14+Q8*Q14+R8*R14+S8*S14+T8*T14</f>
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="str">
+        <f>member!A15</f>
+        <v>who cares?</v>
+      </c>
+      <c r="B15" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="34">
+        <f>E7*E15+F7*F15+G7*G15+H7*H15+I7*I15+J7*J15+K7*K15+L7*L15+M7*M15+O7*O15+P7*P15+Q7*Q15+R7*R15+S7*S15+T7*T15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="36">
+        <f>E8*E15+F8*F15+G8*G15+H8*H15+I8*I15+J8*J15+K8*K15+L8*L15+M8*M15+O8*O15+P8*P15+Q8*Q15+R8*R15+S8*S15+T8*T15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="str">
+        <f>member!A16</f>
+        <v>幸福~彩票</v>
+      </c>
+      <c r="B16" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="34">
+        <f>E7*E16+F7*F16+G7*G16+H7*H16+I7*I16+J7*J16+K7*K16+L7*L16+M7*M16+O7*O16+P7*P16+Q7*Q16+R7*R16+S7*S16+T7*T16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="36">
+        <f>E8*E16+F8*F16+G8*G16+H8*H16+I8*I16+J8*J16+K8*K16+L8*L16+M8*M16+O8*O16+P8*P16+Q8*Q16+R8*R16+S8*S16+T8*T16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="str">
+        <f>member!A17</f>
+        <v>清道夫</v>
+      </c>
+      <c r="B17" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="34">
+        <f>E7*E17+F7*F17+G7*G17+H7*H17+I7*I17+J7*J17+K7*K17+L7*L17+M7*M17+O7*O17+P7*P17+Q7*Q17+R7*R17+S7*S17+T7*T17</f>
+        <v>20</v>
+      </c>
+      <c r="D17" s="36">
+        <f>E8*E17+F8*F17+G8*G17+H8*H17+I8*I17+J8*J17+K8*K17+L8*L17+M8*M17+O8*O17+P8*P17+Q8*Q17+R8*R17+S8*S17+T8*T17</f>
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="str">
+        <f>member!A18</f>
+        <v>老A</v>
+      </c>
+      <c r="B18" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="34">
+        <f>E7*E18+F7*F18+G7*G18+H7*H18+I7*I18+J7*J18+K7*K18+L7*L18+M7*M18+O7*O18+P7*P18+Q7*Q18+R7*R18+S7*S18+T7*T18</f>
+        <v>20</v>
+      </c>
+      <c r="D18" s="36">
+        <f>E8*E18+F8*F18+G8*G18+H8*H18+I8*I18+J8*J18+K8*K18+L8*L18+M8*M18+O8*O18+P8*P18+Q8*Q18+R8*R18+S8*S18+T8*T18</f>
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="str">
+        <f>member!A19</f>
+        <v>狐狸</v>
+      </c>
+      <c r="B19" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="34">
+        <f>E7*E19+F7*F19+G7*G19+H7*H19+I7*I19+J7*J19+K7*K19+L7*L19+M7*M19+O7*O19+P7*P19+Q7*Q19+R7*R19+S7*S19+T7*T19</f>
+        <v>20</v>
+      </c>
+      <c r="D19" s="36">
+        <f>E8*E19+F8*F19+G8*G19+H8*H19+I8*I19+J8*J19+K8*K19+L8*L19+M8*M19+O8*O19+P8*P19+Q8*Q19+R8*R19+S8*S19+T8*T19</f>
+        <v>1.5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="str">
+        <f>member!A20</f>
+        <v>腿子</v>
+      </c>
+      <c r="B20" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="34">
+        <f>E7*E20+F7*F20+G7*G20+H7*H20+I7*I20+J7*J20+K7*K20+L7*L20+M7*M20+O7*O20+P7*P20+Q7*Q20+R7*R20+S7*S20+T7*T20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="36">
+        <f>E8*E20+F8*F20+G8*G20+H8*H20+I8*I20+J8*J20+K8*K20+L8*L20+M8*M20+O8*O20+P8*P20+Q8*Q20+R8*R20+S8*S20+T8*T20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="str">
+        <f>member!A21</f>
+        <v>smile</v>
+      </c>
+      <c r="B21" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="34">
+        <f>E7*E21+F7*F21+G7*G21+H7*H21+I7*I21+J7*J21+K7*K21+L7*L21+M7*M21+O7*O21+P7*P21+Q7*Q21+R7*R21+S7*S21+T7*T21</f>
+        <v>20</v>
+      </c>
+      <c r="D21" s="36">
+        <f>E8*E21+F8*F21+G8*G21+H8*H21+I8*I21+J8*J21+K8*K21+L8*L21+M8*M21+O8*O21+P8*P21+Q8*Q21+R8*R21+S8*S21+T8*T21</f>
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="str">
+        <f>member!A22</f>
+        <v>小贝</v>
+      </c>
+      <c r="B22" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="34">
+        <f>E7*E22+F7*F22+G7*G22+H7*H22+I7*I22+J7*J22+K7*K22+L7*L22+M7*M22+O7*O22+P7*P22+Q7*Q22+R7*R22+S7*S22+T7*T22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="36">
+        <f>E8*E22+F8*F22+G8*G22+H8*H22+I8*I22+J8*J22+K8*K22+L8*L22+M8*M22+O8*O22+P8*P22+Q8*Q22+R8*R22+S8*S22+T8*T22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="str">
+        <f>member!A23</f>
+        <v>11号-鲜明</v>
+      </c>
+      <c r="B23" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="34">
+        <f>E7*E23+F7*F23+G7*G23+H7*H23+I7*I23+J7*J23+K7*K23+L7*L23+M7*M23+O7*O23+P7*P23+Q7*Q23+R7*R23+S7*S23+T7*T23</f>
+        <v>20</v>
+      </c>
+      <c r="D23" s="36">
+        <f>E8*E23+F8*F23+G8*G23+H8*H23+I8*I23+J8*J23+K8*K23+L8*L23+M8*M23+O8*O23+P8*P23+Q8*Q23+R8*R23+S8*S23+T8*T23</f>
+        <v>1.5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="str">
+        <f>member!A24</f>
+        <v>狐狸~涛</v>
+      </c>
+      <c r="B24" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="34">
+        <f>E7*E24+F7*F24+G7*G24+H7*H24+I7*I24+J7*J24+K7*K24+L7*L24+M7*M24+O7*O24+P7*P24+Q7*Q24+R7*R24+S7*S24+T7*T24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="36">
+        <f>E8*E24+F8*F24+G8*G24+H8*H24+I8*I24+J8*J24+K8*K24+L8*L24+M8*M24+O8*O24+P8*P24+Q8*Q24+R8*R24+S8*S24+T8*T24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="str">
+        <f>member!A25</f>
+        <v>侯盟</v>
+      </c>
+      <c r="B25" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C25" s="34">
+        <f>E7*E25+F7*F25+G7*G25+H7*H25+I7*I25+J7*J25+K7*K25+L7*L25+M7*M25+O7*O25+P7*P25+Q7*Q25+R7*R25+S7*S25+T7*T25</f>
+        <v>20</v>
+      </c>
+      <c r="D25" s="36">
+        <f>E8*E25+F8*F25+G8*G25+H8*H25+I8*I25+J8*J25+K8*K25+L8*L25+M8*M25+O8*O25+P8*P25+Q8*Q25+R8*R25+S8*S25+T8*T25</f>
+        <v>1.5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="str">
+        <f>member!A26</f>
+        <v>玖伍贰壹</v>
+      </c>
+      <c r="B26" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="34">
+        <f>E7*E26+F7*F26+G7*G26+H7*H26+I7*I26+J7*J26+K7*K26+L7*L26+M7*M26+O7*O26+P7*P26+Q7*Q26+R7*R26+S7*S26+T7*T26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="36">
+        <f>E8*E26+F8*F26+G8*G26+H8*H26+I8*I26+J8*J26+K8*K26+L8*L26+M8*M26+O8*O26+P8*P26+Q8*Q26+R8*R26+S8*S26+T8*T26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="str">
+        <f>member!A27</f>
+        <v>红色F50-超</v>
+      </c>
+      <c r="B27" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C27" s="34">
+        <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
+        <v>20</v>
+      </c>
+      <c r="D27" s="36">
+        <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
+        <v>1.5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="str">
+        <f>member!A28</f>
+        <v>活了</v>
+      </c>
+      <c r="B28" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="34">
+        <f>E7*E28+F7*F28+G7*G28+H7*H28+I7*I28+J7*J28+K7*K28+L7*L28+M7*M28+O7*O28+P7*P28+Q7*Q28+R7*R28+S7*S28+T7*T28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="36">
+        <f>E8*E28+F8*F28+G8*G28+H8*H28+I8*I28+J8*J28+K8*K28+L8*L28+M8*M28+O8*O28+P8*P28+Q8*Q28+R8*R28+S8*S28+T8*T28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="str">
+        <f>member!A29</f>
+        <v>天赐</v>
+      </c>
+      <c r="B29" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="34">
+        <f>E7*E29+F7*F29+G7*G29+H7*H29+I7*I29+J7*J29+K7*K29+L7*L29+M7*M29+O7*O29+P7*P29+Q7*Q29+R7*R29+S7*S29+T7*T29</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="36">
+        <f>E8*E29+F8*F29+G8*G29+H8*H29+I8*I29+J8*J29+K8*K29+L8*L29+M8*M29+O8*O29+P8*P29+Q8*Q29+R8*R29+S8*S29+T8*T29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="str">
+        <f>member!A30</f>
+        <v>Shenghak</v>
+      </c>
+      <c r="B30" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="34">
+        <f>E7*E30+F7*F30+G7*G30+H7*H30+I7*I30+J7*J30+K7*K30+L7*L30+M7*M30+O7*O30+P7*P30+Q7*Q30+R7*R30+S7*S30+T7*T30</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="36">
+        <f>E8*E30+F8*F30+G8*G30+H8*H30+I8*I30+J8*J30+K8*K30+L8*L30+M8*M30+O8*O30+P8*P30+Q8*Q30+R8*R30+S8*S30+T8*T30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="str">
+        <f>member!A31</f>
+        <v>红色6号</v>
+      </c>
+      <c r="B31" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="34">
+        <f>E7*E31+F7*F31+G7*G31+H7*H31+I7*I31+J7*J31+K7*K31+L7*L31+M7*M31+O7*O31+P7*P31+Q7*Q31+R7*R31+S7*S31+T7*T31</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="36">
+        <f>E8*E31+F8*F31+G8*G31+H8*H31+I8*I31+J8*J31+K8*K31+L8*L31+M8*M31+O8*O31+P8*P31+Q8*Q31+R8*R31+S8*S31+T8*T31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="str">
+        <f>member!A32</f>
+        <v>微笑</v>
+      </c>
+      <c r="B32" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="34">
+        <f>E7*E32+F7*F32+G7*G32+H7*H32+I7*I32+J7*J32+K7*K32+L7*L32+M7*M32+O7*O32+P7*P32+Q7*Q32+R7*R32+S7*S32+T7*T32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="36">
+        <f>E8*E32+F8*F32+G8*G32+H8*H32+I8*I32+J8*J32+K8*K32+L8*L32+M8*M32+O8*O32+P8*P32+Q8*Q32+R8*R32+S8*S32+T8*T32</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="str">
+        <f>member!A33</f>
+        <v>77号-更心</v>
+      </c>
+      <c r="B33" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C33" s="34">
+        <f>E7*E33+F7*F33+G7*G33+H7*H33+I7*I33+J7*J33+K7*K33+L7*L33+M7*M33+O7*O33+P7*P33+Q7*Q33+R7*R33+S7*S33+T7*T33</f>
+        <v>20</v>
+      </c>
+      <c r="D33" s="36">
+        <f>E8*E33+F8*F33+G8*G33+H8*H33+I8*I33+J8*J33+K8*K33+L8*L33+M8*M33+O8*O33+P8*P33+Q8*Q33+R8*R33+S8*S33+T8*T33</f>
+        <v>1.5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="str">
+        <f>member!A34</f>
+        <v>更心朋友</v>
+      </c>
+      <c r="B34" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="34">
+        <f>E7*E34+F7*F34+G7*G34+H7*H34+I7*I34+J7*J34+K7*K34+L7*L34+M7*M34+O7*O34+P7*P34+Q7*Q34+R7*R34+S7*S34+T7*T34</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="36">
+        <f>E8*E34+F8*F34+G8*G34+H8*H34+I8*I34+J8*J34+K8*K34+L8*L34+M8*M34+O8*O34+P8*P34+Q8*Q34+R8*R34+S8*S34+T8*T34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="str">
+        <f>member!A35</f>
+        <v>8号-菜菜亮</v>
+      </c>
+      <c r="B35" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C35" s="34">
+        <f>E7*E35+F7*F35+G7*G35+H7*H35+I7*I35+J7*J35+K7*K35+L7*L35+M7*M35+O7*O35+P7*P35+Q7*Q35+R7*R35+S7*S35+T7*T35</f>
+        <v>20</v>
+      </c>
+      <c r="D35" s="36">
+        <f>E8*E35+F8*F35+G8*G35+H8*H35+I8*I35+J8*J35+K8*K35+L8*L35+M8*M35+O8*O35+P8*P35+Q8*Q35+R8*R35+S8*S35+T8*T35</f>
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="str">
+        <f>member!A36</f>
+        <v>杨光朋友</v>
+      </c>
+      <c r="B36" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="34">
+        <f>E7*E36+F7*F36+G7*G36+H7*H36+I7*I36+J7*J36+K7*K36+L7*L36+M7*M36+O7*O36+P7*P36+Q7*Q36+R7*R36+S7*S36+T7*T36</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="36">
+        <f>E8*E36+F8*F36+G8*G36+H8*H36+I8*I36+J8*J36+K8*K36+L8*L36+M8*M36+O8*O36+P8*P36+Q8*Q36+R8*R36+S8*S36+T8*T36</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="str">
+        <f>member!A37</f>
+        <v>拂晓朋友</v>
+      </c>
+      <c r="B37" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="34">
+        <f>E7*E37+F7*F37+G7*G37+H7*H37+I7*I37+J7*J37+K7*K37+L7*L37+M7*M37+O7*O37+P7*P37+Q7*Q37+R7*R37+S7*S37+T7*T37</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="36">
+        <f>E8*E37+F8*F37+G8*G37+H8*H37+I8*I37+J8*J37+K8*K37+L8*L37+M8*M37+O8*O37+P8*P37+Q8*Q37+R8*R37+S8*S37+T8*T37</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="str">
+        <f>member!A38</f>
+        <v>4号-许多</v>
+      </c>
+      <c r="B38" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="34">
+        <f>E7*E38+F7*F38+G7*G38+H7*H38+I7*I38+J7*J38+K7*K38+L7*L38+M7*M38+O7*O38+P7*P38+Q7*Q38+R7*R38+S7*S38+T7*T38</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="36">
+        <f>E8*E38+F8*F38+G8*G38+H8*H38+I8*I38+J8*J38+K8*K38+L8*L38+M8*M38+O8*O38+P8*P38+Q8*Q38+R8*R38+S8*S38+T8*T38</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="str">
+        <f>member!A39</f>
+        <v>5号-正</v>
+      </c>
+      <c r="B39" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C39" s="34">
+        <f>E7*E39+F7*F39+G7*G39+H7*H39+I7*I39+J7*J39+K7*K39+L7*L39+M7*M39+O7*O39+P7*P39+Q7*Q39+R7*R39+S7*S39+T7*T39</f>
+        <v>20</v>
+      </c>
+      <c r="D39" s="36">
+        <f>E8*E39+F8*F39+G8*G39+H8*H39+I8*I39+J8*J39+K8*K39+L8*L39+M8*M39+O8*O39+P8*P39+Q8*Q39+R8*R39+S8*S39+T8*T39</f>
+        <v>1.5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="str">
+        <f>member!A40</f>
+        <v>勇敢的爬爬</v>
+      </c>
+      <c r="B40" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="34">
+        <f>E7*E40+F7*F40+G7*G40+H7*H40+I7*I40+J7*J40+K7*K40+L7*L40+M7*M40+O7*O40+P7*P40+Q7*Q40+R7*R40+S7*S40+T7*T40</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="36">
+        <f>E8*E40+F8*F40+G8*G40+H8*H40+I8*I40+J8*J40+K8*K40+L8*L40+M8*M40+O8*O40+P8*P40+Q8*Q40+R8*R40+S8*S40+T8*T40</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="str">
+        <f>member!A41</f>
+        <v>17号-4号字母</v>
+      </c>
+      <c r="B41" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="34">
+        <f>E7*E41+F7*F41+G7*G41+H7*H41+I7*I41+J7*J41+K7*K41+L7*L41+M7*M41+O7*O41+P7*P41+Q7*Q41+R7*R41+S7*S41+T7*T41</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="36">
+        <f>E8*E41+F8*F41+G8*G41+H8*H41+I8*I41+J8*J41+K8*K41+L8*L41+M8*M41+O8*O41+P8*P41+Q8*Q41+R8*R41+S8*S41+T8*T41</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="str">
+        <f>member!A42</f>
+        <v>雷雨</v>
+      </c>
+      <c r="B42" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="34">
+        <f>E7*E42+F7*F42+G7*G42+H7*H42+I7*I42+J7*J42+K7*K42+L7*L42+M7*M42+O7*O42+P7*P42+Q7*Q42+R7*R42+S7*S42+T7*T42</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="36">
+        <f>E8*E42+F8*F42+G8*G42+H8*H42+I8*I42+J8*J42+K8*K42+L8*L42+M8*M42+O8*O42+P8*P42+Q8*Q42+R8*R42+S8*S42+T8*T42</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="str">
+        <f>member!A43</f>
+        <v>西北偏北</v>
+      </c>
+      <c r="B43" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C43" s="34">
+        <f>E7*E43+F7*F43+G7*G43+H7*H43+I7*I43+J7*J43+K7*K43+L7*L43+M7*M43+O7*O43+P7*P43+Q7*Q43+R7*R43+S7*S43+T7*T43</f>
+        <v>20</v>
+      </c>
+      <c r="D43" s="36">
+        <f>E8*E43+F8*F43+G8*G43+H8*H43+I8*I43+J8*J43+K8*K43+L8*L43+M8*M43+O8*O43+P8*P43+Q8*Q43+R8*R43+S8*S43+T8*T43</f>
+        <v>1.5</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="str">
+        <f>member!A44</f>
+        <v>红色8号</v>
+      </c>
+      <c r="B44" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="34">
+        <f>E7*E44+F7*F44+G7*G44+H7*H44+I7*I44+J7*J44+K7*K44+L7*L44+M7*M44+O7*O44+P7*P44+Q7*Q44+R7*R44+S7*S44+T7*T44</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="36">
+        <f>E8*E44+F8*F44+G8*G44+H8*H44+I8*I44+J8*J44+K8*K44+L8*L44+M8*M44+O8*O44+P8*P44+Q8*Q44+R8*R44+S8*S44+T8*T44</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="str">
+        <f>member!A45</f>
+        <v>马耳他</v>
+      </c>
+      <c r="B45" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C45" s="34">
+        <f>E7*E45+F7*F45+G7*G45+H7*H45+I7*I45+J7*J45+K7*K45+L7*L45+M7*M45+O7*O45+P7*P45+Q7*Q45+R7*R45+S7*S45+T7*T45</f>
+        <v>20</v>
+      </c>
+      <c r="D45" s="36">
+        <f>E8*E45+F8*F45+G8*G45+H8*H45+I8*I45+J8*J45+K8*K45+L8*L45+M8*M45+O8*O45+P8*P45+Q8*Q45+R8*R45+S8*S45+T8*T45</f>
+        <v>1.5</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="11" t="str">
+        <f>member!A46</f>
+        <v>Cindy~陈猛</v>
+      </c>
+      <c r="B46" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C46" s="34">
+        <f>E7*E46+F7*F46+G7*G46+H7*H46+I7*I46+J7*J46+K7*K46+L7*L46+M7*M46+O7*O46+P7*P46+Q7*Q46+R7*R46+S7*S46+T7*T46</f>
+        <v>20</v>
+      </c>
+      <c r="D46" s="36">
+        <f>E8*E46+F8*F46+G8*G46+H8*H46+I8*I46+J8*J46+K8*K46+L8*L46+M8*M46+O8*O46+P8*P46+Q8*Q46+R8*R46+S8*S46+T8*T46</f>
+        <v>1.5</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="str">
+        <f>member!A47</f>
+        <v>硕</v>
+      </c>
+      <c r="B47" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="34">
+        <f>E7*E47+F7*F47+G7*G47+H7*H47+I7*I47+J7*J47+K7*K47+L7*L47+M7*M47+O7*O47+P7*P47+Q7*Q47+R7*R47+S7*S47+T7*T47</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="36">
+        <f>E8*E47+F8*F47+G8*G47+H8*H47+I8*I47+J8*J47+K8*K47+L8*L47+M8*M47+O8*O47+P8*P47+Q8*Q47+R8*R47+S8*S47+T8*T47</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="str">
+        <f>member!A48</f>
+        <v>Violin</v>
+      </c>
+      <c r="B48" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="34">
+        <f>E7*E48+F7*F48+G7*G48+H7*H48+I7*I48+J7*J48+K7*K48+L7*L48+M7*M48+O7*O48+P7*P48+Q7*Q48+R7*R48+S7*S48+T7*T48</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="36">
+        <f>E8*E48+F8*F48+G8*G48+H8*H48+I8*I48+J8*J48+K8*K48+L8*L48+M8*M48+O8*O48+P8*P48+Q8*Q48+R8*R48+S8*S48+T8*T48</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="str">
+        <f>member!A49</f>
+        <v>87号陈磊</v>
+      </c>
+      <c r="B49" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="34">
+        <f>E7*E49+F7*F49+G7*G49+H7*H49+I7*I49+J7*J49+K7*K49+L7*L49+M7*M49+O7*O49+P7*P49+Q7*Q49+R7*R49+S7*S49+T7*T49</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="36">
+        <f>E8*E49+F8*F49+G8*G49+H8*H49+I8*I49+J8*J49+K8*K49+L8*L49+M8*M49+O8*O49+P8*P49+Q8*Q49+R8*R49+S8*S49+T8*T49</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="11" t="str">
+        <f>member!A50</f>
+        <v>水中阳光</v>
+      </c>
+      <c r="B50" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="34">
+        <f>E7*E50+F7*F50+G7*G50+H7*H50+I7*I50+J7*J50+K7*K50+L7*L50+M7*M50+O7*O50+P7*P50+Q7*Q50+R7*R50+S7*S50+T7*T50</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="36">
+        <f>E8*E50+F8*F50+G8*G50+H8*H50+I8*I50+J8*J50+K8*K50+L8*L50+M8*M50+O8*O50+P8*P50+Q8*Q50+R8*R50+S8*S50+T8*T50</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="11" t="str">
+        <f>member!A51</f>
+        <v>sam</v>
+      </c>
+      <c r="B51" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="34">
+        <f>E7*E51+F7*F51+G7*G51+H7*H51+I7*I51+J7*J51+K7*K51+L7*L51+M7*M51+O7*O51+P7*P51+Q7*Q51+R7*R51+S7*S51+T7*T51</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="36">
+        <f>E8*E51+F8*F51+G8*G51+H8*H51+I8*I51+J8*J51+K8*K51+L8*L51+M8*M51+O8*O51+P8*P51+Q8*Q51+R8*R51+S8*S51+T8*T51</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="11" t="str">
+        <f>member!A52</f>
+        <v>26 方亚</v>
+      </c>
+      <c r="B52" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C52" s="34">
+        <f>E7*E52+F7*F52+G7*G52+H7*H52+I7*I52+J7*J52+K7*K52+L7*L52+M7*M52+O7*O52+P7*P52+Q7*Q52+R7*R52+S7*S52+T7*T52</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="36">
+        <f>E8*E52+F8*F52+G8*G52+H8*H52+I8*I52+J8*J52+K8*K52+L8*L52+M8*M52+O8*O52+P8*P52+Q8*Q52+R8*R52+S8*S52+T8*T52</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="11" t="str">
+        <f>member!A53</f>
+        <v>维尼</v>
+      </c>
+      <c r="B53" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C53" s="34">
+        <f>E7*E53+F7*F53+G7*G53+H7*H53+I7*I53+J7*J53+K7*K53+L7*L53+M7*M53+O7*O53+P7*P53+Q7*Q53+R7*R53+S7*S53+T7*T53</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="36">
+        <f>E8*E53+F8*F53+G8*G53+H8*H53+I8*I53+J8*J53+K8*K53+L8*L53+M8*M53+O8*O53+P8*P53+Q8*Q53+R8*R53+S8*S53+T8*T53</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="11" t="str">
+        <f>member!A54</f>
+        <v>0号--张家宁</v>
+      </c>
+      <c r="B54" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="34">
+        <f>E7*E54+F7*F54+G7*G54+H7*H54+I7*I54+J7*J54+K7*K54+L7*L54+M7*M54+O7*O54+P7*P54+Q7*Q54+R7*R54+S7*S54+T7*T54</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="36">
+        <f>E8*E54+F8*F54+G8*G54+H8*H54+I8*I54+J8*J54+K8*K54+L8*L54+M8*M54+O8*O54+P8*P54+Q8*Q54+R8*R54+S8*S54+T8*T54</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="11" t="str">
+        <f>member!A55</f>
+        <v>泰山</v>
+      </c>
+      <c r="B55" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C55" s="34">
+        <f>E7*E55+F7*F55+G7*G55+H7*H55+I7*I55+J7*J55+K7*K55+L7*L55+M7*M55+O7*O55+P7*P55+Q7*Q55+R7*R55+S7*S55+T7*T55</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="36">
+        <f>E8*E55+F8*F55+G8*G55+H8*H55+I8*I55+J8*J55+K8*K55+L8*L55+M8*M55+O8*O55+P8*P55+Q8*Q55+R8*R55+S8*S55+T8*T55</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="11" t="str">
+        <f>member!A56</f>
+        <v>尚峰</v>
+      </c>
+      <c r="B56" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C56" s="34">
+        <f>E7*E56+F7*F56+G7*G56+H7*H56+I7*I56+J7*J56+K7*K56+L7*L56+M7*M56+O7*O56+P7*P56+Q7*Q56+R7*R56+S7*S56+T7*T56</f>
+        <v>20</v>
+      </c>
+      <c r="D56" s="36">
+        <f>E8*E56+F8*F56+G8*G56+H8*H56+I8*I56+J8*J56+K8*K56+L8*L56+M8*M56+O8*O56+P8*P56+Q8*Q56+R8*R56+S8*S56+T8*T56</f>
+        <v>1.5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="11" t="str">
+        <f>member!A57</f>
+        <v>杨光</v>
+      </c>
+      <c r="B57" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="34">
+        <f>E7*E57+F7*F57+G7*G57+H7*H57+I7*I57+J7*J57+K7*K57+L7*L57+M7*M57+O7*O57+P7*P57+Q7*Q57+R7*R57+S7*S57+T7*T57</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="36">
+        <f>E8*E57+F8*F57+G8*G57+H8*H57+I8*I57+J8*J57+K8*K57+L8*L57+M8*M57+O8*O57+P8*P57+Q8*Q57+R8*R57+S8*S57+T8*T57</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="11" t="str">
+        <f>member!A58</f>
+        <v>小磊</v>
+      </c>
+      <c r="B58" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C58" s="34">
+        <f>E7*E58+F7*F58+G7*G58+H7*H58+I7*I58+J7*J58+K7*K58+L7*L58+M7*M58+O7*O58+P7*P58+Q7*Q58+R7*R58+S7*S58+T7*T58</f>
+        <v>20</v>
+      </c>
+      <c r="D58" s="36">
+        <f>E8*E58+F8*F58+G8*G58+H8*H58+I8*I58+J8*J58+K8*K58+L8*L58+M8*M58+O8*O58+P8*P58+Q8*Q58+R8*R58+S8*S58+T8*T58</f>
+        <v>1.5</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="11" t="str">
+        <f>member!A59</f>
+        <v>绿洲</v>
+      </c>
+      <c r="B59" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="34">
+        <f>E7*E59+F7*F59+G7*G59+H7*H59+I7*I59+J7*J59+K7*K59+L7*L59+M7*M59+O7*O59+P7*P59+Q7*Q59+R7*R59+S7*S59+T7*T59</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="36">
+        <f>E8*E59+F8*F59+G8*G59+H8*H59+I8*I59+J8*J59+K8*K59+L8*L59+M8*M59+O8*O59+P8*P59+Q8*Q59+R8*R59+S8*S59+T8*T59</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="11" t="str">
+        <f>member!A60</f>
+        <v>孙伟</v>
+      </c>
+      <c r="B60" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="34">
+        <f>E7*E60+F7*F60+G7*G60+H7*H60+I7*I60+J7*J60+K7*K60+L7*L60+M7*M60+O7*O60+P7*P60+Q7*Q60+R7*R60+S7*S60+T7*T60</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="36">
+        <f>E8*E60+F8*F60+G8*G60+H8*H60+I8*I60+J8*J60+K8*K60+L8*L60+M8*M60+O8*O60+P8*P60+Q8*Q60+R8*R60+S8*S60+T8*T60</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="11" t="str">
+        <f>member!A61</f>
+        <v>古轮木</v>
+      </c>
+      <c r="B61" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="34">
+        <f>E7*E61+F7*F61+G7*G61+H7*H61+I7*I61+J7*J61+K7*K61+L7*L61+M7*M61+O7*O61+P7*P61+Q7*Q61+R7*R61+S7*S61+T7*T61</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="36">
+        <f>E8*E61+F8*F61+G8*G61+H8*H61+I8*I61+J8*J61+K8*K61+L8*L61+M8*M61+O8*O61+P8*P61+Q8*Q61+R8*R61+S8*S61+T8*T61</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="str">
+        <f>member!A62</f>
+        <v>makoko</v>
+      </c>
+      <c r="B62" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="34">
+        <f>E7*E62+F7*F62+G7*G62+H7*H62+I7*I62+J7*J62+K7*K62+L7*L62+M7*M62+O7*O62+P7*P62+Q7*Q62+R7*R62+S7*S62+T7*T62</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="36">
+        <f>E8*E62+F8*F62+G8*G62+H8*H62+I8*I62+J8*J62+K8*K62+L8*L62+M8*M62+O8*O62+P8*P62+Q8*Q62+R8*R62+S8*S62+T8*T62</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="str">
+        <f>member!A63</f>
+        <v>玲1</v>
+      </c>
+      <c r="B63" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="34">
+        <f>E7*E63+F7*F63+G7*G63+H7*H63+I7*I63+J7*J63+K7*K63+L7*L63+M7*M63+N7*N63+O7*O63+P7*P63+Q7*Q63+R7*R63+S7*S63+T7*T63</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="36">
+        <f>E8*E63+F8*F63+G8*G63+H8*H63+I8*I63+J8*J63+K8*K63+L8*L63+M8*M63+N8*N63+O8*O63+P8*P63+Q8*Q63+R8*R63+S8*S63+T8*T63</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="11" t="str">
+        <f>member!A64</f>
+        <v>玲2</v>
+      </c>
+      <c r="B64" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C64" s="34">
+        <f>E7*E64+F7*F64+G7*G64+H7*H64+I7*I64+J7*J64+K7*K64+L7*L64+M7*M64+N7*N64+O7*O64+P7*P64+Q7*Q64+R7*R64+S7*S64+T7*T64</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="36">
+        <f>E8*E64+F8*F64+G8*G64+H8*H64+I8*I64+J8*J64+K8*K64+L8*L64+M8*M64+N8*N64+O8*O64+P8*P64+Q8*Q64+R8*R64+S8*S64+T8*T64</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="11" t="str">
+        <f>member!A65</f>
+        <v>玲3</v>
+      </c>
+      <c r="B65" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="34">
+        <f>E7*E65+F7*F65+G7*G65+H7*H65+I7*I65+J7*J65+K7*K65+L7*L65+M7*M65+N7*N65+O7*O65+P7*P65+Q7*Q65+R7*R65+S7*S65+T7*T65</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="36">
+        <f>E8*E65+F8*F65+G8*G65+H8*H65+I8*I65+J8*J65+K8*K65+L8*L65+M8*M65+N8*N65+O8*O65+P8*P65+Q8*Q65+R8*R65+S8*S65+T8*T65</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="11" t="str">
+        <f>member!A66</f>
+        <v>玲4</v>
+      </c>
+      <c r="B66" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="34">
+        <f>E7*E66+F7*F66+G7*G66+H7*H66+I7*I66+J7*J66+K7*K66+L7*L66+M7*M66+N7*N66+O7*O66+P7*P66+Q7*Q66+R7*R66+S7*S66+T7*T66</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="36">
+        <f>E8*E66+F8*F66+G8*G66+H8*H66+I8*I66+J8*J66+K8*K66+L8*L66+M8*M66+N8*N66+O8*O66+P8*P66+Q8*Q66+R8*R66+S8*S66+T8*T66</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="11" t="str">
+        <f>member!A67</f>
+        <v>玲5</v>
+      </c>
+      <c r="B67" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="34">
+        <f>E7*E67+F7*F67+G7*G67+H7*H67+I7*I67+J7*J67+K7*K67+L7*L67+M7*M67+N7*N67+O7*O67+P7*P67+Q7*Q67+R7*R67+S7*S67+T7*T67</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="36">
+        <f>E8*E67+F8*F67+G8*G67+H8*H67+I8*I67+J8*J67+K8*K67+L8*L67+M8*M67+N8*N67+O8*O67+P8*P67+Q8*Q67+R8*R67+S8*S67+T8*T67</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="11" t="str">
+        <f>member!A68</f>
+        <v>度日</v>
+      </c>
+      <c r="B68" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="34">
+        <f>E7*E68+F7*F68+G7*G68+H7*H68+I7*I68+J7*J68+K7*K68+L7*L68+M7*M68+N7*N68+O7*O68+P7*P68+Q7*Q68+R7*R68+S7*S68+T7*T68</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="36">
+        <f>E8*E68+F8*F68+G8*G68+H8*H68+I8*I68+J8*J68+K8*K68+L8*L68+M8*M68+N8*N68+O8*O68+P8*P68+Q8*Q68+R8*R68+S8*S68+T8*T68</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="11" t="str">
+        <f>member!A69</f>
+        <v>肖飞</v>
+      </c>
+      <c r="B69" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C69" s="34">
+        <f>E7*E69+F7*F69+G7*G69+H7*H69+I7*I69+J7*J69+K7*K69+L7*L69+M7*M69+N7*N69+O7*O69+P7*P69+Q7*Q69+R7*R69+S7*S69+T7*T69</f>
+        <v>20</v>
+      </c>
+      <c r="D69" s="36">
+        <f>E8*E69+F8*F69+G8*G69+H8*H69+I8*I69+J8*J69+K8*K69+L8*L69+M8*M69+N8*N69+O8*O69+P8*P69+Q8*Q69+R8*R69+S8*S69+T8*T69</f>
+        <v>1.5</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="11" t="str">
+        <f>member!A70</f>
+        <v>新</v>
+      </c>
+      <c r="B70" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C70" s="34">
+        <f>E7*E70+F7*F70+G7*G70+H7*H70+I7*I70+J7*J70+K7*K70+L7*L70+M7*M70+N7*N70+O7*O70+P7*P70+Q7*Q70+R7*R70+S7*S70+T7*T70</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="36">
+        <f>E8*E70+F8*F70+G8*G70+H8*H70+I8*I70+J8*J70+K8*K70+L8*L70+M8*M70+N8*N70+O8*O70+P8*P70+Q8*Q70+R8*R70+S8*S70+T8*T70</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="11" t="str">
+        <f>member!A71</f>
+        <v>新</v>
+      </c>
+      <c r="B71" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C71" s="34">
+        <f>E7*E71+F7*F71+G7*G71+H7*H71+I7*I71+J7*J71+K7*K71+L7*L71+M7*M71+N7*N71+O7*O71+P7*P71+Q7*Q71+R7*R71+S7*S71+T7*T71</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="36">
+        <f>E8*E71+F8*F71+G8*G71+H8*H71+I8*I71+J8*J71+K8*K71+L8*L71+M8*M71+N8*N71+O8*O71+P8*P71+Q8*Q71+R8*R71+S8*S71+T8*T71</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="11" t="str">
+        <f>member!A72</f>
+        <v>新</v>
+      </c>
+      <c r="B72" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C72" s="34">
+        <f>E7*E72+F7*F72+G7*G72+H7*H72+I7*I72+J7*J72+K7*K72+L7*L72+M7*M72+N7*N72+O7*O72+P7*P72+Q7*Q72+R7*R72+S7*S72+T7*T72</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="36">
+        <f>E8*E72+F8*F72+G8*G72+H8*H72+I8*I72+J8*J72+K8*K72+L8*L72+M8*M72+N8*N72+O8*O72+P8*P72+Q8*Q72+R8*R72+S8*S72+T8*T72</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="11" t="str">
+        <f>member!A73</f>
+        <v>新</v>
+      </c>
+      <c r="B73" s="34">
+        <f t="shared" ref="B73:B100" si="6">COUNT(E73:T73)</f>
+        <v>0</v>
+      </c>
+      <c r="C73" s="34">
+        <f>E7*E73+F7*F73+G7*G73+H7*H73+I7*I73+J7*J73+K7*K73+L7*L73+M7*M73+N7*N73+O7*O73+P7*P73+Q7*Q73+R7*R73+S7*S73+T7*T73</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="36">
+        <f>E8*E73+F8*F73+G8*G73+H8*H73+I8*I73+J8*J73+K8*K73+L8*L73+M8*M73+N8*N73+O8*O73+P8*P73+Q8*Q73+R8*R73+S8*S73+T8*T73</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="11" t="str">
+        <f>member!A74</f>
+        <v>新</v>
+      </c>
+      <c r="B74" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C74" s="34">
+        <f>E7*E74+F7*F74+G7*G74+H7*H74+I7*I74+J7*J74+K7*K74+L7*L74+M7*M74+N7*N74+O7*O74+P7*P74+Q7*Q74+R7*R74+S7*S74+T7*T74</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="36">
+        <f>E8*E74+F8*F74+G8*G74+H8*H74+I8*I74+J8*J74+K8*K74+L8*L74+M8*M74+N8*N74+O8*O74+P8*P74+Q8*Q74+R8*R74+S8*S74+T8*T74</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="11" t="str">
+        <f>member!A75</f>
+        <v>新</v>
+      </c>
+      <c r="B75" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C75" s="34">
+        <f>E7*E75+F7*F75+G7*G75+H7*H75+I7*I75+J7*J75+K7*K75+L7*L75+M7*M75+N7*N75+O7*O75+P7*P75+Q7*Q75+R7*R75+S7*S75+T7*T75</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="36">
+        <f>E8*E75+F8*F75+G8*G75+H8*H75+I8*I75+J8*J75+K8*K75+L8*L75+M8*M75+N8*N75+O8*O75+P8*P75+Q8*Q75+R8*R75+S8*S75+T8*T75</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="11" t="str">
+        <f>member!A76</f>
+        <v>新</v>
+      </c>
+      <c r="B76" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C76" s="34">
+        <f>E7*E76+F7*F76+G7*G76+H7*H76+I7*I76+J7*J76+K7*K76+L7*L76+M7*M76+N7*N76+O7*O76+P7*P76+Q7*Q76+R7*R76+S7*S76+T7*T76</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="36">
+        <f>E8*E76+F8*F76+G8*G76+H8*H76+I8*I76+J8*J76+K8*K76+L8*L76+M8*M76+N8*N76+O8*O76+P8*P76+Q8*Q76+R8*R76+S8*S76+T8*T76</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="11" t="str">
+        <f>member!A77</f>
+        <v>新</v>
+      </c>
+      <c r="B77" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C77" s="34">
+        <f>E7*E77+F7*F77+G7*G77+H7*H77+I7*I77+J7*J77+K7*K77+L7*L77+M7*M77+N7*N77+O7*O77+P7*P77+Q7*Q77+R7*R77+S7*S77+T7*T77</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="36">
+        <f>E8*E77+F8*F77+G8*G77+H8*H77+I8*I77+J8*J77+K8*K77+L8*L77+M8*M77+N8*N77+O8*O77+P8*P77+Q8*Q77+R8*R77+S8*S77+T8*T77</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="11" t="str">
+        <f>member!A78</f>
+        <v>新</v>
+      </c>
+      <c r="B78" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C78" s="34">
+        <f>E7*E78+F7*F78+G7*G78+H7*H78+I7*I78+J7*J78+K7*K78+L7*L78+M7*M78+N7*N78+O7*O78+P7*P78+Q7*Q78+R7*R78+S7*S78+T7*T78</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="36">
+        <f>E8*E78+F8*F78+G8*G78+H8*H78+I8*I78+J8*J78+K8*K78+L8*L78+M8*M78+N8*N78+O8*O78+P8*P78+Q8*Q78+R8*R78+S8*S78+T8*T78</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="11" t="str">
+        <f>member!A79</f>
+        <v>新</v>
+      </c>
+      <c r="B79" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C79" s="34">
+        <f>E7*E79+F7*F79+G7*G79+H7*H79+I7*I79+J7*J79+K7*K79+L7*L79+M7*M79+N7*N79+O7*O79+P7*P79+Q7*Q79+R7*R79+S7*S79+T7*T79</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="36">
+        <f>E8*E79+F8*F79+G8*G79+H8*H79+I8*I79+J8*J79+K8*K79+L8*L79+M8*M79+N8*N79+O8*O79+P8*P79+Q8*Q79+R8*R79+S8*S79+T8*T79</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="11" t="str">
+        <f>member!A80</f>
+        <v>新</v>
+      </c>
+      <c r="B80" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C80" s="34">
+        <f>E7*E80+F7*F80+G7*G80+H7*H80+I7*I80+J7*J80+K7*K80+L7*L80+M7*M80+N7*N80+O7*O80+P7*P80+Q7*Q80+R7*R80+S7*S80+T7*T80</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="36">
+        <f>E8*E80+F8*F80+G8*G80+H8*H80+I8*I80+J8*J80+K8*K80+L8*L80+M8*M80+N8*N80+O8*O80+P8*P80+Q8*Q80+R8*R80+S8*S80+T8*T80</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="11" t="str">
+        <f>member!A81</f>
+        <v>新</v>
+      </c>
+      <c r="B81" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C81" s="34">
+        <f>E7*E81+F7*F81+G7*G81+H7*H81+I7*I81+J7*J81+K7*K81+L7*L81+M7*M81+N7*N81+O7*O81+P7*P81+Q7*Q81+R7*R81+S7*S81+T7*T81</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="36">
+        <f>E8*E81+F8*F81+G8*G81+H8*H81+I8*I81+J8*J81+K8*K81+L8*L81+M8*M81+N8*N81+O8*O81+P8*P81+Q8*Q81+R8*R81+S8*S81+T8*T81</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="11" t="str">
+        <f>member!A82</f>
+        <v>新</v>
+      </c>
+      <c r="B82" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C82" s="34">
+        <f>E7*E82+F7*F82+G7*G82+H7*H82+I7*I82+J7*J82+K7*K82+L7*L82+M7*M82+N7*N82+O7*O82+P7*P82+Q7*Q82+R7*R82+S7*S82+T7*T82</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="36">
+        <f>E8*E82+F8*F82+G8*G82+H8*H82+I8*I82+J8*J82+K8*K82+L8*L82+M8*M82+N8*N82+O8*O82+P8*P82+Q8*Q82+R8*R82+S8*S82+T8*T82</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="11" t="str">
+        <f>member!A83</f>
+        <v>新</v>
+      </c>
+      <c r="B83" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C83" s="34">
+        <f>E7*E83+F7*F83+G7*G83+H7*H83+I7*I83+J7*J83+K7*K83+L7*L83+M7*M83+N7*N83+O7*O83+P7*P83+Q7*Q83+R7*R83+S7*S83+T7*T83</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="36">
+        <f>E8*E83+F8*F83+G8*G83+H8*H83+I8*I83+J8*J83+K8*K83+L8*L83+M8*M83+N8*N83+O8*O83+P8*P83+Q8*Q83+R8*R83+S8*S83+T8*T83</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="11" t="str">
+        <f>member!A84</f>
+        <v>新</v>
+      </c>
+      <c r="B84" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C84" s="34">
+        <f>E7*E84+F7*F84+G7*G84+H7*H84+I7*I84+J7*J84+K7*K84+L7*L84+M7*M84+N7*N84+O7*O84+P7*P84+Q7*Q84+R7*R84+S7*S84+T7*T84</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="36">
+        <f>E8*E84+F8*F84+G8*G84+H8*H84+I8*I84+J8*J84+K8*K84+L8*L84+M8*M84+N8*N84+O8*O84+P8*P84+Q8*Q84+R8*R84+S8*S84+T8*T84</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="11" t="str">
+        <f>member!A85</f>
+        <v>新</v>
+      </c>
+      <c r="B85" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C85" s="34">
+        <f>E7*E85+F7*F85+G7*G85+H7*H85+I7*I85+J7*J85+K7*K85+L7*L85+M7*M85+N7*N85+O7*O85+P7*P85+Q7*Q85+R7*R85+S7*S85+T7*T85</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="36">
+        <f>E8*E85+F8*F85+G8*G85+H8*H85+I8*I85+J8*J85+K8*K85+L8*L85+M8*M85+N8*N85+O8*O85+P8*P85+Q8*Q85+R8*R85+S8*S85+T8*T85</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="11" t="str">
+        <f>member!A86</f>
+        <v>新</v>
+      </c>
+      <c r="B86" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C86" s="34">
+        <f>E7*E86+F7*F86+G7*G86+H7*H86+I7*I86+J7*J86+K7*K86+L7*L86+M7*M86+N7*N86+O7*O86+P7*P86+Q7*Q86+R7*R86+S7*S86+T7*T86</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="36">
+        <f>E8*E86+F8*F86+G8*G86+H8*H86+I8*I86+J8*J86+K8*K86+L8*L86+M8*M86+N8*N86+O8*O86+P8*P86+Q8*Q86+R8*R86+S8*S86+T8*T86</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="11" t="str">
+        <f>member!A87</f>
+        <v>新</v>
+      </c>
+      <c r="B87" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C87" s="34">
+        <f>E7*E87+F7*F87+G7*G87+H7*H87+I7*I87+J7*J87+K7*K87+L7*L87+M7*M87+N7*N87+O7*O87+P7*P87+Q7*Q87+R7*R87+S7*S87+T7*T87</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="36">
+        <f>E8*E87+F8*F87+G8*G87+H8*H87+I8*I87+J8*J87+K8*K87+L8*L87+M8*M87+N8*N87+O8*O87+P8*P87+Q8*Q87+R8*R87+S8*S87+T8*T87</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="11" t="str">
+        <f>member!A88</f>
+        <v>新</v>
+      </c>
+      <c r="B88" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C88" s="34">
+        <f>E7*E88+F7*F88+G7*G88+H7*H88+I7*I88+J7*J88+K7*K88+L7*L88+M7*M88+N7*N88+O7*O88+P7*P88+Q7*Q88+R7*R88+S7*S88+T7*T88</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="36">
+        <f>E8*E88+F8*F88+G8*G88+H8*H88+I8*I88+J8*J88+K8*K88+L8*L88+M8*M88+N8*N88+O8*O88+P8*P88+Q8*Q88+R8*R88+S8*S88+T8*T88</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="11" t="str">
+        <f>member!A89</f>
+        <v>新</v>
+      </c>
+      <c r="B89" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C89" s="34">
+        <f>E7*E89+F7*F89+G7*G89+H7*H89+I7*I89+J7*J89+K7*K89+L7*L89+M7*M89+N7*N89+O7*O89+P7*P89+Q7*Q89+R7*R89+S7*S89+T7*T89</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="36">
+        <f>E8*E89+F8*F89+G8*G89+H8*H89+I8*I89+J8*J89+K8*K89+L8*L89+M8*M89+N8*N89+O8*O89+P8*P89+Q8*Q89+R8*R89+S8*S89+T8*T89</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="11" t="str">
+        <f>member!A90</f>
+        <v>新</v>
+      </c>
+      <c r="B90" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C90" s="34">
+        <f>E7*E90+F7*F90+G7*G90+H7*H90+I7*I90+J7*J90+K7*K90+L7*L90+M7*M90+N7*N90+O7*O90+P7*P90+Q7*Q90+R7*R90+S7*S90+T7*T90</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="36">
+        <f>E8*E90+F8*F90+G8*G90+H8*H90+I8*I90+J8*J90+K8*K90+L8*L90+M8*M90+N8*N90+O8*O90+P8*P90+Q8*Q90+R8*R90+S8*S90+T8*T90</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="11" t="str">
+        <f>member!A91</f>
+        <v>新</v>
+      </c>
+      <c r="B91" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C91" s="34">
+        <f>E7*E91+F7*F91+G7*G91+H7*H91+I7*I91+J7*J91+K7*K91+L7*L91+M7*M91+N7*N91+O7*O91+P7*P91+Q7*Q91+R7*R91+S7*S91+T7*T91</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="36">
+        <f>E8*E91+F8*F91+G8*G91+H8*H91+I8*I91+J8*J91+K8*K91+L8*L91+M8*M91+N8*N91+O8*O91+P8*P91+Q8*Q91+R8*R91+S8*S91+T8*T91</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="11" t="str">
+        <f>member!A92</f>
+        <v>新</v>
+      </c>
+      <c r="B92" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C92" s="34">
+        <f>E7*E92+F7*F92+G7*G92+H7*H92+I7*I92+J7*J92+K7*K92+L7*L92+M7*M92+N7*N92+O7*O92+P7*P92+Q7*Q92+R7*R92+S7*S92+T7*T92</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="36">
+        <f>E8*E92+F8*F92+G8*G92+H8*H92+I8*I92+J8*J92+K8*K92+L8*L92+M8*M92+N8*N92+O8*O92+P8*P92+Q8*Q92+R8*R92+S8*S92+T8*T92</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="11" t="str">
+        <f>member!A93</f>
+        <v>新</v>
+      </c>
+      <c r="B93" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C93" s="34">
+        <f>E7*E93+F7*F93+G7*G93+H7*H93+I7*I93+J7*J93+K7*K93+L7*L93+M7*M93+N7*N93+O7*O93+P7*P93+Q7*Q93+R7*R93+S7*S93+T7*T93</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="36">
+        <f>E8*E93+F8*F93+G8*G93+H8*H93+I8*I93+J8*J93+K8*K93+L8*L93+M8*M93+N8*N93+O8*O93+P8*P93+Q8*Q93+R8*R93+S8*S93+T8*T93</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="11" t="str">
+        <f>member!A94</f>
+        <v>新</v>
+      </c>
+      <c r="B94" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C94" s="34">
+        <f>E7*E94+F7*F94+G7*G94+H7*H94+I7*I94+J7*J94+K7*K94+L7*L94+M7*M94+N7*N94+O7*O94+P7*P94+Q7*Q94+R7*R94+S7*S94+T7*T94</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="36">
+        <f>E8*E94+F8*F94+G8*G94+H8*H94+I8*I94+J8*J94+K8*K94+L8*L94+M8*M94+N8*N94+O8*O94+P8*P94+Q8*Q94+R8*R94+S8*S94+T8*T94</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="11" t="str">
+        <f>member!A95</f>
+        <v>新</v>
+      </c>
+      <c r="B95" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C95" s="34">
+        <f>E7*E95+F7*F95+G7*G95+H7*H95+I7*I95+J7*J95+K7*K95+L7*L95+M7*M95+N7*N95+O7*O95+P7*P95+Q7*Q95+R7*R95+S7*S95+T7*T95</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="36">
+        <f>E8*E95+F8*F95+G8*G95+H8*H95+I8*I95+J8*J95+K8*K95+L8*L95+M8*M95+N8*N95+O8*O95+P8*P95+Q8*Q95+R8*R95+S8*S95+T8*T95</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="11" t="str">
+        <f>member!A96</f>
+        <v>新</v>
+      </c>
+      <c r="B96" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C96" s="34">
+        <f>E7*E96+F7*F96+G7*G96+H7*H96+I7*I96+J7*J96+K7*K96+L7*L96+M7*M96+N7*N96+O7*O96+P7*P96+Q7*Q96+R7*R96+S7*S96+T7*T96</f>
+        <v>0</v>
+      </c>
+      <c r="D96" s="36">
+        <f>E8*E96+F8*F96+G8*G96+H8*H96+I8*I96+J8*J96+K8*K96+L8*L96+M8*M96+N8*N96+O8*O96+P8*P96+Q8*Q96+R8*R96+S8*S96+T8*T96</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="11" t="str">
+        <f>member!A97</f>
+        <v>新</v>
+      </c>
+      <c r="B97" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C97" s="34">
+        <f>E7*E97+F7*F97+G7*G97+H7*H97+I7*I97+J7*J97+K7*K97+L7*L97+M7*M97+N7*N97+O7*O97+P7*P97+Q7*Q97+R7*R97+S7*S97+T7*T97</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="36">
+        <f>E8*E97+F8*F97+G8*G97+H8*H97+I8*I97+J8*J97+K8*K97+L8*L97+M8*M97+N8*N97+O8*O97+P8*P97+Q8*Q97+R8*R97+S8*S97+T8*T97</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="11" t="str">
+        <f>member!A98</f>
+        <v>新</v>
+      </c>
+      <c r="B98" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C98" s="34">
+        <f>E7*E98+F7*F98+G7*G98+H7*H98+I7*I98+J7*J98+K7*K98+L7*L98+M7*M98+N7*N98+O7*O98+P7*P98+Q7*Q98+R7*R98+S7*S98+T7*T98</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="36">
+        <f>E8*E98+F8*F98+G8*G98+H8*H98+I8*I98+J8*J98+K8*K98+L8*L98+M8*M98+N8*N98+O8*O98+P8*P98+Q8*Q98+R8*R98+S8*S98+T8*T98</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="11" t="str">
+        <f>member!A99</f>
+        <v>新</v>
+      </c>
+      <c r="B99" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C99" s="34">
+        <f>E7*E99+F7*F99+G7*G99+H7*H99+I7*I99+J7*J99+K7*K99+L7*L99+M7*M99+N7*N99+O7*O99+P7*P99+Q7*Q99+R7*R99+S7*S99+T7*T99</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="36">
+        <f>E8*E99+F8*F99+G8*G99+H8*H99+I8*I99+J8*J99+K8*K99+L8*L99+M8*M99+N8*N99+O8*O99+P8*P99+Q8*Q99+R8*R99+S8*S99+T8*T99</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="11" t="str">
+        <f>member!A100</f>
+        <v>新</v>
+      </c>
+      <c r="B100" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C100" s="34">
+        <f>E7*E100+F7*F100+G7*G100+H7*H100+I7*I100+J7*J100+K7*K100+L7*L100+M7*M100+N7*N100+O7*O100+P7*P100+Q7*Q100+R7*R100+S7*S100+T7*T100</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="36">
+        <f>E8*E100+F8*F100+G8*G100+H8*H100+I8*I100+J8*J100+K8*K100+L8*L100+M8*M100+N8*N100+O8*O100+P8*P100+Q8*Q100+R8*R100+S8*S100+T8*T100</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="140">
   <si>
     <t>守候幸福</t>
   </si>
@@ -370,10 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Violin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,26 +415,6 @@
   </si>
   <si>
     <t>腿刀，拂晓，天赐各30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玲1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玲2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玲3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玲4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玲5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -550,14 +526,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20*20-370，小磊，更新各欠20，还有20不知谁没交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.5退20</t>
   </si>
   <si>
     <t>6.5退20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲-深蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲-高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲-秦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲-手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲-小马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲-大马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19*20-345 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>狐狸欠20</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">20*20-370 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新欠20，还有20不知谁没交</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +609,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +656,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -697,7 +745,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -759,6 +807,7 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1063,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1100,7 +1149,7 @@
         <v>53</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>55</v>
@@ -1121,19 +1170,19 @@
       </c>
       <c r="B2" s="37">
         <f t="shared" ref="B2:J2" si="0">SUM(B9:B100)</f>
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="C2" s="36">
         <f t="shared" si="0"/>
-        <v>14630</v>
+        <v>15010</v>
       </c>
       <c r="D2" s="38">
         <f t="shared" si="0"/>
-        <v>3605.0000000000005</v>
+        <v>3640.0000000000009</v>
       </c>
       <c r="E2" s="36">
         <f t="shared" si="0"/>
-        <v>3095.9999999999995</v>
+        <v>3112</v>
       </c>
       <c r="F2" s="36">
         <f t="shared" si="0"/>
@@ -1142,7 +1191,7 @@
       <c r="G2" s="36"/>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
-        <v>1106.0000000000007</v>
+        <v>1121.9999999999995</v>
       </c>
       <c r="I2" s="38">
         <f t="shared" si="0"/>
@@ -1180,7 +1229,7 @@
       </c>
       <c r="I4" s="40">
         <f>H2+I2</f>
-        <v>1161.0000000000007</v>
+        <v>1176.9999999999995</v>
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
@@ -17677,7 +17726,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.15">
@@ -17686,19 +17735,19 @@
       </c>
       <c r="B11" s="39">
         <f>'201202'!B11+'201203'!B11+'201204'!B11+'201205'!B11+'201206'!B11+'201207'!B11+'201208'!B11+'201209'!B11+'201210'!B11+'201211'!B11+'201212'!B11</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="36">
         <f>'201202'!C11+'201203'!C11+'201204'!C11+'201205'!C11+'201206'!C11+'201207'!C11+'201208'!C11+'201209'!C11+'201210'!C11+'201211'!C11+'201212'!C11</f>
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="D11" s="36">
         <f>'201202'!D11+'201203'!D11+'201204'!D11+'201205'!D11+'201206'!D11+'201207'!D11+'201208'!D11+'201209'!D11+'201210'!D11+'201211'!D11+'201212'!D11</f>
-        <v>191.52017463530618</v>
+        <v>193.36227989846407</v>
       </c>
       <c r="E11" s="36">
         <f t="shared" si="1"/>
-        <v>163.52017463530618</v>
+        <v>164.36227989846407</v>
       </c>
       <c r="F11" s="18">
         <v>155</v>
@@ -17706,7 +17755,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="36">
         <f t="shared" si="2"/>
-        <v>8.5201746353061765</v>
+        <v>9.3622798984640667</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="1"/>
@@ -17809,7 +17858,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.15">
@@ -17942,19 +17991,19 @@
       </c>
       <c r="B19" s="39">
         <f>'201202'!B19+'201203'!B19+'201204'!B19+'201205'!B19+'201206'!B19+'201207'!B19+'201208'!B19+'201209'!B19+'201210'!B19+'201211'!B19+'201212'!B19</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="36">
         <f>'201202'!C19+'201203'!C19+'201204'!C19+'201205'!C19+'201206'!C19+'201207'!C19+'201208'!C19+'201209'!C19+'201210'!C19+'201211'!C19+'201212'!C19</f>
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="D19" s="36">
         <f>'201202'!D19+'201203'!D19+'201204'!D19+'201205'!D19+'201206'!D19+'201207'!D19+'201208'!D19+'201209'!D19+'201210'!D19+'201211'!D19+'201212'!D19</f>
-        <v>137.58633763896921</v>
+        <v>139.4284429021271</v>
       </c>
       <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v>116.58633763896921</v>
+        <v>117.4284429021271</v>
       </c>
       <c r="F19" s="18">
         <v>60</v>
@@ -17962,12 +18011,12 @@
       <c r="G19" s="18"/>
       <c r="H19" s="36">
         <f t="shared" si="2"/>
-        <v>56.586337638969212</v>
+        <v>57.428442902127102</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -18033,7 +18082,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -18142,19 +18191,19 @@
       </c>
       <c r="B25" s="39">
         <f>'201202'!B25+'201203'!B25+'201204'!B25+'201205'!B25+'201206'!B25+'201207'!B25+'201208'!B25+'201209'!B25+'201210'!B25+'201211'!B25+'201212'!B25</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="36">
         <f>'201202'!C25+'201203'!C25+'201204'!C25+'201205'!C25+'201206'!C25+'201207'!C25+'201208'!C25+'201209'!C25+'201210'!C25+'201211'!C25+'201212'!C25</f>
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="D25" s="36">
         <f>'201202'!D25+'201203'!D25+'201204'!D25+'201205'!D25+'201206'!D25+'201207'!D25+'201208'!D25+'201209'!D25+'201210'!D25+'201211'!D25+'201212'!D25</f>
-        <v>126.79001590514748</v>
+        <v>128.63212116830539</v>
       </c>
       <c r="E25" s="36">
         <f t="shared" si="1"/>
-        <v>107.79001590514748</v>
+        <v>108.63212116830539</v>
       </c>
       <c r="F25" s="18">
         <v>75</v>
@@ -18162,7 +18211,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="36">
         <f t="shared" si="2"/>
-        <v>32.790015905147484</v>
+        <v>33.632121168305389</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="1"/>
@@ -18174,25 +18223,25 @@
       </c>
       <c r="B26" s="39">
         <f>'201202'!B26+'201203'!B26+'201204'!B26+'201205'!B26+'201206'!B26+'201207'!B26+'201208'!B26+'201209'!B26+'201210'!B26+'201211'!B26+'201212'!B26</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="36">
         <f>'201202'!C26+'201203'!C26+'201204'!C26+'201205'!C26+'201206'!C26+'201207'!C26+'201208'!C26+'201209'!C26+'201210'!C26+'201211'!C26+'201212'!C26</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D26" s="36">
         <f>'201202'!D26+'201203'!D26+'201204'!D26+'201205'!D26+'201206'!D26+'201207'!D26+'201208'!D26+'201209'!D26+'201210'!D26+'201211'!D26+'201212'!D26</f>
-        <v>17.142857142857142</v>
+        <v>18.984962406015036</v>
       </c>
       <c r="E26" s="36">
         <f t="shared" si="1"/>
-        <v>15.142857142857142</v>
+        <v>15.984962406015036</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="36">
         <f t="shared" si="2"/>
-        <v>15.142857142857142</v>
+        <v>15.984962406015036</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="1"/>
@@ -18204,19 +18253,19 @@
       </c>
       <c r="B27" s="39">
         <f>'201202'!B27+'201203'!B27+'201204'!B27+'201205'!B27+'201206'!B27+'201207'!B27+'201208'!B27+'201209'!B27+'201210'!B27+'201211'!B27+'201212'!B27</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="36">
         <f>'201202'!C27+'201203'!C27+'201204'!C27+'201205'!C27+'201206'!C27+'201207'!C27+'201208'!C27+'201209'!C27+'201210'!C27+'201211'!C27+'201212'!C27</f>
-        <v>925</v>
+        <v>945</v>
       </c>
       <c r="D27" s="36">
         <f>'201202'!D27+'201203'!D27+'201204'!D27+'201205'!D27+'201206'!D27+'201207'!D27+'201208'!D27+'201209'!D27+'201210'!D27+'201211'!D27+'201212'!D27</f>
-        <v>219.10442371955529</v>
+        <v>220.94652898271318</v>
       </c>
       <c r="E27" s="36">
         <f t="shared" si="1"/>
-        <v>187.10442371955529</v>
+        <v>187.94652898271318</v>
       </c>
       <c r="F27" s="18">
         <v>175</v>
@@ -18224,7 +18273,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="36">
         <f t="shared" si="2"/>
-        <v>12.104423719555285</v>
+        <v>12.946528982713176</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="1"/>
@@ -18261,7 +18310,7 @@
       <c r="I28" s="18"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -18302,19 +18351,19 @@
       </c>
       <c r="B30" s="39">
         <f>'201202'!B30+'201203'!B30+'201204'!B30+'201205'!B30+'201206'!B30+'201207'!B30+'201208'!B30+'201209'!B30+'201210'!B30+'201211'!B30+'201212'!B30</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="36">
         <f>'201202'!C30+'201203'!C30+'201204'!C30+'201205'!C30+'201206'!C30+'201207'!C30+'201208'!C30+'201209'!C30+'201210'!C30+'201211'!C30+'201212'!C30</f>
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D30" s="36">
         <f>'201202'!D30+'201203'!D30+'201204'!D30+'201205'!D30+'201206'!D30+'201207'!D30+'201208'!D30+'201209'!D30+'201210'!D30+'201211'!D30+'201212'!D30</f>
-        <v>53.926691729323309</v>
+        <v>55.768796992481199</v>
       </c>
       <c r="E30" s="36">
         <f t="shared" si="1"/>
-        <v>47.926691729323309</v>
+        <v>48.768796992481199</v>
       </c>
       <c r="F30" s="18">
         <v>20</v>
@@ -18322,7 +18371,7 @@
       <c r="G30" s="18"/>
       <c r="H30" s="36">
         <f t="shared" si="2"/>
-        <v>27.926691729323309</v>
+        <v>28.768796992481199</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="1"/>
@@ -18483,7 +18532,7 @@
       <c r="I35" s="18"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -18644,25 +18693,25 @@
       </c>
       <c r="B41" s="39">
         <f>'201202'!B41+'201203'!B41+'201204'!B41+'201205'!B41+'201206'!B41+'201207'!B41+'201208'!B41+'201209'!B41+'201210'!B41+'201211'!B41+'201212'!B41</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="36">
         <f>'201202'!C41+'201203'!C41+'201204'!C41+'201205'!C41+'201206'!C41+'201207'!C41+'201208'!C41+'201209'!C41+'201210'!C41+'201211'!C41+'201212'!C41</f>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D41" s="36">
         <f>'201202'!D41+'201203'!D41+'201204'!D41+'201205'!D41+'201206'!D41+'201207'!D41+'201208'!D41+'201209'!D41+'201210'!D41+'201211'!D41+'201212'!D41</f>
-        <v>44.325396825396822</v>
+        <v>46.167502088554713</v>
       </c>
       <c r="E41" s="36">
         <f t="shared" ref="E41:E62" si="3">D41-B41</f>
-        <v>38.325396825396822</v>
+        <v>39.167502088554713</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="36">
         <f t="shared" ref="H41:H71" si="4">E41-F41+G41</f>
-        <v>38.325396825396822</v>
+        <v>39.167502088554713</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="1">
@@ -18674,7 +18723,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B42" s="39">
         <f>'201202'!B42+'201203'!B42+'201204'!B42+'201205'!B42+'201206'!B42+'201207'!B42+'201208'!B42+'201209'!B42+'201210'!B42+'201211'!B42+'201212'!B42</f>
@@ -18836,29 +18885,29 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="B47" s="39">
         <f>'201202'!B47+'201203'!B47+'201204'!B47+'201205'!B47+'201206'!B47+'201207'!B47+'201208'!B47+'201209'!B47+'201210'!B47+'201211'!B47+'201212'!B47</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47" s="36">
         <f>'201202'!C47+'201203'!C47+'201204'!C47+'201205'!C47+'201206'!C47+'201207'!C47+'201208'!C47+'201209'!C47+'201210'!C47+'201211'!C47+'201212'!C47</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D47" s="36">
         <f>'201202'!D47+'201203'!D47+'201204'!D47+'201205'!D47+'201206'!D47+'201207'!D47+'201208'!D47+'201209'!D47+'201210'!D47+'201211'!D47+'201212'!D47</f>
-        <v>35.515873015873012</v>
+        <v>37.357978279030903</v>
       </c>
       <c r="E47" s="36">
         <f t="shared" si="3"/>
-        <v>32.515873015873012</v>
+        <v>33.357978279030903</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
       <c r="H47" s="36">
         <f t="shared" si="4"/>
-        <v>32.515873015873012</v>
+        <v>33.357978279030903</v>
       </c>
       <c r="I47" s="18"/>
       <c r="J47" s="1"/>
@@ -18866,7 +18915,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="39">
         <f>'201202'!B48+'201203'!B48+'201204'!B48+'201205'!B48+'201206'!B48+'201207'!B48+'201208'!B48+'201209'!B48+'201210'!B48+'201211'!B48+'201212'!B48</f>
@@ -18900,19 +18949,19 @@
       </c>
       <c r="B49" s="39">
         <f>'201202'!B49+'201203'!B49+'201204'!B49+'201205'!B49+'201206'!B49+'201207'!B49+'201208'!B49+'201209'!B49+'201210'!B49+'201211'!B49+'201212'!B49</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49" s="36">
         <f>'201202'!C49+'201203'!C49+'201204'!C49+'201205'!C49+'201206'!C49+'201207'!C49+'201208'!C49+'201209'!C49+'201210'!C49+'201211'!C49+'201212'!C49</f>
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="D49" s="36">
         <f>'201202'!D49+'201203'!D49+'201204'!D49+'201205'!D49+'201206'!D49+'201207'!D49+'201208'!D49+'201209'!D49+'201210'!D49+'201211'!D49+'201212'!D49</f>
-        <v>143.92821798084955</v>
+        <v>145.77032324400744</v>
       </c>
       <c r="E49" s="36">
         <f t="shared" si="3"/>
-        <v>123.92821798084955</v>
+        <v>124.77032324400744</v>
       </c>
       <c r="F49" s="18">
         <v>70</v>
@@ -18920,7 +18969,7 @@
       <c r="G49" s="18"/>
       <c r="H49" s="36">
         <f t="shared" si="4"/>
-        <v>53.928217980849553</v>
+        <v>54.770323244007443</v>
       </c>
       <c r="I49" s="18">
         <v>20</v>
@@ -18929,7 +18978,7 @@
         <v>2</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -19000,19 +19049,19 @@
       </c>
       <c r="B52" s="39">
         <f>'201202'!B52+'201203'!B52+'201204'!B52+'201205'!B52+'201206'!B52+'201207'!B52+'201208'!B52+'201209'!B52+'201210'!B52+'201211'!B52+'201212'!B52</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C52" s="36">
         <f>'201202'!C52+'201203'!C52+'201204'!C52+'201205'!C52+'201206'!C52+'201207'!C52+'201208'!C52+'201209'!C52+'201210'!C52+'201211'!C52+'201212'!C52</f>
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="D52" s="36">
         <f>'201202'!D52+'201203'!D52+'201204'!D52+'201205'!D52+'201206'!D52+'201207'!D52+'201208'!D52+'201209'!D52+'201210'!D52+'201211'!D52+'201212'!D52</f>
-        <v>113.51956413469571</v>
+        <v>115.3616693978536</v>
       </c>
       <c r="E52" s="36">
         <f t="shared" si="3"/>
-        <v>97.519564134695713</v>
+        <v>98.361669397853603</v>
       </c>
       <c r="F52" s="18">
         <v>25</v>
@@ -19020,7 +19069,7 @@
       <c r="G52" s="18"/>
       <c r="H52" s="36">
         <f t="shared" si="4"/>
-        <v>72.519564134695713</v>
+        <v>73.361669397853603</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="1"/>
@@ -19028,7 +19077,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53" s="39">
         <f>'201202'!B53+'201203'!B53+'201204'!B53+'201205'!B53+'201206'!B53+'201207'!B53+'201208'!B53+'201209'!B53+'201210'!B53+'201211'!B53+'201212'!B53</f>
@@ -19180,23 +19229,23 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="39">
         <f>'201202'!B58+'201203'!B58+'201204'!B58+'201205'!B58+'201206'!B58+'201207'!B58+'201208'!B58+'201209'!B58+'201210'!B58+'201211'!B58+'201212'!B58</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" s="36">
         <f>'201202'!C58+'201203'!C58+'201204'!C58+'201205'!C58+'201206'!C58+'201207'!C58+'201208'!C58+'201209'!C58+'201210'!C58+'201211'!C58+'201212'!C58</f>
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D58" s="36">
         <f>'201202'!D58+'201203'!D58+'201204'!D58+'201205'!D58+'201206'!D58+'201207'!D58+'201208'!D58+'201209'!D58+'201210'!D58+'201211'!D58+'201212'!D58</f>
-        <v>50.036706349206341</v>
+        <v>51.878811612364231</v>
       </c>
       <c r="E58" s="36">
         <f t="shared" si="3"/>
-        <v>43.036706349206341</v>
+        <v>43.878811612364231</v>
       </c>
       <c r="F58" s="18">
         <v>45</v>
@@ -19206,17 +19255,17 @@
       </c>
       <c r="H58" s="36">
         <f t="shared" si="4"/>
-        <v>8.0367063492063409</v>
+        <v>8.8788116123642311</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" s="39">
         <f>'201202'!B59+'201203'!B59+'201204'!B59+'201205'!B59+'201206'!B59+'201207'!B59+'201208'!B59+'201209'!B59+'201210'!B59+'201211'!B59+'201212'!B59</f>
@@ -19246,7 +19295,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B60" s="39">
         <f>'201202'!B60+'201203'!B60+'201204'!B60+'201205'!B60+'201206'!B60+'201207'!B60+'201208'!B60+'201209'!B60+'201210'!B60+'201211'!B60+'201212'!B60</f>
@@ -19276,29 +19325,29 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B61" s="39">
         <f>'201202'!B61+'201203'!B61+'201204'!B61+'201205'!B61+'201206'!B61+'201207'!B61+'201208'!B61+'201209'!B61+'201210'!B61+'201211'!B61+'201212'!B61</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="36">
         <f>'201202'!C61+'201203'!C61+'201204'!C61+'201205'!C61+'201206'!C61+'201207'!C61+'201208'!C61+'201209'!C61+'201210'!C61+'201211'!C61+'201212'!C61</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D61" s="36">
         <f>'201202'!D61+'201203'!D61+'201204'!D61+'201205'!D61+'201206'!D61+'201207'!D61+'201208'!D61+'201209'!D61+'201210'!D61+'201211'!D61+'201212'!D61</f>
-        <v>0.83333333333333215</v>
+        <v>2.675438596491226</v>
       </c>
       <c r="E61" s="36">
         <f t="shared" si="3"/>
-        <v>-0.16666666666666785</v>
+        <v>0.67543859649122595</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
       <c r="H61" s="36">
         <f t="shared" si="4"/>
-        <v>-0.16666666666666785</v>
+        <v>0.67543859649122595</v>
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="1"/>
@@ -19306,29 +19355,29 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B62" s="39">
         <f>'201202'!B62+'201203'!B62+'201204'!B62+'201205'!B62+'201206'!B62+'201207'!B62+'201208'!B62+'201209'!B62+'201210'!B62+'201211'!B62+'201212'!B62</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="36">
         <f>'201202'!C62+'201203'!C62+'201204'!C62+'201205'!C62+'201206'!C62+'201207'!C62+'201208'!C62+'201209'!C62+'201210'!C62+'201211'!C62+'201212'!C62</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D62" s="36">
         <f>'201202'!D62+'201203'!D62+'201204'!D62+'201205'!D62+'201206'!D62+'201207'!D62+'201208'!D62+'201209'!D62+'201210'!D62+'201211'!D62+'201212'!D62</f>
-        <v>19.777777777777779</v>
+        <v>21.619883040935672</v>
       </c>
       <c r="E62" s="36">
         <f t="shared" si="3"/>
-        <v>17.777777777777779</v>
+        <v>18.619883040935672</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
       <c r="H62" s="36">
         <f t="shared" si="4"/>
-        <v>17.777777777777779</v>
+        <v>18.619883040935672</v>
       </c>
       <c r="I62" s="18"/>
       <c r="J62" s="1"/>
@@ -19336,29 +19385,29 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="B63" s="39">
         <f>'201202'!B63+'201203'!B63+'201204'!B63+'201205'!B63+'201206'!B63+'201207'!B63+'201208'!B63+'201209'!B63+'201210'!B63+'201211'!B63+'201212'!B63</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" s="36">
         <f>'201202'!C63+'201203'!C63+'201204'!C63+'201205'!C63+'201206'!C63+'201207'!C63+'201208'!C63+'201209'!C63+'201210'!C63+'201211'!C63+'201212'!C63</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D63" s="36">
         <f>'201202'!D63+'201203'!D63+'201204'!D63+'201205'!D63+'201206'!D63+'201207'!D63+'201208'!D63+'201209'!D63+'201210'!D63+'201211'!D63+'201212'!D63</f>
-        <v>13.571428571428573</v>
+        <v>15.413533834586467</v>
       </c>
       <c r="E63" s="36">
         <f t="shared" ref="E63:E72" si="5">D63-B63</f>
-        <v>12.571428571428573</v>
+        <v>13.413533834586467</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="36">
         <f t="shared" si="4"/>
-        <v>12.571428571428573</v>
+        <v>13.413533834586467</v>
       </c>
       <c r="I63" s="18"/>
       <c r="J63" s="1"/>
@@ -19366,29 +19415,29 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B64" s="39">
         <f>'201202'!B64+'201203'!B64+'201204'!B64+'201205'!B64+'201206'!B64+'201207'!B64+'201208'!B64+'201209'!B64+'201210'!B64+'201211'!B64+'201212'!B64</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" s="36">
         <f>'201202'!C64+'201203'!C64+'201204'!C64+'201205'!C64+'201206'!C64+'201207'!C64+'201208'!C64+'201209'!C64+'201210'!C64+'201211'!C64+'201212'!C64</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D64" s="36">
         <f>'201202'!D64+'201203'!D64+'201204'!D64+'201205'!D64+'201206'!D64+'201207'!D64+'201208'!D64+'201209'!D64+'201210'!D64+'201211'!D64+'201212'!D64</f>
-        <v>13.571428571428573</v>
+        <v>15.413533834586467</v>
       </c>
       <c r="E64" s="36">
         <f t="shared" si="5"/>
-        <v>12.571428571428573</v>
+        <v>13.413533834586467</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="36">
         <f t="shared" si="4"/>
-        <v>12.571428571428573</v>
+        <v>13.413533834586467</v>
       </c>
       <c r="I64" s="18"/>
       <c r="J64" s="1"/>
@@ -19396,7 +19445,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B65" s="39">
         <f>'201202'!B65+'201203'!B65+'201204'!B65+'201205'!B65+'201206'!B65+'201207'!B65+'201208'!B65+'201209'!B65+'201210'!B65+'201211'!B65+'201212'!B65</f>
@@ -19426,7 +19475,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B66" s="39">
         <f>'201202'!B66+'201203'!B66+'201204'!B66+'201205'!B66+'201206'!B66+'201207'!B66+'201208'!B66+'201209'!B66+'201210'!B66+'201211'!B66+'201212'!B66</f>
@@ -19456,29 +19505,29 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B67" s="39">
         <f>'201202'!B67+'201203'!B67+'201204'!B67+'201205'!B67+'201206'!B67+'201207'!B67+'201208'!B67+'201209'!B67+'201210'!B67+'201211'!B67+'201212'!B67</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" s="36">
         <f>'201202'!C67+'201203'!C67+'201204'!C67+'201205'!C67+'201206'!C67+'201207'!C67+'201208'!C67+'201209'!C67+'201210'!C67+'201211'!C67+'201212'!C67</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D67" s="36">
         <f>'201202'!D67+'201203'!D67+'201204'!D67+'201205'!D67+'201206'!D67+'201207'!D67+'201208'!D67+'201209'!D67+'201210'!D67+'201211'!D67+'201212'!D67</f>
-        <v>13.571428571428573</v>
+        <v>15.413533834586467</v>
       </c>
       <c r="E67" s="36">
         <f t="shared" si="5"/>
-        <v>12.571428571428573</v>
+        <v>13.413533834586467</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="36">
         <f t="shared" si="4"/>
-        <v>12.571428571428573</v>
+        <v>13.413533834586467</v>
       </c>
       <c r="I67" s="18"/>
       <c r="J67" s="1"/>
@@ -19486,29 +19535,29 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B68" s="39">
         <f>'201202'!B68+'201203'!B68+'201204'!B68+'201205'!B68+'201206'!B68+'201207'!B68+'201208'!B68+'201209'!B68+'201210'!B68+'201211'!B68+'201212'!B68</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" s="36">
         <f>'201202'!C68+'201203'!C68+'201204'!C68+'201205'!C68+'201206'!C68+'201207'!C68+'201208'!C68+'201209'!C68+'201210'!C68+'201211'!C68+'201212'!C68</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D68" s="36">
         <f>'201202'!D68+'201203'!D68+'201204'!D68+'201205'!D68+'201206'!D68+'201207'!D68+'201208'!D68+'201209'!D68+'201210'!D68+'201211'!D68+'201212'!D68</f>
-        <v>19.5</v>
+        <v>21.342105263157894</v>
       </c>
       <c r="E68" s="36">
         <f t="shared" si="5"/>
-        <v>17.5</v>
+        <v>18.342105263157894</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="36">
         <f t="shared" si="4"/>
-        <v>17.5</v>
+        <v>18.342105263157894</v>
       </c>
       <c r="I68" s="18"/>
       <c r="J68" s="1"/>
@@ -19516,29 +19565,29 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B69" s="39">
         <f>'201202'!B69+'201203'!B69+'201204'!B69+'201205'!B69+'201206'!B69+'201207'!B69+'201208'!B69+'201209'!B69+'201210'!B69+'201211'!B69+'201212'!B69</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" s="36">
         <f>'201202'!C69+'201203'!C69+'201204'!C69+'201205'!C69+'201206'!C69+'201207'!C69+'201208'!C69+'201209'!C69+'201210'!C69+'201211'!C69+'201212'!C69</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D69" s="36">
         <f>'201202'!D69+'201203'!D69+'201204'!D69+'201205'!D69+'201206'!D69+'201207'!D69+'201208'!D69+'201209'!D69+'201210'!D69+'201211'!D69+'201212'!D69</f>
-        <v>10.166666666666668</v>
+        <v>12.008771929824562</v>
       </c>
       <c r="E69" s="36">
         <f t="shared" si="5"/>
-        <v>8.1666666666666679</v>
+        <v>9.0087719298245617</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="36">
         <f t="shared" si="4"/>
-        <v>8.1666666666666679</v>
+        <v>9.0087719298245617</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="1"/>
@@ -19546,29 +19595,29 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="B70" s="39">
         <f>'201202'!B70+'201203'!B70+'201204'!B70+'201205'!B70+'201206'!B70+'201207'!B70+'201208'!B70+'201209'!B70+'201210'!B70+'201211'!B70+'201212'!B70</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="36">
         <f>'201202'!C70+'201203'!C70+'201204'!C70+'201205'!C70+'201206'!C70+'201207'!C70+'201208'!C70+'201209'!C70+'201210'!C70+'201211'!C70+'201212'!C70</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D70" s="36">
         <f>'201202'!D70+'201203'!D70+'201204'!D70+'201205'!D70+'201206'!D70+'201207'!D70+'201208'!D70+'201209'!D70+'201210'!D70+'201211'!D70+'201212'!D70</f>
-        <v>0</v>
+        <v>1.8421052631578938</v>
       </c>
       <c r="E70" s="36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.8421052631578938</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.8421052631578938</v>
       </c>
       <c r="I70" s="18"/>
       <c r="J70" s="1"/>
@@ -19576,7 +19625,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B71" s="39">
         <f>'201202'!B71+'201203'!B71+'201204'!B71+'201205'!B71+'201206'!B71+'201207'!B71+'201208'!B71+'201209'!B71+'201210'!B71+'201211'!B71+'201212'!B71</f>
@@ -19606,7 +19655,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B72" s="39">
         <f>'201202'!B72+'201203'!B72+'201204'!B72+'201205'!B72+'201206'!B72+'201207'!B72+'201208'!B72+'201209'!B72+'201210'!B72+'201211'!B72+'201212'!B72</f>
@@ -19636,7 +19685,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B73" s="39">
         <f>'201202'!B73+'201203'!B73+'201204'!B73+'201205'!B73+'201206'!B73+'201207'!B73+'201208'!B73+'201209'!B73+'201210'!B73+'201211'!B73+'201212'!B73</f>
@@ -19666,7 +19715,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B74" s="39">
         <f>'201202'!B74+'201203'!B74+'201204'!B74+'201205'!B74+'201206'!B74+'201207'!B74+'201208'!B74+'201209'!B74+'201210'!B74+'201211'!B74+'201212'!B74</f>
@@ -19696,7 +19745,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B75" s="39">
         <f>'201202'!B75+'201203'!B75+'201204'!B75+'201205'!B75+'201206'!B75+'201207'!B75+'201208'!B75+'201209'!B75+'201210'!B75+'201211'!B75+'201212'!B75</f>
@@ -19726,7 +19775,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B76" s="39">
         <f>'201202'!B76+'201203'!B76+'201204'!B76+'201205'!B76+'201206'!B76+'201207'!B76+'201208'!B76+'201209'!B76+'201210'!B76+'201211'!B76+'201212'!B76</f>
@@ -19756,7 +19805,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B77" s="39">
         <f>'201202'!B77+'201203'!B77+'201204'!B77+'201205'!B77+'201206'!B77+'201207'!B77+'201208'!B77+'201209'!B77+'201210'!B77+'201211'!B77+'201212'!B77</f>
@@ -19786,7 +19835,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B78" s="39">
         <f>'201202'!B78+'201203'!B78+'201204'!B78+'201205'!B78+'201206'!B78+'201207'!B78+'201208'!B78+'201209'!B78+'201210'!B78+'201211'!B78+'201212'!B78</f>
@@ -19816,7 +19865,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B79" s="39">
         <f>'201202'!B79+'201203'!B79+'201204'!B79+'201205'!B79+'201206'!B79+'201207'!B79+'201208'!B79+'201209'!B79+'201210'!B79+'201211'!B79+'201212'!B79</f>
@@ -19846,7 +19895,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B80" s="39">
         <f>'201202'!B80+'201203'!B80+'201204'!B80+'201205'!B80+'201206'!B80+'201207'!B80+'201208'!B80+'201209'!B80+'201210'!B80+'201211'!B80+'201212'!B80</f>
@@ -19876,7 +19925,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B81" s="39">
         <f>'201202'!B81+'201203'!B81+'201204'!B81+'201205'!B81+'201206'!B81+'201207'!B81+'201208'!B81+'201209'!B81+'201210'!B81+'201211'!B81+'201212'!B81</f>
@@ -19906,7 +19955,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B82" s="39">
         <f>'201202'!B82+'201203'!B82+'201204'!B82+'201205'!B82+'201206'!B82+'201207'!B82+'201208'!B82+'201209'!B82+'201210'!B82+'201211'!B82+'201212'!B82</f>
@@ -19936,7 +19985,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B83" s="39">
         <f>'201202'!B83+'201203'!B83+'201204'!B83+'201205'!B83+'201206'!B83+'201207'!B83+'201208'!B83+'201209'!B83+'201210'!B83+'201211'!B83+'201212'!B83</f>
@@ -19966,7 +20015,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B84" s="39">
         <f>'201202'!B84+'201203'!B84+'201204'!B84+'201205'!B84+'201206'!B84+'201207'!B84+'201208'!B84+'201209'!B84+'201210'!B84+'201211'!B84+'201212'!B84</f>
@@ -19996,7 +20045,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B85" s="39">
         <f>'201202'!B85+'201203'!B85+'201204'!B85+'201205'!B85+'201206'!B85+'201207'!B85+'201208'!B85+'201209'!B85+'201210'!B85+'201211'!B85+'201212'!B85</f>
@@ -20026,7 +20075,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B86" s="39">
         <f>'201202'!B86+'201203'!B86+'201204'!B86+'201205'!B86+'201206'!B86+'201207'!B86+'201208'!B86+'201209'!B86+'201210'!B86+'201211'!B86+'201212'!B86</f>
@@ -20056,7 +20105,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B87" s="39">
         <f>'201202'!B87+'201203'!B87+'201204'!B87+'201205'!B87+'201206'!B87+'201207'!B87+'201208'!B87+'201209'!B87+'201210'!B87+'201211'!B87+'201212'!B87</f>
@@ -20086,7 +20135,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B88" s="39">
         <f>'201202'!B88+'201203'!B88+'201204'!B88+'201205'!B88+'201206'!B88+'201207'!B88+'201208'!B88+'201209'!B88+'201210'!B88+'201211'!B88+'201212'!B88</f>
@@ -20116,7 +20165,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B89" s="39">
         <f>'201202'!B89+'201203'!B89+'201204'!B89+'201205'!B89+'201206'!B89+'201207'!B89+'201208'!B89+'201209'!B89+'201210'!B89+'201211'!B89+'201212'!B89</f>
@@ -20146,7 +20195,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B90" s="39">
         <f>'201202'!B90+'201203'!B90+'201204'!B90+'201205'!B90+'201206'!B90+'201207'!B90+'201208'!B90+'201209'!B90+'201210'!B90+'201211'!B90+'201212'!B90</f>
@@ -20176,7 +20225,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B91" s="39">
         <f>'201202'!B91+'201203'!B91+'201204'!B91+'201205'!B91+'201206'!B91+'201207'!B91+'201208'!B91+'201209'!B91+'201210'!B91+'201211'!B91+'201212'!B91</f>
@@ -20206,7 +20255,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B92" s="39">
         <f>'201202'!B92+'201203'!B92+'201204'!B92+'201205'!B92+'201206'!B92+'201207'!B92+'201208'!B92+'201209'!B92+'201210'!B92+'201211'!B92+'201212'!B92</f>
@@ -20236,7 +20285,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B93" s="39">
         <f>'201202'!B93+'201203'!B93+'201204'!B93+'201205'!B93+'201206'!B93+'201207'!B93+'201208'!B93+'201209'!B93+'201210'!B93+'201211'!B93+'201212'!B93</f>
@@ -20266,7 +20315,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B94" s="39">
         <f>'201202'!B94+'201203'!B94+'201204'!B94+'201205'!B94+'201206'!B94+'201207'!B94+'201208'!B94+'201209'!B94+'201210'!B94+'201211'!B94+'201212'!B94</f>
@@ -20296,7 +20345,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B95" s="39">
         <f>'201202'!B95+'201203'!B95+'201204'!B95+'201205'!B95+'201206'!B95+'201207'!B95+'201208'!B95+'201209'!B95+'201210'!B95+'201211'!B95+'201212'!B95</f>
@@ -20326,7 +20375,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B96" s="39">
         <f>'201202'!B96+'201203'!B96+'201204'!B96+'201205'!B96+'201206'!B96+'201207'!B96+'201208'!B96+'201209'!B96+'201210'!B96+'201211'!B96+'201212'!B96</f>
@@ -20356,7 +20405,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B97" s="39">
         <f>'201202'!B97+'201203'!B97+'201204'!B97+'201205'!B97+'201206'!B97+'201207'!B97+'201208'!B97+'201209'!B97+'201210'!B97+'201211'!B97+'201212'!B97</f>
@@ -20386,7 +20435,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B98" s="39">
         <f>'201202'!B98+'201203'!B98+'201204'!B98+'201205'!B98+'201206'!B98+'201207'!B98+'201208'!B98+'201209'!B98+'201210'!B98+'201211'!B98+'201212'!B98</f>
@@ -20416,7 +20465,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B99" s="39">
         <f>'201202'!B99+'201203'!B99+'201204'!B99+'201205'!B99+'201206'!B99+'201207'!B99+'201208'!B99+'201209'!B99+'201210'!B99+'201211'!B99+'201212'!B99</f>
@@ -20446,7 +20495,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B100" s="39">
         <f>'201202'!B100+'201203'!B100+'201204'!B100+'201205'!B100+'201206'!B100+'201207'!B100+'201208'!B100+'201209'!B100+'201210'!B100+'201211'!B100+'201212'!B100</f>
@@ -20581,17 +20630,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="49.5" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
@@ -20602,7 +20651,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>42</v>
@@ -20611,7 +20660,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>42</v>
@@ -20619,11 +20668,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B2" s="39">
-        <f>SUM(B3:B54)</f>
-        <v>170</v>
+        <f>SUM(B3:B45)</f>
+        <v>205</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="42" t="s">
@@ -20636,14 +20685,14 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
-        <v>41065</v>
+      <c r="A3" s="42">
+        <v>41067</v>
       </c>
       <c r="B3" s="39">
-        <v>-40</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D3" s="14">
         <v>40948</v>
@@ -20658,10 +20707,10 @@
         <v>41065</v>
       </c>
       <c r="B4" s="39">
-        <v>30</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>135</v>
+        <v>-40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D4" s="14">
         <v>40952</v>
@@ -20673,13 +20722,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
-        <v>41060</v>
+        <v>41065</v>
       </c>
       <c r="B5" s="39">
-        <v>-10</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>132</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>139</v>
       </c>
       <c r="D5" s="14">
         <v>40960</v>
@@ -20694,10 +20743,10 @@
         <v>41060</v>
       </c>
       <c r="B6" s="39">
-        <v>130</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>133</v>
+        <v>-10</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="D6" s="14">
         <v>40967</v>
@@ -20709,13 +20758,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
-        <v>41058</v>
-      </c>
-      <c r="B7" s="1">
-        <v>195</v>
+        <v>41060</v>
+      </c>
+      <c r="B7" s="39">
+        <v>130</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D7" s="14">
         <v>40970</v>
@@ -20730,10 +20779,10 @@
         <v>41058</v>
       </c>
       <c r="B8" s="1">
-        <v>-205</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>195</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>125</v>
       </c>
       <c r="D8" s="14">
         <v>40974</v>
@@ -20748,10 +20797,10 @@
         <v>41058</v>
       </c>
       <c r="B9" s="1">
-        <v>10</v>
+        <v>-205</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D9" s="14">
         <v>40976</v>
@@ -20763,12 +20812,14 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
-        <v>40941</v>
+        <v>41058</v>
       </c>
       <c r="B10" s="1">
-        <v>160</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" s="14">
         <v>40983</v>
       </c>
@@ -20781,10 +20832,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
-        <v>40946</v>
+        <v>40941</v>
       </c>
       <c r="B11" s="1">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="14">
@@ -20799,14 +20850,12 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
-        <v>40972</v>
+        <v>40946</v>
       </c>
       <c r="B12" s="1">
-        <v>-70</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="14">
         <v>40988</v>
       </c>
@@ -20817,13 +20866,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
-        <v>40981</v>
+        <v>40972</v>
       </c>
       <c r="B13" s="1">
-        <v>30</v>
+        <v>-70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D13" s="14">
         <v>40990</v>
@@ -20838,10 +20887,10 @@
         <v>40981</v>
       </c>
       <c r="B14" s="1">
-        <v>-120</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="14">
         <v>40990</v>
@@ -20854,9 +20903,15 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="14">
+        <v>40981</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-120</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D15" s="14">
         <v>40995</v>
       </c>
@@ -21072,7 +21127,7 @@
         <v>200</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -21086,7 +21141,7 @@
         <v>200</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -21100,7 +21155,7 @@
         <v>-180</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -21114,7 +21169,7 @@
         <v>140</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -21128,7 +21183,7 @@
         <v>195</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -21142,7 +21197,7 @@
         <v>285</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -21170,7 +21225,7 @@
         <v>-90</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -21184,7 +21239,7 @@
         <v>15</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -21198,7 +21253,7 @@
         <v>-320</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -21212,7 +21267,7 @@
         <v>55</v>
       </c>
       <c r="F40" s="41" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -21226,7 +21281,7 @@
         <v>-350</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -21240,7 +21295,7 @@
         <v>15</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -21254,7 +21309,7 @@
         <v>-300</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -21268,7 +21323,7 @@
         <v>25</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -21354,6 +21409,11 @@
       <c r="A56" s="14"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="14"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -23147,7 +23207,7 @@
     <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="str">
         <f>member!A47</f>
-        <v>硕</v>
+        <v>张硕</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" si="5"/>
@@ -26053,7 +26113,7 @@
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="str">
         <f>member!A47</f>
-        <v>硕</v>
+        <v>张硕</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" si="25"/>
@@ -28127,7 +28187,7 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="str">
         <f>member!A47</f>
-        <v>硕</v>
+        <v>张硕</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" si="21"/>
@@ -30225,7 +30285,7 @@
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="str">
         <f>member!A47</f>
-        <v>硕</v>
+        <v>张硕</v>
       </c>
       <c r="B47" s="34">
         <f t="shared" si="25"/>
@@ -30717,7 +30777,7 @@
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="11" t="str">
         <f>member!A63</f>
-        <v>玲1</v>
+        <v>玲-深蓝</v>
       </c>
       <c r="B63" s="34">
         <f t="shared" ref="B63" si="26">COUNT(E63:T63)</f>
@@ -30746,7 +30806,7 @@
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="str">
         <f>member!A64</f>
-        <v>玲2</v>
+        <v>玲-小马</v>
       </c>
       <c r="B64" s="34">
         <f t="shared" ref="B64:B100" si="27">COUNT(E64:T64)</f>
@@ -30775,7 +30835,7 @@
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="11" t="str">
         <f>member!A65</f>
-        <v>玲3</v>
+        <v>玲-高</v>
       </c>
       <c r="B65" s="34">
         <f t="shared" si="27"/>
@@ -30804,7 +30864,7 @@
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="str">
         <f>member!A66</f>
-        <v>玲4</v>
+        <v>玲-秦</v>
       </c>
       <c r="B66" s="34">
         <f t="shared" si="27"/>
@@ -30833,7 +30893,7 @@
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="11" t="str">
         <f>member!A67</f>
-        <v>玲5</v>
+        <v>玲-手</v>
       </c>
       <c r="B67" s="34">
         <f t="shared" si="27"/>
@@ -30922,7 +30982,7 @@
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="11" t="str">
         <f>member!A70</f>
-        <v>新</v>
+        <v>玲-大马</v>
       </c>
       <c r="B70" s="34">
         <f t="shared" si="27"/>
@@ -31764,19 +31824,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="7" t="s">
         <v>35</v>
@@ -31790,23 +31851,30 @@
       <c r="E1" s="5">
         <v>41065</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="5">
+        <v>41065</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="33">
         <f>SUM(B9:B100)</f>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="35"/>
       <c r="E2" s="33">
-        <f t="shared" ref="E2" si="0">COUNT(E9:E100)</f>
+        <f t="shared" ref="E2:F2" si="0">COUNT(E9:E100)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -31816,23 +31884,30 @@
       <c r="E3" s="20">
         <v>370</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="20">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="34">
         <f>SUM(E4:T4)</f>
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="32">
-        <f t="shared" ref="E4" si="1">E2*E7</f>
+        <f t="shared" ref="E4:F4" si="1">E2*E7</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" s="32">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -31840,14 +31915,18 @@
       <c r="C5" s="34"/>
       <c r="D5" s="35">
         <f>SUM(E5:T5)</f>
+        <v>65</v>
+      </c>
+      <c r="E5" s="32">
+        <f t="shared" ref="E5:F5" si="2">E4-E3</f>
         <v>30</v>
       </c>
-      <c r="E5" s="32">
-        <f t="shared" ref="E5" si="2">E4-E3</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" s="32">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -31855,11 +31934,15 @@
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
       <c r="E6" s="32">
-        <f t="shared" ref="E6" si="3">E3/E2</f>
+        <f t="shared" ref="E6:F6" si="3">E3/E2</f>
         <v>18.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" s="32">
+        <f t="shared" si="3"/>
+        <v>18.157894736842106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -31869,8 +31952,11 @@
       <c r="E7" s="20">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -31878,11 +31964,15 @@
       <c r="C8" s="34"/>
       <c r="D8" s="36"/>
       <c r="E8" s="32">
-        <f t="shared" ref="E8" si="4">E7-E6</f>
+        <f t="shared" ref="E8:F8" si="4">E7-E6</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" s="32">
+        <f t="shared" si="4"/>
+        <v>1.8421052631578938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="str">
         <f>member!A9</f>
         <v>守候幸福</v>
@@ -31902,8 +31992,9 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="str">
         <f>member!A10</f>
         <v>李一刀</v>
@@ -31923,27 +32014,31 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="str">
         <f>member!A11</f>
         <v>咣咣地跟屁蟲</v>
       </c>
       <c r="B11" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="34">
         <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+N7*N11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D11" s="36">
         <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
-        <v>0</v>
+        <v>1.8421052631578938</v>
       </c>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="str">
         <f>member!A12</f>
         <v>Oo内拉祖里oO</v>
@@ -31961,8 +32056,9 @@
         <v>0</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="str">
         <f>member!A13</f>
         <v>幸福~拂晓</v>
@@ -31982,8 +32078,9 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="str">
         <f>member!A14</f>
         <v>蚕豆</v>
@@ -32003,8 +32100,9 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="str">
         <f>member!A15</f>
         <v>who cares?</v>
@@ -32022,8 +32120,9 @@
         <v>0</v>
       </c>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="str">
         <f>member!A16</f>
         <v>幸福~彩票</v>
@@ -32041,8 +32140,9 @@
         <v>0</v>
       </c>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="str">
         <f>member!A17</f>
         <v>清道夫</v>
@@ -32062,8 +32162,9 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="str">
         <f>member!A18</f>
         <v>老A</v>
@@ -32083,29 +32184,33 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="str">
         <f>member!A19</f>
         <v>狐狸</v>
       </c>
       <c r="B19" s="34">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="34">
         <f>E7*E19+F7*F19+G7*G19+H7*H19+I7*I19+J7*J19+K7*K19+L7*L19+M7*M19+O7*O19+P7*P19+Q7*Q19+R7*R19+S7*S19+T7*T19</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D19" s="36">
         <f>E8*E19+F8*F19+G8*G19+H8*H19+I8*I19+J8*J19+K8*K19+L8*L19+M8*M19+O8*O19+P8*P19+Q8*Q19+R8*R19+S8*S19+T8*T19</f>
-        <v>1.5</v>
+        <v>3.3421052631578938</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="str">
         <f>member!A20</f>
         <v>腿子</v>
@@ -32123,8 +32228,9 @@
         <v>0</v>
       </c>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="str">
         <f>member!A21</f>
         <v>smile</v>
@@ -32144,8 +32250,9 @@
       <c r="E21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="str">
         <f>member!A22</f>
         <v>小贝</v>
@@ -32163,8 +32270,9 @@
         <v>0</v>
       </c>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="str">
         <f>member!A23</f>
         <v>11号-鲜明</v>
@@ -32184,8 +32292,9 @@
       <c r="E23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="str">
         <f>member!A24</f>
         <v>狐狸~涛</v>
@@ -32203,69 +32312,79 @@
         <v>0</v>
       </c>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="str">
         <f>member!A25</f>
         <v>侯盟</v>
       </c>
       <c r="B25" s="34">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="34">
         <f>E7*E25+F7*F25+G7*G25+H7*H25+I7*I25+J7*J25+K7*K25+L7*L25+M7*M25+O7*O25+P7*P25+Q7*Q25+R7*R25+S7*S25+T7*T25</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D25" s="36">
         <f>E8*E25+F8*F25+G8*G25+H8*H25+I8*I25+J8*J25+K8*K25+L8*L25+M8*M25+O8*O25+P8*P25+Q8*Q25+R8*R25+S8*S25+T8*T25</f>
-        <v>1.5</v>
+        <v>3.3421052631578938</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="str">
         <f>member!A26</f>
         <v>玖伍贰壹</v>
       </c>
       <c r="B26" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="34">
         <f>E7*E26+F7*F26+G7*G26+H7*H26+I7*I26+J7*J26+K7*K26+L7*L26+M7*M26+O7*O26+P7*P26+Q7*Q26+R7*R26+S7*S26+T7*T26</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D26" s="36">
         <f>E8*E26+F8*F26+G8*G26+H8*H26+I8*I26+J8*J26+K8*K26+L8*L26+M8*M26+O8*O26+P8*P26+Q8*Q26+R8*R26+S8*S26+T8*T26</f>
-        <v>0</v>
+        <v>1.8421052631578938</v>
       </c>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="str">
         <f>member!A27</f>
         <v>红色F50-超</v>
       </c>
       <c r="B27" s="34">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="34">
         <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D27" s="36">
         <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
-        <v>1.5</v>
+        <v>3.3421052631578938</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="str">
         <f>member!A28</f>
         <v>活了</v>
@@ -32283,8 +32402,9 @@
         <v>0</v>
       </c>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="str">
         <f>member!A29</f>
         <v>天赐</v>
@@ -32302,27 +32422,31 @@
         <v>0</v>
       </c>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="str">
         <f>member!A30</f>
         <v>Shenghak</v>
       </c>
       <c r="B30" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="34">
         <f>E7*E30+F7*F30+G7*G30+H7*H30+I7*I30+J7*J30+K7*K30+L7*L30+M7*M30+O7*O30+P7*P30+Q7*Q30+R7*R30+S7*S30+T7*T30</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D30" s="36">
         <f>E8*E30+F8*F30+G8*G30+H8*H30+I8*I30+J8*J30+K8*K30+L8*L30+M8*M30+O8*O30+P8*P30+Q8*Q30+R8*R30+S8*S30+T8*T30</f>
-        <v>0</v>
+        <v>1.8421052631578938</v>
       </c>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="str">
         <f>member!A31</f>
         <v>红色6号</v>
@@ -32340,8 +32464,9 @@
         <v>0</v>
       </c>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="str">
         <f>member!A32</f>
         <v>微笑</v>
@@ -32359,8 +32484,9 @@
         <v>0</v>
       </c>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="str">
         <f>member!A33</f>
         <v>77号-更心</v>
@@ -32380,8 +32506,9 @@
       <c r="E33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="str">
         <f>member!A34</f>
         <v>更心朋友</v>
@@ -32399,8 +32526,9 @@
         <v>0</v>
       </c>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="str">
         <f>member!A35</f>
         <v>8号-菜菜亮</v>
@@ -32420,8 +32548,9 @@
       <c r="E35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="str">
         <f>member!A36</f>
         <v>杨光朋友</v>
@@ -32439,8 +32568,9 @@
         <v>0</v>
       </c>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="str">
         <f>member!A37</f>
         <v>拂晓朋友</v>
@@ -32458,8 +32588,9 @@
         <v>0</v>
       </c>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="str">
         <f>member!A38</f>
         <v>4号-许多</v>
@@ -32477,8 +32608,9 @@
         <v>0</v>
       </c>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="str">
         <f>member!A39</f>
         <v>5号-正</v>
@@ -32498,8 +32630,9 @@
       <c r="E39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="str">
         <f>member!A40</f>
         <v>勇敢的爬爬</v>
@@ -32517,27 +32650,31 @@
         <v>0</v>
       </c>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="str">
         <f>member!A41</f>
         <v>17号-4号字母</v>
       </c>
       <c r="B41" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="34">
         <f>E7*E41+F7*F41+G7*G41+H7*H41+I7*I41+J7*J41+K7*K41+L7*L41+M7*M41+O7*O41+P7*P41+Q7*Q41+R7*R41+S7*S41+T7*T41</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D41" s="36">
         <f>E8*E41+F8*F41+G8*G41+H8*H41+I8*I41+J8*J41+K8*K41+L8*L41+M8*M41+O8*O41+P8*P41+Q8*Q41+R8*R41+S8*S41+T8*T41</f>
-        <v>0</v>
+        <v>1.8421052631578938</v>
       </c>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="str">
         <f>member!A42</f>
         <v>雷雨</v>
@@ -32555,8 +32692,9 @@
         <v>0</v>
       </c>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="str">
         <f>member!A43</f>
         <v>西北偏北</v>
@@ -32576,8 +32714,9 @@
       <c r="E43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="str">
         <f>member!A44</f>
         <v>红色8号</v>
@@ -32595,8 +32734,9 @@
         <v>0</v>
       </c>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="str">
         <f>member!A45</f>
         <v>马耳他</v>
@@ -32616,8 +32756,9 @@
       <c r="E45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="str">
         <f>member!A46</f>
         <v>Cindy~陈猛</v>
@@ -32637,27 +32778,31 @@
       <c r="E46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="str">
         <f>member!A47</f>
-        <v>硕</v>
+        <v>张硕</v>
       </c>
       <c r="B47" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="34">
         <f>E7*E47+F7*F47+G7*G47+H7*H47+I7*I47+J7*J47+K7*K47+L7*L47+M7*M47+O7*O47+P7*P47+Q7*Q47+R7*R47+S7*S47+T7*T47</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D47" s="36">
         <f>E8*E47+F8*F47+G8*G47+H8*H47+I8*I47+J8*J47+K8*K47+L8*L47+M8*M47+O8*O47+P8*P47+Q8*Q47+R8*R47+S8*S47+T8*T47</f>
-        <v>0</v>
+        <v>1.8421052631578938</v>
       </c>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="str">
         <f>member!A48</f>
         <v>Violin</v>
@@ -32675,27 +32820,31 @@
         <v>0</v>
       </c>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="str">
         <f>member!A49</f>
         <v>87号陈磊</v>
       </c>
       <c r="B49" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="34">
         <f>E7*E49+F7*F49+G7*G49+H7*H49+I7*I49+J7*J49+K7*K49+L7*L49+M7*M49+O7*O49+P7*P49+Q7*Q49+R7*R49+S7*S49+T7*T49</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D49" s="36">
         <f>E8*E49+F8*F49+G8*G49+H8*H49+I8*I49+J8*J49+K8*K49+L8*L49+M8*M49+O8*O49+P8*P49+Q8*Q49+R8*R49+S8*S49+T8*T49</f>
-        <v>0</v>
+        <v>1.8421052631578938</v>
       </c>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="str">
         <f>member!A50</f>
         <v>水中阳光</v>
@@ -32713,8 +32862,9 @@
         <v>0</v>
       </c>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="str">
         <f>member!A51</f>
         <v>sam</v>
@@ -32732,27 +32882,31 @@
         <v>0</v>
       </c>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="str">
         <f>member!A52</f>
         <v>26 方亚</v>
       </c>
       <c r="B52" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="34">
         <f>E7*E52+F7*F52+G7*G52+H7*H52+I7*I52+J7*J52+K7*K52+L7*L52+M7*M52+O7*O52+P7*P52+Q7*Q52+R7*R52+S7*S52+T7*T52</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D52" s="36">
         <f>E8*E52+F8*F52+G8*G52+H8*H52+I8*I52+J8*J52+K8*K52+L8*L52+M8*M52+O8*O52+P8*P52+Q8*Q52+R8*R52+S8*S52+T8*T52</f>
-        <v>0</v>
+        <v>1.8421052631578938</v>
       </c>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="str">
         <f>member!A53</f>
         <v>维尼</v>
@@ -32770,8 +32924,9 @@
         <v>0</v>
       </c>
       <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="str">
         <f>member!A54</f>
         <v>0号--张家宁</v>
@@ -32789,8 +32944,9 @@
         <v>0</v>
       </c>
       <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="str">
         <f>member!A55</f>
         <v>泰山</v>
@@ -32808,8 +32964,9 @@
         <v>0</v>
       </c>
       <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="str">
         <f>member!A56</f>
         <v>尚峰</v>
@@ -32829,8 +32986,9 @@
       <c r="E56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="str">
         <f>member!A57</f>
         <v>杨光</v>
@@ -32848,29 +33006,33 @@
         <v>0</v>
       </c>
       <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="str">
         <f>member!A58</f>
         <v>小磊</v>
       </c>
       <c r="B58" s="34">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="34">
         <f>E7*E58+F7*F58+G7*G58+H7*H58+I7*I58+J7*J58+K7*K58+L7*L58+M7*M58+O7*O58+P7*P58+Q7*Q58+R7*R58+S7*S58+T7*T58</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D58" s="36">
         <f>E8*E58+F8*F58+G8*G58+H8*H58+I8*I58+J8*J58+K8*K58+L8*L58+M8*M58+O8*O58+P8*P58+Q8*Q58+R8*R58+S8*S58+T8*T58</f>
-        <v>1.5</v>
+        <v>3.3421052631578938</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="str">
         <f>member!A59</f>
         <v>绿洲</v>
@@ -32888,8 +33050,9 @@
         <v>0</v>
       </c>
       <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="str">
         <f>member!A60</f>
         <v>孙伟</v>
@@ -32907,87 +33070,100 @@
         <v>0</v>
       </c>
       <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="str">
         <f>member!A61</f>
         <v>古轮木</v>
       </c>
       <c r="B61" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="34">
         <f>E7*E61+F7*F61+G7*G61+H7*H61+I7*I61+J7*J61+K7*K61+L7*L61+M7*M61+O7*O61+P7*P61+Q7*Q61+R7*R61+S7*S61+T7*T61</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D61" s="36">
         <f>E8*E61+F8*F61+G8*G61+H8*H61+I8*I61+J8*J61+K8*K61+L8*L61+M8*M61+O8*O61+P8*P61+Q8*Q61+R8*R61+S8*S61+T8*T61</f>
-        <v>0</v>
+        <v>1.8421052631578938</v>
       </c>
       <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="str">
         <f>member!A62</f>
         <v>makoko</v>
       </c>
       <c r="B62" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" s="34">
         <f>E7*E62+F7*F62+G7*G62+H7*H62+I7*I62+J7*J62+K7*K62+L7*L62+M7*M62+O7*O62+P7*P62+Q7*Q62+R7*R62+S7*S62+T7*T62</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D62" s="36">
         <f>E8*E62+F8*F62+G8*G62+H8*H62+I8*I62+J8*J62+K8*K62+L8*L62+M8*M62+O8*O62+P8*P62+Q8*Q62+R8*R62+S8*S62+T8*T62</f>
-        <v>0</v>
+        <v>1.8421052631578938</v>
       </c>
       <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="11" t="str">
         <f>member!A63</f>
-        <v>玲1</v>
+        <v>玲-深蓝</v>
       </c>
       <c r="B63" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" s="34">
         <f>E7*E63+F7*F63+G7*G63+H7*H63+I7*I63+J7*J63+K7*K63+L7*L63+M7*M63+N7*N63+O7*O63+P7*P63+Q7*Q63+R7*R63+S7*S63+T7*T63</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D63" s="36">
         <f>E8*E63+F8*F63+G8*G63+H8*H63+I8*I63+J8*J63+K8*K63+L8*L63+M8*M63+N8*N63+O8*O63+P8*P63+Q8*Q63+R8*R63+S8*S63+T8*T63</f>
-        <v>0</v>
+        <v>1.8421052631578938</v>
       </c>
       <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="str">
         <f>member!A64</f>
-        <v>玲2</v>
+        <v>玲-小马</v>
       </c>
       <c r="B64" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" s="34">
         <f>E7*E64+F7*F64+G7*G64+H7*H64+I7*I64+J7*J64+K7*K64+L7*L64+M7*M64+N7*N64+O7*O64+P7*P64+Q7*Q64+R7*R64+S7*S64+T7*T64</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D64" s="36">
         <f>E8*E64+F8*F64+G8*G64+H8*H64+I8*I64+J8*J64+K8*K64+L8*L64+M8*M64+N8*N64+O8*O64+P8*P64+Q8*Q64+R8*R64+S8*S64+T8*T64</f>
-        <v>0</v>
+        <v>1.8421052631578938</v>
       </c>
       <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="11" t="str">
         <f>member!A65</f>
-        <v>玲3</v>
+        <v>玲-高</v>
       </c>
       <c r="B65" s="34">
         <f t="shared" si="5"/>
@@ -33002,11 +33178,12 @@
         <v>0</v>
       </c>
       <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="str">
         <f>member!A66</f>
-        <v>玲4</v>
+        <v>玲-秦</v>
       </c>
       <c r="B66" s="34">
         <f t="shared" si="5"/>
@@ -33021,86 +33198,99 @@
         <v>0</v>
       </c>
       <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="11" t="str">
         <f>member!A67</f>
-        <v>玲5</v>
+        <v>玲-手</v>
       </c>
       <c r="B67" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="34">
         <f>E7*E67+F7*F67+G7*G67+H7*H67+I7*I67+J7*J67+K7*K67+L7*L67+M7*M67+N7*N67+O7*O67+P7*P67+Q7*Q67+R7*R67+S7*S67+T7*T67</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D67" s="36">
         <f>E8*E67+F8*F67+G8*G67+H8*H67+I8*I67+J8*J67+K8*K67+L8*L67+M8*M67+N8*N67+O8*O67+P8*P67+Q8*Q67+R8*R67+S8*S67+T8*T67</f>
-        <v>0</v>
+        <v>1.8421052631578938</v>
       </c>
       <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="str">
         <f>member!A68</f>
         <v>度日</v>
       </c>
       <c r="B68" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="34">
         <f>E7*E68+F7*F68+G7*G68+H7*H68+I7*I68+J7*J68+K7*K68+L7*L68+M7*M68+N7*N68+O7*O68+P7*P68+Q7*Q68+R7*R68+S7*S68+T7*T68</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D68" s="36">
         <f>E8*E68+F8*F68+G8*G68+H8*H68+I8*I68+J8*J68+K8*K68+L8*L68+M8*M68+N8*N68+O8*O68+P8*P68+Q8*Q68+R8*R68+S8*S68+T8*T68</f>
-        <v>0</v>
+        <v>1.8421052631578938</v>
       </c>
       <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="11" t="str">
         <f>member!A69</f>
         <v>肖飞</v>
       </c>
       <c r="B69" s="34">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" s="34">
         <f>E7*E69+F7*F69+G7*G69+H7*H69+I7*I69+J7*J69+K7*K69+L7*L69+M7*M69+N7*N69+O7*O69+P7*P69+Q7*Q69+R7*R69+S7*S69+T7*T69</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D69" s="36">
         <f>E8*E69+F8*F69+G8*G69+H8*H69+I8*I69+J8*J69+K8*K69+L8*L69+M8*M69+N8*N69+O8*O69+P8*P69+Q8*Q69+R8*R69+S8*S69+T8*T69</f>
-        <v>1.5</v>
+        <v>3.3421052631578938</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="11" t="str">
         <f>member!A70</f>
-        <v>新</v>
+        <v>玲-大马</v>
       </c>
       <c r="B70" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="34">
         <f>E7*E70+F7*F70+G7*G70+H7*H70+I7*I70+J7*J70+K7*K70+L7*L70+M7*M70+N7*N70+O7*O70+P7*P70+Q7*Q70+R7*R70+S7*S70+T7*T70</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D70" s="36">
         <f>E8*E70+F8*F70+G8*G70+H8*H70+I8*I70+J8*J70+K8*K70+L8*L70+M8*M70+N8*N70+O8*O70+P8*P70+Q8*Q70+R8*R70+S8*S70+T8*T70</f>
-        <v>0</v>
+        <v>1.8421052631578938</v>
       </c>
       <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="str">
         <f>member!A71</f>
         <v>新</v>
@@ -33118,8 +33308,9 @@
         <v>0</v>
       </c>
       <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="str">
         <f>member!A72</f>
         <v>新</v>
@@ -33137,8 +33328,9 @@
         <v>0</v>
       </c>
       <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="str">
         <f>member!A73</f>
         <v>新</v>
@@ -33156,8 +33348,9 @@
         <v>0</v>
       </c>
       <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="str">
         <f>member!A74</f>
         <v>新</v>
@@ -33175,8 +33368,9 @@
         <v>0</v>
       </c>
       <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="11" t="str">
         <f>member!A75</f>
         <v>新</v>
@@ -33194,8 +33388,9 @@
         <v>0</v>
       </c>
       <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="str">
         <f>member!A76</f>
         <v>新</v>
@@ -33213,8 +33408,9 @@
         <v>0</v>
       </c>
       <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="11" t="str">
         <f>member!A77</f>
         <v>新</v>
@@ -33232,8 +33428,9 @@
         <v>0</v>
       </c>
       <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="str">
         <f>member!A78</f>
         <v>新</v>
@@ -33251,8 +33448,9 @@
         <v>0</v>
       </c>
       <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="str">
         <f>member!A79</f>
         <v>新</v>
@@ -33270,8 +33468,9 @@
         <v>0</v>
       </c>
       <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="str">
         <f>member!A80</f>
         <v>新</v>
@@ -33289,8 +33488,9 @@
         <v>0</v>
       </c>
       <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="11" t="str">
         <f>member!A81</f>
         <v>新</v>
@@ -33308,8 +33508,9 @@
         <v>0</v>
       </c>
       <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="11" t="str">
         <f>member!A82</f>
         <v>新</v>
@@ -33327,8 +33528,9 @@
         <v>0</v>
       </c>
       <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="11" t="str">
         <f>member!A83</f>
         <v>新</v>
@@ -33346,8 +33548,9 @@
         <v>0</v>
       </c>
       <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="str">
         <f>member!A84</f>
         <v>新</v>
@@ -33365,8 +33568,9 @@
         <v>0</v>
       </c>
       <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="11" t="str">
         <f>member!A85</f>
         <v>新</v>
@@ -33384,8 +33588,9 @@
         <v>0</v>
       </c>
       <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="str">
         <f>member!A86</f>
         <v>新</v>
@@ -33403,8 +33608,9 @@
         <v>0</v>
       </c>
       <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="11" t="str">
         <f>member!A87</f>
         <v>新</v>
@@ -33422,8 +33628,9 @@
         <v>0</v>
       </c>
       <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="str">
         <f>member!A88</f>
         <v>新</v>
@@ -33441,8 +33648,9 @@
         <v>0</v>
       </c>
       <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="11" t="str">
         <f>member!A89</f>
         <v>新</v>
@@ -33460,8 +33668,9 @@
         <v>0</v>
       </c>
       <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="11" t="str">
         <f>member!A90</f>
         <v>新</v>
@@ -33479,8 +33688,9 @@
         <v>0</v>
       </c>
       <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="11" t="str">
         <f>member!A91</f>
         <v>新</v>
@@ -33498,8 +33708,9 @@
         <v>0</v>
       </c>
       <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="11" t="str">
         <f>member!A92</f>
         <v>新</v>
@@ -33517,8 +33728,9 @@
         <v>0</v>
       </c>
       <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="11" t="str">
         <f>member!A93</f>
         <v>新</v>
@@ -33536,8 +33748,9 @@
         <v>0</v>
       </c>
       <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="11" t="str">
         <f>member!A94</f>
         <v>新</v>
@@ -33555,8 +33768,9 @@
         <v>0</v>
       </c>
       <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="str">
         <f>member!A95</f>
         <v>新</v>
@@ -33574,8 +33788,9 @@
         <v>0</v>
       </c>
       <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="11" t="str">
         <f>member!A96</f>
         <v>新</v>
@@ -33593,8 +33808,9 @@
         <v>0</v>
       </c>
       <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="str">
         <f>member!A97</f>
         <v>新</v>
@@ -33612,8 +33828,9 @@
         <v>0</v>
       </c>
       <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="11" t="str">
         <f>member!A98</f>
         <v>新</v>
@@ -33631,8 +33848,9 @@
         <v>0</v>
       </c>
       <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="str">
         <f>member!A99</f>
         <v>新</v>
@@ -33650,8 +33868,9 @@
         <v>0</v>
       </c>
       <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="11" t="str">
         <f>member!A100</f>
         <v>新</v>
@@ -33669,10 +33888,12 @@
         <v>0</v>
       </c>
       <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="141">
   <si>
     <t>守候幸福</t>
   </si>
@@ -502,10 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.29退10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退虫,豆,鲜明,超,活,神 6*30；退狐狸10块；退smile 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -562,23 +558,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">19*20-345 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>狐狸欠20</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
@@ -598,6 +577,18 @@
       </rPr>
       <t>更新欠20，还有20不知谁没交</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.29退10,6.7退20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退狐狸20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19*20-345</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1112,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1186,12 +1177,12 @@
       </c>
       <c r="F2" s="36">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
-        <v>1121.9999999999995</v>
+        <v>1101.9999999999998</v>
       </c>
       <c r="I2" s="38">
         <f t="shared" si="0"/>
@@ -1229,7 +1220,7 @@
       </c>
       <c r="I4" s="40">
         <f>H2+I2</f>
-        <v>1176.9999999999995</v>
+        <v>1156.9999999999998</v>
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
@@ -18006,17 +17997,17 @@
         <v>117.4284429021271</v>
       </c>
       <c r="F19" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="36">
         <f t="shared" si="2"/>
-        <v>57.428442902127102</v>
+        <v>37.428442902127102</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -18310,7 +18301,7 @@
       <c r="I28" s="18"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -18532,7 +18523,7 @@
       <c r="I35" s="18"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -18885,7 +18876,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" s="39">
         <f>'201202'!B47+'201203'!B47+'201204'!B47+'201205'!B47+'201206'!B47+'201207'!B47+'201208'!B47+'201209'!B47+'201210'!B47+'201211'!B47+'201212'!B47</f>
@@ -19385,7 +19376,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B63" s="39">
         <f>'201202'!B63+'201203'!B63+'201204'!B63+'201205'!B63+'201206'!B63+'201207'!B63+'201208'!B63+'201209'!B63+'201210'!B63+'201211'!B63+'201212'!B63</f>
@@ -19415,7 +19406,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64" s="39">
         <f>'201202'!B64+'201203'!B64+'201204'!B64+'201205'!B64+'201206'!B64+'201207'!B64+'201208'!B64+'201209'!B64+'201210'!B64+'201211'!B64+'201212'!B64</f>
@@ -19445,7 +19436,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" s="39">
         <f>'201202'!B65+'201203'!B65+'201204'!B65+'201205'!B65+'201206'!B65+'201207'!B65+'201208'!B65+'201209'!B65+'201210'!B65+'201211'!B65+'201212'!B65</f>
@@ -19475,7 +19466,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B66" s="39">
         <f>'201202'!B66+'201203'!B66+'201204'!B66+'201205'!B66+'201206'!B66+'201207'!B66+'201208'!B66+'201209'!B66+'201210'!B66+'201211'!B66+'201212'!B66</f>
@@ -19505,7 +19496,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B67" s="39">
         <f>'201202'!B67+'201203'!B67+'201204'!B67+'201205'!B67+'201206'!B67+'201207'!B67+'201208'!B67+'201209'!B67+'201210'!B67+'201211'!B67+'201212'!B67</f>
@@ -19595,7 +19586,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B70" s="39">
         <f>'201202'!B70+'201203'!B70+'201204'!B70+'201205'!B70+'201206'!B70+'201207'!B70+'201208'!B70+'201209'!B70+'201210'!B70+'201211'!B70+'201212'!B70</f>
@@ -20630,10 +20621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20672,7 +20663,7 @@
       </c>
       <c r="B2" s="39">
         <f>SUM(B3:B45)</f>
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="42" t="s">
@@ -20685,14 +20676,14 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="42">
+      <c r="A3" s="14">
         <v>41067</v>
       </c>
       <c r="B3" s="39">
-        <v>35</v>
+        <v>-20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" s="14">
         <v>40948</v>
@@ -20704,13 +20695,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
-        <v>41065</v>
+        <v>41067</v>
       </c>
       <c r="B4" s="39">
-        <v>-40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D4" s="14">
         <v>40952</v>
@@ -20725,10 +20716,10 @@
         <v>41065</v>
       </c>
       <c r="B5" s="39">
-        <v>30</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>139</v>
+        <v>-40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="D5" s="14">
         <v>40960</v>
@@ -20740,13 +20731,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
-        <v>41060</v>
+        <v>41065</v>
       </c>
       <c r="B6" s="39">
-        <v>-10</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>126</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="D6" s="14">
         <v>40967</v>
@@ -20761,10 +20752,10 @@
         <v>41060</v>
       </c>
       <c r="B7" s="39">
-        <v>130</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>127</v>
+        <v>-10</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>125</v>
       </c>
       <c r="D7" s="14">
         <v>40970</v>
@@ -20776,13 +20767,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
-        <v>41058</v>
-      </c>
-      <c r="B8" s="1">
-        <v>195</v>
+        <v>41060</v>
+      </c>
+      <c r="B8" s="39">
+        <v>130</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D8" s="14">
         <v>40974</v>
@@ -20797,9 +20788,9 @@
         <v>41058</v>
       </c>
       <c r="B9" s="1">
-        <v>-205</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>124</v>
       </c>
       <c r="D9" s="14">
@@ -20815,10 +20806,10 @@
         <v>41058</v>
       </c>
       <c r="B10" s="1">
-        <v>10</v>
+        <v>-205</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D10" s="14">
         <v>40983</v>
@@ -20832,12 +20823,14 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
-        <v>40941</v>
+        <v>41058</v>
       </c>
       <c r="B11" s="1">
-        <v>160</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" s="14">
         <v>40983</v>
       </c>
@@ -20850,10 +20843,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
-        <v>40946</v>
+        <v>40941</v>
       </c>
       <c r="B12" s="1">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="14">
@@ -20866,14 +20859,12 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
-        <v>40972</v>
+        <v>40946</v>
       </c>
       <c r="B13" s="1">
-        <v>-70</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="14">
         <v>40990</v>
       </c>
@@ -20884,13 +20875,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
-        <v>40981</v>
+        <v>40972</v>
       </c>
       <c r="B14" s="1">
-        <v>30</v>
+        <v>-70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D14" s="14">
         <v>40990</v>
@@ -20907,10 +20898,10 @@
         <v>40981</v>
       </c>
       <c r="B15" s="1">
-        <v>-120</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="14">
         <v>40995</v>
@@ -20921,9 +20912,15 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="14">
+        <v>40981</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-120</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D16" s="14">
         <v>40995</v>
       </c>
@@ -21414,6 +21411,11 @@
       <c r="A57" s="14"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="14"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -4,29 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
     <sheet name="收费" sheetId="13" r:id="rId2"/>
-    <sheet name="201202" sheetId="2" r:id="rId3"/>
-    <sheet name="201203" sheetId="3" r:id="rId4"/>
-    <sheet name="201204" sheetId="4" r:id="rId5"/>
-    <sheet name="201205" sheetId="5" r:id="rId6"/>
-    <sheet name="201206" sheetId="6" r:id="rId7"/>
-    <sheet name="201207" sheetId="7" r:id="rId8"/>
-    <sheet name="201208" sheetId="8" r:id="rId9"/>
-    <sheet name="201209" sheetId="9" r:id="rId10"/>
-    <sheet name="201210" sheetId="10" r:id="rId11"/>
-    <sheet name="201211" sheetId="11" r:id="rId12"/>
-    <sheet name="201212" sheetId="12" r:id="rId13"/>
+    <sheet name="欧洲杯" sheetId="14" r:id="rId3"/>
+    <sheet name="201202" sheetId="2" r:id="rId4"/>
+    <sheet name="201203" sheetId="3" r:id="rId5"/>
+    <sheet name="201204" sheetId="4" r:id="rId6"/>
+    <sheet name="201205" sheetId="5" r:id="rId7"/>
+    <sheet name="201206" sheetId="6" r:id="rId8"/>
+    <sheet name="201207" sheetId="7" r:id="rId9"/>
+    <sheet name="201208" sheetId="8" r:id="rId10"/>
+    <sheet name="201209" sheetId="9" r:id="rId11"/>
+    <sheet name="201210" sheetId="10" r:id="rId12"/>
+    <sheet name="201211" sheetId="11" r:id="rId13"/>
+    <sheet name="201212" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="151">
   <si>
     <t>守候幸福</t>
   </si>
@@ -486,10 +487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2012.5.20（额外10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>肖飞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -589,6 +586,68 @@
   </si>
   <si>
     <t>19*20-345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初盘胜平负赔率1.5 3 3.5</t>
+  </si>
+  <si>
+    <t>西班牙
+  VS
+意大利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波兰
+ VS
+希腊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法国
+ VS
+英格兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.12待罚10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.12额外28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.5.20额外10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16*25-345 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二姨欠5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚峰额外28，清道夫群足彩20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,7 +795,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -799,6 +858,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1103,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1161,19 +1223,19 @@
       </c>
       <c r="B2" s="37">
         <f t="shared" ref="B2:J2" si="0">SUM(B9:B100)</f>
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="C2" s="36">
         <f t="shared" si="0"/>
-        <v>15010</v>
+        <v>15410</v>
       </c>
       <c r="D2" s="38">
         <f t="shared" si="0"/>
-        <v>3640.0000000000009</v>
+        <v>3695.0000000000009</v>
       </c>
       <c r="E2" s="36">
         <f t="shared" si="0"/>
-        <v>3112</v>
+        <v>3151</v>
       </c>
       <c r="F2" s="36">
         <f t="shared" si="0"/>
@@ -1182,7 +1244,7 @@
       <c r="G2" s="36"/>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
-        <v>1101.9999999999998</v>
+        <v>1168.9999999999995</v>
       </c>
       <c r="I2" s="38">
         <f t="shared" si="0"/>
@@ -1190,7 +1252,7 @@
       </c>
       <c r="J2" s="38">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="39"/>
     </row>
@@ -1220,7 +1282,7 @@
       </c>
       <c r="I4" s="40">
         <f>H2+I2</f>
-        <v>1156.9999999999998</v>
+        <v>1223.9999999999995</v>
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
@@ -17656,19 +17718,19 @@
       </c>
       <c r="B9" s="39">
         <f>'201202'!B9+'201203'!B9+'201204'!B9+'201205'!B9+'201206'!B9+'201207'!B9+'201208'!B9+'201209'!B9+'201210'!B9+'201211'!B9+'201212'!B9</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="36">
         <f>'201202'!C9+'201203'!C9+'201204'!C9+'201205'!C9+'201206'!C9+'201207'!C9+'201208'!C9+'201209'!C9+'201210'!C9+'201211'!C9+'201212'!C9</f>
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="D9" s="36">
         <f>'201202'!D9+'201203'!D9+'201204'!D9+'201205'!D9+'201206'!D9+'201207'!D9+'201208'!D9+'201209'!D9+'201210'!D9+'201211'!D9+'201212'!D9</f>
-        <v>87.837988400488399</v>
+        <v>91.275488400488399</v>
       </c>
       <c r="E9" s="36">
         <f t="shared" ref="E9:E40" si="1">D9-B9</f>
-        <v>74.837988400488399</v>
+        <v>77.275488400488399</v>
       </c>
       <c r="F9" s="18">
         <v>55</v>
@@ -17676,7 +17738,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="36">
         <f t="shared" ref="H9:H40" si="2">E9-F9+G9</f>
-        <v>19.837988400488399</v>
+        <v>22.275488400488399</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="1"/>
@@ -17788,19 +17850,19 @@
       </c>
       <c r="B13" s="39">
         <f>'201202'!B13+'201203'!B13+'201204'!B13+'201205'!B13+'201206'!B13+'201207'!B13+'201208'!B13+'201209'!B13+'201210'!B13+'201211'!B13+'201212'!B13</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="36">
         <f>'201202'!C13+'201203'!C13+'201204'!C13+'201205'!C13+'201206'!C13+'201207'!C13+'201208'!C13+'201209'!C13+'201210'!C13+'201211'!C13+'201212'!C13</f>
-        <v>655</v>
+        <v>680</v>
       </c>
       <c r="D13" s="36">
         <f>'201202'!D13+'201203'!D13+'201204'!D13+'201205'!D13+'201206'!D13+'201207'!D13+'201208'!D13+'201209'!D13+'201210'!D13+'201211'!D13+'201212'!D13</f>
-        <v>140.47743959257116</v>
+        <v>143.91493959257116</v>
       </c>
       <c r="E13" s="36">
         <f t="shared" si="1"/>
-        <v>117.47743959257116</v>
+        <v>119.91493959257116</v>
       </c>
       <c r="F13" s="18">
         <v>100</v>
@@ -17808,7 +17870,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="36">
         <f t="shared" si="2"/>
-        <v>17.477439592571159</v>
+        <v>19.914939592571159</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="1"/>
@@ -17918,19 +17980,19 @@
       </c>
       <c r="B17" s="39">
         <f>'201202'!B17+'201203'!B17+'201204'!B17+'201205'!B17+'201206'!B17+'201207'!B17+'201208'!B17+'201209'!B17+'201210'!B17+'201211'!B17+'201212'!B17</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="36">
         <f>'201202'!C17+'201203'!C17+'201204'!C17+'201205'!C17+'201206'!C17+'201207'!C17+'201208'!C17+'201209'!C17+'201210'!C17+'201211'!C17+'201212'!C17</f>
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="D17" s="36">
         <f>'201202'!D17+'201203'!D17+'201204'!D17+'201205'!D17+'201206'!D17+'201207'!D17+'201208'!D17+'201209'!D17+'201210'!D17+'201211'!D17+'201212'!D17</f>
-        <v>71.958257020757017</v>
+        <v>75.395757020757017</v>
       </c>
       <c r="E17" s="36">
         <f t="shared" si="1"/>
-        <v>61.958257020757017</v>
+        <v>64.395757020757017</v>
       </c>
       <c r="F17" s="18">
         <v>45</v>
@@ -17938,7 +18000,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="36">
         <f t="shared" si="2"/>
-        <v>16.958257020757017</v>
+        <v>19.395757020757017</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="1"/>
@@ -17950,19 +18012,19 @@
       </c>
       <c r="B18" s="39">
         <f>'201202'!B18+'201203'!B18+'201204'!B18+'201205'!B18+'201206'!B18+'201207'!B18+'201208'!B18+'201209'!B18+'201210'!B18+'201211'!B18+'201212'!B18</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="36">
         <f>'201202'!C18+'201203'!C18+'201204'!C18+'201205'!C18+'201206'!C18+'201207'!C18+'201208'!C18+'201209'!C18+'201210'!C18+'201211'!C18+'201212'!C18</f>
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="D18" s="36">
         <f>'201202'!D18+'201203'!D18+'201204'!D18+'201205'!D18+'201206'!D18+'201207'!D18+'201208'!D18+'201209'!D18+'201210'!D18+'201211'!D18+'201212'!D18</f>
-        <v>79.253920056551635</v>
+        <v>82.691420056551635</v>
       </c>
       <c r="E18" s="36">
         <f t="shared" si="1"/>
-        <v>67.253920056551635</v>
+        <v>69.691420056551635</v>
       </c>
       <c r="F18" s="18">
         <v>70</v>
@@ -17970,7 +18032,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="36">
         <f t="shared" si="2"/>
-        <v>-2.7460799434483647</v>
+        <v>-0.3085799434483647</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="1"/>
@@ -18007,7 +18069,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -18039,8 +18101,12 @@
         <v>-2.661782661782663</v>
       </c>
       <c r="I20" s="18"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
@@ -18073,7 +18139,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -18114,19 +18180,19 @@
       </c>
       <c r="B23" s="39">
         <f>'201202'!B23+'201203'!B23+'201204'!B23+'201205'!B23+'201206'!B23+'201207'!B23+'201208'!B23+'201209'!B23+'201210'!B23+'201211'!B23+'201212'!B23</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="36">
         <f>'201202'!C23+'201203'!C23+'201204'!C23+'201205'!C23+'201206'!C23+'201207'!C23+'201208'!C23+'201209'!C23+'201210'!C23+'201211'!C23+'201212'!C23</f>
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="D23" s="36">
         <f>'201202'!D23+'201203'!D23+'201204'!D23+'201205'!D23+'201206'!D23+'201207'!D23+'201208'!D23+'201209'!D23+'201210'!D23+'201211'!D23+'201212'!D23</f>
-        <v>123.87273873787032</v>
+        <v>127.31023873787032</v>
       </c>
       <c r="E23" s="36">
         <f t="shared" si="1"/>
-        <v>106.87273873787032</v>
+        <v>109.31023873787032</v>
       </c>
       <c r="F23" s="18">
         <v>85</v>
@@ -18134,7 +18200,7 @@
       <c r="G23" s="18"/>
       <c r="H23" s="36">
         <f t="shared" si="2"/>
-        <v>21.872738737870321</v>
+        <v>24.310238737870321</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="1"/>
@@ -18214,25 +18280,25 @@
       </c>
       <c r="B26" s="39">
         <f>'201202'!B26+'201203'!B26+'201204'!B26+'201205'!B26+'201206'!B26+'201207'!B26+'201208'!B26+'201209'!B26+'201210'!B26+'201211'!B26+'201212'!B26</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="36">
         <f>'201202'!C26+'201203'!C26+'201204'!C26+'201205'!C26+'201206'!C26+'201207'!C26+'201208'!C26+'201209'!C26+'201210'!C26+'201211'!C26+'201212'!C26</f>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D26" s="36">
         <f>'201202'!D26+'201203'!D26+'201204'!D26+'201205'!D26+'201206'!D26+'201207'!D26+'201208'!D26+'201209'!D26+'201210'!D26+'201211'!D26+'201212'!D26</f>
-        <v>18.984962406015036</v>
+        <v>22.422462406015036</v>
       </c>
       <c r="E26" s="36">
         <f t="shared" si="1"/>
-        <v>15.984962406015036</v>
+        <v>18.422462406015036</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="36">
         <f t="shared" si="2"/>
-        <v>15.984962406015036</v>
+        <v>18.422462406015036</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="1"/>
@@ -18244,19 +18310,19 @@
       </c>
       <c r="B27" s="39">
         <f>'201202'!B27+'201203'!B27+'201204'!B27+'201205'!B27+'201206'!B27+'201207'!B27+'201208'!B27+'201209'!B27+'201210'!B27+'201211'!B27+'201212'!B27</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="36">
         <f>'201202'!C27+'201203'!C27+'201204'!C27+'201205'!C27+'201206'!C27+'201207'!C27+'201208'!C27+'201209'!C27+'201210'!C27+'201211'!C27+'201212'!C27</f>
-        <v>945</v>
+        <v>970</v>
       </c>
       <c r="D27" s="36">
         <f>'201202'!D27+'201203'!D27+'201204'!D27+'201205'!D27+'201206'!D27+'201207'!D27+'201208'!D27+'201209'!D27+'201210'!D27+'201211'!D27+'201212'!D27</f>
-        <v>220.94652898271318</v>
+        <v>224.38402898271318</v>
       </c>
       <c r="E27" s="36">
         <f t="shared" si="1"/>
-        <v>187.94652898271318</v>
+        <v>190.38402898271318</v>
       </c>
       <c r="F27" s="18">
         <v>175</v>
@@ -18264,7 +18330,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="36">
         <f t="shared" si="2"/>
-        <v>12.946528982713176</v>
+        <v>15.384028982713176</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="1"/>
@@ -18276,19 +18342,19 @@
       </c>
       <c r="B28" s="39">
         <f>'201202'!B28+'201203'!B28+'201204'!B28+'201205'!B28+'201206'!B28+'201207'!B28+'201208'!B28+'201209'!B28+'201210'!B28+'201211'!B28+'201212'!B28</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" s="36">
         <f>'201202'!C28+'201203'!C28+'201204'!C28+'201205'!C28+'201206'!C28+'201207'!C28+'201208'!C28+'201209'!C28+'201210'!C28+'201211'!C28+'201212'!C28</f>
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="D28" s="36">
         <f>'201202'!D28+'201203'!D28+'201204'!D28+'201205'!D28+'201206'!D28+'201207'!D28+'201208'!D28+'201209'!D28+'201210'!D28+'201211'!D28+'201212'!D28</f>
-        <v>109.0546679197995</v>
+        <v>112.4921679197995</v>
       </c>
       <c r="E28" s="36">
         <f t="shared" si="1"/>
-        <v>96.054667919799499</v>
+        <v>98.492167919799499</v>
       </c>
       <c r="F28" s="18">
         <v>75</v>
@@ -18296,12 +18362,12 @@
       <c r="G28" s="18"/>
       <c r="H28" s="36">
         <f t="shared" si="2"/>
-        <v>21.054667919799499</v>
+        <v>23.492167919799499</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -18498,19 +18564,19 @@
       </c>
       <c r="B35" s="39">
         <f>'201202'!B35+'201203'!B35+'201204'!B35+'201205'!B35+'201206'!B35+'201207'!B35+'201208'!B35+'201209'!B35+'201210'!B35+'201211'!B35+'201212'!B35</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" s="36">
         <f>'201202'!C35+'201203'!C35+'201204'!C35+'201205'!C35+'201206'!C35+'201207'!C35+'201208'!C35+'201209'!C35+'201210'!C35+'201211'!C35+'201212'!C35</f>
-        <v>695</v>
+        <v>720</v>
       </c>
       <c r="D35" s="36">
         <f>'201202'!D35+'201203'!D35+'201204'!D35+'201205'!D35+'201206'!D35+'201207'!D35+'201208'!D35+'201209'!D35+'201210'!D35+'201211'!D35+'201212'!D35</f>
-        <v>160.92524179037338</v>
+        <v>164.36274179037338</v>
       </c>
       <c r="E35" s="36">
         <f t="shared" si="1"/>
-        <v>136.92524179037338</v>
+        <v>139.36274179037338</v>
       </c>
       <c r="F35" s="18">
         <v>125</v>
@@ -18518,12 +18584,12 @@
       <c r="G35" s="18"/>
       <c r="H35" s="36">
         <f t="shared" si="2"/>
-        <v>11.925241790373377</v>
+        <v>14.362741790373377</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -18622,19 +18688,19 @@
       </c>
       <c r="B39" s="39">
         <f>'201202'!B39+'201203'!B39+'201204'!B39+'201205'!B39+'201206'!B39+'201207'!B39+'201208'!B39+'201209'!B39+'201210'!B39+'201211'!B39+'201212'!B39</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" s="36">
         <f>'201202'!C39+'201203'!C39+'201204'!C39+'201205'!C39+'201206'!C39+'201207'!C39+'201208'!C39+'201209'!C39+'201210'!C39+'201211'!C39+'201212'!C39</f>
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="D39" s="36">
         <f>'201202'!D39+'201203'!D39+'201204'!D39+'201205'!D39+'201206'!D39+'201207'!D39+'201208'!D39+'201209'!D39+'201210'!D39+'201211'!D39+'201212'!D39</f>
-        <v>78.722222222222214</v>
+        <v>82.159722222222214</v>
       </c>
       <c r="E39" s="36">
         <f t="shared" si="1"/>
-        <v>66.722222222222214</v>
+        <v>69.159722222222214</v>
       </c>
       <c r="F39" s="18">
         <v>40</v>
@@ -18642,7 +18708,7 @@
       <c r="G39" s="18"/>
       <c r="H39" s="36">
         <f t="shared" si="2"/>
-        <v>26.722222222222214</v>
+        <v>29.159722222222214</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="1"/>
@@ -18748,19 +18814,19 @@
       </c>
       <c r="B43" s="39">
         <f>'201202'!B43+'201203'!B43+'201204'!B43+'201205'!B43+'201206'!B43+'201207'!B43+'201208'!B43+'201209'!B43+'201210'!B43+'201211'!B43+'201212'!B43</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" s="36">
         <f>'201202'!C43+'201203'!C43+'201204'!C43+'201205'!C43+'201206'!C43+'201207'!C43+'201208'!C43+'201209'!C43+'201210'!C43+'201211'!C43+'201212'!C43</f>
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="D43" s="36">
         <f>'201202'!D43+'201203'!D43+'201204'!D43+'201205'!D43+'201206'!D43+'201207'!D43+'201208'!D43+'201209'!D43+'201210'!D43+'201211'!D43+'201212'!D43</f>
-        <v>73.12968318231475</v>
+        <v>76.56718318231475</v>
       </c>
       <c r="E43" s="36">
         <f t="shared" si="3"/>
-        <v>63.12968318231475</v>
+        <v>65.56718318231475</v>
       </c>
       <c r="F43" s="18">
         <v>20</v>
@@ -18768,7 +18834,7 @@
       <c r="G43" s="18"/>
       <c r="H43" s="36">
         <f t="shared" si="4"/>
-        <v>43.12968318231475</v>
+        <v>45.56718318231475</v>
       </c>
       <c r="I43" s="18">
         <v>10</v>
@@ -18848,19 +18914,19 @@
       </c>
       <c r="B46" s="39">
         <f>'201202'!B46+'201203'!B46+'201204'!B46+'201205'!B46+'201206'!B46+'201207'!B46+'201208'!B46+'201209'!B46+'201210'!B46+'201211'!B46+'201212'!B46</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C46" s="36">
         <f>'201202'!C46+'201203'!C46+'201204'!C46+'201205'!C46+'201206'!C46+'201207'!C46+'201208'!C46+'201209'!C46+'201210'!C46+'201211'!C46+'201212'!C46</f>
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="D46" s="36">
         <f>'201202'!D46+'201203'!D46+'201204'!D46+'201205'!D46+'201206'!D46+'201207'!D46+'201208'!D46+'201209'!D46+'201210'!D46+'201211'!D46+'201212'!D46</f>
-        <v>124.87858669108667</v>
+        <v>128.31608669108667</v>
       </c>
       <c r="E46" s="36">
         <f t="shared" si="3"/>
-        <v>106.87858669108667</v>
+        <v>109.31608669108667</v>
       </c>
       <c r="F46" s="18">
         <v>75</v>
@@ -18868,7 +18934,7 @@
       <c r="G46" s="18"/>
       <c r="H46" s="36">
         <f t="shared" si="4"/>
-        <v>31.878586691086667</v>
+        <v>34.316086691086667</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="1"/>
@@ -18876,7 +18942,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="39">
         <f>'201202'!B47+'201203'!B47+'201204'!B47+'201205'!B47+'201206'!B47+'201207'!B47+'201208'!B47+'201209'!B47+'201210'!B47+'201211'!B47+'201212'!B47</f>
@@ -18969,7 +19035,7 @@
         <v>2</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -19008,19 +19074,19 @@
       </c>
       <c r="B51" s="39">
         <f>'201202'!B51+'201203'!B51+'201204'!B51+'201205'!B51+'201206'!B51+'201207'!B51+'201208'!B51+'201209'!B51+'201210'!B51+'201211'!B51+'201212'!B51</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51" s="36">
         <f>'201202'!C51+'201203'!C51+'201204'!C51+'201205'!C51+'201206'!C51+'201207'!C51+'201208'!C51+'201209'!C51+'201210'!C51+'201211'!C51+'201212'!C51</f>
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="D51" s="36">
         <f>'201202'!D51+'201203'!D51+'201204'!D51+'201205'!D51+'201206'!D51+'201207'!D51+'201208'!D51+'201209'!D51+'201210'!D51+'201211'!D51+'201212'!D51</f>
-        <v>87.383040935672511</v>
+        <v>90.820540935672511</v>
       </c>
       <c r="E51" s="36">
         <f t="shared" si="3"/>
-        <v>75.383040935672511</v>
+        <v>77.820540935672511</v>
       </c>
       <c r="F51" s="18">
         <v>50</v>
@@ -19028,7 +19094,7 @@
       <c r="G51" s="18"/>
       <c r="H51" s="36">
         <f t="shared" si="4"/>
-        <v>25.383040935672511</v>
+        <v>27.820540935672511</v>
       </c>
       <c r="I51" s="18"/>
       <c r="J51" s="1"/>
@@ -19040,19 +19106,19 @@
       </c>
       <c r="B52" s="39">
         <f>'201202'!B52+'201203'!B52+'201204'!B52+'201205'!B52+'201206'!B52+'201207'!B52+'201208'!B52+'201209'!B52+'201210'!B52+'201211'!B52+'201212'!B52</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52" s="36">
         <f>'201202'!C52+'201203'!C52+'201204'!C52+'201205'!C52+'201206'!C52+'201207'!C52+'201208'!C52+'201209'!C52+'201210'!C52+'201211'!C52+'201212'!C52</f>
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="D52" s="36">
         <f>'201202'!D52+'201203'!D52+'201204'!D52+'201205'!D52+'201206'!D52+'201207'!D52+'201208'!D52+'201209'!D52+'201210'!D52+'201211'!D52+'201212'!D52</f>
-        <v>115.3616693978536</v>
+        <v>118.7991693978536</v>
       </c>
       <c r="E52" s="36">
         <f t="shared" si="3"/>
-        <v>98.361669397853603</v>
+        <v>100.7991693978536</v>
       </c>
       <c r="F52" s="18">
         <v>25</v>
@@ -19060,7 +19126,7 @@
       <c r="G52" s="18"/>
       <c r="H52" s="36">
         <f t="shared" si="4"/>
-        <v>73.361669397853603</v>
+        <v>75.799169397853603</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="1"/>
@@ -19179,14 +19245,18 @@
       <c r="F56" s="18">
         <v>45</v>
       </c>
-      <c r="G56" s="18"/>
+      <c r="G56" s="18">
+        <v>28</v>
+      </c>
       <c r="H56" s="36">
         <f t="shared" si="4"/>
-        <v>29.703935319066886</v>
+        <v>57.703935319066886</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="K56" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
@@ -19224,19 +19294,19 @@
       </c>
       <c r="B58" s="39">
         <f>'201202'!B58+'201203'!B58+'201204'!B58+'201205'!B58+'201206'!B58+'201207'!B58+'201208'!B58+'201209'!B58+'201210'!B58+'201211'!B58+'201212'!B58</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" s="36">
         <f>'201202'!C58+'201203'!C58+'201204'!C58+'201205'!C58+'201206'!C58+'201207'!C58+'201208'!C58+'201209'!C58+'201210'!C58+'201211'!C58+'201212'!C58</f>
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="D58" s="36">
         <f>'201202'!D58+'201203'!D58+'201204'!D58+'201205'!D58+'201206'!D58+'201207'!D58+'201208'!D58+'201209'!D58+'201210'!D58+'201211'!D58+'201212'!D58</f>
-        <v>51.878811612364231</v>
+        <v>55.316311612364231</v>
       </c>
       <c r="E58" s="36">
         <f t="shared" si="3"/>
-        <v>43.878811612364231</v>
+        <v>46.316311612364231</v>
       </c>
       <c r="F58" s="18">
         <v>45</v>
@@ -19246,12 +19316,12 @@
       </c>
       <c r="H58" s="36">
         <f t="shared" si="4"/>
-        <v>8.8788116123642311</v>
+        <v>11.316311612364231</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -19376,7 +19446,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" s="39">
         <f>'201202'!B63+'201203'!B63+'201204'!B63+'201205'!B63+'201206'!B63+'201207'!B63+'201208'!B63+'201209'!B63+'201210'!B63+'201211'!B63+'201212'!B63</f>
@@ -19406,7 +19476,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B64" s="39">
         <f>'201202'!B64+'201203'!B64+'201204'!B64+'201205'!B64+'201206'!B64+'201207'!B64+'201208'!B64+'201209'!B64+'201210'!B64+'201211'!B64+'201212'!B64</f>
@@ -19436,7 +19506,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" s="39">
         <f>'201202'!B65+'201203'!B65+'201204'!B65+'201205'!B65+'201206'!B65+'201207'!B65+'201208'!B65+'201209'!B65+'201210'!B65+'201211'!B65+'201212'!B65</f>
@@ -19466,7 +19536,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" s="39">
         <f>'201202'!B66+'201203'!B66+'201204'!B66+'201205'!B66+'201206'!B66+'201207'!B66+'201208'!B66+'201209'!B66+'201210'!B66+'201211'!B66+'201212'!B66</f>
@@ -19496,7 +19566,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" s="39">
         <f>'201202'!B67+'201203'!B67+'201204'!B67+'201205'!B67+'201206'!B67+'201207'!B67+'201208'!B67+'201209'!B67+'201210'!B67+'201211'!B67+'201212'!B67</f>
@@ -19556,29 +19626,29 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" s="39">
         <f>'201202'!B69+'201203'!B69+'201204'!B69+'201205'!B69+'201206'!B69+'201207'!B69+'201208'!B69+'201209'!B69+'201210'!B69+'201211'!B69+'201212'!B69</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" s="36">
         <f>'201202'!C69+'201203'!C69+'201204'!C69+'201205'!C69+'201206'!C69+'201207'!C69+'201208'!C69+'201209'!C69+'201210'!C69+'201211'!C69+'201212'!C69</f>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D69" s="36">
         <f>'201202'!D69+'201203'!D69+'201204'!D69+'201205'!D69+'201206'!D69+'201207'!D69+'201208'!D69+'201209'!D69+'201210'!D69+'201211'!D69+'201212'!D69</f>
-        <v>12.008771929824562</v>
+        <v>15.446271929824562</v>
       </c>
       <c r="E69" s="36">
         <f t="shared" si="5"/>
-        <v>9.0087719298245617</v>
+        <v>11.446271929824562</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="36">
         <f t="shared" si="4"/>
-        <v>9.0087719298245617</v>
+        <v>11.446271929824562</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="1"/>
@@ -19586,7 +19656,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B70" s="39">
         <f>'201202'!B70+'201203'!B70+'201204'!B70+'201205'!B70+'201206'!B70+'201207'!B70+'201208'!B70+'201209'!B70+'201210'!B70+'201211'!B70+'201212'!B70</f>
@@ -20619,12 +20689,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20662,8 +20745,8 @@
         <v>113</v>
       </c>
       <c r="B2" s="39">
-        <f>SUM(B3:B45)</f>
-        <v>185</v>
+        <f>SUM(B3:B47)</f>
+        <v>288</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="42" t="s">
@@ -20677,13 +20760,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
-        <v>41067</v>
-      </c>
-      <c r="B3" s="39">
-        <v>-20</v>
+        <v>41072</v>
+      </c>
+      <c r="B3" s="1">
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D3" s="14">
         <v>40948</v>
@@ -20695,13 +20778,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
-        <v>41067</v>
-      </c>
-      <c r="B4" s="39">
-        <v>35</v>
+        <v>41072</v>
+      </c>
+      <c r="B4" s="1">
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D4" s="14">
         <v>40952</v>
@@ -20713,13 +20796,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
-        <v>41065</v>
-      </c>
-      <c r="B5" s="39">
-        <v>-40</v>
+        <v>41067</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D5" s="14">
         <v>40960</v>
@@ -20731,13 +20814,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
-        <v>41065</v>
-      </c>
-      <c r="B6" s="39">
-        <v>30</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>137</v>
+        <v>41067</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="D6" s="14">
         <v>40967</v>
@@ -20749,13 +20832,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
-        <v>41060</v>
-      </c>
-      <c r="B7" s="39">
-        <v>-10</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>125</v>
+        <v>41065</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D7" s="14">
         <v>40970</v>
@@ -20767,13 +20850,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
-        <v>41060</v>
-      </c>
-      <c r="B8" s="39">
-        <v>130</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>126</v>
+        <v>41065</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>136</v>
       </c>
       <c r="D8" s="14">
         <v>40974</v>
@@ -20785,12 +20868,12 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
-        <v>41058</v>
+        <v>41060</v>
       </c>
       <c r="B9" s="1">
-        <v>195</v>
-      </c>
-      <c r="C9" s="43" t="s">
+        <v>-10</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>124</v>
       </c>
       <c r="D9" s="14">
@@ -20803,13 +20886,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
-        <v>41058</v>
+        <v>41060</v>
       </c>
       <c r="B10" s="1">
-        <v>-205</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>125</v>
       </c>
       <c r="D10" s="14">
         <v>40983</v>
@@ -20826,10 +20909,10 @@
         <v>41058</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>195</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>123</v>
       </c>
       <c r="D11" s="14">
         <v>40983</v>
@@ -20843,12 +20926,14 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
-        <v>40941</v>
+        <v>41058</v>
       </c>
       <c r="B12" s="1">
-        <v>160</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>-205</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" s="14">
         <v>40988</v>
       </c>
@@ -20859,12 +20944,14 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
-        <v>40946</v>
+        <v>41058</v>
       </c>
       <c r="B13" s="1">
-        <v>60</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D13" s="14">
         <v>40990</v>
       </c>
@@ -20875,14 +20962,12 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
-        <v>40972</v>
+        <v>40941</v>
       </c>
       <c r="B14" s="1">
-        <v>-70</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="14">
         <v>40990</v>
       </c>
@@ -20895,14 +20980,12 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
-        <v>40981</v>
+        <v>40946</v>
       </c>
       <c r="B15" s="1">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="14">
         <v>40995</v>
       </c>
@@ -20913,13 +20996,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
-        <v>40981</v>
+        <v>40972</v>
       </c>
       <c r="B16" s="1">
-        <v>-120</v>
+        <v>-70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D16" s="14">
         <v>40995</v>
@@ -20932,9 +21015,15 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="14">
+        <v>40981</v>
+      </c>
+      <c r="B17" s="1">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D17" s="14">
         <v>40997</v>
       </c>
@@ -20946,9 +21035,15 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="14">
+        <v>40981</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-120</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D18" s="14">
         <v>40999</v>
       </c>
@@ -21416,6 +21511,16 @@
       <c r="A58" s="14"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="14"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="14"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21426,10 +21531,1461 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="6.875" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11">
+        <f>SUM(D9:D200)</f>
+        <v>-65</v>
+      </c>
+      <c r="E2" s="11">
+        <f>SUM(E9:E200)</f>
+        <v>25</v>
+      </c>
+      <c r="F2" s="11">
+        <f>SUM(F9:F200)</f>
+        <v>-20</v>
+      </c>
+      <c r="G2" s="11">
+        <f>SUM(G9:G200)</f>
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="str">
+        <f>member!A9</f>
+        <v>守候幸福</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
+        <f t="shared" ref="D9:D40" si="0">SUM(E9:AD9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="str">
+        <f>member!A10</f>
+        <v>李一刀</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>-10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="str">
+        <f>member!A11</f>
+        <v>咣咣地跟屁蟲</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="str">
+        <f>member!A12</f>
+        <v>Oo内拉祖里oO</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="str">
+        <f>member!A13</f>
+        <v>幸福~拂晓</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="str">
+        <f>member!A14</f>
+        <v>蚕豆</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="str">
+        <f>member!A15</f>
+        <v>who cares?</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="str">
+        <f>member!A16</f>
+        <v>幸福~彩票</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="str">
+        <f>member!A17</f>
+        <v>清道夫</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11">
+        <v>20</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="str">
+        <f>member!A18</f>
+        <v>老A</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="str">
+        <f>member!A19</f>
+        <v>狐狸</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="str">
+        <f>member!A20</f>
+        <v>腿子</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="str">
+        <f>member!A21</f>
+        <v>smile</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="str">
+        <f>member!A22</f>
+        <v>小贝</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="str">
+        <f>member!A23</f>
+        <v>11号-鲜明</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="str">
+        <f>member!A24</f>
+        <v>狐狸~涛</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="str">
+        <f>member!A25</f>
+        <v>侯盟</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-10</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="str">
+        <f>member!A26</f>
+        <v>玖伍贰壹</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="str">
+        <f>member!A27</f>
+        <v>红色F50-超</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="str">
+        <f>member!A28</f>
+        <v>活了</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="str">
+        <f>member!A29</f>
+        <v>天赐</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="str">
+        <f>member!A30</f>
+        <v>Shenghak</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="str">
+        <f>member!A31</f>
+        <v>红色6号</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="str">
+        <f>member!A32</f>
+        <v>微笑</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="str">
+        <f>member!A33</f>
+        <v>77号-更心</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="str">
+        <f>member!A34</f>
+        <v>更心朋友</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="str">
+        <f>member!A35</f>
+        <v>8号-菜菜亮</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="str">
+        <f>member!A36</f>
+        <v>杨光朋友</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="str">
+        <f>member!A37</f>
+        <v>拂晓朋友</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="str">
+        <f>member!A38</f>
+        <v>4号-许多</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="str">
+        <f>member!A39</f>
+        <v>5号-正</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
+        <v>-10</v>
+      </c>
+      <c r="G39" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="str">
+        <f>member!A40</f>
+        <v>勇敢的爬爬</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="str">
+        <f>member!A41</f>
+        <v>17号-4号字母</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11">
+        <f t="shared" ref="D41:D70" si="1">SUM(E41:AD41)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="str">
+        <f>member!A42</f>
+        <v>雷雨</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="str">
+        <f>member!A43</f>
+        <v>西北偏北</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="str">
+        <f>member!A44</f>
+        <v>红色8号</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="str">
+        <f>member!A45</f>
+        <v>马耳他</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="11" t="str">
+        <f>member!A46</f>
+        <v>Cindy~陈猛</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="str">
+        <f>member!A47</f>
+        <v>张硕</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="str">
+        <f>member!A48</f>
+        <v>Violin</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="str">
+        <f>member!A49</f>
+        <v>87号陈磊</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="11" t="str">
+        <f>member!A50</f>
+        <v>水中阳光</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="11" t="str">
+        <f>member!A51</f>
+        <v>sam</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="11" t="str">
+        <f>member!A52</f>
+        <v>26 方亚</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="11" t="str">
+        <f>member!A53</f>
+        <v>维尼</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="11" t="str">
+        <f>member!A54</f>
+        <v>0号--张家宁</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="11" t="str">
+        <f>member!A55</f>
+        <v>泰山</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="11" t="str">
+        <f>member!A56</f>
+        <v>尚峰</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="11" t="str">
+        <f>member!A57</f>
+        <v>杨光</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="11" t="str">
+        <f>member!A58</f>
+        <v>小磊</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="11" t="str">
+        <f>member!A59</f>
+        <v>绿洲</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="11" t="str">
+        <f>member!A60</f>
+        <v>孙伟</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="11" t="str">
+        <f>member!A61</f>
+        <v>古轮木</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="str">
+        <f>member!A62</f>
+        <v>makoko</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="str">
+        <f>member!A63</f>
+        <v>玲-深蓝</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="11" t="str">
+        <f>member!A64</f>
+        <v>玲-小马</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="11" t="str">
+        <f>member!A65</f>
+        <v>玲-高</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="11" t="str">
+        <f>member!A66</f>
+        <v>玲-秦</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="11" t="str">
+        <f>member!A67</f>
+        <v>玲-手</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="11" t="str">
+        <f>member!A68</f>
+        <v>度日</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="11" t="str">
+        <f>member!A69</f>
+        <v>肖飞</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="11" t="str">
+        <f>member!A70</f>
+        <v>玲-大马</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="11" t="str">
+        <f>member!A71</f>
+        <v>新</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="11" t="str">
+        <f>member!A72</f>
+        <v>新</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="11" t="str">
+        <f>member!A73</f>
+        <v>新</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="11" t="str">
+        <f>member!A74</f>
+        <v>新</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="11" t="str">
+        <f>member!A75</f>
+        <v>新</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="11" t="str">
+        <f>member!A76</f>
+        <v>新</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="11" t="str">
+        <f>member!A77</f>
+        <v>新</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="11" t="str">
+        <f>member!A78</f>
+        <v>新</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="11" t="str">
+        <f>member!A79</f>
+        <v>新</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="11" t="str">
+        <f>member!A80</f>
+        <v>新</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="11" t="str">
+        <f>member!A81</f>
+        <v>新</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="11" t="str">
+        <f>member!A82</f>
+        <v>新</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="11" t="str">
+        <f>member!A83</f>
+        <v>新</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="11" t="str">
+        <f>member!A84</f>
+        <v>新</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="11" t="str">
+        <f>member!A85</f>
+        <v>新</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="11" t="str">
+        <f>member!A86</f>
+        <v>新</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" s="11" t="str">
+        <f>member!A87</f>
+        <v>新</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" s="11" t="str">
+        <f>member!A88</f>
+        <v>新</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="11" t="str">
+        <f>member!A89</f>
+        <v>新</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" s="11" t="str">
+        <f>member!A90</f>
+        <v>新</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="11" t="str">
+        <f>member!A91</f>
+        <v>新</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" s="11" t="str">
+        <f>member!A92</f>
+        <v>新</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" s="11" t="str">
+        <f>member!A93</f>
+        <v>新</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" s="11" t="str">
+        <f>member!A94</f>
+        <v>新</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="11" t="str">
+        <f>member!A95</f>
+        <v>新</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" s="11" t="str">
+        <f>member!A96</f>
+        <v>新</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" s="11" t="str">
+        <f>member!A97</f>
+        <v>新</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" s="11" t="str">
+        <f>member!A98</f>
+        <v>新</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" s="11" t="str">
+        <f>member!A99</f>
+        <v>新</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" s="11" t="str">
+        <f>member!A100</f>
+        <v>新</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24549,7 +26105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
@@ -26561,7 +28117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
@@ -28662,7 +30218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M100"/>
   <sheetViews>
@@ -31824,12 +33380,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31837,9 +33393,10 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="7" t="s">
         <v>35</v>
@@ -31854,16 +33411,19 @@
         <v>41065</v>
       </c>
       <c r="F1" s="5">
-        <v>41065</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>41067</v>
+      </c>
+      <c r="G1" s="5">
+        <v>41072</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="33">
         <f>SUM(B9:B100)</f>
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="35"/>
@@ -31875,8 +33435,12 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="33">
+        <f t="shared" ref="G2" si="1">COUNT(G9:G100)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -31889,27 +33453,34 @@
       <c r="F3" s="20">
         <v>345</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="20">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="34">
         <f>SUM(E4:T4)</f>
-        <v>780</v>
+        <v>1180</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="32">
-        <f t="shared" ref="E4:F4" si="1">E2*E7</f>
+        <f t="shared" ref="E4:F4" si="2">E2*E7</f>
         <v>400</v>
       </c>
       <c r="F4" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>380</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="32">
+        <f t="shared" ref="G4" si="3">G2*G7</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -31917,18 +33488,22 @@
       <c r="C5" s="34"/>
       <c r="D5" s="35">
         <f>SUM(E5:T5)</f>
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="E5" s="32">
-        <f t="shared" ref="E5:F5" si="2">E4-E3</f>
+        <f t="shared" ref="E5:F5" si="4">E4-E3</f>
         <v>30</v>
       </c>
       <c r="F5" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="32">
+        <f t="shared" ref="G5" si="5">G4-G3</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -31936,15 +33511,19 @@
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
       <c r="E6" s="32">
-        <f t="shared" ref="E6:F6" si="3">E3/E2</f>
+        <f t="shared" ref="E6:F6" si="6">E3/E2</f>
         <v>18.5</v>
       </c>
       <c r="F6" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="32">
+        <f t="shared" ref="G6" si="7">G3/G2</f>
+        <v>21.5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -31957,8 +33536,11 @@
       <c r="F7" s="20">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -31966,43 +33548,50 @@
       <c r="C8" s="34"/>
       <c r="D8" s="36"/>
       <c r="E8" s="32">
-        <f t="shared" ref="E8:F8" si="4">E7-E6</f>
+        <f t="shared" ref="E8:F8" si="8">E7-E6</f>
         <v>1.5</v>
       </c>
       <c r="F8" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8421052631578938</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="32">
+        <f t="shared" ref="G8" si="9">G7-G6</f>
+        <v>3.4375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="str">
         <f>member!A9</f>
         <v>守候幸福</v>
       </c>
       <c r="B9" s="34">
-        <f t="shared" ref="B9:B72" si="5">COUNT(E9:T9)</f>
-        <v>1</v>
+        <f t="shared" ref="B9:B72" si="10">COUNT(E9:T9)</f>
+        <v>2</v>
       </c>
       <c r="C9" s="34">
         <f>E7*E9+F7*F9+G7*G9+H7*H9+I7*I9+J7*J9+K7*K9+L7*L9+M7*M9+N7*N9+O7*O9+P7*P9+Q7*Q9+R7*R9+S7*S9+T7*T9</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D9" s="36">
         <f>E8*E9+F8*F9+G8*G9+H8*H9+I8*I9+J8*J9+K8*K9+L8*L9+M8*M9+O8*O9+P8*P9+Q8*Q9+R8*R9+S8*S9+T8*T9</f>
-        <v>1.5</v>
+        <v>4.9375</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="str">
         <f>member!A10</f>
         <v>李一刀</v>
       </c>
       <c r="B10" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C10" s="34">
@@ -32017,14 +33606,15 @@
         <v>1</v>
       </c>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="str">
         <f>member!A11</f>
         <v>咣咣地跟屁蟲</v>
       </c>
       <c r="B11" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C11" s="34">
@@ -32039,14 +33629,15 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="str">
         <f>member!A12</f>
         <v>Oo内拉祖里oO</v>
       </c>
       <c r="B12" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C12" s="34">
@@ -32059,36 +33650,40 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="str">
         <f>member!A13</f>
         <v>幸福~拂晓</v>
       </c>
       <c r="B13" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="C13" s="34">
         <f>E7*E13+F7*F13+G7*G13+H7*H13+I7*I13+J7*J13+K7*K13+L7*L13+M7*M13+N7*N13+O7*O13+P7*P13+Q7*Q13+R7*R13+S7*S13+T7*T13</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D13" s="36">
         <f>E8*E13+F8*F13+G8*G13+H8*H13+I8*I13+J8*J13+K8*K13+L8*L13+M8*M13+O8*O13+P8*P13+Q8*Q13+R8*R13+S8*S13+T8*T13</f>
-        <v>1.5</v>
+        <v>4.9375</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="str">
         <f>member!A14</f>
         <v>蚕豆</v>
       </c>
       <c r="B14" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C14" s="34">
@@ -32103,14 +33698,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="str">
         <f>member!A15</f>
         <v>who cares?</v>
       </c>
       <c r="B15" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C15" s="34">
@@ -32123,14 +33719,15 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="str">
         <f>member!A16</f>
         <v>幸福~彩票</v>
       </c>
       <c r="B16" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C16" s="34">
@@ -32143,58 +33740,65 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="str">
         <f>member!A17</f>
         <v>清道夫</v>
       </c>
       <c r="B17" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="C17" s="34">
         <f>E7*E17+F7*F17+G7*G17+H7*H17+I7*I17+J7*J17+K7*K17+L7*L17+M7*M17+O7*O17+P7*P17+Q7*Q17+R7*R17+S7*S17+T7*T17</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D17" s="36">
         <f>E8*E17+F8*F17+G8*G17+H8*H17+I8*I17+J8*J17+K8*K17+L8*L17+M8*M17+O8*O17+P8*P17+Q8*Q17+R8*R17+S8*S17+T8*T17</f>
-        <v>1.5</v>
+        <v>4.9375</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="str">
         <f>member!A18</f>
         <v>老A</v>
       </c>
       <c r="B18" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="C18" s="34">
         <f>E7*E18+F7*F18+G7*G18+H7*H18+I7*I18+J7*J18+K7*K18+L7*L18+M7*M18+O7*O18+P7*P18+Q7*Q18+R7*R18+S7*S18+T7*T18</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D18" s="36">
         <f>E8*E18+F8*F18+G8*G18+H8*H18+I8*I18+J8*J18+K8*K18+L8*L18+M8*M18+O8*O18+P8*P18+Q8*Q18+R8*R18+S8*S18+T8*T18</f>
-        <v>1.5</v>
+        <v>4.9375</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="str">
         <f>member!A19</f>
         <v>狐狸</v>
       </c>
       <c r="B19" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="C19" s="34">
@@ -32211,14 +33815,15 @@
       <c r="F19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="str">
         <f>member!A20</f>
         <v>腿子</v>
       </c>
       <c r="B20" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C20" s="34">
@@ -32231,14 +33836,15 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="str">
         <f>member!A21</f>
         <v>smile</v>
       </c>
       <c r="B21" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C21" s="34">
@@ -32253,14 +33859,15 @@
         <v>1</v>
       </c>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="str">
         <f>member!A22</f>
         <v>小贝</v>
       </c>
       <c r="B22" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C22" s="34">
@@ -32273,36 +33880,40 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="str">
         <f>member!A23</f>
         <v>11号-鲜明</v>
       </c>
       <c r="B23" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="C23" s="34">
         <f>E7*E23+F7*F23+G7*G23+H7*H23+I7*I23+J7*J23+K7*K23+L7*L23+M7*M23+O7*O23+P7*P23+Q7*Q23+R7*R23+S7*S23+T7*T23</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D23" s="36">
         <f>E8*E23+F8*F23+G8*G23+H8*H23+I8*I23+J8*J23+K8*K23+L8*L23+M8*M23+O8*O23+P8*P23+Q8*Q23+R8*R23+S8*S23+T8*T23</f>
-        <v>1.5</v>
+        <v>4.9375</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="str">
         <f>member!A24</f>
         <v>狐狸~涛</v>
       </c>
       <c r="B24" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C24" s="34">
@@ -32315,14 +33926,15 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="str">
         <f>member!A25</f>
         <v>侯盟</v>
       </c>
       <c r="B25" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="C25" s="34">
@@ -32339,45 +33951,49 @@
       <c r="F25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="str">
         <f>member!A26</f>
         <v>玖伍贰壹</v>
       </c>
       <c r="B26" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="C26" s="34">
         <f>E7*E26+F7*F26+G7*G26+H7*H26+I7*I26+J7*J26+K7*K26+L7*L26+M7*M26+O7*O26+P7*P26+Q7*Q26+R7*R26+S7*S26+T7*T26</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D26" s="36">
         <f>E8*E26+F8*F26+G8*G26+H8*H26+I8*I26+J8*J26+K8*K26+L8*L26+M8*M26+O8*O26+P8*P26+Q8*Q26+R8*R26+S8*S26+T8*T26</f>
-        <v>1.8421052631578938</v>
+        <v>5.2796052631578938</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="str">
         <f>member!A27</f>
         <v>红色F50-超</v>
       </c>
       <c r="B27" s="34">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="C27" s="34">
         <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D27" s="36">
         <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
-        <v>3.3421052631578938</v>
+        <v>6.7796052631578938</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -32385,34 +34001,40 @@
       <c r="F27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="str">
         <f>member!A28</f>
         <v>活了</v>
       </c>
       <c r="B28" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="C28" s="34">
         <f>E7*E28+F7*F28+G7*G28+H7*H28+I7*I28+J7*J28+K7*K28+L7*L28+M7*M28+O7*O28+P7*P28+Q7*Q28+R7*R28+S7*S28+T7*T28</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D28" s="36">
         <f>E8*E28+F8*F28+G8*G28+H8*H28+I8*I28+J8*J28+K8*K28+L8*L28+M8*M28+O8*O28+P8*P28+Q8*Q28+R8*R28+S8*S28+T8*T28</f>
-        <v>0</v>
+        <v>3.4375</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="str">
         <f>member!A29</f>
         <v>天赐</v>
       </c>
       <c r="B29" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C29" s="34">
@@ -32425,14 +34047,15 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="str">
         <f>member!A30</f>
         <v>Shenghak</v>
       </c>
       <c r="B30" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C30" s="34">
@@ -32447,14 +34070,15 @@
       <c r="F30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="str">
         <f>member!A31</f>
         <v>红色6号</v>
       </c>
       <c r="B31" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C31" s="34">
@@ -32467,14 +34091,15 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="str">
         <f>member!A32</f>
         <v>微笑</v>
       </c>
       <c r="B32" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C32" s="34">
@@ -32487,14 +34112,15 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="str">
         <f>member!A33</f>
         <v>77号-更心</v>
       </c>
       <c r="B33" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C33" s="34">
@@ -32509,14 +34135,15 @@
         <v>1</v>
       </c>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="str">
         <f>member!A34</f>
         <v>更心朋友</v>
       </c>
       <c r="B34" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C34" s="34">
@@ -32529,36 +34156,40 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="str">
         <f>member!A35</f>
         <v>8号-菜菜亮</v>
       </c>
       <c r="B35" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="C35" s="34">
         <f>E7*E35+F7*F35+G7*G35+H7*H35+I7*I35+J7*J35+K7*K35+L7*L35+M7*M35+O7*O35+P7*P35+Q7*Q35+R7*R35+S7*S35+T7*T35</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D35" s="36">
         <f>E8*E35+F8*F35+G8*G35+H8*H35+I8*I35+J8*J35+K8*K35+L8*L35+M8*M35+O8*O35+P8*P35+Q8*Q35+R8*R35+S8*S35+T8*T35</f>
-        <v>1.5</v>
+        <v>4.9375</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="str">
         <f>member!A36</f>
         <v>杨光朋友</v>
       </c>
       <c r="B36" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C36" s="34">
@@ -32571,14 +34202,15 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="str">
         <f>member!A37</f>
         <v>拂晓朋友</v>
       </c>
       <c r="B37" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C37" s="34">
@@ -32591,14 +34223,15 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="str">
         <f>member!A38</f>
         <v>4号-许多</v>
       </c>
       <c r="B38" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C38" s="34">
@@ -32611,36 +34244,40 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="str">
         <f>member!A39</f>
         <v>5号-正</v>
       </c>
       <c r="B39" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="C39" s="34">
         <f>E7*E39+F7*F39+G7*G39+H7*H39+I7*I39+J7*J39+K7*K39+L7*L39+M7*M39+O7*O39+P7*P39+Q7*Q39+R7*R39+S7*S39+T7*T39</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D39" s="36">
         <f>E8*E39+F8*F39+G8*G39+H8*H39+I8*I39+J8*J39+K8*K39+L8*L39+M8*M39+O8*O39+P8*P39+Q8*Q39+R8*R39+S8*S39+T8*T39</f>
-        <v>1.5</v>
+        <v>4.9375</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="str">
         <f>member!A40</f>
         <v>勇敢的爬爬</v>
       </c>
       <c r="B40" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C40" s="34">
@@ -32653,14 +34290,15 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="str">
         <f>member!A41</f>
         <v>17号-4号字母</v>
       </c>
       <c r="B41" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C41" s="34">
@@ -32675,14 +34313,15 @@
       <c r="F41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="str">
         <f>member!A42</f>
         <v>雷雨</v>
       </c>
       <c r="B42" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C42" s="34">
@@ -32695,36 +34334,40 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="str">
         <f>member!A43</f>
         <v>西北偏北</v>
       </c>
       <c r="B43" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="C43" s="34">
         <f>E7*E43+F7*F43+G7*G43+H7*H43+I7*I43+J7*J43+K7*K43+L7*L43+M7*M43+O7*O43+P7*P43+Q7*Q43+R7*R43+S7*S43+T7*T43</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D43" s="36">
         <f>E8*E43+F8*F43+G8*G43+H8*H43+I8*I43+J8*J43+K8*K43+L8*L43+M8*M43+O8*O43+P8*P43+Q8*Q43+R8*R43+S8*S43+T8*T43</f>
-        <v>1.5</v>
+        <v>4.9375</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="str">
         <f>member!A44</f>
         <v>红色8号</v>
       </c>
       <c r="B44" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C44" s="34">
@@ -32737,14 +34380,15 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="str">
         <f>member!A45</f>
         <v>马耳他</v>
       </c>
       <c r="B45" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C45" s="34">
@@ -32759,36 +34403,40 @@
         <v>1</v>
       </c>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="str">
         <f>member!A46</f>
         <v>Cindy~陈猛</v>
       </c>
       <c r="B46" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="C46" s="34">
         <f>E7*E46+F7*F46+G7*G46+H7*H46+I7*I46+J7*J46+K7*K46+L7*L46+M7*M46+O7*O46+P7*P46+Q7*Q46+R7*R46+S7*S46+T7*T46</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D46" s="36">
         <f>E8*E46+F8*F46+G8*G46+H8*H46+I8*I46+J8*J46+K8*K46+L8*L46+M8*M46+O8*O46+P8*P46+Q8*Q46+R8*R46+S8*S46+T8*T46</f>
-        <v>1.5</v>
+        <v>4.9375</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="str">
         <f>member!A47</f>
         <v>张硕</v>
       </c>
       <c r="B47" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C47" s="34">
@@ -32803,14 +34451,15 @@
       <c r="F47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="str">
         <f>member!A48</f>
         <v>Violin</v>
       </c>
       <c r="B48" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C48" s="34">
@@ -32823,14 +34472,15 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="str">
         <f>member!A49</f>
         <v>87号陈磊</v>
       </c>
       <c r="B49" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C49" s="34">
@@ -32845,14 +34495,15 @@
       <c r="F49" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="str">
         <f>member!A50</f>
         <v>水中阳光</v>
       </c>
       <c r="B50" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C50" s="34">
@@ -32865,56 +34516,63 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="str">
         <f>member!A51</f>
         <v>sam</v>
       </c>
       <c r="B51" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="C51" s="34">
         <f>E7*E51+F7*F51+G7*G51+H7*H51+I7*I51+J7*J51+K7*K51+L7*L51+M7*M51+O7*O51+P7*P51+Q7*Q51+R7*R51+S7*S51+T7*T51</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D51" s="36">
         <f>E8*E51+F8*F51+G8*G51+H8*H51+I8*I51+J8*J51+K8*K51+L8*L51+M8*M51+O8*O51+P8*P51+Q8*Q51+R8*R51+S8*S51+T8*T51</f>
-        <v>0</v>
+        <v>3.4375</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="str">
         <f>member!A52</f>
         <v>26 方亚</v>
       </c>
       <c r="B52" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="C52" s="34">
         <f>E7*E52+F7*F52+G7*G52+H7*H52+I7*I52+J7*J52+K7*K52+L7*L52+M7*M52+O7*O52+P7*P52+Q7*Q52+R7*R52+S7*S52+T7*T52</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D52" s="36">
         <f>E8*E52+F8*F52+G8*G52+H8*H52+I8*I52+J8*J52+K8*K52+L8*L52+M8*M52+O8*O52+P8*P52+Q8*Q52+R8*R52+S8*S52+T8*T52</f>
-        <v>1.8421052631578938</v>
+        <v>5.2796052631578938</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="str">
         <f>member!A53</f>
         <v>维尼</v>
       </c>
       <c r="B53" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C53" s="34">
@@ -32927,14 +34585,15 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="str">
         <f>member!A54</f>
         <v>0号--张家宁</v>
       </c>
       <c r="B54" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C54" s="34">
@@ -32947,14 +34606,15 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="str">
         <f>member!A55</f>
         <v>泰山</v>
       </c>
       <c r="B55" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C55" s="34">
@@ -32967,14 +34627,15 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="str">
         <f>member!A56</f>
         <v>尚峰</v>
       </c>
       <c r="B56" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C56" s="34">
@@ -32989,14 +34650,15 @@
         <v>1</v>
       </c>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="str">
         <f>member!A57</f>
         <v>杨光</v>
       </c>
       <c r="B57" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C57" s="34">
@@ -33009,23 +34671,24 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="str">
         <f>member!A58</f>
         <v>小磊</v>
       </c>
       <c r="B58" s="34">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="C58" s="34">
         <f>E7*E58+F7*F58+G7*G58+H7*H58+I7*I58+J7*J58+K7*K58+L7*L58+M7*M58+O7*O58+P7*P58+Q7*Q58+R7*R58+S7*S58+T7*T58</f>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D58" s="36">
         <f>E8*E58+F8*F58+G8*G58+H8*H58+I8*I58+J8*J58+K8*K58+L8*L58+M8*M58+O8*O58+P8*P58+Q8*Q58+R8*R58+S8*S58+T8*T58</f>
-        <v>3.3421052631578938</v>
+        <v>6.7796052631578938</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -33033,14 +34696,17 @@
       <c r="F58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="str">
         <f>member!A59</f>
         <v>绿洲</v>
       </c>
       <c r="B59" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C59" s="34">
@@ -33053,14 +34719,15 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="str">
         <f>member!A60</f>
         <v>孙伟</v>
       </c>
       <c r="B60" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C60" s="34">
@@ -33073,14 +34740,15 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="str">
         <f>member!A61</f>
         <v>古轮木</v>
       </c>
       <c r="B61" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C61" s="34">
@@ -33095,14 +34763,15 @@
       <c r="F61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="str">
         <f>member!A62</f>
         <v>makoko</v>
       </c>
       <c r="B62" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C62" s="34">
@@ -33117,14 +34786,15 @@
       <c r="F62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="11" t="str">
         <f>member!A63</f>
         <v>玲-深蓝</v>
       </c>
       <c r="B63" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C63" s="34">
@@ -33139,14 +34809,15 @@
       <c r="F63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="str">
         <f>member!A64</f>
         <v>玲-小马</v>
       </c>
       <c r="B64" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C64" s="34">
@@ -33161,14 +34832,15 @@
       <c r="F64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="11" t="str">
         <f>member!A65</f>
         <v>玲-高</v>
       </c>
       <c r="B65" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C65" s="34">
@@ -33181,14 +34853,15 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="str">
         <f>member!A66</f>
         <v>玲-秦</v>
       </c>
       <c r="B66" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C66" s="34">
@@ -33201,14 +34874,15 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="11" t="str">
         <f>member!A67</f>
         <v>玲-手</v>
       </c>
       <c r="B67" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C67" s="34">
@@ -33223,14 +34897,15 @@
       <c r="F67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="str">
         <f>member!A68</f>
         <v>度日</v>
       </c>
       <c r="B68" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C68" s="34">
@@ -33245,23 +34920,24 @@
       <c r="F68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="11" t="str">
         <f>member!A69</f>
         <v>肖飞</v>
       </c>
       <c r="B69" s="34">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="C69" s="34">
         <f>E7*E69+F7*F69+G7*G69+H7*H69+I7*I69+J7*J69+K7*K69+L7*L69+M7*M69+N7*N69+O7*O69+P7*P69+Q7*Q69+R7*R69+S7*S69+T7*T69</f>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D69" s="36">
         <f>E8*E69+F8*F69+G8*G69+H8*H69+I8*I69+J8*J69+K8*K69+L8*L69+M8*M69+N8*N69+O8*O69+P8*P69+Q8*Q69+R8*R69+S8*S69+T8*T69</f>
-        <v>3.3421052631578938</v>
+        <v>6.7796052631578938</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -33269,14 +34945,17 @@
       <c r="F69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="11" t="str">
         <f>member!A70</f>
         <v>玲-大马</v>
       </c>
       <c r="B70" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C70" s="34">
@@ -33291,14 +34970,15 @@
       <c r="F70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="str">
         <f>member!A71</f>
         <v>新</v>
       </c>
       <c r="B71" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C71" s="34">
@@ -33311,14 +34991,15 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="str">
         <f>member!A72</f>
         <v>新</v>
       </c>
       <c r="B72" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C72" s="34">
@@ -33331,14 +35012,15 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="str">
         <f>member!A73</f>
         <v>新</v>
       </c>
       <c r="B73" s="34">
-        <f t="shared" ref="B73:B100" si="6">COUNT(E73:T73)</f>
+        <f t="shared" ref="B73:B100" si="11">COUNT(E73:T73)</f>
         <v>0</v>
       </c>
       <c r="C73" s="34">
@@ -33351,14 +35033,15 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="str">
         <f>member!A74</f>
         <v>新</v>
       </c>
       <c r="B74" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C74" s="34">
@@ -33371,14 +35054,15 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="11" t="str">
         <f>member!A75</f>
         <v>新</v>
       </c>
       <c r="B75" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C75" s="34">
@@ -33391,14 +35075,15 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="str">
         <f>member!A76</f>
         <v>新</v>
       </c>
       <c r="B76" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C76" s="34">
@@ -33411,14 +35096,15 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="11" t="str">
         <f>member!A77</f>
         <v>新</v>
       </c>
       <c r="B77" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C77" s="34">
@@ -33431,14 +35117,15 @@
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="str">
         <f>member!A78</f>
         <v>新</v>
       </c>
       <c r="B78" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C78" s="34">
@@ -33451,14 +35138,15 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="str">
         <f>member!A79</f>
         <v>新</v>
       </c>
       <c r="B79" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C79" s="34">
@@ -33471,14 +35159,15 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="str">
         <f>member!A80</f>
         <v>新</v>
       </c>
       <c r="B80" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C80" s="34">
@@ -33491,14 +35180,15 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="11" t="str">
         <f>member!A81</f>
         <v>新</v>
       </c>
       <c r="B81" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C81" s="34">
@@ -33511,14 +35201,15 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="11" t="str">
         <f>member!A82</f>
         <v>新</v>
       </c>
       <c r="B82" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C82" s="34">
@@ -33531,14 +35222,15 @@
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="11" t="str">
         <f>member!A83</f>
         <v>新</v>
       </c>
       <c r="B83" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C83" s="34">
@@ -33551,14 +35243,15 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="str">
         <f>member!A84</f>
         <v>新</v>
       </c>
       <c r="B84" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C84" s="34">
@@ -33571,14 +35264,15 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="11" t="str">
         <f>member!A85</f>
         <v>新</v>
       </c>
       <c r="B85" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C85" s="34">
@@ -33591,14 +35285,15 @@
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="str">
         <f>member!A86</f>
         <v>新</v>
       </c>
       <c r="B86" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C86" s="34">
@@ -33611,14 +35306,15 @@
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="11" t="str">
         <f>member!A87</f>
         <v>新</v>
       </c>
       <c r="B87" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C87" s="34">
@@ -33631,14 +35327,15 @@
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="str">
         <f>member!A88</f>
         <v>新</v>
       </c>
       <c r="B88" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C88" s="34">
@@ -33651,14 +35348,15 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="11" t="str">
         <f>member!A89</f>
         <v>新</v>
       </c>
       <c r="B89" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C89" s="34">
@@ -33671,14 +35369,15 @@
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="11" t="str">
         <f>member!A90</f>
         <v>新</v>
       </c>
       <c r="B90" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C90" s="34">
@@ -33691,14 +35390,15 @@
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="11" t="str">
         <f>member!A91</f>
         <v>新</v>
       </c>
       <c r="B91" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C91" s="34">
@@ -33711,14 +35411,15 @@
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="11" t="str">
         <f>member!A92</f>
         <v>新</v>
       </c>
       <c r="B92" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C92" s="34">
@@ -33731,14 +35432,15 @@
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="11" t="str">
         <f>member!A93</f>
         <v>新</v>
       </c>
       <c r="B93" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C93" s="34">
@@ -33751,14 +35453,15 @@
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="11" t="str">
         <f>member!A94</f>
         <v>新</v>
       </c>
       <c r="B94" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C94" s="34">
@@ -33771,14 +35474,15 @@
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="str">
         <f>member!A95</f>
         <v>新</v>
       </c>
       <c r="B95" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C95" s="34">
@@ -33791,14 +35495,15 @@
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="11" t="str">
         <f>member!A96</f>
         <v>新</v>
       </c>
       <c r="B96" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C96" s="34">
@@ -33811,14 +35516,15 @@
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="str">
         <f>member!A97</f>
         <v>新</v>
       </c>
       <c r="B97" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C97" s="34">
@@ -33831,14 +35537,15 @@
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="11" t="str">
         <f>member!A98</f>
         <v>新</v>
       </c>
       <c r="B98" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C98" s="34">
@@ -33851,14 +35558,15 @@
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="str">
         <f>member!A99</f>
         <v>新</v>
       </c>
       <c r="B99" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C99" s="34">
@@ -33871,14 +35579,15 @@
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="11" t="str">
         <f>member!A100</f>
         <v>新</v>
       </c>
       <c r="B100" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C100" s="34">
@@ -33891,6 +35600,7 @@
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -33899,7 +35609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -33912,17 +35622,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="160">
   <si>
     <t>守候幸福</t>
   </si>
@@ -650,6 +650,39 @@
     <t>未交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>尚峰6.12 12</t>
+  </si>
+  <si>
+    <t>清道夫待给</t>
+  </si>
+  <si>
+    <t>小磊待给</t>
+  </si>
+  <si>
+    <t>坎：超菜赐峰盟笑尼明活2虫更贝豆SM狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">活了12*2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀外甥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14*30-320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1163,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD101"/>
+  <dimension ref="A1:XFD111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1223,19 +1256,19 @@
       </c>
       <c r="B2" s="37">
         <f t="shared" ref="B2:J2" si="0">SUM(B9:B100)</f>
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="C2" s="36">
         <f t="shared" si="0"/>
-        <v>15410</v>
+        <v>15830</v>
       </c>
       <c r="D2" s="38">
         <f t="shared" si="0"/>
-        <v>3695.0000000000009</v>
+        <v>3795.0000000000009</v>
       </c>
       <c r="E2" s="36">
         <f t="shared" si="0"/>
-        <v>3151</v>
+        <v>3237.0000000000009</v>
       </c>
       <c r="F2" s="36">
         <f t="shared" si="0"/>
@@ -1244,7 +1277,7 @@
       <c r="G2" s="36"/>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
-        <v>1168.9999999999995</v>
+        <v>1254.9999999999995</v>
       </c>
       <c r="I2" s="38">
         <f t="shared" si="0"/>
@@ -1282,7 +1315,7 @@
       </c>
       <c r="I4" s="40">
         <f>H2+I2</f>
-        <v>1223.9999999999995</v>
+        <v>1309.9999999999995</v>
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
@@ -17718,19 +17751,19 @@
       </c>
       <c r="B9" s="39">
         <f>'201202'!B9+'201203'!B9+'201204'!B9+'201205'!B9+'201206'!B9+'201207'!B9+'201208'!B9+'201209'!B9+'201210'!B9+'201211'!B9+'201212'!B9</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="36">
         <f>'201202'!C9+'201203'!C9+'201204'!C9+'201205'!C9+'201206'!C9+'201207'!C9+'201208'!C9+'201209'!C9+'201210'!C9+'201211'!C9+'201212'!C9</f>
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="D9" s="36">
         <f>'201202'!D9+'201203'!D9+'201204'!D9+'201205'!D9+'201206'!D9+'201207'!D9+'201208'!D9+'201209'!D9+'201210'!D9+'201211'!D9+'201212'!D9</f>
-        <v>91.275488400488399</v>
+        <v>98.418345543345538</v>
       </c>
       <c r="E9" s="36">
         <f t="shared" ref="E9:E40" si="1">D9-B9</f>
-        <v>77.275488400488399</v>
+        <v>83.418345543345538</v>
       </c>
       <c r="F9" s="18">
         <v>55</v>
@@ -17738,7 +17771,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="36">
         <f t="shared" ref="H9:H40" si="2">E9-F9+G9</f>
-        <v>22.275488400488399</v>
+        <v>28.418345543345538</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="1"/>
@@ -17750,19 +17783,19 @@
       </c>
       <c r="B10" s="39">
         <f>'201202'!B10+'201203'!B10+'201204'!B10+'201205'!B10+'201206'!B10+'201207'!B10+'201208'!B10+'201209'!B10+'201210'!B10+'201211'!B10+'201212'!B10</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="36">
         <f>'201202'!C10+'201203'!C10+'201204'!C10+'201205'!C10+'201206'!C10+'201207'!C10+'201208'!C10+'201209'!C10+'201210'!C10+'201211'!C10+'201212'!C10</f>
-        <v>810</v>
+        <v>840</v>
       </c>
       <c r="D10" s="36">
         <f>'201202'!D10+'201203'!D10+'201204'!D10+'201205'!D10+'201206'!D10+'201207'!D10+'201208'!D10+'201209'!D10+'201210'!D10+'201211'!D10+'201212'!D10</f>
-        <v>193.66692371955529</v>
+        <v>200.80978086241242</v>
       </c>
       <c r="E10" s="36">
         <f t="shared" si="1"/>
-        <v>165.66692371955529</v>
+        <v>171.80978086241242</v>
       </c>
       <c r="F10" s="18">
         <v>160</v>
@@ -17770,7 +17803,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="36">
         <f t="shared" si="2"/>
-        <v>5.6669237195552853</v>
+        <v>11.809780862412424</v>
       </c>
       <c r="I10" s="18">
         <v>10</v>
@@ -17788,19 +17821,19 @@
       </c>
       <c r="B11" s="39">
         <f>'201202'!B11+'201203'!B11+'201204'!B11+'201205'!B11+'201206'!B11+'201207'!B11+'201208'!B11+'201209'!B11+'201210'!B11+'201211'!B11+'201212'!B11</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="36">
         <f>'201202'!C11+'201203'!C11+'201204'!C11+'201205'!C11+'201206'!C11+'201207'!C11+'201208'!C11+'201209'!C11+'201210'!C11+'201211'!C11+'201212'!C11</f>
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="D11" s="36">
         <f>'201202'!D11+'201203'!D11+'201204'!D11+'201205'!D11+'201206'!D11+'201207'!D11+'201208'!D11+'201209'!D11+'201210'!D11+'201211'!D11+'201212'!D11</f>
-        <v>193.36227989846407</v>
+        <v>200.50513704132121</v>
       </c>
       <c r="E11" s="36">
         <f t="shared" si="1"/>
-        <v>164.36227989846407</v>
+        <v>170.50513704132121</v>
       </c>
       <c r="F11" s="18">
         <v>155</v>
@@ -17808,7 +17841,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="36">
         <f t="shared" si="2"/>
-        <v>9.3622798984640667</v>
+        <v>15.505137041321206</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="1"/>
@@ -17850,19 +17883,19 @@
       </c>
       <c r="B13" s="39">
         <f>'201202'!B13+'201203'!B13+'201204'!B13+'201205'!B13+'201206'!B13+'201207'!B13+'201208'!B13+'201209'!B13+'201210'!B13+'201211'!B13+'201212'!B13</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="36">
         <f>'201202'!C13+'201203'!C13+'201204'!C13+'201205'!C13+'201206'!C13+'201207'!C13+'201208'!C13+'201209'!C13+'201210'!C13+'201211'!C13+'201212'!C13</f>
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="D13" s="36">
         <f>'201202'!D13+'201203'!D13+'201204'!D13+'201205'!D13+'201206'!D13+'201207'!D13+'201208'!D13+'201209'!D13+'201210'!D13+'201211'!D13+'201212'!D13</f>
-        <v>143.91493959257116</v>
+        <v>151.0577967354283</v>
       </c>
       <c r="E13" s="36">
         <f t="shared" si="1"/>
-        <v>119.91493959257116</v>
+        <v>126.0577967354283</v>
       </c>
       <c r="F13" s="18">
         <v>100</v>
@@ -17870,7 +17903,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="36">
         <f t="shared" si="2"/>
-        <v>19.914939592571159</v>
+        <v>26.057796735428298</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="1"/>
@@ -17882,19 +17915,19 @@
       </c>
       <c r="B14" s="39">
         <f>'201202'!B14+'201203'!B14+'201204'!B14+'201205'!B14+'201206'!B14+'201207'!B14+'201208'!B14+'201209'!B14+'201210'!B14+'201211'!B14+'201212'!B14</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="36">
         <f>'201202'!C14+'201203'!C14+'201204'!C14+'201205'!C14+'201206'!C14+'201207'!C14+'201208'!C14+'201209'!C14+'201210'!C14+'201211'!C14+'201212'!C14</f>
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="D14" s="36">
         <f>'201202'!D14+'201203'!D14+'201204'!D14+'201205'!D14+'201206'!D14+'201207'!D14+'201208'!D14+'201209'!D14+'201210'!D14+'201211'!D14+'201212'!D14</f>
-        <v>213.93615448878606</v>
+        <v>221.0790116316432</v>
       </c>
       <c r="E14" s="36">
         <f t="shared" si="1"/>
-        <v>182.93615448878606</v>
+        <v>189.0790116316432</v>
       </c>
       <c r="F14" s="18">
         <v>135</v>
@@ -17902,7 +17935,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="36">
         <f t="shared" si="2"/>
-        <v>47.936154488786059</v>
+        <v>54.079011631643198</v>
       </c>
       <c r="I14" s="18">
         <v>5</v>
@@ -18148,19 +18181,19 @@
       </c>
       <c r="B22" s="39">
         <f>'201202'!B22+'201203'!B22+'201204'!B22+'201205'!B22+'201206'!B22+'201207'!B22+'201208'!B22+'201209'!B22+'201210'!B22+'201211'!B22+'201212'!B22</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="36">
         <f>'201202'!C22+'201203'!C22+'201204'!C22+'201205'!C22+'201206'!C22+'201207'!C22+'201208'!C22+'201209'!C22+'201210'!C22+'201211'!C22+'201212'!C22</f>
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D22" s="36">
         <f>'201202'!D22+'201203'!D22+'201204'!D22+'201205'!D22+'201206'!D22+'201207'!D22+'201208'!D22+'201209'!D22+'201210'!D22+'201211'!D22+'201212'!D22</f>
-        <v>76.188596491228083</v>
+        <v>83.331453634085221</v>
       </c>
       <c r="E22" s="36">
         <f t="shared" si="1"/>
-        <v>68.188596491228083</v>
+        <v>74.331453634085221</v>
       </c>
       <c r="F22" s="18">
         <v>30</v>
@@ -18168,7 +18201,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="36">
         <f t="shared" si="2"/>
-        <v>38.188596491228083</v>
+        <v>44.331453634085221</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="1"/>
@@ -18342,19 +18375,19 @@
       </c>
       <c r="B28" s="39">
         <f>'201202'!B28+'201203'!B28+'201204'!B28+'201205'!B28+'201206'!B28+'201207'!B28+'201208'!B28+'201209'!B28+'201210'!B28+'201211'!B28+'201212'!B28</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="36">
         <f>'201202'!C28+'201203'!C28+'201204'!C28+'201205'!C28+'201206'!C28+'201207'!C28+'201208'!C28+'201209'!C28+'201210'!C28+'201211'!C28+'201212'!C28</f>
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="D28" s="36">
         <f>'201202'!D28+'201203'!D28+'201204'!D28+'201205'!D28+'201206'!D28+'201207'!D28+'201208'!D28+'201209'!D28+'201210'!D28+'201211'!D28+'201212'!D28</f>
-        <v>112.4921679197995</v>
+        <v>119.63502506265664</v>
       </c>
       <c r="E28" s="36">
         <f t="shared" si="1"/>
-        <v>98.492167919799499</v>
+        <v>104.63502506265664</v>
       </c>
       <c r="F28" s="18">
         <v>75</v>
@@ -18362,7 +18395,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="36">
         <f t="shared" si="2"/>
-        <v>23.492167919799499</v>
+        <v>29.635025062656638</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="1"/>
@@ -18914,19 +18947,19 @@
       </c>
       <c r="B46" s="39">
         <f>'201202'!B46+'201203'!B46+'201204'!B46+'201205'!B46+'201206'!B46+'201207'!B46+'201208'!B46+'201209'!B46+'201210'!B46+'201211'!B46+'201212'!B46</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" s="36">
         <f>'201202'!C46+'201203'!C46+'201204'!C46+'201205'!C46+'201206'!C46+'201207'!C46+'201208'!C46+'201209'!C46+'201210'!C46+'201211'!C46+'201212'!C46</f>
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="D46" s="36">
         <f>'201202'!D46+'201203'!D46+'201204'!D46+'201205'!D46+'201206'!D46+'201207'!D46+'201208'!D46+'201209'!D46+'201210'!D46+'201211'!D46+'201212'!D46</f>
-        <v>128.31608669108667</v>
+        <v>135.45894383394381</v>
       </c>
       <c r="E46" s="36">
         <f t="shared" si="3"/>
-        <v>109.31608669108667</v>
+        <v>115.45894383394381</v>
       </c>
       <c r="F46" s="18">
         <v>75</v>
@@ -18934,7 +18967,7 @@
       <c r="G46" s="18"/>
       <c r="H46" s="36">
         <f t="shared" si="4"/>
-        <v>34.316086691086667</v>
+        <v>40.458943833943806</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="1"/>
@@ -19074,19 +19107,19 @@
       </c>
       <c r="B51" s="39">
         <f>'201202'!B51+'201203'!B51+'201204'!B51+'201205'!B51+'201206'!B51+'201207'!B51+'201208'!B51+'201209'!B51+'201210'!B51+'201211'!B51+'201212'!B51</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" s="36">
         <f>'201202'!C51+'201203'!C51+'201204'!C51+'201205'!C51+'201206'!C51+'201207'!C51+'201208'!C51+'201209'!C51+'201210'!C51+'201211'!C51+'201212'!C51</f>
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D51" s="36">
         <f>'201202'!D51+'201203'!D51+'201204'!D51+'201205'!D51+'201206'!D51+'201207'!D51+'201208'!D51+'201209'!D51+'201210'!D51+'201211'!D51+'201212'!D51</f>
-        <v>90.820540935672511</v>
+        <v>97.96339807852965</v>
       </c>
       <c r="E51" s="36">
         <f t="shared" si="3"/>
-        <v>77.820540935672511</v>
+        <v>83.96339807852965</v>
       </c>
       <c r="F51" s="18">
         <v>50</v>
@@ -19094,7 +19127,7 @@
       <c r="G51" s="18"/>
       <c r="H51" s="36">
         <f t="shared" si="4"/>
-        <v>27.820540935672511</v>
+        <v>33.96339807852965</v>
       </c>
       <c r="I51" s="18"/>
       <c r="J51" s="1"/>
@@ -19106,19 +19139,19 @@
       </c>
       <c r="B52" s="39">
         <f>'201202'!B52+'201203'!B52+'201204'!B52+'201205'!B52+'201206'!B52+'201207'!B52+'201208'!B52+'201209'!B52+'201210'!B52+'201211'!B52+'201212'!B52</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C52" s="36">
         <f>'201202'!C52+'201203'!C52+'201204'!C52+'201205'!C52+'201206'!C52+'201207'!C52+'201208'!C52+'201209'!C52+'201210'!C52+'201211'!C52+'201212'!C52</f>
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="D52" s="36">
         <f>'201202'!D52+'201203'!D52+'201204'!D52+'201205'!D52+'201206'!D52+'201207'!D52+'201208'!D52+'201209'!D52+'201210'!D52+'201211'!D52+'201212'!D52</f>
-        <v>118.7991693978536</v>
+        <v>125.94202654071074</v>
       </c>
       <c r="E52" s="36">
         <f t="shared" si="3"/>
-        <v>100.7991693978536</v>
+        <v>106.94202654071074</v>
       </c>
       <c r="F52" s="18">
         <v>25</v>
@@ -19126,7 +19159,7 @@
       <c r="G52" s="18"/>
       <c r="H52" s="36">
         <f t="shared" si="4"/>
-        <v>75.799169397853603</v>
+        <v>81.942026540710742</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="1"/>
@@ -19294,19 +19327,19 @@
       </c>
       <c r="B58" s="39">
         <f>'201202'!B58+'201203'!B58+'201204'!B58+'201205'!B58+'201206'!B58+'201207'!B58+'201208'!B58+'201209'!B58+'201210'!B58+'201211'!B58+'201212'!B58</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C58" s="36">
         <f>'201202'!C58+'201203'!C58+'201204'!C58+'201205'!C58+'201206'!C58+'201207'!C58+'201208'!C58+'201209'!C58+'201210'!C58+'201211'!C58+'201212'!C58</f>
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="D58" s="36">
         <f>'201202'!D58+'201203'!D58+'201204'!D58+'201205'!D58+'201206'!D58+'201207'!D58+'201208'!D58+'201209'!D58+'201210'!D58+'201211'!D58+'201212'!D58</f>
-        <v>55.316311612364231</v>
+        <v>62.459168755221377</v>
       </c>
       <c r="E58" s="36">
         <f t="shared" si="3"/>
-        <v>46.316311612364231</v>
+        <v>52.459168755221377</v>
       </c>
       <c r="F58" s="18">
         <v>45</v>
@@ -19316,7 +19349,7 @@
       </c>
       <c r="H58" s="36">
         <f t="shared" si="4"/>
-        <v>11.316311612364231</v>
+        <v>17.459168755221377</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="1"/>
@@ -19630,25 +19663,25 @@
       </c>
       <c r="B69" s="39">
         <f>'201202'!B69+'201203'!B69+'201204'!B69+'201205'!B69+'201206'!B69+'201207'!B69+'201208'!B69+'201209'!B69+'201210'!B69+'201211'!B69+'201212'!B69</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C69" s="36">
         <f>'201202'!C69+'201203'!C69+'201204'!C69+'201205'!C69+'201206'!C69+'201207'!C69+'201208'!C69+'201209'!C69+'201210'!C69+'201211'!C69+'201212'!C69</f>
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D69" s="36">
         <f>'201202'!D69+'201203'!D69+'201204'!D69+'201205'!D69+'201206'!D69+'201207'!D69+'201208'!D69+'201209'!D69+'201210'!D69+'201211'!D69+'201212'!D69</f>
-        <v>15.446271929824562</v>
+        <v>22.589129072681704</v>
       </c>
       <c r="E69" s="36">
         <f t="shared" si="5"/>
-        <v>11.446271929824562</v>
+        <v>17.589129072681704</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="36">
         <f t="shared" si="4"/>
-        <v>11.446271929824562</v>
+        <v>17.589129072681704</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="1"/>
@@ -19690,25 +19723,25 @@
       </c>
       <c r="B71" s="39">
         <f>'201202'!B71+'201203'!B71+'201204'!B71+'201205'!B71+'201206'!B71+'201207'!B71+'201208'!B71+'201209'!B71+'201210'!B71+'201211'!B71+'201212'!B71</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" s="36">
         <f>'201202'!C71+'201203'!C71+'201204'!C71+'201205'!C71+'201206'!C71+'201207'!C71+'201208'!C71+'201209'!C71+'201210'!C71+'201211'!C71+'201212'!C71</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D71" s="36">
         <f>'201202'!D71+'201203'!D71+'201204'!D71+'201205'!D71+'201206'!D71+'201207'!D71+'201208'!D71+'201209'!D71+'201210'!D71+'201211'!D71+'201212'!D71</f>
-        <v>0</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="E71" s="36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.1428571428571423</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.1428571428571423</v>
       </c>
       <c r="I71" s="18"/>
       <c r="J71" s="1"/>
@@ -19720,25 +19753,25 @@
       </c>
       <c r="B72" s="39">
         <f>'201202'!B72+'201203'!B72+'201204'!B72+'201205'!B72+'201206'!B72+'201207'!B72+'201208'!B72+'201209'!B72+'201210'!B72+'201211'!B72+'201212'!B72</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="36">
         <f>'201202'!C72+'201203'!C72+'201204'!C72+'201205'!C72+'201206'!C72+'201207'!C72+'201208'!C72+'201209'!C72+'201210'!C72+'201211'!C72+'201212'!C72</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D72" s="36">
         <f>'201202'!D72+'201203'!D72+'201204'!D72+'201205'!D72+'201206'!D72+'201207'!D72+'201208'!D72+'201209'!D72+'201210'!D72+'201211'!D72+'201212'!D72</f>
-        <v>0</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="E72" s="36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.1428571428571423</v>
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="36">
         <f t="shared" ref="H72" si="6">E72-F72</f>
-        <v>0</v>
+        <v>6.1428571428571423</v>
       </c>
       <c r="I72" s="18"/>
       <c r="J72" s="1"/>
@@ -20596,6 +20629,31 @@
       <c r="I101" s="18"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -20706,8 +20764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20753,8 +20811,8 @@
         <v>1</v>
       </c>
       <c r="E2" s="39">
-        <f>SUM(E3:E45)</f>
-        <v>1390</v>
+        <f>SUM(E3:E47)</f>
+        <v>1490</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -20768,12 +20826,8 @@
       <c r="C3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="14">
-        <v>40948</v>
-      </c>
-      <c r="E3" s="1">
-        <v>75</v>
-      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -20787,12 +20841,14 @@
         <v>147</v>
       </c>
       <c r="D4" s="14">
-        <v>40952</v>
+        <v>41079</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
@@ -20805,10 +20861,10 @@
         <v>138</v>
       </c>
       <c r="D5" s="14">
-        <v>40960</v>
+        <v>40948</v>
       </c>
       <c r="E5" s="1">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -20823,7 +20879,7 @@
         <v>139</v>
       </c>
       <c r="D6" s="14">
-        <v>40967</v>
+        <v>40952</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -20841,10 +20897,10 @@
         <v>126</v>
       </c>
       <c r="D7" s="14">
-        <v>40970</v>
+        <v>40960</v>
       </c>
       <c r="E7" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -20859,10 +20915,10 @@
         <v>136</v>
       </c>
       <c r="D8" s="14">
-        <v>40974</v>
+        <v>40967</v>
       </c>
       <c r="E8" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -20877,10 +20933,10 @@
         <v>124</v>
       </c>
       <c r="D9" s="14">
-        <v>40976</v>
+        <v>40970</v>
       </c>
       <c r="E9" s="1">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -20895,14 +20951,12 @@
         <v>125</v>
       </c>
       <c r="D10" s="14">
-        <v>40983</v>
+        <v>40974</v>
       </c>
       <c r="E10" s="1">
-        <v>90</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
@@ -20915,14 +20969,12 @@
         <v>123</v>
       </c>
       <c r="D11" s="14">
-        <v>40983</v>
+        <v>40976</v>
       </c>
       <c r="E11" s="1">
-        <v>-60</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
@@ -20935,12 +20987,14 @@
         <v>122</v>
       </c>
       <c r="D12" s="14">
-        <v>40988</v>
+        <v>40983</v>
       </c>
       <c r="E12" s="1">
-        <v>50</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
@@ -20953,12 +21007,14 @@
         <v>117</v>
       </c>
       <c r="D13" s="14">
-        <v>40990</v>
+        <v>40983</v>
       </c>
       <c r="E13" s="1">
-        <v>30</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>-60</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
@@ -20969,14 +21025,12 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="14">
-        <v>40990</v>
+        <v>40988</v>
       </c>
       <c r="E14" s="1">
-        <v>-60</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
@@ -20987,10 +21041,10 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="14">
-        <v>40995</v>
+        <v>40990</v>
       </c>
       <c r="E15" s="1">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -21005,13 +21059,13 @@
         <v>49</v>
       </c>
       <c r="D16" s="14">
-        <v>40995</v>
+        <v>40990</v>
       </c>
       <c r="E16" s="1">
-        <v>-30</v>
+        <v>-60</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -21025,14 +21079,12 @@
         <v>57</v>
       </c>
       <c r="D17" s="14">
-        <v>40997</v>
+        <v>40995</v>
       </c>
       <c r="E17" s="1">
-        <v>50</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
@@ -21045,13 +21097,13 @@
         <v>58</v>
       </c>
       <c r="D18" s="14">
-        <v>40999</v>
+        <v>40995</v>
       </c>
       <c r="E18" s="1">
-        <v>20</v>
+        <v>-30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -21059,13 +21111,13 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="14">
-        <v>41004</v>
+        <v>40997</v>
       </c>
       <c r="E19" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -21073,13 +21125,13 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="14">
-        <v>41009</v>
+        <v>40999</v>
       </c>
       <c r="E20" s="1">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -21087,13 +21139,13 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="14">
-        <v>41009</v>
+        <v>41004</v>
       </c>
       <c r="E21" s="1">
-        <v>-60</v>
+        <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -21104,10 +21156,10 @@
         <v>41009</v>
       </c>
       <c r="E22" s="1">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -21115,13 +21167,13 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="14">
-        <v>41011</v>
+        <v>41009</v>
       </c>
       <c r="E23" s="1">
-        <v>170</v>
+        <v>-60</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -21129,13 +21181,13 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="14">
-        <v>41011</v>
+        <v>41009</v>
       </c>
       <c r="E24" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -21146,10 +21198,10 @@
         <v>41011</v>
       </c>
       <c r="E25" s="1">
-        <v>-30</v>
+        <v>170</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -21157,13 +21209,13 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="14">
-        <v>41016</v>
+        <v>41011</v>
       </c>
       <c r="E26" s="1">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -21171,13 +21223,13 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="14">
-        <v>41016</v>
+        <v>41011</v>
       </c>
       <c r="E27" s="1">
-        <v>-150</v>
+        <v>-30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -21185,13 +21237,13 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="14">
-        <v>41018</v>
+        <v>41016</v>
       </c>
       <c r="E28" s="1">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -21199,13 +21251,13 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="14">
-        <v>41018</v>
+        <v>41016</v>
       </c>
       <c r="E29" s="1">
-        <v>-75</v>
+        <v>-150</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -21213,13 +21265,13 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="14">
-        <v>41023</v>
+        <v>41018</v>
       </c>
       <c r="E30" s="1">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -21227,13 +21279,13 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="14">
-        <v>41025</v>
+        <v>41018</v>
       </c>
       <c r="E31" s="1">
-        <v>200</v>
+        <v>-75</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -21241,13 +21293,13 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="14">
-        <v>41025</v>
+        <v>41023</v>
       </c>
       <c r="E32" s="1">
-        <v>-180</v>
+        <v>200</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -21255,13 +21307,13 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="14">
-        <v>41032</v>
+        <v>41025</v>
       </c>
       <c r="E33" s="1">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -21269,13 +21321,13 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="14">
-        <v>41037</v>
+        <v>41025</v>
       </c>
       <c r="E34" s="1">
-        <v>195</v>
+        <v>-180</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -21283,13 +21335,13 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="14">
-        <v>41039</v>
+        <v>41032</v>
       </c>
       <c r="E35" s="1">
-        <v>285</v>
+        <v>140</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -21297,13 +21349,13 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="14">
-        <v>41044</v>
+        <v>41037</v>
       </c>
       <c r="E36" s="1">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -21311,13 +21363,13 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="14">
-        <v>41044</v>
+        <v>41039</v>
       </c>
       <c r="E37" s="1">
-        <v>-90</v>
+        <v>285</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -21325,13 +21377,13 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="14">
-        <v>41046</v>
+        <v>41044</v>
       </c>
       <c r="E38" s="1">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -21339,13 +21391,13 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="14">
-        <v>41046</v>
+        <v>41044</v>
       </c>
       <c r="E39" s="1">
-        <v>-320</v>
+        <v>-90</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -21353,13 +21405,13 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="14">
-        <v>41051</v>
+        <v>41046</v>
       </c>
       <c r="E40" s="1">
-        <v>55</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>108</v>
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -21367,13 +21419,13 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="14">
-        <v>41051</v>
+        <v>41046</v>
       </c>
       <c r="E41" s="1">
-        <v>-350</v>
+        <v>-320</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -21381,13 +21433,13 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="14">
-        <v>41053</v>
+        <v>41051</v>
       </c>
       <c r="E42" s="1">
-        <v>15</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>110</v>
+        <v>55</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -21395,13 +21447,13 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="14">
-        <v>41053</v>
+        <v>41051</v>
       </c>
       <c r="E43" s="1">
-        <v>-300</v>
+        <v>-350</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -21412,27 +21464,39 @@
         <v>41053</v>
       </c>
       <c r="E44" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="D45" s="14">
+        <v>41053</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-300</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="D46" s="14">
+        <v>41053</v>
+      </c>
+      <c r="E46" s="1">
+        <v>25</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
@@ -21486,11 +21550,17 @@
       <c r="A53" s="14"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="14"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="14"/>
@@ -33382,10 +33452,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33393,10 +33463,10 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="7" t="s">
         <v>35</v>
@@ -33416,14 +33486,17 @@
       <c r="G1" s="5">
         <v>41072</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="5">
+        <v>41079</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="33">
         <f>SUM(B9:B100)</f>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="35"/>
@@ -33436,11 +33509,15 @@
         <v>19</v>
       </c>
       <c r="G2" s="33">
-        <f t="shared" ref="G2" si="1">COUNT(G9:G100)</f>
+        <f t="shared" ref="G2:H2" si="1">COUNT(G9:G100)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" s="33">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -33456,15 +33533,18 @@
       <c r="G3" s="20">
         <v>345</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" s="20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="34">
         <f>SUM(E4:T4)</f>
-        <v>1180</v>
+        <v>1600</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="32">
@@ -33476,11 +33556,15 @@
         <v>380</v>
       </c>
       <c r="G4" s="32">
-        <f t="shared" ref="G4" si="3">G2*G7</f>
+        <f t="shared" ref="G4:H4" si="3">G2*G7</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4" s="32">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -33488,7 +33572,7 @@
       <c r="C5" s="34"/>
       <c r="D5" s="35">
         <f>SUM(E5:T5)</f>
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="E5" s="32">
         <f t="shared" ref="E5:F5" si="4">E4-E3</f>
@@ -33499,11 +33583,15 @@
         <v>35</v>
       </c>
       <c r="G5" s="32">
-        <f t="shared" ref="G5" si="5">G4-G3</f>
+        <f t="shared" ref="G5:H5" si="5">G4-G3</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H5" s="32">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -33519,11 +33607,15 @@
         <v>18.157894736842106</v>
       </c>
       <c r="G6" s="32">
-        <f t="shared" ref="G6" si="7">G3/G2</f>
+        <f t="shared" ref="G6:H6" si="7">G3/G2</f>
         <v>21.5625</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H6" s="32">
+        <f t="shared" si="7"/>
+        <v>22.857142857142858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -33539,8 +33631,11 @@
       <c r="G7" s="20">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -33556,26 +33651,30 @@
         <v>1.8421052631578938</v>
       </c>
       <c r="G8" s="32">
-        <f t="shared" ref="G8" si="9">G7-G6</f>
+        <f t="shared" ref="G8:H8" si="9">G7-G6</f>
         <v>3.4375</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8" s="32">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="str">
         <f>member!A9</f>
         <v>守候幸福</v>
       </c>
       <c r="B9" s="34">
         <f t="shared" ref="B9:B72" si="10">COUNT(E9:T9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="34">
         <f>E7*E9+F7*F9+G7*G9+H7*H9+I7*I9+J7*J9+K7*K9+L7*L9+M7*M9+N7*N9+O7*O9+P7*P9+Q7*Q9+R7*R9+S7*S9+T7*T9</f>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D9" s="36">
         <f>E8*E9+F8*F9+G8*G9+H8*H9+I8*I9+J8*J9+K8*K9+L8*L9+M8*M9+O8*O9+P8*P9+Q8*Q9+R8*R9+S8*S9+T8*T9</f>
-        <v>4.9375</v>
+        <v>12.080357142857142</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -33584,54 +33683,63 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="str">
         <f>member!A10</f>
         <v>李一刀</v>
       </c>
       <c r="B10" s="34">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="34">
         <f>E7*E10+F7*F10+G7*G10+H7*H10+I7*I10+J7*J10+K7*K10+L7*L10+M7*M10+N7*N10+O7*O10+P7*P10+Q7*Q10+R7*R10+S7*S10+T7*T10</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D10" s="36">
         <f>E8*E10+F8*F10+G8*G10+H8*H10+I8*I10+J8*J10+K8*K10+L8*L10+M8*M10+O8*O10+P8*P10+Q8*Q10+R8*R10+S8*S10+T8*T10</f>
-        <v>1.5</v>
+        <v>8.6428571428571423</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="str">
         <f>member!A11</f>
         <v>咣咣地跟屁蟲</v>
       </c>
       <c r="B11" s="34">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="34">
         <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+N7*N11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D11" s="36">
         <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
-        <v>1.8421052631578938</v>
+        <v>8.9849624060150362</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="str">
         <f>member!A12</f>
         <v>Oo内拉祖里oO</v>
@@ -33651,23 +33759,24 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="str">
         <f>member!A13</f>
         <v>幸福~拂晓</v>
       </c>
       <c r="B13" s="34">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="34">
         <f>E7*E13+F7*F13+G7*G13+H7*H13+I7*I13+J7*J13+K7*K13+L7*L13+M7*M13+N7*N13+O7*O13+P7*P13+Q7*Q13+R7*R13+S7*S13+T7*T13</f>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D13" s="36">
         <f>E8*E13+F8*F13+G8*G13+H8*H13+I8*I13+J8*J13+K8*K13+L8*L13+M8*M13+O8*O13+P8*P13+Q8*Q13+R8*R13+S8*S13+T8*T13</f>
-        <v>4.9375</v>
+        <v>12.080357142857142</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -33676,31 +33785,37 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="str">
         <f>member!A14</f>
         <v>蚕豆</v>
       </c>
       <c r="B14" s="34">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="34">
         <f>E7*E14+F7*F14+G7*G14+H7*H14+I7*I14+J7*J14+K7*K14+L7*L14+M7*M14+N7*N14+O7*O14+P7*P14+Q7*Q14+R7*R14+S7*S14+T7*T14</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D14" s="36">
         <f>E8*E14+F8*F14+G8*G14+H8*H14+I8*I14+J8*J14+K8*K14+L8*L14+M8*M14+O8*O14+P8*P14+Q8*Q14+R8*R14+S8*S14+T8*T14</f>
-        <v>1.5</v>
+        <v>8.6428571428571423</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="str">
         <f>member!A15</f>
         <v>who cares?</v>
@@ -33720,8 +33835,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="str">
         <f>member!A16</f>
         <v>幸福~彩票</v>
@@ -33741,8 +33857,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="str">
         <f>member!A17</f>
         <v>清道夫</v>
@@ -33766,8 +33883,9 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="str">
         <f>member!A18</f>
         <v>老A</v>
@@ -33791,8 +33909,9 @@
       <c r="G18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="str">
         <f>member!A19</f>
         <v>狐狸</v>
@@ -33816,8 +33935,9 @@
         <v>1</v>
       </c>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="str">
         <f>member!A20</f>
         <v>腿子</v>
@@ -33837,8 +33957,9 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="str">
         <f>member!A21</f>
         <v>smile</v>
@@ -33860,29 +33981,33 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="str">
         <f>member!A22</f>
         <v>小贝</v>
       </c>
       <c r="B22" s="34">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="34">
         <f>E7*E22+F7*F22+G7*G22+H7*H22+I7*I22+J7*J22+K7*K22+L7*L22+M7*M22+O7*O22+P7*P22+Q7*Q22+R7*R22+S7*S22+T7*T22</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D22" s="36">
         <f>E8*E22+F8*F22+G8*G22+H8*H22+I8*I22+J8*J22+K8*K22+L8*L22+M8*M22+O8*O22+P8*P22+Q8*Q22+R8*R22+S8*S22+T8*T22</f>
-        <v>0</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="str">
         <f>member!A23</f>
         <v>11号-鲜明</v>
@@ -33906,8 +34031,9 @@
       <c r="G23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="str">
         <f>member!A24</f>
         <v>狐狸~涛</v>
@@ -33927,8 +34053,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="str">
         <f>member!A25</f>
         <v>侯盟</v>
@@ -33952,8 +34079,9 @@
         <v>1</v>
       </c>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="str">
         <f>member!A26</f>
         <v>玖伍贰壹</v>
@@ -33977,8 +34105,9 @@
       <c r="G26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="str">
         <f>member!A27</f>
         <v>红色F50-超</v>
@@ -34004,31 +34133,35 @@
       <c r="G27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="str">
         <f>member!A28</f>
         <v>活了</v>
       </c>
       <c r="B28" s="34">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="34">
         <f>E7*E28+F7*F28+G7*G28+H7*H28+I7*I28+J7*J28+K7*K28+L7*L28+M7*M28+O7*O28+P7*P28+Q7*Q28+R7*R28+S7*S28+T7*T28</f>
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D28" s="36">
         <f>E8*E28+F8*F28+G8*G28+H8*H28+I8*I28+J8*J28+K8*K28+L8*L28+M8*M28+O8*O28+P8*P28+Q8*Q28+R8*R28+S8*S28+T8*T28</f>
-        <v>3.4375</v>
+        <v>10.580357142857142</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="str">
         <f>member!A29</f>
         <v>天赐</v>
@@ -34048,8 +34181,9 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="str">
         <f>member!A30</f>
         <v>Shenghak</v>
@@ -34071,8 +34205,9 @@
         <v>1</v>
       </c>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="str">
         <f>member!A31</f>
         <v>红色6号</v>
@@ -34092,8 +34227,9 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="str">
         <f>member!A32</f>
         <v>微笑</v>
@@ -34113,8 +34249,9 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="str">
         <f>member!A33</f>
         <v>77号-更心</v>
@@ -34136,8 +34273,9 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="str">
         <f>member!A34</f>
         <v>更心朋友</v>
@@ -34157,8 +34295,9 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="str">
         <f>member!A35</f>
         <v>8号-菜菜亮</v>
@@ -34182,8 +34321,9 @@
       <c r="G35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="str">
         <f>member!A36</f>
         <v>杨光朋友</v>
@@ -34203,8 +34343,9 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="str">
         <f>member!A37</f>
         <v>拂晓朋友</v>
@@ -34224,8 +34365,9 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="str">
         <f>member!A38</f>
         <v>4号-许多</v>
@@ -34245,8 +34387,9 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="str">
         <f>member!A39</f>
         <v>5号-正</v>
@@ -34270,8 +34413,9 @@
       <c r="G39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="str">
         <f>member!A40</f>
         <v>勇敢的爬爬</v>
@@ -34291,8 +34435,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="str">
         <f>member!A41</f>
         <v>17号-4号字母</v>
@@ -34314,8 +34459,9 @@
         <v>1</v>
       </c>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="str">
         <f>member!A42</f>
         <v>雷雨</v>
@@ -34335,8 +34481,9 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="str">
         <f>member!A43</f>
         <v>西北偏北</v>
@@ -34360,8 +34507,9 @@
       <c r="G43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="str">
         <f>member!A44</f>
         <v>红色8号</v>
@@ -34381,8 +34529,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="str">
         <f>member!A45</f>
         <v>马耳他</v>
@@ -34404,23 +34553,24 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="str">
         <f>member!A46</f>
         <v>Cindy~陈猛</v>
       </c>
       <c r="B46" s="34">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" s="34">
         <f>E7*E46+F7*F46+G7*G46+H7*H46+I7*I46+J7*J46+K7*K46+L7*L46+M7*M46+O7*O46+P7*P46+Q7*Q46+R7*R46+S7*S46+T7*T46</f>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D46" s="36">
         <f>E8*E46+F8*F46+G8*G46+H8*H46+I8*I46+J8*J46+K8*K46+L8*L46+M8*M46+O8*O46+P8*P46+Q8*Q46+R8*R46+S8*S46+T8*T46</f>
-        <v>4.9375</v>
+        <v>12.080357142857142</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
@@ -34429,8 +34579,11 @@
       <c r="G46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="str">
         <f>member!A47</f>
         <v>张硕</v>
@@ -34452,8 +34605,9 @@
         <v>1</v>
       </c>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="str">
         <f>member!A48</f>
         <v>Violin</v>
@@ -34473,8 +34627,9 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="str">
         <f>member!A49</f>
         <v>87号陈磊</v>
@@ -34496,8 +34651,9 @@
         <v>1</v>
       </c>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="str">
         <f>member!A50</f>
         <v>水中阳光</v>
@@ -34517,46 +34673,50 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="str">
         <f>member!A51</f>
         <v>sam</v>
       </c>
       <c r="B51" s="34">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="34">
         <f>E7*E51+F7*F51+G7*G51+H7*H51+I7*I51+J7*J51+K7*K51+L7*L51+M7*M51+O7*O51+P7*P51+Q7*Q51+R7*R51+S7*S51+T7*T51</f>
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D51" s="36">
         <f>E8*E51+F8*F51+G8*G51+H8*H51+I8*I51+J8*J51+K8*K51+L8*L51+M8*M51+O8*O51+P8*P51+Q8*Q51+R8*R51+S8*S51+T8*T51</f>
-        <v>3.4375</v>
+        <v>10.580357142857142</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="str">
         <f>member!A52</f>
         <v>26 方亚</v>
       </c>
       <c r="B52" s="34">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" s="34">
         <f>E7*E52+F7*F52+G7*G52+H7*H52+I7*I52+J7*J52+K7*K52+L7*L52+M7*M52+O7*O52+P7*P52+Q7*Q52+R7*R52+S7*S52+T7*T52</f>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D52" s="36">
         <f>E8*E52+F8*F52+G8*G52+H8*H52+I8*I52+J8*J52+K8*K52+L8*L52+M8*M52+O8*O52+P8*P52+Q8*Q52+R8*R52+S8*S52+T8*T52</f>
-        <v>5.2796052631578938</v>
+        <v>12.422462406015036</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2">
@@ -34565,8 +34725,11 @@
       <c r="G52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="str">
         <f>member!A53</f>
         <v>维尼</v>
@@ -34586,8 +34749,9 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="str">
         <f>member!A54</f>
         <v>0号--张家宁</v>
@@ -34607,8 +34771,9 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="str">
         <f>member!A55</f>
         <v>泰山</v>
@@ -34628,8 +34793,9 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="str">
         <f>member!A56</f>
         <v>尚峰</v>
@@ -34651,8 +34817,9 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="str">
         <f>member!A57</f>
         <v>杨光</v>
@@ -34672,23 +34839,24 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="str">
         <f>member!A58</f>
         <v>小磊</v>
       </c>
       <c r="B58" s="34">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" s="34">
         <f>E7*E58+F7*F58+G7*G58+H7*H58+I7*I58+J7*J58+K7*K58+L7*L58+M7*M58+O7*O58+P7*P58+Q7*Q58+R7*R58+S7*S58+T7*T58</f>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D58" s="36">
         <f>E8*E58+F8*F58+G8*G58+H8*H58+I8*I58+J8*J58+K8*K58+L8*L58+M8*M58+O8*O58+P8*P58+Q8*Q58+R8*R58+S8*S58+T8*T58</f>
-        <v>6.7796052631578938</v>
+        <v>13.922462406015036</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -34699,8 +34867,11 @@
       <c r="G58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="str">
         <f>member!A59</f>
         <v>绿洲</v>
@@ -34720,8 +34891,9 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="str">
         <f>member!A60</f>
         <v>孙伟</v>
@@ -34741,8 +34913,9 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="str">
         <f>member!A61</f>
         <v>古轮木</v>
@@ -34764,8 +34937,9 @@
         <v>1</v>
       </c>
       <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="str">
         <f>member!A62</f>
         <v>makoko</v>
@@ -34787,8 +34961,9 @@
         <v>1</v>
       </c>
       <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="11" t="str">
         <f>member!A63</f>
         <v>玲-深蓝</v>
@@ -34810,8 +34985,9 @@
         <v>1</v>
       </c>
       <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="str">
         <f>member!A64</f>
         <v>玲-小马</v>
@@ -34833,8 +35009,9 @@
         <v>1</v>
       </c>
       <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="11" t="str">
         <f>member!A65</f>
         <v>玲-高</v>
@@ -34854,8 +35031,9 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="str">
         <f>member!A66</f>
         <v>玲-秦</v>
@@ -34875,8 +35053,9 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="11" t="str">
         <f>member!A67</f>
         <v>玲-手</v>
@@ -34898,8 +35077,9 @@
         <v>1</v>
       </c>
       <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="str">
         <f>member!A68</f>
         <v>度日</v>
@@ -34921,23 +35101,24 @@
         <v>1</v>
       </c>
       <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="11" t="str">
         <f>member!A69</f>
         <v>肖飞</v>
       </c>
       <c r="B69" s="34">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" s="34">
         <f>E7*E69+F7*F69+G7*G69+H7*H69+I7*I69+J7*J69+K7*K69+L7*L69+M7*M69+N7*N69+O7*O69+P7*P69+Q7*Q69+R7*R69+S7*S69+T7*T69</f>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D69" s="36">
         <f>E8*E69+F8*F69+G8*G69+H8*H69+I8*I69+J8*J69+K8*K69+L8*L69+M8*M69+N8*N69+O8*O69+P8*P69+Q8*Q69+R8*R69+S8*S69+T8*T69</f>
-        <v>6.7796052631578938</v>
+        <v>13.922462406015036</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -34948,8 +35129,11 @@
       <c r="G69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="11" t="str">
         <f>member!A70</f>
         <v>玲-大马</v>
@@ -34971,53 +35155,57 @@
         <v>1</v>
       </c>
       <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="11" t="str">
-        <f>member!A71</f>
-        <v>新</v>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="B71" s="34">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" s="34">
         <f>E7*E71+F7*F71+G7*G71+H7*H71+I7*I71+J7*J71+K7*K71+L7*L71+M7*M71+N7*N71+O7*O71+P7*P71+Q7*Q71+R7*R71+S7*S71+T7*T71</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D71" s="36">
         <f>E8*E71+F8*F71+G8*G71+H8*H71+I8*I71+J8*J71+K8*K71+L8*L71+M8*M71+N8*N71+O8*O71+P8*P71+Q8*Q71+R8*R71+S8*S71+T8*T71</f>
-        <v>0</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="11" t="str">
-        <f>member!A72</f>
-        <v>新</v>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="B72" s="34">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="34">
         <f>E7*E72+F7*F72+G7*G72+H7*H72+I7*I72+J7*J72+K7*K72+L7*L72+M7*M72+N7*N72+O7*O72+P7*P72+Q7*Q72+R7*R72+S7*S72+T7*T72</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D72" s="36">
         <f>E8*E72+F8*F72+G8*G72+H8*H72+I8*I72+J8*J72+K8*K72+L8*L72+M8*M72+N8*N72+O8*O72+P8*P72+Q8*Q72+R8*R72+S8*S72+T8*T72</f>
-        <v>0</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="11" t="str">
-        <f>member!A73</f>
-        <v>新</v>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="B73" s="34">
         <f t="shared" ref="B73:B100" si="11">COUNT(E73:T73)</f>
@@ -35034,8 +35222,9 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="str">
         <f>member!A74</f>
         <v>新</v>
@@ -35055,8 +35244,9 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="11" t="str">
         <f>member!A75</f>
         <v>新</v>
@@ -35076,8 +35266,9 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="str">
         <f>member!A76</f>
         <v>新</v>
@@ -35097,8 +35288,9 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="11" t="str">
         <f>member!A77</f>
         <v>新</v>
@@ -35118,8 +35310,9 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="str">
         <f>member!A78</f>
         <v>新</v>
@@ -35139,8 +35332,9 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="str">
         <f>member!A79</f>
         <v>新</v>
@@ -35160,8 +35354,9 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="str">
         <f>member!A80</f>
         <v>新</v>
@@ -35181,8 +35376,9 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="11" t="str">
         <f>member!A81</f>
         <v>新</v>
@@ -35202,8 +35398,9 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="11" t="str">
         <f>member!A82</f>
         <v>新</v>
@@ -35223,8 +35420,9 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="11" t="str">
         <f>member!A83</f>
         <v>新</v>
@@ -35244,8 +35442,9 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="str">
         <f>member!A84</f>
         <v>新</v>
@@ -35265,8 +35464,9 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="11" t="str">
         <f>member!A85</f>
         <v>新</v>
@@ -35286,8 +35486,9 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="str">
         <f>member!A86</f>
         <v>新</v>
@@ -35307,8 +35508,9 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="11" t="str">
         <f>member!A87</f>
         <v>新</v>
@@ -35328,8 +35530,9 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="str">
         <f>member!A88</f>
         <v>新</v>
@@ -35349,8 +35552,9 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="11" t="str">
         <f>member!A89</f>
         <v>新</v>
@@ -35370,8 +35574,9 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="11" t="str">
         <f>member!A90</f>
         <v>新</v>
@@ -35391,8 +35596,9 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="11" t="str">
         <f>member!A91</f>
         <v>新</v>
@@ -35412,8 +35618,9 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="11" t="str">
         <f>member!A92</f>
         <v>新</v>
@@ -35433,8 +35640,9 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="11" t="str">
         <f>member!A93</f>
         <v>新</v>
@@ -35454,8 +35662,9 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="11" t="str">
         <f>member!A94</f>
         <v>新</v>
@@ -35475,8 +35684,9 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="str">
         <f>member!A95</f>
         <v>新</v>
@@ -35496,8 +35706,9 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="11" t="str">
         <f>member!A96</f>
         <v>新</v>
@@ -35517,8 +35728,9 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="str">
         <f>member!A97</f>
         <v>新</v>
@@ -35538,8 +35750,9 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="11" t="str">
         <f>member!A98</f>
         <v>新</v>
@@ -35559,8 +35772,9 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="str">
         <f>member!A99</f>
         <v>新</v>
@@ -35580,8 +35794,9 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="11" t="str">
         <f>member!A100</f>
         <v>新</v>
@@ -35601,6 +35816,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="163">
   <si>
     <t>守候幸福</t>
   </si>
@@ -683,6 +683,31 @@
     <t>14*30-320</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13*30+20(侯盟提前走） </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>老A,sm,豆各欠30</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打雷中途结束，部分场地费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5未踢全场，只交20，其他人30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1198,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD111"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1210,7 +1235,7 @@
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.875" style="19"/>
     <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
@@ -1256,19 +1281,19 @@
       </c>
       <c r="B2" s="37">
         <f t="shared" ref="B2:J2" si="0">SUM(B9:B100)</f>
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="C2" s="36">
         <f t="shared" si="0"/>
-        <v>15830</v>
+        <v>16250</v>
       </c>
       <c r="D2" s="38">
         <f t="shared" si="0"/>
-        <v>3795.0000000000009</v>
+        <v>3975.0000000000009</v>
       </c>
       <c r="E2" s="36">
         <f t="shared" si="0"/>
-        <v>3237.0000000000009</v>
+        <v>3403.0000000000009</v>
       </c>
       <c r="F2" s="36">
         <f t="shared" si="0"/>
@@ -1277,7 +1302,7 @@
       <c r="G2" s="36"/>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
-        <v>1254.9999999999995</v>
+        <v>1410.9999999999995</v>
       </c>
       <c r="I2" s="38">
         <f t="shared" si="0"/>
@@ -1315,7 +1340,7 @@
       </c>
       <c r="I4" s="40">
         <f>H2+I2</f>
-        <v>1309.9999999999995</v>
+        <v>1465.9999999999995</v>
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
@@ -17751,19 +17776,19 @@
       </c>
       <c r="B9" s="39">
         <f>'201202'!B9+'201203'!B9+'201204'!B9+'201205'!B9+'201206'!B9+'201207'!B9+'201208'!B9+'201209'!B9+'201210'!B9+'201211'!B9+'201212'!B9</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="36">
         <f>'201202'!C9+'201203'!C9+'201204'!C9+'201205'!C9+'201206'!C9+'201207'!C9+'201208'!C9+'201209'!C9+'201210'!C9+'201211'!C9+'201212'!C9</f>
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="D9" s="36">
         <f>'201202'!D9+'201203'!D9+'201204'!D9+'201205'!D9+'201206'!D9+'201207'!D9+'201208'!D9+'201209'!D9+'201210'!D9+'201211'!D9+'201212'!D9</f>
-        <v>98.418345543345538</v>
+        <v>111.2754884004884</v>
       </c>
       <c r="E9" s="36">
         <f t="shared" ref="E9:E40" si="1">D9-B9</f>
-        <v>83.418345543345538</v>
+        <v>95.275488400488399</v>
       </c>
       <c r="F9" s="18">
         <v>55</v>
@@ -17771,7 +17796,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="36">
         <f t="shared" ref="H9:H40" si="2">E9-F9+G9</f>
-        <v>28.418345543345538</v>
+        <v>40.275488400488399</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="1"/>
@@ -17821,19 +17846,19 @@
       </c>
       <c r="B11" s="39">
         <f>'201202'!B11+'201203'!B11+'201204'!B11+'201205'!B11+'201206'!B11+'201207'!B11+'201208'!B11+'201209'!B11+'201210'!B11+'201211'!B11+'201212'!B11</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="36">
         <f>'201202'!C11+'201203'!C11+'201204'!C11+'201205'!C11+'201206'!C11+'201207'!C11+'201208'!C11+'201209'!C11+'201210'!C11+'201211'!C11+'201212'!C11</f>
-        <v>865</v>
+        <v>895</v>
       </c>
       <c r="D11" s="36">
         <f>'201202'!D11+'201203'!D11+'201204'!D11+'201205'!D11+'201206'!D11+'201207'!D11+'201208'!D11+'201209'!D11+'201210'!D11+'201211'!D11+'201212'!D11</f>
-        <v>200.50513704132121</v>
+        <v>213.36227989846407</v>
       </c>
       <c r="E11" s="36">
         <f t="shared" si="1"/>
-        <v>170.50513704132121</v>
+        <v>182.36227989846407</v>
       </c>
       <c r="F11" s="18">
         <v>155</v>
@@ -17841,7 +17866,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="36">
         <f t="shared" si="2"/>
-        <v>15.505137041321206</v>
+        <v>27.362279898464067</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="1"/>
@@ -17915,19 +17940,19 @@
       </c>
       <c r="B14" s="39">
         <f>'201202'!B14+'201203'!B14+'201204'!B14+'201205'!B14+'201206'!B14+'201207'!B14+'201208'!B14+'201209'!B14+'201210'!B14+'201211'!B14+'201212'!B14</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="36">
         <f>'201202'!C14+'201203'!C14+'201204'!C14+'201205'!C14+'201206'!C14+'201207'!C14+'201208'!C14+'201209'!C14+'201210'!C14+'201211'!C14+'201212'!C14</f>
-        <v>930</v>
+        <v>960</v>
       </c>
       <c r="D14" s="36">
         <f>'201202'!D14+'201203'!D14+'201204'!D14+'201205'!D14+'201206'!D14+'201207'!D14+'201208'!D14+'201209'!D14+'201210'!D14+'201211'!D14+'201212'!D14</f>
-        <v>221.0790116316432</v>
+        <v>233.93615448878606</v>
       </c>
       <c r="E14" s="36">
         <f t="shared" si="1"/>
-        <v>189.0790116316432</v>
+        <v>200.93615448878606</v>
       </c>
       <c r="F14" s="18">
         <v>135</v>
@@ -17935,7 +17960,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="36">
         <f t="shared" si="2"/>
-        <v>54.079011631643198</v>
+        <v>65.936154488786059</v>
       </c>
       <c r="I14" s="18">
         <v>5</v>
@@ -18013,19 +18038,19 @@
       </c>
       <c r="B17" s="39">
         <f>'201202'!B17+'201203'!B17+'201204'!B17+'201205'!B17+'201206'!B17+'201207'!B17+'201208'!B17+'201209'!B17+'201210'!B17+'201211'!B17+'201212'!B17</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="36">
         <f>'201202'!C17+'201203'!C17+'201204'!C17+'201205'!C17+'201206'!C17+'201207'!C17+'201208'!C17+'201209'!C17+'201210'!C17+'201211'!C17+'201212'!C17</f>
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="D17" s="36">
         <f>'201202'!D17+'201203'!D17+'201204'!D17+'201205'!D17+'201206'!D17+'201207'!D17+'201208'!D17+'201209'!D17+'201210'!D17+'201211'!D17+'201212'!D17</f>
-        <v>75.395757020757017</v>
+        <v>88.252899877899878</v>
       </c>
       <c r="E17" s="36">
         <f t="shared" si="1"/>
-        <v>64.395757020757017</v>
+        <v>76.252899877899878</v>
       </c>
       <c r="F17" s="18">
         <v>45</v>
@@ -18033,7 +18058,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="36">
         <f t="shared" si="2"/>
-        <v>19.395757020757017</v>
+        <v>31.252899877899878</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="1"/>
@@ -18045,19 +18070,19 @@
       </c>
       <c r="B18" s="39">
         <f>'201202'!B18+'201203'!B18+'201204'!B18+'201205'!B18+'201206'!B18+'201207'!B18+'201208'!B18+'201209'!B18+'201210'!B18+'201211'!B18+'201212'!B18</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="36">
         <f>'201202'!C18+'201203'!C18+'201204'!C18+'201205'!C18+'201206'!C18+'201207'!C18+'201208'!C18+'201209'!C18+'201210'!C18+'201211'!C18+'201212'!C18</f>
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="D18" s="36">
         <f>'201202'!D18+'201203'!D18+'201204'!D18+'201205'!D18+'201206'!D18+'201207'!D18+'201208'!D18+'201209'!D18+'201210'!D18+'201211'!D18+'201212'!D18</f>
-        <v>82.691420056551635</v>
+        <v>95.548562913694497</v>
       </c>
       <c r="E18" s="36">
         <f t="shared" si="1"/>
-        <v>69.691420056551635</v>
+        <v>81.548562913694497</v>
       </c>
       <c r="F18" s="18">
         <v>70</v>
@@ -18065,7 +18090,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="36">
         <f t="shared" si="2"/>
-        <v>-0.3085799434483647</v>
+        <v>11.548562913694497</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="1"/>
@@ -18077,19 +18102,19 @@
       </c>
       <c r="B19" s="39">
         <f>'201202'!B19+'201203'!B19+'201204'!B19+'201205'!B19+'201206'!B19+'201207'!B19+'201208'!B19+'201209'!B19+'201210'!B19+'201211'!B19+'201212'!B19</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="36">
         <f>'201202'!C19+'201203'!C19+'201204'!C19+'201205'!C19+'201206'!C19+'201207'!C19+'201208'!C19+'201209'!C19+'201210'!C19+'201211'!C19+'201212'!C19</f>
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="D19" s="36">
         <f>'201202'!D19+'201203'!D19+'201204'!D19+'201205'!D19+'201206'!D19+'201207'!D19+'201208'!D19+'201209'!D19+'201210'!D19+'201211'!D19+'201212'!D19</f>
-        <v>139.4284429021271</v>
+        <v>152.28558575926996</v>
       </c>
       <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v>117.4284429021271</v>
+        <v>129.28558575926996</v>
       </c>
       <c r="F19" s="18">
         <v>80</v>
@@ -18097,7 +18122,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="36">
         <f t="shared" si="2"/>
-        <v>37.428442902127102</v>
+        <v>49.285585759269964</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="1"/>
@@ -18147,19 +18172,19 @@
       </c>
       <c r="B21" s="39">
         <f>'201202'!B21+'201203'!B21+'201204'!B21+'201205'!B21+'201206'!B21+'201207'!B21+'201208'!B21+'201209'!B21+'201210'!B21+'201211'!B21+'201212'!B21</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="36">
         <f>'201202'!C21+'201203'!C21+'201204'!C21+'201205'!C21+'201206'!C21+'201207'!C21+'201208'!C21+'201209'!C21+'201210'!C21+'201211'!C21+'201212'!C21</f>
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D21" s="36">
         <f>'201202'!D21+'201203'!D21+'201204'!D21+'201205'!D21+'201206'!D21+'201207'!D21+'201208'!D21+'201209'!D21+'201210'!D21+'201211'!D21+'201212'!D21</f>
-        <v>87.841956654456652</v>
+        <v>100.69909951159951</v>
       </c>
       <c r="E21" s="36">
         <f t="shared" si="1"/>
-        <v>74.841956654456652</v>
+        <v>86.699099511599513</v>
       </c>
       <c r="F21" s="18">
         <v>70</v>
@@ -18167,7 +18192,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="36">
         <f t="shared" si="2"/>
-        <v>4.8419566544566521</v>
+        <v>16.699099511599513</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="1"/>
@@ -18181,19 +18206,19 @@
       </c>
       <c r="B22" s="39">
         <f>'201202'!B22+'201203'!B22+'201204'!B22+'201205'!B22+'201206'!B22+'201207'!B22+'201208'!B22+'201209'!B22+'201210'!B22+'201211'!B22+'201212'!B22</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="36">
         <f>'201202'!C22+'201203'!C22+'201204'!C22+'201205'!C22+'201206'!C22+'201207'!C22+'201208'!C22+'201209'!C22+'201210'!C22+'201211'!C22+'201212'!C22</f>
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="D22" s="36">
         <f>'201202'!D22+'201203'!D22+'201204'!D22+'201205'!D22+'201206'!D22+'201207'!D22+'201208'!D22+'201209'!D22+'201210'!D22+'201211'!D22+'201212'!D22</f>
-        <v>83.331453634085221</v>
+        <v>96.188596491228083</v>
       </c>
       <c r="E22" s="36">
         <f t="shared" si="1"/>
-        <v>74.331453634085221</v>
+        <v>86.188596491228083</v>
       </c>
       <c r="F22" s="18">
         <v>30</v>
@@ -18201,7 +18226,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="36">
         <f t="shared" si="2"/>
-        <v>44.331453634085221</v>
+        <v>56.188596491228083</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="1"/>
@@ -18281,31 +18306,35 @@
       </c>
       <c r="B25" s="39">
         <f>'201202'!B25+'201203'!B25+'201204'!B25+'201205'!B25+'201206'!B25+'201207'!B25+'201208'!B25+'201209'!B25+'201210'!B25+'201211'!B25+'201212'!B25</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="36">
         <f>'201202'!C25+'201203'!C25+'201204'!C25+'201205'!C25+'201206'!C25+'201207'!C25+'201208'!C25+'201209'!C25+'201210'!C25+'201211'!C25+'201212'!C25</f>
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="D25" s="36">
         <f>'201202'!D25+'201203'!D25+'201204'!D25+'201205'!D25+'201206'!D25+'201207'!D25+'201208'!D25+'201209'!D25+'201210'!D25+'201211'!D25+'201212'!D25</f>
-        <v>128.63212116830539</v>
+        <v>141.48926402544825</v>
       </c>
       <c r="E25" s="36">
         <f t="shared" si="1"/>
-        <v>108.63212116830539</v>
+        <v>120.48926402544825</v>
       </c>
       <c r="F25" s="18">
         <v>75</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18">
+        <v>-10</v>
+      </c>
       <c r="H25" s="36">
         <f t="shared" si="2"/>
-        <v>33.632121168305389</v>
+        <v>35.48926402544825</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
@@ -18535,19 +18564,19 @@
       </c>
       <c r="B33" s="39">
         <f>'201202'!B33+'201203'!B33+'201204'!B33+'201205'!B33+'201206'!B33+'201207'!B33+'201208'!B33+'201209'!B33+'201210'!B33+'201211'!B33+'201212'!B33</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="36">
         <f>'201202'!C33+'201203'!C33+'201204'!C33+'201205'!C33+'201206'!C33+'201207'!C33+'201208'!C33+'201209'!C33+'201210'!C33+'201211'!C33+'201212'!C33</f>
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="D33" s="36">
         <f>'201202'!D33+'201203'!D33+'201204'!D33+'201205'!D33+'201206'!D33+'201207'!D33+'201208'!D33+'201209'!D33+'201210'!D33+'201211'!D33+'201212'!D33</f>
-        <v>50.882860195360195</v>
+        <v>63.740003052503056</v>
       </c>
       <c r="E33" s="36">
         <f t="shared" si="1"/>
-        <v>40.882860195360195</v>
+        <v>52.740003052503056</v>
       </c>
       <c r="F33" s="18">
         <v>45</v>
@@ -18555,7 +18584,7 @@
       <c r="G33" s="18"/>
       <c r="H33" s="36">
         <f t="shared" si="2"/>
-        <v>-4.1171398046398053</v>
+        <v>7.7400030525030559</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="1"/>
@@ -18783,25 +18812,25 @@
       </c>
       <c r="B41" s="39">
         <f>'201202'!B41+'201203'!B41+'201204'!B41+'201205'!B41+'201206'!B41+'201207'!B41+'201208'!B41+'201209'!B41+'201210'!B41+'201211'!B41+'201212'!B41</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" s="36">
         <f>'201202'!C41+'201203'!C41+'201204'!C41+'201205'!C41+'201206'!C41+'201207'!C41+'201208'!C41+'201209'!C41+'201210'!C41+'201211'!C41+'201212'!C41</f>
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="D41" s="36">
         <f>'201202'!D41+'201203'!D41+'201204'!D41+'201205'!D41+'201206'!D41+'201207'!D41+'201208'!D41+'201209'!D41+'201210'!D41+'201211'!D41+'201212'!D41</f>
-        <v>46.167502088554713</v>
+        <v>59.024644945697574</v>
       </c>
       <c r="E41" s="36">
         <f t="shared" ref="E41:E62" si="3">D41-B41</f>
-        <v>39.167502088554713</v>
+        <v>51.024644945697574</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="36">
         <f t="shared" ref="H41:H71" si="4">E41-F41+G41</f>
-        <v>39.167502088554713</v>
+        <v>51.024644945697574</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="1">
@@ -18847,19 +18876,19 @@
       </c>
       <c r="B43" s="39">
         <f>'201202'!B43+'201203'!B43+'201204'!B43+'201205'!B43+'201206'!B43+'201207'!B43+'201208'!B43+'201209'!B43+'201210'!B43+'201211'!B43+'201212'!B43</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" s="36">
         <f>'201202'!C43+'201203'!C43+'201204'!C43+'201205'!C43+'201206'!C43+'201207'!C43+'201208'!C43+'201209'!C43+'201210'!C43+'201211'!C43+'201212'!C43</f>
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="D43" s="36">
         <f>'201202'!D43+'201203'!D43+'201204'!D43+'201205'!D43+'201206'!D43+'201207'!D43+'201208'!D43+'201209'!D43+'201210'!D43+'201211'!D43+'201212'!D43</f>
-        <v>76.56718318231475</v>
+        <v>89.424326039457611</v>
       </c>
       <c r="E43" s="36">
         <f t="shared" si="3"/>
-        <v>65.56718318231475</v>
+        <v>77.424326039457611</v>
       </c>
       <c r="F43" s="18">
         <v>20</v>
@@ -18867,7 +18896,7 @@
       <c r="G43" s="18"/>
       <c r="H43" s="36">
         <f t="shared" si="4"/>
-        <v>45.56718318231475</v>
+        <v>57.424326039457611</v>
       </c>
       <c r="I43" s="18">
         <v>10</v>
@@ -19753,25 +19782,25 @@
       </c>
       <c r="B72" s="39">
         <f>'201202'!B72+'201203'!B72+'201204'!B72+'201205'!B72+'201206'!B72+'201207'!B72+'201208'!B72+'201209'!B72+'201210'!B72+'201211'!B72+'201212'!B72</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" s="36">
         <f>'201202'!C72+'201203'!C72+'201204'!C72+'201205'!C72+'201206'!C72+'201207'!C72+'201208'!C72+'201209'!C72+'201210'!C72+'201211'!C72+'201212'!C72</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D72" s="36">
         <f>'201202'!D72+'201203'!D72+'201204'!D72+'201205'!D72+'201206'!D72+'201207'!D72+'201208'!D72+'201209'!D72+'201210'!D72+'201211'!D72+'201212'!D72</f>
-        <v>7.1428571428571423</v>
+        <v>20</v>
       </c>
       <c r="E72" s="36">
         <f t="shared" si="5"/>
-        <v>6.1428571428571423</v>
+        <v>18</v>
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="36">
         <f t="shared" ref="H72" si="6">E72-F72</f>
-        <v>6.1428571428571423</v>
+        <v>18</v>
       </c>
       <c r="I72" s="18"/>
       <c r="J72" s="1"/>
@@ -19783,25 +19812,25 @@
       </c>
       <c r="B73" s="39">
         <f>'201202'!B73+'201203'!B73+'201204'!B73+'201205'!B73+'201206'!B73+'201207'!B73+'201208'!B73+'201209'!B73+'201210'!B73+'201211'!B73+'201212'!B73</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="36">
         <f>'201202'!C73+'201203'!C73+'201204'!C73+'201205'!C73+'201206'!C73+'201207'!C73+'201208'!C73+'201209'!C73+'201210'!C73+'201211'!C73+'201212'!C73</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D73" s="36">
         <f>'201202'!D73+'201203'!D73+'201204'!D73+'201205'!D73+'201206'!D73+'201207'!D73+'201208'!D73+'201209'!D73+'201210'!D73+'201211'!D73+'201212'!D73</f>
-        <v>0</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="E73" s="36">
         <f t="shared" ref="E73:E79" si="7">D73-B73</f>
-        <v>0</v>
+        <v>11.857142857142858</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="36">
         <f t="shared" ref="H73:H79" si="8">E73-F73</f>
-        <v>0</v>
+        <v>11.857142857142858</v>
       </c>
       <c r="I73" s="18"/>
       <c r="J73" s="1"/>
@@ -20762,10 +20791,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20803,8 +20832,8 @@
         <v>113</v>
       </c>
       <c r="B2" s="39">
-        <f>SUM(B3:B47)</f>
-        <v>288</v>
+        <f>SUM(B3:B49)</f>
+        <v>368</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="42" t="s">
@@ -20818,13 +20847,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
-        <v>41072</v>
+        <v>41095</v>
       </c>
       <c r="B3" s="1">
-        <v>48</v>
+        <v>-240</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="1"/>
@@ -20832,13 +20861,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
-        <v>41072</v>
+        <v>41095</v>
       </c>
       <c r="B4" s="1">
-        <v>55</v>
+        <v>320</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D4" s="14">
         <v>41079</v>
@@ -20852,13 +20881,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
-        <v>41067</v>
+        <v>41072</v>
       </c>
       <c r="B5" s="1">
-        <v>-20</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D5" s="14">
         <v>40948</v>
@@ -20870,13 +20899,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
-        <v>41067</v>
+        <v>41072</v>
       </c>
       <c r="B6" s="1">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D6" s="14">
         <v>40952</v>
@@ -20888,13 +20917,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
-        <v>41065</v>
+        <v>41067</v>
       </c>
       <c r="B7" s="1">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D7" s="14">
         <v>40960</v>
@@ -20906,13 +20935,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
-        <v>41065</v>
+        <v>41067</v>
       </c>
       <c r="B8" s="1">
-        <v>30</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>136</v>
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="D8" s="14">
         <v>40967</v>
@@ -20924,13 +20953,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
-        <v>41060</v>
+        <v>41065</v>
       </c>
       <c r="B9" s="1">
-        <v>-10</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>124</v>
+        <v>-40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D9" s="14">
         <v>40970</v>
@@ -20942,13 +20971,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
-        <v>41060</v>
+        <v>41065</v>
       </c>
       <c r="B10" s="1">
-        <v>130</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>125</v>
+        <v>30</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>136</v>
       </c>
       <c r="D10" s="14">
         <v>40974</v>
@@ -20960,13 +20989,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
-        <v>41058</v>
+        <v>41060</v>
       </c>
       <c r="B11" s="1">
-        <v>195</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>123</v>
+        <v>-10</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>124</v>
       </c>
       <c r="D11" s="14">
         <v>40976</v>
@@ -20978,13 +21007,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
-        <v>41058</v>
+        <v>41060</v>
       </c>
       <c r="B12" s="1">
-        <v>-205</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>125</v>
       </c>
       <c r="D12" s="14">
         <v>40983</v>
@@ -21001,10 +21030,10 @@
         <v>41058</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>117</v>
+        <v>195</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>123</v>
       </c>
       <c r="D13" s="14">
         <v>40983</v>
@@ -21018,12 +21047,14 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
-        <v>40941</v>
+        <v>41058</v>
       </c>
       <c r="B14" s="1">
-        <v>160</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>-205</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D14" s="14">
         <v>40988</v>
       </c>
@@ -21034,12 +21065,14 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
-        <v>40946</v>
+        <v>41058</v>
       </c>
       <c r="B15" s="1">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D15" s="14">
         <v>40990</v>
       </c>
@@ -21050,14 +21083,12 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
-        <v>40972</v>
+        <v>40941</v>
       </c>
       <c r="B16" s="1">
-        <v>-70</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="14">
         <v>40990</v>
       </c>
@@ -21070,14 +21101,12 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
-        <v>40981</v>
+        <v>40946</v>
       </c>
       <c r="B17" s="1">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="14">
         <v>40995</v>
       </c>
@@ -21088,13 +21117,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
-        <v>40981</v>
+        <v>40972</v>
       </c>
       <c r="B18" s="1">
-        <v>-120</v>
+        <v>-70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D18" s="14">
         <v>40995</v>
@@ -21107,9 +21136,15 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="14">
+        <v>40981</v>
+      </c>
+      <c r="B19" s="1">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D19" s="14">
         <v>40997</v>
       </c>
@@ -21121,9 +21156,15 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="14">
+        <v>40981</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-120</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D20" s="14">
         <v>40999</v>
       </c>
@@ -21591,6 +21632,16 @@
       <c r="A60" s="14"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="14"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="14"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -33454,8 +33505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection sqref="A1:H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -35827,14 +35878,2197 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="11"/>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5">
+        <v>41095</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="33">
+        <f>SUM(B9:B100)</f>
+        <v>14</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="33">
+        <f t="shared" ref="E2:H2" si="0">COUNT(E9:E100)</f>
+        <v>14</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="20">
+        <v>240</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34">
+        <f>SUM(E4:T4)</f>
+        <v>420</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="32">
+        <f t="shared" ref="E4:H4" si="1">E2*E7</f>
+        <v>420</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35">
+        <f>SUM(E5:T5)</f>
+        <v>180</v>
+      </c>
+      <c r="E5" s="32">
+        <f t="shared" ref="E5:H5" si="2">E4-E3</f>
+        <v>180</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="32">
+        <f t="shared" ref="E6:H6" si="3">E3/E2</f>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="20">
+        <v>30</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="32">
+        <f t="shared" ref="E8:H8" si="4">E7-E6</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="str">
+        <f>member!A9</f>
+        <v>守候幸福</v>
+      </c>
+      <c r="B9" s="34">
+        <f>COUNT(E9:T9)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="34">
+        <f>E7*E9+F7*F9+G7*G9+H7*H9+I7*I9+J7*J9+K7*K9+L7*L9+M7*M9+N7*N9+O7*O9+P7*P9+Q7*Q9+R7*R9+S7*S9+T7*T9</f>
+        <v>30</v>
+      </c>
+      <c r="D9" s="36">
+        <f>E8*E9+F8*F9+G8*G9+H8*H9+I8*I9+J8*J9+K8*K9+L8*L9+M8*M9+O8*O9+P8*P9+Q8*Q9+R8*R9+S8*S9+T8*T9</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="str">
+        <f>member!A10</f>
+        <v>李一刀</v>
+      </c>
+      <c r="B10" s="34">
+        <f>COUNT(E10:T10)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="34">
+        <f>E7*E10+F7*F10+G7*G10+H7*H10+I7*I10+J7*J10+K7*K10+L7*L10+M7*M10+N7*N10+O7*O10+P7*P10+Q7*Q10+R7*R10+S7*S10+T7*T10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="36">
+        <f>E8*E10+F8*F10+G8*G10+H8*H10+I8*I10+J8*J10+K8*K10+L8*L10+M8*M10+O8*O10+P8*P10+Q8*Q10+R8*R10+S8*S10+T8*T10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="str">
+        <f>member!A11</f>
+        <v>咣咣地跟屁蟲</v>
+      </c>
+      <c r="B11" s="34">
+        <f>COUNT(E11:T11)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="34">
+        <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+N7*N11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
+        <v>30</v>
+      </c>
+      <c r="D11" s="36">
+        <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="str">
+        <f>member!A12</f>
+        <v>Oo内拉祖里oO</v>
+      </c>
+      <c r="B12" s="34">
+        <f>COUNT(E12:T12)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="34">
+        <f>E7*E12+F7*F12+G7*G12+H7*H12+I7*I12+J7*J12+K7*K12+L7*L12+M7*M12+N7*N12+O7*O12+P7*P12+Q7*Q12+R7*R12+S7*S12+T7*T12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="36">
+        <f>E8*E12+F8*F12+G8*G12+H8*H12+I8*I12+J8*J12+K8*K12+L8*L12+M8*M12+O8*O12+P8*P12+Q8*Q12+R8*R12+S8*S12+T8*T12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="str">
+        <f>member!A13</f>
+        <v>幸福~拂晓</v>
+      </c>
+      <c r="B13" s="34">
+        <f>COUNT(E13:T13)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="34">
+        <f>E7*E13+F7*F13+G7*G13+H7*H13+I7*I13+J7*J13+K7*K13+L7*L13+M7*M13+N7*N13+O7*O13+P7*P13+Q7*Q13+R7*R13+S7*S13+T7*T13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="36">
+        <f>E8*E13+F8*F13+G8*G13+H8*H13+I8*I13+J8*J13+K8*K13+L8*L13+M8*M13+O8*O13+P8*P13+Q8*Q13+R8*R13+S8*S13+T8*T13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="str">
+        <f>member!A14</f>
+        <v>蚕豆</v>
+      </c>
+      <c r="B14" s="34">
+        <f>COUNT(E14:T14)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="34">
+        <f>E7*E14+F7*F14+G7*G14+H7*H14+I7*I14+J7*J14+K7*K14+L7*L14+M7*M14+N7*N14+O7*O14+P7*P14+Q7*Q14+R7*R14+S7*S14+T7*T14</f>
+        <v>30</v>
+      </c>
+      <c r="D14" s="36">
+        <f>E8*E14+F8*F14+G8*G14+H8*H14+I8*I14+J8*J14+K8*K14+L8*L14+M8*M14+O8*O14+P8*P14+Q8*Q14+R8*R14+S8*S14+T8*T14</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="str">
+        <f>member!A15</f>
+        <v>who cares?</v>
+      </c>
+      <c r="B15" s="34">
+        <f>COUNT(E15:T15)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="34">
+        <f>E7*E15+F7*F15+G7*G15+H7*H15+I7*I15+J7*J15+K7*K15+L7*L15+M7*M15+O7*O15+P7*P15+Q7*Q15+R7*R15+S7*S15+T7*T15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="36">
+        <f>E8*E15+F8*F15+G8*G15+H8*H15+I8*I15+J8*J15+K8*K15+L8*L15+M8*M15+O8*O15+P8*P15+Q8*Q15+R8*R15+S8*S15+T8*T15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="str">
+        <f>member!A16</f>
+        <v>幸福~彩票</v>
+      </c>
+      <c r="B16" s="34">
+        <f>COUNT(E16:T16)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="34">
+        <f>E7*E16+F7*F16+G7*G16+H7*H16+I7*I16+J7*J16+K7*K16+L7*L16+M7*M16+O7*O16+P7*P16+Q7*Q16+R7*R16+S7*S16+T7*T16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="36">
+        <f>E8*E16+F8*F16+G8*G16+H8*H16+I8*I16+J8*J16+K8*K16+L8*L16+M8*M16+O8*O16+P8*P16+Q8*Q16+R8*R16+S8*S16+T8*T16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="str">
+        <f>member!A17</f>
+        <v>清道夫</v>
+      </c>
+      <c r="B17" s="34">
+        <f>COUNT(E17:T17)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="34">
+        <f>E7*E17+F7*F17+G7*G17+H7*H17+I7*I17+J7*J17+K7*K17+L7*L17+M7*M17+O7*O17+P7*P17+Q7*Q17+R7*R17+S7*S17+T7*T17</f>
+        <v>30</v>
+      </c>
+      <c r="D17" s="36">
+        <f>E8*E17+F8*F17+G8*G17+H8*H17+I8*I17+J8*J17+K8*K17+L8*L17+M8*M17+O8*O17+P8*P17+Q8*Q17+R8*R17+S8*S17+T8*T17</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="str">
+        <f>member!A18</f>
+        <v>老A</v>
+      </c>
+      <c r="B18" s="34">
+        <f>COUNT(E18:T18)</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="34">
+        <f>E7*E18+F7*F18+G7*G18+H7*H18+I7*I18+J7*J18+K7*K18+L7*L18+M7*M18+O7*O18+P7*P18+Q7*Q18+R7*R18+S7*S18+T7*T18</f>
+        <v>30</v>
+      </c>
+      <c r="D18" s="36">
+        <f>E8*E18+F8*F18+G8*G18+H8*H18+I8*I18+J8*J18+K8*K18+L8*L18+M8*M18+O8*O18+P8*P18+Q8*Q18+R8*R18+S8*S18+T8*T18</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="str">
+        <f>member!A19</f>
+        <v>狐狸</v>
+      </c>
+      <c r="B19" s="34">
+        <f>COUNT(E19:T19)</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="34">
+        <f>E7*E19+F7*F19+G7*G19+H7*H19+I7*I19+J7*J19+K7*K19+L7*L19+M7*M19+O7*O19+P7*P19+Q7*Q19+R7*R19+S7*S19+T7*T19</f>
+        <v>30</v>
+      </c>
+      <c r="D19" s="36">
+        <f>E8*E19+F8*F19+G8*G19+H8*H19+I8*I19+J8*J19+K8*K19+L8*L19+M8*M19+O8*O19+P8*P19+Q8*Q19+R8*R19+S8*S19+T8*T19</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="str">
+        <f>member!A20</f>
+        <v>腿子</v>
+      </c>
+      <c r="B20" s="34">
+        <f>COUNT(E20:T20)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="34">
+        <f>E7*E20+F7*F20+G7*G20+H7*H20+I7*I20+J7*J20+K7*K20+L7*L20+M7*M20+O7*O20+P7*P20+Q7*Q20+R7*R20+S7*S20+T7*T20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="36">
+        <f>E8*E20+F8*F20+G8*G20+H8*H20+I8*I20+J8*J20+K8*K20+L8*L20+M8*M20+O8*O20+P8*P20+Q8*Q20+R8*R20+S8*S20+T8*T20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="str">
+        <f>member!A21</f>
+        <v>smile</v>
+      </c>
+      <c r="B21" s="34">
+        <f>COUNT(E21:T21)</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="34">
+        <f>E7*E21+F7*F21+G7*G21+H7*H21+I7*I21+J7*J21+K7*K21+L7*L21+M7*M21+O7*O21+P7*P21+Q7*Q21+R7*R21+S7*S21+T7*T21</f>
+        <v>30</v>
+      </c>
+      <c r="D21" s="36">
+        <f>E8*E21+F8*F21+G8*G21+H8*H21+I8*I21+J8*J21+K8*K21+L8*L21+M8*M21+O8*O21+P8*P21+Q8*Q21+R8*R21+S8*S21+T8*T21</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="str">
+        <f>member!A22</f>
+        <v>小贝</v>
+      </c>
+      <c r="B22" s="34">
+        <f>COUNT(E22:T22)</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="34">
+        <f>E7*E22+F7*F22+G7*G22+H7*H22+I7*I22+J7*J22+K7*K22+L7*L22+M7*M22+O7*O22+P7*P22+Q7*Q22+R7*R22+S7*S22+T7*T22</f>
+        <v>30</v>
+      </c>
+      <c r="D22" s="36">
+        <f>E8*E22+F8*F22+G8*G22+H8*H22+I8*I22+J8*J22+K8*K22+L8*L22+M8*M22+O8*O22+P8*P22+Q8*Q22+R8*R22+S8*S22+T8*T22</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="str">
+        <f>member!A23</f>
+        <v>11号-鲜明</v>
+      </c>
+      <c r="B23" s="34">
+        <f>COUNT(E23:T23)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="34">
+        <f>E7*E23+F7*F23+G7*G23+H7*H23+I7*I23+J7*J23+K7*K23+L7*L23+M7*M23+O7*O23+P7*P23+Q7*Q23+R7*R23+S7*S23+T7*T23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="36">
+        <f>E8*E23+F8*F23+G8*G23+H8*H23+I8*I23+J8*J23+K8*K23+L8*L23+M8*M23+O8*O23+P8*P23+Q8*Q23+R8*R23+S8*S23+T8*T23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="str">
+        <f>member!A24</f>
+        <v>狐狸~涛</v>
+      </c>
+      <c r="B24" s="34">
+        <f>COUNT(E24:T24)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="34">
+        <f>E7*E24+F7*F24+G7*G24+H7*H24+I7*I24+J7*J24+K7*K24+L7*L24+M7*M24+O7*O24+P7*P24+Q7*Q24+R7*R24+S7*S24+T7*T24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="36">
+        <f>E8*E24+F8*F24+G8*G24+H8*H24+I8*I24+J8*J24+K8*K24+L8*L24+M8*M24+O8*O24+P8*P24+Q8*Q24+R8*R24+S8*S24+T8*T24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="str">
+        <f>member!A25</f>
+        <v>侯盟</v>
+      </c>
+      <c r="B25" s="34">
+        <f>COUNT(E25:T25)</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="34">
+        <f>E7*E25+F7*F25+G7*G25+H7*H25+I7*I25+J7*J25+K7*K25+L7*L25+M7*M25+O7*O25+P7*P25+Q7*Q25+R7*R25+S7*S25+T7*T25</f>
+        <v>30</v>
+      </c>
+      <c r="D25" s="36">
+        <f>E8*E25+F8*F25+G8*G25+H8*H25+I8*I25+J8*J25+K8*K25+L8*L25+M8*M25+O8*O25+P8*P25+Q8*Q25+R8*R25+S8*S25+T8*T25</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="str">
+        <f>member!A26</f>
+        <v>玖伍贰壹</v>
+      </c>
+      <c r="B26" s="34">
+        <f>COUNT(E26:T26)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="34">
+        <f>E7*E26+F7*F26+G7*G26+H7*H26+I7*I26+J7*J26+K7*K26+L7*L26+M7*M26+O7*O26+P7*P26+Q7*Q26+R7*R26+S7*S26+T7*T26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="36">
+        <f>E8*E26+F8*F26+G8*G26+H8*H26+I8*I26+J8*J26+K8*K26+L8*L26+M8*M26+O8*O26+P8*P26+Q8*Q26+R8*R26+S8*S26+T8*T26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="str">
+        <f>member!A27</f>
+        <v>红色F50-超</v>
+      </c>
+      <c r="B27" s="34">
+        <f>COUNT(E27:T27)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="34">
+        <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="36">
+        <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="str">
+        <f>member!A28</f>
+        <v>活了</v>
+      </c>
+      <c r="B28" s="34">
+        <f>COUNT(E28:T28)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="34">
+        <f>E7*E28+F7*F28+G7*G28+H7*H28+I7*I28+J7*J28+K7*K28+L7*L28+M7*M28+O7*O28+P7*P28+Q7*Q28+R7*R28+S7*S28+T7*T28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="36">
+        <f>E8*E28+F8*F28+G8*G28+H8*H28+I8*I28+J8*J28+K8*K28+L8*L28+M8*M28+O8*O28+P8*P28+Q8*Q28+R8*R28+S8*S28+T8*T28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="str">
+        <f>member!A29</f>
+        <v>天赐</v>
+      </c>
+      <c r="B29" s="34">
+        <f>COUNT(E29:T29)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="34">
+        <f>E7*E29+F7*F29+G7*G29+H7*H29+I7*I29+J7*J29+K7*K29+L7*L29+M7*M29+O7*O29+P7*P29+Q7*Q29+R7*R29+S7*S29+T7*T29</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="36">
+        <f>E8*E29+F8*F29+G8*G29+H8*H29+I8*I29+J8*J29+K8*K29+L8*L29+M8*M29+O8*O29+P8*P29+Q8*Q29+R8*R29+S8*S29+T8*T29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="str">
+        <f>member!A30</f>
+        <v>Shenghak</v>
+      </c>
+      <c r="B30" s="34">
+        <f>COUNT(E30:T30)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="34">
+        <f>E7*E30+F7*F30+G7*G30+H7*H30+I7*I30+J7*J30+K7*K30+L7*L30+M7*M30+O7*O30+P7*P30+Q7*Q30+R7*R30+S7*S30+T7*T30</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="36">
+        <f>E8*E30+F8*F30+G8*G30+H8*H30+I8*I30+J8*J30+K8*K30+L8*L30+M8*M30+O8*O30+P8*P30+Q8*Q30+R8*R30+S8*S30+T8*T30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="str">
+        <f>member!A31</f>
+        <v>红色6号</v>
+      </c>
+      <c r="B31" s="34">
+        <f>COUNT(E31:T31)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="34">
+        <f>E7*E31+F7*F31+G7*G31+H7*H31+I7*I31+J7*J31+K7*K31+L7*L31+M7*M31+O7*O31+P7*P31+Q7*Q31+R7*R31+S7*S31+T7*T31</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="36">
+        <f>E8*E31+F8*F31+G8*G31+H8*H31+I8*I31+J8*J31+K8*K31+L8*L31+M8*M31+O8*O31+P8*P31+Q8*Q31+R8*R31+S8*S31+T8*T31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="str">
+        <f>member!A32</f>
+        <v>微笑</v>
+      </c>
+      <c r="B32" s="34">
+        <f>COUNT(E32:T32)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="34">
+        <f>E7*E32+F7*F32+G7*G32+H7*H32+I7*I32+J7*J32+K7*K32+L7*L32+M7*M32+O7*O32+P7*P32+Q7*Q32+R7*R32+S7*S32+T7*T32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="36">
+        <f>E8*E32+F8*F32+G8*G32+H8*H32+I8*I32+J8*J32+K8*K32+L8*L32+M8*M32+O8*O32+P8*P32+Q8*Q32+R8*R32+S8*S32+T8*T32</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="str">
+        <f>member!A33</f>
+        <v>77号-更心</v>
+      </c>
+      <c r="B33" s="34">
+        <f>COUNT(E33:T33)</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="34">
+        <f>E7*E33+F7*F33+G7*G33+H7*H33+I7*I33+J7*J33+K7*K33+L7*L33+M7*M33+O7*O33+P7*P33+Q7*Q33+R7*R33+S7*S33+T7*T33</f>
+        <v>30</v>
+      </c>
+      <c r="D33" s="36">
+        <f>E8*E33+F8*F33+G8*G33+H8*H33+I8*I33+J8*J33+K8*K33+L8*L33+M8*M33+O8*O33+P8*P33+Q8*Q33+R8*R33+S8*S33+T8*T33</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="str">
+        <f>member!A34</f>
+        <v>更心朋友</v>
+      </c>
+      <c r="B34" s="34">
+        <f>COUNT(E34:T34)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="34">
+        <f>E7*E34+F7*F34+G7*G34+H7*H34+I7*I34+J7*J34+K7*K34+L7*L34+M7*M34+O7*O34+P7*P34+Q7*Q34+R7*R34+S7*S34+T7*T34</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="36">
+        <f>E8*E34+F8*F34+G8*G34+H8*H34+I8*I34+J8*J34+K8*K34+L8*L34+M8*M34+O8*O34+P8*P34+Q8*Q34+R8*R34+S8*S34+T8*T34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="str">
+        <f>member!A35</f>
+        <v>8号-菜菜亮</v>
+      </c>
+      <c r="B35" s="34">
+        <f>COUNT(E35:T35)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="34">
+        <f>E7*E35+F7*F35+G7*G35+H7*H35+I7*I35+J7*J35+K7*K35+L7*L35+M7*M35+O7*O35+P7*P35+Q7*Q35+R7*R35+S7*S35+T7*T35</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="36">
+        <f>E8*E35+F8*F35+G8*G35+H8*H35+I8*I35+J8*J35+K8*K35+L8*L35+M8*M35+O8*O35+P8*P35+Q8*Q35+R8*R35+S8*S35+T8*T35</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="str">
+        <f>member!A36</f>
+        <v>杨光朋友</v>
+      </c>
+      <c r="B36" s="34">
+        <f>COUNT(E36:T36)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="34">
+        <f>E7*E36+F7*F36+G7*G36+H7*H36+I7*I36+J7*J36+K7*K36+L7*L36+M7*M36+O7*O36+P7*P36+Q7*Q36+R7*R36+S7*S36+T7*T36</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="36">
+        <f>E8*E36+F8*F36+G8*G36+H8*H36+I8*I36+J8*J36+K8*K36+L8*L36+M8*M36+O8*O36+P8*P36+Q8*Q36+R8*R36+S8*S36+T8*T36</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="str">
+        <f>member!A37</f>
+        <v>拂晓朋友</v>
+      </c>
+      <c r="B37" s="34">
+        <f>COUNT(E37:T37)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="34">
+        <f>E7*E37+F7*F37+G7*G37+H7*H37+I7*I37+J7*J37+K7*K37+L7*L37+M7*M37+O7*O37+P7*P37+Q7*Q37+R7*R37+S7*S37+T7*T37</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="36">
+        <f>E8*E37+F8*F37+G8*G37+H8*H37+I8*I37+J8*J37+K8*K37+L8*L37+M8*M37+O8*O37+P8*P37+Q8*Q37+R8*R37+S8*S37+T8*T37</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="str">
+        <f>member!A38</f>
+        <v>4号-许多</v>
+      </c>
+      <c r="B38" s="34">
+        <f>COUNT(E38:T38)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="34">
+        <f>E7*E38+F7*F38+G7*G38+H7*H38+I7*I38+J7*J38+K7*K38+L7*L38+M7*M38+O7*O38+P7*P38+Q7*Q38+R7*R38+S7*S38+T7*T38</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="36">
+        <f>E8*E38+F8*F38+G8*G38+H8*H38+I8*I38+J8*J38+K8*K38+L8*L38+M8*M38+O8*O38+P8*P38+Q8*Q38+R8*R38+S8*S38+T8*T38</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="str">
+        <f>member!A39</f>
+        <v>5号-正</v>
+      </c>
+      <c r="B39" s="34">
+        <f>COUNT(E39:T39)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="34">
+        <f>E7*E39+F7*F39+G7*G39+H7*H39+I7*I39+J7*J39+K7*K39+L7*L39+M7*M39+O7*O39+P7*P39+Q7*Q39+R7*R39+S7*S39+T7*T39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="36">
+        <f>E8*E39+F8*F39+G8*G39+H8*H39+I8*I39+J8*J39+K8*K39+L8*L39+M8*M39+O8*O39+P8*P39+Q8*Q39+R8*R39+S8*S39+T8*T39</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="str">
+        <f>member!A40</f>
+        <v>勇敢的爬爬</v>
+      </c>
+      <c r="B40" s="34">
+        <f>COUNT(E40:T40)</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="34">
+        <f>E7*E40+F7*F40+G7*G40+H7*H40+I7*I40+J7*J40+K7*K40+L7*L40+M7*M40+O7*O40+P7*P40+Q7*Q40+R7*R40+S7*S40+T7*T40</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="36">
+        <f>E8*E40+F8*F40+G8*G40+H8*H40+I8*I40+J8*J40+K8*K40+L8*L40+M8*M40+O8*O40+P8*P40+Q8*Q40+R8*R40+S8*S40+T8*T40</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="str">
+        <f>member!A41</f>
+        <v>17号-4号字母</v>
+      </c>
+      <c r="B41" s="34">
+        <f>COUNT(E41:T41)</f>
+        <v>1</v>
+      </c>
+      <c r="C41" s="34">
+        <f>E7*E41+F7*F41+G7*G41+H7*H41+I7*I41+J7*J41+K7*K41+L7*L41+M7*M41+O7*O41+P7*P41+Q7*Q41+R7*R41+S7*S41+T7*T41</f>
+        <v>30</v>
+      </c>
+      <c r="D41" s="36">
+        <f>E8*E41+F8*F41+G8*G41+H8*H41+I8*I41+J8*J41+K8*K41+L8*L41+M8*M41+O8*O41+P8*P41+Q8*Q41+R8*R41+S8*S41+T8*T41</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="str">
+        <f>member!A42</f>
+        <v>雷雨</v>
+      </c>
+      <c r="B42" s="34">
+        <f>COUNT(E42:T42)</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="34">
+        <f>E7*E42+F7*F42+G7*G42+H7*H42+I7*I42+J7*J42+K7*K42+L7*L42+M7*M42+O7*O42+P7*P42+Q7*Q42+R7*R42+S7*S42+T7*T42</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="36">
+        <f>E8*E42+F8*F42+G8*G42+H8*H42+I8*I42+J8*J42+K8*K42+L8*L42+M8*M42+O8*O42+P8*P42+Q8*Q42+R8*R42+S8*S42+T8*T42</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="str">
+        <f>member!A43</f>
+        <v>西北偏北</v>
+      </c>
+      <c r="B43" s="34">
+        <f>COUNT(E43:T43)</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="34">
+        <f>E7*E43+F7*F43+G7*G43+H7*H43+I7*I43+J7*J43+K7*K43+L7*L43+M7*M43+O7*O43+P7*P43+Q7*Q43+R7*R43+S7*S43+T7*T43</f>
+        <v>30</v>
+      </c>
+      <c r="D43" s="36">
+        <f>E8*E43+F8*F43+G8*G43+H8*H43+I8*I43+J8*J43+K8*K43+L8*L43+M8*M43+O8*O43+P8*P43+Q8*Q43+R8*R43+S8*S43+T8*T43</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="str">
+        <f>member!A44</f>
+        <v>红色8号</v>
+      </c>
+      <c r="B44" s="34">
+        <f>COUNT(E44:T44)</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="34">
+        <f>E7*E44+F7*F44+G7*G44+H7*H44+I7*I44+J7*J44+K7*K44+L7*L44+M7*M44+O7*O44+P7*P44+Q7*Q44+R7*R44+S7*S44+T7*T44</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="36">
+        <f>E8*E44+F8*F44+G8*G44+H8*H44+I8*I44+J8*J44+K8*K44+L8*L44+M8*M44+O8*O44+P8*P44+Q8*Q44+R8*R44+S8*S44+T8*T44</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="str">
+        <f>member!A45</f>
+        <v>马耳他</v>
+      </c>
+      <c r="B45" s="34">
+        <f>COUNT(E45:T45)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="34">
+        <f>E7*E45+F7*F45+G7*G45+H7*H45+I7*I45+J7*J45+K7*K45+L7*L45+M7*M45+O7*O45+P7*P45+Q7*Q45+R7*R45+S7*S45+T7*T45</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="36">
+        <f>E8*E45+F8*F45+G8*G45+H8*H45+I8*I45+J8*J45+K8*K45+L8*L45+M8*M45+O8*O45+P8*P45+Q8*Q45+R8*R45+S8*S45+T8*T45</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="11" t="str">
+        <f>member!A46</f>
+        <v>Cindy~陈猛</v>
+      </c>
+      <c r="B46" s="34">
+        <f>COUNT(E46:T46)</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="34">
+        <f>E7*E46+F7*F46+G7*G46+H7*H46+I7*I46+J7*J46+K7*K46+L7*L46+M7*M46+O7*O46+P7*P46+Q7*Q46+R7*R46+S7*S46+T7*T46</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="36">
+        <f>E8*E46+F8*F46+G8*G46+H8*H46+I8*I46+J8*J46+K8*K46+L8*L46+M8*M46+O8*O46+P8*P46+Q8*Q46+R8*R46+S8*S46+T8*T46</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="str">
+        <f>member!A47</f>
+        <v>张硕</v>
+      </c>
+      <c r="B47" s="34">
+        <f>COUNT(E47:T47)</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="34">
+        <f>E7*E47+F7*F47+G7*G47+H7*H47+I7*I47+J7*J47+K7*K47+L7*L47+M7*M47+O7*O47+P7*P47+Q7*Q47+R7*R47+S7*S47+T7*T47</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="36">
+        <f>E8*E47+F8*F47+G8*G47+H8*H47+I8*I47+J8*J47+K8*K47+L8*L47+M8*M47+O8*O47+P8*P47+Q8*Q47+R8*R47+S8*S47+T8*T47</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="str">
+        <f>member!A48</f>
+        <v>Violin</v>
+      </c>
+      <c r="B48" s="34">
+        <f>COUNT(E48:T48)</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="34">
+        <f>E7*E48+F7*F48+G7*G48+H7*H48+I7*I48+J7*J48+K7*K48+L7*L48+M7*M48+O7*O48+P7*P48+Q7*Q48+R7*R48+S7*S48+T7*T48</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="36">
+        <f>E8*E48+F8*F48+G8*G48+H8*H48+I8*I48+J8*J48+K8*K48+L8*L48+M8*M48+O8*O48+P8*P48+Q8*Q48+R8*R48+S8*S48+T8*T48</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="str">
+        <f>member!A49</f>
+        <v>87号陈磊</v>
+      </c>
+      <c r="B49" s="34">
+        <f>COUNT(E49:T49)</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="34">
+        <f>E7*E49+F7*F49+G7*G49+H7*H49+I7*I49+J7*J49+K7*K49+L7*L49+M7*M49+O7*O49+P7*P49+Q7*Q49+R7*R49+S7*S49+T7*T49</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="36">
+        <f>E8*E49+F8*F49+G8*G49+H8*H49+I8*I49+J8*J49+K8*K49+L8*L49+M8*M49+O8*O49+P8*P49+Q8*Q49+R8*R49+S8*S49+T8*T49</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="11" t="str">
+        <f>member!A50</f>
+        <v>水中阳光</v>
+      </c>
+      <c r="B50" s="34">
+        <f>COUNT(E50:T50)</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="34">
+        <f>E7*E50+F7*F50+G7*G50+H7*H50+I7*I50+J7*J50+K7*K50+L7*L50+M7*M50+O7*O50+P7*P50+Q7*Q50+R7*R50+S7*S50+T7*T50</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="36">
+        <f>E8*E50+F8*F50+G8*G50+H8*H50+I8*I50+J8*J50+K8*K50+L8*L50+M8*M50+O8*O50+P8*P50+Q8*Q50+R8*R50+S8*S50+T8*T50</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="11" t="str">
+        <f>member!A51</f>
+        <v>sam</v>
+      </c>
+      <c r="B51" s="34">
+        <f>COUNT(E51:T51)</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="34">
+        <f>E7*E51+F7*F51+G7*G51+H7*H51+I7*I51+J7*J51+K7*K51+L7*L51+M7*M51+O7*O51+P7*P51+Q7*Q51+R7*R51+S7*S51+T7*T51</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="36">
+        <f>E8*E51+F8*F51+G8*G51+H8*H51+I8*I51+J8*J51+K8*K51+L8*L51+M8*M51+O8*O51+P8*P51+Q8*Q51+R8*R51+S8*S51+T8*T51</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="11" t="str">
+        <f>member!A52</f>
+        <v>26 方亚</v>
+      </c>
+      <c r="B52" s="34">
+        <f>COUNT(E52:T52)</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="34">
+        <f>E7*E52+F7*F52+G7*G52+H7*H52+I7*I52+J7*J52+K7*K52+L7*L52+M7*M52+O7*O52+P7*P52+Q7*Q52+R7*R52+S7*S52+T7*T52</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="36">
+        <f>E8*E52+F8*F52+G8*G52+H8*H52+I8*I52+J8*J52+K8*K52+L8*L52+M8*M52+O8*O52+P8*P52+Q8*Q52+R8*R52+S8*S52+T8*T52</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="11" t="str">
+        <f>member!A53</f>
+        <v>维尼</v>
+      </c>
+      <c r="B53" s="34">
+        <f>COUNT(E53:T53)</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="34">
+        <f>E7*E53+F7*F53+G7*G53+H7*H53+I7*I53+J7*J53+K7*K53+L7*L53+M7*M53+O7*O53+P7*P53+Q7*Q53+R7*R53+S7*S53+T7*T53</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="36">
+        <f>E8*E53+F8*F53+G8*G53+H8*H53+I8*I53+J8*J53+K8*K53+L8*L53+M8*M53+O8*O53+P8*P53+Q8*Q53+R8*R53+S8*S53+T8*T53</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="11" t="str">
+        <f>member!A54</f>
+        <v>0号--张家宁</v>
+      </c>
+      <c r="B54" s="34">
+        <f>COUNT(E54:T54)</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="34">
+        <f>E7*E54+F7*F54+G7*G54+H7*H54+I7*I54+J7*J54+K7*K54+L7*L54+M7*M54+O7*O54+P7*P54+Q7*Q54+R7*R54+S7*S54+T7*T54</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="36">
+        <f>E8*E54+F8*F54+G8*G54+H8*H54+I8*I54+J8*J54+K8*K54+L8*L54+M8*M54+O8*O54+P8*P54+Q8*Q54+R8*R54+S8*S54+T8*T54</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="11" t="str">
+        <f>member!A55</f>
+        <v>泰山</v>
+      </c>
+      <c r="B55" s="34">
+        <f>COUNT(E55:T55)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="34">
+        <f>E7*E55+F7*F55+G7*G55+H7*H55+I7*I55+J7*J55+K7*K55+L7*L55+M7*M55+O7*O55+P7*P55+Q7*Q55+R7*R55+S7*S55+T7*T55</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="36">
+        <f>E8*E55+F8*F55+G8*G55+H8*H55+I8*I55+J8*J55+K8*K55+L8*L55+M8*M55+O8*O55+P8*P55+Q8*Q55+R8*R55+S8*S55+T8*T55</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="11" t="str">
+        <f>member!A56</f>
+        <v>尚峰</v>
+      </c>
+      <c r="B56" s="34">
+        <f>COUNT(E56:T56)</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="34">
+        <f>E7*E56+F7*F56+G7*G56+H7*H56+I7*I56+J7*J56+K7*K56+L7*L56+M7*M56+O7*O56+P7*P56+Q7*Q56+R7*R56+S7*S56+T7*T56</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="36">
+        <f>E8*E56+F8*F56+G8*G56+H8*H56+I8*I56+J8*J56+K8*K56+L8*L56+M8*M56+O8*O56+P8*P56+Q8*Q56+R8*R56+S8*S56+T8*T56</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="11" t="str">
+        <f>member!A57</f>
+        <v>杨光</v>
+      </c>
+      <c r="B57" s="34">
+        <f>COUNT(E57:T57)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="34">
+        <f>E7*E57+F7*F57+G7*G57+H7*H57+I7*I57+J7*J57+K7*K57+L7*L57+M7*M57+O7*O57+P7*P57+Q7*Q57+R7*R57+S7*S57+T7*T57</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="36">
+        <f>E8*E57+F8*F57+G8*G57+H8*H57+I8*I57+J8*J57+K8*K57+L8*L57+M8*M57+O8*O57+P8*P57+Q8*Q57+R8*R57+S8*S57+T8*T57</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="11" t="str">
+        <f>member!A58</f>
+        <v>小磊</v>
+      </c>
+      <c r="B58" s="34">
+        <f>COUNT(E58:T58)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="34">
+        <f>E7*E58+F7*F58+G7*G58+H7*H58+I7*I58+J7*J58+K7*K58+L7*L58+M7*M58+O7*O58+P7*P58+Q7*Q58+R7*R58+S7*S58+T7*T58</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="36">
+        <f>E8*E58+F8*F58+G8*G58+H8*H58+I8*I58+J8*J58+K8*K58+L8*L58+M8*M58+O8*O58+P8*P58+Q8*Q58+R8*R58+S8*S58+T8*T58</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="11" t="str">
+        <f>member!A59</f>
+        <v>绿洲</v>
+      </c>
+      <c r="B59" s="34">
+        <f>COUNT(E59:T59)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="34">
+        <f>E7*E59+F7*F59+G7*G59+H7*H59+I7*I59+J7*J59+K7*K59+L7*L59+M7*M59+O7*O59+P7*P59+Q7*Q59+R7*R59+S7*S59+T7*T59</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="36">
+        <f>E8*E59+F8*F59+G8*G59+H8*H59+I8*I59+J8*J59+K8*K59+L8*L59+M8*M59+O8*O59+P8*P59+Q8*Q59+R8*R59+S8*S59+T8*T59</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="11" t="str">
+        <f>member!A60</f>
+        <v>孙伟</v>
+      </c>
+      <c r="B60" s="34">
+        <f>COUNT(E60:T60)</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="34">
+        <f>E7*E60+F7*F60+G7*G60+H7*H60+I7*I60+J7*J60+K7*K60+L7*L60+M7*M60+O7*O60+P7*P60+Q7*Q60+R7*R60+S7*S60+T7*T60</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="36">
+        <f>E8*E60+F8*F60+G8*G60+H8*H60+I8*I60+J8*J60+K8*K60+L8*L60+M8*M60+O8*O60+P8*P60+Q8*Q60+R8*R60+S8*S60+T8*T60</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="11" t="str">
+        <f>member!A61</f>
+        <v>古轮木</v>
+      </c>
+      <c r="B61" s="34">
+        <f>COUNT(E61:T61)</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="34">
+        <f>E7*E61+F7*F61+G7*G61+H7*H61+I7*I61+J7*J61+K7*K61+L7*L61+M7*M61+O7*O61+P7*P61+Q7*Q61+R7*R61+S7*S61+T7*T61</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="36">
+        <f>E8*E61+F8*F61+G8*G61+H8*H61+I8*I61+J8*J61+K8*K61+L8*L61+M8*M61+O8*O61+P8*P61+Q8*Q61+R8*R61+S8*S61+T8*T61</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="str">
+        <f>member!A62</f>
+        <v>makoko</v>
+      </c>
+      <c r="B62" s="34">
+        <f>COUNT(E62:T62)</f>
+        <v>0</v>
+      </c>
+      <c r="C62" s="34">
+        <f>E7*E62+F7*F62+G7*G62+H7*H62+I7*I62+J7*J62+K7*K62+L7*L62+M7*M62+O7*O62+P7*P62+Q7*Q62+R7*R62+S7*S62+T7*T62</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="36">
+        <f>E8*E62+F8*F62+G8*G62+H8*H62+I8*I62+J8*J62+K8*K62+L8*L62+M8*M62+O8*O62+P8*P62+Q8*Q62+R8*R62+S8*S62+T8*T62</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="str">
+        <f>member!A63</f>
+        <v>玲-深蓝</v>
+      </c>
+      <c r="B63" s="34">
+        <f>COUNT(E63:T63)</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="34">
+        <f>E7*E63+F7*F63+G7*G63+H7*H63+I7*I63+J7*J63+K7*K63+L7*L63+M7*M63+N7*N63+O7*O63+P7*P63+Q7*Q63+R7*R63+S7*S63+T7*T63</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="36">
+        <f>E8*E63+F8*F63+G8*G63+H8*H63+I8*I63+J8*J63+K8*K63+L8*L63+M8*M63+N8*N63+O8*O63+P8*P63+Q8*Q63+R8*R63+S8*S63+T8*T63</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="11" t="str">
+        <f>member!A64</f>
+        <v>玲-小马</v>
+      </c>
+      <c r="B64" s="34">
+        <f>COUNT(E64:T64)</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="34">
+        <f>E7*E64+F7*F64+G7*G64+H7*H64+I7*I64+J7*J64+K7*K64+L7*L64+M7*M64+N7*N64+O7*O64+P7*P64+Q7*Q64+R7*R64+S7*S64+T7*T64</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="36">
+        <f>E8*E64+F8*F64+G8*G64+H8*H64+I8*I64+J8*J64+K8*K64+L8*L64+M8*M64+N8*N64+O8*O64+P8*P64+Q8*Q64+R8*R64+S8*S64+T8*T64</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="11" t="str">
+        <f>member!A65</f>
+        <v>玲-高</v>
+      </c>
+      <c r="B65" s="34">
+        <f>COUNT(E65:T65)</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="34">
+        <f>E7*E65+F7*F65+G7*G65+H7*H65+I7*I65+J7*J65+K7*K65+L7*L65+M7*M65+N7*N65+O7*O65+P7*P65+Q7*Q65+R7*R65+S7*S65+T7*T65</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="36">
+        <f>E8*E65+F8*F65+G8*G65+H8*H65+I8*I65+J8*J65+K8*K65+L8*L65+M8*M65+N8*N65+O8*O65+P8*P65+Q8*Q65+R8*R65+S8*S65+T8*T65</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="11" t="str">
+        <f>member!A66</f>
+        <v>玲-秦</v>
+      </c>
+      <c r="B66" s="34">
+        <f>COUNT(E66:T66)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="34">
+        <f>E7*E66+F7*F66+G7*G66+H7*H66+I7*I66+J7*J66+K7*K66+L7*L66+M7*M66+N7*N66+O7*O66+P7*P66+Q7*Q66+R7*R66+S7*S66+T7*T66</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="36">
+        <f>E8*E66+F8*F66+G8*G66+H8*H66+I8*I66+J8*J66+K8*K66+L8*L66+M8*M66+N8*N66+O8*O66+P8*P66+Q8*Q66+R8*R66+S8*S66+T8*T66</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="11" t="str">
+        <f>member!A67</f>
+        <v>玲-手</v>
+      </c>
+      <c r="B67" s="34">
+        <f>COUNT(E67:T67)</f>
+        <v>0</v>
+      </c>
+      <c r="C67" s="34">
+        <f>E7*E67+F7*F67+G7*G67+H7*H67+I7*I67+J7*J67+K7*K67+L7*L67+M7*M67+N7*N67+O7*O67+P7*P67+Q7*Q67+R7*R67+S7*S67+T7*T67</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="36">
+        <f>E8*E67+F8*F67+G8*G67+H8*H67+I8*I67+J8*J67+K8*K67+L8*L67+M8*M67+N8*N67+O8*O67+P8*P67+Q8*Q67+R8*R67+S8*S67+T8*T67</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="11" t="str">
+        <f>member!A68</f>
+        <v>度日</v>
+      </c>
+      <c r="B68" s="34">
+        <f>COUNT(E68:T68)</f>
+        <v>0</v>
+      </c>
+      <c r="C68" s="34">
+        <f>E7*E68+F7*F68+G7*G68+H7*H68+I7*I68+J7*J68+K7*K68+L7*L68+M7*M68+N7*N68+O7*O68+P7*P68+Q7*Q68+R7*R68+S7*S68+T7*T68</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="36">
+        <f>E8*E68+F8*F68+G8*G68+H8*H68+I8*I68+J8*J68+K8*K68+L8*L68+M8*M68+N8*N68+O8*O68+P8*P68+Q8*Q68+R8*R68+S8*S68+T8*T68</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="11" t="str">
+        <f>member!A69</f>
+        <v>肖飞</v>
+      </c>
+      <c r="B69" s="34">
+        <f>COUNT(E69:T69)</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="34">
+        <f>E7*E69+F7*F69+G7*G69+H7*H69+I7*I69+J7*J69+K7*K69+L7*L69+M7*M69+N7*N69+O7*O69+P7*P69+Q7*Q69+R7*R69+S7*S69+T7*T69</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="36">
+        <f>E8*E69+F8*F69+G8*G69+H8*H69+I8*I69+J8*J69+K8*K69+L8*L69+M8*M69+N8*N69+O8*O69+P8*P69+Q8*Q69+R8*R69+S8*S69+T8*T69</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="11" t="str">
+        <f>member!A70</f>
+        <v>玲-大马</v>
+      </c>
+      <c r="B70" s="34">
+        <f>COUNT(E70:T70)</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="34">
+        <f>E7*E70+F7*F70+G7*G70+H7*H70+I7*I70+J7*J70+K7*K70+L7*L70+M7*M70+N7*N70+O7*O70+P7*P70+Q7*Q70+R7*R70+S7*S70+T7*T70</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="36">
+        <f>E8*E70+F8*F70+G8*G70+H8*H70+I8*I70+J8*J70+K8*K70+L8*L70+M8*M70+N8*N70+O8*O70+P8*P70+Q8*Q70+R8*R70+S8*S70+T8*T70</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="34">
+        <f>COUNT(E71:T71)</f>
+        <v>0</v>
+      </c>
+      <c r="C71" s="34">
+        <f>E7*E71+F7*F71+G7*G71+H7*H71+I7*I71+J7*J71+K7*K71+L7*L71+M7*M71+N7*N71+O7*O71+P7*P71+Q7*Q71+R7*R71+S7*S71+T7*T71</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="36">
+        <f>E8*E71+F8*F71+G8*G71+H8*H71+I8*I71+J8*J71+K8*K71+L8*L71+M8*M71+N8*N71+O8*O71+P8*P71+Q8*Q71+R8*R71+S8*S71+T8*T71</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="34">
+        <f>COUNT(E72:T72)</f>
+        <v>1</v>
+      </c>
+      <c r="C72" s="34">
+        <f>E7*E72+F7*F72+G7*G72+H7*H72+I7*I72+J7*J72+K7*K72+L7*L72+M7*M72+N7*N72+O7*O72+P7*P72+Q7*Q72+R7*R72+S7*S72+T7*T72</f>
+        <v>30</v>
+      </c>
+      <c r="D72" s="36">
+        <f>E8*E72+F8*F72+G8*G72+H8*H72+I8*I72+J8*J72+K8*K72+L8*L72+M8*M72+N8*N72+O8*O72+P8*P72+Q8*Q72+R8*R72+S8*S72+T8*T72</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="34">
+        <f t="shared" ref="B73:B100" si="5">COUNT(E73:T73)</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="34">
+        <f>E7*E73+F7*F73+G7*G73+H7*H73+I7*I73+J7*J73+K7*K73+L7*L73+M7*M73+N7*N73+O7*O73+P7*P73+Q7*Q73+R7*R73+S7*S73+T7*T73</f>
+        <v>30</v>
+      </c>
+      <c r="D73" s="36">
+        <f>E8*E73+F8*F73+G8*G73+H8*H73+I8*I73+J8*J73+K8*K73+L8*L73+M8*M73+N8*N73+O8*O73+P8*P73+Q8*Q73+R8*R73+S8*S73+T8*T73</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="11" t="str">
+        <f>member!A74</f>
+        <v>新</v>
+      </c>
+      <c r="B74" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C74" s="34">
+        <f>E7*E74+F7*F74+G7*G74+H7*H74+I7*I74+J7*J74+K7*K74+L7*L74+M7*M74+N7*N74+O7*O74+P7*P74+Q7*Q74+R7*R74+S7*S74+T7*T74</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="36">
+        <f>E8*E74+F8*F74+G8*G74+H8*H74+I8*I74+J8*J74+K8*K74+L8*L74+M8*M74+N8*N74+O8*O74+P8*P74+Q8*Q74+R8*R74+S8*S74+T8*T74</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="11" t="str">
+        <f>member!A75</f>
+        <v>新</v>
+      </c>
+      <c r="B75" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C75" s="34">
+        <f>E7*E75+F7*F75+G7*G75+H7*H75+I7*I75+J7*J75+K7*K75+L7*L75+M7*M75+N7*N75+O7*O75+P7*P75+Q7*Q75+R7*R75+S7*S75+T7*T75</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="36">
+        <f>E8*E75+F8*F75+G8*G75+H8*H75+I8*I75+J8*J75+K8*K75+L8*L75+M8*M75+N8*N75+O8*O75+P8*P75+Q8*Q75+R8*R75+S8*S75+T8*T75</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="11" t="str">
+        <f>member!A76</f>
+        <v>新</v>
+      </c>
+      <c r="B76" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C76" s="34">
+        <f>E7*E76+F7*F76+G7*G76+H7*H76+I7*I76+J7*J76+K7*K76+L7*L76+M7*M76+N7*N76+O7*O76+P7*P76+Q7*Q76+R7*R76+S7*S76+T7*T76</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="36">
+        <f>E8*E76+F8*F76+G8*G76+H8*H76+I8*I76+J8*J76+K8*K76+L8*L76+M8*M76+N8*N76+O8*O76+P8*P76+Q8*Q76+R8*R76+S8*S76+T8*T76</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="11" t="str">
+        <f>member!A77</f>
+        <v>新</v>
+      </c>
+      <c r="B77" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C77" s="34">
+        <f>E7*E77+F7*F77+G7*G77+H7*H77+I7*I77+J7*J77+K7*K77+L7*L77+M7*M77+N7*N77+O7*O77+P7*P77+Q7*Q77+R7*R77+S7*S77+T7*T77</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="36">
+        <f>E8*E77+F8*F77+G8*G77+H8*H77+I8*I77+J8*J77+K8*K77+L8*L77+M8*M77+N8*N77+O8*O77+P8*P77+Q8*Q77+R8*R77+S8*S77+T8*T77</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="11" t="str">
+        <f>member!A78</f>
+        <v>新</v>
+      </c>
+      <c r="B78" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C78" s="34">
+        <f>E7*E78+F7*F78+G7*G78+H7*H78+I7*I78+J7*J78+K7*K78+L7*L78+M7*M78+N7*N78+O7*O78+P7*P78+Q7*Q78+R7*R78+S7*S78+T7*T78</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="36">
+        <f>E8*E78+F8*F78+G8*G78+H8*H78+I8*I78+J8*J78+K8*K78+L8*L78+M8*M78+N8*N78+O8*O78+P8*P78+Q8*Q78+R8*R78+S8*S78+T8*T78</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="11" t="str">
+        <f>member!A79</f>
+        <v>新</v>
+      </c>
+      <c r="B79" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C79" s="34">
+        <f>E7*E79+F7*F79+G7*G79+H7*H79+I7*I79+J7*J79+K7*K79+L7*L79+M7*M79+N7*N79+O7*O79+P7*P79+Q7*Q79+R7*R79+S7*S79+T7*T79</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="36">
+        <f>E8*E79+F8*F79+G8*G79+H8*H79+I8*I79+J8*J79+K8*K79+L8*L79+M8*M79+N8*N79+O8*O79+P8*P79+Q8*Q79+R8*R79+S8*S79+T8*T79</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="11" t="str">
+        <f>member!A80</f>
+        <v>新</v>
+      </c>
+      <c r="B80" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C80" s="34">
+        <f>E7*E80+F7*F80+G7*G80+H7*H80+I7*I80+J7*J80+K7*K80+L7*L80+M7*M80+N7*N80+O7*O80+P7*P80+Q7*Q80+R7*R80+S7*S80+T7*T80</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="36">
+        <f>E8*E80+F8*F80+G8*G80+H8*H80+I8*I80+J8*J80+K8*K80+L8*L80+M8*M80+N8*N80+O8*O80+P8*P80+Q8*Q80+R8*R80+S8*S80+T8*T80</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="11" t="str">
+        <f>member!A81</f>
+        <v>新</v>
+      </c>
+      <c r="B81" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C81" s="34">
+        <f>E7*E81+F7*F81+G7*G81+H7*H81+I7*I81+J7*J81+K7*K81+L7*L81+M7*M81+N7*N81+O7*O81+P7*P81+Q7*Q81+R7*R81+S7*S81+T7*T81</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="36">
+        <f>E8*E81+F8*F81+G8*G81+H8*H81+I8*I81+J8*J81+K8*K81+L8*L81+M8*M81+N8*N81+O8*O81+P8*P81+Q8*Q81+R8*R81+S8*S81+T8*T81</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="11" t="str">
+        <f>member!A82</f>
+        <v>新</v>
+      </c>
+      <c r="B82" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C82" s="34">
+        <f>E7*E82+F7*F82+G7*G82+H7*H82+I7*I82+J7*J82+K7*K82+L7*L82+M7*M82+N7*N82+O7*O82+P7*P82+Q7*Q82+R7*R82+S7*S82+T7*T82</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="36">
+        <f>E8*E82+F8*F82+G8*G82+H8*H82+I8*I82+J8*J82+K8*K82+L8*L82+M8*M82+N8*N82+O8*O82+P8*P82+Q8*Q82+R8*R82+S8*S82+T8*T82</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="11" t="str">
+        <f>member!A83</f>
+        <v>新</v>
+      </c>
+      <c r="B83" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C83" s="34">
+        <f>E7*E83+F7*F83+G7*G83+H7*H83+I7*I83+J7*J83+K7*K83+L7*L83+M7*M83+N7*N83+O7*O83+P7*P83+Q7*Q83+R7*R83+S7*S83+T7*T83</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="36">
+        <f>E8*E83+F8*F83+G8*G83+H8*H83+I8*I83+J8*J83+K8*K83+L8*L83+M8*M83+N8*N83+O8*O83+P8*P83+Q8*Q83+R8*R83+S8*S83+T8*T83</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="11" t="str">
+        <f>member!A84</f>
+        <v>新</v>
+      </c>
+      <c r="B84" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C84" s="34">
+        <f>E7*E84+F7*F84+G7*G84+H7*H84+I7*I84+J7*J84+K7*K84+L7*L84+M7*M84+N7*N84+O7*O84+P7*P84+Q7*Q84+R7*R84+S7*S84+T7*T84</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="36">
+        <f>E8*E84+F8*F84+G8*G84+H8*H84+I8*I84+J8*J84+K8*K84+L8*L84+M8*M84+N8*N84+O8*O84+P8*P84+Q8*Q84+R8*R84+S8*S84+T8*T84</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="11" t="str">
+        <f>member!A85</f>
+        <v>新</v>
+      </c>
+      <c r="B85" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C85" s="34">
+        <f>E7*E85+F7*F85+G7*G85+H7*H85+I7*I85+J7*J85+K7*K85+L7*L85+M7*M85+N7*N85+O7*O85+P7*P85+Q7*Q85+R7*R85+S7*S85+T7*T85</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="36">
+        <f>E8*E85+F8*F85+G8*G85+H8*H85+I8*I85+J8*J85+K8*K85+L8*L85+M8*M85+N8*N85+O8*O85+P8*P85+Q8*Q85+R8*R85+S8*S85+T8*T85</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="11" t="str">
+        <f>member!A86</f>
+        <v>新</v>
+      </c>
+      <c r="B86" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C86" s="34">
+        <f>E7*E86+F7*F86+G7*G86+H7*H86+I7*I86+J7*J86+K7*K86+L7*L86+M7*M86+N7*N86+O7*O86+P7*P86+Q7*Q86+R7*R86+S7*S86+T7*T86</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="36">
+        <f>E8*E86+F8*F86+G8*G86+H8*H86+I8*I86+J8*J86+K8*K86+L8*L86+M8*M86+N8*N86+O8*O86+P8*P86+Q8*Q86+R8*R86+S8*S86+T8*T86</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="11" t="str">
+        <f>member!A87</f>
+        <v>新</v>
+      </c>
+      <c r="B87" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C87" s="34">
+        <f>E7*E87+F7*F87+G7*G87+H7*H87+I7*I87+J7*J87+K7*K87+L7*L87+M7*M87+N7*N87+O7*O87+P7*P87+Q7*Q87+R7*R87+S7*S87+T7*T87</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="36">
+        <f>E8*E87+F8*F87+G8*G87+H8*H87+I8*I87+J8*J87+K8*K87+L8*L87+M8*M87+N8*N87+O8*O87+P8*P87+Q8*Q87+R8*R87+S8*S87+T8*T87</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="11" t="str">
+        <f>member!A88</f>
+        <v>新</v>
+      </c>
+      <c r="B88" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C88" s="34">
+        <f>E7*E88+F7*F88+G7*G88+H7*H88+I7*I88+J7*J88+K7*K88+L7*L88+M7*M88+N7*N88+O7*O88+P7*P88+Q7*Q88+R7*R88+S7*S88+T7*T88</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="36">
+        <f>E8*E88+F8*F88+G8*G88+H8*H88+I8*I88+J8*J88+K8*K88+L8*L88+M8*M88+N8*N88+O8*O88+P8*P88+Q8*Q88+R8*R88+S8*S88+T8*T88</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="11" t="str">
+        <f>member!A89</f>
+        <v>新</v>
+      </c>
+      <c r="B89" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C89" s="34">
+        <f>E7*E89+F7*F89+G7*G89+H7*H89+I7*I89+J7*J89+K7*K89+L7*L89+M7*M89+N7*N89+O7*O89+P7*P89+Q7*Q89+R7*R89+S7*S89+T7*T89</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="36">
+        <f>E8*E89+F8*F89+G8*G89+H8*H89+I8*I89+J8*J89+K8*K89+L8*L89+M8*M89+N8*N89+O8*O89+P8*P89+Q8*Q89+R8*R89+S8*S89+T8*T89</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="11" t="str">
+        <f>member!A90</f>
+        <v>新</v>
+      </c>
+      <c r="B90" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C90" s="34">
+        <f>E7*E90+F7*F90+G7*G90+H7*H90+I7*I90+J7*J90+K7*K90+L7*L90+M7*M90+N7*N90+O7*O90+P7*P90+Q7*Q90+R7*R90+S7*S90+T7*T90</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="36">
+        <f>E8*E90+F8*F90+G8*G90+H8*H90+I8*I90+J8*J90+K8*K90+L8*L90+M8*M90+N8*N90+O8*O90+P8*P90+Q8*Q90+R8*R90+S8*S90+T8*T90</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="11" t="str">
+        <f>member!A91</f>
+        <v>新</v>
+      </c>
+      <c r="B91" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C91" s="34">
+        <f>E7*E91+F7*F91+G7*G91+H7*H91+I7*I91+J7*J91+K7*K91+L7*L91+M7*M91+N7*N91+O7*O91+P7*P91+Q7*Q91+R7*R91+S7*S91+T7*T91</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="36">
+        <f>E8*E91+F8*F91+G8*G91+H8*H91+I8*I91+J8*J91+K8*K91+L8*L91+M8*M91+N8*N91+O8*O91+P8*P91+Q8*Q91+R8*R91+S8*S91+T8*T91</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="11" t="str">
+        <f>member!A92</f>
+        <v>新</v>
+      </c>
+      <c r="B92" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C92" s="34">
+        <f>E7*E92+F7*F92+G7*G92+H7*H92+I7*I92+J7*J92+K7*K92+L7*L92+M7*M92+N7*N92+O7*O92+P7*P92+Q7*Q92+R7*R92+S7*S92+T7*T92</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="36">
+        <f>E8*E92+F8*F92+G8*G92+H8*H92+I8*I92+J8*J92+K8*K92+L8*L92+M8*M92+N8*N92+O8*O92+P8*P92+Q8*Q92+R8*R92+S8*S92+T8*T92</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="11" t="str">
+        <f>member!A93</f>
+        <v>新</v>
+      </c>
+      <c r="B93" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C93" s="34">
+        <f>E7*E93+F7*F93+G7*G93+H7*H93+I7*I93+J7*J93+K7*K93+L7*L93+M7*M93+N7*N93+O7*O93+P7*P93+Q7*Q93+R7*R93+S7*S93+T7*T93</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="36">
+        <f>E8*E93+F8*F93+G8*G93+H8*H93+I8*I93+J8*J93+K8*K93+L8*L93+M8*M93+N8*N93+O8*O93+P8*P93+Q8*Q93+R8*R93+S8*S93+T8*T93</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="11" t="str">
+        <f>member!A94</f>
+        <v>新</v>
+      </c>
+      <c r="B94" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C94" s="34">
+        <f>E7*E94+F7*F94+G7*G94+H7*H94+I7*I94+J7*J94+K7*K94+L7*L94+M7*M94+N7*N94+O7*O94+P7*P94+Q7*Q94+R7*R94+S7*S94+T7*T94</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="36">
+        <f>E8*E94+F8*F94+G8*G94+H8*H94+I8*I94+J8*J94+K8*K94+L8*L94+M8*M94+N8*N94+O8*O94+P8*P94+Q8*Q94+R8*R94+S8*S94+T8*T94</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="11" t="str">
+        <f>member!A95</f>
+        <v>新</v>
+      </c>
+      <c r="B95" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C95" s="34">
+        <f>E7*E95+F7*F95+G7*G95+H7*H95+I7*I95+J7*J95+K7*K95+L7*L95+M7*M95+N7*N95+O7*O95+P7*P95+Q7*Q95+R7*R95+S7*S95+T7*T95</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="36">
+        <f>E8*E95+F8*F95+G8*G95+H8*H95+I8*I95+J8*J95+K8*K95+L8*L95+M8*M95+N8*N95+O8*O95+P8*P95+Q8*Q95+R8*R95+S8*S95+T8*T95</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="11" t="str">
+        <f>member!A96</f>
+        <v>新</v>
+      </c>
+      <c r="B96" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C96" s="34">
+        <f>E7*E96+F7*F96+G7*G96+H7*H96+I7*I96+J7*J96+K7*K96+L7*L96+M7*M96+N7*N96+O7*O96+P7*P96+Q7*Q96+R7*R96+S7*S96+T7*T96</f>
+        <v>0</v>
+      </c>
+      <c r="D96" s="36">
+        <f>E8*E96+F8*F96+G8*G96+H8*H96+I8*I96+J8*J96+K8*K96+L8*L96+M8*M96+N8*N96+O8*O96+P8*P96+Q8*Q96+R8*R96+S8*S96+T8*T96</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="11" t="str">
+        <f>member!A97</f>
+        <v>新</v>
+      </c>
+      <c r="B97" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C97" s="34">
+        <f>E7*E97+F7*F97+G7*G97+H7*H97+I7*I97+J7*J97+K7*K97+L7*L97+M7*M97+N7*N97+O7*O97+P7*P97+Q7*Q97+R7*R97+S7*S97+T7*T97</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="36">
+        <f>E8*E97+F8*F97+G8*G97+H8*H97+I8*I97+J8*J97+K8*K97+L8*L97+M8*M97+N8*N97+O8*O97+P8*P97+Q8*Q97+R8*R97+S8*S97+T8*T97</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="11" t="str">
+        <f>member!A98</f>
+        <v>新</v>
+      </c>
+      <c r="B98" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C98" s="34">
+        <f>E7*E98+F7*F98+G7*G98+H7*H98+I7*I98+J7*J98+K7*K98+L7*L98+M7*M98+N7*N98+O7*O98+P7*P98+Q7*Q98+R7*R98+S7*S98+T7*T98</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="36">
+        <f>E8*E98+F8*F98+G8*G98+H8*H98+I8*I98+J8*J98+K8*K98+L8*L98+M8*M98+N8*N98+O8*O98+P8*P98+Q8*Q98+R8*R98+S8*S98+T8*T98</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="11" t="str">
+        <f>member!A99</f>
+        <v>新</v>
+      </c>
+      <c r="B99" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C99" s="34">
+        <f>E7*E99+F7*F99+G7*G99+H7*H99+I7*I99+J7*J99+K7*K99+L7*L99+M7*M99+N7*N99+O7*O99+P7*P99+Q7*Q99+R7*R99+S7*S99+T7*T99</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="36">
+        <f>E8*E99+F8*F99+G8*G99+H8*H99+I8*I99+J8*J99+K8*K99+L8*L99+M8*M99+N8*N99+O8*O99+P8*P99+Q8*Q99+R8*R99+S8*S99+T8*T99</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="11" t="str">
+        <f>member!A100</f>
+        <v>新</v>
+      </c>
+      <c r="B100" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C100" s="34">
+        <f>E7*E100+F7*F100+G7*G100+H7*H100+I7*I100+J7*J100+K7*K100+L7*L100+M7*M100+N7*N100+O7*O100+P7*P100+Q7*Q100+R7*R100+S7*S100+T7*T100</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="36">
+        <f>E8*E100+F8*F100+G8*G100+H8*H100+I8*I100+J8*J100+K8*K100+L8*L100+M8*M100+N8*N100+O8*O100+P8*P100+Q8*Q100+R8*R100+S8*S100+T8*T100</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="170">
   <si>
     <t>守候幸福</t>
   </si>
@@ -435,10 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2/9/2012(扣),5/22/2012(罚)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5/22/2012(罚)</t>
   </si>
   <si>
@@ -495,10 +491,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.29退15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退虫,豆,鲜明,超,活,神 6*30；退狐狸10块；退smile 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -520,10 +512,6 @@
   </si>
   <si>
     <t>6.5退20</t>
-  </si>
-  <si>
-    <t>6.5退20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玲-深蓝</t>
@@ -577,10 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.29退10,6.7退20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退狐狸20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -611,10 +595,6 @@
   </si>
   <si>
     <t>6.12待罚10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012.6.12额外28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -706,6 +686,53 @@
   </si>
   <si>
     <t>7.5未踢全场，只交20，其他人30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚峰鸽子费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计分小黑板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坎12</t>
+  </si>
+  <si>
+    <t>坎12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5退20，坎12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/9/2012(扣),5/22/2012(罚)，坎12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.29退15，坎12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.29退10,6.7退20，坎12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30件坎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.12额外28，坎12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">坎钱（个人账户扣）：超、菜、赐、尚峰、微笑、维尼、鲜明、活了（2），虫、更心、小贝、豆、SM、狐狸 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条幅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1223,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1260,7 +1287,7 @@
         <v>53</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>55</v>
@@ -1302,7 +1329,7 @@
       <c r="G2" s="36"/>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
-        <v>1410.9999999999995</v>
+        <v>1254.9999999999998</v>
       </c>
       <c r="I2" s="38">
         <f t="shared" si="0"/>
@@ -1340,7 +1367,7 @@
       </c>
       <c r="I4" s="40">
         <f>H2+I2</f>
-        <v>1465.9999999999995</v>
+        <v>1309.9999999999998</v>
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
@@ -17837,7 +17864,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.15">
@@ -17863,14 +17890,18 @@
       <c r="F11" s="18">
         <v>155</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="18">
+        <v>-12</v>
+      </c>
       <c r="H11" s="36">
         <f t="shared" si="2"/>
-        <v>27.362279898464067</v>
+        <v>15.362279898464067</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
@@ -17957,10 +17988,12 @@
       <c r="F14" s="18">
         <v>135</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="18">
+        <v>-12</v>
+      </c>
       <c r="H14" s="36">
         <f t="shared" si="2"/>
-        <v>65.936154488786059</v>
+        <v>53.936154488786059</v>
       </c>
       <c r="I14" s="18">
         <v>5</v>
@@ -17969,7 +18002,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.15">
@@ -18119,15 +18152,17 @@
       <c r="F19" s="18">
         <v>80</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>-12</v>
+      </c>
       <c r="H19" s="36">
         <f t="shared" si="2"/>
-        <v>49.285585759269964</v>
+        <v>37.285585759269964</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -18163,7 +18198,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -18189,15 +18224,17 @@
       <c r="F21" s="18">
         <v>70</v>
       </c>
-      <c r="G21" s="18"/>
+      <c r="G21" s="18">
+        <v>-12</v>
+      </c>
       <c r="H21" s="36">
         <f t="shared" si="2"/>
-        <v>16.699099511599513</v>
+        <v>4.6990995115995133</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -18223,14 +18260,18 @@
       <c r="F22" s="18">
         <v>30</v>
       </c>
-      <c r="G22" s="18"/>
+      <c r="G22" s="18">
+        <v>-12</v>
+      </c>
       <c r="H22" s="36">
         <f t="shared" si="2"/>
-        <v>56.188596491228083</v>
+        <v>44.188596491228083</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
@@ -18255,14 +18296,18 @@
       <c r="F23" s="18">
         <v>85</v>
       </c>
-      <c r="G23" s="18"/>
+      <c r="G23" s="18">
+        <v>-12</v>
+      </c>
       <c r="H23" s="36">
         <f t="shared" si="2"/>
-        <v>24.310238737870321</v>
+        <v>12.310238737870321</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
@@ -18333,7 +18378,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -18389,14 +18434,18 @@
       <c r="F27" s="18">
         <v>175</v>
       </c>
-      <c r="G27" s="18"/>
+      <c r="G27" s="18">
+        <v>-12</v>
+      </c>
       <c r="H27" s="36">
         <f t="shared" si="2"/>
-        <v>15.384028982713176</v>
+        <v>3.3840289827131755</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
@@ -18429,7 +18478,7 @@
       <c r="I28" s="18"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -18455,14 +18504,18 @@
       <c r="F29" s="18">
         <v>50</v>
       </c>
-      <c r="G29" s="18"/>
+      <c r="G29" s="18">
+        <v>-12</v>
+      </c>
       <c r="H29" s="36">
         <f t="shared" si="2"/>
-        <v>20.464285714285708</v>
+        <v>8.4642857142857082</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
@@ -18549,14 +18602,18 @@
       <c r="F32" s="18">
         <v>40</v>
       </c>
-      <c r="G32" s="18"/>
+      <c r="G32" s="18">
+        <v>-12</v>
+      </c>
       <c r="H32" s="36">
         <f t="shared" si="2"/>
-        <v>10.938596491228061</v>
+        <v>-1.0614035087719387</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
@@ -18581,14 +18638,18 @@
       <c r="F33" s="18">
         <v>45</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="18">
+        <v>-12</v>
+      </c>
       <c r="H33" s="36">
         <f t="shared" si="2"/>
-        <v>7.7400030525030559</v>
+        <v>-4.2599969474969441</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
@@ -18643,15 +18704,17 @@
       <c r="F35" s="18">
         <v>125</v>
       </c>
-      <c r="G35" s="18"/>
+      <c r="G35" s="18">
+        <v>-12</v>
+      </c>
       <c r="H35" s="36">
         <f t="shared" si="2"/>
-        <v>14.362741790373377</v>
+        <v>2.3627417903733772</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -18842,7 +18905,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="39">
         <f>'201202'!B42+'201203'!B42+'201204'!B42+'201205'!B42+'201206'!B42+'201207'!B42+'201208'!B42+'201209'!B42+'201210'!B42+'201211'!B42+'201212'!B42</f>
@@ -19004,7 +19067,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B47" s="39">
         <f>'201202'!B47+'201203'!B47+'201204'!B47+'201205'!B47+'201206'!B47+'201207'!B47+'201208'!B47+'201209'!B47+'201210'!B47+'201211'!B47+'201212'!B47</f>
@@ -19097,7 +19160,7 @@
         <v>2</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -19215,14 +19278,18 @@
         <v>10.111111111111111</v>
       </c>
       <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
+      <c r="G53" s="18">
+        <v>-12</v>
+      </c>
       <c r="H53" s="36">
         <f t="shared" si="4"/>
-        <v>10.111111111111111</v>
+        <v>-1.8888888888888893</v>
       </c>
       <c r="I53" s="18"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
@@ -19308,16 +19375,16 @@
         <v>45</v>
       </c>
       <c r="G56" s="18">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H56" s="36">
         <f t="shared" si="4"/>
-        <v>57.703935319066886</v>
+        <v>45.703935319066886</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
@@ -19383,7 +19450,7 @@
       <c r="I58" s="18"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -19508,7 +19575,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B63" s="39">
         <f>'201202'!B63+'201203'!B63+'201204'!B63+'201205'!B63+'201206'!B63+'201207'!B63+'201208'!B63+'201209'!B63+'201210'!B63+'201211'!B63+'201212'!B63</f>
@@ -19538,7 +19605,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B64" s="39">
         <f>'201202'!B64+'201203'!B64+'201204'!B64+'201205'!B64+'201206'!B64+'201207'!B64+'201208'!B64+'201209'!B64+'201210'!B64+'201211'!B64+'201212'!B64</f>
@@ -19568,7 +19635,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B65" s="39">
         <f>'201202'!B65+'201203'!B65+'201204'!B65+'201205'!B65+'201206'!B65+'201207'!B65+'201208'!B65+'201209'!B65+'201210'!B65+'201211'!B65+'201212'!B65</f>
@@ -19598,7 +19665,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B66" s="39">
         <f>'201202'!B66+'201203'!B66+'201204'!B66+'201205'!B66+'201206'!B66+'201207'!B66+'201208'!B66+'201209'!B66+'201210'!B66+'201211'!B66+'201212'!B66</f>
@@ -19628,7 +19695,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B67" s="39">
         <f>'201202'!B67+'201203'!B67+'201204'!B67+'201205'!B67+'201206'!B67+'201207'!B67+'201208'!B67+'201209'!B67+'201210'!B67+'201211'!B67+'201212'!B67</f>
@@ -19658,7 +19725,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B68" s="39">
         <f>'201202'!B68+'201203'!B68+'201204'!B68+'201205'!B68+'201206'!B68+'201207'!B68+'201208'!B68+'201209'!B68+'201210'!B68+'201211'!B68+'201212'!B68</f>
@@ -19688,7 +19755,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" s="39">
         <f>'201202'!B69+'201203'!B69+'201204'!B69+'201205'!B69+'201206'!B69+'201207'!B69+'201208'!B69+'201209'!B69+'201210'!B69+'201211'!B69+'201212'!B69</f>
@@ -19718,7 +19785,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B70" s="39">
         <f>'201202'!B70+'201203'!B70+'201204'!B70+'201205'!B70+'201206'!B70+'201207'!B70+'201208'!B70+'201209'!B70+'201210'!B70+'201211'!B70+'201212'!B70</f>
@@ -20661,27 +20728,27 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -20791,10 +20858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20812,7 +20879,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>42</v>
@@ -20821,7 +20888,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>42</v>
@@ -20829,122 +20896,132 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="39">
-        <f>SUM(B3:B49)</f>
-        <v>368</v>
+        <f>SUM(B3:B51)</f>
+        <v>288</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="42" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="39">
-        <f>SUM(E3:E47)</f>
-        <v>1490</v>
+        <f>SUM(E3:E49)</f>
+        <v>1302</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
-        <v>41095</v>
+        <v>41109</v>
       </c>
       <c r="B3" s="1">
-        <v>-240</v>
+        <v>-90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="D3" s="14">
+        <v>41114</v>
+      </c>
+      <c r="E3" s="1">
+        <v>192</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
-        <v>41095</v>
+        <v>41107</v>
       </c>
       <c r="B4" s="1">
-        <v>320</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4" s="14">
-        <v>41079</v>
+        <v>41114</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>-360</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
-        <v>41072</v>
+        <v>41095</v>
       </c>
       <c r="B5" s="1">
-        <v>48</v>
+        <v>-240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D5" s="14">
-        <v>40948</v>
+        <v>41107</v>
       </c>
       <c r="E5" s="1">
-        <v>75</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
-        <v>41072</v>
+        <v>41095</v>
       </c>
       <c r="B6" s="1">
-        <v>55</v>
+        <v>320</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D6" s="14">
-        <v>40952</v>
+        <v>41079</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
-        <v>41067</v>
+        <v>41072</v>
       </c>
       <c r="B7" s="1">
-        <v>-20</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D7" s="14">
-        <v>40960</v>
+        <v>40948</v>
       </c>
       <c r="E7" s="1">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
-        <v>41067</v>
+        <v>41072</v>
       </c>
       <c r="B8" s="1">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D8" s="14">
-        <v>40967</v>
+        <v>40952</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
@@ -20953,254 +21030,262 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
-        <v>41065</v>
+        <v>41067</v>
       </c>
       <c r="B9" s="1">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D9" s="14">
-        <v>40970</v>
+        <v>40960</v>
       </c>
       <c r="E9" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
-        <v>41065</v>
+        <v>41067</v>
       </c>
       <c r="B10" s="1">
-        <v>30</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>136</v>
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="D10" s="14">
-        <v>40974</v>
+        <v>40967</v>
       </c>
       <c r="E10" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
-        <v>41060</v>
+        <v>41065</v>
       </c>
       <c r="B11" s="1">
-        <v>-10</v>
-      </c>
-      <c r="C11" s="44" t="s">
+        <v>-40</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D11" s="14">
-        <v>40976</v>
+        <v>40970</v>
       </c>
       <c r="E11" s="1">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
-        <v>41060</v>
+        <v>41065</v>
       </c>
       <c r="B12" s="1">
-        <v>130</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>125</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="D12" s="14">
-        <v>40983</v>
+        <v>40974</v>
       </c>
       <c r="E12" s="1">
-        <v>90</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
-        <v>41058</v>
+        <v>41060</v>
       </c>
       <c r="B13" s="1">
-        <v>195</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>123</v>
+        <v>-10</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>122</v>
       </c>
       <c r="D13" s="14">
-        <v>40983</v>
+        <v>40976</v>
       </c>
       <c r="E13" s="1">
-        <v>-60</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
-        <v>41058</v>
+        <v>41060</v>
       </c>
       <c r="B14" s="1">
-        <v>-205</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>123</v>
       </c>
       <c r="D14" s="14">
-        <v>40988</v>
+        <v>40983</v>
       </c>
       <c r="E14" s="1">
-        <v>50</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>41058</v>
       </c>
       <c r="B15" s="1">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>195</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>121</v>
       </c>
       <c r="D15" s="14">
-        <v>40990</v>
+        <v>40983</v>
       </c>
       <c r="E15" s="1">
-        <v>30</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>-60</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
-        <v>40941</v>
+        <v>41058</v>
       </c>
       <c r="B16" s="1">
-        <v>160</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>-205</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="D16" s="14">
-        <v>40990</v>
+        <v>40988</v>
       </c>
       <c r="E16" s="1">
-        <v>-60</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
-        <v>40946</v>
+        <v>41058</v>
       </c>
       <c r="B17" s="1">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D17" s="14">
-        <v>40995</v>
+        <v>40990</v>
       </c>
       <c r="E17" s="1">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
-        <v>40972</v>
+        <v>40941</v>
       </c>
       <c r="B18" s="1">
-        <v>-70</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="14">
-        <v>40995</v>
+        <v>40990</v>
       </c>
       <c r="E18" s="1">
-        <v>-30</v>
+        <v>-60</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
-        <v>40981</v>
+        <v>40946</v>
       </c>
       <c r="B19" s="1">
-        <v>30</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="14">
-        <v>40997</v>
+        <v>40995</v>
       </c>
       <c r="E19" s="1">
-        <v>50</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
+        <v>40972</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="14">
+        <v>40995</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-30</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="14">
         <v>40981</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="14">
+        <v>40997</v>
+      </c>
+      <c r="E21" s="1">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="14">
+        <v>40981</v>
+      </c>
+      <c r="B22" s="1">
         <v>-120</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D22" s="14">
         <v>40999</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E22" s="1">
         <v>20</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="14">
-        <v>41004</v>
-      </c>
-      <c r="E21" s="1">
-        <v>80</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="14">
-        <v>41009</v>
-      </c>
-      <c r="E22" s="1">
-        <v>170</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -21208,13 +21293,13 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="14">
-        <v>41009</v>
+        <v>41004</v>
       </c>
       <c r="E23" s="1">
-        <v>-60</v>
+        <v>80</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -21225,10 +21310,10 @@
         <v>41009</v>
       </c>
       <c r="E24" s="1">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -21236,13 +21321,13 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="14">
-        <v>41011</v>
+        <v>41009</v>
       </c>
       <c r="E25" s="1">
-        <v>170</v>
+        <v>-60</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -21250,13 +21335,13 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="14">
-        <v>41011</v>
+        <v>41009</v>
       </c>
       <c r="E26" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -21267,10 +21352,10 @@
         <v>41011</v>
       </c>
       <c r="E27" s="1">
-        <v>-30</v>
+        <v>170</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -21278,13 +21363,13 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="14">
-        <v>41016</v>
+        <v>41011</v>
       </c>
       <c r="E28" s="1">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -21292,13 +21377,13 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="14">
-        <v>41016</v>
+        <v>41011</v>
       </c>
       <c r="E29" s="1">
-        <v>-150</v>
+        <v>-30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -21306,13 +21391,13 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="14">
-        <v>41018</v>
+        <v>41016</v>
       </c>
       <c r="E30" s="1">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -21320,13 +21405,13 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="14">
-        <v>41018</v>
+        <v>41016</v>
       </c>
       <c r="E31" s="1">
-        <v>-75</v>
+        <v>-150</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -21334,13 +21419,13 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="14">
-        <v>41023</v>
+        <v>41018</v>
       </c>
       <c r="E32" s="1">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -21348,13 +21433,13 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="14">
-        <v>41025</v>
+        <v>41018</v>
       </c>
       <c r="E33" s="1">
-        <v>200</v>
+        <v>-75</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -21362,13 +21447,13 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="14">
-        <v>41025</v>
+        <v>41023</v>
       </c>
       <c r="E34" s="1">
-        <v>-180</v>
+        <v>200</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -21376,13 +21461,13 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="14">
-        <v>41032</v>
+        <v>41025</v>
       </c>
       <c r="E35" s="1">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -21390,13 +21475,13 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="14">
-        <v>41037</v>
+        <v>41025</v>
       </c>
       <c r="E36" s="1">
-        <v>195</v>
+        <v>-180</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -21404,13 +21489,13 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="14">
-        <v>41039</v>
+        <v>41032</v>
       </c>
       <c r="E37" s="1">
-        <v>285</v>
+        <v>140</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -21418,13 +21503,13 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="14">
-        <v>41044</v>
+        <v>41037</v>
       </c>
       <c r="E38" s="1">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -21432,13 +21517,13 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="14">
-        <v>41044</v>
+        <v>41039</v>
       </c>
       <c r="E39" s="1">
-        <v>-90</v>
+        <v>285</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -21446,13 +21531,13 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="14">
-        <v>41046</v>
+        <v>41044</v>
       </c>
       <c r="E40" s="1">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -21460,13 +21545,13 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="14">
-        <v>41046</v>
+        <v>41044</v>
       </c>
       <c r="E41" s="1">
-        <v>-320</v>
+        <v>-90</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -21474,13 +21559,13 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="14">
-        <v>41051</v>
+        <v>41046</v>
       </c>
       <c r="E42" s="1">
-        <v>55</v>
-      </c>
-      <c r="F42" s="41" t="s">
-        <v>108</v>
+        <v>15</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -21488,13 +21573,13 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="14">
-        <v>41051</v>
+        <v>41046</v>
       </c>
       <c r="E43" s="1">
-        <v>-350</v>
+        <v>-320</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -21502,13 +21587,13 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="14">
-        <v>41053</v>
+        <v>41051</v>
       </c>
       <c r="E44" s="1">
-        <v>15</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>110</v>
+        <v>55</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -21516,13 +21601,13 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="14">
-        <v>41053</v>
+        <v>41051</v>
       </c>
       <c r="E45" s="1">
-        <v>-300</v>
+        <v>-350</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -21533,27 +21618,39 @@
         <v>41053</v>
       </c>
       <c r="E46" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="D47" s="14">
+        <v>41053</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-300</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="D48" s="14">
+        <v>41053</v>
+      </c>
+      <c r="E48" s="1">
+        <v>25</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
@@ -21607,11 +21704,17 @@
       <c r="A55" s="14"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="14"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="14"/>
@@ -21642,6 +21745,16 @@
       <c r="A62" s="14"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="14"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="14"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21654,8 +21767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21672,22 +21785,22 @@
     <row r="1" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -23091,7 +23204,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E101" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -23105,7 +23218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E100"/>
     </sheetView>
   </sheetViews>
@@ -35210,7 +35323,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B71" s="34">
         <f t="shared" si="10"/>
@@ -35233,7 +35346,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B72" s="34">
         <f t="shared" si="10"/>
@@ -35256,7 +35369,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B73" s="34">
         <f t="shared" ref="B73:B100" si="11">COUNT(E73:T73)</f>
@@ -35881,11 +35994,12 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35918,7 +36032,7 @@
       <c r="C2" s="34"/>
       <c r="D2" s="35"/>
       <c r="E2" s="33">
-        <f t="shared" ref="E2:H2" si="0">COUNT(E9:E100)</f>
+        <f t="shared" ref="E2" si="0">COUNT(E9:E100)</f>
         <v>14</v>
       </c>
       <c r="F2" s="33"/>
@@ -35950,7 +36064,7 @@
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="32">
-        <f t="shared" ref="E4:H4" si="1">E2*E7</f>
+        <f t="shared" ref="E4" si="1">E2*E7</f>
         <v>420</v>
       </c>
       <c r="F4" s="32"/>
@@ -35968,7 +36082,7 @@
         <v>180</v>
       </c>
       <c r="E5" s="32">
-        <f t="shared" ref="E5:H5" si="2">E4-E3</f>
+        <f t="shared" ref="E5" si="2">E4-E3</f>
         <v>180</v>
       </c>
       <c r="F5" s="32"/>
@@ -35983,7 +36097,7 @@
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
       <c r="E6" s="32">
-        <f t="shared" ref="E6:H6" si="3">E3/E2</f>
+        <f t="shared" ref="E6" si="3">E3/E2</f>
         <v>17.142857142857142</v>
       </c>
       <c r="F6" s="32"/>
@@ -36012,7 +36126,7 @@
       <c r="C8" s="34"/>
       <c r="D8" s="36"/>
       <c r="E8" s="32">
-        <f t="shared" ref="E8:H8" si="4">E7-E6</f>
+        <f t="shared" ref="E8" si="4">E7-E6</f>
         <v>12.857142857142858</v>
       </c>
       <c r="F8" s="32"/>
@@ -36025,7 +36139,7 @@
         <v>守候幸福</v>
       </c>
       <c r="B9" s="34">
-        <f>COUNT(E9:T9)</f>
+        <f t="shared" ref="B9:B40" si="5">COUNT(E9:T9)</f>
         <v>1</v>
       </c>
       <c r="C9" s="34">
@@ -36049,7 +36163,7 @@
         <v>李一刀</v>
       </c>
       <c r="B10" s="34">
-        <f>COUNT(E10:T10)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C10" s="34">
@@ -36071,7 +36185,7 @@
         <v>咣咣地跟屁蟲</v>
       </c>
       <c r="B11" s="34">
-        <f>COUNT(E11:T11)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C11" s="34">
@@ -36095,7 +36209,7 @@
         <v>Oo内拉祖里oO</v>
       </c>
       <c r="B12" s="34">
-        <f>COUNT(E12:T12)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C12" s="34">
@@ -36117,7 +36231,7 @@
         <v>幸福~拂晓</v>
       </c>
       <c r="B13" s="34">
-        <f>COUNT(E13:T13)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C13" s="34">
@@ -36139,7 +36253,7 @@
         <v>蚕豆</v>
       </c>
       <c r="B14" s="34">
-        <f>COUNT(E14:T14)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C14" s="34">
@@ -36163,7 +36277,7 @@
         <v>who cares?</v>
       </c>
       <c r="B15" s="34">
-        <f>COUNT(E15:T15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C15" s="34">
@@ -36185,7 +36299,7 @@
         <v>幸福~彩票</v>
       </c>
       <c r="B16" s="34">
-        <f>COUNT(E16:T16)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C16" s="34">
@@ -36207,7 +36321,7 @@
         <v>清道夫</v>
       </c>
       <c r="B17" s="34">
-        <f>COUNT(E17:T17)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C17" s="34">
@@ -36231,7 +36345,7 @@
         <v>老A</v>
       </c>
       <c r="B18" s="34">
-        <f>COUNT(E18:T18)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C18" s="34">
@@ -36255,7 +36369,7 @@
         <v>狐狸</v>
       </c>
       <c r="B19" s="34">
-        <f>COUNT(E19:T19)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C19" s="34">
@@ -36279,7 +36393,7 @@
         <v>腿子</v>
       </c>
       <c r="B20" s="34">
-        <f>COUNT(E20:T20)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C20" s="34">
@@ -36301,7 +36415,7 @@
         <v>smile</v>
       </c>
       <c r="B21" s="34">
-        <f>COUNT(E21:T21)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C21" s="34">
@@ -36325,7 +36439,7 @@
         <v>小贝</v>
       </c>
       <c r="B22" s="34">
-        <f>COUNT(E22:T22)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C22" s="34">
@@ -36349,7 +36463,7 @@
         <v>11号-鲜明</v>
       </c>
       <c r="B23" s="34">
-        <f>COUNT(E23:T23)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C23" s="34">
@@ -36371,7 +36485,7 @@
         <v>狐狸~涛</v>
       </c>
       <c r="B24" s="34">
-        <f>COUNT(E24:T24)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C24" s="34">
@@ -36393,7 +36507,7 @@
         <v>侯盟</v>
       </c>
       <c r="B25" s="34">
-        <f>COUNT(E25:T25)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C25" s="34">
@@ -36417,7 +36531,7 @@
         <v>玖伍贰壹</v>
       </c>
       <c r="B26" s="34">
-        <f>COUNT(E26:T26)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C26" s="34">
@@ -36439,7 +36553,7 @@
         <v>红色F50-超</v>
       </c>
       <c r="B27" s="34">
-        <f>COUNT(E27:T27)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C27" s="34">
@@ -36461,7 +36575,7 @@
         <v>活了</v>
       </c>
       <c r="B28" s="34">
-        <f>COUNT(E28:T28)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C28" s="34">
@@ -36483,7 +36597,7 @@
         <v>天赐</v>
       </c>
       <c r="B29" s="34">
-        <f>COUNT(E29:T29)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C29" s="34">
@@ -36505,7 +36619,7 @@
         <v>Shenghak</v>
       </c>
       <c r="B30" s="34">
-        <f>COUNT(E30:T30)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C30" s="34">
@@ -36527,7 +36641,7 @@
         <v>红色6号</v>
       </c>
       <c r="B31" s="34">
-        <f>COUNT(E31:T31)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C31" s="34">
@@ -36549,7 +36663,7 @@
         <v>微笑</v>
       </c>
       <c r="B32" s="34">
-        <f>COUNT(E32:T32)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C32" s="34">
@@ -36571,7 +36685,7 @@
         <v>77号-更心</v>
       </c>
       <c r="B33" s="34">
-        <f>COUNT(E33:T33)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C33" s="34">
@@ -36595,7 +36709,7 @@
         <v>更心朋友</v>
       </c>
       <c r="B34" s="34">
-        <f>COUNT(E34:T34)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C34" s="34">
@@ -36617,7 +36731,7 @@
         <v>8号-菜菜亮</v>
       </c>
       <c r="B35" s="34">
-        <f>COUNT(E35:T35)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C35" s="34">
@@ -36639,7 +36753,7 @@
         <v>杨光朋友</v>
       </c>
       <c r="B36" s="34">
-        <f>COUNT(E36:T36)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C36" s="34">
@@ -36661,7 +36775,7 @@
         <v>拂晓朋友</v>
       </c>
       <c r="B37" s="34">
-        <f>COUNT(E37:T37)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C37" s="34">
@@ -36683,7 +36797,7 @@
         <v>4号-许多</v>
       </c>
       <c r="B38" s="34">
-        <f>COUNT(E38:T38)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C38" s="34">
@@ -36705,7 +36819,7 @@
         <v>5号-正</v>
       </c>
       <c r="B39" s="34">
-        <f>COUNT(E39:T39)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C39" s="34">
@@ -36727,7 +36841,7 @@
         <v>勇敢的爬爬</v>
       </c>
       <c r="B40" s="34">
-        <f>COUNT(E40:T40)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C40" s="34">
@@ -36749,7 +36863,7 @@
         <v>17号-4号字母</v>
       </c>
       <c r="B41" s="34">
-        <f>COUNT(E41:T41)</f>
+        <f t="shared" ref="B41:B72" si="6">COUNT(E41:T41)</f>
         <v>1</v>
       </c>
       <c r="C41" s="34">
@@ -36773,7 +36887,7 @@
         <v>雷雨</v>
       </c>
       <c r="B42" s="34">
-        <f>COUNT(E42:T42)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C42" s="34">
@@ -36795,7 +36909,7 @@
         <v>西北偏北</v>
       </c>
       <c r="B43" s="34">
-        <f>COUNT(E43:T43)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C43" s="34">
@@ -36819,7 +36933,7 @@
         <v>红色8号</v>
       </c>
       <c r="B44" s="34">
-        <f>COUNT(E44:T44)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C44" s="34">
@@ -36841,7 +36955,7 @@
         <v>马耳他</v>
       </c>
       <c r="B45" s="34">
-        <f>COUNT(E45:T45)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C45" s="34">
@@ -36863,7 +36977,7 @@
         <v>Cindy~陈猛</v>
       </c>
       <c r="B46" s="34">
-        <f>COUNT(E46:T46)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C46" s="34">
@@ -36885,7 +36999,7 @@
         <v>张硕</v>
       </c>
       <c r="B47" s="34">
-        <f>COUNT(E47:T47)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C47" s="34">
@@ -36907,7 +37021,7 @@
         <v>Violin</v>
       </c>
       <c r="B48" s="34">
-        <f>COUNT(E48:T48)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C48" s="34">
@@ -36929,7 +37043,7 @@
         <v>87号陈磊</v>
       </c>
       <c r="B49" s="34">
-        <f>COUNT(E49:T49)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C49" s="34">
@@ -36951,7 +37065,7 @@
         <v>水中阳光</v>
       </c>
       <c r="B50" s="34">
-        <f>COUNT(E50:T50)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C50" s="34">
@@ -36973,7 +37087,7 @@
         <v>sam</v>
       </c>
       <c r="B51" s="34">
-        <f>COUNT(E51:T51)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C51" s="34">
@@ -36995,7 +37109,7 @@
         <v>26 方亚</v>
       </c>
       <c r="B52" s="34">
-        <f>COUNT(E52:T52)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C52" s="34">
@@ -37017,7 +37131,7 @@
         <v>维尼</v>
       </c>
       <c r="B53" s="34">
-        <f>COUNT(E53:T53)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C53" s="34">
@@ -37039,7 +37153,7 @@
         <v>0号--张家宁</v>
       </c>
       <c r="B54" s="34">
-        <f>COUNT(E54:T54)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C54" s="34">
@@ -37061,7 +37175,7 @@
         <v>泰山</v>
       </c>
       <c r="B55" s="34">
-        <f>COUNT(E55:T55)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C55" s="34">
@@ -37083,7 +37197,7 @@
         <v>尚峰</v>
       </c>
       <c r="B56" s="34">
-        <f>COUNT(E56:T56)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C56" s="34">
@@ -37105,7 +37219,7 @@
         <v>杨光</v>
       </c>
       <c r="B57" s="34">
-        <f>COUNT(E57:T57)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C57" s="34">
@@ -37127,7 +37241,7 @@
         <v>小磊</v>
       </c>
       <c r="B58" s="34">
-        <f>COUNT(E58:T58)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C58" s="34">
@@ -37149,7 +37263,7 @@
         <v>绿洲</v>
       </c>
       <c r="B59" s="34">
-        <f>COUNT(E59:T59)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C59" s="34">
@@ -37171,7 +37285,7 @@
         <v>孙伟</v>
       </c>
       <c r="B60" s="34">
-        <f>COUNT(E60:T60)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C60" s="34">
@@ -37193,7 +37307,7 @@
         <v>古轮木</v>
       </c>
       <c r="B61" s="34">
-        <f>COUNT(E61:T61)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C61" s="34">
@@ -37215,7 +37329,7 @@
         <v>makoko</v>
       </c>
       <c r="B62" s="34">
-        <f>COUNT(E62:T62)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C62" s="34">
@@ -37237,7 +37351,7 @@
         <v>玲-深蓝</v>
       </c>
       <c r="B63" s="34">
-        <f>COUNT(E63:T63)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C63" s="34">
@@ -37259,7 +37373,7 @@
         <v>玲-小马</v>
       </c>
       <c r="B64" s="34">
-        <f>COUNT(E64:T64)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C64" s="34">
@@ -37281,7 +37395,7 @@
         <v>玲-高</v>
       </c>
       <c r="B65" s="34">
-        <f>COUNT(E65:T65)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C65" s="34">
@@ -37303,7 +37417,7 @@
         <v>玲-秦</v>
       </c>
       <c r="B66" s="34">
-        <f>COUNT(E66:T66)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C66" s="34">
@@ -37325,7 +37439,7 @@
         <v>玲-手</v>
       </c>
       <c r="B67" s="34">
-        <f>COUNT(E67:T67)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C67" s="34">
@@ -37347,7 +37461,7 @@
         <v>度日</v>
       </c>
       <c r="B68" s="34">
-        <f>COUNT(E68:T68)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C68" s="34">
@@ -37369,7 +37483,7 @@
         <v>肖飞</v>
       </c>
       <c r="B69" s="34">
-        <f>COUNT(E69:T69)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C69" s="34">
@@ -37391,7 +37505,7 @@
         <v>玲-大马</v>
       </c>
       <c r="B70" s="34">
-        <f>COUNT(E70:T70)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C70" s="34">
@@ -37409,10 +37523,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B71" s="34">
-        <f>COUNT(E71:T71)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C71" s="34">
@@ -37430,10 +37544,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B72" s="34">
-        <f>COUNT(E72:T72)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C72" s="34">
@@ -37453,10 +37567,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B73" s="34">
-        <f t="shared" ref="B73:B100" si="5">COUNT(E73:T73)</f>
+        <f t="shared" ref="B73:B100" si="7">COUNT(E73:T73)</f>
         <v>1</v>
       </c>
       <c r="C73" s="34">
@@ -37480,7 +37594,7 @@
         <v>新</v>
       </c>
       <c r="B74" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C74" s="34">
@@ -37502,7 +37616,7 @@
         <v>新</v>
       </c>
       <c r="B75" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C75" s="34">
@@ -37524,7 +37638,7 @@
         <v>新</v>
       </c>
       <c r="B76" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C76" s="34">
@@ -37546,7 +37660,7 @@
         <v>新</v>
       </c>
       <c r="B77" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C77" s="34">
@@ -37568,7 +37682,7 @@
         <v>新</v>
       </c>
       <c r="B78" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C78" s="34">
@@ -37590,7 +37704,7 @@
         <v>新</v>
       </c>
       <c r="B79" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C79" s="34">
@@ -37612,7 +37726,7 @@
         <v>新</v>
       </c>
       <c r="B80" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C80" s="34">
@@ -37634,7 +37748,7 @@
         <v>新</v>
       </c>
       <c r="B81" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C81" s="34">
@@ -37656,7 +37770,7 @@
         <v>新</v>
       </c>
       <c r="B82" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C82" s="34">
@@ -37678,7 +37792,7 @@
         <v>新</v>
       </c>
       <c r="B83" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C83" s="34">
@@ -37700,7 +37814,7 @@
         <v>新</v>
       </c>
       <c r="B84" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C84" s="34">
@@ -37722,7 +37836,7 @@
         <v>新</v>
       </c>
       <c r="B85" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C85" s="34">
@@ -37744,7 +37858,7 @@
         <v>新</v>
       </c>
       <c r="B86" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C86" s="34">
@@ -37766,7 +37880,7 @@
         <v>新</v>
       </c>
       <c r="B87" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C87" s="34">
@@ -37788,7 +37902,7 @@
         <v>新</v>
       </c>
       <c r="B88" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C88" s="34">
@@ -37810,7 +37924,7 @@
         <v>新</v>
       </c>
       <c r="B89" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C89" s="34">
@@ -37832,7 +37946,7 @@
         <v>新</v>
       </c>
       <c r="B90" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C90" s="34">
@@ -37854,7 +37968,7 @@
         <v>新</v>
       </c>
       <c r="B91" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C91" s="34">
@@ -37876,7 +37990,7 @@
         <v>新</v>
       </c>
       <c r="B92" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C92" s="34">
@@ -37898,7 +38012,7 @@
         <v>新</v>
       </c>
       <c r="B93" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C93" s="34">
@@ -37920,7 +38034,7 @@
         <v>新</v>
       </c>
       <c r="B94" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C94" s="34">
@@ -37942,7 +38056,7 @@
         <v>新</v>
       </c>
       <c r="B95" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C95" s="34">
@@ -37964,7 +38078,7 @@
         <v>新</v>
       </c>
       <c r="B96" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C96" s="34">
@@ -37986,7 +38100,7 @@
         <v>新</v>
       </c>
       <c r="B97" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C97" s="34">
@@ -38008,7 +38122,7 @@
         <v>新</v>
       </c>
       <c r="B98" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C98" s="34">
@@ -38030,7 +38144,7 @@
         <v>新</v>
       </c>
       <c r="B99" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C99" s="34">
@@ -38052,7 +38166,7 @@
         <v>新</v>
       </c>
       <c r="B100" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C100" s="34">

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="171">
   <si>
     <t>守候幸福</t>
   </si>
@@ -728,11 +728,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">坎钱（个人账户扣）：超、菜、赐、尚峰、微笑、维尼、鲜明、活了（2），虫、更心、小贝、豆、SM、狐狸 </t>
+    <t>条幅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>条幅</t>
+    <t>坎24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">坎钱（个人账户扣）：超、菜、赐、尚峰、微笑、维尼、鲜明、活了（2），虫、更心、小贝、豆、SM、狐狸、清道夫（2） </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1250,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1329,7 +1333,7 @@
       <c r="G2" s="36"/>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
-        <v>1254.9999999999998</v>
+        <v>1230.9999999999998</v>
       </c>
       <c r="I2" s="38">
         <f t="shared" si="0"/>
@@ -1367,7 +1371,7 @@
       </c>
       <c r="I4" s="40">
         <f>H2+I2</f>
-        <v>1309.9999999999998</v>
+        <v>1285.9999999999998</v>
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
@@ -18088,14 +18092,18 @@
       <c r="F17" s="18">
         <v>45</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="18">
+        <v>-24</v>
+      </c>
       <c r="H17" s="36">
         <f t="shared" si="2"/>
-        <v>31.252899877899878</v>
+        <v>7.2528998778998783</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
@@ -20861,7 +20869,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20908,7 +20916,7 @@
       </c>
       <c r="E2" s="39">
         <f>SUM(E3:E49)</f>
-        <v>1302</v>
+        <v>1326</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -20920,16 +20928,16 @@
         <v>-90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" s="14">
         <v>41114</v>
       </c>
       <c r="E3" s="1">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -598,10 +598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2012.5.20额外10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">16*25-345 </t>
     </r>
@@ -724,10 +720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2012.6.12额外28，坎12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>条幅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -736,7 +728,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">坎钱（个人账户扣）：超、菜、赐、尚峰、微笑、维尼、鲜明、活了（2），虫、更心、小贝、豆、SM、狐狸、清道夫（2） </t>
+    <t xml:space="preserve">坎钱（19个人账户扣）：超、菜、赐、尚峰、微笑、维尼、鲜明、活了（2），虫、更心、小贝、豆、SM、狐狸、清道夫（2）、小磊 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.12额外28，坎12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.5.20额外10，坎12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1254,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD111"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1333,7 +1333,7 @@
       <c r="G2" s="36"/>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
-        <v>1230.9999999999998</v>
+        <v>1218.9999999999998</v>
       </c>
       <c r="I2" s="38">
         <f t="shared" si="0"/>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I4" s="40">
         <f>H2+I2</f>
-        <v>1285.9999999999998</v>
+        <v>1273.9999999999998</v>
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
@@ -17904,7 +17904,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.15">
@@ -18006,7 +18006,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.15">
@@ -18102,7 +18102,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -18170,7 +18170,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -18242,7 +18242,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -18278,7 +18278,7 @@
       <c r="I22" s="18"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -18314,7 +18314,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -18386,7 +18386,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -18452,7 +18452,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -18522,7 +18522,7 @@
       <c r="I29" s="18"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -18620,7 +18620,7 @@
       <c r="I32" s="18"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -18656,7 +18656,7 @@
       <c r="I33" s="18"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -18722,7 +18722,7 @@
       <c r="I35" s="18"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -19296,7 +19296,7 @@
       <c r="I53" s="18"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
@@ -19392,7 +19392,7 @@
       <c r="I56" s="18"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
@@ -19449,16 +19449,16 @@
         <v>45</v>
       </c>
       <c r="G58" s="18">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="H58" s="36">
         <f t="shared" si="4"/>
-        <v>17.459168755221377</v>
+        <v>5.459168755221377</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -20736,27 +20736,27 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -20868,8 +20868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20916,7 +20916,7 @@
       </c>
       <c r="E2" s="39">
         <f>SUM(E3:E49)</f>
-        <v>1326</v>
+        <v>1338</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -20928,16 +20928,16 @@
         <v>-90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D3" s="14">
         <v>41114</v>
       </c>
       <c r="E3" s="1">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -20948,7 +20948,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="14">
         <v>41114</v>
@@ -20957,7 +20957,7 @@
         <v>-360</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -20968,7 +20968,7 @@
         <v>-240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="14">
         <v>41107</v>
@@ -20977,7 +20977,7 @@
         <v>-20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -20988,7 +20988,7 @@
         <v>320</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="14">
         <v>41079</v>
@@ -20997,7 +20997,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -21008,7 +21008,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="14">
         <v>40948</v>
@@ -21026,7 +21026,7 @@
         <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="14">
         <v>40952</v>
@@ -21793,10 +21793,10 @@
     <row r="1" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>39</v>
@@ -35331,7 +35331,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B71" s="34">
         <f t="shared" si="10"/>
@@ -35354,7 +35354,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72" s="34">
         <f t="shared" si="10"/>
@@ -35377,7 +35377,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B73" s="34">
         <f t="shared" ref="B73:B100" si="11">COUNT(E73:T73)</f>
@@ -37531,7 +37531,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B71" s="34">
         <f t="shared" si="6"/>
@@ -37552,7 +37552,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72" s="34">
         <f t="shared" si="6"/>
@@ -37575,7 +37575,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B73" s="34">
         <f t="shared" ref="B73:B100" si="7">COUNT(E73:T73)</f>

--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -4,30 +4,31 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
     <sheet name="收费" sheetId="13" r:id="rId2"/>
-    <sheet name="欧洲杯" sheetId="14" r:id="rId3"/>
-    <sheet name="201202" sheetId="2" r:id="rId4"/>
-    <sheet name="201203" sheetId="3" r:id="rId5"/>
-    <sheet name="201204" sheetId="4" r:id="rId6"/>
-    <sheet name="201205" sheetId="5" r:id="rId7"/>
-    <sheet name="201206" sheetId="6" r:id="rId8"/>
-    <sheet name="201207" sheetId="7" r:id="rId9"/>
-    <sheet name="201208" sheetId="8" r:id="rId10"/>
-    <sheet name="201209" sheetId="9" r:id="rId11"/>
-    <sheet name="201210" sheetId="10" r:id="rId12"/>
-    <sheet name="201211" sheetId="11" r:id="rId13"/>
-    <sheet name="201212" sheetId="12" r:id="rId14"/>
+    <sheet name="积分" sheetId="15" r:id="rId3"/>
+    <sheet name="欧洲杯" sheetId="14" r:id="rId4"/>
+    <sheet name="201202" sheetId="2" r:id="rId5"/>
+    <sheet name="201203" sheetId="3" r:id="rId6"/>
+    <sheet name="201204" sheetId="4" r:id="rId7"/>
+    <sheet name="201205" sheetId="5" r:id="rId8"/>
+    <sheet name="201206" sheetId="6" r:id="rId9"/>
+    <sheet name="201207" sheetId="7" r:id="rId10"/>
+    <sheet name="201208" sheetId="8" r:id="rId11"/>
+    <sheet name="201209" sheetId="9" r:id="rId12"/>
+    <sheet name="201210" sheetId="10" r:id="rId13"/>
+    <sheet name="201211" sheetId="11" r:id="rId14"/>
+    <sheet name="201212" sheetId="12" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="176">
   <si>
     <t>守候幸福</t>
   </si>
@@ -487,10 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3/31/2012(罚),5/22/2012(罚)，5.31退10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退虫,豆,鲜明,超,活,神 6*30；退狐狸10块；退smile 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -591,10 +588,6 @@
     <t>法国
  VS
 英格兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.12待罚10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -704,10 +697,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2/9/2012(扣),5/22/2012(罚)，坎12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.29退15，坎12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -737,6 +726,63 @@
   </si>
   <si>
     <t>2012.5.20额外10，坎12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.12待罚10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2/9/2012(扣),5/22/2012(罚)，坎12，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.9待罚20</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3/31/2012(罚),5/22/2012(罚)，5.31退10，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.9待罚20</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.9待罚20</t>
+  </si>
+  <si>
+    <t>水彩笔两支</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1254,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17904,7 +17950,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.15">
@@ -18006,7 +18052,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.15">
@@ -18102,7 +18148,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -18170,7 +18216,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -18206,7 +18252,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -18242,7 +18288,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -18278,7 +18324,7 @@
       <c r="I22" s="18"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -18314,7 +18360,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -18386,7 +18432,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -18452,7 +18498,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -18486,7 +18532,7 @@
       <c r="I28" s="18"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -18522,7 +18568,7 @@
       <c r="I29" s="18"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -18620,7 +18666,7 @@
       <c r="I32" s="18"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -18656,7 +18702,7 @@
       <c r="I33" s="18"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -18722,7 +18768,7 @@
       <c r="I35" s="18"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -19075,7 +19121,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B47" s="39">
         <f>'201202'!B47+'201203'!B47+'201204'!B47+'201205'!B47+'201206'!B47+'201207'!B47+'201208'!B47+'201209'!B47+'201210'!B47+'201211'!B47+'201212'!B47</f>
@@ -19168,7 +19214,7 @@
         <v>2</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -19296,7 +19342,7 @@
       <c r="I53" s="18"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
@@ -19392,7 +19438,7 @@
       <c r="I56" s="18"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
@@ -19458,7 +19504,7 @@
       <c r="I58" s="18"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -19583,7 +19629,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B63" s="39">
         <f>'201202'!B63+'201203'!B63+'201204'!B63+'201205'!B63+'201206'!B63+'201207'!B63+'201208'!B63+'201209'!B63+'201210'!B63+'201211'!B63+'201212'!B63</f>
@@ -19613,7 +19659,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B64" s="39">
         <f>'201202'!B64+'201203'!B64+'201204'!B64+'201205'!B64+'201206'!B64+'201207'!B64+'201208'!B64+'201209'!B64+'201210'!B64+'201211'!B64+'201212'!B64</f>
@@ -19643,7 +19689,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" s="39">
         <f>'201202'!B65+'201203'!B65+'201204'!B65+'201205'!B65+'201206'!B65+'201207'!B65+'201208'!B65+'201209'!B65+'201210'!B65+'201211'!B65+'201212'!B65</f>
@@ -19673,7 +19719,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B66" s="39">
         <f>'201202'!B66+'201203'!B66+'201204'!B66+'201205'!B66+'201206'!B66+'201207'!B66+'201208'!B66+'201209'!B66+'201210'!B66+'201211'!B66+'201212'!B66</f>
@@ -19703,7 +19749,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B67" s="39">
         <f>'201202'!B67+'201203'!B67+'201204'!B67+'201205'!B67+'201206'!B67+'201207'!B67+'201208'!B67+'201209'!B67+'201210'!B67+'201211'!B67+'201212'!B67</f>
@@ -19793,7 +19839,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B70" s="39">
         <f>'201202'!B70+'201203'!B70+'201204'!B70+'201205'!B70+'201206'!B70+'201207'!B70+'201208'!B70+'201209'!B70+'201210'!B70+'201211'!B70+'201212'!B70</f>
@@ -19822,8 +19868,8 @@
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="10" t="s">
-        <v>102</v>
+      <c r="A71" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="B71" s="39">
         <f>'201202'!B71+'201203'!B71+'201204'!B71+'201205'!B71+'201206'!B71+'201207'!B71+'201208'!B71+'201209'!B71+'201210'!B71+'201211'!B71+'201212'!B71</f>
@@ -19852,8 +19898,8 @@
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A72" s="10" t="s">
-        <v>102</v>
+      <c r="A72" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="B72" s="39">
         <f>'201202'!B72+'201203'!B72+'201204'!B72+'201205'!B72+'201206'!B72+'201207'!B72+'201208'!B72+'201209'!B72+'201210'!B72+'201211'!B72+'201212'!B72</f>
@@ -19882,8 +19928,8 @@
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A73" s="10" t="s">
-        <v>102</v>
+      <c r="A73" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="B73" s="39">
         <f>'201202'!B73+'201203'!B73+'201204'!B73+'201205'!B73+'201206'!B73+'201207'!B73+'201208'!B73+'201209'!B73+'201210'!B73+'201211'!B73+'201212'!B73</f>
@@ -19913,7 +19959,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="B74" s="39">
         <f>'201202'!B74+'201203'!B74+'201204'!B74+'201205'!B74+'201206'!B74+'201207'!B74+'201208'!B74+'201209'!B74+'201210'!B74+'201211'!B74+'201212'!B74</f>
@@ -19939,7 +19985,9 @@
       </c>
       <c r="I74" s="18"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
+      <c r="K74" s="41" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
@@ -20736,27 +20784,27 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -20801,12 +20849,2201 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="11"/>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5">
+        <v>41095</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="33">
+        <f>SUM(B9:B100)</f>
+        <v>14</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="33">
+        <f t="shared" ref="E2" si="0">COUNT(E9:E100)</f>
+        <v>14</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="20">
+        <v>240</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34">
+        <f>SUM(E4:T4)</f>
+        <v>420</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="32">
+        <f t="shared" ref="E4" si="1">E2*E7</f>
+        <v>420</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35">
+        <f>SUM(E5:T5)</f>
+        <v>180</v>
+      </c>
+      <c r="E5" s="32">
+        <f t="shared" ref="E5" si="2">E4-E3</f>
+        <v>180</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="32">
+        <f t="shared" ref="E6" si="3">E3/E2</f>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="20">
+        <v>30</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="32">
+        <f t="shared" ref="E8" si="4">E7-E6</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="str">
+        <f>member!A9</f>
+        <v>守候幸福</v>
+      </c>
+      <c r="B9" s="34">
+        <f t="shared" ref="B9:B40" si="5">COUNT(E9:T9)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="34">
+        <f>E7*E9+F7*F9+G7*G9+H7*H9+I7*I9+J7*J9+K7*K9+L7*L9+M7*M9+N7*N9+O7*O9+P7*P9+Q7*Q9+R7*R9+S7*S9+T7*T9</f>
+        <v>30</v>
+      </c>
+      <c r="D9" s="36">
+        <f>E8*E9+F8*F9+G8*G9+H8*H9+I8*I9+J8*J9+K8*K9+L8*L9+M8*M9+O8*O9+P8*P9+Q8*Q9+R8*R9+S8*S9+T8*T9</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="str">
+        <f>member!A10</f>
+        <v>李一刀</v>
+      </c>
+      <c r="B10" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="34">
+        <f>E7*E10+F7*F10+G7*G10+H7*H10+I7*I10+J7*J10+K7*K10+L7*L10+M7*M10+N7*N10+O7*O10+P7*P10+Q7*Q10+R7*R10+S7*S10+T7*T10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="36">
+        <f>E8*E10+F8*F10+G8*G10+H8*H10+I8*I10+J8*J10+K8*K10+L8*L10+M8*M10+O8*O10+P8*P10+Q8*Q10+R8*R10+S8*S10+T8*T10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="str">
+        <f>member!A11</f>
+        <v>咣咣地跟屁蟲</v>
+      </c>
+      <c r="B11" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="34">
+        <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+N7*N11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
+        <v>30</v>
+      </c>
+      <c r="D11" s="36">
+        <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="str">
+        <f>member!A12</f>
+        <v>Oo内拉祖里oO</v>
+      </c>
+      <c r="B12" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="34">
+        <f>E7*E12+F7*F12+G7*G12+H7*H12+I7*I12+J7*J12+K7*K12+L7*L12+M7*M12+N7*N12+O7*O12+P7*P12+Q7*Q12+R7*R12+S7*S12+T7*T12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="36">
+        <f>E8*E12+F8*F12+G8*G12+H8*H12+I8*I12+J8*J12+K8*K12+L8*L12+M8*M12+O8*O12+P8*P12+Q8*Q12+R8*R12+S8*S12+T8*T12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="str">
+        <f>member!A13</f>
+        <v>幸福~拂晓</v>
+      </c>
+      <c r="B13" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="34">
+        <f>E7*E13+F7*F13+G7*G13+H7*H13+I7*I13+J7*J13+K7*K13+L7*L13+M7*M13+N7*N13+O7*O13+P7*P13+Q7*Q13+R7*R13+S7*S13+T7*T13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="36">
+        <f>E8*E13+F8*F13+G8*G13+H8*H13+I8*I13+J8*J13+K8*K13+L8*L13+M8*M13+O8*O13+P8*P13+Q8*Q13+R8*R13+S8*S13+T8*T13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="str">
+        <f>member!A14</f>
+        <v>蚕豆</v>
+      </c>
+      <c r="B14" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="34">
+        <f>E7*E14+F7*F14+G7*G14+H7*H14+I7*I14+J7*J14+K7*K14+L7*L14+M7*M14+N7*N14+O7*O14+P7*P14+Q7*Q14+R7*R14+S7*S14+T7*T14</f>
+        <v>30</v>
+      </c>
+      <c r="D14" s="36">
+        <f>E8*E14+F8*F14+G8*G14+H8*H14+I8*I14+J8*J14+K8*K14+L8*L14+M8*M14+O8*O14+P8*P14+Q8*Q14+R8*R14+S8*S14+T8*T14</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="str">
+        <f>member!A15</f>
+        <v>who cares?</v>
+      </c>
+      <c r="B15" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="34">
+        <f>E7*E15+F7*F15+G7*G15+H7*H15+I7*I15+J7*J15+K7*K15+L7*L15+M7*M15+O7*O15+P7*P15+Q7*Q15+R7*R15+S7*S15+T7*T15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="36">
+        <f>E8*E15+F8*F15+G8*G15+H8*H15+I8*I15+J8*J15+K8*K15+L8*L15+M8*M15+O8*O15+P8*P15+Q8*Q15+R8*R15+S8*S15+T8*T15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="str">
+        <f>member!A16</f>
+        <v>幸福~彩票</v>
+      </c>
+      <c r="B16" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="34">
+        <f>E7*E16+F7*F16+G7*G16+H7*H16+I7*I16+J7*J16+K7*K16+L7*L16+M7*M16+O7*O16+P7*P16+Q7*Q16+R7*R16+S7*S16+T7*T16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="36">
+        <f>E8*E16+F8*F16+G8*G16+H8*H16+I8*I16+J8*J16+K8*K16+L8*L16+M8*M16+O8*O16+P8*P16+Q8*Q16+R8*R16+S8*S16+T8*T16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="str">
+        <f>member!A17</f>
+        <v>清道夫</v>
+      </c>
+      <c r="B17" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="34">
+        <f>E7*E17+F7*F17+G7*G17+H7*H17+I7*I17+J7*J17+K7*K17+L7*L17+M7*M17+O7*O17+P7*P17+Q7*Q17+R7*R17+S7*S17+T7*T17</f>
+        <v>30</v>
+      </c>
+      <c r="D17" s="36">
+        <f>E8*E17+F8*F17+G8*G17+H8*H17+I8*I17+J8*J17+K8*K17+L8*L17+M8*M17+O8*O17+P8*P17+Q8*Q17+R8*R17+S8*S17+T8*T17</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="str">
+        <f>member!A18</f>
+        <v>老A</v>
+      </c>
+      <c r="B18" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="34">
+        <f>E7*E18+F7*F18+G7*G18+H7*H18+I7*I18+J7*J18+K7*K18+L7*L18+M7*M18+O7*O18+P7*P18+Q7*Q18+R7*R18+S7*S18+T7*T18</f>
+        <v>30</v>
+      </c>
+      <c r="D18" s="36">
+        <f>E8*E18+F8*F18+G8*G18+H8*H18+I8*I18+J8*J18+K8*K18+L8*L18+M8*M18+O8*O18+P8*P18+Q8*Q18+R8*R18+S8*S18+T8*T18</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="str">
+        <f>member!A19</f>
+        <v>狐狸</v>
+      </c>
+      <c r="B19" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="34">
+        <f>E7*E19+F7*F19+G7*G19+H7*H19+I7*I19+J7*J19+K7*K19+L7*L19+M7*M19+O7*O19+P7*P19+Q7*Q19+R7*R19+S7*S19+T7*T19</f>
+        <v>30</v>
+      </c>
+      <c r="D19" s="36">
+        <f>E8*E19+F8*F19+G8*G19+H8*H19+I8*I19+J8*J19+K8*K19+L8*L19+M8*M19+O8*O19+P8*P19+Q8*Q19+R8*R19+S8*S19+T8*T19</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="str">
+        <f>member!A20</f>
+        <v>腿子</v>
+      </c>
+      <c r="B20" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="34">
+        <f>E7*E20+F7*F20+G7*G20+H7*H20+I7*I20+J7*J20+K7*K20+L7*L20+M7*M20+O7*O20+P7*P20+Q7*Q20+R7*R20+S7*S20+T7*T20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="36">
+        <f>E8*E20+F8*F20+G8*G20+H8*H20+I8*I20+J8*J20+K8*K20+L8*L20+M8*M20+O8*O20+P8*P20+Q8*Q20+R8*R20+S8*S20+T8*T20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="str">
+        <f>member!A21</f>
+        <v>smile</v>
+      </c>
+      <c r="B21" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="34">
+        <f>E7*E21+F7*F21+G7*G21+H7*H21+I7*I21+J7*J21+K7*K21+L7*L21+M7*M21+O7*O21+P7*P21+Q7*Q21+R7*R21+S7*S21+T7*T21</f>
+        <v>30</v>
+      </c>
+      <c r="D21" s="36">
+        <f>E8*E21+F8*F21+G8*G21+H8*H21+I8*I21+J8*J21+K8*K21+L8*L21+M8*M21+O8*O21+P8*P21+Q8*Q21+R8*R21+S8*S21+T8*T21</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="str">
+        <f>member!A22</f>
+        <v>小贝</v>
+      </c>
+      <c r="B22" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C22" s="34">
+        <f>E7*E22+F7*F22+G7*G22+H7*H22+I7*I22+J7*J22+K7*K22+L7*L22+M7*M22+O7*O22+P7*P22+Q7*Q22+R7*R22+S7*S22+T7*T22</f>
+        <v>30</v>
+      </c>
+      <c r="D22" s="36">
+        <f>E8*E22+F8*F22+G8*G22+H8*H22+I8*I22+J8*J22+K8*K22+L8*L22+M8*M22+O8*O22+P8*P22+Q8*Q22+R8*R22+S8*S22+T8*T22</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="str">
+        <f>member!A23</f>
+        <v>11号-鲜明</v>
+      </c>
+      <c r="B23" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="34">
+        <f>E7*E23+F7*F23+G7*G23+H7*H23+I7*I23+J7*J23+K7*K23+L7*L23+M7*M23+O7*O23+P7*P23+Q7*Q23+R7*R23+S7*S23+T7*T23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="36">
+        <f>E8*E23+F8*F23+G8*G23+H8*H23+I8*I23+J8*J23+K8*K23+L8*L23+M8*M23+O8*O23+P8*P23+Q8*Q23+R8*R23+S8*S23+T8*T23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="str">
+        <f>member!A24</f>
+        <v>狐狸~涛</v>
+      </c>
+      <c r="B24" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="34">
+        <f>E7*E24+F7*F24+G7*G24+H7*H24+I7*I24+J7*J24+K7*K24+L7*L24+M7*M24+O7*O24+P7*P24+Q7*Q24+R7*R24+S7*S24+T7*T24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="36">
+        <f>E8*E24+F8*F24+G8*G24+H8*H24+I8*I24+J8*J24+K8*K24+L8*L24+M8*M24+O8*O24+P8*P24+Q8*Q24+R8*R24+S8*S24+T8*T24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="str">
+        <f>member!A25</f>
+        <v>侯盟</v>
+      </c>
+      <c r="B25" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C25" s="34">
+        <f>E7*E25+F7*F25+G7*G25+H7*H25+I7*I25+J7*J25+K7*K25+L7*L25+M7*M25+O7*O25+P7*P25+Q7*Q25+R7*R25+S7*S25+T7*T25</f>
+        <v>30</v>
+      </c>
+      <c r="D25" s="36">
+        <f>E8*E25+F8*F25+G8*G25+H8*H25+I8*I25+J8*J25+K8*K25+L8*L25+M8*M25+O8*O25+P8*P25+Q8*Q25+R8*R25+S8*S25+T8*T25</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="str">
+        <f>member!A26</f>
+        <v>玖伍贰壹</v>
+      </c>
+      <c r="B26" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="34">
+        <f>E7*E26+F7*F26+G7*G26+H7*H26+I7*I26+J7*J26+K7*K26+L7*L26+M7*M26+O7*O26+P7*P26+Q7*Q26+R7*R26+S7*S26+T7*T26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="36">
+        <f>E8*E26+F8*F26+G8*G26+H8*H26+I8*I26+J8*J26+K8*K26+L8*L26+M8*M26+O8*O26+P8*P26+Q8*Q26+R8*R26+S8*S26+T8*T26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="str">
+        <f>member!A27</f>
+        <v>红色F50-超</v>
+      </c>
+      <c r="B27" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="34">
+        <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="36">
+        <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="str">
+        <f>member!A28</f>
+        <v>活了</v>
+      </c>
+      <c r="B28" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="34">
+        <f>E7*E28+F7*F28+G7*G28+H7*H28+I7*I28+J7*J28+K7*K28+L7*L28+M7*M28+O7*O28+P7*P28+Q7*Q28+R7*R28+S7*S28+T7*T28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="36">
+        <f>E8*E28+F8*F28+G8*G28+H8*H28+I8*I28+J8*J28+K8*K28+L8*L28+M8*M28+O8*O28+P8*P28+Q8*Q28+R8*R28+S8*S28+T8*T28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="str">
+        <f>member!A29</f>
+        <v>天赐</v>
+      </c>
+      <c r="B29" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="34">
+        <f>E7*E29+F7*F29+G7*G29+H7*H29+I7*I29+J7*J29+K7*K29+L7*L29+M7*M29+O7*O29+P7*P29+Q7*Q29+R7*R29+S7*S29+T7*T29</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="36">
+        <f>E8*E29+F8*F29+G8*G29+H8*H29+I8*I29+J8*J29+K8*K29+L8*L29+M8*M29+O8*O29+P8*P29+Q8*Q29+R8*R29+S8*S29+T8*T29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="str">
+        <f>member!A30</f>
+        <v>Shenghak</v>
+      </c>
+      <c r="B30" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="34">
+        <f>E7*E30+F7*F30+G7*G30+H7*H30+I7*I30+J7*J30+K7*K30+L7*L30+M7*M30+O7*O30+P7*P30+Q7*Q30+R7*R30+S7*S30+T7*T30</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="36">
+        <f>E8*E30+F8*F30+G8*G30+H8*H30+I8*I30+J8*J30+K8*K30+L8*L30+M8*M30+O8*O30+P8*P30+Q8*Q30+R8*R30+S8*S30+T8*T30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="str">
+        <f>member!A31</f>
+        <v>红色6号</v>
+      </c>
+      <c r="B31" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="34">
+        <f>E7*E31+F7*F31+G7*G31+H7*H31+I7*I31+J7*J31+K7*K31+L7*L31+M7*M31+O7*O31+P7*P31+Q7*Q31+R7*R31+S7*S31+T7*T31</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="36">
+        <f>E8*E31+F8*F31+G8*G31+H8*H31+I8*I31+J8*J31+K8*K31+L8*L31+M8*M31+O8*O31+P8*P31+Q8*Q31+R8*R31+S8*S31+T8*T31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="str">
+        <f>member!A32</f>
+        <v>微笑</v>
+      </c>
+      <c r="B32" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="34">
+        <f>E7*E32+F7*F32+G7*G32+H7*H32+I7*I32+J7*J32+K7*K32+L7*L32+M7*M32+O7*O32+P7*P32+Q7*Q32+R7*R32+S7*S32+T7*T32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="36">
+        <f>E8*E32+F8*F32+G8*G32+H8*H32+I8*I32+J8*J32+K8*K32+L8*L32+M8*M32+O8*O32+P8*P32+Q8*Q32+R8*R32+S8*S32+T8*T32</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="str">
+        <f>member!A33</f>
+        <v>77号-更心</v>
+      </c>
+      <c r="B33" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C33" s="34">
+        <f>E7*E33+F7*F33+G7*G33+H7*H33+I7*I33+J7*J33+K7*K33+L7*L33+M7*M33+O7*O33+P7*P33+Q7*Q33+R7*R33+S7*S33+T7*T33</f>
+        <v>30</v>
+      </c>
+      <c r="D33" s="36">
+        <f>E8*E33+F8*F33+G8*G33+H8*H33+I8*I33+J8*J33+K8*K33+L8*L33+M8*M33+O8*O33+P8*P33+Q8*Q33+R8*R33+S8*S33+T8*T33</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="str">
+        <f>member!A34</f>
+        <v>更心朋友</v>
+      </c>
+      <c r="B34" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="34">
+        <f>E7*E34+F7*F34+G7*G34+H7*H34+I7*I34+J7*J34+K7*K34+L7*L34+M7*M34+O7*O34+P7*P34+Q7*Q34+R7*R34+S7*S34+T7*T34</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="36">
+        <f>E8*E34+F8*F34+G8*G34+H8*H34+I8*I34+J8*J34+K8*K34+L8*L34+M8*M34+O8*O34+P8*P34+Q8*Q34+R8*R34+S8*S34+T8*T34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="str">
+        <f>member!A35</f>
+        <v>8号-菜菜亮</v>
+      </c>
+      <c r="B35" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="34">
+        <f>E7*E35+F7*F35+G7*G35+H7*H35+I7*I35+J7*J35+K7*K35+L7*L35+M7*M35+O7*O35+P7*P35+Q7*Q35+R7*R35+S7*S35+T7*T35</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="36">
+        <f>E8*E35+F8*F35+G8*G35+H8*H35+I8*I35+J8*J35+K8*K35+L8*L35+M8*M35+O8*O35+P8*P35+Q8*Q35+R8*R35+S8*S35+T8*T35</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="str">
+        <f>member!A36</f>
+        <v>杨光朋友</v>
+      </c>
+      <c r="B36" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="34">
+        <f>E7*E36+F7*F36+G7*G36+H7*H36+I7*I36+J7*J36+K7*K36+L7*L36+M7*M36+O7*O36+P7*P36+Q7*Q36+R7*R36+S7*S36+T7*T36</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="36">
+        <f>E8*E36+F8*F36+G8*G36+H8*H36+I8*I36+J8*J36+K8*K36+L8*L36+M8*M36+O8*O36+P8*P36+Q8*Q36+R8*R36+S8*S36+T8*T36</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="str">
+        <f>member!A37</f>
+        <v>拂晓朋友</v>
+      </c>
+      <c r="B37" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="34">
+        <f>E7*E37+F7*F37+G7*G37+H7*H37+I7*I37+J7*J37+K7*K37+L7*L37+M7*M37+O7*O37+P7*P37+Q7*Q37+R7*R37+S7*S37+T7*T37</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="36">
+        <f>E8*E37+F8*F37+G8*G37+H8*H37+I8*I37+J8*J37+K8*K37+L8*L37+M8*M37+O8*O37+P8*P37+Q8*Q37+R8*R37+S8*S37+T8*T37</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="str">
+        <f>member!A38</f>
+        <v>4号-许多</v>
+      </c>
+      <c r="B38" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="34">
+        <f>E7*E38+F7*F38+G7*G38+H7*H38+I7*I38+J7*J38+K7*K38+L7*L38+M7*M38+O7*O38+P7*P38+Q7*Q38+R7*R38+S7*S38+T7*T38</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="36">
+        <f>E8*E38+F8*F38+G8*G38+H8*H38+I8*I38+J8*J38+K8*K38+L8*L38+M8*M38+O8*O38+P8*P38+Q8*Q38+R8*R38+S8*S38+T8*T38</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="str">
+        <f>member!A39</f>
+        <v>5号-正</v>
+      </c>
+      <c r="B39" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="34">
+        <f>E7*E39+F7*F39+G7*G39+H7*H39+I7*I39+J7*J39+K7*K39+L7*L39+M7*M39+O7*O39+P7*P39+Q7*Q39+R7*R39+S7*S39+T7*T39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="36">
+        <f>E8*E39+F8*F39+G8*G39+H8*H39+I8*I39+J8*J39+K8*K39+L8*L39+M8*M39+O8*O39+P8*P39+Q8*Q39+R8*R39+S8*S39+T8*T39</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="str">
+        <f>member!A40</f>
+        <v>勇敢的爬爬</v>
+      </c>
+      <c r="B40" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="34">
+        <f>E7*E40+F7*F40+G7*G40+H7*H40+I7*I40+J7*J40+K7*K40+L7*L40+M7*M40+O7*O40+P7*P40+Q7*Q40+R7*R40+S7*S40+T7*T40</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="36">
+        <f>E8*E40+F8*F40+G8*G40+H8*H40+I8*I40+J8*J40+K8*K40+L8*L40+M8*M40+O8*O40+P8*P40+Q8*Q40+R8*R40+S8*S40+T8*T40</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="str">
+        <f>member!A41</f>
+        <v>17号-4号字母</v>
+      </c>
+      <c r="B41" s="34">
+        <f t="shared" ref="B41:B72" si="6">COUNT(E41:T41)</f>
+        <v>1</v>
+      </c>
+      <c r="C41" s="34">
+        <f>E7*E41+F7*F41+G7*G41+H7*H41+I7*I41+J7*J41+K7*K41+L7*L41+M7*M41+O7*O41+P7*P41+Q7*Q41+R7*R41+S7*S41+T7*T41</f>
+        <v>30</v>
+      </c>
+      <c r="D41" s="36">
+        <f>E8*E41+F8*F41+G8*G41+H8*H41+I8*I41+J8*J41+K8*K41+L8*L41+M8*M41+O8*O41+P8*P41+Q8*Q41+R8*R41+S8*S41+T8*T41</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="str">
+        <f>member!A42</f>
+        <v>雷雨</v>
+      </c>
+      <c r="B42" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="34">
+        <f>E7*E42+F7*F42+G7*G42+H7*H42+I7*I42+J7*J42+K7*K42+L7*L42+M7*M42+O7*O42+P7*P42+Q7*Q42+R7*R42+S7*S42+T7*T42</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="36">
+        <f>E8*E42+F8*F42+G8*G42+H8*H42+I8*I42+J8*J42+K8*K42+L8*L42+M8*M42+O8*O42+P8*P42+Q8*Q42+R8*R42+S8*S42+T8*T42</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="str">
+        <f>member!A43</f>
+        <v>西北偏北</v>
+      </c>
+      <c r="B43" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C43" s="34">
+        <f>E7*E43+F7*F43+G7*G43+H7*H43+I7*I43+J7*J43+K7*K43+L7*L43+M7*M43+O7*O43+P7*P43+Q7*Q43+R7*R43+S7*S43+T7*T43</f>
+        <v>30</v>
+      </c>
+      <c r="D43" s="36">
+        <f>E8*E43+F8*F43+G8*G43+H8*H43+I8*I43+J8*J43+K8*K43+L8*L43+M8*M43+O8*O43+P8*P43+Q8*Q43+R8*R43+S8*S43+T8*T43</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="str">
+        <f>member!A44</f>
+        <v>红色8号</v>
+      </c>
+      <c r="B44" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="34">
+        <f>E7*E44+F7*F44+G7*G44+H7*H44+I7*I44+J7*J44+K7*K44+L7*L44+M7*M44+O7*O44+P7*P44+Q7*Q44+R7*R44+S7*S44+T7*T44</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="36">
+        <f>E8*E44+F8*F44+G8*G44+H8*H44+I8*I44+J8*J44+K8*K44+L8*L44+M8*M44+O8*O44+P8*P44+Q8*Q44+R8*R44+S8*S44+T8*T44</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="str">
+        <f>member!A45</f>
+        <v>马耳他</v>
+      </c>
+      <c r="B45" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="34">
+        <f>E7*E45+F7*F45+G7*G45+H7*H45+I7*I45+J7*J45+K7*K45+L7*L45+M7*M45+O7*O45+P7*P45+Q7*Q45+R7*R45+S7*S45+T7*T45</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="36">
+        <f>E8*E45+F8*F45+G8*G45+H8*H45+I8*I45+J8*J45+K8*K45+L8*L45+M8*M45+O8*O45+P8*P45+Q8*Q45+R8*R45+S8*S45+T8*T45</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="11" t="str">
+        <f>member!A46</f>
+        <v>Cindy~陈猛</v>
+      </c>
+      <c r="B46" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="34">
+        <f>E7*E46+F7*F46+G7*G46+H7*H46+I7*I46+J7*J46+K7*K46+L7*L46+M7*M46+O7*O46+P7*P46+Q7*Q46+R7*R46+S7*S46+T7*T46</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="36">
+        <f>E8*E46+F8*F46+G8*G46+H8*H46+I8*I46+J8*J46+K8*K46+L8*L46+M8*M46+O8*O46+P8*P46+Q8*Q46+R8*R46+S8*S46+T8*T46</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="str">
+        <f>member!A47</f>
+        <v>张硕</v>
+      </c>
+      <c r="B47" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="34">
+        <f>E7*E47+F7*F47+G7*G47+H7*H47+I7*I47+J7*J47+K7*K47+L7*L47+M7*M47+O7*O47+P7*P47+Q7*Q47+R7*R47+S7*S47+T7*T47</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="36">
+        <f>E8*E47+F8*F47+G8*G47+H8*H47+I8*I47+J8*J47+K8*K47+L8*L47+M8*M47+O8*O47+P8*P47+Q8*Q47+R8*R47+S8*S47+T8*T47</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="str">
+        <f>member!A48</f>
+        <v>Violin</v>
+      </c>
+      <c r="B48" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="34">
+        <f>E7*E48+F7*F48+G7*G48+H7*H48+I7*I48+J7*J48+K7*K48+L7*L48+M7*M48+O7*O48+P7*P48+Q7*Q48+R7*R48+S7*S48+T7*T48</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="36">
+        <f>E8*E48+F8*F48+G8*G48+H8*H48+I8*I48+J8*J48+K8*K48+L8*L48+M8*M48+O8*O48+P8*P48+Q8*Q48+R8*R48+S8*S48+T8*T48</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="str">
+        <f>member!A49</f>
+        <v>87号陈磊</v>
+      </c>
+      <c r="B49" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="34">
+        <f>E7*E49+F7*F49+G7*G49+H7*H49+I7*I49+J7*J49+K7*K49+L7*L49+M7*M49+O7*O49+P7*P49+Q7*Q49+R7*R49+S7*S49+T7*T49</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="36">
+        <f>E8*E49+F8*F49+G8*G49+H8*H49+I8*I49+J8*J49+K8*K49+L8*L49+M8*M49+O8*O49+P8*P49+Q8*Q49+R8*R49+S8*S49+T8*T49</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="11" t="str">
+        <f>member!A50</f>
+        <v>水中阳光</v>
+      </c>
+      <c r="B50" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="34">
+        <f>E7*E50+F7*F50+G7*G50+H7*H50+I7*I50+J7*J50+K7*K50+L7*L50+M7*M50+O7*O50+P7*P50+Q7*Q50+R7*R50+S7*S50+T7*T50</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="36">
+        <f>E8*E50+F8*F50+G8*G50+H8*H50+I8*I50+J8*J50+K8*K50+L8*L50+M8*M50+O8*O50+P8*P50+Q8*Q50+R8*R50+S8*S50+T8*T50</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="11" t="str">
+        <f>member!A51</f>
+        <v>sam</v>
+      </c>
+      <c r="B51" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="34">
+        <f>E7*E51+F7*F51+G7*G51+H7*H51+I7*I51+J7*J51+K7*K51+L7*L51+M7*M51+O7*O51+P7*P51+Q7*Q51+R7*R51+S7*S51+T7*T51</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="36">
+        <f>E8*E51+F8*F51+G8*G51+H8*H51+I8*I51+J8*J51+K8*K51+L8*L51+M8*M51+O8*O51+P8*P51+Q8*Q51+R8*R51+S8*S51+T8*T51</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="11" t="str">
+        <f>member!A52</f>
+        <v>26 方亚</v>
+      </c>
+      <c r="B52" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C52" s="34">
+        <f>E7*E52+F7*F52+G7*G52+H7*H52+I7*I52+J7*J52+K7*K52+L7*L52+M7*M52+O7*O52+P7*P52+Q7*Q52+R7*R52+S7*S52+T7*T52</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="36">
+        <f>E8*E52+F8*F52+G8*G52+H8*H52+I8*I52+J8*J52+K8*K52+L8*L52+M8*M52+O8*O52+P8*P52+Q8*Q52+R8*R52+S8*S52+T8*T52</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="11" t="str">
+        <f>member!A53</f>
+        <v>维尼</v>
+      </c>
+      <c r="B53" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C53" s="34">
+        <f>E7*E53+F7*F53+G7*G53+H7*H53+I7*I53+J7*J53+K7*K53+L7*L53+M7*M53+O7*O53+P7*P53+Q7*Q53+R7*R53+S7*S53+T7*T53</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="36">
+        <f>E8*E53+F8*F53+G8*G53+H8*H53+I8*I53+J8*J53+K8*K53+L8*L53+M8*M53+O8*O53+P8*P53+Q8*Q53+R8*R53+S8*S53+T8*T53</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="11" t="str">
+        <f>member!A54</f>
+        <v>0号--张家宁</v>
+      </c>
+      <c r="B54" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="34">
+        <f>E7*E54+F7*F54+G7*G54+H7*H54+I7*I54+J7*J54+K7*K54+L7*L54+M7*M54+O7*O54+P7*P54+Q7*Q54+R7*R54+S7*S54+T7*T54</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="36">
+        <f>E8*E54+F8*F54+G8*G54+H8*H54+I8*I54+J8*J54+K8*K54+L8*L54+M8*M54+O8*O54+P8*P54+Q8*Q54+R8*R54+S8*S54+T8*T54</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="11" t="str">
+        <f>member!A55</f>
+        <v>泰山</v>
+      </c>
+      <c r="B55" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C55" s="34">
+        <f>E7*E55+F7*F55+G7*G55+H7*H55+I7*I55+J7*J55+K7*K55+L7*L55+M7*M55+O7*O55+P7*P55+Q7*Q55+R7*R55+S7*S55+T7*T55</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="36">
+        <f>E8*E55+F8*F55+G8*G55+H8*H55+I8*I55+J8*J55+K8*K55+L8*L55+M8*M55+O8*O55+P8*P55+Q8*Q55+R8*R55+S8*S55+T8*T55</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="11" t="str">
+        <f>member!A56</f>
+        <v>尚峰</v>
+      </c>
+      <c r="B56" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="34">
+        <f>E7*E56+F7*F56+G7*G56+H7*H56+I7*I56+J7*J56+K7*K56+L7*L56+M7*M56+O7*O56+P7*P56+Q7*Q56+R7*R56+S7*S56+T7*T56</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="36">
+        <f>E8*E56+F8*F56+G8*G56+H8*H56+I8*I56+J8*J56+K8*K56+L8*L56+M8*M56+O8*O56+P8*P56+Q8*Q56+R8*R56+S8*S56+T8*T56</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="11" t="str">
+        <f>member!A57</f>
+        <v>杨光</v>
+      </c>
+      <c r="B57" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="34">
+        <f>E7*E57+F7*F57+G7*G57+H7*H57+I7*I57+J7*J57+K7*K57+L7*L57+M7*M57+O7*O57+P7*P57+Q7*Q57+R7*R57+S7*S57+T7*T57</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="36">
+        <f>E8*E57+F8*F57+G8*G57+H8*H57+I8*I57+J8*J57+K8*K57+L8*L57+M8*M57+O8*O57+P8*P57+Q8*Q57+R8*R57+S8*S57+T8*T57</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="11" t="str">
+        <f>member!A58</f>
+        <v>小磊</v>
+      </c>
+      <c r="B58" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="34">
+        <f>E7*E58+F7*F58+G7*G58+H7*H58+I7*I58+J7*J58+K7*K58+L7*L58+M7*M58+O7*O58+P7*P58+Q7*Q58+R7*R58+S7*S58+T7*T58</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="36">
+        <f>E8*E58+F8*F58+G8*G58+H8*H58+I8*I58+J8*J58+K8*K58+L8*L58+M8*M58+O8*O58+P8*P58+Q8*Q58+R8*R58+S8*S58+T8*T58</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="11" t="str">
+        <f>member!A59</f>
+        <v>绿洲</v>
+      </c>
+      <c r="B59" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="34">
+        <f>E7*E59+F7*F59+G7*G59+H7*H59+I7*I59+J7*J59+K7*K59+L7*L59+M7*M59+O7*O59+P7*P59+Q7*Q59+R7*R59+S7*S59+T7*T59</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="36">
+        <f>E8*E59+F8*F59+G8*G59+H8*H59+I8*I59+J8*J59+K8*K59+L8*L59+M8*M59+O8*O59+P8*P59+Q8*Q59+R8*R59+S8*S59+T8*T59</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="11" t="str">
+        <f>member!A60</f>
+        <v>孙伟</v>
+      </c>
+      <c r="B60" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="34">
+        <f>E7*E60+F7*F60+G7*G60+H7*H60+I7*I60+J7*J60+K7*K60+L7*L60+M7*M60+O7*O60+P7*P60+Q7*Q60+R7*R60+S7*S60+T7*T60</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="36">
+        <f>E8*E60+F8*F60+G8*G60+H8*H60+I8*I60+J8*J60+K8*K60+L8*L60+M8*M60+O8*O60+P8*P60+Q8*Q60+R8*R60+S8*S60+T8*T60</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="11" t="str">
+        <f>member!A61</f>
+        <v>古轮木</v>
+      </c>
+      <c r="B61" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="34">
+        <f>E7*E61+F7*F61+G7*G61+H7*H61+I7*I61+J7*J61+K7*K61+L7*L61+M7*M61+O7*O61+P7*P61+Q7*Q61+R7*R61+S7*S61+T7*T61</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="36">
+        <f>E8*E61+F8*F61+G8*G61+H8*H61+I8*I61+J8*J61+K8*K61+L8*L61+M8*M61+O8*O61+P8*P61+Q8*Q61+R8*R61+S8*S61+T8*T61</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="str">
+        <f>member!A62</f>
+        <v>makoko</v>
+      </c>
+      <c r="B62" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="34">
+        <f>E7*E62+F7*F62+G7*G62+H7*H62+I7*I62+J7*J62+K7*K62+L7*L62+M7*M62+O7*O62+P7*P62+Q7*Q62+R7*R62+S7*S62+T7*T62</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="36">
+        <f>E8*E62+F8*F62+G8*G62+H8*H62+I8*I62+J8*J62+K8*K62+L8*L62+M8*M62+O8*O62+P8*P62+Q8*Q62+R8*R62+S8*S62+T8*T62</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="str">
+        <f>member!A63</f>
+        <v>玲-深蓝</v>
+      </c>
+      <c r="B63" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="34">
+        <f>E7*E63+F7*F63+G7*G63+H7*H63+I7*I63+J7*J63+K7*K63+L7*L63+M7*M63+N7*N63+O7*O63+P7*P63+Q7*Q63+R7*R63+S7*S63+T7*T63</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="36">
+        <f>E8*E63+F8*F63+G8*G63+H8*H63+I8*I63+J8*J63+K8*K63+L8*L63+M8*M63+N8*N63+O8*O63+P8*P63+Q8*Q63+R8*R63+S8*S63+T8*T63</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="11" t="str">
+        <f>member!A64</f>
+        <v>玲-小马</v>
+      </c>
+      <c r="B64" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C64" s="34">
+        <f>E7*E64+F7*F64+G7*G64+H7*H64+I7*I64+J7*J64+K7*K64+L7*L64+M7*M64+N7*N64+O7*O64+P7*P64+Q7*Q64+R7*R64+S7*S64+T7*T64</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="36">
+        <f>E8*E64+F8*F64+G8*G64+H8*H64+I8*I64+J8*J64+K8*K64+L8*L64+M8*M64+N8*N64+O8*O64+P8*P64+Q8*Q64+R8*R64+S8*S64+T8*T64</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="11" t="str">
+        <f>member!A65</f>
+        <v>玲-高</v>
+      </c>
+      <c r="B65" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="34">
+        <f>E7*E65+F7*F65+G7*G65+H7*H65+I7*I65+J7*J65+K7*K65+L7*L65+M7*M65+N7*N65+O7*O65+P7*P65+Q7*Q65+R7*R65+S7*S65+T7*T65</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="36">
+        <f>E8*E65+F8*F65+G8*G65+H8*H65+I8*I65+J8*J65+K8*K65+L8*L65+M8*M65+N8*N65+O8*O65+P8*P65+Q8*Q65+R8*R65+S8*S65+T8*T65</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="11" t="str">
+        <f>member!A66</f>
+        <v>玲-秦</v>
+      </c>
+      <c r="B66" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="34">
+        <f>E7*E66+F7*F66+G7*G66+H7*H66+I7*I66+J7*J66+K7*K66+L7*L66+M7*M66+N7*N66+O7*O66+P7*P66+Q7*Q66+R7*R66+S7*S66+T7*T66</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="36">
+        <f>E8*E66+F8*F66+G8*G66+H8*H66+I8*I66+J8*J66+K8*K66+L8*L66+M8*M66+N8*N66+O8*O66+P8*P66+Q8*Q66+R8*R66+S8*S66+T8*T66</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="11" t="str">
+        <f>member!A67</f>
+        <v>玲-手</v>
+      </c>
+      <c r="B67" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="34">
+        <f>E7*E67+F7*F67+G7*G67+H7*H67+I7*I67+J7*J67+K7*K67+L7*L67+M7*M67+N7*N67+O7*O67+P7*P67+Q7*Q67+R7*R67+S7*S67+T7*T67</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="36">
+        <f>E8*E67+F8*F67+G8*G67+H8*H67+I8*I67+J8*J67+K8*K67+L8*L67+M8*M67+N8*N67+O8*O67+P8*P67+Q8*Q67+R8*R67+S8*S67+T8*T67</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="11" t="str">
+        <f>member!A68</f>
+        <v>度日</v>
+      </c>
+      <c r="B68" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="34">
+        <f>E7*E68+F7*F68+G7*G68+H7*H68+I7*I68+J7*J68+K7*K68+L7*L68+M7*M68+N7*N68+O7*O68+P7*P68+Q7*Q68+R7*R68+S7*S68+T7*T68</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="36">
+        <f>E8*E68+F8*F68+G8*G68+H8*H68+I8*I68+J8*J68+K8*K68+L8*L68+M8*M68+N8*N68+O8*O68+P8*P68+Q8*Q68+R8*R68+S8*S68+T8*T68</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="11" t="str">
+        <f>member!A69</f>
+        <v>肖飞</v>
+      </c>
+      <c r="B69" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C69" s="34">
+        <f>E7*E69+F7*F69+G7*G69+H7*H69+I7*I69+J7*J69+K7*K69+L7*L69+M7*M69+N7*N69+O7*O69+P7*P69+Q7*Q69+R7*R69+S7*S69+T7*T69</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="36">
+        <f>E8*E69+F8*F69+G8*G69+H8*H69+I8*I69+J8*J69+K8*K69+L8*L69+M8*M69+N8*N69+O8*O69+P8*P69+Q8*Q69+R8*R69+S8*S69+T8*T69</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="11" t="str">
+        <f>member!A70</f>
+        <v>玲-大马</v>
+      </c>
+      <c r="B70" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C70" s="34">
+        <f>E7*E70+F7*F70+G7*G70+H7*H70+I7*I70+J7*J70+K7*K70+L7*L70+M7*M70+N7*N70+O7*O70+P7*P70+Q7*Q70+R7*R70+S7*S70+T7*T70</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="36">
+        <f>E8*E70+F8*F70+G8*G70+H8*H70+I8*I70+J8*J70+K8*K70+L8*L70+M8*M70+N8*N70+O8*O70+P8*P70+Q8*Q70+R8*R70+S8*S70+T8*T70</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="11" t="str">
+        <f>member!A71</f>
+        <v>刀外甥</v>
+      </c>
+      <c r="B71" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C71" s="34">
+        <f>E7*E71+F7*F71+G7*G71+H7*H71+I7*I71+J7*J71+K7*K71+L7*L71+M7*M71+N7*N71+O7*O71+P7*P71+Q7*Q71+R7*R71+S7*S71+T7*T71</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="36">
+        <f>E8*E71+F8*F71+G8*G71+H8*H71+I8*I71+J8*J71+K8*K71+L8*L71+M8*M71+N8*N71+O8*O71+P8*P71+Q8*Q71+R8*R71+S8*S71+T8*T71</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="11" t="str">
+        <f>member!A72</f>
+        <v>红星</v>
+      </c>
+      <c r="B72" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C72" s="34">
+        <f>E7*E72+F7*F72+G7*G72+H7*H72+I7*I72+J7*J72+K7*K72+L7*L72+M7*M72+N7*N72+O7*O72+P7*P72+Q7*Q72+R7*R72+S7*S72+T7*T72</f>
+        <v>30</v>
+      </c>
+      <c r="D72" s="36">
+        <f>E8*E72+F8*F72+G8*G72+H8*H72+I8*I72+J8*J72+K8*K72+L8*L72+M8*M72+N8*N72+O8*O72+P8*P72+Q8*Q72+R8*R72+S8*S72+T8*T72</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="11" t="str">
+        <f>member!A73</f>
+        <v>小新</v>
+      </c>
+      <c r="B73" s="34">
+        <f t="shared" ref="B73:B100" si="7">COUNT(E73:T73)</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="34">
+        <f>E7*E73+F7*F73+G7*G73+H7*H73+I7*I73+J7*J73+K7*K73+L7*L73+M7*M73+N7*N73+O7*O73+P7*P73+Q7*Q73+R7*R73+S7*S73+T7*T73</f>
+        <v>30</v>
+      </c>
+      <c r="D73" s="36">
+        <f>E8*E73+F8*F73+G8*G73+H8*H73+I8*I73+J8*J73+K8*K73+L8*L73+M8*M73+N8*N73+O8*O73+P8*P73+Q8*Q73+R8*R73+S8*S73+T8*T73</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="11" t="str">
+        <f>member!A74</f>
+        <v>狼</v>
+      </c>
+      <c r="B74" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C74" s="34">
+        <f>E7*E74+F7*F74+G7*G74+H7*H74+I7*I74+J7*J74+K7*K74+L7*L74+M7*M74+N7*N74+O7*O74+P7*P74+Q7*Q74+R7*R74+S7*S74+T7*T74</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="36">
+        <f>E8*E74+F8*F74+G8*G74+H8*H74+I8*I74+J8*J74+K8*K74+L8*L74+M8*M74+N8*N74+O8*O74+P8*P74+Q8*Q74+R8*R74+S8*S74+T8*T74</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="11" t="str">
+        <f>member!A75</f>
+        <v>新</v>
+      </c>
+      <c r="B75" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C75" s="34">
+        <f>E7*E75+F7*F75+G7*G75+H7*H75+I7*I75+J7*J75+K7*K75+L7*L75+M7*M75+N7*N75+O7*O75+P7*P75+Q7*Q75+R7*R75+S7*S75+T7*T75</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="36">
+        <f>E8*E75+F8*F75+G8*G75+H8*H75+I8*I75+J8*J75+K8*K75+L8*L75+M8*M75+N8*N75+O8*O75+P8*P75+Q8*Q75+R8*R75+S8*S75+T8*T75</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="11" t="str">
+        <f>member!A76</f>
+        <v>新</v>
+      </c>
+      <c r="B76" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C76" s="34">
+        <f>E7*E76+F7*F76+G7*G76+H7*H76+I7*I76+J7*J76+K7*K76+L7*L76+M7*M76+N7*N76+O7*O76+P7*P76+Q7*Q76+R7*R76+S7*S76+T7*T76</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="36">
+        <f>E8*E76+F8*F76+G8*G76+H8*H76+I8*I76+J8*J76+K8*K76+L8*L76+M8*M76+N8*N76+O8*O76+P8*P76+Q8*Q76+R8*R76+S8*S76+T8*T76</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="11" t="str">
+        <f>member!A77</f>
+        <v>新</v>
+      </c>
+      <c r="B77" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C77" s="34">
+        <f>E7*E77+F7*F77+G7*G77+H7*H77+I7*I77+J7*J77+K7*K77+L7*L77+M7*M77+N7*N77+O7*O77+P7*P77+Q7*Q77+R7*R77+S7*S77+T7*T77</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="36">
+        <f>E8*E77+F8*F77+G8*G77+H8*H77+I8*I77+J8*J77+K8*K77+L8*L77+M8*M77+N8*N77+O8*O77+P8*P77+Q8*Q77+R8*R77+S8*S77+T8*T77</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="11" t="str">
+        <f>member!A78</f>
+        <v>新</v>
+      </c>
+      <c r="B78" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C78" s="34">
+        <f>E7*E78+F7*F78+G7*G78+H7*H78+I7*I78+J7*J78+K7*K78+L7*L78+M7*M78+N7*N78+O7*O78+P7*P78+Q7*Q78+R7*R78+S7*S78+T7*T78</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="36">
+        <f>E8*E78+F8*F78+G8*G78+H8*H78+I8*I78+J8*J78+K8*K78+L8*L78+M8*M78+N8*N78+O8*O78+P8*P78+Q8*Q78+R8*R78+S8*S78+T8*T78</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="11" t="str">
+        <f>member!A79</f>
+        <v>新</v>
+      </c>
+      <c r="B79" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C79" s="34">
+        <f>E7*E79+F7*F79+G7*G79+H7*H79+I7*I79+J7*J79+K7*K79+L7*L79+M7*M79+N7*N79+O7*O79+P7*P79+Q7*Q79+R7*R79+S7*S79+T7*T79</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="36">
+        <f>E8*E79+F8*F79+G8*G79+H8*H79+I8*I79+J8*J79+K8*K79+L8*L79+M8*M79+N8*N79+O8*O79+P8*P79+Q8*Q79+R8*R79+S8*S79+T8*T79</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="11" t="str">
+        <f>member!A80</f>
+        <v>新</v>
+      </c>
+      <c r="B80" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C80" s="34">
+        <f>E7*E80+F7*F80+G7*G80+H7*H80+I7*I80+J7*J80+K7*K80+L7*L80+M7*M80+N7*N80+O7*O80+P7*P80+Q7*Q80+R7*R80+S7*S80+T7*T80</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="36">
+        <f>E8*E80+F8*F80+G8*G80+H8*H80+I8*I80+J8*J80+K8*K80+L8*L80+M8*M80+N8*N80+O8*O80+P8*P80+Q8*Q80+R8*R80+S8*S80+T8*T80</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="11" t="str">
+        <f>member!A81</f>
+        <v>新</v>
+      </c>
+      <c r="B81" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C81" s="34">
+        <f>E7*E81+F7*F81+G7*G81+H7*H81+I7*I81+J7*J81+K7*K81+L7*L81+M7*M81+N7*N81+O7*O81+P7*P81+Q7*Q81+R7*R81+S7*S81+T7*T81</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="36">
+        <f>E8*E81+F8*F81+G8*G81+H8*H81+I8*I81+J8*J81+K8*K81+L8*L81+M8*M81+N8*N81+O8*O81+P8*P81+Q8*Q81+R8*R81+S8*S81+T8*T81</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="11" t="str">
+        <f>member!A82</f>
+        <v>新</v>
+      </c>
+      <c r="B82" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C82" s="34">
+        <f>E7*E82+F7*F82+G7*G82+H7*H82+I7*I82+J7*J82+K7*K82+L7*L82+M7*M82+N7*N82+O7*O82+P7*P82+Q7*Q82+R7*R82+S7*S82+T7*T82</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="36">
+        <f>E8*E82+F8*F82+G8*G82+H8*H82+I8*I82+J8*J82+K8*K82+L8*L82+M8*M82+N8*N82+O8*O82+P8*P82+Q8*Q82+R8*R82+S8*S82+T8*T82</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="11" t="str">
+        <f>member!A83</f>
+        <v>新</v>
+      </c>
+      <c r="B83" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C83" s="34">
+        <f>E7*E83+F7*F83+G7*G83+H7*H83+I7*I83+J7*J83+K7*K83+L7*L83+M7*M83+N7*N83+O7*O83+P7*P83+Q7*Q83+R7*R83+S7*S83+T7*T83</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="36">
+        <f>E8*E83+F8*F83+G8*G83+H8*H83+I8*I83+J8*J83+K8*K83+L8*L83+M8*M83+N8*N83+O8*O83+P8*P83+Q8*Q83+R8*R83+S8*S83+T8*T83</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="11" t="str">
+        <f>member!A84</f>
+        <v>新</v>
+      </c>
+      <c r="B84" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C84" s="34">
+        <f>E7*E84+F7*F84+G7*G84+H7*H84+I7*I84+J7*J84+K7*K84+L7*L84+M7*M84+N7*N84+O7*O84+P7*P84+Q7*Q84+R7*R84+S7*S84+T7*T84</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="36">
+        <f>E8*E84+F8*F84+G8*G84+H8*H84+I8*I84+J8*J84+K8*K84+L8*L84+M8*M84+N8*N84+O8*O84+P8*P84+Q8*Q84+R8*R84+S8*S84+T8*T84</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="11" t="str">
+        <f>member!A85</f>
+        <v>新</v>
+      </c>
+      <c r="B85" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C85" s="34">
+        <f>E7*E85+F7*F85+G7*G85+H7*H85+I7*I85+J7*J85+K7*K85+L7*L85+M7*M85+N7*N85+O7*O85+P7*P85+Q7*Q85+R7*R85+S7*S85+T7*T85</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="36">
+        <f>E8*E85+F8*F85+G8*G85+H8*H85+I8*I85+J8*J85+K8*K85+L8*L85+M8*M85+N8*N85+O8*O85+P8*P85+Q8*Q85+R8*R85+S8*S85+T8*T85</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="11" t="str">
+        <f>member!A86</f>
+        <v>新</v>
+      </c>
+      <c r="B86" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C86" s="34">
+        <f>E7*E86+F7*F86+G7*G86+H7*H86+I7*I86+J7*J86+K7*K86+L7*L86+M7*M86+N7*N86+O7*O86+P7*P86+Q7*Q86+R7*R86+S7*S86+T7*T86</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="36">
+        <f>E8*E86+F8*F86+G8*G86+H8*H86+I8*I86+J8*J86+K8*K86+L8*L86+M8*M86+N8*N86+O8*O86+P8*P86+Q8*Q86+R8*R86+S8*S86+T8*T86</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="11" t="str">
+        <f>member!A87</f>
+        <v>新</v>
+      </c>
+      <c r="B87" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C87" s="34">
+        <f>E7*E87+F7*F87+G7*G87+H7*H87+I7*I87+J7*J87+K7*K87+L7*L87+M7*M87+N7*N87+O7*O87+P7*P87+Q7*Q87+R7*R87+S7*S87+T7*T87</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="36">
+        <f>E8*E87+F8*F87+G8*G87+H8*H87+I8*I87+J8*J87+K8*K87+L8*L87+M8*M87+N8*N87+O8*O87+P8*P87+Q8*Q87+R8*R87+S8*S87+T8*T87</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="11" t="str">
+        <f>member!A88</f>
+        <v>新</v>
+      </c>
+      <c r="B88" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C88" s="34">
+        <f>E7*E88+F7*F88+G7*G88+H7*H88+I7*I88+J7*J88+K7*K88+L7*L88+M7*M88+N7*N88+O7*O88+P7*P88+Q7*Q88+R7*R88+S7*S88+T7*T88</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="36">
+        <f>E8*E88+F8*F88+G8*G88+H8*H88+I8*I88+J8*J88+K8*K88+L8*L88+M8*M88+N8*N88+O8*O88+P8*P88+Q8*Q88+R8*R88+S8*S88+T8*T88</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="11" t="str">
+        <f>member!A89</f>
+        <v>新</v>
+      </c>
+      <c r="B89" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C89" s="34">
+        <f>E7*E89+F7*F89+G7*G89+H7*H89+I7*I89+J7*J89+K7*K89+L7*L89+M7*M89+N7*N89+O7*O89+P7*P89+Q7*Q89+R7*R89+S7*S89+T7*T89</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="36">
+        <f>E8*E89+F8*F89+G8*G89+H8*H89+I8*I89+J8*J89+K8*K89+L8*L89+M8*M89+N8*N89+O8*O89+P8*P89+Q8*Q89+R8*R89+S8*S89+T8*T89</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="11" t="str">
+        <f>member!A90</f>
+        <v>新</v>
+      </c>
+      <c r="B90" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C90" s="34">
+        <f>E7*E90+F7*F90+G7*G90+H7*H90+I7*I90+J7*J90+K7*K90+L7*L90+M7*M90+N7*N90+O7*O90+P7*P90+Q7*Q90+R7*R90+S7*S90+T7*T90</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="36">
+        <f>E8*E90+F8*F90+G8*G90+H8*H90+I8*I90+J8*J90+K8*K90+L8*L90+M8*M90+N8*N90+O8*O90+P8*P90+Q8*Q90+R8*R90+S8*S90+T8*T90</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="11" t="str">
+        <f>member!A91</f>
+        <v>新</v>
+      </c>
+      <c r="B91" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C91" s="34">
+        <f>E7*E91+F7*F91+G7*G91+H7*H91+I7*I91+J7*J91+K7*K91+L7*L91+M7*M91+N7*N91+O7*O91+P7*P91+Q7*Q91+R7*R91+S7*S91+T7*T91</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="36">
+        <f>E8*E91+F8*F91+G8*G91+H8*H91+I8*I91+J8*J91+K8*K91+L8*L91+M8*M91+N8*N91+O8*O91+P8*P91+Q8*Q91+R8*R91+S8*S91+T8*T91</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="11" t="str">
+        <f>member!A92</f>
+        <v>新</v>
+      </c>
+      <c r="B92" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C92" s="34">
+        <f>E7*E92+F7*F92+G7*G92+H7*H92+I7*I92+J7*J92+K7*K92+L7*L92+M7*M92+N7*N92+O7*O92+P7*P92+Q7*Q92+R7*R92+S7*S92+T7*T92</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="36">
+        <f>E8*E92+F8*F92+G8*G92+H8*H92+I8*I92+J8*J92+K8*K92+L8*L92+M8*M92+N8*N92+O8*O92+P8*P92+Q8*Q92+R8*R92+S8*S92+T8*T92</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="11" t="str">
+        <f>member!A93</f>
+        <v>新</v>
+      </c>
+      <c r="B93" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C93" s="34">
+        <f>E7*E93+F7*F93+G7*G93+H7*H93+I7*I93+J7*J93+K7*K93+L7*L93+M7*M93+N7*N93+O7*O93+P7*P93+Q7*Q93+R7*R93+S7*S93+T7*T93</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="36">
+        <f>E8*E93+F8*F93+G8*G93+H8*H93+I8*I93+J8*J93+K8*K93+L8*L93+M8*M93+N8*N93+O8*O93+P8*P93+Q8*Q93+R8*R93+S8*S93+T8*T93</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="11" t="str">
+        <f>member!A94</f>
+        <v>新</v>
+      </c>
+      <c r="B94" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C94" s="34">
+        <f>E7*E94+F7*F94+G7*G94+H7*H94+I7*I94+J7*J94+K7*K94+L7*L94+M7*M94+N7*N94+O7*O94+P7*P94+Q7*Q94+R7*R94+S7*S94+T7*T94</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="36">
+        <f>E8*E94+F8*F94+G8*G94+H8*H94+I8*I94+J8*J94+K8*K94+L8*L94+M8*M94+N8*N94+O8*O94+P8*P94+Q8*Q94+R8*R94+S8*S94+T8*T94</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="11" t="str">
+        <f>member!A95</f>
+        <v>新</v>
+      </c>
+      <c r="B95" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C95" s="34">
+        <f>E7*E95+F7*F95+G7*G95+H7*H95+I7*I95+J7*J95+K7*K95+L7*L95+M7*M95+N7*N95+O7*O95+P7*P95+Q7*Q95+R7*R95+S7*S95+T7*T95</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="36">
+        <f>E8*E95+F8*F95+G8*G95+H8*H95+I8*I95+J8*J95+K8*K95+L8*L95+M8*M95+N8*N95+O8*O95+P8*P95+Q8*Q95+R8*R95+S8*S95+T8*T95</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="11" t="str">
+        <f>member!A96</f>
+        <v>新</v>
+      </c>
+      <c r="B96" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C96" s="34">
+        <f>E7*E96+F7*F96+G7*G96+H7*H96+I7*I96+J7*J96+K7*K96+L7*L96+M7*M96+N7*N96+O7*O96+P7*P96+Q7*Q96+R7*R96+S7*S96+T7*T96</f>
+        <v>0</v>
+      </c>
+      <c r="D96" s="36">
+        <f>E8*E96+F8*F96+G8*G96+H8*H96+I8*I96+J8*J96+K8*K96+L8*L96+M8*M96+N8*N96+O8*O96+P8*P96+Q8*Q96+R8*R96+S8*S96+T8*T96</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="11" t="str">
+        <f>member!A97</f>
+        <v>新</v>
+      </c>
+      <c r="B97" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C97" s="34">
+        <f>E7*E97+F7*F97+G7*G97+H7*H97+I7*I97+J7*J97+K7*K97+L7*L97+M7*M97+N7*N97+O7*O97+P7*P97+Q7*Q97+R7*R97+S7*S97+T7*T97</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="36">
+        <f>E8*E97+F8*F97+G8*G97+H8*H97+I8*I97+J8*J97+K8*K97+L8*L97+M8*M97+N8*N97+O8*O97+P8*P97+Q8*Q97+R8*R97+S8*S97+T8*T97</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="11" t="str">
+        <f>member!A98</f>
+        <v>新</v>
+      </c>
+      <c r="B98" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C98" s="34">
+        <f>E7*E98+F7*F98+G7*G98+H7*H98+I7*I98+J7*J98+K7*K98+L7*L98+M7*M98+N7*N98+O7*O98+P7*P98+Q7*Q98+R7*R98+S7*S98+T7*T98</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="36">
+        <f>E8*E98+F8*F98+G8*G98+H8*H98+I8*I98+J8*J98+K8*K98+L8*L98+M8*M98+N8*N98+O8*O98+P8*P98+Q8*Q98+R8*R98+S8*S98+T8*T98</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="11" t="str">
+        <f>member!A99</f>
+        <v>新</v>
+      </c>
+      <c r="B99" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C99" s="34">
+        <f>E7*E99+F7*F99+G7*G99+H7*H99+I7*I99+J7*J99+K7*K99+L7*L99+M7*M99+N7*N99+O7*O99+P7*P99+Q7*Q99+R7*R99+S7*S99+T7*T99</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="36">
+        <f>E8*E99+F8*F99+G8*G99+H8*H99+I8*I99+J8*J99+K8*K99+L8*L99+M8*M99+N8*N99+O8*O99+P8*P99+Q8*Q99+R8*R99+S8*S99+T8*T99</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="11" t="str">
+        <f>member!A100</f>
+        <v>新</v>
+      </c>
+      <c r="B100" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C100" s="34">
+        <f>E7*E100+F7*F100+G7*G100+H7*H100+I7*I100+J7*J100+K7*K100+L7*L100+M7*M100+N7*N100+O7*O100+P7*P100+Q7*Q100+R7*R100+S7*S100+T7*T100</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="36">
+        <f>E8*E100+F8*F100+G8*G100+H8*H100+I8*I100+J8*J100+K8*K100+L8*L100+M8*M100+N8*N100+O8*O100+P8*P100+Q8*Q100+R8*R100+S8*S100+T8*T100</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20864,12 +23101,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20882,7 +23132,7 @@
     <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -20902,13 +23152,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="39">
         <f>SUM(B3:B51)</f>
-        <v>288</v>
+        <v>373</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="42" t="s">
@@ -20916,31 +23166,40 @@
       </c>
       <c r="E2" s="39">
         <f>SUM(E3:E49)</f>
-        <v>1338</v>
+        <v>1020</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
+        <v>41130</v>
+      </c>
+      <c r="B3">
+        <v>-5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="14">
         <v>41109</v>
       </c>
-      <c r="B3" s="1">
+      <c r="E3" s="1">
         <v>-90</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="F3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="14">
         <v>41114</v>
       </c>
-      <c r="E3" s="1">
+      <c r="H3" s="1">
         <v>228</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I3" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
         <v>41107</v>
       </c>
@@ -20948,7 +23207,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D4" s="14">
         <v>41114</v>
@@ -20957,10 +23216,10 @@
         <v>-360</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>41095</v>
       </c>
@@ -20968,7 +23227,7 @@
         <v>-240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" s="14">
         <v>41107</v>
@@ -20977,10 +23236,10 @@
         <v>-20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>41095</v>
       </c>
@@ -20988,7 +23247,7 @@
         <v>320</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6" s="14">
         <v>41079</v>
@@ -20997,10 +23256,10 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>41072</v>
       </c>
@@ -21008,7 +23267,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D7" s="14">
         <v>40948</v>
@@ -21018,7 +23277,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>41072</v>
       </c>
@@ -21026,7 +23285,7 @@
         <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" s="14">
         <v>40952</v>
@@ -21036,7 +23295,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>41067</v>
       </c>
@@ -21044,7 +23303,7 @@
         <v>-20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="14">
         <v>40960</v>
@@ -21054,7 +23313,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>41067</v>
       </c>
@@ -21062,7 +23321,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="14">
         <v>40967</v>
@@ -21072,7 +23331,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>41065</v>
       </c>
@@ -21080,7 +23339,7 @@
         <v>-40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="14">
         <v>40970</v>
@@ -21090,7 +23349,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>41065</v>
       </c>
@@ -21098,7 +23357,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="14">
         <v>40974</v>
@@ -21108,7 +23367,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>41060</v>
       </c>
@@ -21116,7 +23375,7 @@
         <v>-10</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="14">
         <v>40976</v>
@@ -21126,7 +23385,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>41060</v>
       </c>
@@ -21134,7 +23393,7 @@
         <v>130</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="14">
         <v>40983</v>
@@ -21146,7 +23405,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>41058</v>
       </c>
@@ -21154,7 +23413,7 @@
         <v>195</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="14">
         <v>40983</v>
@@ -21166,7 +23425,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>41058</v>
       </c>
@@ -21174,7 +23433,7 @@
         <v>-205</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="14">
         <v>40988</v>
@@ -21773,11 +24032,1412 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="11"/>
+      <c r="B1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="5">
+        <v>41095</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="8"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="str">
+        <f>member!A9</f>
+        <v>守候幸福</v>
+      </c>
+      <c r="B9" s="34">
+        <f t="shared" ref="B9:B72" si="0">COUNT(C9:R9)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="str">
+        <f>member!A10</f>
+        <v>李一刀</v>
+      </c>
+      <c r="B10" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="str">
+        <f>member!A11</f>
+        <v>咣咣地跟屁蟲</v>
+      </c>
+      <c r="B11" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="str">
+        <f>member!A12</f>
+        <v>Oo内拉祖里oO</v>
+      </c>
+      <c r="B12" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="str">
+        <f>member!A13</f>
+        <v>幸福~拂晓</v>
+      </c>
+      <c r="B13" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="str">
+        <f>member!A14</f>
+        <v>蚕豆</v>
+      </c>
+      <c r="B14" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="str">
+        <f>member!A15</f>
+        <v>who cares?</v>
+      </c>
+      <c r="B15" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="str">
+        <f>member!A16</f>
+        <v>幸福~彩票</v>
+      </c>
+      <c r="B16" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="str">
+        <f>member!A17</f>
+        <v>清道夫</v>
+      </c>
+      <c r="B17" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="str">
+        <f>member!A18</f>
+        <v>老A</v>
+      </c>
+      <c r="B18" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="str">
+        <f>member!A19</f>
+        <v>狐狸</v>
+      </c>
+      <c r="B19" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="str">
+        <f>member!A20</f>
+        <v>腿子</v>
+      </c>
+      <c r="B20" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="str">
+        <f>member!A21</f>
+        <v>smile</v>
+      </c>
+      <c r="B21" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="str">
+        <f>member!A22</f>
+        <v>小贝</v>
+      </c>
+      <c r="B22" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="str">
+        <f>member!A23</f>
+        <v>11号-鲜明</v>
+      </c>
+      <c r="B23" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="str">
+        <f>member!A24</f>
+        <v>狐狸~涛</v>
+      </c>
+      <c r="B24" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="str">
+        <f>member!A25</f>
+        <v>侯盟</v>
+      </c>
+      <c r="B25" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="str">
+        <f>member!A26</f>
+        <v>玖伍贰壹</v>
+      </c>
+      <c r="B26" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="str">
+        <f>member!A27</f>
+        <v>红色F50-超</v>
+      </c>
+      <c r="B27" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="str">
+        <f>member!A28</f>
+        <v>活了</v>
+      </c>
+      <c r="B28" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="str">
+        <f>member!A29</f>
+        <v>天赐</v>
+      </c>
+      <c r="B29" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="str">
+        <f>member!A30</f>
+        <v>Shenghak</v>
+      </c>
+      <c r="B30" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="str">
+        <f>member!A31</f>
+        <v>红色6号</v>
+      </c>
+      <c r="B31" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="str">
+        <f>member!A32</f>
+        <v>微笑</v>
+      </c>
+      <c r="B32" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="str">
+        <f>member!A33</f>
+        <v>77号-更心</v>
+      </c>
+      <c r="B33" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="str">
+        <f>member!A34</f>
+        <v>更心朋友</v>
+      </c>
+      <c r="B34" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="str">
+        <f>member!A35</f>
+        <v>8号-菜菜亮</v>
+      </c>
+      <c r="B35" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="str">
+        <f>member!A36</f>
+        <v>杨光朋友</v>
+      </c>
+      <c r="B36" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="str">
+        <f>member!A37</f>
+        <v>拂晓朋友</v>
+      </c>
+      <c r="B37" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="str">
+        <f>member!A38</f>
+        <v>4号-许多</v>
+      </c>
+      <c r="B38" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="str">
+        <f>member!A39</f>
+        <v>5号-正</v>
+      </c>
+      <c r="B39" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="str">
+        <f>member!A40</f>
+        <v>勇敢的爬爬</v>
+      </c>
+      <c r="B40" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="str">
+        <f>member!A41</f>
+        <v>17号-4号字母</v>
+      </c>
+      <c r="B41" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="str">
+        <f>member!A42</f>
+        <v>雷雨</v>
+      </c>
+      <c r="B42" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="str">
+        <f>member!A43</f>
+        <v>西北偏北</v>
+      </c>
+      <c r="B43" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="str">
+        <f>member!A44</f>
+        <v>红色8号</v>
+      </c>
+      <c r="B44" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="str">
+        <f>member!A45</f>
+        <v>马耳他</v>
+      </c>
+      <c r="B45" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="11" t="str">
+        <f>member!A46</f>
+        <v>Cindy~陈猛</v>
+      </c>
+      <c r="B46" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="str">
+        <f>member!A47</f>
+        <v>张硕</v>
+      </c>
+      <c r="B47" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="str">
+        <f>member!A48</f>
+        <v>Violin</v>
+      </c>
+      <c r="B48" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="str">
+        <f>member!A49</f>
+        <v>87号陈磊</v>
+      </c>
+      <c r="B49" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="11" t="str">
+        <f>member!A50</f>
+        <v>水中阳光</v>
+      </c>
+      <c r="B50" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="11" t="str">
+        <f>member!A51</f>
+        <v>sam</v>
+      </c>
+      <c r="B51" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="11" t="str">
+        <f>member!A52</f>
+        <v>26 方亚</v>
+      </c>
+      <c r="B52" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="11" t="str">
+        <f>member!A53</f>
+        <v>维尼</v>
+      </c>
+      <c r="B53" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="11" t="str">
+        <f>member!A54</f>
+        <v>0号--张家宁</v>
+      </c>
+      <c r="B54" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="11" t="str">
+        <f>member!A55</f>
+        <v>泰山</v>
+      </c>
+      <c r="B55" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="11" t="str">
+        <f>member!A56</f>
+        <v>尚峰</v>
+      </c>
+      <c r="B56" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="11" t="str">
+        <f>member!A57</f>
+        <v>杨光</v>
+      </c>
+      <c r="B57" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="11" t="str">
+        <f>member!A58</f>
+        <v>小磊</v>
+      </c>
+      <c r="B58" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="11" t="str">
+        <f>member!A59</f>
+        <v>绿洲</v>
+      </c>
+      <c r="B59" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="11" t="str">
+        <f>member!A60</f>
+        <v>孙伟</v>
+      </c>
+      <c r="B60" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="11" t="str">
+        <f>member!A61</f>
+        <v>古轮木</v>
+      </c>
+      <c r="B61" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="str">
+        <f>member!A62</f>
+        <v>makoko</v>
+      </c>
+      <c r="B62" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="str">
+        <f>member!A63</f>
+        <v>玲-深蓝</v>
+      </c>
+      <c r="B63" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="11" t="str">
+        <f>member!A64</f>
+        <v>玲-小马</v>
+      </c>
+      <c r="B64" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="11" t="str">
+        <f>member!A65</f>
+        <v>玲-高</v>
+      </c>
+      <c r="B65" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="11" t="str">
+        <f>member!A66</f>
+        <v>玲-秦</v>
+      </c>
+      <c r="B66" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="11" t="str">
+        <f>member!A67</f>
+        <v>玲-手</v>
+      </c>
+      <c r="B67" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="11" t="str">
+        <f>member!A68</f>
+        <v>度日</v>
+      </c>
+      <c r="B68" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="11" t="str">
+        <f>member!A69</f>
+        <v>肖飞</v>
+      </c>
+      <c r="B69" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="11" t="str">
+        <f>member!A70</f>
+        <v>玲-大马</v>
+      </c>
+      <c r="B70" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="34">
+        <f t="shared" ref="B73:B100" si="1">COUNT(C73:R73)</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="11" t="str">
+        <f>member!A74</f>
+        <v>狼</v>
+      </c>
+      <c r="B74" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="11" t="str">
+        <f>member!A75</f>
+        <v>新</v>
+      </c>
+      <c r="B75" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="11" t="str">
+        <f>member!A76</f>
+        <v>新</v>
+      </c>
+      <c r="B76" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="11" t="str">
+        <f>member!A77</f>
+        <v>新</v>
+      </c>
+      <c r="B77" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="11" t="str">
+        <f>member!A78</f>
+        <v>新</v>
+      </c>
+      <c r="B78" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="11" t="str">
+        <f>member!A79</f>
+        <v>新</v>
+      </c>
+      <c r="B79" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="11" t="str">
+        <f>member!A80</f>
+        <v>新</v>
+      </c>
+      <c r="B80" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="11" t="str">
+        <f>member!A81</f>
+        <v>新</v>
+      </c>
+      <c r="B81" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="11" t="str">
+        <f>member!A82</f>
+        <v>新</v>
+      </c>
+      <c r="B82" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="11" t="str">
+        <f>member!A83</f>
+        <v>新</v>
+      </c>
+      <c r="B83" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="11" t="str">
+        <f>member!A84</f>
+        <v>新</v>
+      </c>
+      <c r="B84" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="11" t="str">
+        <f>member!A85</f>
+        <v>新</v>
+      </c>
+      <c r="B85" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="11" t="str">
+        <f>member!A86</f>
+        <v>新</v>
+      </c>
+      <c r="B86" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="11" t="str">
+        <f>member!A87</f>
+        <v>新</v>
+      </c>
+      <c r="B87" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="11" t="str">
+        <f>member!A88</f>
+        <v>新</v>
+      </c>
+      <c r="B88" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="11" t="str">
+        <f>member!A89</f>
+        <v>新</v>
+      </c>
+      <c r="B89" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="11" t="str">
+        <f>member!A90</f>
+        <v>新</v>
+      </c>
+      <c r="B90" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="11" t="str">
+        <f>member!A91</f>
+        <v>新</v>
+      </c>
+      <c r="B91" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="11" t="str">
+        <f>member!A92</f>
+        <v>新</v>
+      </c>
+      <c r="B92" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="11" t="str">
+        <f>member!A93</f>
+        <v>新</v>
+      </c>
+      <c r="B93" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="11" t="str">
+        <f>member!A94</f>
+        <v>新</v>
+      </c>
+      <c r="B94" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="11" t="str">
+        <f>member!A95</f>
+        <v>新</v>
+      </c>
+      <c r="B95" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="11" t="str">
+        <f>member!A96</f>
+        <v>新</v>
+      </c>
+      <c r="B96" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="11" t="str">
+        <f>member!A97</f>
+        <v>新</v>
+      </c>
+      <c r="B97" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="11" t="str">
+        <f>member!A98</f>
+        <v>新</v>
+      </c>
+      <c r="B98" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="11" t="str">
+        <f>member!A99</f>
+        <v>新</v>
+      </c>
+      <c r="B99" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="11" t="str">
+        <f>member!A100</f>
+        <v>新</v>
+      </c>
+      <c r="B100" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -21793,22 +25453,22 @@
     <row r="1" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>138</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -22853,7 +26513,7 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="str">
         <f>member!A71</f>
-        <v>新</v>
+        <v>刀外甥</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -22865,7 +26525,7 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="str">
         <f>member!A72</f>
-        <v>新</v>
+        <v>红星</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -22877,7 +26537,7 @@
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="str">
         <f>member!A73</f>
-        <v>新</v>
+        <v>小新</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -22889,7 +26549,7 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="str">
         <f>member!A74</f>
-        <v>新</v>
+        <v>狼</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -23212,7 +26872,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -23222,7 +26882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
@@ -26347,7 +30007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
@@ -28359,7 +32019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
@@ -30460,7 +34120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M100"/>
   <sheetViews>
@@ -32809,7 +36469,7 @@
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="str">
         <f>member!A71</f>
-        <v>新</v>
+        <v>刀外甥</v>
       </c>
       <c r="B71" s="34">
         <f t="shared" si="27"/>
@@ -32836,7 +36496,7 @@
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="str">
         <f>member!A72</f>
-        <v>新</v>
+        <v>红星</v>
       </c>
       <c r="B72" s="34">
         <f t="shared" si="27"/>
@@ -32863,7 +36523,7 @@
     <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="str">
         <f>member!A73</f>
-        <v>新</v>
+        <v>小新</v>
       </c>
       <c r="B73" s="34">
         <f t="shared" si="27"/>
@@ -32890,7 +36550,7 @@
     <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="str">
         <f>member!A74</f>
-        <v>新</v>
+        <v>狼</v>
       </c>
       <c r="B74" s="34">
         <f t="shared" si="27"/>
@@ -33622,7 +37282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
@@ -35331,7 +38991,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B71" s="34">
         <f t="shared" si="10"/>
@@ -35354,7 +39014,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B72" s="34">
         <f t="shared" si="10"/>
@@ -35377,7 +39037,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B73" s="34">
         <f t="shared" ref="B73:B100" si="11">COUNT(E73:T73)</f>
@@ -35399,7 +39059,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="str">
         <f>member!A74</f>
-        <v>新</v>
+        <v>狼</v>
       </c>
       <c r="B74" s="34">
         <f t="shared" si="11"/>
@@ -35995,2203 +39655,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="11"/>
-      <c r="B1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="5">
-        <v>41095</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="33">
-        <f>SUM(B9:B100)</f>
-        <v>14</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="33">
-        <f t="shared" ref="E2" si="0">COUNT(E9:E100)</f>
-        <v>14</v>
-      </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="20">
-        <v>240</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34">
-        <f>SUM(E4:T4)</f>
-        <v>420</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="32">
-        <f t="shared" ref="E4" si="1">E2*E7</f>
-        <v>420</v>
-      </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35">
-        <f>SUM(E5:T5)</f>
-        <v>180</v>
-      </c>
-      <c r="E5" s="32">
-        <f t="shared" ref="E5" si="2">E4-E3</f>
-        <v>180</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="32">
-        <f t="shared" ref="E6" si="3">E3/E2</f>
-        <v>17.142857142857142</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="20">
-        <v>30</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="32">
-        <f t="shared" ref="E8" si="4">E7-E6</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="str">
-        <f>member!A9</f>
-        <v>守候幸福</v>
-      </c>
-      <c r="B9" s="34">
-        <f t="shared" ref="B9:B40" si="5">COUNT(E9:T9)</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="34">
-        <f>E7*E9+F7*F9+G7*G9+H7*H9+I7*I9+J7*J9+K7*K9+L7*L9+M7*M9+N7*N9+O7*O9+P7*P9+Q7*Q9+R7*R9+S7*S9+T7*T9</f>
-        <v>30</v>
-      </c>
-      <c r="D9" s="36">
-        <f>E8*E9+F8*F9+G8*G9+H8*H9+I8*I9+J8*J9+K8*K9+L8*L9+M8*M9+O8*O9+P8*P9+Q8*Q9+R8*R9+S8*S9+T8*T9</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="str">
-        <f>member!A10</f>
-        <v>李一刀</v>
-      </c>
-      <c r="B10" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="34">
-        <f>E7*E10+F7*F10+G7*G10+H7*H10+I7*I10+J7*J10+K7*K10+L7*L10+M7*M10+N7*N10+O7*O10+P7*P10+Q7*Q10+R7*R10+S7*S10+T7*T10</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="36">
-        <f>E8*E10+F8*F10+G8*G10+H8*H10+I8*I10+J8*J10+K8*K10+L8*L10+M8*M10+O8*O10+P8*P10+Q8*Q10+R8*R10+S8*S10+T8*T10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="str">
-        <f>member!A11</f>
-        <v>咣咣地跟屁蟲</v>
-      </c>
-      <c r="B11" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C11" s="34">
-        <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+N7*N11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
-        <v>30</v>
-      </c>
-      <c r="D11" s="36">
-        <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="str">
-        <f>member!A12</f>
-        <v>Oo内拉祖里oO</v>
-      </c>
-      <c r="B12" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="34">
-        <f>E7*E12+F7*F12+G7*G12+H7*H12+I7*I12+J7*J12+K7*K12+L7*L12+M7*M12+N7*N12+O7*O12+P7*P12+Q7*Q12+R7*R12+S7*S12+T7*T12</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="36">
-        <f>E8*E12+F8*F12+G8*G12+H8*H12+I8*I12+J8*J12+K8*K12+L8*L12+M8*M12+O8*O12+P8*P12+Q8*Q12+R8*R12+S8*S12+T8*T12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="str">
-        <f>member!A13</f>
-        <v>幸福~拂晓</v>
-      </c>
-      <c r="B13" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="34">
-        <f>E7*E13+F7*F13+G7*G13+H7*H13+I7*I13+J7*J13+K7*K13+L7*L13+M7*M13+N7*N13+O7*O13+P7*P13+Q7*Q13+R7*R13+S7*S13+T7*T13</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="36">
-        <f>E8*E13+F8*F13+G8*G13+H8*H13+I8*I13+J8*J13+K8*K13+L8*L13+M8*M13+O8*O13+P8*P13+Q8*Q13+R8*R13+S8*S13+T8*T13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="str">
-        <f>member!A14</f>
-        <v>蚕豆</v>
-      </c>
-      <c r="B14" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C14" s="34">
-        <f>E7*E14+F7*F14+G7*G14+H7*H14+I7*I14+J7*J14+K7*K14+L7*L14+M7*M14+N7*N14+O7*O14+P7*P14+Q7*Q14+R7*R14+S7*S14+T7*T14</f>
-        <v>30</v>
-      </c>
-      <c r="D14" s="36">
-        <f>E8*E14+F8*F14+G8*G14+H8*H14+I8*I14+J8*J14+K8*K14+L8*L14+M8*M14+O8*O14+P8*P14+Q8*Q14+R8*R14+S8*S14+T8*T14</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="str">
-        <f>member!A15</f>
-        <v>who cares?</v>
-      </c>
-      <c r="B15" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="34">
-        <f>E7*E15+F7*F15+G7*G15+H7*H15+I7*I15+J7*J15+K7*K15+L7*L15+M7*M15+O7*O15+P7*P15+Q7*Q15+R7*R15+S7*S15+T7*T15</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="36">
-        <f>E8*E15+F8*F15+G8*G15+H8*H15+I8*I15+J8*J15+K8*K15+L8*L15+M8*M15+O8*O15+P8*P15+Q8*Q15+R8*R15+S8*S15+T8*T15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="str">
-        <f>member!A16</f>
-        <v>幸福~彩票</v>
-      </c>
-      <c r="B16" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="34">
-        <f>E7*E16+F7*F16+G7*G16+H7*H16+I7*I16+J7*J16+K7*K16+L7*L16+M7*M16+O7*O16+P7*P16+Q7*Q16+R7*R16+S7*S16+T7*T16</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="36">
-        <f>E8*E16+F8*F16+G8*G16+H8*H16+I8*I16+J8*J16+K8*K16+L8*L16+M8*M16+O8*O16+P8*P16+Q8*Q16+R8*R16+S8*S16+T8*T16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="str">
-        <f>member!A17</f>
-        <v>清道夫</v>
-      </c>
-      <c r="B17" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C17" s="34">
-        <f>E7*E17+F7*F17+G7*G17+H7*H17+I7*I17+J7*J17+K7*K17+L7*L17+M7*M17+O7*O17+P7*P17+Q7*Q17+R7*R17+S7*S17+T7*T17</f>
-        <v>30</v>
-      </c>
-      <c r="D17" s="36">
-        <f>E8*E17+F8*F17+G8*G17+H8*H17+I8*I17+J8*J17+K8*K17+L8*L17+M8*M17+O8*O17+P8*P17+Q8*Q17+R8*R17+S8*S17+T8*T17</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="str">
-        <f>member!A18</f>
-        <v>老A</v>
-      </c>
-      <c r="B18" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C18" s="34">
-        <f>E7*E18+F7*F18+G7*G18+H7*H18+I7*I18+J7*J18+K7*K18+L7*L18+M7*M18+O7*O18+P7*P18+Q7*Q18+R7*R18+S7*S18+T7*T18</f>
-        <v>30</v>
-      </c>
-      <c r="D18" s="36">
-        <f>E8*E18+F8*F18+G8*G18+H8*H18+I8*I18+J8*J18+K8*K18+L8*L18+M8*M18+O8*O18+P8*P18+Q8*Q18+R8*R18+S8*S18+T8*T18</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="str">
-        <f>member!A19</f>
-        <v>狐狸</v>
-      </c>
-      <c r="B19" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C19" s="34">
-        <f>E7*E19+F7*F19+G7*G19+H7*H19+I7*I19+J7*J19+K7*K19+L7*L19+M7*M19+O7*O19+P7*P19+Q7*Q19+R7*R19+S7*S19+T7*T19</f>
-        <v>30</v>
-      </c>
-      <c r="D19" s="36">
-        <f>E8*E19+F8*F19+G8*G19+H8*H19+I8*I19+J8*J19+K8*K19+L8*L19+M8*M19+O8*O19+P8*P19+Q8*Q19+R8*R19+S8*S19+T8*T19</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="str">
-        <f>member!A20</f>
-        <v>腿子</v>
-      </c>
-      <c r="B20" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="34">
-        <f>E7*E20+F7*F20+G7*G20+H7*H20+I7*I20+J7*J20+K7*K20+L7*L20+M7*M20+O7*O20+P7*P20+Q7*Q20+R7*R20+S7*S20+T7*T20</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="36">
-        <f>E8*E20+F8*F20+G8*G20+H8*H20+I8*I20+J8*J20+K8*K20+L8*L20+M8*M20+O8*O20+P8*P20+Q8*Q20+R8*R20+S8*S20+T8*T20</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="str">
-        <f>member!A21</f>
-        <v>smile</v>
-      </c>
-      <c r="B21" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C21" s="34">
-        <f>E7*E21+F7*F21+G7*G21+H7*H21+I7*I21+J7*J21+K7*K21+L7*L21+M7*M21+O7*O21+P7*P21+Q7*Q21+R7*R21+S7*S21+T7*T21</f>
-        <v>30</v>
-      </c>
-      <c r="D21" s="36">
-        <f>E8*E21+F8*F21+G8*G21+H8*H21+I8*I21+J8*J21+K8*K21+L8*L21+M8*M21+O8*O21+P8*P21+Q8*Q21+R8*R21+S8*S21+T8*T21</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="str">
-        <f>member!A22</f>
-        <v>小贝</v>
-      </c>
-      <c r="B22" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C22" s="34">
-        <f>E7*E22+F7*F22+G7*G22+H7*H22+I7*I22+J7*J22+K7*K22+L7*L22+M7*M22+O7*O22+P7*P22+Q7*Q22+R7*R22+S7*S22+T7*T22</f>
-        <v>30</v>
-      </c>
-      <c r="D22" s="36">
-        <f>E8*E22+F8*F22+G8*G22+H8*H22+I8*I22+J8*J22+K8*K22+L8*L22+M8*M22+O8*O22+P8*P22+Q8*Q22+R8*R22+S8*S22+T8*T22</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="str">
-        <f>member!A23</f>
-        <v>11号-鲜明</v>
-      </c>
-      <c r="B23" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="34">
-        <f>E7*E23+F7*F23+G7*G23+H7*H23+I7*I23+J7*J23+K7*K23+L7*L23+M7*M23+O7*O23+P7*P23+Q7*Q23+R7*R23+S7*S23+T7*T23</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="36">
-        <f>E8*E23+F8*F23+G8*G23+H8*H23+I8*I23+J8*J23+K8*K23+L8*L23+M8*M23+O8*O23+P8*P23+Q8*Q23+R8*R23+S8*S23+T8*T23</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="str">
-        <f>member!A24</f>
-        <v>狐狸~涛</v>
-      </c>
-      <c r="B24" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="34">
-        <f>E7*E24+F7*F24+G7*G24+H7*H24+I7*I24+J7*J24+K7*K24+L7*L24+M7*M24+O7*O24+P7*P24+Q7*Q24+R7*R24+S7*S24+T7*T24</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="36">
-        <f>E8*E24+F8*F24+G8*G24+H8*H24+I8*I24+J8*J24+K8*K24+L8*L24+M8*M24+O8*O24+P8*P24+Q8*Q24+R8*R24+S8*S24+T8*T24</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="str">
-        <f>member!A25</f>
-        <v>侯盟</v>
-      </c>
-      <c r="B25" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C25" s="34">
-        <f>E7*E25+F7*F25+G7*G25+H7*H25+I7*I25+J7*J25+K7*K25+L7*L25+M7*M25+O7*O25+P7*P25+Q7*Q25+R7*R25+S7*S25+T7*T25</f>
-        <v>30</v>
-      </c>
-      <c r="D25" s="36">
-        <f>E8*E25+F8*F25+G8*G25+H8*H25+I8*I25+J8*J25+K8*K25+L8*L25+M8*M25+O8*O25+P8*P25+Q8*Q25+R8*R25+S8*S25+T8*T25</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="str">
-        <f>member!A26</f>
-        <v>玖伍贰壹</v>
-      </c>
-      <c r="B26" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="34">
-        <f>E7*E26+F7*F26+G7*G26+H7*H26+I7*I26+J7*J26+K7*K26+L7*L26+M7*M26+O7*O26+P7*P26+Q7*Q26+R7*R26+S7*S26+T7*T26</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="36">
-        <f>E8*E26+F8*F26+G8*G26+H8*H26+I8*I26+J8*J26+K8*K26+L8*L26+M8*M26+O8*O26+P8*P26+Q8*Q26+R8*R26+S8*S26+T8*T26</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="str">
-        <f>member!A27</f>
-        <v>红色F50-超</v>
-      </c>
-      <c r="B27" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="34">
-        <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="36">
-        <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="str">
-        <f>member!A28</f>
-        <v>活了</v>
-      </c>
-      <c r="B28" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="34">
-        <f>E7*E28+F7*F28+G7*G28+H7*H28+I7*I28+J7*J28+K7*K28+L7*L28+M7*M28+O7*O28+P7*P28+Q7*Q28+R7*R28+S7*S28+T7*T28</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="36">
-        <f>E8*E28+F8*F28+G8*G28+H8*H28+I8*I28+J8*J28+K8*K28+L8*L28+M8*M28+O8*O28+P8*P28+Q8*Q28+R8*R28+S8*S28+T8*T28</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="str">
-        <f>member!A29</f>
-        <v>天赐</v>
-      </c>
-      <c r="B29" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="34">
-        <f>E7*E29+F7*F29+G7*G29+H7*H29+I7*I29+J7*J29+K7*K29+L7*L29+M7*M29+O7*O29+P7*P29+Q7*Q29+R7*R29+S7*S29+T7*T29</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="36">
-        <f>E8*E29+F8*F29+G8*G29+H8*H29+I8*I29+J8*J29+K8*K29+L8*L29+M8*M29+O8*O29+P8*P29+Q8*Q29+R8*R29+S8*S29+T8*T29</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="str">
-        <f>member!A30</f>
-        <v>Shenghak</v>
-      </c>
-      <c r="B30" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="34">
-        <f>E7*E30+F7*F30+G7*G30+H7*H30+I7*I30+J7*J30+K7*K30+L7*L30+M7*M30+O7*O30+P7*P30+Q7*Q30+R7*R30+S7*S30+T7*T30</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="36">
-        <f>E8*E30+F8*F30+G8*G30+H8*H30+I8*I30+J8*J30+K8*K30+L8*L30+M8*M30+O8*O30+P8*P30+Q8*Q30+R8*R30+S8*S30+T8*T30</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="str">
-        <f>member!A31</f>
-        <v>红色6号</v>
-      </c>
-      <c r="B31" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="34">
-        <f>E7*E31+F7*F31+G7*G31+H7*H31+I7*I31+J7*J31+K7*K31+L7*L31+M7*M31+O7*O31+P7*P31+Q7*Q31+R7*R31+S7*S31+T7*T31</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="36">
-        <f>E8*E31+F8*F31+G8*G31+H8*H31+I8*I31+J8*J31+K8*K31+L8*L31+M8*M31+O8*O31+P8*P31+Q8*Q31+R8*R31+S8*S31+T8*T31</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="str">
-        <f>member!A32</f>
-        <v>微笑</v>
-      </c>
-      <c r="B32" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="34">
-        <f>E7*E32+F7*F32+G7*G32+H7*H32+I7*I32+J7*J32+K7*K32+L7*L32+M7*M32+O7*O32+P7*P32+Q7*Q32+R7*R32+S7*S32+T7*T32</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="36">
-        <f>E8*E32+F8*F32+G8*G32+H8*H32+I8*I32+J8*J32+K8*K32+L8*L32+M8*M32+O8*O32+P8*P32+Q8*Q32+R8*R32+S8*S32+T8*T32</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="str">
-        <f>member!A33</f>
-        <v>77号-更心</v>
-      </c>
-      <c r="B33" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C33" s="34">
-        <f>E7*E33+F7*F33+G7*G33+H7*H33+I7*I33+J7*J33+K7*K33+L7*L33+M7*M33+O7*O33+P7*P33+Q7*Q33+R7*R33+S7*S33+T7*T33</f>
-        <v>30</v>
-      </c>
-      <c r="D33" s="36">
-        <f>E8*E33+F8*F33+G8*G33+H8*H33+I8*I33+J8*J33+K8*K33+L8*L33+M8*M33+O8*O33+P8*P33+Q8*Q33+R8*R33+S8*S33+T8*T33</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="str">
-        <f>member!A34</f>
-        <v>更心朋友</v>
-      </c>
-      <c r="B34" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C34" s="34">
-        <f>E7*E34+F7*F34+G7*G34+H7*H34+I7*I34+J7*J34+K7*K34+L7*L34+M7*M34+O7*O34+P7*P34+Q7*Q34+R7*R34+S7*S34+T7*T34</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="36">
-        <f>E8*E34+F8*F34+G8*G34+H8*H34+I8*I34+J8*J34+K8*K34+L8*L34+M8*M34+O8*O34+P8*P34+Q8*Q34+R8*R34+S8*S34+T8*T34</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="str">
-        <f>member!A35</f>
-        <v>8号-菜菜亮</v>
-      </c>
-      <c r="B35" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C35" s="34">
-        <f>E7*E35+F7*F35+G7*G35+H7*H35+I7*I35+J7*J35+K7*K35+L7*L35+M7*M35+O7*O35+P7*P35+Q7*Q35+R7*R35+S7*S35+T7*T35</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="36">
-        <f>E8*E35+F8*F35+G8*G35+H8*H35+I8*I35+J8*J35+K8*K35+L8*L35+M8*M35+O8*O35+P8*P35+Q8*Q35+R8*R35+S8*S35+T8*T35</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="str">
-        <f>member!A36</f>
-        <v>杨光朋友</v>
-      </c>
-      <c r="B36" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C36" s="34">
-        <f>E7*E36+F7*F36+G7*G36+H7*H36+I7*I36+J7*J36+K7*K36+L7*L36+M7*M36+O7*O36+P7*P36+Q7*Q36+R7*R36+S7*S36+T7*T36</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="36">
-        <f>E8*E36+F8*F36+G8*G36+H8*H36+I8*I36+J8*J36+K8*K36+L8*L36+M8*M36+O8*O36+P8*P36+Q8*Q36+R8*R36+S8*S36+T8*T36</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="str">
-        <f>member!A37</f>
-        <v>拂晓朋友</v>
-      </c>
-      <c r="B37" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C37" s="34">
-        <f>E7*E37+F7*F37+G7*G37+H7*H37+I7*I37+J7*J37+K7*K37+L7*L37+M7*M37+O7*O37+P7*P37+Q7*Q37+R7*R37+S7*S37+T7*T37</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="36">
-        <f>E8*E37+F8*F37+G8*G37+H8*H37+I8*I37+J8*J37+K8*K37+L8*L37+M8*M37+O8*O37+P8*P37+Q8*Q37+R8*R37+S8*S37+T8*T37</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="11" t="str">
-        <f>member!A38</f>
-        <v>4号-许多</v>
-      </c>
-      <c r="B38" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C38" s="34">
-        <f>E7*E38+F7*F38+G7*G38+H7*H38+I7*I38+J7*J38+K7*K38+L7*L38+M7*M38+O7*O38+P7*P38+Q7*Q38+R7*R38+S7*S38+T7*T38</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="36">
-        <f>E8*E38+F8*F38+G8*G38+H8*H38+I8*I38+J8*J38+K8*K38+L8*L38+M8*M38+O8*O38+P8*P38+Q8*Q38+R8*R38+S8*S38+T8*T38</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="str">
-        <f>member!A39</f>
-        <v>5号-正</v>
-      </c>
-      <c r="B39" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C39" s="34">
-        <f>E7*E39+F7*F39+G7*G39+H7*H39+I7*I39+J7*J39+K7*K39+L7*L39+M7*M39+O7*O39+P7*P39+Q7*Q39+R7*R39+S7*S39+T7*T39</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="36">
-        <f>E8*E39+F8*F39+G8*G39+H8*H39+I8*I39+J8*J39+K8*K39+L8*L39+M8*M39+O8*O39+P8*P39+Q8*Q39+R8*R39+S8*S39+T8*T39</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="str">
-        <f>member!A40</f>
-        <v>勇敢的爬爬</v>
-      </c>
-      <c r="B40" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="34">
-        <f>E7*E40+F7*F40+G7*G40+H7*H40+I7*I40+J7*J40+K7*K40+L7*L40+M7*M40+O7*O40+P7*P40+Q7*Q40+R7*R40+S7*S40+T7*T40</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="36">
-        <f>E8*E40+F8*F40+G8*G40+H8*H40+I8*I40+J8*J40+K8*K40+L8*L40+M8*M40+O8*O40+P8*P40+Q8*Q40+R8*R40+S8*S40+T8*T40</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="str">
-        <f>member!A41</f>
-        <v>17号-4号字母</v>
-      </c>
-      <c r="B41" s="34">
-        <f t="shared" ref="B41:B72" si="6">COUNT(E41:T41)</f>
-        <v>1</v>
-      </c>
-      <c r="C41" s="34">
-        <f>E7*E41+F7*F41+G7*G41+H7*H41+I7*I41+J7*J41+K7*K41+L7*L41+M7*M41+O7*O41+P7*P41+Q7*Q41+R7*R41+S7*S41+T7*T41</f>
-        <v>30</v>
-      </c>
-      <c r="D41" s="36">
-        <f>E8*E41+F8*F41+G8*G41+H8*H41+I8*I41+J8*J41+K8*K41+L8*L41+M8*M41+O8*O41+P8*P41+Q8*Q41+R8*R41+S8*S41+T8*T41</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="str">
-        <f>member!A42</f>
-        <v>雷雨</v>
-      </c>
-      <c r="B42" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C42" s="34">
-        <f>E7*E42+F7*F42+G7*G42+H7*H42+I7*I42+J7*J42+K7*K42+L7*L42+M7*M42+O7*O42+P7*P42+Q7*Q42+R7*R42+S7*S42+T7*T42</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="36">
-        <f>E8*E42+F8*F42+G8*G42+H8*H42+I8*I42+J8*J42+K8*K42+L8*L42+M8*M42+O8*O42+P8*P42+Q8*Q42+R8*R42+S8*S42+T8*T42</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="str">
-        <f>member!A43</f>
-        <v>西北偏北</v>
-      </c>
-      <c r="B43" s="34">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C43" s="34">
-        <f>E7*E43+F7*F43+G7*G43+H7*H43+I7*I43+J7*J43+K7*K43+L7*L43+M7*M43+O7*O43+P7*P43+Q7*Q43+R7*R43+S7*S43+T7*T43</f>
-        <v>30</v>
-      </c>
-      <c r="D43" s="36">
-        <f>E8*E43+F8*F43+G8*G43+H8*H43+I8*I43+J8*J43+K8*K43+L8*L43+M8*M43+O8*O43+P8*P43+Q8*Q43+R8*R43+S8*S43+T8*T43</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="str">
-        <f>member!A44</f>
-        <v>红色8号</v>
-      </c>
-      <c r="B44" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C44" s="34">
-        <f>E7*E44+F7*F44+G7*G44+H7*H44+I7*I44+J7*J44+K7*K44+L7*L44+M7*M44+O7*O44+P7*P44+Q7*Q44+R7*R44+S7*S44+T7*T44</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="36">
-        <f>E8*E44+F8*F44+G8*G44+H8*H44+I8*I44+J8*J44+K8*K44+L8*L44+M8*M44+O8*O44+P8*P44+Q8*Q44+R8*R44+S8*S44+T8*T44</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="11" t="str">
-        <f>member!A45</f>
-        <v>马耳他</v>
-      </c>
-      <c r="B45" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C45" s="34">
-        <f>E7*E45+F7*F45+G7*G45+H7*H45+I7*I45+J7*J45+K7*K45+L7*L45+M7*M45+O7*O45+P7*P45+Q7*Q45+R7*R45+S7*S45+T7*T45</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="36">
-        <f>E8*E45+F8*F45+G8*G45+H8*H45+I8*I45+J8*J45+K8*K45+L8*L45+M8*M45+O8*O45+P8*P45+Q8*Q45+R8*R45+S8*S45+T8*T45</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="str">
-        <f>member!A46</f>
-        <v>Cindy~陈猛</v>
-      </c>
-      <c r="B46" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C46" s="34">
-        <f>E7*E46+F7*F46+G7*G46+H7*H46+I7*I46+J7*J46+K7*K46+L7*L46+M7*M46+O7*O46+P7*P46+Q7*Q46+R7*R46+S7*S46+T7*T46</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="36">
-        <f>E8*E46+F8*F46+G8*G46+H8*H46+I8*I46+J8*J46+K8*K46+L8*L46+M8*M46+O8*O46+P8*P46+Q8*Q46+R8*R46+S8*S46+T8*T46</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="11" t="str">
-        <f>member!A47</f>
-        <v>张硕</v>
-      </c>
-      <c r="B47" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C47" s="34">
-        <f>E7*E47+F7*F47+G7*G47+H7*H47+I7*I47+J7*J47+K7*K47+L7*L47+M7*M47+O7*O47+P7*P47+Q7*Q47+R7*R47+S7*S47+T7*T47</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="36">
-        <f>E8*E47+F8*F47+G8*G47+H8*H47+I8*I47+J8*J47+K8*K47+L8*L47+M8*M47+O8*O47+P8*P47+Q8*Q47+R8*R47+S8*S47+T8*T47</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="11" t="str">
-        <f>member!A48</f>
-        <v>Violin</v>
-      </c>
-      <c r="B48" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C48" s="34">
-        <f>E7*E48+F7*F48+G7*G48+H7*H48+I7*I48+J7*J48+K7*K48+L7*L48+M7*M48+O7*O48+P7*P48+Q7*Q48+R7*R48+S7*S48+T7*T48</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="36">
-        <f>E8*E48+F8*F48+G8*G48+H8*H48+I8*I48+J8*J48+K8*K48+L8*L48+M8*M48+O8*O48+P8*P48+Q8*Q48+R8*R48+S8*S48+T8*T48</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="11" t="str">
-        <f>member!A49</f>
-        <v>87号陈磊</v>
-      </c>
-      <c r="B49" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C49" s="34">
-        <f>E7*E49+F7*F49+G7*G49+H7*H49+I7*I49+J7*J49+K7*K49+L7*L49+M7*M49+O7*O49+P7*P49+Q7*Q49+R7*R49+S7*S49+T7*T49</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="36">
-        <f>E8*E49+F8*F49+G8*G49+H8*H49+I8*I49+J8*J49+K8*K49+L8*L49+M8*M49+O8*O49+P8*P49+Q8*Q49+R8*R49+S8*S49+T8*T49</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="11" t="str">
-        <f>member!A50</f>
-        <v>水中阳光</v>
-      </c>
-      <c r="B50" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C50" s="34">
-        <f>E7*E50+F7*F50+G7*G50+H7*H50+I7*I50+J7*J50+K7*K50+L7*L50+M7*M50+O7*O50+P7*P50+Q7*Q50+R7*R50+S7*S50+T7*T50</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="36">
-        <f>E8*E50+F8*F50+G8*G50+H8*H50+I8*I50+J8*J50+K8*K50+L8*L50+M8*M50+O8*O50+P8*P50+Q8*Q50+R8*R50+S8*S50+T8*T50</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="11" t="str">
-        <f>member!A51</f>
-        <v>sam</v>
-      </c>
-      <c r="B51" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C51" s="34">
-        <f>E7*E51+F7*F51+G7*G51+H7*H51+I7*I51+J7*J51+K7*K51+L7*L51+M7*M51+O7*O51+P7*P51+Q7*Q51+R7*R51+S7*S51+T7*T51</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="36">
-        <f>E8*E51+F8*F51+G8*G51+H8*H51+I8*I51+J8*J51+K8*K51+L8*L51+M8*M51+O8*O51+P8*P51+Q8*Q51+R8*R51+S8*S51+T8*T51</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="11" t="str">
-        <f>member!A52</f>
-        <v>26 方亚</v>
-      </c>
-      <c r="B52" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C52" s="34">
-        <f>E7*E52+F7*F52+G7*G52+H7*H52+I7*I52+J7*J52+K7*K52+L7*L52+M7*M52+O7*O52+P7*P52+Q7*Q52+R7*R52+S7*S52+T7*T52</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="36">
-        <f>E8*E52+F8*F52+G8*G52+H8*H52+I8*I52+J8*J52+K8*K52+L8*L52+M8*M52+O8*O52+P8*P52+Q8*Q52+R8*R52+S8*S52+T8*T52</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="11" t="str">
-        <f>member!A53</f>
-        <v>维尼</v>
-      </c>
-      <c r="B53" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C53" s="34">
-        <f>E7*E53+F7*F53+G7*G53+H7*H53+I7*I53+J7*J53+K7*K53+L7*L53+M7*M53+O7*O53+P7*P53+Q7*Q53+R7*R53+S7*S53+T7*T53</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="36">
-        <f>E8*E53+F8*F53+G8*G53+H8*H53+I8*I53+J8*J53+K8*K53+L8*L53+M8*M53+O8*O53+P8*P53+Q8*Q53+R8*R53+S8*S53+T8*T53</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="11" t="str">
-        <f>member!A54</f>
-        <v>0号--张家宁</v>
-      </c>
-      <c r="B54" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C54" s="34">
-        <f>E7*E54+F7*F54+G7*G54+H7*H54+I7*I54+J7*J54+K7*K54+L7*L54+M7*M54+O7*O54+P7*P54+Q7*Q54+R7*R54+S7*S54+T7*T54</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="36">
-        <f>E8*E54+F8*F54+G8*G54+H8*H54+I8*I54+J8*J54+K8*K54+L8*L54+M8*M54+O8*O54+P8*P54+Q8*Q54+R8*R54+S8*S54+T8*T54</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="11" t="str">
-        <f>member!A55</f>
-        <v>泰山</v>
-      </c>
-      <c r="B55" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C55" s="34">
-        <f>E7*E55+F7*F55+G7*G55+H7*H55+I7*I55+J7*J55+K7*K55+L7*L55+M7*M55+O7*O55+P7*P55+Q7*Q55+R7*R55+S7*S55+T7*T55</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="36">
-        <f>E8*E55+F8*F55+G8*G55+H8*H55+I8*I55+J8*J55+K8*K55+L8*L55+M8*M55+O8*O55+P8*P55+Q8*Q55+R8*R55+S8*S55+T8*T55</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="11" t="str">
-        <f>member!A56</f>
-        <v>尚峰</v>
-      </c>
-      <c r="B56" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C56" s="34">
-        <f>E7*E56+F7*F56+G7*G56+H7*H56+I7*I56+J7*J56+K7*K56+L7*L56+M7*M56+O7*O56+P7*P56+Q7*Q56+R7*R56+S7*S56+T7*T56</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="36">
-        <f>E8*E56+F8*F56+G8*G56+H8*H56+I8*I56+J8*J56+K8*K56+L8*L56+M8*M56+O8*O56+P8*P56+Q8*Q56+R8*R56+S8*S56+T8*T56</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="11" t="str">
-        <f>member!A57</f>
-        <v>杨光</v>
-      </c>
-      <c r="B57" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C57" s="34">
-        <f>E7*E57+F7*F57+G7*G57+H7*H57+I7*I57+J7*J57+K7*K57+L7*L57+M7*M57+O7*O57+P7*P57+Q7*Q57+R7*R57+S7*S57+T7*T57</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="36">
-        <f>E8*E57+F8*F57+G8*G57+H8*H57+I8*I57+J8*J57+K8*K57+L8*L57+M8*M57+O8*O57+P8*P57+Q8*Q57+R8*R57+S8*S57+T8*T57</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="11" t="str">
-        <f>member!A58</f>
-        <v>小磊</v>
-      </c>
-      <c r="B58" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C58" s="34">
-        <f>E7*E58+F7*F58+G7*G58+H7*H58+I7*I58+J7*J58+K7*K58+L7*L58+M7*M58+O7*O58+P7*P58+Q7*Q58+R7*R58+S7*S58+T7*T58</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="36">
-        <f>E8*E58+F8*F58+G8*G58+H8*H58+I8*I58+J8*J58+K8*K58+L8*L58+M8*M58+O8*O58+P8*P58+Q8*Q58+R8*R58+S8*S58+T8*T58</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="11" t="str">
-        <f>member!A59</f>
-        <v>绿洲</v>
-      </c>
-      <c r="B59" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C59" s="34">
-        <f>E7*E59+F7*F59+G7*G59+H7*H59+I7*I59+J7*J59+K7*K59+L7*L59+M7*M59+O7*O59+P7*P59+Q7*Q59+R7*R59+S7*S59+T7*T59</f>
-        <v>0</v>
-      </c>
-      <c r="D59" s="36">
-        <f>E8*E59+F8*F59+G8*G59+H8*H59+I8*I59+J8*J59+K8*K59+L8*L59+M8*M59+O8*O59+P8*P59+Q8*Q59+R8*R59+S8*S59+T8*T59</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="11" t="str">
-        <f>member!A60</f>
-        <v>孙伟</v>
-      </c>
-      <c r="B60" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C60" s="34">
-        <f>E7*E60+F7*F60+G7*G60+H7*H60+I7*I60+J7*J60+K7*K60+L7*L60+M7*M60+O7*O60+P7*P60+Q7*Q60+R7*R60+S7*S60+T7*T60</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="36">
-        <f>E8*E60+F8*F60+G8*G60+H8*H60+I8*I60+J8*J60+K8*K60+L8*L60+M8*M60+O8*O60+P8*P60+Q8*Q60+R8*R60+S8*S60+T8*T60</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="11" t="str">
-        <f>member!A61</f>
-        <v>古轮木</v>
-      </c>
-      <c r="B61" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C61" s="34">
-        <f>E7*E61+F7*F61+G7*G61+H7*H61+I7*I61+J7*J61+K7*K61+L7*L61+M7*M61+O7*O61+P7*P61+Q7*Q61+R7*R61+S7*S61+T7*T61</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="36">
-        <f>E8*E61+F8*F61+G8*G61+H8*H61+I8*I61+J8*J61+K8*K61+L8*L61+M8*M61+O8*O61+P8*P61+Q8*Q61+R8*R61+S8*S61+T8*T61</f>
-        <v>0</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="11" t="str">
-        <f>member!A62</f>
-        <v>makoko</v>
-      </c>
-      <c r="B62" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C62" s="34">
-        <f>E7*E62+F7*F62+G7*G62+H7*H62+I7*I62+J7*J62+K7*K62+L7*L62+M7*M62+O7*O62+P7*P62+Q7*Q62+R7*R62+S7*S62+T7*T62</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="36">
-        <f>E8*E62+F8*F62+G8*G62+H8*H62+I8*I62+J8*J62+K8*K62+L8*L62+M8*M62+O8*O62+P8*P62+Q8*Q62+R8*R62+S8*S62+T8*T62</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="11" t="str">
-        <f>member!A63</f>
-        <v>玲-深蓝</v>
-      </c>
-      <c r="B63" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C63" s="34">
-        <f>E7*E63+F7*F63+G7*G63+H7*H63+I7*I63+J7*J63+K7*K63+L7*L63+M7*M63+N7*N63+O7*O63+P7*P63+Q7*Q63+R7*R63+S7*S63+T7*T63</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="36">
-        <f>E8*E63+F8*F63+G8*G63+H8*H63+I8*I63+J8*J63+K8*K63+L8*L63+M8*M63+N8*N63+O8*O63+P8*P63+Q8*Q63+R8*R63+S8*S63+T8*T63</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="11" t="str">
-        <f>member!A64</f>
-        <v>玲-小马</v>
-      </c>
-      <c r="B64" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C64" s="34">
-        <f>E7*E64+F7*F64+G7*G64+H7*H64+I7*I64+J7*J64+K7*K64+L7*L64+M7*M64+N7*N64+O7*O64+P7*P64+Q7*Q64+R7*R64+S7*S64+T7*T64</f>
-        <v>0</v>
-      </c>
-      <c r="D64" s="36">
-        <f>E8*E64+F8*F64+G8*G64+H8*H64+I8*I64+J8*J64+K8*K64+L8*L64+M8*M64+N8*N64+O8*O64+P8*P64+Q8*Q64+R8*R64+S8*S64+T8*T64</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="11" t="str">
-        <f>member!A65</f>
-        <v>玲-高</v>
-      </c>
-      <c r="B65" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C65" s="34">
-        <f>E7*E65+F7*F65+G7*G65+H7*H65+I7*I65+J7*J65+K7*K65+L7*L65+M7*M65+N7*N65+O7*O65+P7*P65+Q7*Q65+R7*R65+S7*S65+T7*T65</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="36">
-        <f>E8*E65+F8*F65+G8*G65+H8*H65+I8*I65+J8*J65+K8*K65+L8*L65+M8*M65+N8*N65+O8*O65+P8*P65+Q8*Q65+R8*R65+S8*S65+T8*T65</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="11" t="str">
-        <f>member!A66</f>
-        <v>玲-秦</v>
-      </c>
-      <c r="B66" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C66" s="34">
-        <f>E7*E66+F7*F66+G7*G66+H7*H66+I7*I66+J7*J66+K7*K66+L7*L66+M7*M66+N7*N66+O7*O66+P7*P66+Q7*Q66+R7*R66+S7*S66+T7*T66</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="36">
-        <f>E8*E66+F8*F66+G8*G66+H8*H66+I8*I66+J8*J66+K8*K66+L8*L66+M8*M66+N8*N66+O8*O66+P8*P66+Q8*Q66+R8*R66+S8*S66+T8*T66</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="11" t="str">
-        <f>member!A67</f>
-        <v>玲-手</v>
-      </c>
-      <c r="B67" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C67" s="34">
-        <f>E7*E67+F7*F67+G7*G67+H7*H67+I7*I67+J7*J67+K7*K67+L7*L67+M7*M67+N7*N67+O7*O67+P7*P67+Q7*Q67+R7*R67+S7*S67+T7*T67</f>
-        <v>0</v>
-      </c>
-      <c r="D67" s="36">
-        <f>E8*E67+F8*F67+G8*G67+H8*H67+I8*I67+J8*J67+K8*K67+L8*L67+M8*M67+N8*N67+O8*O67+P8*P67+Q8*Q67+R8*R67+S8*S67+T8*T67</f>
-        <v>0</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="11" t="str">
-        <f>member!A68</f>
-        <v>度日</v>
-      </c>
-      <c r="B68" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C68" s="34">
-        <f>E7*E68+F7*F68+G7*G68+H7*H68+I7*I68+J7*J68+K7*K68+L7*L68+M7*M68+N7*N68+O7*O68+P7*P68+Q7*Q68+R7*R68+S7*S68+T7*T68</f>
-        <v>0</v>
-      </c>
-      <c r="D68" s="36">
-        <f>E8*E68+F8*F68+G8*G68+H8*H68+I8*I68+J8*J68+K8*K68+L8*L68+M8*M68+N8*N68+O8*O68+P8*P68+Q8*Q68+R8*R68+S8*S68+T8*T68</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="11" t="str">
-        <f>member!A69</f>
-        <v>肖飞</v>
-      </c>
-      <c r="B69" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C69" s="34">
-        <f>E7*E69+F7*F69+G7*G69+H7*H69+I7*I69+J7*J69+K7*K69+L7*L69+M7*M69+N7*N69+O7*O69+P7*P69+Q7*Q69+R7*R69+S7*S69+T7*T69</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="36">
-        <f>E8*E69+F8*F69+G8*G69+H8*H69+I8*I69+J8*J69+K8*K69+L8*L69+M8*M69+N8*N69+O8*O69+P8*P69+Q8*Q69+R8*R69+S8*S69+T8*T69</f>
-        <v>0</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="11" t="str">
-        <f>member!A70</f>
-        <v>玲-大马</v>
-      </c>
-      <c r="B70" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C70" s="34">
-        <f>E7*E70+F7*F70+G7*G70+H7*H70+I7*I70+J7*J70+K7*K70+L7*L70+M7*M70+N7*N70+O7*O70+P7*P70+Q7*Q70+R7*R70+S7*S70+T7*T70</f>
-        <v>0</v>
-      </c>
-      <c r="D70" s="36">
-        <f>E8*E70+F8*F70+G8*G70+H8*H70+I8*I70+J8*J70+K8*K70+L8*L70+M8*M70+N8*N70+O8*O70+P8*P70+Q8*Q70+R8*R70+S8*S70+T8*T70</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B71" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C71" s="34">
-        <f>E7*E71+F7*F71+G7*G71+H7*H71+I7*I71+J7*J71+K7*K71+L7*L71+M7*M71+N7*N71+O7*O71+P7*P71+Q7*Q71+R7*R71+S7*S71+T7*T71</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="36">
-        <f>E8*E71+F8*F71+G8*G71+H8*H71+I8*I71+J8*J71+K8*K71+L8*L71+M8*M71+N8*N71+O8*O71+P8*P71+Q8*Q71+R8*R71+S8*S71+T8*T71</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" s="34">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C72" s="34">
-        <f>E7*E72+F7*F72+G7*G72+H7*H72+I7*I72+J7*J72+K7*K72+L7*L72+M7*M72+N7*N72+O7*O72+P7*P72+Q7*Q72+R7*R72+S7*S72+T7*T72</f>
-        <v>30</v>
-      </c>
-      <c r="D72" s="36">
-        <f>E8*E72+F8*F72+G8*G72+H8*H72+I8*I72+J8*J72+K8*K72+L8*L72+M8*M72+N8*N72+O8*O72+P8*P72+Q8*Q72+R8*R72+S8*S72+T8*T72</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" s="34">
-        <f t="shared" ref="B73:B100" si="7">COUNT(E73:T73)</f>
-        <v>1</v>
-      </c>
-      <c r="C73" s="34">
-        <f>E7*E73+F7*F73+G7*G73+H7*H73+I7*I73+J7*J73+K7*K73+L7*L73+M7*M73+N7*N73+O7*O73+P7*P73+Q7*Q73+R7*R73+S7*S73+T7*T73</f>
-        <v>30</v>
-      </c>
-      <c r="D73" s="36">
-        <f>E8*E73+F8*F73+G8*G73+H8*H73+I8*I73+J8*J73+K8*K73+L8*L73+M8*M73+N8*N73+O8*O73+P8*P73+Q8*Q73+R8*R73+S8*S73+T8*T73</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="11" t="str">
-        <f>member!A74</f>
-        <v>新</v>
-      </c>
-      <c r="B74" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C74" s="34">
-        <f>E7*E74+F7*F74+G7*G74+H7*H74+I7*I74+J7*J74+K7*K74+L7*L74+M7*M74+N7*N74+O7*O74+P7*P74+Q7*Q74+R7*R74+S7*S74+T7*T74</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="36">
-        <f>E8*E74+F8*F74+G8*G74+H8*H74+I8*I74+J8*J74+K8*K74+L8*L74+M8*M74+N8*N74+O8*O74+P8*P74+Q8*Q74+R8*R74+S8*S74+T8*T74</f>
-        <v>0</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="11" t="str">
-        <f>member!A75</f>
-        <v>新</v>
-      </c>
-      <c r="B75" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C75" s="34">
-        <f>E7*E75+F7*F75+G7*G75+H7*H75+I7*I75+J7*J75+K7*K75+L7*L75+M7*M75+N7*N75+O7*O75+P7*P75+Q7*Q75+R7*R75+S7*S75+T7*T75</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="36">
-        <f>E8*E75+F8*F75+G8*G75+H8*H75+I8*I75+J8*J75+K8*K75+L8*L75+M8*M75+N8*N75+O8*O75+P8*P75+Q8*Q75+R8*R75+S8*S75+T8*T75</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="11" t="str">
-        <f>member!A76</f>
-        <v>新</v>
-      </c>
-      <c r="B76" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C76" s="34">
-        <f>E7*E76+F7*F76+G7*G76+H7*H76+I7*I76+J7*J76+K7*K76+L7*L76+M7*M76+N7*N76+O7*O76+P7*P76+Q7*Q76+R7*R76+S7*S76+T7*T76</f>
-        <v>0</v>
-      </c>
-      <c r="D76" s="36">
-        <f>E8*E76+F8*F76+G8*G76+H8*H76+I8*I76+J8*J76+K8*K76+L8*L76+M8*M76+N8*N76+O8*O76+P8*P76+Q8*Q76+R8*R76+S8*S76+T8*T76</f>
-        <v>0</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="11" t="str">
-        <f>member!A77</f>
-        <v>新</v>
-      </c>
-      <c r="B77" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C77" s="34">
-        <f>E7*E77+F7*F77+G7*G77+H7*H77+I7*I77+J7*J77+K7*K77+L7*L77+M7*M77+N7*N77+O7*O77+P7*P77+Q7*Q77+R7*R77+S7*S77+T7*T77</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="36">
-        <f>E8*E77+F8*F77+G8*G77+H8*H77+I8*I77+J8*J77+K8*K77+L8*L77+M8*M77+N8*N77+O8*O77+P8*P77+Q8*Q77+R8*R77+S8*S77+T8*T77</f>
-        <v>0</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" s="11" t="str">
-        <f>member!A78</f>
-        <v>新</v>
-      </c>
-      <c r="B78" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C78" s="34">
-        <f>E7*E78+F7*F78+G7*G78+H7*H78+I7*I78+J7*J78+K7*K78+L7*L78+M7*M78+N7*N78+O7*O78+P7*P78+Q7*Q78+R7*R78+S7*S78+T7*T78</f>
-        <v>0</v>
-      </c>
-      <c r="D78" s="36">
-        <f>E8*E78+F8*F78+G8*G78+H8*H78+I8*I78+J8*J78+K8*K78+L8*L78+M8*M78+N8*N78+O8*O78+P8*P78+Q8*Q78+R8*R78+S8*S78+T8*T78</f>
-        <v>0</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A79" s="11" t="str">
-        <f>member!A79</f>
-        <v>新</v>
-      </c>
-      <c r="B79" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C79" s="34">
-        <f>E7*E79+F7*F79+G7*G79+H7*H79+I7*I79+J7*J79+K7*K79+L7*L79+M7*M79+N7*N79+O7*O79+P7*P79+Q7*Q79+R7*R79+S7*S79+T7*T79</f>
-        <v>0</v>
-      </c>
-      <c r="D79" s="36">
-        <f>E8*E79+F8*F79+G8*G79+H8*H79+I8*I79+J8*J79+K8*K79+L8*L79+M8*M79+N8*N79+O8*O79+P8*P79+Q8*Q79+R8*R79+S8*S79+T8*T79</f>
-        <v>0</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A80" s="11" t="str">
-        <f>member!A80</f>
-        <v>新</v>
-      </c>
-      <c r="B80" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C80" s="34">
-        <f>E7*E80+F7*F80+G7*G80+H7*H80+I7*I80+J7*J80+K7*K80+L7*L80+M7*M80+N7*N80+O7*O80+P7*P80+Q7*Q80+R7*R80+S7*S80+T7*T80</f>
-        <v>0</v>
-      </c>
-      <c r="D80" s="36">
-        <f>E8*E80+F8*F80+G8*G80+H8*H80+I8*I80+J8*J80+K8*K80+L8*L80+M8*M80+N8*N80+O8*O80+P8*P80+Q8*Q80+R8*R80+S8*S80+T8*T80</f>
-        <v>0</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A81" s="11" t="str">
-        <f>member!A81</f>
-        <v>新</v>
-      </c>
-      <c r="B81" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C81" s="34">
-        <f>E7*E81+F7*F81+G7*G81+H7*H81+I7*I81+J7*J81+K7*K81+L7*L81+M7*M81+N7*N81+O7*O81+P7*P81+Q7*Q81+R7*R81+S7*S81+T7*T81</f>
-        <v>0</v>
-      </c>
-      <c r="D81" s="36">
-        <f>E8*E81+F8*F81+G8*G81+H8*H81+I8*I81+J8*J81+K8*K81+L8*L81+M8*M81+N8*N81+O8*O81+P8*P81+Q8*Q81+R8*R81+S8*S81+T8*T81</f>
-        <v>0</v>
-      </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A82" s="11" t="str">
-        <f>member!A82</f>
-        <v>新</v>
-      </c>
-      <c r="B82" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C82" s="34">
-        <f>E7*E82+F7*F82+G7*G82+H7*H82+I7*I82+J7*J82+K7*K82+L7*L82+M7*M82+N7*N82+O7*O82+P7*P82+Q7*Q82+R7*R82+S7*S82+T7*T82</f>
-        <v>0</v>
-      </c>
-      <c r="D82" s="36">
-        <f>E8*E82+F8*F82+G8*G82+H8*H82+I8*I82+J8*J82+K8*K82+L8*L82+M8*M82+N8*N82+O8*O82+P8*P82+Q8*Q82+R8*R82+S8*S82+T8*T82</f>
-        <v>0</v>
-      </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A83" s="11" t="str">
-        <f>member!A83</f>
-        <v>新</v>
-      </c>
-      <c r="B83" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C83" s="34">
-        <f>E7*E83+F7*F83+G7*G83+H7*H83+I7*I83+J7*J83+K7*K83+L7*L83+M7*M83+N7*N83+O7*O83+P7*P83+Q7*Q83+R7*R83+S7*S83+T7*T83</f>
-        <v>0</v>
-      </c>
-      <c r="D83" s="36">
-        <f>E8*E83+F8*F83+G8*G83+H8*H83+I8*I83+J8*J83+K8*K83+L8*L83+M8*M83+N8*N83+O8*O83+P8*P83+Q8*Q83+R8*R83+S8*S83+T8*T83</f>
-        <v>0</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A84" s="11" t="str">
-        <f>member!A84</f>
-        <v>新</v>
-      </c>
-      <c r="B84" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C84" s="34">
-        <f>E7*E84+F7*F84+G7*G84+H7*H84+I7*I84+J7*J84+K7*K84+L7*L84+M7*M84+N7*N84+O7*O84+P7*P84+Q7*Q84+R7*R84+S7*S84+T7*T84</f>
-        <v>0</v>
-      </c>
-      <c r="D84" s="36">
-        <f>E8*E84+F8*F84+G8*G84+H8*H84+I8*I84+J8*J84+K8*K84+L8*L84+M8*M84+N8*N84+O8*O84+P8*P84+Q8*Q84+R8*R84+S8*S84+T8*T84</f>
-        <v>0</v>
-      </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A85" s="11" t="str">
-        <f>member!A85</f>
-        <v>新</v>
-      </c>
-      <c r="B85" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C85" s="34">
-        <f>E7*E85+F7*F85+G7*G85+H7*H85+I7*I85+J7*J85+K7*K85+L7*L85+M7*M85+N7*N85+O7*O85+P7*P85+Q7*Q85+R7*R85+S7*S85+T7*T85</f>
-        <v>0</v>
-      </c>
-      <c r="D85" s="36">
-        <f>E8*E85+F8*F85+G8*G85+H8*H85+I8*I85+J8*J85+K8*K85+L8*L85+M8*M85+N8*N85+O8*O85+P8*P85+Q8*Q85+R8*R85+S8*S85+T8*T85</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A86" s="11" t="str">
-        <f>member!A86</f>
-        <v>新</v>
-      </c>
-      <c r="B86" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C86" s="34">
-        <f>E7*E86+F7*F86+G7*G86+H7*H86+I7*I86+J7*J86+K7*K86+L7*L86+M7*M86+N7*N86+O7*O86+P7*P86+Q7*Q86+R7*R86+S7*S86+T7*T86</f>
-        <v>0</v>
-      </c>
-      <c r="D86" s="36">
-        <f>E8*E86+F8*F86+G8*G86+H8*H86+I8*I86+J8*J86+K8*K86+L8*L86+M8*M86+N8*N86+O8*O86+P8*P86+Q8*Q86+R8*R86+S8*S86+T8*T86</f>
-        <v>0</v>
-      </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A87" s="11" t="str">
-        <f>member!A87</f>
-        <v>新</v>
-      </c>
-      <c r="B87" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C87" s="34">
-        <f>E7*E87+F7*F87+G7*G87+H7*H87+I7*I87+J7*J87+K7*K87+L7*L87+M7*M87+N7*N87+O7*O87+P7*P87+Q7*Q87+R7*R87+S7*S87+T7*T87</f>
-        <v>0</v>
-      </c>
-      <c r="D87" s="36">
-        <f>E8*E87+F8*F87+G8*G87+H8*H87+I8*I87+J8*J87+K8*K87+L8*L87+M8*M87+N8*N87+O8*O87+P8*P87+Q8*Q87+R8*R87+S8*S87+T8*T87</f>
-        <v>0</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A88" s="11" t="str">
-        <f>member!A88</f>
-        <v>新</v>
-      </c>
-      <c r="B88" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C88" s="34">
-        <f>E7*E88+F7*F88+G7*G88+H7*H88+I7*I88+J7*J88+K7*K88+L7*L88+M7*M88+N7*N88+O7*O88+P7*P88+Q7*Q88+R7*R88+S7*S88+T7*T88</f>
-        <v>0</v>
-      </c>
-      <c r="D88" s="36">
-        <f>E8*E88+F8*F88+G8*G88+H8*H88+I8*I88+J8*J88+K8*K88+L8*L88+M8*M88+N8*N88+O8*O88+P8*P88+Q8*Q88+R8*R88+S8*S88+T8*T88</f>
-        <v>0</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A89" s="11" t="str">
-        <f>member!A89</f>
-        <v>新</v>
-      </c>
-      <c r="B89" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C89" s="34">
-        <f>E7*E89+F7*F89+G7*G89+H7*H89+I7*I89+J7*J89+K7*K89+L7*L89+M7*M89+N7*N89+O7*O89+P7*P89+Q7*Q89+R7*R89+S7*S89+T7*T89</f>
-        <v>0</v>
-      </c>
-      <c r="D89" s="36">
-        <f>E8*E89+F8*F89+G8*G89+H8*H89+I8*I89+J8*J89+K8*K89+L8*L89+M8*M89+N8*N89+O8*O89+P8*P89+Q8*Q89+R8*R89+S8*S89+T8*T89</f>
-        <v>0</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A90" s="11" t="str">
-        <f>member!A90</f>
-        <v>新</v>
-      </c>
-      <c r="B90" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C90" s="34">
-        <f>E7*E90+F7*F90+G7*G90+H7*H90+I7*I90+J7*J90+K7*K90+L7*L90+M7*M90+N7*N90+O7*O90+P7*P90+Q7*Q90+R7*R90+S7*S90+T7*T90</f>
-        <v>0</v>
-      </c>
-      <c r="D90" s="36">
-        <f>E8*E90+F8*F90+G8*G90+H8*H90+I8*I90+J8*J90+K8*K90+L8*L90+M8*M90+N8*N90+O8*O90+P8*P90+Q8*Q90+R8*R90+S8*S90+T8*T90</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A91" s="11" t="str">
-        <f>member!A91</f>
-        <v>新</v>
-      </c>
-      <c r="B91" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C91" s="34">
-        <f>E7*E91+F7*F91+G7*G91+H7*H91+I7*I91+J7*J91+K7*K91+L7*L91+M7*M91+N7*N91+O7*O91+P7*P91+Q7*Q91+R7*R91+S7*S91+T7*T91</f>
-        <v>0</v>
-      </c>
-      <c r="D91" s="36">
-        <f>E8*E91+F8*F91+G8*G91+H8*H91+I8*I91+J8*J91+K8*K91+L8*L91+M8*M91+N8*N91+O8*O91+P8*P91+Q8*Q91+R8*R91+S8*S91+T8*T91</f>
-        <v>0</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A92" s="11" t="str">
-        <f>member!A92</f>
-        <v>新</v>
-      </c>
-      <c r="B92" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C92" s="34">
-        <f>E7*E92+F7*F92+G7*G92+H7*H92+I7*I92+J7*J92+K7*K92+L7*L92+M7*M92+N7*N92+O7*O92+P7*P92+Q7*Q92+R7*R92+S7*S92+T7*T92</f>
-        <v>0</v>
-      </c>
-      <c r="D92" s="36">
-        <f>E8*E92+F8*F92+G8*G92+H8*H92+I8*I92+J8*J92+K8*K92+L8*L92+M8*M92+N8*N92+O8*O92+P8*P92+Q8*Q92+R8*R92+S8*S92+T8*T92</f>
-        <v>0</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A93" s="11" t="str">
-        <f>member!A93</f>
-        <v>新</v>
-      </c>
-      <c r="B93" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C93" s="34">
-        <f>E7*E93+F7*F93+G7*G93+H7*H93+I7*I93+J7*J93+K7*K93+L7*L93+M7*M93+N7*N93+O7*O93+P7*P93+Q7*Q93+R7*R93+S7*S93+T7*T93</f>
-        <v>0</v>
-      </c>
-      <c r="D93" s="36">
-        <f>E8*E93+F8*F93+G8*G93+H8*H93+I8*I93+J8*J93+K8*K93+L8*L93+M8*M93+N8*N93+O8*O93+P8*P93+Q8*Q93+R8*R93+S8*S93+T8*T93</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A94" s="11" t="str">
-        <f>member!A94</f>
-        <v>新</v>
-      </c>
-      <c r="B94" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C94" s="34">
-        <f>E7*E94+F7*F94+G7*G94+H7*H94+I7*I94+J7*J94+K7*K94+L7*L94+M7*M94+N7*N94+O7*O94+P7*P94+Q7*Q94+R7*R94+S7*S94+T7*T94</f>
-        <v>0</v>
-      </c>
-      <c r="D94" s="36">
-        <f>E8*E94+F8*F94+G8*G94+H8*H94+I8*I94+J8*J94+K8*K94+L8*L94+M8*M94+N8*N94+O8*O94+P8*P94+Q8*Q94+R8*R94+S8*S94+T8*T94</f>
-        <v>0</v>
-      </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A95" s="11" t="str">
-        <f>member!A95</f>
-        <v>新</v>
-      </c>
-      <c r="B95" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C95" s="34">
-        <f>E7*E95+F7*F95+G7*G95+H7*H95+I7*I95+J7*J95+K7*K95+L7*L95+M7*M95+N7*N95+O7*O95+P7*P95+Q7*Q95+R7*R95+S7*S95+T7*T95</f>
-        <v>0</v>
-      </c>
-      <c r="D95" s="36">
-        <f>E8*E95+F8*F95+G8*G95+H8*H95+I8*I95+J8*J95+K8*K95+L8*L95+M8*M95+N8*N95+O8*O95+P8*P95+Q8*Q95+R8*R95+S8*S95+T8*T95</f>
-        <v>0</v>
-      </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A96" s="11" t="str">
-        <f>member!A96</f>
-        <v>新</v>
-      </c>
-      <c r="B96" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C96" s="34">
-        <f>E7*E96+F7*F96+G7*G96+H7*H96+I7*I96+J7*J96+K7*K96+L7*L96+M7*M96+N7*N96+O7*O96+P7*P96+Q7*Q96+R7*R96+S7*S96+T7*T96</f>
-        <v>0</v>
-      </c>
-      <c r="D96" s="36">
-        <f>E8*E96+F8*F96+G8*G96+H8*H96+I8*I96+J8*J96+K8*K96+L8*L96+M8*M96+N8*N96+O8*O96+P8*P96+Q8*Q96+R8*R96+S8*S96+T8*T96</f>
-        <v>0</v>
-      </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A97" s="11" t="str">
-        <f>member!A97</f>
-        <v>新</v>
-      </c>
-      <c r="B97" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C97" s="34">
-        <f>E7*E97+F7*F97+G7*G97+H7*H97+I7*I97+J7*J97+K7*K97+L7*L97+M7*M97+N7*N97+O7*O97+P7*P97+Q7*Q97+R7*R97+S7*S97+T7*T97</f>
-        <v>0</v>
-      </c>
-      <c r="D97" s="36">
-        <f>E8*E97+F8*F97+G8*G97+H8*H97+I8*I97+J8*J97+K8*K97+L8*L97+M8*M97+N8*N97+O8*O97+P8*P97+Q8*Q97+R8*R97+S8*S97+T8*T97</f>
-        <v>0</v>
-      </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A98" s="11" t="str">
-        <f>member!A98</f>
-        <v>新</v>
-      </c>
-      <c r="B98" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C98" s="34">
-        <f>E7*E98+F7*F98+G7*G98+H7*H98+I7*I98+J7*J98+K7*K98+L7*L98+M7*M98+N7*N98+O7*O98+P7*P98+Q7*Q98+R7*R98+S7*S98+T7*T98</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="36">
-        <f>E8*E98+F8*F98+G8*G98+H8*H98+I8*I98+J8*J98+K8*K98+L8*L98+M8*M98+N8*N98+O8*O98+P8*P98+Q8*Q98+R8*R98+S8*S98+T8*T98</f>
-        <v>0</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A99" s="11" t="str">
-        <f>member!A99</f>
-        <v>新</v>
-      </c>
-      <c r="B99" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C99" s="34">
-        <f>E7*E99+F7*F99+G7*G99+H7*H99+I7*I99+J7*J99+K7*K99+L7*L99+M7*M99+N7*N99+O7*O99+P7*P99+Q7*Q99+R7*R99+S7*S99+T7*T99</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="36">
-        <f>E8*E99+F8*F99+G8*G99+H8*H99+I8*I99+J8*J99+K8*K99+L8*L99+M8*M99+N8*N99+O8*O99+P8*P99+Q8*Q99+R8*R99+S8*S99+T8*T99</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A100" s="11" t="str">
-        <f>member!A100</f>
-        <v>新</v>
-      </c>
-      <c r="B100" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C100" s="34">
-        <f>E7*E100+F7*F100+G7*G100+H7*H100+I7*I100+J7*J100+K7*K100+L7*L100+M7*M100+N7*N100+O7*O100+P7*P100+Q7*Q100+R7*R100+S7*S100+T7*T100</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="36">
-        <f>E8*E100+F8*F100+G8*G100+H8*H100+I8*I100+J8*J100+K8*K100+L8*L100+M8*M100+N8*N100+O8*O100+P8*P100+Q8*Q100+R8*R100+S8*S100+T8*T100</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
+++ b/trunk/house/上地蓝色狂飙足球部落活动记录.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="185">
   <si>
     <t>守候幸福</t>
   </si>
@@ -591,23 +591,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">16*25-345 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>二姨欠5</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>尚峰额外28，清道夫群足彩20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -650,23 +633,6 @@
   </si>
   <si>
     <t>14*30-320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">13*30+20(侯盟提前走） </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>老A,sm,豆各欠30</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -738,23 +704,6 @@
   </si>
   <si>
     <r>
-      <t>2/9/2012(扣),5/22/2012(罚)，坎12，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8.9待罚20</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>3/31/2012(罚),5/22/2012(罚)，5.31退10，</t>
     </r>
     <r>
@@ -779,10 +728,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.9待罚20</t>
+    <t>水彩笔两支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水彩笔两支</t>
+    <t>AC Spark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行盛于言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵聪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈网见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17*30-350 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>狐狸欠30</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚峰鸽子费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13*30+20(侯盟提前走） </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>豆欠30，从个人账户扣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2/9/2012(扣),5/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2/2012(罚)，坎12，12.7.5扣场地费30，8.9罚20</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16*25-345 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二姨欠5(已结清)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次多缴纳费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,7 +977,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -996,6 +1043,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1300,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD111"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1358,19 +1406,19 @@
       </c>
       <c r="B2" s="37">
         <f t="shared" ref="B2:J2" si="0">SUM(B9:B100)</f>
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="C2" s="36">
         <f t="shared" si="0"/>
-        <v>16250</v>
+        <v>16760</v>
       </c>
       <c r="D2" s="38">
         <f t="shared" si="0"/>
-        <v>3975.0000000000009</v>
+        <v>4134.9999999999991</v>
       </c>
       <c r="E2" s="36">
         <f t="shared" si="0"/>
-        <v>3403.0000000000009</v>
+        <v>3546.0000000000005</v>
       </c>
       <c r="F2" s="36">
         <f t="shared" si="0"/>
@@ -1379,7 +1427,7 @@
       <c r="G2" s="36"/>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
-        <v>1218.9999999999998</v>
+        <v>1312.0000000000005</v>
       </c>
       <c r="I2" s="38">
         <f t="shared" si="0"/>
@@ -1417,7 +1465,7 @@
       </c>
       <c r="I4" s="40">
         <f>H2+I2</f>
-        <v>1273.9999999999998</v>
+        <v>1367.0000000000005</v>
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
@@ -17853,19 +17901,19 @@
       </c>
       <c r="B9" s="39">
         <f>'201202'!B9+'201203'!B9+'201204'!B9+'201205'!B9+'201206'!B9+'201207'!B9+'201208'!B9+'201209'!B9+'201210'!B9+'201211'!B9+'201212'!B9</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="36">
         <f>'201202'!C9+'201203'!C9+'201204'!C9+'201205'!C9+'201206'!C9+'201207'!C9+'201208'!C9+'201209'!C9+'201210'!C9+'201211'!C9+'201212'!C9</f>
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="D9" s="36">
         <f>'201202'!D9+'201203'!D9+'201204'!D9+'201205'!D9+'201206'!D9+'201207'!D9+'201208'!D9+'201209'!D9+'201210'!D9+'201211'!D9+'201212'!D9</f>
-        <v>111.2754884004884</v>
+        <v>120.68725310637075</v>
       </c>
       <c r="E9" s="36">
         <f t="shared" ref="E9:E40" si="1">D9-B9</f>
-        <v>95.275488400488399</v>
+        <v>103.68725310637075</v>
       </c>
       <c r="F9" s="18">
         <v>55</v>
@@ -17873,7 +17921,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="36">
         <f t="shared" ref="H9:H40" si="2">E9-F9+G9</f>
-        <v>40.275488400488399</v>
+        <v>48.687253106370747</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="1"/>
@@ -17950,7 +17998,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.15">
@@ -18039,11 +18087,11 @@
         <v>135</v>
       </c>
       <c r="G14" s="18">
-        <v>-12</v>
+        <v>-62</v>
       </c>
       <c r="H14" s="36">
         <f t="shared" si="2"/>
-        <v>53.936154488786059</v>
+        <v>3.9361544887860589</v>
       </c>
       <c r="I14" s="18">
         <v>5</v>
@@ -18051,8 +18099,8 @@
       <c r="J14" s="1">
         <v>2</v>
       </c>
-      <c r="K14" s="22" t="s">
-        <v>170</v>
+      <c r="K14" s="47" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.15">
@@ -18121,19 +18169,19 @@
       </c>
       <c r="B17" s="39">
         <f>'201202'!B17+'201203'!B17+'201204'!B17+'201205'!B17+'201206'!B17+'201207'!B17+'201208'!B17+'201209'!B17+'201210'!B17+'201211'!B17+'201212'!B17</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="36">
         <f>'201202'!C17+'201203'!C17+'201204'!C17+'201205'!C17+'201206'!C17+'201207'!C17+'201208'!C17+'201209'!C17+'201210'!C17+'201211'!C17+'201212'!C17</f>
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="D17" s="36">
         <f>'201202'!D17+'201203'!D17+'201204'!D17+'201205'!D17+'201206'!D17+'201207'!D17+'201208'!D17+'201209'!D17+'201210'!D17+'201211'!D17+'201212'!D17</f>
-        <v>88.252899877899878</v>
+        <v>97.664664583782226</v>
       </c>
       <c r="E17" s="36">
         <f t="shared" si="1"/>
-        <v>76.252899877899878</v>
+        <v>84.664664583782226</v>
       </c>
       <c r="F17" s="18">
         <v>45</v>
@@ -18143,12 +18191,12 @@
       </c>
       <c r="H17" s="36">
         <f t="shared" si="2"/>
-        <v>7.2528998778998783</v>
+        <v>15.664664583782226</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -18189,19 +18237,19 @@
       </c>
       <c r="B19" s="39">
         <f>'201202'!B19+'201203'!B19+'201204'!B19+'201205'!B19+'201206'!B19+'201207'!B19+'201208'!B19+'201209'!B19+'201210'!B19+'201211'!B19+'201212'!B19</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="36">
         <f>'201202'!C19+'201203'!C19+'201204'!C19+'201205'!C19+'201206'!C19+'201207'!C19+'201208'!C19+'201209'!C19+'201210'!C19+'201211'!C19+'201212'!C19</f>
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="D19" s="36">
         <f>'201202'!D19+'201203'!D19+'201204'!D19+'201205'!D19+'201206'!D19+'201207'!D19+'201208'!D19+'201209'!D19+'201210'!D19+'201211'!D19+'201212'!D19</f>
-        <v>152.28558575926996</v>
+        <v>161.69735046515231</v>
       </c>
       <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v>129.28558575926996</v>
+        <v>137.69735046515231</v>
       </c>
       <c r="F19" s="18">
         <v>80</v>
@@ -18211,12 +18259,12 @@
       </c>
       <c r="H19" s="36">
         <f t="shared" si="2"/>
-        <v>37.285585759269964</v>
+        <v>45.697350465152311</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -18225,19 +18273,19 @@
       </c>
       <c r="B20" s="39">
         <f>'201202'!B20+'201203'!B20+'201204'!B20+'201205'!B20+'201206'!B20+'201207'!B20+'201208'!B20+'201209'!B20+'201210'!B20+'201211'!B20+'201212'!B20</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="36">
         <f>'201202'!C20+'201203'!C20+'201204'!C20+'201205'!C20+'201206'!C20+'201207'!C20+'201208'!C20+'201209'!C20+'201210'!C20+'201211'!C20+'201212'!C20</f>
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="D20" s="36">
         <f>'201202'!D20+'201203'!D20+'201204'!D20+'201205'!D20+'201206'!D20+'201207'!D20+'201208'!D20+'201209'!D20+'201210'!D20+'201211'!D20+'201212'!D20</f>
-        <v>22.338217338217337</v>
+        <v>31.749982044099688</v>
       </c>
       <c r="E20" s="36">
         <f t="shared" si="1"/>
-        <v>17.338217338217337</v>
+        <v>25.749982044099688</v>
       </c>
       <c r="F20" s="18">
         <v>20</v>
@@ -18245,14 +18293,14 @@
       <c r="G20" s="18"/>
       <c r="H20" s="36">
         <f t="shared" si="2"/>
-        <v>-2.661782661782663</v>
+        <v>5.7499820440996885</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="1">
         <v>1</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -18288,7 +18336,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -18324,7 +18372,7 @@
       <c r="I22" s="18"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -18360,7 +18408,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -18432,7 +18480,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -18498,7 +18546,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -18507,19 +18555,19 @@
       </c>
       <c r="B28" s="39">
         <f>'201202'!B28+'201203'!B28+'201204'!B28+'201205'!B28+'201206'!B28+'201207'!B28+'201208'!B28+'201209'!B28+'201210'!B28+'201211'!B28+'201212'!B28</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="36">
         <f>'201202'!C28+'201203'!C28+'201204'!C28+'201205'!C28+'201206'!C28+'201207'!C28+'201208'!C28+'201209'!C28+'201210'!C28+'201211'!C28+'201212'!C28</f>
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="D28" s="36">
         <f>'201202'!D28+'201203'!D28+'201204'!D28+'201205'!D28+'201206'!D28+'201207'!D28+'201208'!D28+'201209'!D28+'201210'!D28+'201211'!D28+'201212'!D28</f>
-        <v>119.63502506265664</v>
+        <v>129.04678976853899</v>
       </c>
       <c r="E28" s="36">
         <f t="shared" si="1"/>
-        <v>104.63502506265664</v>
+        <v>113.04678976853899</v>
       </c>
       <c r="F28" s="18">
         <v>75</v>
@@ -18527,7 +18575,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="36">
         <f t="shared" si="2"/>
-        <v>29.635025062656638</v>
+        <v>38.046789768538986</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="1"/>
@@ -18568,7 +18616,7 @@
       <c r="I29" s="18"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -18666,7 +18714,7 @@
       <c r="I32" s="18"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -18702,7 +18750,7 @@
       <c r="I33" s="18"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -18768,7 +18816,7 @@
       <c r="I35" s="18"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -19093,19 +19141,19 @@
       </c>
       <c r="B46" s="39">
         <f>'201202'!B46+'201203'!B46+'201204'!B46+'201205'!B46+'201206'!B46+'201207'!B46+'201208'!B46+'201209'!B46+'201210'!B46+'201211'!B46+'201212'!B46</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C46" s="36">
         <f>'201202'!C46+'201203'!C46+'201204'!C46+'201205'!C46+'201206'!C46+'201207'!C46+'201208'!C46+'201209'!C46+'201210'!C46+'201211'!C46+'201212'!C46</f>
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="D46" s="36">
         <f>'201202'!D46+'201203'!D46+'201204'!D46+'201205'!D46+'201206'!D46+'201207'!D46+'201208'!D46+'201209'!D46+'201210'!D46+'201211'!D46+'201212'!D46</f>
-        <v>135.45894383394381</v>
+        <v>144.87070853982615</v>
       </c>
       <c r="E46" s="36">
         <f t="shared" si="3"/>
-        <v>115.45894383394381</v>
+        <v>123.87070853982615</v>
       </c>
       <c r="F46" s="18">
         <v>75</v>
@@ -19113,7 +19161,7 @@
       <c r="G46" s="18"/>
       <c r="H46" s="36">
         <f t="shared" si="4"/>
-        <v>40.458943833943806</v>
+        <v>48.870708539826154</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="1"/>
@@ -19214,7 +19262,7 @@
         <v>2</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -19285,19 +19333,19 @@
       </c>
       <c r="B52" s="39">
         <f>'201202'!B52+'201203'!B52+'201204'!B52+'201205'!B52+'201206'!B52+'201207'!B52+'201208'!B52+'201209'!B52+'201210'!B52+'201211'!B52+'201212'!B52</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C52" s="36">
         <f>'201202'!C52+'201203'!C52+'201204'!C52+'201205'!C52+'201206'!C52+'201207'!C52+'201208'!C52+'201209'!C52+'201210'!C52+'201211'!C52+'201212'!C52</f>
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="D52" s="36">
         <f>'201202'!D52+'201203'!D52+'201204'!D52+'201205'!D52+'201206'!D52+'201207'!D52+'201208'!D52+'201209'!D52+'201210'!D52+'201211'!D52+'201212'!D52</f>
-        <v>125.94202654071074</v>
+        <v>135.35379124659309</v>
       </c>
       <c r="E52" s="36">
         <f t="shared" si="3"/>
-        <v>106.94202654071074</v>
+        <v>115.35379124659309</v>
       </c>
       <c r="F52" s="18">
         <v>25</v>
@@ -19305,7 +19353,7 @@
       <c r="G52" s="18"/>
       <c r="H52" s="36">
         <f t="shared" si="4"/>
-        <v>81.942026540710742</v>
+        <v>90.35379124659309</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="1"/>
@@ -19342,7 +19390,7 @@
       <c r="I53" s="18"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
@@ -19411,19 +19459,19 @@
       </c>
       <c r="B56" s="39">
         <f>'201202'!B56+'201203'!B56+'201204'!B56+'201205'!B56+'201206'!B56+'201207'!B56+'201208'!B56+'201209'!B56+'201210'!B56+'201211'!B56+'201212'!B56</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C56" s="36">
         <f>'201202'!C56+'201203'!C56+'201204'!C56+'201205'!C56+'201206'!C56+'201207'!C56+'201208'!C56+'201209'!C56+'201210'!C56+'201211'!C56+'201212'!C56</f>
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="D56" s="36">
         <f>'201202'!D56+'201203'!D56+'201204'!D56+'201205'!D56+'201206'!D56+'201207'!D56+'201208'!D56+'201209'!D56+'201210'!D56+'201211'!D56+'201212'!D56</f>
-        <v>86.703935319066886</v>
+        <v>96.115700024949234</v>
       </c>
       <c r="E56" s="36">
         <f t="shared" si="3"/>
-        <v>74.703935319066886</v>
+        <v>83.115700024949234</v>
       </c>
       <c r="F56" s="18">
         <v>45</v>
@@ -19433,12 +19481,12 @@
       </c>
       <c r="H56" s="36">
         <f t="shared" si="4"/>
-        <v>45.703935319066886</v>
+        <v>54.115700024949234</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
@@ -19504,7 +19552,7 @@
       <c r="I58" s="18"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -19573,25 +19621,25 @@
       </c>
       <c r="B61" s="39">
         <f>'201202'!B61+'201203'!B61+'201204'!B61+'201205'!B61+'201206'!B61+'201207'!B61+'201208'!B61+'201209'!B61+'201210'!B61+'201211'!B61+'201212'!B61</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" s="36">
         <f>'201202'!C61+'201203'!C61+'201204'!C61+'201205'!C61+'201206'!C61+'201207'!C61+'201208'!C61+'201209'!C61+'201210'!C61+'201211'!C61+'201212'!C61</f>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D61" s="36">
         <f>'201202'!D61+'201203'!D61+'201204'!D61+'201205'!D61+'201206'!D61+'201207'!D61+'201208'!D61+'201209'!D61+'201210'!D61+'201211'!D61+'201212'!D61</f>
-        <v>2.675438596491226</v>
+        <v>12.087203302373577</v>
       </c>
       <c r="E61" s="36">
         <f t="shared" si="3"/>
-        <v>0.67543859649122595</v>
+        <v>9.0872033023735774</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
       <c r="H61" s="36">
         <f t="shared" si="4"/>
-        <v>0.67543859649122595</v>
+        <v>9.0872033023735774</v>
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="1"/>
@@ -19869,7 +19917,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B71" s="39">
         <f>'201202'!B71+'201203'!B71+'201204'!B71+'201205'!B71+'201206'!B71+'201207'!B71+'201208'!B71+'201209'!B71+'201210'!B71+'201211'!B71+'201212'!B71</f>
@@ -19899,7 +19947,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B72" s="39">
         <f>'201202'!B72+'201203'!B72+'201204'!B72+'201205'!B72+'201206'!B72+'201207'!B72+'201208'!B72+'201209'!B72+'201210'!B72+'201211'!B72+'201212'!B72</f>
@@ -19929,29 +19977,29 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B73" s="39">
         <f>'201202'!B73+'201203'!B73+'201204'!B73+'201205'!B73+'201206'!B73+'201207'!B73+'201208'!B73+'201209'!B73+'201210'!B73+'201211'!B73+'201212'!B73</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" s="36">
         <f>'201202'!C73+'201203'!C73+'201204'!C73+'201205'!C73+'201206'!C73+'201207'!C73+'201208'!C73+'201209'!C73+'201210'!C73+'201211'!C73+'201212'!C73</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D73" s="36">
         <f>'201202'!D73+'201203'!D73+'201204'!D73+'201205'!D73+'201206'!D73+'201207'!D73+'201208'!D73+'201209'!D73+'201210'!D73+'201211'!D73+'201212'!D73</f>
-        <v>12.857142857142858</v>
+        <v>22.268907563025209</v>
       </c>
       <c r="E73" s="36">
         <f t="shared" ref="E73:E79" si="7">D73-B73</f>
-        <v>11.857142857142858</v>
+        <v>20.268907563025209</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="36">
         <f t="shared" ref="H73:H79" si="8">E73-F73</f>
-        <v>11.857142857142858</v>
+        <v>20.268907563025209</v>
       </c>
       <c r="I73" s="18"/>
       <c r="J73" s="1"/>
@@ -19959,7 +20007,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B74" s="39">
         <f>'201202'!B74+'201203'!B74+'201204'!B74+'201205'!B74+'201206'!B74+'201207'!B74+'201208'!B74+'201209'!B74+'201210'!B74+'201211'!B74+'201212'!B74</f>
@@ -19985,35 +20033,33 @@
       </c>
       <c r="I74" s="18"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="41" t="s">
-        <v>174</v>
-      </c>
+      <c r="K74" s="41"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="B75" s="39">
         <f>'201202'!B75+'201203'!B75+'201204'!B75+'201205'!B75+'201206'!B75+'201207'!B75+'201208'!B75+'201209'!B75+'201210'!B75+'201211'!B75+'201212'!B75</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" s="36">
         <f>'201202'!C75+'201203'!C75+'201204'!C75+'201205'!C75+'201206'!C75+'201207'!C75+'201208'!C75+'201209'!C75+'201210'!C75+'201211'!C75+'201212'!C75</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D75" s="36">
         <f>'201202'!D75+'201203'!D75+'201204'!D75+'201205'!D75+'201206'!D75+'201207'!D75+'201208'!D75+'201209'!D75+'201210'!D75+'201211'!D75+'201212'!D75</f>
-        <v>0</v>
+        <v>9.4117647058823515</v>
       </c>
       <c r="E75" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.4117647058823515</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="36">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.4117647058823515</v>
       </c>
       <c r="I75" s="18"/>
       <c r="J75" s="1"/>
@@ -20021,29 +20067,29 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="B76" s="39">
         <f>'201202'!B76+'201203'!B76+'201204'!B76+'201205'!B76+'201206'!B76+'201207'!B76+'201208'!B76+'201209'!B76+'201210'!B76+'201211'!B76+'201212'!B76</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="36">
         <f>'201202'!C76+'201203'!C76+'201204'!C76+'201205'!C76+'201206'!C76+'201207'!C76+'201208'!C76+'201209'!C76+'201210'!C76+'201211'!C76+'201212'!C76</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D76" s="36">
         <f>'201202'!D76+'201203'!D76+'201204'!D76+'201205'!D76+'201206'!D76+'201207'!D76+'201208'!D76+'201209'!D76+'201210'!D76+'201211'!D76+'201212'!D76</f>
-        <v>0</v>
+        <v>9.4117647058823515</v>
       </c>
       <c r="E76" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.4117647058823515</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="36">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.4117647058823515</v>
       </c>
       <c r="I76" s="18"/>
       <c r="J76" s="1"/>
@@ -20051,29 +20097,29 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="B77" s="39">
         <f>'201202'!B77+'201203'!B77+'201204'!B77+'201205'!B77+'201206'!B77+'201207'!B77+'201208'!B77+'201209'!B77+'201210'!B77+'201211'!B77+'201212'!B77</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="36">
         <f>'201202'!C77+'201203'!C77+'201204'!C77+'201205'!C77+'201206'!C77+'201207'!C77+'201208'!C77+'201209'!C77+'201210'!C77+'201211'!C77+'201212'!C77</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D77" s="36">
         <f>'201202'!D77+'201203'!D77+'201204'!D77+'201205'!D77+'201206'!D77+'201207'!D77+'201208'!D77+'201209'!D77+'201210'!D77+'201211'!D77+'201212'!D77</f>
-        <v>0</v>
+        <v>9.4117647058823515</v>
       </c>
       <c r="E77" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.4117647058823515</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
       <c r="H77" s="36">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.4117647058823515</v>
       </c>
       <c r="I77" s="18"/>
       <c r="J77" s="1"/>
@@ -20081,29 +20127,29 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="B78" s="39">
         <f>'201202'!B78+'201203'!B78+'201204'!B78+'201205'!B78+'201206'!B78+'201207'!B78+'201208'!B78+'201209'!B78+'201210'!B78+'201211'!B78+'201212'!B78</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" s="36">
         <f>'201202'!C78+'201203'!C78+'201204'!C78+'201205'!C78+'201206'!C78+'201207'!C78+'201208'!C78+'201209'!C78+'201210'!C78+'201211'!C78+'201212'!C78</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D78" s="36">
         <f>'201202'!D78+'201203'!D78+'201204'!D78+'201205'!D78+'201206'!D78+'201207'!D78+'201208'!D78+'201209'!D78+'201210'!D78+'201211'!D78+'201212'!D78</f>
-        <v>0</v>
+        <v>9.4117647058823515</v>
       </c>
       <c r="E78" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.4117647058823515</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
       <c r="H78" s="36">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.4117647058823515</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="1"/>
@@ -20111,29 +20157,29 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="B79" s="39">
         <f>'201202'!B79+'201203'!B79+'201204'!B79+'201205'!B79+'201206'!B79+'201207'!B79+'201208'!B79+'201209'!B79+'201210'!B79+'201211'!B79+'201212'!B79</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" s="36">
         <f>'201202'!C79+'201203'!C79+'201204'!C79+'201205'!C79+'201206'!C79+'201207'!C79+'201208'!C79+'201209'!C79+'201210'!C79+'201211'!C79+'201212'!C79</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D79" s="36">
         <f>'201202'!D79+'201203'!D79+'201204'!D79+'201205'!D79+'201206'!D79+'201207'!D79+'201208'!D79+'201209'!D79+'201210'!D79+'201211'!D79+'201212'!D79</f>
-        <v>0</v>
+        <v>9.4117647058823515</v>
       </c>
       <c r="E79" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.4117647058823515</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
       <c r="H79" s="36">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.4117647058823515</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="1"/>
@@ -20141,29 +20187,29 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="B80" s="39">
         <f>'201202'!B80+'201203'!B80+'201204'!B80+'201205'!B80+'201206'!B80+'201207'!B80+'201208'!B80+'201209'!B80+'201210'!B80+'201211'!B80+'201212'!B80</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="36">
         <f>'201202'!C80+'201203'!C80+'201204'!C80+'201205'!C80+'201206'!C80+'201207'!C80+'201208'!C80+'201209'!C80+'201210'!C80+'201211'!C80+'201212'!C80</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D80" s="36">
         <f>'201202'!D80+'201203'!D80+'201204'!D80+'201205'!D80+'201206'!D80+'201207'!D80+'201208'!D80+'201209'!D80+'201210'!D80+'201211'!D80+'201212'!D80</f>
-        <v>0</v>
+        <v>9.4117647058823515</v>
       </c>
       <c r="E80" s="36">
         <f t="shared" ref="E80:E84" si="9">D80-B80</f>
-        <v>0</v>
+        <v>8.4117647058823515</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="36">
         <f t="shared" ref="H80:H84" si="10">E80-F80</f>
-        <v>0</v>
+        <v>8.4117647058823515</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="1"/>
@@ -20171,29 +20217,29 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="B81" s="39">
         <f>'201202'!B81+'201203'!B81+'201204'!B81+'201205'!B81+'201206'!B81+'201207'!B81+'201208'!B81+'201209'!B81+'201210'!B81+'201211'!B81+'201212'!B81</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="36">
         <f>'201202'!C81+'201203'!C81+'201204'!C81+'201205'!C81+'201206'!C81+'201207'!C81+'201208'!C81+'201209'!C81+'201210'!C81+'201211'!C81+'201212'!C81</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D81" s="36">
         <f>'201202'!D81+'201203'!D81+'201204'!D81+'201205'!D81+'201206'!D81+'201207'!D81+'201208'!D81+'201209'!D81+'201210'!D81+'201211'!D81+'201212'!D81</f>
-        <v>0</v>
+        <v>9.4117647058823515</v>
       </c>
       <c r="E81" s="36">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8.4117647058823515</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="36">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8.4117647058823515</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="1"/>
@@ -20784,27 +20830,27 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -20851,8 +20897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection sqref="A1:H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22474,7 +22520,7 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="11" t="str">
         <f>member!A75</f>
-        <v>新</v>
+        <v>AC Spark</v>
       </c>
       <c r="B75" s="34">
         <f t="shared" si="7"/>
@@ -22496,7 +22542,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="str">
         <f>member!A76</f>
-        <v>新</v>
+        <v>行盛于言</v>
       </c>
       <c r="B76" s="34">
         <f t="shared" si="7"/>
@@ -22518,7 +22564,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="11" t="str">
         <f>member!A77</f>
-        <v>新</v>
+        <v>戒影</v>
       </c>
       <c r="B77" s="34">
         <f t="shared" si="7"/>
@@ -22540,7 +22586,7 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="str">
         <f>member!A78</f>
-        <v>新</v>
+        <v>赵聪</v>
       </c>
       <c r="B78" s="34">
         <f t="shared" si="7"/>
@@ -22562,7 +22608,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="str">
         <f>member!A79</f>
-        <v>新</v>
+        <v>祈网见</v>
       </c>
       <c r="B79" s="34">
         <f t="shared" si="7"/>
@@ -22584,7 +22630,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="str">
         <f>member!A80</f>
-        <v>新</v>
+        <v>小严</v>
       </c>
       <c r="B80" s="34">
         <f t="shared" si="7"/>
@@ -22606,7 +22652,7 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="11" t="str">
         <f>member!A81</f>
-        <v>新</v>
+        <v>大罗</v>
       </c>
       <c r="B81" s="34">
         <f t="shared" si="7"/>
@@ -23051,12 +23097,2206 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="11"/>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5">
+        <v>41149</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="33">
+        <f>SUM(B9:B100)</f>
+        <v>17</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="33">
+        <f t="shared" ref="E2" si="0">COUNT(E9:E100)</f>
+        <v>17</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="20">
+        <v>350</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34">
+        <f>SUM(E4:T4)</f>
+        <v>510</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="32">
+        <f t="shared" ref="E4" si="1">E2*E7</f>
+        <v>510</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35">
+        <f>SUM(E5:T5)</f>
+        <v>160</v>
+      </c>
+      <c r="E5" s="32">
+        <f t="shared" ref="E5" si="2">E4-E3</f>
+        <v>160</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="32">
+        <f t="shared" ref="E6" si="3">E3/E2</f>
+        <v>20.588235294117649</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="20">
+        <v>30</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="32">
+        <f t="shared" ref="E8" si="4">E7-E6</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="str">
+        <f>member!A9</f>
+        <v>守候幸福</v>
+      </c>
+      <c r="B9" s="34">
+        <f t="shared" ref="B9:B72" si="5">COUNT(E9:T9)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="34">
+        <f>E7*E9+F7*F9+G7*G9+H7*H9+I7*I9+J7*J9+K7*K9+L7*L9+M7*M9+N7*N9+O7*O9+P7*P9+Q7*Q9+R7*R9+S7*S9+T7*T9</f>
+        <v>30</v>
+      </c>
+      <c r="D9" s="36">
+        <f>E8*E9+F8*F9+G8*G9+H8*H9+I8*I9+J8*J9+K8*K9+L8*L9+M8*M9+O8*O9+P8*P9+Q8*Q9+R8*R9+S8*S9+T8*T9</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="str">
+        <f>member!A10</f>
+        <v>李一刀</v>
+      </c>
+      <c r="B10" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="34">
+        <f>E7*E10+F7*F10+G7*G10+H7*H10+I7*I10+J7*J10+K7*K10+L7*L10+M7*M10+N7*N10+O7*O10+P7*P10+Q7*Q10+R7*R10+S7*S10+T7*T10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="36">
+        <f>E8*E10+F8*F10+G8*G10+H8*H10+I8*I10+J8*J10+K8*K10+L8*L10+M8*M10+O8*O10+P8*P10+Q8*Q10+R8*R10+S8*S10+T8*T10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="str">
+        <f>member!A11</f>
+        <v>咣咣地跟屁蟲</v>
+      </c>
+      <c r="B11" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="34">
+        <f>E7*E11+F7*F11+G7*G11+H7*H11+I7*I11+J7*J11+K7*K11+L7*L11+M7*M11+N7*N11+O7*O11+P7*P11+Q7*Q11+R7*R11+S7*S11+T7*T11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="36">
+        <f>E8*E11+F8*F11+G8*G11+H8*H11+I8*I11+J8*J11+K8*K11+L8*L11+M8*M11+O8*O11+P8*P11+Q8*Q11+R8*R11+S8*S11+T8*T11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="str">
+        <f>member!A12</f>
+        <v>Oo内拉祖里oO</v>
+      </c>
+      <c r="B12" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="34">
+        <f>E7*E12+F7*F12+G7*G12+H7*H12+I7*I12+J7*J12+K7*K12+L7*L12+M7*M12+N7*N12+O7*O12+P7*P12+Q7*Q12+R7*R12+S7*S12+T7*T12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="36">
+        <f>E8*E12+F8*F12+G8*G12+H8*H12+I8*I12+J8*J12+K8*K12+L8*L12+M8*M12+O8*O12+P8*P12+Q8*Q12+R8*R12+S8*S12+T8*T12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="str">
+        <f>member!A13</f>
+        <v>幸福~拂晓</v>
+      </c>
+      <c r="B13" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="34">
+        <f>E7*E13+F7*F13+G7*G13+H7*H13+I7*I13+J7*J13+K7*K13+L7*L13+M7*M13+N7*N13+O7*O13+P7*P13+Q7*Q13+R7*R13+S7*S13+T7*T13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="36">
+        <f>E8*E13+F8*F13+G8*G13+H8*H13+I8*I13+J8*J13+K8*K13+L8*L13+M8*M13+O8*O13+P8*P13+Q8*Q13+R8*R13+S8*S13+T8*T13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="str">
+        <f>member!A14</f>
+        <v>蚕豆</v>
+      </c>
+      <c r="B14" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="34">
+        <f>E7*E14+F7*F14+G7*G14+H7*H14+I7*I14+J7*J14+K7*K14+L7*L14+M7*M14+N7*N14+O7*O14+P7*P14+Q7*Q14+R7*R14+S7*S14+T7*T14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="36">
+        <f>E8*E14+F8*F14+G8*G14+H8*H14+I8*I14+J8*J14+K8*K14+L8*L14+M8*M14+O8*O14+P8*P14+Q8*Q14+R8*R14+S8*S14+T8*T14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="str">
+        <f>member!A15</f>
+        <v>who cares?</v>
+      </c>
+      <c r="B15" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="34">
+        <f>E7*E15+F7*F15+G7*G15+H7*H15+I7*I15+J7*J15+K7*K15+L7*L15+M7*M15+O7*O15+P7*P15+Q7*Q15+R7*R15+S7*S15+T7*T15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="36">
+        <f>E8*E15+F8*F15+G8*G15+H8*H15+I8*I15+J8*J15+K8*K15+L8*L15+M8*M15+O8*O15+P8*P15+Q8*Q15+R8*R15+S8*S15+T8*T15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="str">
+        <f>member!A16</f>
+        <v>幸福~彩票</v>
+      </c>
+      <c r="B16" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="34">
+        <f>E7*E16+F7*F16+G7*G16+H7*H16+I7*I16+J7*J16+K7*K16+L7*L16+M7*M16+O7*O16+P7*P16+Q7*Q16+R7*R16+S7*S16+T7*T16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="36">
+        <f>E8*E16+F8*F16+G8*G16+H8*H16+I8*I16+J8*J16+K8*K16+L8*L16+M8*M16+O8*O16+P8*P16+Q8*Q16+R8*R16+S8*S16+T8*T16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="str">
+        <f>member!A17</f>
+        <v>清道夫</v>
+      </c>
+      <c r="B17" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="34">
+        <f>E7*E17+F7*F17+G7*G17+H7*H17+I7*I17+J7*J17+K7*K17+L7*L17+M7*M17+O7*O17+P7*P17+Q7*Q17+R7*R17+S7*S17+T7*T17</f>
+        <v>30</v>
+      </c>
+      <c r="D17" s="36">
+        <f>E8*E17+F8*F17+G8*G17+H8*H17+I8*I17+J8*J17+K8*K17+L8*L17+M8*M17+O8*O17+P8*P17+Q8*Q17+R8*R17+S8*S17+T8*T17</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="str">
+        <f>member!A18</f>
+        <v>老A</v>
+      </c>
+      <c r="B18" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="34">
+        <f>E7*E18+F7*F18+G7*G18+H7*H18+I7*I18+J7*J18+K7*K18+L7*L18+M7*M18+O7*O18+P7*P18+Q7*Q18+R7*R18+S7*S18+T7*T18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="36">
+        <f>E8*E18+F8*F18+G8*G18+H8*H18+I8*I18+J8*J18+K8*K18+L8*L18+M8*M18+O8*O18+P8*P18+Q8*Q18+R8*R18+S8*S18+T8*T18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="str">
+        <f>member!A19</f>
+        <v>狐狸</v>
+      </c>
+      <c r="B19" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="34">
+        <f>E7*E19+F7*F19+G7*G19+H7*H19+I7*I19+J7*J19+K7*K19+L7*L19+M7*M19+O7*O19+P7*P19+Q7*Q19+R7*R19+S7*S19+T7*T19</f>
+        <v>30</v>
+      </c>
+      <c r="D19" s="36">
+        <f>E8*E19+F8*F19+G8*G19+H8*H19+I8*I19+J8*J19+K8*K19+L8*L19+M8*M19+O8*O19+P8*P19+Q8*Q19+R8*R19+S8*S19+T8*T19</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="str">
+        <f>member!A20</f>
+        <v>腿子</v>
+      </c>
+      <c r="B20" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="34">
+        <f>E7*E20+F7*F20+G7*G20+H7*H20+I7*I20+J7*J20+K7*K20+L7*L20+M7*M20+O7*O20+P7*P20+Q7*Q20+R7*R20+S7*S20+T7*T20</f>
+        <v>30</v>
+      </c>
+      <c r="D20" s="36">
+        <f>E8*E20+F8*F20+G8*G20+H8*H20+I8*I20+J8*J20+K8*K20+L8*L20+M8*M20+O8*O20+P8*P20+Q8*Q20+R8*R20+S8*S20+T8*T20</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="str">
+        <f>member!A21</f>
+        <v>smile</v>
+      </c>
+      <c r="B21" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="34">
+        <f>E7*E21+F7*F21+G7*G21+H7*H21+I7*I21+J7*J21+K7*K21+L7*L21+M7*M21+O7*O21+P7*P21+Q7*Q21+R7*R21+S7*S21+T7*T21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="36">
+        <f>E8*E21+F8*F21+G8*G21+H8*H21+I8*I21+J8*J21+K8*K21+L8*L21+M8*M21+O8*O21+P8*P21+Q8*Q21+R8*R21+S8*S21+T8*T21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="str">
+        <f>member!A22</f>
+        <v>小贝</v>
+      </c>
+      <c r="B22" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="34">
+        <f>E7*E22+F7*F22+G7*G22+H7*H22+I7*I22+J7*J22+K7*K22+L7*L22+M7*M22+O7*O22+P7*P22+Q7*Q22+R7*R22+S7*S22+T7*T22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="36">
+        <f>E8*E22+F8*F22+G8*G22+H8*H22+I8*I22+J8*J22+K8*K22+L8*L22+M8*M22+O8*O22+P8*P22+Q8*Q22+R8*R22+S8*S22+T8*T22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="str">
+        <f>member!A23</f>
+        <v>11号-鲜明</v>
+      </c>
+      <c r="B23" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="34">
+        <f>E7*E23+F7*F23+G7*G23+H7*H23+I7*I23+J7*J23+K7*K23+L7*L23+M7*M23+O7*O23+P7*P23+Q7*Q23+R7*R23+S7*S23+T7*T23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="36">
+        <f>E8*E23+F8*F23+G8*G23+H8*H23+I8*I23+J8*J23+K8*K23+L8*L23+M8*M23+O8*O23+P8*P23+Q8*Q23+R8*R23+S8*S23+T8*T23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="str">
+        <f>member!A24</f>
+        <v>狐狸~涛</v>
+      </c>
+      <c r="B24" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="34">
+        <f>E7*E24+F7*F24+G7*G24+H7*H24+I7*I24+J7*J24+K7*K24+L7*L24+M7*M24+O7*O24+P7*P24+Q7*Q24+R7*R24+S7*S24+T7*T24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="36">
+        <f>E8*E24+F8*F24+G8*G24+H8*H24+I8*I24+J8*J24+K8*K24+L8*L24+M8*M24+O8*O24+P8*P24+Q8*Q24+R8*R24+S8*S24+T8*T24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="str">
+        <f>member!A25</f>
+        <v>侯盟</v>
+      </c>
+      <c r="B25" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="34">
+        <f>E7*E25+F7*F25+G7*G25+H7*H25+I7*I25+J7*J25+K7*K25+L7*L25+M7*M25+O7*O25+P7*P25+Q7*Q25+R7*R25+S7*S25+T7*T25</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="36">
+        <f>E8*E25+F8*F25+G8*G25+H8*H25+I8*I25+J8*J25+K8*K25+L8*L25+M8*M25+O8*O25+P8*P25+Q8*Q25+R8*R25+S8*S25+T8*T25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="str">
+        <f>member!A26</f>
+        <v>玖伍贰壹</v>
+      </c>
+      <c r="B26" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="34">
+        <f>E7*E26+F7*F26+G7*G26+H7*H26+I7*I26+J7*J26+K7*K26+L7*L26+M7*M26+O7*O26+P7*P26+Q7*Q26+R7*R26+S7*S26+T7*T26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="36">
+        <f>E8*E26+F8*F26+G8*G26+H8*H26+I8*I26+J8*J26+K8*K26+L8*L26+M8*M26+O8*O26+P8*P26+Q8*Q26+R8*R26+S8*S26+T8*T26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="str">
+        <f>member!A27</f>
+        <v>红色F50-超</v>
+      </c>
+      <c r="B27" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="34">
+        <f>E7*E27+F7*F27+G7*G27+H7*H27+I7*I27+J7*J27+K7*K27+L7*L27+M7*M27+O7*O27+P7*P27+Q7*Q27+R7*R27+S7*S27+T7*T27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="36">
+        <f>E8*E27+F8*F27+G8*G27+H8*H27+I8*I27+J8*J27+K8*K27+L8*L27+M8*M27+O8*O27+P8*P27+Q8*Q27+R8*R27+S8*S27+T8*T27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="str">
+        <f>member!A28</f>
+        <v>活了</v>
+      </c>
+      <c r="B28" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C28" s="34">
+        <f>E7*E28+F7*F28+G7*G28+H7*H28+I7*I28+J7*J28+K7*K28+L7*L28+M7*M28+O7*O28+P7*P28+Q7*Q28+R7*R28+S7*S28+T7*T28</f>
+        <v>30</v>
+      </c>
+      <c r="D28" s="36">
+        <f>E8*E28+F8*F28+G8*G28+H8*H28+I8*I28+J8*J28+K8*K28+L8*L28+M8*M28+O8*O28+P8*P28+Q8*Q28+R8*R28+S8*S28+T8*T28</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="str">
+        <f>member!A29</f>
+        <v>天赐</v>
+      </c>
+      <c r="B29" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="34">
+        <f>E7*E29+F7*F29+G7*G29+H7*H29+I7*I29+J7*J29+K7*K29+L7*L29+M7*M29+O7*O29+P7*P29+Q7*Q29+R7*R29+S7*S29+T7*T29</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="36">
+        <f>E8*E29+F8*F29+G8*G29+H8*H29+I8*I29+J8*J29+K8*K29+L8*L29+M8*M29+O8*O29+P8*P29+Q8*Q29+R8*R29+S8*S29+T8*T29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="str">
+        <f>member!A30</f>
+        <v>Shenghak</v>
+      </c>
+      <c r="B30" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="34">
+        <f>E7*E30+F7*F30+G7*G30+H7*H30+I7*I30+J7*J30+K7*K30+L7*L30+M7*M30+O7*O30+P7*P30+Q7*Q30+R7*R30+S7*S30+T7*T30</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="36">
+        <f>E8*E30+F8*F30+G8*G30+H8*H30+I8*I30+J8*J30+K8*K30+L8*L30+M8*M30+O8*O30+P8*P30+Q8*Q30+R8*R30+S8*S30+T8*T30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="str">
+        <f>member!A31</f>
+        <v>红色6号</v>
+      </c>
+      <c r="B31" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="34">
+        <f>E7*E31+F7*F31+G7*G31+H7*H31+I7*I31+J7*J31+K7*K31+L7*L31+M7*M31+O7*O31+P7*P31+Q7*Q31+R7*R31+S7*S31+T7*T31</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="36">
+        <f>E8*E31+F8*F31+G8*G31+H8*H31+I8*I31+J8*J31+K8*K31+L8*L31+M8*M31+O8*O31+P8*P31+Q8*Q31+R8*R31+S8*S31+T8*T31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="str">
+        <f>member!A32</f>
+        <v>微笑</v>
+      </c>
+      <c r="B32" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="34">
+        <f>E7*E32+F7*F32+G7*G32+H7*H32+I7*I32+J7*J32+K7*K32+L7*L32+M7*M32+O7*O32+P7*P32+Q7*Q32+R7*R32+S7*S32+T7*T32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="36">
+        <f>E8*E32+F8*F32+G8*G32+H8*H32+I8*I32+J8*J32+K8*K32+L8*L32+M8*M32+O8*O32+P8*P32+Q8*Q32+R8*R32+S8*S32+T8*T32</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="str">
+        <f>member!A33</f>
+        <v>77号-更心</v>
+      </c>
+      <c r="B33" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="34">
+        <f>E7*E33+F7*F33+G7*G33+H7*H33+I7*I33+J7*J33+K7*K33+L7*L33+M7*M33+O7*O33+P7*P33+Q7*Q33+R7*R33+S7*S33+T7*T33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="36">
+        <f>E8*E33+F8*F33+G8*G33+H8*H33+I8*I33+J8*J33+K8*K33+L8*L33+M8*M33+O8*O33+P8*P33+Q8*Q33+R8*R33+S8*S33+T8*T33</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="str">
+        <f>member!A34</f>
+        <v>更心朋友</v>
+      </c>
+      <c r="B34" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="34">
+        <f>E7*E34+F7*F34+G7*G34+H7*H34+I7*I34+J7*J34+K7*K34+L7*L34+M7*M34+O7*O34+P7*P34+Q7*Q34+R7*R34+S7*S34+T7*T34</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="36">
+        <f>E8*E34+F8*F34+G8*G34+H8*H34+I8*I34+J8*J34+K8*K34+L8*L34+M8*M34+O8*O34+P8*P34+Q8*Q34+R8*R34+S8*S34+T8*T34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="str">
+        <f>member!A35</f>
+        <v>8号-菜菜亮</v>
+      </c>
+      <c r="B35" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="34">
+        <f>E7*E35+F7*F35+G7*G35+H7*H35+I7*I35+J7*J35+K7*K35+L7*L35+M7*M35+O7*O35+P7*P35+Q7*Q35+R7*R35+S7*S35+T7*T35</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="36">
+        <f>E8*E35+F8*F35+G8*G35+H8*H35+I8*I35+J8*J35+K8*K35+L8*L35+M8*M35+O8*O35+P8*P35+Q8*Q35+R8*R35+S8*S35+T8*T35</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="str">
+        <f>member!A36</f>
+        <v>杨光朋友</v>
+      </c>
+      <c r="B36" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="34">
+        <f>E7*E36+F7*F36+G7*G36+H7*H36+I7*I36+J7*J36+K7*K36+L7*L36+M7*M36+O7*O36+P7*P36+Q7*Q36+R7*R36+S7*S36+T7*T36</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="36">
+        <f>E8*E36+F8*F36+G8*G36+H8*H36+I8*I36+J8*J36+K8*K36+L8*L36+M8*M36+O8*O36+P8*P36+Q8*Q36+R8*R36+S8*S36+T8*T36</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="str">
+        <f>member!A37</f>
+        <v>拂晓朋友</v>
+      </c>
+      <c r="B37" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="34">
+        <f>E7*E37+F7*F37+G7*G37+H7*H37+I7*I37+J7*J37+K7*K37+L7*L37+M7*M37+O7*O37+P7*P37+Q7*Q37+R7*R37+S7*S37+T7*T37</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="36">
+        <f>E8*E37+F8*F37+G8*G37+H8*H37+I8*I37+J8*J37+K8*K37+L8*L37+M8*M37+O8*O37+P8*P37+Q8*Q37+R8*R37+S8*S37+T8*T37</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="str">
+        <f>member!A38</f>
+        <v>4号-许多</v>
+      </c>
+      <c r="B38" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="34">
+        <f>E7*E38+F7*F38+G7*G38+H7*H38+I7*I38+J7*J38+K7*K38+L7*L38+M7*M38+O7*O38+P7*P38+Q7*Q38+R7*R38+S7*S38+T7*T38</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="36">
+        <f>E8*E38+F8*F38+G8*G38+H8*H38+I8*I38+J8*J38+K8*K38+L8*L38+M8*M38+O8*O38+P8*P38+Q8*Q38+R8*R38+S8*S38+T8*T38</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="str">
+        <f>member!A39</f>
+        <v>5号-正</v>
+      </c>
+      <c r="B39" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="34">
+        <f>E7*E39+F7*F39+G7*G39+H7*H39+I7*I39+J7*J39+K7*K39+L7*L39+M7*M39+O7*O39+P7*P39+Q7*Q39+R7*R39+S7*S39+T7*T39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="36">
+        <f>E8*E39+F8*F39+G8*G39+H8*H39+I8*I39+J8*J39+K8*K39+L8*L39+M8*M39+O8*O39+P8*P39+Q8*Q39+R8*R39+S8*S39+T8*T39</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="str">
+        <f>member!A40</f>
+        <v>勇敢的爬爬</v>
+      </c>
+      <c r="B40" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="34">
+        <f>E7*E40+F7*F40+G7*G40+H7*H40+I7*I40+J7*J40+K7*K40+L7*L40+M7*M40+O7*O40+P7*P40+Q7*Q40+R7*R40+S7*S40+T7*T40</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="36">
+        <f>E8*E40+F8*F40+G8*G40+H8*H40+I8*I40+J8*J40+K8*K40+L8*L40+M8*M40+O8*O40+P8*P40+Q8*Q40+R8*R40+S8*S40+T8*T40</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="str">
+        <f>member!A41</f>
+        <v>17号-4号字母</v>
+      </c>
+      <c r="B41" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="34">
+        <f>E7*E41+F7*F41+G7*G41+H7*H41+I7*I41+J7*J41+K7*K41+L7*L41+M7*M41+O7*O41+P7*P41+Q7*Q41+R7*R41+S7*S41+T7*T41</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="36">
+        <f>E8*E41+F8*F41+G8*G41+H8*H41+I8*I41+J8*J41+K8*K41+L8*L41+M8*M41+O8*O41+P8*P41+Q8*Q41+R8*R41+S8*S41+T8*T41</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="str">
+        <f>member!A42</f>
+        <v>雷雨</v>
+      </c>
+      <c r="B42" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="34">
+        <f>E7*E42+F7*F42+G7*G42+H7*H42+I7*I42+J7*J42+K7*K42+L7*L42+M7*M42+O7*O42+P7*P42+Q7*Q42+R7*R42+S7*S42+T7*T42</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="36">
+        <f>E8*E42+F8*F42+G8*G42+H8*H42+I8*I42+J8*J42+K8*K42+L8*L42+M8*M42+O8*O42+P8*P42+Q8*Q42+R8*R42+S8*S42+T8*T42</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="str">
+        <f>member!A43</f>
+        <v>西北偏北</v>
+      </c>
+      <c r="B43" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="34">
+        <f>E7*E43+F7*F43+G7*G43+H7*H43+I7*I43+J7*J43+K7*K43+L7*L43+M7*M43+O7*O43+P7*P43+Q7*Q43+R7*R43+S7*S43+T7*T43</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="36">
+        <f>E8*E43+F8*F43+G8*G43+H8*H43+I8*I43+J8*J43+K8*K43+L8*L43+M8*M43+O8*O43+P8*P43+Q8*Q43+R8*R43+S8*S43+T8*T43</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="str">
+        <f>member!A44</f>
+        <v>红色8号</v>
+      </c>
+      <c r="B44" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="34">
+        <f>E7*E44+F7*F44+G7*G44+H7*H44+I7*I44+J7*J44+K7*K44+L7*L44+M7*M44+O7*O44+P7*P44+Q7*Q44+R7*R44+S7*S44+T7*T44</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="36">
+        <f>E8*E44+F8*F44+G8*G44+H8*H44+I8*I44+J8*J44+K8*K44+L8*L44+M8*M44+O8*O44+P8*P44+Q8*Q44+R8*R44+S8*S44+T8*T44</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="str">
+        <f>member!A45</f>
+        <v>马耳他</v>
+      </c>
+      <c r="B45" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="34">
+        <f>E7*E45+F7*F45+G7*G45+H7*H45+I7*I45+J7*J45+K7*K45+L7*L45+M7*M45+O7*O45+P7*P45+Q7*Q45+R7*R45+S7*S45+T7*T45</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="36">
+        <f>E8*E45+F8*F45+G8*G45+H8*H45+I8*I45+J8*J45+K8*K45+L8*L45+M8*M45+O8*O45+P8*P45+Q8*Q45+R8*R45+S8*S45+T8*T45</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="11" t="str">
+        <f>member!A46</f>
+        <v>Cindy~陈猛</v>
+      </c>
+      <c r="B46" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C46" s="34">
+        <f>E7*E46+F7*F46+G7*G46+H7*H46+I7*I46+J7*J46+K7*K46+L7*L46+M7*M46+O7*O46+P7*P46+Q7*Q46+R7*R46+S7*S46+T7*T46</f>
+        <v>30</v>
+      </c>
+      <c r="D46" s="36">
+        <f>E8*E46+F8*F46+G8*G46+H8*H46+I8*I46+J8*J46+K8*K46+L8*L46+M8*M46+O8*O46+P8*P46+Q8*Q46+R8*R46+S8*S46+T8*T46</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="str">
+        <f>member!A47</f>
+        <v>张硕</v>
+      </c>
+      <c r="B47" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="34">
+        <f>E7*E47+F7*F47+G7*G47+H7*H47+I7*I47+J7*J47+K7*K47+L7*L47+M7*M47+O7*O47+P7*P47+Q7*Q47+R7*R47+S7*S47+T7*T47</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="36">
+        <f>E8*E47+F8*F47+G8*G47+H8*H47+I8*I47+J8*J47+K8*K47+L8*L47+M8*M47+O8*O47+P8*P47+Q8*Q47+R8*R47+S8*S47+T8*T47</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="str">
+        <f>member!A48</f>
+        <v>Violin</v>
+      </c>
+      <c r="B48" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="34">
+        <f>E7*E48+F7*F48+G7*G48+H7*H48+I7*I48+J7*J48+K7*K48+L7*L48+M7*M48+O7*O48+P7*P48+Q7*Q48+R7*R48+S7*S48+T7*T48</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="36">
+        <f>E8*E48+F8*F48+G8*G48+H8*H48+I8*I48+J8*J48+K8*K48+L8*L48+M8*M48+O8*O48+P8*P48+Q8*Q48+R8*R48+S8*S48+T8*T48</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="str">
+        <f>member!A49</f>
+        <v>87号陈磊</v>
+      </c>
+      <c r="B49" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="34">
+        <f>E7*E49+F7*F49+G7*G49+H7*H49+I7*I49+J7*J49+K7*K49+L7*L49+M7*M49+O7*O49+P7*P49+Q7*Q49+R7*R49+S7*S49+T7*T49</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="36">
+        <f>E8*E49+F8*F49+G8*G49+H8*H49+I8*I49+J8*J49+K8*K49+L8*L49+M8*M49+O8*O49+P8*P49+Q8*Q49+R8*R49+S8*S49+T8*T49</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="11" t="str">
+        <f>member!A50</f>
+        <v>水中阳光</v>
+      </c>
+      <c r="B50" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="34">
+        <f>E7*E50+F7*F50+G7*G50+H7*H50+I7*I50+J7*J50+K7*K50+L7*L50+M7*M50+O7*O50+P7*P50+Q7*Q50+R7*R50+S7*S50+T7*T50</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="36">
+        <f>E8*E50+F8*F50+G8*G50+H8*H50+I8*I50+J8*J50+K8*K50+L8*L50+M8*M50+O8*O50+P8*P50+Q8*Q50+R8*R50+S8*S50+T8*T50</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="11" t="str">
+        <f>member!A51</f>
+        <v>sam</v>
+      </c>
+      <c r="B51" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="34">
+        <f>E7*E51+F7*F51+G7*G51+H7*H51+I7*I51+J7*J51+K7*K51+L7*L51+M7*M51+O7*O51+P7*P51+Q7*Q51+R7*R51+S7*S51+T7*T51</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="36">
+        <f>E8*E51+F8*F51+G8*G51+H8*H51+I8*I51+J8*J51+K8*K51+L8*L51+M8*M51+O8*O51+P8*P51+Q8*Q51+R8*R51+S8*S51+T8*T51</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="11" t="str">
+        <f>member!A52</f>
+        <v>26 方亚</v>
+      </c>
+      <c r="B52" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C52" s="34">
+        <f>E7*E52+F7*F52+G7*G52+H7*H52+I7*I52+J7*J52+K7*K52+L7*L52+M7*M52+O7*O52+P7*P52+Q7*Q52+R7*R52+S7*S52+T7*T52</f>
+        <v>30</v>
+      </c>
+      <c r="D52" s="36">
+        <f>E8*E52+F8*F52+G8*G52+H8*H52+I8*I52+J8*J52+K8*K52+L8*L52+M8*M52+O8*O52+P8*P52+Q8*Q52+R8*R52+S8*S52+T8*T52</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="11" t="str">
+        <f>member!A53</f>
+        <v>维尼</v>
+      </c>
+      <c r="B53" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C53" s="34">
+        <f>E7*E53+F7*F53+G7*G53+H7*H53+I7*I53+J7*J53+K7*K53+L7*L53+M7*M53+O7*O53+P7*P53+Q7*Q53+R7*R53+S7*S53+T7*T53</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="36">
+        <f>E8*E53+F8*F53+G8*G53+H8*H53+I8*I53+J8*J53+K8*K53+L8*L53+M8*M53+O8*O53+P8*P53+Q8*Q53+R8*R53+S8*S53+T8*T53</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="11" t="str">
+        <f>member!A54</f>
+        <v>0号--张家宁</v>
+      </c>
+      <c r="B54" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="34">
+        <f>E7*E54+F7*F54+G7*G54+H7*H54+I7*I54+J7*J54+K7*K54+L7*L54+M7*M54+O7*O54+P7*P54+Q7*Q54+R7*R54+S7*S54+T7*T54</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="36">
+        <f>E8*E54+F8*F54+G8*G54+H8*H54+I8*I54+J8*J54+K8*K54+L8*L54+M8*M54+O8*O54+P8*P54+Q8*Q54+R8*R54+S8*S54+T8*T54</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="11" t="str">
+        <f>member!A55</f>
+        <v>泰山</v>
+      </c>
+      <c r="B55" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C55" s="34">
+        <f>E7*E55+F7*F55+G7*G55+H7*H55+I7*I55+J7*J55+K7*K55+L7*L55+M7*M55+O7*O55+P7*P55+Q7*Q55+R7*R55+S7*S55+T7*T55</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="36">
+        <f>E8*E55+F8*F55+G8*G55+H8*H55+I8*I55+J8*J55+K8*K55+L8*L55+M8*M55+O8*O55+P8*P55+Q8*Q55+R8*R55+S8*S55+T8*T55</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="11" t="str">
+        <f>member!A56</f>
+        <v>尚峰</v>
+      </c>
+      <c r="B56" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C56" s="34">
+        <f>E7*E56+F7*F56+G7*G56+H7*H56+I7*I56+J7*J56+K7*K56+L7*L56+M7*M56+O7*O56+P7*P56+Q7*Q56+R7*R56+S7*S56+T7*T56</f>
+        <v>30</v>
+      </c>
+      <c r="D56" s="36">
+        <f>E8*E56+F8*F56+G8*G56+H8*H56+I8*I56+J8*J56+K8*K56+L8*L56+M8*M56+O8*O56+P8*P56+Q8*Q56+R8*R56+S8*S56+T8*T56</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="11" t="str">
+        <f>member!A57</f>
+        <v>杨光</v>
+      </c>
+      <c r="B57" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="34">
+        <f>E7*E57+F7*F57+G7*G57+H7*H57+I7*I57+J7*J57+K7*K57+L7*L57+M7*M57+O7*O57+P7*P57+Q7*Q57+R7*R57+S7*S57+T7*T57</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="36">
+        <f>E8*E57+F8*F57+G8*G57+H8*H57+I8*I57+J8*J57+K8*K57+L8*L57+M8*M57+O8*O57+P8*P57+Q8*Q57+R8*R57+S8*S57+T8*T57</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="11" t="str">
+        <f>member!A58</f>
+        <v>小磊</v>
+      </c>
+      <c r="B58" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="34">
+        <f>E7*E58+F7*F58+G7*G58+H7*H58+I7*I58+J7*J58+K7*K58+L7*L58+M7*M58+O7*O58+P7*P58+Q7*Q58+R7*R58+S7*S58+T7*T58</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="36">
+        <f>E8*E58+F8*F58+G8*G58+H8*H58+I8*I58+J8*J58+K8*K58+L8*L58+M8*M58+O8*O58+P8*P58+Q8*Q58+R8*R58+S8*S58+T8*T58</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="11" t="str">
+        <f>member!A59</f>
+        <v>绿洲</v>
+      </c>
+      <c r="B59" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="34">
+        <f>E7*E59+F7*F59+G7*G59+H7*H59+I7*I59+J7*J59+K7*K59+L7*L59+M7*M59+O7*O59+P7*P59+Q7*Q59+R7*R59+S7*S59+T7*T59</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="36">
+        <f>E8*E59+F8*F59+G8*G59+H8*H59+I8*I59+J8*J59+K8*K59+L8*L59+M8*M59+O8*O59+P8*P59+Q8*Q59+R8*R59+S8*S59+T8*T59</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="11" t="str">
+        <f>member!A60</f>
+        <v>孙伟</v>
+      </c>
+      <c r="B60" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="34">
+        <f>E7*E60+F7*F60+G7*G60+H7*H60+I7*I60+J7*J60+K7*K60+L7*L60+M7*M60+O7*O60+P7*P60+Q7*Q60+R7*R60+S7*S60+T7*T60</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="36">
+        <f>E8*E60+F8*F60+G8*G60+H8*H60+I8*I60+J8*J60+K8*K60+L8*L60+M8*M60+O8*O60+P8*P60+Q8*Q60+R8*R60+S8*S60+T8*T60</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="11" t="str">
+        <f>member!A61</f>
+        <v>古轮木</v>
+      </c>
+      <c r="B61" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C61" s="34">
+        <f>E7*E61+F7*F61+G7*G61+H7*H61+I7*I61+J7*J61+K7*K61+L7*L61+M7*M61+O7*O61+P7*P61+Q7*Q61+R7*R61+S7*S61+T7*T61</f>
+        <v>30</v>
+      </c>
+      <c r="D61" s="36">
+        <f>E8*E61+F8*F61+G8*G61+H8*H61+I8*I61+J8*J61+K8*K61+L8*L61+M8*M61+O8*O61+P8*P61+Q8*Q61+R8*R61+S8*S61+T8*T61</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="str">
+        <f>member!A62</f>
+        <v>makoko</v>
+      </c>
+      <c r="B62" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="34">
+        <f>E7*E62+F7*F62+G7*G62+H7*H62+I7*I62+J7*J62+K7*K62+L7*L62+M7*M62+O7*O62+P7*P62+Q7*Q62+R7*R62+S7*S62+T7*T62</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="36">
+        <f>E8*E62+F8*F62+G8*G62+H8*H62+I8*I62+J8*J62+K8*K62+L8*L62+M8*M62+O8*O62+P8*P62+Q8*Q62+R8*R62+S8*S62+T8*T62</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="str">
+        <f>member!A63</f>
+        <v>玲-深蓝</v>
+      </c>
+      <c r="B63" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="34">
+        <f>E7*E63+F7*F63+G7*G63+H7*H63+I7*I63+J7*J63+K7*K63+L7*L63+M7*M63+N7*N63+O7*O63+P7*P63+Q7*Q63+R7*R63+S7*S63+T7*T63</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="36">
+        <f>E8*E63+F8*F63+G8*G63+H8*H63+I8*I63+J8*J63+K8*K63+L8*L63+M8*M63+N8*N63+O8*O63+P8*P63+Q8*Q63+R8*R63+S8*S63+T8*T63</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="11" t="str">
+        <f>member!A64</f>
+        <v>玲-小马</v>
+      </c>
+      <c r="B64" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C64" s="34">
+        <f>E7*E64+F7*F64+G7*G64+H7*H64+I7*I64+J7*J64+K7*K64+L7*L64+M7*M64+N7*N64+O7*O64+P7*P64+Q7*Q64+R7*R64+S7*S64+T7*T64</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="36">
+        <f>E8*E64+F8*F64+G8*G64+H8*H64+I8*I64+J8*J64+K8*K64+L8*L64+M8*M64+N8*N64+O8*O64+P8*P64+Q8*Q64+R8*R64+S8*S64+T8*T64</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="11" t="str">
+        <f>member!A65</f>
+        <v>玲-高</v>
+      </c>
+      <c r="B65" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="34">
+        <f>E7*E65+F7*F65+G7*G65+H7*H65+I7*I65+J7*J65+K7*K65+L7*L65+M7*M65+N7*N65+O7*O65+P7*P65+Q7*Q65+R7*R65+S7*S65+T7*T65</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="36">
+        <f>E8*E65+F8*F65+G8*G65+H8*H65+I8*I65+J8*J65+K8*K65+L8*L65+M8*M65+N8*N65+O8*O65+P8*P65+Q8*Q65+R8*R65+S8*S65+T8*T65</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="11" t="str">
+        <f>member!A66</f>
+        <v>玲-秦</v>
+      </c>
+      <c r="B66" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="34">
+        <f>E7*E66+F7*F66+G7*G66+H7*H66+I7*I66+J7*J66+K7*K66+L7*L66+M7*M66+N7*N66+O7*O66+P7*P66+Q7*Q66+R7*R66+S7*S66+T7*T66</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="36">
+        <f>E8*E66+F8*F66+G8*G66+H8*H66+I8*I66+J8*J66+K8*K66+L8*L66+M8*M66+N8*N66+O8*O66+P8*P66+Q8*Q66+R8*R66+S8*S66+T8*T66</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="11" t="str">
+        <f>member!A67</f>
+        <v>玲-手</v>
+      </c>
+      <c r="B67" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="34">
+        <f>E7*E67+F7*F67+G7*G67+H7*H67+I7*I67+J7*J67+K7*K67+L7*L67+M7*M67+N7*N67+O7*O67+P7*P67+Q7*Q67+R7*R67+S7*S67+T7*T67</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="36">
+        <f>E8*E67+F8*F67+G8*G67+H8*H67+I8*I67+J8*J67+K8*K67+L8*L67+M8*M67+N8*N67+O8*O67+P8*P67+Q8*Q67+R8*R67+S8*S67+T8*T67</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="11" t="str">
+        <f>member!A68</f>
+        <v>度日</v>
+      </c>
+      <c r="B68" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="34">
+        <f>E7*E68+F7*F68+G7*G68+H7*H68+I7*I68+J7*J68+K7*K68+L7*L68+M7*M68+N7*N68+O7*O68+P7*P68+Q7*Q68+R7*R68+S7*S68+T7*T68</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="36">
+        <f>E8*E68+F8*F68+G8*G68+H8*H68+I8*I68+J8*J68+K8*K68+L8*L68+M8*M68+N8*N68+O8*O68+P8*P68+Q8*Q68+R8*R68+S8*S68+T8*T68</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="11" t="str">
+        <f>member!A69</f>
+        <v>肖飞</v>
+      </c>
+      <c r="B69" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C69" s="34">
+        <f>E7*E69+F7*F69+G7*G69+H7*H69+I7*I69+J7*J69+K7*K69+L7*L69+M7*M69+N7*N69+O7*O69+P7*P69+Q7*Q69+R7*R69+S7*S69+T7*T69</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="36">
+        <f>E8*E69+F8*F69+G8*G69+H8*H69+I8*I69+J8*J69+K8*K69+L8*L69+M8*M69+N8*N69+O8*O69+P8*P69+Q8*Q69+R8*R69+S8*S69+T8*T69</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="11" t="str">
+        <f>member!A70</f>
+        <v>玲-大马</v>
+      </c>
+      <c r="B70" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C70" s="34">
+        <f>E7*E70+F7*F70+G7*G70+H7*H70+I7*I70+J7*J70+K7*K70+L7*L70+M7*M70+N7*N70+O7*O70+P7*P70+Q7*Q70+R7*R70+S7*S70+T7*T70</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="36">
+        <f>E8*E70+F8*F70+G8*G70+H8*H70+I8*I70+J8*J70+K8*K70+L8*L70+M8*M70+N8*N70+O8*O70+P8*P70+Q8*Q70+R8*R70+S8*S70+T8*T70</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="11" t="str">
+        <f>member!A71</f>
+        <v>刀外甥</v>
+      </c>
+      <c r="B71" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C71" s="34">
+        <f>E7*E71+F7*F71+G7*G71+H7*H71+I7*I71+J7*J71+K7*K71+L7*L71+M7*M71+N7*N71+O7*O71+P7*P71+Q7*Q71+R7*R71+S7*S71+T7*T71</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="36">
+        <f>E8*E71+F8*F71+G8*G71+H8*H71+I8*I71+J8*J71+K8*K71+L8*L71+M8*M71+N8*N71+O8*O71+P8*P71+Q8*Q71+R8*R71+S8*S71+T8*T71</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="11" t="str">
+        <f>member!A72</f>
+        <v>红星</v>
+      </c>
+      <c r="B72" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C72" s="34">
+        <f>E7*E72+F7*F72+G7*G72+H7*H72+I7*I72+J7*J72+K7*K72+L7*L72+M7*M72+N7*N72+O7*O72+P7*P72+Q7*Q72+R7*R72+S7*S72+T7*T72</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="36">
+        <f>E8*E72+F8*F72+G8*G72+H8*H72+I8*I72+J8*J72+K8*K72+L8*L72+M8*M72+N8*N72+O8*O72+P8*P72+Q8*Q72+R8*R72+S8*S72+T8*T72</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="11" t="str">
+        <f>member!A73</f>
+        <v>小新</v>
+      </c>
+      <c r="B73" s="34">
+        <f t="shared" ref="B73:B100" si="6">COUNT(E73:T73)</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="34">
+        <f>E7*E73+F7*F73+G7*G73+H7*H73+I7*I73+J7*J73+K7*K73+L7*L73+M7*M73+N7*N73+O7*O73+P7*P73+Q7*Q73+R7*R73+S7*S73+T7*T73</f>
+        <v>30</v>
+      </c>
+      <c r="D73" s="36">
+        <f>E8*E73+F8*F73+G8*G73+H8*H73+I8*I73+J8*J73+K8*K73+L8*L73+M8*M73+N8*N73+O8*O73+P8*P73+Q8*Q73+R8*R73+S8*S73+T8*T73</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="11" t="str">
+        <f>member!A74</f>
+        <v>狼</v>
+      </c>
+      <c r="B74" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C74" s="34">
+        <f>E7*E74+F7*F74+G7*G74+H7*H74+I7*I74+J7*J74+K7*K74+L7*L74+M7*M74+N7*N74+O7*O74+P7*P74+Q7*Q74+R7*R74+S7*S74+T7*T74</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="36">
+        <f>E8*E74+F8*F74+G8*G74+H8*H74+I8*I74+J8*J74+K8*K74+L8*L74+M8*M74+N8*N74+O8*O74+P8*P74+Q8*Q74+R8*R74+S8*S74+T8*T74</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="11" t="str">
+        <f>member!A75</f>
+        <v>AC Spark</v>
+      </c>
+      <c r="B75" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C75" s="34">
+        <f>E7*E75+F7*F75+G7*G75+H7*H75+I7*I75+J7*J75+K7*K75+L7*L75+M7*M75+N7*N75+O7*O75+P7*P75+Q7*Q75+R7*R75+S7*S75+T7*T75</f>
+        <v>30</v>
+      </c>
+      <c r="D75" s="36">
+        <f>E8*E75+F8*F75+G8*G75+H8*H75+I8*I75+J8*J75+K8*K75+L8*L75+M8*M75+N8*N75+O8*O75+P8*P75+Q8*Q75+R8*R75+S8*S75+T8*T75</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="11" t="str">
+        <f>member!A76</f>
+        <v>行盛于言</v>
+      </c>
+      <c r="B76" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C76" s="34">
+        <f>E7*E76+F7*F76+G7*G76+H7*H76+I7*I76+J7*J76+K7*K76+L7*L76+M7*M76+N7*N76+O7*O76+P7*P76+Q7*Q76+R7*R76+S7*S76+T7*T76</f>
+        <v>30</v>
+      </c>
+      <c r="D76" s="36">
+        <f>E8*E76+F8*F76+G8*G76+H8*H76+I8*I76+J8*J76+K8*K76+L8*L76+M8*M76+N8*N76+O8*O76+P8*P76+Q8*Q76+R8*R76+S8*S76+T8*T76</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="11" t="str">
+        <f>member!A77</f>
+        <v>戒影</v>
+      </c>
+      <c r="B77" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C77" s="34">
+        <f>E7*E77+F7*F77+G7*G77+H7*H77+I7*I77+J7*J77+K7*K77+L7*L77+M7*M77+N7*N77+O7*O77+P7*P77+Q7*Q77+R7*R77+S7*S77+T7*T77</f>
+        <v>30</v>
+      </c>
+      <c r="D77" s="36">
+        <f>E8*E77+F8*F77+G8*G77+H8*H77+I8*I77+J8*J77+K8*K77+L8*L77+M8*M77+N8*N77+O8*O77+P8*P77+Q8*Q77+R8*R77+S8*S77+T8*T77</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="11" t="str">
+        <f>member!A78</f>
+        <v>赵聪</v>
+      </c>
+      <c r="B78" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C78" s="34">
+        <f>E7*E78+F7*F78+G7*G78+H7*H78+I7*I78+J7*J78+K7*K78+L7*L78+M7*M78+N7*N78+O7*O78+P7*P78+Q7*Q78+R7*R78+S7*S78+T7*T78</f>
+        <v>30</v>
+      </c>
+      <c r="D78" s="36">
+        <f>E8*E78+F8*F78+G8*G78+H8*H78+I8*I78+J8*J78+K8*K78+L8*L78+M8*M78+N8*N78+O8*O78+P8*P78+Q8*Q78+R8*R78+S8*S78+T8*T78</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="11" t="str">
+        <f>member!A79</f>
+        <v>祈网见</v>
+      </c>
+      <c r="B79" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C79" s="34">
+        <f>E7*E79+F7*F79+G7*G79+H7*H79+I7*I79+J7*J79+K7*K79+L7*L79+M7*M79+N7*N79+O7*O79+P7*P79+Q7*Q79+R7*R79+S7*S79+T7*T79</f>
+        <v>30</v>
+      </c>
+      <c r="D79" s="36">
+        <f>E8*E79+F8*F79+G8*G79+H8*H79+I8*I79+J8*J79+K8*K79+L8*L79+M8*M79+N8*N79+O8*O79+P8*P79+Q8*Q79+R8*R79+S8*S79+T8*T79</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="11" t="str">
+        <f>member!A80</f>
+        <v>小严</v>
+      </c>
+      <c r="B80" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C80" s="34">
+        <f>E7*E80+F7*F80+G7*G80+H7*H80+I7*I80+J7*J80+K7*K80+L7*L80+M7*M80+N7*N80+O7*O80+P7*P80+Q7*Q80+R7*R80+S7*S80+T7*T80</f>
+        <v>30</v>
+      </c>
+      <c r="D80" s="36">
+        <f>E8*E80+F8*F80+G8*G80+H8*H80+I8*I80+J8*J80+K8*K80+L8*L80+M8*M80+N8*N80+O8*O80+P8*P80+Q8*Q80+R8*R80+S8*S80+T8*T80</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="11" t="str">
+        <f>member!A81</f>
+        <v>大罗</v>
+      </c>
+      <c r="B81" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C81" s="34">
+        <f>E7*E81+F7*F81+G7*G81+H7*H81+I7*I81+J7*J81+K7*K81+L7*L81+M7*M81+N7*N81+O7*O81+P7*P81+Q7*Q81+R7*R81+S7*S81+T7*T81</f>
+        <v>30</v>
+      </c>
+      <c r="D81" s="36">
+        <f>E8*E81+F8*F81+G8*G81+H8*H81+I8*I81+J8*J81+K8*K81+L8*L81+M8*M81+N8*N81+O8*O81+P8*P81+Q8*Q81+R8*R81+S8*S81+T8*T81</f>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="11" t="str">
+        <f>member!A82</f>
+        <v>新</v>
+      </c>
+      <c r="B82" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C82" s="34">
+        <f>E7*E82+F7*F82+G7*G82+H7*H82+I7*I82+J7*J82+K7*K82+L7*L82+M7*M82+N7*N82+O7*O82+P7*P82+Q7*Q82+R7*R82+S7*S82+T7*T82</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="36">
+        <f>E8*E82+F8*F82+G8*G82+H8*H82+I8*I82+J8*J82+K8*K82+L8*L82+M8*M82+N8*N82+O8*O82+P8*P82+Q8*Q82+R8*R82+S8*S82+T8*T82</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="11" t="str">
+        <f>member!A83</f>
+        <v>新</v>
+      </c>
+      <c r="B83" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C83" s="34">
+        <f>E7*E83+F7*F83+G7*G83+H7*H83+I7*I83+J7*J83+K7*K83+L7*L83+M7*M83+N7*N83+O7*O83+P7*P83+Q7*Q83+R7*R83+S7*S83+T7*T83</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="36">
+        <f>E8*E83+F8*F83+G8*G83+H8*H83+I8*I83+J8*J83+K8*K83+L8*L83+M8*M83+N8*N83+O8*O83+P8*P83+Q8*Q83+R8*R83+S8*S83+T8*T83</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="11" t="str">
+        <f>member!A84</f>
+        <v>新</v>
+      </c>
+      <c r="B84" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C84" s="34">
+        <f>E7*E84+F7*F84+G7*G84+H7*H84+I7*I84+J7*J84+K7*K84+L7*L84+M7*M84+N7*N84+O7*O84+P7*P84+Q7*Q84+R7*R84+S7*S84+T7*T84</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="36">
+        <f>E8*E84+F8*F84+G8*G84+H8*H84+I8*I84+J8*J84+K8*K84+L8*L84+M8*M84+N8*N84+O8*O84+P8*P84+Q8*Q84+R8*R84+S8*S84+T8*T84</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="11" t="str">
+        <f>member!A85</f>
+        <v>新</v>
+      </c>
+      <c r="B85" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C85" s="34">
+        <f>E7*E85+F7*F85+G7*G85+H7*H85+I7*I85+J7*J85+K7*K85+L7*L85+M7*M85+N7*N85+O7*O85+P7*P85+Q7*Q85+R7*R85+S7*S85+T7*T85</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="36">
+        <f>E8*E85+F8*F85+G8*G85+H8*H85+I8*I85+J8*J85+K8*K85+L8*L85+M8*M85+N8*N85+O8*O85+P8*P85+Q8*Q85+R8*R85+S8*S85+T8*T85</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="11" t="str">
+        <f>member!A86</f>
+        <v>新</v>
+      </c>
+      <c r="B86" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C86" s="34">
+        <f>E7*E86+F7*F86+G7*G86+H7*H86+I7*I86+J7*J86+K7*K86+L7*L86+M7*M86+N7*N86+O7*O86+P7*P86+Q7*Q86+R7*R86+S7*S86+T7*T86</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="36">
+        <f>E8*E86+F8*F86+G8*G86+H8*H86+I8*I86+J8*J86+K8*K86+L8*L86+M8*M86+N8*N86+O8*O86+P8*P86+Q8*Q86+R8*R86+S8*S86+T8*T86</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="11" t="str">
+        <f>member!A87</f>
+        <v>新</v>
+      </c>
+      <c r="B87" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C87" s="34">
+        <f>E7*E87+F7*F87+G7*G87+H7*H87+I7*I87+J7*J87+K7*K87+L7*L87+M7*M87+N7*N87+O7*O87+P7*P87+Q7*Q87+R7*R87+S7*S87+T7*T87</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="36">
+        <f>E8*E87+F8*F87+G8*G87+H8*H87+I8*I87+J8*J87+K8*K87+L8*L87+M8*M87+N8*N87+O8*O87+P8*P87+Q8*Q87+R8*R87+S8*S87+T8*T87</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="11" t="str">
+        <f>member!A88</f>
+        <v>新</v>
+      </c>
+      <c r="B88" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C88" s="34">
+        <f>E7*E88+F7*F88+G7*G88+H7*H88+I7*I88+J7*J88+K7*K88+L7*L88+M7*M88+N7*N88+O7*O88+P7*P88+Q7*Q88+R7*R88+S7*S88+T7*T88</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="36">
+        <f>E8*E88+F8*F88+G8*G88+H8*H88+I8*I88+J8*J88+K8*K88+L8*L88+M8*M88+N8*N88+O8*O88+P8*P88+Q8*Q88+R8*R88+S8*S88+T8*T88</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="11" t="str">
+        <f>member!A89</f>
+        <v>新</v>
+      </c>
+      <c r="B89" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C89" s="34">
+        <f>E7*E89+F7*F89+G7*G89+H7*H89+I7*I89+J7*J89+K7*K89+L7*L89+M7*M89+N7*N89+O7*O89+P7*P89+Q7*Q89+R7*R89+S7*S89+T7*T89</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="36">
+        <f>E8*E89+F8*F89+G8*G89+H8*H89+I8*I89+J8*J89+K8*K89+L8*L89+M8*M89+N8*N89+O8*O89+P8*P89+Q8*Q89+R8*R89+S8*S89+T8*T89</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="11" t="str">
+        <f>member!A90</f>
+        <v>新</v>
+      </c>
+      <c r="B90" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C90" s="34">
+        <f>E7*E90+F7*F90+G7*G90+H7*H90+I7*I90+J7*J90+K7*K90+L7*L90+M7*M90+N7*N90+O7*O90+P7*P90+Q7*Q90+R7*R90+S7*S90+T7*T90</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="36">
+        <f>E8*E90+F8*F90+G8*G90+H8*H90+I8*I90+J8*J90+K8*K90+L8*L90+M8*M90+N8*N90+O8*O90+P8*P90+Q8*Q90+R8*R90+S8*S90+T8*T90</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="11" t="str">
+        <f>member!A91</f>
+        <v>新</v>
+      </c>
+      <c r="B91" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C91" s="34">
+        <f>E7*E91+F7*F91+G7*G91+H7*H91+I7*I91+J7*J91+K7*K91+L7*L91+M7*M91+N7*N91+O7*O91+P7*P91+Q7*Q91+R7*R91+S7*S91+T7*T91</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="36">
+        <f>E8*E91+F8*F91+G8*G91+H8*H91+I8*I91+J8*J91+K8*K91+L8*L91+M8*M91+N8*N91+O8*O91+P8*P91+Q8*Q91+R8*R91+S8*S91+T8*T91</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="11" t="str">
+        <f>member!A92</f>
+        <v>新</v>
+      </c>
+      <c r="B92" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C92" s="34">
+        <f>E7*E92+F7*F92+G7*G92+H7*H92+I7*I92+J7*J92+K7*K92+L7*L92+M7*M92+N7*N92+O7*O92+P7*P92+Q7*Q92+R7*R92+S7*S92+T7*T92</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="36">
+        <f>E8*E92+F8*F92+G8*G92+H8*H92+I8*I92+J8*J92+K8*K92+L8*L92+M8*M92+N8*N92+O8*O92+P8*P92+Q8*Q92+R8*R92+S8*S92+T8*T92</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="11" t="str">
+        <f>member!A93</f>
+        <v>新</v>
+      </c>
+      <c r="B93" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C93" s="34">
+        <f>E7*E93+F7*F93+G7*G93+H7*H93+I7*I93+J7*J93+K7*K93+L7*L93+M7*M93+N7*N93+O7*O93+P7*P93+Q7*Q93+R7*R93+S7*S93+T7*T93</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="36">
+        <f>E8*E93+F8*F93+G8*G93+H8*H93+I8*I93+J8*J93+K8*K93+L8*L93+M8*M93+N8*N93+O8*O93+P8*P93+Q8*Q93+R8*R93+S8*S93+T8*T93</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="11" t="str">
+        <f>member!A94</f>
+        <v>新</v>
+      </c>
+      <c r="B94" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C94" s="34">
+        <f>E7*E94+F7*F94+G7*G94+H7*H94+I7*I94+J7*J94+K7*K94+L7*L94+M7*M94+N7*N94+O7*O94+P7*P94+Q7*Q94+R7*R94+S7*S94+T7*T94</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="36">
+        <f>E8*E94+F8*F94+G8*G94+H8*H94+I8*I94+J8*J94+K8*K94+L8*L94+M8*M94+N8*N94+O8*O94+P8*P94+Q8*Q94+R8*R94+S8*S94+T8*T94</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="11" t="str">
+        <f>member!A95</f>
+        <v>新</v>
+      </c>
+      <c r="B95" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C95" s="34">
+        <f>E7*E95+F7*F95+G7*G95+H7*H95+I7*I95+J7*J95+K7*K95+L7*L95+M7*M95+N7*N95+O7*O95+P7*P95+Q7*Q95+R7*R95+S7*S95+T7*T95</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="36">
+        <f>E8*E95+F8*F95+G8*G95+H8*H95+I8*I95+J8*J95+K8*K95+L8*L95+M8*M95+N8*N95+O8*O95+P8*P95+Q8*Q95+R8*R95+S8*S95+T8*T95</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="11" t="str">
+        <f>member!A96</f>
+        <v>新</v>
+      </c>
+      <c r="B96" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C96" s="34">
+        <f>E7*E96+F7*F96+G7*G96+H7*H96+I7*I96+J7*J96+K7*K96+L7*L96+M7*M96+N7*N96+O7*O96+P7*P96+Q7*Q96+R7*R96+S7*S96+T7*T96</f>
+        <v>0</v>
+      </c>
+      <c r="D96" s="36">
+        <f>E8*E96+F8*F96+G8*G96+H8*H96+I8*I96+J8*J96+K8*K96+L8*L96+M8*M96+N8*N96+O8*O96+P8*P96+Q8*Q96+R8*R96+S8*S96+T8*T96</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="11" t="str">
+        <f>member!A97</f>
+        <v>新</v>
+      </c>
+      <c r="B97" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C97" s="34">
+        <f>E7*E97+F7*F97+G7*G97+H7*H97+I7*I97+J7*J97+K7*K97+L7*L97+M7*M97+N7*N97+O7*O97+P7*P97+Q7*Q97+R7*R97+S7*S97+T7*T97</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="36">
+        <f>E8*E97+F8*F97+G8*G97+H8*H97+I8*I97+J8*J97+K8*K97+L8*L97+M8*M97+N8*N97+O8*O97+P8*P97+Q8*Q97+R8*R97+S8*S97+T8*T97</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="11" t="str">
+        <f>member!A98</f>
+        <v>新</v>
+      </c>
+      <c r="B98" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C98" s="34">
+        <f>E7*E98+F7*F98+G7*G98+H7*H98+I7*I98+J7*J98+K7*K98+L7*L98+M7*M98+N7*N98+O7*O98+P7*P98+Q7*Q98+R7*R98+S7*S98+T7*T98</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="36">
+        <f>E8*E98+F8*F98+G8*G98+H8*H98+I8*I98+J8*J98+K8*K98+L8*L98+M8*M98+N8*N98+O8*O98+P8*P98+Q8*Q98+R8*R98+S8*S98+T8*T98</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="11" t="str">
+        <f>member!A99</f>
+        <v>新</v>
+      </c>
+      <c r="B99" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C99" s="34">
+        <f>E7*E99+F7*F99+G7*G99+H7*H99+I7*I99+J7*J99+K7*K99+L7*L99+M7*M99+N7*N99+O7*O99+P7*P99+Q7*Q99+R7*R99+S7*S99+T7*T99</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="36">
+        <f>E8*E99+F8*F99+G8*G99+H8*H99+I8*I99+J8*J99+K8*K99+L8*L99+M8*M99+N8*N99+O8*O99+P8*P99+Q8*Q99+R8*R99+S8*S99+T8*T99</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="11" t="str">
+        <f>member!A100</f>
+        <v>新</v>
+      </c>
+      <c r="B100" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C100" s="34">
+        <f>E7*E100+F7*F100+G7*G100+H7*H100+I7*I100+J7*J100+K7*K100+L7*L100+M7*M100+N7*N100+O7*O100+P7*P100+Q7*Q100+R7*R100+S7*S100+T7*T100</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="36">
+        <f>E8*E100+F8*F100+G8*G100+H8*H100+I8*I100+J8*J100+K8*K100+L8*L100+M8*M100+N8*N100+O8*O100+P8*P100+Q8*Q100+R8*R100+S8*S100+T8*T100</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23119,7 +25359,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23158,7 +25398,7 @@
       </c>
       <c r="B2" s="39">
         <f>SUM(B3:B51)</f>
-        <v>373</v>
+        <v>513</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="42" t="s">
@@ -23178,7 +25418,7 @@
         <v>-5</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D3" s="14">
         <v>41109</v>
@@ -23187,7 +25427,7 @@
         <v>-90</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="14">
         <v>41114</v>
@@ -23196,7 +25436,7 @@
         <v>228</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -23207,7 +25447,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D4" s="14">
         <v>41114</v>
@@ -23216,7 +25456,7 @@
         <v>-360</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -23227,7 +25467,7 @@
         <v>-240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="14">
         